--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jawessel\opl\717HW10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jawessel\opl\ENV717A11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
   <si>
     <t>NumBuses</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>UnitsByBus</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>NumYears</t>
@@ -219,14 +216,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -510,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,7 +546,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="6">
         <v>26</v>
@@ -569,23 +566,23 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="12">
+        <v>31</v>
+      </c>
+      <c r="B7" s="11">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1084,17 +1081,17 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
       <c r="E40" s="2"/>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
       <c r="J40" s="2"/>
       <c r="K40" s="4"/>
       <c r="N40" s="4"/>
@@ -1297,11 +1294,11 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
       <c r="Q48" t="s">
         <v>18</v>
       </c>
@@ -2253,15 +2250,6 @@
       <c r="R69" s="6">
         <f t="shared" si="5"/>
         <v>3.06</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="F71" t="s">
-        <v>28</v>
-      </c>
-      <c r="G71">
-        <f>SUM(MaxGen)</f>
-        <v>8894.6999999999989</v>
       </c>
     </row>
   </sheetData>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1355,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="6">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L50" s="2">
         <v>1</v>
@@ -1401,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="J51" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L51" s="2">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="J52" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L52" s="2">
         <v>3</v>
@@ -1493,7 +1493,7 @@
         <v>4</v>
       </c>
       <c r="J53" s="6">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L53" s="2">
         <v>4</v>
@@ -1539,7 +1539,7 @@
         <v>5</v>
       </c>
       <c r="J54" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L54" s="3">
         <v>5</v>
@@ -1585,7 +1585,7 @@
         <v>6</v>
       </c>
       <c r="J55" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L55" s="3">
         <v>6</v>
@@ -1631,7 +1631,7 @@
         <v>7</v>
       </c>
       <c r="J56" s="6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L56" s="3">
         <v>7</v>
@@ -1677,7 +1677,7 @@
         <v>8</v>
       </c>
       <c r="J57" s="6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L57" s="3">
         <v>8</v>
@@ -1723,7 +1723,7 @@
         <v>9</v>
       </c>
       <c r="J58" s="6">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="L58" s="3">
         <v>9</v>
@@ -1769,7 +1769,7 @@
         <v>10</v>
       </c>
       <c r="J59" s="6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L59" s="3">
         <v>10</v>
@@ -1815,7 +1815,7 @@
         <v>11</v>
       </c>
       <c r="J60" s="6">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L60" s="3">
         <v>11</v>
@@ -1861,7 +1861,7 @@
         <v>12</v>
       </c>
       <c r="J61" s="6">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L61" s="3">
         <v>12</v>
@@ -1907,7 +1907,7 @@
         <v>13</v>
       </c>
       <c r="J62" s="6">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="L62" s="3">
         <v>13</v>
@@ -1953,7 +1953,7 @@
         <v>14</v>
       </c>
       <c r="J63" s="6">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="L63" s="3">
         <v>14</v>
@@ -1999,7 +1999,7 @@
         <v>15</v>
       </c>
       <c r="J64" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L64" s="3">
         <v>15</v>
@@ -2045,7 +2045,7 @@
         <v>16</v>
       </c>
       <c r="J65" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L65" s="3">
         <v>16</v>
@@ -2091,7 +2091,7 @@
         <v>17</v>
       </c>
       <c r="J66" s="6">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="L66" s="3">
         <v>17</v>
@@ -2137,7 +2137,7 @@
         <v>18</v>
       </c>
       <c r="J67" s="6">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="L67" s="3">
         <v>18</v>
@@ -2183,7 +2183,7 @@
         <v>19</v>
       </c>
       <c r="J68" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L68" s="3">
         <v>19</v>
@@ -2229,7 +2229,7 @@
         <v>20</v>
       </c>
       <c r="J69" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L69" s="3">
         <v>20</v>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -16,6 +16,8 @@
   </sheets>
   <definedNames>
     <definedName name="BusDemand">Sheet2!$B$11:$D$36</definedName>
+    <definedName name="CH4_rate">Sheet2!$X$50:$X$69</definedName>
+    <definedName name="CO2_rate">Sheet2!$W$50:$W$69</definedName>
     <definedName name="LineCapacity">Sheet2!$O$42:$O$44</definedName>
     <definedName name="LineFromBus">Sheet2!$G$42:$I$44</definedName>
     <definedName name="LineReactance">Sheet2!$L$42:$L$44</definedName>
@@ -23,10 +25,13 @@
     <definedName name="MarginalC">Sheet2!$M$50:$M$69</definedName>
     <definedName name="MaxGen">Sheet2!$G$50:$G$69</definedName>
     <definedName name="MinGen">Sheet2!$J$50:$J$69</definedName>
+    <definedName name="N2O_rate">Sheet2!$Y$50:$Y$69</definedName>
+    <definedName name="NOx_rate">Sheet2!$U$50:$U$69</definedName>
     <definedName name="NumBuses">Sheet2!$B$1</definedName>
     <definedName name="NumLines">Sheet2!$B$2</definedName>
     <definedName name="NumUnits">Sheet2!$B$3</definedName>
     <definedName name="NumYears">Sheet2!$B$4</definedName>
+    <definedName name="SO2_rate">Sheet2!$V$50:$V$69</definedName>
     <definedName name="UnitsByBus">Sheet2!$B$50:$D$69</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>NumBuses</t>
   </si>
@@ -135,6 +140,30 @@
   </si>
   <si>
     <t>Annual Demand Growth</t>
+  </si>
+  <si>
+    <t>Annual NOx total output emission rate (lb/MWh)</t>
+  </si>
+  <si>
+    <t>Annual SO2 total output emission rate (lb/MWh)</t>
+  </si>
+  <si>
+    <t>Annual CO2 total output emission rate (lb/MWh)</t>
+  </si>
+  <si>
+    <t>Annual CH4 total output emission rate (lb/MWh)</t>
+  </si>
+  <si>
+    <t>Annual N2O total output emission rate (lb/MWh)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Peak Hour? (Y/N)</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -195,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -213,17 +242,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -507,20 +548,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="K46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y50" sqref="Y50:Y69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
     <col min="17" max="17" width="9.54296875" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
+    <col min="21" max="21" width="16.36328125" customWidth="1"/>
+    <col min="22" max="23" width="16.26953125" customWidth="1"/>
+    <col min="24" max="24" width="16.1796875" customWidth="1"/>
+    <col min="25" max="25" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -528,51 +574,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="6">
+        <v>4765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="6">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4765</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="11">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
         <v>29</v>
       </c>
@@ -580,8 +630,8 @@
       <c r="D9" s="12"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2">
@@ -593,477 +643,557 @@
       <c r="D10" s="2">
         <v>3</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2020</v>
       </c>
       <c r="B11" s="7">
-        <f>0.15*B5</f>
+        <f>0.15*E11</f>
         <v>714.75</v>
       </c>
       <c r="C11" s="7">
-        <f>0.5*B5</f>
+        <f>0.5*E11</f>
         <v>2382.5</v>
       </c>
       <c r="D11" s="7">
-        <f>0.35*B5</f>
+        <f>0.35*E11</f>
         <v>1667.75</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="2">
+        <f>F2</f>
+        <v>4765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2021</v>
       </c>
       <c r="B12" s="7">
-        <f>B11*(1+$B$7)</f>
-        <v>721.18274999999994</v>
+        <f t="shared" ref="B12:B36" si="0">0.15*E12</f>
+        <v>721.18274999999983</v>
       </c>
       <c r="C12" s="7">
-        <f t="shared" ref="C12:D12" si="0">C11*(1+$B$7)</f>
+        <f t="shared" ref="C12:C36" si="1">0.5*E12</f>
         <v>2403.9424999999997</v>
       </c>
       <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>1682.7597499999999</v>
-      </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <f t="shared" ref="D12:D36" si="2">0.35*E12</f>
+        <v>1682.7597499999997</v>
+      </c>
+      <c r="E12" s="16">
+        <f>E11*(1+$F$3)</f>
+        <v>4807.8849999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2022</v>
       </c>
       <c r="B13" s="7">
-        <f t="shared" ref="B13:B36" si="1">B12*(1+$B$7)</f>
+        <f t="shared" si="0"/>
         <v>727.67339474999983</v>
       </c>
       <c r="C13" s="7">
-        <f t="shared" ref="C13:C36" si="2">C12*(1+$B$7)</f>
+        <f t="shared" si="1"/>
         <v>2425.5779824999995</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" ref="D13:D36" si="3">D12*(1+$B$7)</f>
-        <v>1697.9045877499998</v>
-      </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1697.9045877499996</v>
+      </c>
+      <c r="E13" s="16">
+        <f>E12*(1+$F$3)</f>
+        <v>4851.155964999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>2023</v>
       </c>
       <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>734.22245530274972</v>
+      </c>
+      <c r="C14" s="7">
         <f t="shared" si="1"/>
-        <v>734.22245530274972</v>
-      </c>
-      <c r="C14" s="7">
+        <v>2447.4081843424992</v>
+      </c>
+      <c r="D14" s="7">
         <f t="shared" si="2"/>
-        <v>2447.4081843424992</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" si="3"/>
-        <v>1713.1857290397495</v>
-      </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1713.1857290397493</v>
+      </c>
+      <c r="E14" s="16">
+        <f>E13*(1+$F$3)</f>
+        <v>4894.8163686849985</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>2024</v>
       </c>
       <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>740.83045740047453</v>
+      </c>
+      <c r="C15" s="7">
         <f t="shared" si="1"/>
-        <v>740.83045740047442</v>
-      </c>
-      <c r="C15" s="7">
+        <v>2469.4348580015817</v>
+      </c>
+      <c r="D15" s="7">
         <f t="shared" si="2"/>
-        <v>2469.4348580015817</v>
-      </c>
-      <c r="D15" s="7">
-        <f t="shared" si="3"/>
         <v>1728.604400601107</v>
       </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="16">
+        <f>E14*(1+$F$3)</f>
+        <v>4938.8697160031634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>2025</v>
       </c>
       <c r="B16" s="7">
+        <f t="shared" si="0"/>
+        <v>747.49793151707877</v>
+      </c>
+      <c r="C16" s="7">
         <f t="shared" si="1"/>
-        <v>747.49793151707865</v>
-      </c>
-      <c r="C16" s="7">
+        <v>2491.6597717235959</v>
+      </c>
+      <c r="D16" s="7">
         <f t="shared" si="2"/>
-        <v>2491.6597717235959</v>
-      </c>
-      <c r="D16" s="7">
-        <f t="shared" si="3"/>
-        <v>1744.1618402065169</v>
-      </c>
-      <c r="E16" s="9"/>
+        <v>1744.1618402065171</v>
+      </c>
+      <c r="E16" s="16">
+        <f>E15*(1+$F$3)</f>
+        <v>4983.3195434471918</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>2026</v>
       </c>
       <c r="B17" s="7">
+        <f t="shared" si="0"/>
+        <v>754.22541290073241</v>
+      </c>
+      <c r="C17" s="7">
         <f t="shared" si="1"/>
-        <v>754.22541290073229</v>
-      </c>
-      <c r="C17" s="7">
+        <v>2514.0847096691082</v>
+      </c>
+      <c r="D17" s="7">
         <f t="shared" si="2"/>
-        <v>2514.0847096691082</v>
-      </c>
-      <c r="D17" s="7">
-        <f t="shared" si="3"/>
-        <v>1759.8592967683753</v>
-      </c>
-      <c r="E17" s="9"/>
+        <v>1759.8592967683755</v>
+      </c>
+      <c r="E17" s="16">
+        <f>E16*(1+$F$3)</f>
+        <v>5028.1694193382164</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>2027</v>
       </c>
       <c r="B18" s="7">
+        <f t="shared" si="0"/>
+        <v>761.01344161683892</v>
+      </c>
+      <c r="C18" s="7">
         <f t="shared" si="1"/>
-        <v>761.0134416168388</v>
-      </c>
-      <c r="C18" s="7">
+        <v>2536.7114720561299</v>
+      </c>
+      <c r="D18" s="7">
         <f t="shared" si="2"/>
-        <v>2536.7114720561299</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="3"/>
-        <v>1775.6980304392905</v>
-      </c>
-      <c r="E18" s="9"/>
+        <v>1775.6980304392907</v>
+      </c>
+      <c r="E18" s="16">
+        <f>E17*(1+$F$3)</f>
+        <v>5073.4229441122598</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>2028</v>
       </c>
       <c r="B19" s="7">
+        <f t="shared" si="0"/>
+        <v>767.86256259139043</v>
+      </c>
+      <c r="C19" s="7">
         <f t="shared" si="1"/>
-        <v>767.86256259139031</v>
-      </c>
-      <c r="C19" s="7">
+        <v>2559.5418753046347</v>
+      </c>
+      <c r="D19" s="7">
         <f t="shared" si="2"/>
-        <v>2559.5418753046347</v>
-      </c>
-      <c r="D19" s="7">
-        <f t="shared" si="3"/>
-        <v>1791.6793127132439</v>
-      </c>
-      <c r="E19" s="9"/>
+        <v>1791.6793127132441</v>
+      </c>
+      <c r="E19" s="16">
+        <f>E18*(1+$F$3)</f>
+        <v>5119.0837506092694</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>2029</v>
       </c>
       <c r="B20" s="7">
+        <f t="shared" si="0"/>
+        <v>774.77332565471283</v>
+      </c>
+      <c r="C20" s="7">
         <f t="shared" si="1"/>
-        <v>774.77332565471272</v>
-      </c>
-      <c r="C20" s="7">
+        <v>2582.5777521823761</v>
+      </c>
+      <c r="D20" s="7">
         <f t="shared" si="2"/>
-        <v>2582.5777521823761</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" si="3"/>
-        <v>1807.8044265276628</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>1807.8044265276631</v>
+      </c>
+      <c r="E20" s="16">
+        <f>E19*(1+$F$3)</f>
+        <v>5165.1555043647522</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>2030</v>
       </c>
       <c r="B21" s="7">
+        <f t="shared" si="0"/>
+        <v>781.74628558560516</v>
+      </c>
+      <c r="C21" s="7">
         <f t="shared" si="1"/>
-        <v>781.74628558560505</v>
-      </c>
-      <c r="C21" s="7">
+        <v>2605.8209519520174</v>
+      </c>
+      <c r="D21" s="7">
         <f t="shared" si="2"/>
-        <v>2605.8209519520174</v>
-      </c>
-      <c r="D21" s="7">
-        <f t="shared" si="3"/>
-        <v>1824.0746663664115</v>
-      </c>
-      <c r="E21" s="9"/>
+        <v>1824.074666366412</v>
+      </c>
+      <c r="E21" s="16">
+        <f>E20*(1+$F$3)</f>
+        <v>5211.6419039040347</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>2031</v>
       </c>
       <c r="B22" s="7">
+        <f t="shared" si="0"/>
+        <v>788.7820021558756</v>
+      </c>
+      <c r="C22" s="7">
         <f t="shared" si="1"/>
-        <v>788.78200215587538</v>
-      </c>
-      <c r="C22" s="7">
+        <v>2629.2733405195854</v>
+      </c>
+      <c r="D22" s="7">
         <f t="shared" si="2"/>
-        <v>2629.2733405195854</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" si="3"/>
-        <v>1840.491338363709</v>
-      </c>
-      <c r="E22" s="9"/>
+        <v>1840.4913383637097</v>
+      </c>
+      <c r="E22" s="16">
+        <f>E21*(1+$F$3)</f>
+        <v>5258.5466810391708</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>2032</v>
       </c>
       <c r="B23" s="7">
+        <f t="shared" si="0"/>
+        <v>795.88104017527849</v>
+      </c>
+      <c r="C23" s="7">
         <f t="shared" si="1"/>
-        <v>795.88104017527814</v>
-      </c>
-      <c r="C23" s="7">
+        <v>2652.9368005842616</v>
+      </c>
+      <c r="D23" s="7">
         <f t="shared" si="2"/>
-        <v>2652.9368005842616</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" si="3"/>
-        <v>1857.0557604089822</v>
-      </c>
-      <c r="E23" s="9"/>
+        <v>1857.0557604089829</v>
+      </c>
+      <c r="E23" s="16">
+        <f>E22*(1+$F$3)</f>
+        <v>5305.8736011685232</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>2033</v>
       </c>
       <c r="B24" s="7">
+        <f t="shared" si="0"/>
+        <v>803.04396953685591</v>
+      </c>
+      <c r="C24" s="7">
         <f t="shared" si="1"/>
-        <v>803.04396953685557</v>
-      </c>
-      <c r="C24" s="7">
+        <v>2676.8132317895197</v>
+      </c>
+      <c r="D24" s="7">
         <f t="shared" si="2"/>
-        <v>2676.8132317895197</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" si="3"/>
-        <v>1873.7692622526629</v>
-      </c>
-      <c r="E24" s="9"/>
+        <v>1873.7692622526636</v>
+      </c>
+      <c r="E24" s="16">
+        <f>E23*(1+$F$3)</f>
+        <v>5353.6264635790394</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>2034</v>
       </c>
       <c r="B25" s="7">
+        <f t="shared" si="0"/>
+        <v>810.2713652626876</v>
+      </c>
+      <c r="C25" s="7">
         <f t="shared" si="1"/>
-        <v>810.27136526268714</v>
-      </c>
-      <c r="C25" s="7">
+        <v>2700.9045508756253</v>
+      </c>
+      <c r="D25" s="7">
         <f t="shared" si="2"/>
-        <v>2700.9045508756253</v>
-      </c>
-      <c r="D25" s="7">
-        <f t="shared" si="3"/>
-        <v>1890.6331856129366</v>
-      </c>
-      <c r="E25" s="9"/>
+        <v>1890.6331856129375</v>
+      </c>
+      <c r="E25" s="16">
+        <f>E24*(1+$F$3)</f>
+        <v>5401.8091017512506</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>2035</v>
       </c>
       <c r="B26" s="7">
+        <f t="shared" si="0"/>
+        <v>817.56380755005171</v>
+      </c>
+      <c r="C26" s="7">
         <f t="shared" si="1"/>
-        <v>817.56380755005125</v>
-      </c>
-      <c r="C26" s="7">
+        <v>2725.2126918335057</v>
+      </c>
+      <c r="D26" s="7">
         <f t="shared" si="2"/>
-        <v>2725.2126918335057</v>
-      </c>
-      <c r="D26" s="7">
-        <f t="shared" si="3"/>
-        <v>1907.6488842834528</v>
-      </c>
-      <c r="E26" s="9"/>
+        <v>1907.6488842834538</v>
+      </c>
+      <c r="E26" s="16">
+        <f>E25*(1+$F$3)</f>
+        <v>5450.4253836670114</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>2036</v>
       </c>
       <c r="B27" s="7">
+        <f t="shared" si="0"/>
+        <v>824.92188181800202</v>
+      </c>
+      <c r="C27" s="7">
         <f t="shared" si="1"/>
-        <v>824.92188181800168</v>
-      </c>
-      <c r="C27" s="7">
+        <v>2749.7396060600067</v>
+      </c>
+      <c r="D27" s="7">
         <f t="shared" si="2"/>
-        <v>2749.7396060600067</v>
-      </c>
-      <c r="D27" s="7">
-        <f t="shared" si="3"/>
-        <v>1924.8177242420038</v>
-      </c>
-      <c r="E27" s="9"/>
+        <v>1924.8177242420045</v>
+      </c>
+      <c r="E27" s="16">
+        <f>E26*(1+$F$3)</f>
+        <v>5499.4792121200135</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>2037</v>
       </c>
       <c r="B28" s="7">
+        <f t="shared" si="0"/>
+        <v>832.34617875436402</v>
+      </c>
+      <c r="C28" s="7">
         <f t="shared" si="1"/>
-        <v>832.34617875436356</v>
-      </c>
-      <c r="C28" s="7">
+        <v>2774.4872625145467</v>
+      </c>
+      <c r="D28" s="7">
         <f t="shared" si="2"/>
-        <v>2774.4872625145467</v>
-      </c>
-      <c r="D28" s="7">
-        <f t="shared" si="3"/>
-        <v>1942.1410837601816</v>
-      </c>
-      <c r="E28" s="9"/>
+        <v>1942.1410837601825</v>
+      </c>
+      <c r="E28" s="16">
+        <f>E27*(1+$F$3)</f>
+        <v>5548.9745250290935</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>2038</v>
       </c>
       <c r="B29" s="7">
+        <f t="shared" si="0"/>
+        <v>839.83729436315321</v>
+      </c>
+      <c r="C29" s="7">
         <f t="shared" si="1"/>
-        <v>839.83729436315275</v>
-      </c>
-      <c r="C29" s="7">
+        <v>2799.4576478771774</v>
+      </c>
+      <c r="D29" s="7">
         <f t="shared" si="2"/>
-        <v>2799.4576478771774</v>
-      </c>
-      <c r="D29" s="7">
-        <f t="shared" si="3"/>
-        <v>1959.620353514023</v>
-      </c>
-      <c r="E29" s="9"/>
+        <v>1959.6203535140239</v>
+      </c>
+      <c r="E29" s="16">
+        <f>E28*(1+$F$3)</f>
+        <v>5598.9152957543547</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>2039</v>
       </c>
       <c r="B30" s="7">
+        <f t="shared" si="0"/>
+        <v>847.39583001242147</v>
+      </c>
+      <c r="C30" s="7">
         <f t="shared" si="1"/>
-        <v>847.39583001242102</v>
-      </c>
-      <c r="C30" s="7">
+        <v>2824.6527667080718</v>
+      </c>
+      <c r="D30" s="7">
         <f t="shared" si="2"/>
-        <v>2824.6527667080718</v>
-      </c>
-      <c r="D30" s="7">
-        <f t="shared" si="3"/>
-        <v>1977.2569366956491</v>
-      </c>
-      <c r="E30" s="9"/>
+        <v>1977.2569366956502</v>
+      </c>
+      <c r="E30" s="16">
+        <f>E29*(1+$F$3)</f>
+        <v>5649.3055334161436</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>2040</v>
       </c>
       <c r="B31" s="7">
+        <f t="shared" si="0"/>
+        <v>855.02239248253318</v>
+      </c>
+      <c r="C31" s="7">
         <f t="shared" si="1"/>
-        <v>855.02239248253272</v>
-      </c>
-      <c r="C31" s="7">
+        <v>2850.0746416084439</v>
+      </c>
+      <c r="D31" s="7">
         <f t="shared" si="2"/>
-        <v>2850.0746416084439</v>
-      </c>
-      <c r="D31" s="7">
-        <f t="shared" si="3"/>
-        <v>1995.0522491259096</v>
-      </c>
-      <c r="E31" s="9"/>
+        <v>1995.0522491259105</v>
+      </c>
+      <c r="E31" s="16">
+        <f>E30*(1+$F$3)</f>
+        <v>5700.1492832168879</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>2041</v>
       </c>
       <c r="B32" s="7">
+        <f t="shared" si="0"/>
+        <v>862.71759401487577</v>
+      </c>
+      <c r="C32" s="7">
         <f t="shared" si="1"/>
-        <v>862.71759401487543</v>
-      </c>
-      <c r="C32" s="7">
+        <v>2875.7253133829195</v>
+      </c>
+      <c r="D32" s="7">
         <f t="shared" si="2"/>
-        <v>2875.7253133829195</v>
-      </c>
-      <c r="D32" s="7">
-        <f t="shared" si="3"/>
-        <v>2013.0077193680427</v>
-      </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2013.0077193680436</v>
+      </c>
+      <c r="E32" s="16">
+        <f>E31*(1+$F$3)</f>
+        <v>5751.4506267658389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>2042</v>
       </c>
       <c r="B33" s="7">
+        <f t="shared" si="0"/>
+        <v>870.48205236100966</v>
+      </c>
+      <c r="C33" s="7">
         <f t="shared" si="1"/>
-        <v>870.48205236100921</v>
-      </c>
-      <c r="C33" s="7">
+        <v>2901.6068412033655</v>
+      </c>
+      <c r="D33" s="7">
         <f t="shared" si="2"/>
-        <v>2901.6068412033655</v>
-      </c>
-      <c r="D33" s="7">
-        <f t="shared" si="3"/>
-        <v>2031.1247888423547</v>
-      </c>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2031.1247888423557</v>
+      </c>
+      <c r="E33" s="16">
+        <f>E32*(1+$F$3)</f>
+        <v>5803.2136824067311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>2043</v>
       </c>
       <c r="B34" s="7">
+        <f t="shared" si="0"/>
+        <v>878.31639083225866</v>
+      </c>
+      <c r="C34" s="7">
         <f t="shared" si="1"/>
-        <v>878.31639083225821</v>
-      </c>
-      <c r="C34" s="7">
+        <v>2927.7213027741955</v>
+      </c>
+      <c r="D34" s="7">
         <f t="shared" si="2"/>
-        <v>2927.7213027741955</v>
-      </c>
-      <c r="D34" s="7">
-        <f t="shared" si="3"/>
-        <v>2049.4049119419356</v>
-      </c>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2049.4049119419369</v>
+      </c>
+      <c r="E34" s="16">
+        <f>E33*(1+$F$3)</f>
+        <v>5855.4426055483909</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>2044</v>
       </c>
       <c r="B35" s="7">
+        <f t="shared" si="0"/>
+        <v>886.22123834974877</v>
+      </c>
+      <c r="C35" s="7">
         <f t="shared" si="1"/>
-        <v>886.22123834974843</v>
-      </c>
-      <c r="C35" s="7">
+        <v>2954.0707944991627</v>
+      </c>
+      <c r="D35" s="7">
         <f t="shared" si="2"/>
-        <v>2954.0707944991627</v>
-      </c>
-      <c r="D35" s="7">
-        <f t="shared" si="3"/>
-        <v>2067.8495561494128</v>
-      </c>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2067.8495561494137</v>
+      </c>
+      <c r="E35" s="16">
+        <f>E34*(1+$F$3)</f>
+        <v>5908.1415889983255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>2045</v>
       </c>
       <c r="B36" s="7">
+        <f t="shared" si="0"/>
+        <v>894.19722949489642</v>
+      </c>
+      <c r="C36" s="7">
         <f t="shared" si="1"/>
-        <v>894.19722949489608</v>
-      </c>
-      <c r="C36" s="7">
+        <v>2980.6574316496549</v>
+      </c>
+      <c r="D36" s="7">
         <f t="shared" si="2"/>
-        <v>2980.6574316496549</v>
-      </c>
-      <c r="D36" s="7">
-        <f t="shared" si="3"/>
-        <v>2086.4602021547571</v>
-      </c>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2086.4602021547585</v>
+      </c>
+      <c r="E36" s="16">
+        <f>E35*(1+$F$3)</f>
+        <v>5961.3148632993098</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>3</v>
       </c>
@@ -1080,7 +1210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B40" s="13" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1226,7 @@
       <c r="K40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>5</v>
       </c>
@@ -1177,7 +1307,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
@@ -1221,7 +1351,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
@@ -1268,7 +1398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>27</v>
       </c>
@@ -1292,8 +1422,24 @@
       <c r="R47" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U47" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="V47" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="W47" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="X47" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y47" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z47" s="14"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B48" s="13" t="s">
         <v>8</v>
       </c>
@@ -1305,8 +1451,14 @@
       <c r="R48" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="14"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1483,17 @@
       <c r="O49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T49" t="s">
+        <v>10</v>
+      </c>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="14"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -1377,8 +1538,26 @@
         <f>IF(EXACT(P50,$Q$42),$R$42,IF(EXACT(P50,$Q$43),$R$43,IF(EXACT(P50,$Q$44),$R$44,0)))</f>
         <v>3.06</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T50" s="11">
+        <v>1</v>
+      </c>
+      <c r="U50" s="6">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="V50" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W50" s="6">
+        <v>1540.787</v>
+      </c>
+      <c r="X50" s="6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Y50" s="6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>2</v>
       </c>
@@ -1407,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="M51" s="8">
-        <f t="shared" ref="M51:M69" si="4">Q51*R51*1000/1000000</f>
+        <f t="shared" ref="M51:M69" si="3">Q51*R51*1000/1000000</f>
         <v>23.617080000000001</v>
       </c>
       <c r="O51" s="3">
@@ -1420,11 +1599,29 @@
         <v>7718</v>
       </c>
       <c r="R51" s="6">
-        <f t="shared" ref="R51:R69" si="5">IF(EXACT(P51,$Q$42),$R$42,IF(EXACT(P51,$Q$43),$R$43,IF(EXACT(P51,$Q$44),$R$44,0)))</f>
+        <f t="shared" ref="R51:R69" si="4">IF(EXACT(P51,$Q$42),$R$42,IF(EXACT(P51,$Q$43),$R$43,IF(EXACT(P51,$Q$44),$R$44,0)))</f>
         <v>3.06</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T51" s="11">
+        <v>2</v>
+      </c>
+      <c r="U51" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="V51" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="W51" s="6">
+        <v>917.32500000000005</v>
+      </c>
+      <c r="X51" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Y51" s="6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>3</v>
       </c>
@@ -1453,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="M52" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28.115279999999998</v>
       </c>
       <c r="O52" s="3">
@@ -1466,11 +1663,29 @@
         <v>9188</v>
       </c>
       <c r="R52" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.06</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T52" s="11">
+        <v>3</v>
+      </c>
+      <c r="U52" s="6">
+        <v>24.811</v>
+      </c>
+      <c r="V52" s="6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="W52" s="6">
+        <v>1073.9280000000001</v>
+      </c>
+      <c r="X52" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="Y52" s="6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>4</v>
       </c>
@@ -1499,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="M53" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21.77496</v>
       </c>
       <c r="O53" s="3">
@@ -1512,11 +1727,29 @@
         <v>7116</v>
       </c>
       <c r="R53" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.06</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T53" s="11">
+        <v>4</v>
+      </c>
+      <c r="U53" s="6">
+        <v>1.056</v>
+      </c>
+      <c r="V53" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="W53" s="6">
+        <v>845.83</v>
+      </c>
+      <c r="X53" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Y53" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>5</v>
       </c>
@@ -1545,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="M54" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23.94144</v>
       </c>
       <c r="O54" s="3">
@@ -1558,11 +1791,29 @@
         <v>7824</v>
       </c>
       <c r="R54" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.06</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T54" s="11">
+        <v>5</v>
+      </c>
+      <c r="U54" s="6">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="V54" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W54" s="6">
+        <v>930.02099999999996</v>
+      </c>
+      <c r="X54" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Y54" s="6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>6</v>
       </c>
@@ -1591,7 +1842,7 @@
         <v>6</v>
       </c>
       <c r="M55" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>38.22552000000001</v>
       </c>
       <c r="O55" s="3">
@@ -1604,11 +1855,29 @@
         <v>12492</v>
       </c>
       <c r="R55" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.06</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T55" s="11">
+        <v>6</v>
+      </c>
+      <c r="U55" s="6">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="V55" s="6">
+        <v>0</v>
+      </c>
+      <c r="W55" s="6">
+        <v>1460.1579999999999</v>
+      </c>
+      <c r="X55" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Y55" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>7</v>
       </c>
@@ -1637,7 +1906,7 @@
         <v>7</v>
       </c>
       <c r="M56" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6982999999999999</v>
       </c>
       <c r="O56" s="3">
@@ -1650,11 +1919,29 @@
         <v>555</v>
       </c>
       <c r="R56" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.06</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T56" s="11">
+        <v>7</v>
+      </c>
+      <c r="U56" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="V56" s="6">
+        <v>0</v>
+      </c>
+      <c r="W56" s="6">
+        <v>65.930999999999997</v>
+      </c>
+      <c r="X56" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Y56" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>8</v>
       </c>
@@ -1683,7 +1970,7 @@
         <v>8</v>
       </c>
       <c r="M57" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36.677160000000001</v>
       </c>
       <c r="O57" s="3">
@@ -1696,11 +1983,29 @@
         <v>11986</v>
       </c>
       <c r="R57" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.06</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T57" s="11">
+        <v>8</v>
+      </c>
+      <c r="U57" s="6">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="V57" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W57" s="6">
+        <v>1424.5930000000001</v>
+      </c>
+      <c r="X57" s="6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="Y57" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>9</v>
       </c>
@@ -1729,7 +2034,7 @@
         <v>9</v>
       </c>
       <c r="M58" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23.494679999999999</v>
       </c>
       <c r="O58" s="3">
@@ -1742,11 +2047,29 @@
         <v>7678</v>
       </c>
       <c r="R58" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.06</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T58" s="11">
+        <v>9</v>
+      </c>
+      <c r="U58" s="6">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="V58" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W58" s="6">
+        <v>912.65499999999997</v>
+      </c>
+      <c r="X58" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="Y58" s="6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>10</v>
       </c>
@@ -1775,7 +2098,7 @@
         <v>10</v>
       </c>
       <c r="M59" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31.606739999999999</v>
       </c>
       <c r="O59" s="3">
@@ -1788,11 +2111,29 @@
         <v>10329</v>
       </c>
       <c r="R59" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.06</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T59" s="11">
+        <v>10</v>
+      </c>
+      <c r="U59" s="6">
+        <v>1.306</v>
+      </c>
+      <c r="V59" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W59" s="6">
+        <v>1235.3320000000001</v>
+      </c>
+      <c r="X59" s="6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Y59" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>11</v>
       </c>
@@ -1821,7 +2162,7 @@
         <v>11</v>
       </c>
       <c r="M60" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>38.996639999999999</v>
       </c>
       <c r="O60" s="3">
@@ -1834,11 +2175,29 @@
         <v>12744</v>
       </c>
       <c r="R60" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.06</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T60" s="11">
+        <v>11</v>
+      </c>
+      <c r="U60" s="6">
+        <v>2.9769999999999999</v>
+      </c>
+      <c r="V60" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W60" s="6">
+        <v>1514.692</v>
+      </c>
+      <c r="X60" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Y60" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>12</v>
       </c>
@@ -1867,7 +2226,7 @@
         <v>12</v>
       </c>
       <c r="M61" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35.954999999999998</v>
       </c>
       <c r="O61" s="3">
@@ -1880,11 +2239,29 @@
         <v>11750</v>
       </c>
       <c r="R61" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.06</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T61" s="11">
+        <v>12</v>
+      </c>
+      <c r="U61" s="6">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="V61" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="W61" s="6">
+        <v>1397.9780000000001</v>
+      </c>
+      <c r="X61" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Y61" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>13</v>
       </c>
@@ -1913,7 +2290,7 @@
         <v>13</v>
       </c>
       <c r="M62" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26.289359999999999</v>
       </c>
       <c r="O62" s="3">
@@ -1926,11 +2303,29 @@
         <v>12171</v>
       </c>
       <c r="R62" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.16</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T62" s="11">
+        <v>13</v>
+      </c>
+      <c r="U62" s="6">
+        <v>2.74</v>
+      </c>
+      <c r="V62" s="6">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="W62" s="6">
+        <v>2551.596</v>
+      </c>
+      <c r="X62" s="6">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="Y62" s="6">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>14</v>
       </c>
@@ -1959,7 +2354,7 @@
         <v>14</v>
       </c>
       <c r="M63" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34.819740000000003</v>
       </c>
       <c r="O63" s="3">
@@ -1972,11 +2367,29 @@
         <v>11379</v>
       </c>
       <c r="R63" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.06</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T63" s="11">
+        <v>14</v>
+      </c>
+      <c r="U63" s="6">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="V63" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="W63" s="6">
+        <v>1352.424</v>
+      </c>
+      <c r="X63" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Y63" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>15</v>
       </c>
@@ -2005,7 +2418,7 @@
         <v>15</v>
       </c>
       <c r="M64" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>37.647179999999999</v>
       </c>
       <c r="O64" s="3">
@@ -2018,11 +2431,29 @@
         <v>12303</v>
       </c>
       <c r="R64" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.06</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T64" s="11">
+        <v>15</v>
+      </c>
+      <c r="U64" s="6">
+        <v>3.8889999999999998</v>
+      </c>
+      <c r="V64" s="6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="W64" s="6">
+        <v>1436.3489999999999</v>
+      </c>
+      <c r="X64" s="6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="Y64" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>16</v>
       </c>
@@ -2051,7 +2482,7 @@
         <v>16</v>
       </c>
       <c r="M65" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25.404119999999999</v>
       </c>
       <c r="O65" s="3">
@@ -2064,11 +2495,29 @@
         <v>8302</v>
       </c>
       <c r="R65" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.06</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T65" s="11">
+        <v>16</v>
+      </c>
+      <c r="U65" s="6">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="V65" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W65" s="6">
+        <v>986.73699999999997</v>
+      </c>
+      <c r="X65" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Y65" s="6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>17</v>
       </c>
@@ -2097,7 +2546,7 @@
         <v>17</v>
       </c>
       <c r="M66" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23.453280000000003</v>
       </c>
       <c r="O66" s="3">
@@ -2110,11 +2559,29 @@
         <v>10858</v>
       </c>
       <c r="R66" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.16</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T66" s="11">
+        <v>17</v>
+      </c>
+      <c r="U66" s="6">
+        <v>3.786</v>
+      </c>
+      <c r="V66" s="6">
+        <v>1.365</v>
+      </c>
+      <c r="W66" s="6">
+        <v>2277.605</v>
+      </c>
+      <c r="X66" s="6">
+        <v>0.249</v>
+      </c>
+      <c r="Y66" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>18</v>
       </c>
@@ -2143,7 +2610,7 @@
         <v>18</v>
       </c>
       <c r="M67" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23.647680000000001</v>
       </c>
       <c r="O67" s="3">
@@ -2156,11 +2623,29 @@
         <v>10948</v>
       </c>
       <c r="R67" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.16</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T67" s="11">
+        <v>18</v>
+      </c>
+      <c r="U67" s="6">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="V67" s="6">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="W67" s="6">
+        <v>2246.4659999999999</v>
+      </c>
+      <c r="X67" s="6">
+        <v>0.223</v>
+      </c>
+      <c r="Y67" s="6">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>19</v>
       </c>
@@ -2189,7 +2674,7 @@
         <v>19</v>
       </c>
       <c r="M68" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>223.99503999999999</v>
       </c>
       <c r="O68" s="3">
@@ -2202,11 +2687,29 @@
         <v>17834</v>
       </c>
       <c r="R68" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12.56</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T68" s="11">
+        <v>19</v>
+      </c>
+      <c r="U68" s="6">
+        <v>15.976000000000001</v>
+      </c>
+      <c r="V68" s="6">
+        <v>9.0060000000000002</v>
+      </c>
+      <c r="W68" s="6">
+        <v>2912.8049999999998</v>
+      </c>
+      <c r="X68" s="6">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y68" s="6">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>20</v>
       </c>
@@ -2235,7 +2738,7 @@
         <v>20</v>
       </c>
       <c r="M69" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36.931139999999999</v>
       </c>
       <c r="O69" s="3">
@@ -2248,16 +2751,42 @@
         <v>12069</v>
       </c>
       <c r="R69" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.06</v>
       </c>
+      <c r="T69" s="11">
+        <v>20</v>
+      </c>
+      <c r="U69" s="6">
+        <v>2.1019999999999999</v>
+      </c>
+      <c r="V69" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="W69" s="6">
+        <v>1434.461</v>
+      </c>
+      <c r="X69" s="6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="Y69" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="Y47:Y49"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="G40:I40"/>
     <mergeCell ref="B48:D48"/>
+    <mergeCell ref="U47:U49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -18,6 +18,7 @@
     <definedName name="BusDemand">Sheet2!$C$11:$E$36</definedName>
     <definedName name="CH4_rate">Sheet2!$Y$50:$Y$89</definedName>
     <definedName name="CO2_rate">Sheet2!$X$50:$X$89</definedName>
+    <definedName name="DiscRate">Sheet2!$G$1</definedName>
     <definedName name="LineCapacity">Sheet2!$P$42:$P$44</definedName>
     <definedName name="LineFromBus">Sheet2!$H$42:$J$44</definedName>
     <definedName name="LineReactance">Sheet2!$M$42:$M$44</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="84">
   <si>
     <t>NumBuses</t>
   </si>
@@ -293,6 +294,9 @@
   </si>
   <si>
     <t>Nameplate Capacity (MW)</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
   </si>
 </sst>
 </file>
@@ -360,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -416,6 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,7 +705,7 @@
   <dimension ref="A1:AG89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -723,6 +728,13 @@
       <c r="C1" s="6">
         <v>3</v>
       </c>
+      <c r="E1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="23">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
@@ -4629,7 +4641,8 @@
       <c r="AG89" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="56">
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="AF87:AG87"/>
     <mergeCell ref="AF88:AG88"/>
     <mergeCell ref="AF89:AG89"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -16,24 +16,33 @@
   </sheets>
   <definedNames>
     <definedName name="BusDemand">Sheet2!$C$11:$E$36</definedName>
-    <definedName name="CH4_rate">Sheet2!$Y$50:$Y$89</definedName>
-    <definedName name="CO2_rate">Sheet2!$X$50:$X$89</definedName>
+    <definedName name="CAPEX_solar">Sheet2!$Q$1</definedName>
+    <definedName name="CAPEX_wind">Sheet2!$Q$3</definedName>
+    <definedName name="CH4_rate">Sheet2!$Y$50:$Y$91</definedName>
+    <definedName name="CO2_rate">Sheet2!$X$50:$X$91</definedName>
     <definedName name="DiscRate">Sheet2!$G$1</definedName>
     <definedName name="LineCapacity">Sheet2!$P$42:$P$44</definedName>
     <definedName name="LineFromBus">Sheet2!$H$42:$J$44</definedName>
     <definedName name="LineReactance">Sheet2!$M$42:$M$44</definedName>
     <definedName name="LineToBus">Sheet2!$C$42:$E$44</definedName>
-    <definedName name="MarginalC">Sheet2!$N$50:$N$89</definedName>
-    <definedName name="MaxGen">Sheet2!$H$50:$H$89</definedName>
-    <definedName name="MinGen">Sheet2!$K$50:$K$89</definedName>
-    <definedName name="N2O_rate">Sheet2!$Z$50:$Z$89</definedName>
-    <definedName name="NOx_rate">Sheet2!$V$50:$V$89</definedName>
+    <definedName name="MarginalC">Sheet2!$N$50:$N$91</definedName>
+    <definedName name="maxCO2">Sheet2!$L$2</definedName>
+    <definedName name="MaxGen">Sheet2!$H$50:$H$91</definedName>
+    <definedName name="MinGen">Sheet2!$K$50:$K$91</definedName>
+    <definedName name="N2O_rate">Sheet2!$Z$50:$Z$91</definedName>
+    <definedName name="NOx_rate">Sheet2!$V$50:$V$91</definedName>
     <definedName name="NumBuses">Sheet2!$C$1</definedName>
     <definedName name="NumLines">Sheet2!$C$2</definedName>
     <definedName name="NumUnits">Sheet2!$C$3</definedName>
     <definedName name="NumYears">Sheet2!$C$4</definedName>
-    <definedName name="SO2_rate">Sheet2!$W$50:$W$89</definedName>
-    <definedName name="UnitsByBus">Sheet2!$C$50:$E$89</definedName>
+    <definedName name="OPEX_solar">Sheet2!$Q$2</definedName>
+    <definedName name="OPEX_wind">Sheet2!$Q$4</definedName>
+    <definedName name="SO2_rate">Sheet2!$W$50:$W$91</definedName>
+    <definedName name="solar_cap_factor">Sheet2!$G$4</definedName>
+    <definedName name="solar_inc">Sheet2!$Q$5</definedName>
+    <definedName name="UnitsByBus">Sheet2!$C$50:$E$91</definedName>
+    <definedName name="wind_cap_factor">Sheet2!$G$5</definedName>
+    <definedName name="wind_inc">Sheet2!$Q$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="95">
   <si>
     <t>NumBuses</t>
   </si>
@@ -161,12 +170,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Peak Hour? (Y/N)</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>ALT</t>
   </si>
   <si>
@@ -297,16 +300,56 @@
   </si>
   <si>
     <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>Solar Scale Factor</t>
+  </si>
+  <si>
+    <t>2020 CO2 Emissions (lb):</t>
+  </si>
+  <si>
+    <t>Max 2045 CO2 Emissions (lb):</t>
+  </si>
+  <si>
+    <t>NEWSOLAR</t>
+  </si>
+  <si>
+    <t>NEWWIND</t>
+  </si>
+  <si>
+    <t>WIND</t>
+  </si>
+  <si>
+    <t>CAPEX of new solar ($):</t>
+  </si>
+  <si>
+    <t>OPEX of new solar ($/MW):</t>
+  </si>
+  <si>
+    <t>CAPEX of new wind ($):</t>
+  </si>
+  <si>
+    <t>OPEX of new wind ($/MW):</t>
+  </si>
+  <si>
+    <t>Size of each wind module (MW):</t>
+  </si>
+  <si>
+    <t>Size of each solar module (MW):</t>
+  </si>
+  <si>
+    <t>Wind Scale Factor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,8 +379,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,11 +399,97 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -364,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -398,10 +533,30 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,16 +566,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG89"/>
+  <dimension ref="A1:AG91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -713,6 +903,12 @@
     <col min="1" max="1" width="6.54296875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="6" max="6" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" customWidth="1"/>
+    <col min="12" max="12" width="8.6328125" customWidth="1"/>
+    <col min="14" max="14" width="9.26953125" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="9" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" customWidth="1"/>
     <col min="18" max="18" width="9.54296875" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
     <col min="22" max="22" width="16.36328125" customWidth="1"/>
@@ -721,81 +917,158 @@
     <col min="26" max="26" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="23">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="17">
+        <v>7256200.8565999996</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="26">
+        <v>2221460.4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="6">
         <v>4765</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I2" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="25">
+        <f>L1*0.25</f>
+        <v>1814050.2141499999</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="26">
+        <v>19867.2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6">
-        <v>40</v>
-      </c>
-      <c r="E3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I3" s="4"/>
+      <c r="L3" s="27"/>
+      <c r="N3" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="26">
+        <v>1596613.3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="6">
         <v>26</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D4" s="15"/>
+      <c r="E4" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="17">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="N4" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="26">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C9" s="17" t="s">
+      <c r="E5" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="17">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="N5" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="I6" s="4"/>
+      <c r="N6" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>30</v>
       </c>
@@ -812,7 +1085,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>2020</v>
       </c>
@@ -833,7 +1106,7 @@
         <v>4765</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <v>2021</v>
       </c>
@@ -854,7 +1127,7 @@
         <v>4807.8849999999993</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <v>2022</v>
       </c>
@@ -875,7 +1148,7 @@
         <v>4851.155964999999</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <v>2023</v>
       </c>
@@ -896,7 +1169,7 @@
         <v>4894.8163686849985</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <v>2024</v>
       </c>
@@ -917,7 +1190,7 @@
         <v>4938.8697160031634</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>2025</v>
       </c>
@@ -1376,17 +1649,17 @@
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="2"/>
-      <c r="H40" s="19" t="s">
+      <c r="H40" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
       <c r="O40" s="4"/>
@@ -1587,45 +1860,45 @@
       <c r="S47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V47" s="18" t="s">
+      <c r="V47" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="W47" s="18" t="s">
+      <c r="W47" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="X47" s="18" t="s">
+      <c r="X47" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="Y47" s="18" t="s">
+      <c r="Y47" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="Z47" s="18" t="s">
+      <c r="Z47" s="30" t="s">
         <v>36</v>
       </c>
       <c r="AA47" s="13"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
       <c r="R48" t="s">
         <v>18</v>
       </c>
       <c r="S48" t="s">
         <v>21</v>
       </c>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
-      <c r="X48" s="18"/>
-      <c r="Y48" s="18"/>
-      <c r="Z48" s="18"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
       <c r="AA48" s="13"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>10</v>
@@ -1654,16 +1927,16 @@
       <c r="U49" t="s">
         <v>10</v>
       </c>
-      <c r="V49" s="18"/>
-      <c r="W49" s="18"/>
-      <c r="X49" s="18"/>
-      <c r="Y49" s="18"/>
-      <c r="Z49" s="18"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="30"/>
       <c r="AA49" s="13"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -1730,7 +2003,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B51" s="2">
         <v>2</v>
@@ -1760,7 +2033,7 @@
         <v>2</v>
       </c>
       <c r="N51" s="8">
-        <f t="shared" ref="N51:N89" si="4">R51*S51*1000/1000000</f>
+        <f t="shared" ref="N51:N91" si="4">R51*S51*1000/1000000</f>
         <v>23.617080000000001</v>
       </c>
       <c r="P51" s="3">
@@ -1797,7 +2070,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B52" s="2">
         <v>3</v>
@@ -1864,7 +2137,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B53" s="2">
         <v>4</v>
@@ -1931,7 +2204,7 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B54" s="3">
         <v>5</v>
@@ -1998,7 +2271,7 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B55" s="3">
         <v>6</v>
@@ -2065,7 +2338,7 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B56" s="3">
         <v>7</v>
@@ -2132,7 +2405,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B57" s="3">
         <v>8</v>
@@ -2199,7 +2472,7 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B58" s="3">
         <v>9</v>
@@ -2266,7 +2539,7 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B59" s="3">
         <v>10</v>
@@ -2333,7 +2606,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B60" s="3">
         <v>11</v>
@@ -2400,7 +2673,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B61" s="3">
         <v>12</v>
@@ -2467,7 +2740,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B62" s="3">
         <v>13</v>
@@ -2534,7 +2807,7 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3">
         <v>14</v>
@@ -2601,7 +2874,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>15</v>
@@ -2668,7 +2941,7 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>16</v>
@@ -2735,7 +3008,7 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3">
         <v>17</v>
@@ -2802,7 +3075,7 @@
     </row>
     <row r="67" spans="1:33" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B67" s="3">
         <v>18</v>
@@ -2866,21 +3139,21 @@
       <c r="Z67" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AC67" s="20" t="s">
+      <c r="AC67" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD67" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE67" s="34"/>
+      <c r="AF67" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="AD67" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE67" s="20"/>
-      <c r="AF67" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG67" s="20"/>
+      <c r="AG67" s="43"/>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B68" s="3">
         <v>19</v>
@@ -2944,15 +3217,15 @@
       <c r="Z68" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="AC68" s="20"/>
-      <c r="AD68" s="20"/>
-      <c r="AE68" s="20"/>
-      <c r="AF68" s="20"/>
-      <c r="AG68" s="20"/>
+      <c r="AC68" s="33"/>
+      <c r="AD68" s="35"/>
+      <c r="AE68" s="35"/>
+      <c r="AF68" s="35"/>
+      <c r="AG68" s="44"/>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B69" s="3">
         <v>20</v>
@@ -3022,7 +3295,7 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B70" s="12">
         <v>21</v>
@@ -3040,7 +3313,7 @@
         <v>21</v>
       </c>
       <c r="H70" s="6">
-        <f>IF(EXACT($G$4,$D$4),AF70,0)</f>
+        <f>$G$4*AF70</f>
         <v>28.1</v>
       </c>
       <c r="J70" s="12">
@@ -3060,7 +3333,7 @@
         <v>21</v>
       </c>
       <c r="Q70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R70" s="6">
         <v>0</v>
@@ -3086,24 +3359,24 @@
       <c r="Z70" s="6">
         <v>0</v>
       </c>
-      <c r="AB70" s="12">
+      <c r="AB70" s="18">
         <v>21</v>
       </c>
-      <c r="AC70">
+      <c r="AC70" s="19">
         <v>0.29299999999999998</v>
       </c>
-      <c r="AD70" s="21">
+      <c r="AD70" s="36">
         <v>72154</v>
       </c>
-      <c r="AE70" s="21"/>
-      <c r="AF70" s="22">
+      <c r="AE70" s="36"/>
+      <c r="AF70" s="45">
         <v>28.1</v>
       </c>
-      <c r="AG70" s="22"/>
+      <c r="AG70" s="46"/>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B71" s="12">
         <v>22</v>
@@ -3121,7 +3394,7 @@
         <v>22</v>
       </c>
       <c r="H71" s="6">
-        <f t="shared" ref="H71:H89" si="6">IF(EXACT($G$4,$D$4),AF71,0)</f>
+        <f t="shared" ref="H71:H89" si="6">$G$4*AF71</f>
         <v>25</v>
       </c>
       <c r="J71" s="12">
@@ -3141,7 +3414,7 @@
         <v>22</v>
       </c>
       <c r="Q71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R71" s="6">
         <v>0</v>
@@ -3167,24 +3440,24 @@
       <c r="Z71" s="6">
         <v>0</v>
       </c>
-      <c r="AB71" s="12">
+      <c r="AB71" s="20">
         <v>22</v>
       </c>
-      <c r="AC71">
+      <c r="AC71" s="21">
         <v>0.31</v>
       </c>
-      <c r="AD71" s="21">
+      <c r="AD71" s="37">
         <v>67811</v>
       </c>
-      <c r="AE71" s="21"/>
-      <c r="AF71" s="22">
+      <c r="AE71" s="37"/>
+      <c r="AF71" s="38">
         <v>25</v>
       </c>
-      <c r="AG71" s="22"/>
+      <c r="AG71" s="39"/>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B72" s="12">
         <v>23</v>
@@ -3222,7 +3495,7 @@
         <v>23</v>
       </c>
       <c r="Q72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R72" s="6">
         <v>0</v>
@@ -3248,24 +3521,24 @@
       <c r="Z72" s="6">
         <v>0</v>
       </c>
-      <c r="AB72" s="12">
+      <c r="AB72" s="20">
         <v>23</v>
       </c>
-      <c r="AC72">
+      <c r="AC72" s="21">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AD72" s="21">
+      <c r="AD72" s="37">
         <v>187455</v>
       </c>
-      <c r="AE72" s="21"/>
-      <c r="AF72" s="22">
+      <c r="AE72" s="37"/>
+      <c r="AF72" s="38">
         <v>70</v>
       </c>
-      <c r="AG72" s="22"/>
+      <c r="AG72" s="39"/>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B73" s="12">
         <v>24</v>
@@ -3303,7 +3576,7 @@
         <v>24</v>
       </c>
       <c r="Q73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R73" s="6">
         <v>0</v>
@@ -3329,24 +3602,24 @@
       <c r="Z73" s="6">
         <v>0</v>
       </c>
-      <c r="AB73" s="12">
+      <c r="AB73" s="20">
         <v>24</v>
       </c>
-      <c r="AC73">
+      <c r="AC73" s="21">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AD73" s="21">
+      <c r="AD73" s="37">
         <v>63266</v>
       </c>
-      <c r="AE73" s="21"/>
-      <c r="AF73" s="22">
+      <c r="AE73" s="37"/>
+      <c r="AF73" s="38">
         <v>30.6</v>
       </c>
-      <c r="AG73" s="22"/>
+      <c r="AG73" s="39"/>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B74" s="12">
         <v>25</v>
@@ -3384,7 +3657,7 @@
         <v>25</v>
       </c>
       <c r="Q74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R74" s="6">
         <v>0</v>
@@ -3410,24 +3683,24 @@
       <c r="Z74" s="6">
         <v>0</v>
       </c>
-      <c r="AB74" s="12">
+      <c r="AB74" s="20">
         <v>25</v>
       </c>
-      <c r="AC74">
+      <c r="AC74" s="21">
         <v>0.30299999999999999</v>
       </c>
-      <c r="AD74" s="21">
+      <c r="AD74" s="37">
         <v>26553</v>
       </c>
-      <c r="AE74" s="21"/>
-      <c r="AF74" s="22">
+      <c r="AE74" s="37"/>
+      <c r="AF74" s="38">
         <v>10</v>
       </c>
-      <c r="AG74" s="22"/>
+      <c r="AG74" s="39"/>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B75" s="12">
         <v>26</v>
@@ -3465,7 +3738,7 @@
         <v>26</v>
       </c>
       <c r="Q75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R75" s="6">
         <v>0</v>
@@ -3491,24 +3764,24 @@
       <c r="Z75" s="6">
         <v>0</v>
       </c>
-      <c r="AB75" s="12">
+      <c r="AB75" s="20">
         <v>26</v>
       </c>
-      <c r="AC75">
+      <c r="AC75" s="21">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AD75" s="21">
+      <c r="AD75" s="37">
         <v>24949</v>
       </c>
-      <c r="AE75" s="21"/>
-      <c r="AF75" s="22">
+      <c r="AE75" s="37"/>
+      <c r="AF75" s="38">
         <v>10</v>
       </c>
-      <c r="AG75" s="22"/>
+      <c r="AG75" s="39"/>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B76" s="12">
         <v>27</v>
@@ -3546,7 +3819,7 @@
         <v>27</v>
       </c>
       <c r="Q76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R76" s="6">
         <v>0</v>
@@ -3572,24 +3845,24 @@
       <c r="Z76" s="6">
         <v>0</v>
       </c>
-      <c r="AB76" s="12">
+      <c r="AB76" s="20">
         <v>27</v>
       </c>
-      <c r="AC76">
+      <c r="AC76" s="21">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AD76" s="21">
+      <c r="AD76" s="37">
         <v>22870</v>
       </c>
-      <c r="AE76" s="21"/>
-      <c r="AF76" s="22">
+      <c r="AE76" s="37"/>
+      <c r="AF76" s="38">
         <v>10</v>
       </c>
-      <c r="AG76" s="22"/>
+      <c r="AG76" s="39"/>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B77" s="12">
         <v>28</v>
@@ -3627,7 +3900,7 @@
         <v>28</v>
       </c>
       <c r="Q77" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R77" s="6">
         <v>0</v>
@@ -3653,24 +3926,24 @@
       <c r="Z77" s="6">
         <v>0</v>
       </c>
-      <c r="AB77" s="12">
+      <c r="AB77" s="20">
         <v>28</v>
       </c>
-      <c r="AC77">
+      <c r="AC77" s="21">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AD77" s="21">
+      <c r="AD77" s="37">
         <v>139836</v>
       </c>
-      <c r="AE77" s="21"/>
-      <c r="AF77" s="22">
+      <c r="AE77" s="37"/>
+      <c r="AF77" s="38">
         <v>52.2</v>
       </c>
-      <c r="AG77" s="22"/>
+      <c r="AG77" s="39"/>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B78" s="12">
         <v>29</v>
@@ -3708,7 +3981,7 @@
         <v>29</v>
       </c>
       <c r="Q78" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R78" s="6">
         <v>0</v>
@@ -3734,24 +4007,24 @@
       <c r="Z78" s="6">
         <v>0</v>
       </c>
-      <c r="AB78" s="12">
+      <c r="AB78" s="20">
         <v>29</v>
       </c>
-      <c r="AC78">
+      <c r="AC78" s="21">
         <v>0.26800000000000002</v>
       </c>
-      <c r="AD78" s="21">
+      <c r="AD78" s="37">
         <v>23515</v>
       </c>
-      <c r="AE78" s="21"/>
-      <c r="AF78" s="22">
+      <c r="AE78" s="37"/>
+      <c r="AF78" s="38">
         <v>10</v>
       </c>
-      <c r="AG78" s="22"/>
+      <c r="AG78" s="39"/>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B79" s="12">
         <v>30</v>
@@ -3789,7 +4062,7 @@
         <v>30</v>
       </c>
       <c r="Q79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R79" s="6">
         <v>0</v>
@@ -3815,24 +4088,24 @@
       <c r="Z79" s="6">
         <v>0</v>
       </c>
-      <c r="AB79" s="12">
+      <c r="AB79" s="20">
         <v>30</v>
       </c>
-      <c r="AC79">
+      <c r="AC79" s="21">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AD79" s="21">
+      <c r="AD79" s="37">
         <v>49503</v>
       </c>
-      <c r="AE79" s="21"/>
-      <c r="AF79" s="22">
+      <c r="AE79" s="37"/>
+      <c r="AF79" s="38">
         <v>20.2</v>
       </c>
-      <c r="AG79" s="22"/>
+      <c r="AG79" s="39"/>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B80" s="12">
         <v>31</v>
@@ -3870,7 +4143,7 @@
         <v>31</v>
       </c>
       <c r="Q80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R80" s="6">
         <v>0</v>
@@ -3896,24 +4169,24 @@
       <c r="Z80" s="6">
         <v>0</v>
       </c>
-      <c r="AB80" s="12">
+      <c r="AB80" s="20">
         <v>31</v>
       </c>
-      <c r="AC80">
+      <c r="AC80" s="21">
         <v>0.307</v>
       </c>
-      <c r="AD80" s="21">
+      <c r="AD80" s="37">
         <v>188420</v>
       </c>
-      <c r="AE80" s="21"/>
-      <c r="AF80" s="22">
+      <c r="AE80" s="37"/>
+      <c r="AF80" s="38">
         <v>70</v>
       </c>
-      <c r="AG80" s="22"/>
+      <c r="AG80" s="39"/>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B81" s="12">
         <v>32</v>
@@ -3951,7 +4224,7 @@
         <v>32</v>
       </c>
       <c r="Q81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R81" s="6">
         <v>0</v>
@@ -3977,24 +4250,24 @@
       <c r="Z81" s="6">
         <v>0</v>
       </c>
-      <c r="AB81" s="12">
+      <c r="AB81" s="20">
         <v>32</v>
       </c>
-      <c r="AC81">
+      <c r="AC81" s="21">
         <v>0.28899999999999998</v>
       </c>
-      <c r="AD81" s="21">
+      <c r="AD81" s="37">
         <v>26573</v>
       </c>
-      <c r="AE81" s="21"/>
-      <c r="AF81" s="22">
+      <c r="AE81" s="37"/>
+      <c r="AF81" s="38">
         <v>10.5</v>
       </c>
-      <c r="AG81" s="22"/>
+      <c r="AG81" s="39"/>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B82" s="12">
         <v>33</v>
@@ -4032,7 +4305,7 @@
         <v>33</v>
       </c>
       <c r="Q82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R82" s="6">
         <v>0</v>
@@ -4058,24 +4331,24 @@
       <c r="Z82" s="6">
         <v>0</v>
       </c>
-      <c r="AB82" s="12">
+      <c r="AB82" s="20">
         <v>33</v>
       </c>
-      <c r="AC82">
+      <c r="AC82" s="21">
         <v>0.28799999999999998</v>
       </c>
-      <c r="AD82" s="21">
+      <c r="AD82" s="37">
         <v>25253</v>
       </c>
-      <c r="AE82" s="21"/>
-      <c r="AF82" s="22">
+      <c r="AE82" s="37"/>
+      <c r="AF82" s="38">
         <v>10</v>
       </c>
-      <c r="AG82" s="22"/>
+      <c r="AG82" s="39"/>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B83" s="12">
         <v>34</v>
@@ -4113,7 +4386,7 @@
         <v>34</v>
       </c>
       <c r="Q83" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R83" s="6">
         <v>0</v>
@@ -4139,24 +4412,24 @@
       <c r="Z83" s="6">
         <v>0</v>
       </c>
-      <c r="AB83" s="12">
+      <c r="AB83" s="20">
         <v>34</v>
       </c>
-      <c r="AC83">
+      <c r="AC83" s="21">
         <v>0.20100000000000001</v>
       </c>
-      <c r="AD83" s="21">
+      <c r="AD83" s="37">
         <v>17610</v>
       </c>
-      <c r="AE83" s="21"/>
-      <c r="AF83" s="22">
+      <c r="AE83" s="37"/>
+      <c r="AF83" s="38">
         <v>10</v>
       </c>
-      <c r="AG83" s="22"/>
+      <c r="AG83" s="39"/>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B84" s="12">
         <v>35</v>
@@ -4194,7 +4467,7 @@
         <v>35</v>
       </c>
       <c r="Q84" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R84" s="6">
         <v>0</v>
@@ -4220,24 +4493,24 @@
       <c r="Z84" s="6">
         <v>0</v>
       </c>
-      <c r="AB84" s="12">
+      <c r="AB84" s="20">
         <v>35</v>
       </c>
-      <c r="AC84">
+      <c r="AC84" s="21">
         <v>0.221</v>
       </c>
-      <c r="AD84" s="21">
+      <c r="AD84" s="37">
         <v>19372</v>
       </c>
-      <c r="AE84" s="21"/>
-      <c r="AF84" s="22">
+      <c r="AE84" s="37"/>
+      <c r="AF84" s="38">
         <v>10</v>
       </c>
-      <c r="AG84" s="22"/>
+      <c r="AG84" s="39"/>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B85" s="12">
         <v>36</v>
@@ -4275,7 +4548,7 @@
         <v>36</v>
       </c>
       <c r="Q85" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R85" s="6">
         <v>0</v>
@@ -4301,24 +4574,24 @@
       <c r="Z85" s="6">
         <v>0</v>
       </c>
-      <c r="AB85" s="12">
+      <c r="AB85" s="20">
         <v>36</v>
       </c>
-      <c r="AC85">
+      <c r="AC85" s="21">
         <v>0.216</v>
       </c>
-      <c r="AD85" s="21">
+      <c r="AD85" s="37">
         <v>18939</v>
       </c>
-      <c r="AE85" s="21"/>
-      <c r="AF85" s="22">
+      <c r="AE85" s="37"/>
+      <c r="AF85" s="38">
         <v>10</v>
       </c>
-      <c r="AG85" s="22"/>
+      <c r="AG85" s="39"/>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B86" s="12">
         <v>37</v>
@@ -4356,7 +4629,7 @@
         <v>37</v>
       </c>
       <c r="Q86" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R86" s="6">
         <v>0</v>
@@ -4382,24 +4655,24 @@
       <c r="Z86" s="6">
         <v>0</v>
       </c>
-      <c r="AB86" s="12">
+      <c r="AB86" s="20">
         <v>37</v>
       </c>
-      <c r="AC86">
+      <c r="AC86" s="21">
         <v>0.23</v>
       </c>
-      <c r="AD86" s="21">
+      <c r="AD86" s="37">
         <v>20382</v>
       </c>
-      <c r="AE86" s="21"/>
-      <c r="AF86" s="22">
+      <c r="AE86" s="37"/>
+      <c r="AF86" s="38">
         <v>10.1</v>
       </c>
-      <c r="AG86" s="22"/>
+      <c r="AG86" s="39"/>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B87" s="12">
         <v>38</v>
@@ -4437,7 +4710,7 @@
         <v>38</v>
       </c>
       <c r="Q87" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R87" s="6">
         <v>0</v>
@@ -4463,24 +4736,24 @@
       <c r="Z87" s="6">
         <v>0</v>
       </c>
-      <c r="AB87" s="12">
+      <c r="AB87" s="20">
         <v>38</v>
       </c>
-      <c r="AC87">
+      <c r="AC87" s="21">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AD87" s="21">
+      <c r="AD87" s="37">
         <v>19968</v>
       </c>
-      <c r="AE87" s="21"/>
-      <c r="AF87" s="22">
+      <c r="AE87" s="37"/>
+      <c r="AF87" s="38">
         <v>10.1</v>
       </c>
-      <c r="AG87" s="22"/>
+      <c r="AG87" s="39"/>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B88" s="12">
         <v>39</v>
@@ -4518,7 +4791,7 @@
         <v>39</v>
       </c>
       <c r="Q88" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R88" s="6">
         <v>0</v>
@@ -4544,24 +4817,24 @@
       <c r="Z88" s="6">
         <v>0</v>
       </c>
-      <c r="AB88" s="12">
+      <c r="AB88" s="20">
         <v>39</v>
       </c>
-      <c r="AC88">
+      <c r="AC88" s="21">
         <v>0.26500000000000001</v>
       </c>
-      <c r="AD88" s="21">
+      <c r="AD88" s="37">
         <v>23240</v>
       </c>
-      <c r="AE88" s="21"/>
-      <c r="AF88" s="22">
+      <c r="AE88" s="37"/>
+      <c r="AF88" s="38">
         <v>10</v>
       </c>
-      <c r="AG88" s="22"/>
+      <c r="AG88" s="39"/>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B89" s="12">
         <v>40</v>
@@ -4599,7 +4872,7 @@
         <v>40</v>
       </c>
       <c r="Q89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R89" s="6">
         <v>0</v>
@@ -4625,23 +4898,160 @@
       <c r="Z89" s="6">
         <v>0</v>
       </c>
-      <c r="AB89" s="12">
+      <c r="AB89" s="22">
         <v>40</v>
       </c>
-      <c r="AC89">
+      <c r="AC89" s="23">
         <v>0.254</v>
       </c>
-      <c r="AD89" s="21">
+      <c r="AD89" s="42">
         <v>26709</v>
       </c>
-      <c r="AE89" s="21"/>
-      <c r="AF89" s="22">
+      <c r="AE89" s="42"/>
+      <c r="AF89" s="40">
         <v>12</v>
       </c>
-      <c r="AG89" s="22"/>
+      <c r="AG89" s="41"/>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" s="24">
+        <v>41</v>
+      </c>
+      <c r="C90" s="6">
+        <v>0</v>
+      </c>
+      <c r="D90" s="6">
+        <v>1</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0</v>
+      </c>
+      <c r="G90" s="24">
+        <v>41</v>
+      </c>
+      <c r="H90" s="6">
+        <v>10000</v>
+      </c>
+      <c r="J90" s="24">
+        <v>41</v>
+      </c>
+      <c r="K90" s="6">
+        <v>0</v>
+      </c>
+      <c r="M90" s="24">
+        <v>41</v>
+      </c>
+      <c r="N90" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="24">
+        <v>41</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>39</v>
+      </c>
+      <c r="R90" s="6">
+        <v>0</v>
+      </c>
+      <c r="S90" s="6">
+        <v>0</v>
+      </c>
+      <c r="U90" s="24">
+        <v>41</v>
+      </c>
+      <c r="V90" s="6">
+        <v>0</v>
+      </c>
+      <c r="W90" s="6">
+        <v>0</v>
+      </c>
+      <c r="X90" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" s="24">
+        <v>42</v>
+      </c>
+      <c r="C91" s="6">
+        <v>0</v>
+      </c>
+      <c r="D91" s="6">
+        <v>0</v>
+      </c>
+      <c r="E91" s="6">
+        <v>1</v>
+      </c>
+      <c r="G91" s="24">
+        <v>42</v>
+      </c>
+      <c r="H91" s="6">
+        <v>10000</v>
+      </c>
+      <c r="J91" s="24">
+        <v>42</v>
+      </c>
+      <c r="K91" s="6">
+        <v>0</v>
+      </c>
+      <c r="M91" s="24">
+        <v>42</v>
+      </c>
+      <c r="N91" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P91" s="24">
+        <v>42</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>87</v>
+      </c>
+      <c r="R91" s="6">
+        <v>0</v>
+      </c>
+      <c r="S91" s="6">
+        <v>0</v>
+      </c>
+      <c r="U91" s="24">
+        <v>42</v>
+      </c>
+      <c r="V91" s="6">
+        <v>0</v>
+      </c>
+      <c r="W91" s="6">
+        <v>0</v>
+      </c>
+      <c r="X91" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="65">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="AF87:AG87"/>
     <mergeCell ref="AF88:AG88"/>
@@ -4698,6 +5108,10 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="W47:W49"/>
     <mergeCell ref="X47:X49"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -560,30 +560,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -596,10 +572,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -609,6 +594,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -895,7 +895,7 @@
   <dimension ref="A1:AG91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1649,17 +1649,17 @@
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="2"/>
-      <c r="H40" s="31" t="s">
+      <c r="H40" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
       <c r="O40" s="4"/>
@@ -1860,40 +1860,40 @@
       <c r="S47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V47" s="30" t="s">
+      <c r="V47" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="W47" s="30" t="s">
+      <c r="W47" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="X47" s="30" t="s">
+      <c r="X47" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="Y47" s="30" t="s">
+      <c r="Y47" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="Z47" s="30" t="s">
+      <c r="Z47" s="45" t="s">
         <v>36</v>
       </c>
       <c r="AA47" s="13"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
       <c r="R48" t="s">
         <v>18</v>
       </c>
       <c r="S48" t="s">
         <v>21</v>
       </c>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="45"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
       <c r="AA48" s="13"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.35">
@@ -1927,11 +1927,11 @@
       <c r="U49" t="s">
         <v>10</v>
       </c>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="30"/>
-      <c r="Z49" s="30"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
+      <c r="X49" s="45"/>
+      <c r="Y49" s="45"/>
+      <c r="Z49" s="45"/>
       <c r="AA49" s="13"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.35">
@@ -3139,17 +3139,17 @@
       <c r="Z67" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AC67" s="32" t="s">
+      <c r="AC67" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="AD67" s="34" t="s">
+      <c r="AD67" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="AE67" s="34"/>
-      <c r="AF67" s="34" t="s">
+      <c r="AE67" s="36"/>
+      <c r="AF67" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="AG67" s="43"/>
+      <c r="AG67" s="37"/>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
@@ -3217,11 +3217,11 @@
       <c r="Z68" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="AC68" s="33"/>
-      <c r="AD68" s="35"/>
-      <c r="AE68" s="35"/>
-      <c r="AF68" s="35"/>
-      <c r="AG68" s="44"/>
+      <c r="AC68" s="43"/>
+      <c r="AD68" s="38"/>
+      <c r="AE68" s="38"/>
+      <c r="AF68" s="38"/>
+      <c r="AG68" s="39"/>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
@@ -3365,14 +3365,14 @@
       <c r="AC70" s="19">
         <v>0.29299999999999998</v>
       </c>
-      <c r="AD70" s="36">
+      <c r="AD70" s="44">
         <v>72154</v>
       </c>
-      <c r="AE70" s="36"/>
-      <c r="AF70" s="45">
+      <c r="AE70" s="44"/>
+      <c r="AF70" s="40">
         <v>28.1</v>
       </c>
-      <c r="AG70" s="46"/>
+      <c r="AG70" s="41"/>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
@@ -3446,14 +3446,14 @@
       <c r="AC71" s="21">
         <v>0.31</v>
       </c>
-      <c r="AD71" s="37">
+      <c r="AD71" s="34">
         <v>67811</v>
       </c>
-      <c r="AE71" s="37"/>
-      <c r="AF71" s="38">
+      <c r="AE71" s="34"/>
+      <c r="AF71" s="30">
         <v>25</v>
       </c>
-      <c r="AG71" s="39"/>
+      <c r="AG71" s="31"/>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
@@ -3527,14 +3527,14 @@
       <c r="AC72" s="21">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AD72" s="37">
+      <c r="AD72" s="34">
         <v>187455</v>
       </c>
-      <c r="AE72" s="37"/>
-      <c r="AF72" s="38">
+      <c r="AE72" s="34"/>
+      <c r="AF72" s="30">
         <v>70</v>
       </c>
-      <c r="AG72" s="39"/>
+      <c r="AG72" s="31"/>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
@@ -3608,14 +3608,14 @@
       <c r="AC73" s="21">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AD73" s="37">
+      <c r="AD73" s="34">
         <v>63266</v>
       </c>
-      <c r="AE73" s="37"/>
-      <c r="AF73" s="38">
+      <c r="AE73" s="34"/>
+      <c r="AF73" s="30">
         <v>30.6</v>
       </c>
-      <c r="AG73" s="39"/>
+      <c r="AG73" s="31"/>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
@@ -3689,14 +3689,14 @@
       <c r="AC74" s="21">
         <v>0.30299999999999999</v>
       </c>
-      <c r="AD74" s="37">
+      <c r="AD74" s="34">
         <v>26553</v>
       </c>
-      <c r="AE74" s="37"/>
-      <c r="AF74" s="38">
+      <c r="AE74" s="34"/>
+      <c r="AF74" s="30">
         <v>10</v>
       </c>
-      <c r="AG74" s="39"/>
+      <c r="AG74" s="31"/>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
@@ -3770,14 +3770,14 @@
       <c r="AC75" s="21">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AD75" s="37">
+      <c r="AD75" s="34">
         <v>24949</v>
       </c>
-      <c r="AE75" s="37"/>
-      <c r="AF75" s="38">
+      <c r="AE75" s="34"/>
+      <c r="AF75" s="30">
         <v>10</v>
       </c>
-      <c r="AG75" s="39"/>
+      <c r="AG75" s="31"/>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
@@ -3851,14 +3851,14 @@
       <c r="AC76" s="21">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AD76" s="37">
+      <c r="AD76" s="34">
         <v>22870</v>
       </c>
-      <c r="AE76" s="37"/>
-      <c r="AF76" s="38">
+      <c r="AE76" s="34"/>
+      <c r="AF76" s="30">
         <v>10</v>
       </c>
-      <c r="AG76" s="39"/>
+      <c r="AG76" s="31"/>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
@@ -3932,14 +3932,14 @@
       <c r="AC77" s="21">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AD77" s="37">
+      <c r="AD77" s="34">
         <v>139836</v>
       </c>
-      <c r="AE77" s="37"/>
-      <c r="AF77" s="38">
+      <c r="AE77" s="34"/>
+      <c r="AF77" s="30">
         <v>52.2</v>
       </c>
-      <c r="AG77" s="39"/>
+      <c r="AG77" s="31"/>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
@@ -4013,14 +4013,14 @@
       <c r="AC78" s="21">
         <v>0.26800000000000002</v>
       </c>
-      <c r="AD78" s="37">
+      <c r="AD78" s="34">
         <v>23515</v>
       </c>
-      <c r="AE78" s="37"/>
-      <c r="AF78" s="38">
+      <c r="AE78" s="34"/>
+      <c r="AF78" s="30">
         <v>10</v>
       </c>
-      <c r="AG78" s="39"/>
+      <c r="AG78" s="31"/>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
@@ -4094,14 +4094,14 @@
       <c r="AC79" s="21">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AD79" s="37">
+      <c r="AD79" s="34">
         <v>49503</v>
       </c>
-      <c r="AE79" s="37"/>
-      <c r="AF79" s="38">
+      <c r="AE79" s="34"/>
+      <c r="AF79" s="30">
         <v>20.2</v>
       </c>
-      <c r="AG79" s="39"/>
+      <c r="AG79" s="31"/>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
@@ -4175,14 +4175,14 @@
       <c r="AC80" s="21">
         <v>0.307</v>
       </c>
-      <c r="AD80" s="37">
+      <c r="AD80" s="34">
         <v>188420</v>
       </c>
-      <c r="AE80" s="37"/>
-      <c r="AF80" s="38">
+      <c r="AE80" s="34"/>
+      <c r="AF80" s="30">
         <v>70</v>
       </c>
-      <c r="AG80" s="39"/>
+      <c r="AG80" s="31"/>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -4256,14 +4256,14 @@
       <c r="AC81" s="21">
         <v>0.28899999999999998</v>
       </c>
-      <c r="AD81" s="37">
+      <c r="AD81" s="34">
         <v>26573</v>
       </c>
-      <c r="AE81" s="37"/>
-      <c r="AF81" s="38">
+      <c r="AE81" s="34"/>
+      <c r="AF81" s="30">
         <v>10.5</v>
       </c>
-      <c r="AG81" s="39"/>
+      <c r="AG81" s="31"/>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
@@ -4337,14 +4337,14 @@
       <c r="AC82" s="21">
         <v>0.28799999999999998</v>
       </c>
-      <c r="AD82" s="37">
+      <c r="AD82" s="34">
         <v>25253</v>
       </c>
-      <c r="AE82" s="37"/>
-      <c r="AF82" s="38">
+      <c r="AE82" s="34"/>
+      <c r="AF82" s="30">
         <v>10</v>
       </c>
-      <c r="AG82" s="39"/>
+      <c r="AG82" s="31"/>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
@@ -4418,14 +4418,14 @@
       <c r="AC83" s="21">
         <v>0.20100000000000001</v>
       </c>
-      <c r="AD83" s="37">
+      <c r="AD83" s="34">
         <v>17610</v>
       </c>
-      <c r="AE83" s="37"/>
-      <c r="AF83" s="38">
+      <c r="AE83" s="34"/>
+      <c r="AF83" s="30">
         <v>10</v>
       </c>
-      <c r="AG83" s="39"/>
+      <c r="AG83" s="31"/>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
@@ -4499,14 +4499,14 @@
       <c r="AC84" s="21">
         <v>0.221</v>
       </c>
-      <c r="AD84" s="37">
+      <c r="AD84" s="34">
         <v>19372</v>
       </c>
-      <c r="AE84" s="37"/>
-      <c r="AF84" s="38">
+      <c r="AE84" s="34"/>
+      <c r="AF84" s="30">
         <v>10</v>
       </c>
-      <c r="AG84" s="39"/>
+      <c r="AG84" s="31"/>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
@@ -4580,14 +4580,14 @@
       <c r="AC85" s="21">
         <v>0.216</v>
       </c>
-      <c r="AD85" s="37">
+      <c r="AD85" s="34">
         <v>18939</v>
       </c>
-      <c r="AE85" s="37"/>
-      <c r="AF85" s="38">
+      <c r="AE85" s="34"/>
+      <c r="AF85" s="30">
         <v>10</v>
       </c>
-      <c r="AG85" s="39"/>
+      <c r="AG85" s="31"/>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
@@ -4661,14 +4661,14 @@
       <c r="AC86" s="21">
         <v>0.23</v>
       </c>
-      <c r="AD86" s="37">
+      <c r="AD86" s="34">
         <v>20382</v>
       </c>
-      <c r="AE86" s="37"/>
-      <c r="AF86" s="38">
+      <c r="AE86" s="34"/>
+      <c r="AF86" s="30">
         <v>10.1</v>
       </c>
-      <c r="AG86" s="39"/>
+      <c r="AG86" s="31"/>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
@@ -4742,14 +4742,14 @@
       <c r="AC87" s="21">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AD87" s="37">
+      <c r="AD87" s="34">
         <v>19968</v>
       </c>
-      <c r="AE87" s="37"/>
-      <c r="AF87" s="38">
+      <c r="AE87" s="34"/>
+      <c r="AF87" s="30">
         <v>10.1</v>
       </c>
-      <c r="AG87" s="39"/>
+      <c r="AG87" s="31"/>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
@@ -4823,14 +4823,14 @@
       <c r="AC88" s="21">
         <v>0.26500000000000001</v>
       </c>
-      <c r="AD88" s="37">
+      <c r="AD88" s="34">
         <v>23240</v>
       </c>
-      <c r="AE88" s="37"/>
-      <c r="AF88" s="38">
+      <c r="AE88" s="34"/>
+      <c r="AF88" s="30">
         <v>10</v>
       </c>
-      <c r="AG88" s="39"/>
+      <c r="AG88" s="31"/>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
@@ -4904,14 +4904,14 @@
       <c r="AC89" s="23">
         <v>0.254</v>
       </c>
-      <c r="AD89" s="42">
+      <c r="AD89" s="35">
         <v>26709</v>
       </c>
-      <c r="AE89" s="42"/>
-      <c r="AF89" s="40">
+      <c r="AE89" s="35"/>
+      <c r="AF89" s="32">
         <v>12</v>
       </c>
-      <c r="AG89" s="41"/>
+      <c r="AG89" s="33"/>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
@@ -5047,11 +5047,50 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="AC67:AC68"/>
+    <mergeCell ref="AD67:AE68"/>
+    <mergeCell ref="AD70:AE70"/>
+    <mergeCell ref="AD71:AE71"/>
+    <mergeCell ref="AD72:AE72"/>
+    <mergeCell ref="AD73:AE73"/>
+    <mergeCell ref="AD74:AE74"/>
+    <mergeCell ref="AD75:AE75"/>
+    <mergeCell ref="AD76:AE76"/>
+    <mergeCell ref="AD77:AE77"/>
+    <mergeCell ref="AD85:AE85"/>
+    <mergeCell ref="AD86:AE86"/>
+    <mergeCell ref="AD87:AE87"/>
+    <mergeCell ref="AD78:AE78"/>
+    <mergeCell ref="AD79:AE79"/>
+    <mergeCell ref="AD80:AE80"/>
+    <mergeCell ref="AD81:AE81"/>
+    <mergeCell ref="AD82:AE82"/>
+    <mergeCell ref="AF79:AG79"/>
+    <mergeCell ref="AF80:AG80"/>
+    <mergeCell ref="AF81:AG81"/>
+    <mergeCell ref="AD83:AE83"/>
+    <mergeCell ref="AD84:AE84"/>
+    <mergeCell ref="AF74:AG74"/>
+    <mergeCell ref="AF75:AG75"/>
+    <mergeCell ref="AF76:AG76"/>
+    <mergeCell ref="AF77:AG77"/>
+    <mergeCell ref="AF78:AG78"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="AF87:AG87"/>
     <mergeCell ref="AF88:AG88"/>
@@ -5068,50 +5107,11 @@
     <mergeCell ref="AF71:AG71"/>
     <mergeCell ref="AF72:AG72"/>
     <mergeCell ref="AF73:AG73"/>
-    <mergeCell ref="AF74:AG74"/>
-    <mergeCell ref="AF75:AG75"/>
-    <mergeCell ref="AF76:AG76"/>
-    <mergeCell ref="AF77:AG77"/>
-    <mergeCell ref="AF78:AG78"/>
-    <mergeCell ref="AF79:AG79"/>
-    <mergeCell ref="AF80:AG80"/>
-    <mergeCell ref="AF81:AG81"/>
-    <mergeCell ref="AD83:AE83"/>
-    <mergeCell ref="AD84:AE84"/>
-    <mergeCell ref="AD85:AE85"/>
-    <mergeCell ref="AD86:AE86"/>
-    <mergeCell ref="AD87:AE87"/>
-    <mergeCell ref="AD78:AE78"/>
-    <mergeCell ref="AD79:AE79"/>
-    <mergeCell ref="AD80:AE80"/>
-    <mergeCell ref="AD81:AE81"/>
-    <mergeCell ref="AD82:AE82"/>
-    <mergeCell ref="AD73:AE73"/>
-    <mergeCell ref="AD74:AE74"/>
-    <mergeCell ref="AD75:AE75"/>
-    <mergeCell ref="AD76:AE76"/>
-    <mergeCell ref="AD77:AE77"/>
-    <mergeCell ref="AC67:AC68"/>
-    <mergeCell ref="AD67:AE68"/>
-    <mergeCell ref="AD70:AE70"/>
-    <mergeCell ref="AD71:AE71"/>
-    <mergeCell ref="AD72:AE72"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Z47:Z49"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -21,6 +21,7 @@
     <definedName name="CH4_rate">Sheet2!$Y$50:$Y$91</definedName>
     <definedName name="CO2_rate">Sheet2!$X$50:$X$91</definedName>
     <definedName name="DiscRate">Sheet2!$G$1</definedName>
+    <definedName name="EV_subsidy_cost">Sheet2!$V$1</definedName>
     <definedName name="LineCapacity">Sheet2!$P$42:$P$44</definedName>
     <definedName name="LineFromBus">Sheet2!$H$42:$J$44</definedName>
     <definedName name="LineReactance">Sheet2!$M$42:$M$44</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="105">
   <si>
     <t>NumBuses</t>
   </si>
@@ -339,6 +340,36 @@
   </si>
   <si>
     <t>Wind Scale Factor</t>
+  </si>
+  <si>
+    <t>EV 20% Subsidy Capital Cost ($):</t>
+  </si>
+  <si>
+    <t>Number of EVs without subsidy:</t>
+  </si>
+  <si>
+    <t>Number of EVs with subsidy:</t>
+  </si>
+  <si>
+    <t>Emissions from conventional car:</t>
+  </si>
+  <si>
+    <t>(lb CO2/year)</t>
+  </si>
+  <si>
+    <t>(lb CO2/car/year)</t>
+  </si>
+  <si>
+    <t>CO2 Emissions without Subsidy:</t>
+  </si>
+  <si>
+    <t>CO2 Emissions with Subsidy:</t>
+  </si>
+  <si>
+    <t># of conventional cars with subsidy:</t>
+  </si>
+  <si>
+    <t># of conventional cars w/o subsidy:</t>
   </si>
 </sst>
 </file>
@@ -499,7 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -560,6 +591,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -572,19 +627,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -596,21 +642,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,7 +928,7 @@
   <dimension ref="A1:AG91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -910,14 +943,16 @@
     <col min="16" max="16" width="9" customWidth="1"/>
     <col min="17" max="17" width="13.26953125" customWidth="1"/>
     <col min="18" max="18" width="9.54296875" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="22" max="22" width="16.36328125" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" customWidth="1"/>
+    <col min="20" max="20" width="10.6328125" customWidth="1"/>
+    <col min="21" max="21" width="10.54296875" customWidth="1"/>
+    <col min="22" max="22" width="16.7265625" customWidth="1"/>
     <col min="23" max="24" width="16.26953125" customWidth="1"/>
     <col min="25" max="25" width="16.1796875" customWidth="1"/>
     <col min="26" max="26" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -947,8 +982,16 @@
       <c r="Q1" s="26">
         <v>2221460.4</v>
       </c>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S1" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="26">
+        <v>8809340386.1000004</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -979,8 +1022,16 @@
       <c r="Q2" s="26">
         <v>19867.2</v>
       </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S2" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="47">
+        <v>348494.96600000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1004,8 +1055,16 @@
       <c r="Q3" s="26">
         <v>1596613.3</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S3" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="48">
+        <v>2066077.2990000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
@@ -1029,8 +1088,17 @@
       <c r="Q4" s="26">
         <v>43560</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S4" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="47">
+        <f>0.86*2489249.757</f>
+        <v>2140754.7910200004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
       <c r="E5" s="29" t="s">
         <v>94</v>
@@ -1048,8 +1116,17 @@
       <c r="Q5" s="28">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S5" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="47">
+        <f>0.17*2489249.757</f>
+        <v>423172.45869000006</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="I6" s="4"/>
       <c r="N6" s="29" t="s">
         <v>92</v>
@@ -1059,8 +1136,48 @@
       <c r="Q6" s="28">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S6" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="47">
+        <f>(18000/25)*8.8*2.20462</f>
+        <v>13968.472320000001</v>
+      </c>
+      <c r="W6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="S7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="47">
+        <f>V4*V6</f>
+        <v>29903074042.27026</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="S8" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="47">
+        <f>V5*V6</f>
+        <v>5911072775.7976093</v>
+      </c>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C9" s="29" t="s">
         <v>29</v>
       </c>
@@ -1068,7 +1185,7 @@
       <c r="E9" s="29"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>30</v>
       </c>
@@ -1085,7 +1202,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>2020</v>
       </c>
@@ -1106,7 +1223,7 @@
         <v>4765</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <v>2021</v>
       </c>
@@ -1127,7 +1244,7 @@
         <v>4807.8849999999993</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <v>2022</v>
       </c>
@@ -1148,7 +1265,7 @@
         <v>4851.155964999999</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <v>2023</v>
       </c>
@@ -1169,7 +1286,7 @@
         <v>4894.8163686849985</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <v>2024</v>
       </c>
@@ -1190,7 +1307,7 @@
         <v>4938.8697160031634</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>2025</v>
       </c>
@@ -1649,17 +1766,17 @@
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="2"/>
-      <c r="H40" s="46" t="s">
+      <c r="H40" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
       <c r="O40" s="4"/>
@@ -1860,40 +1977,40 @@
       <c r="S47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V47" s="45" t="s">
+      <c r="V47" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="W47" s="45" t="s">
+      <c r="W47" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="X47" s="45" t="s">
+      <c r="X47" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="Y47" s="45" t="s">
+      <c r="Y47" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="Z47" s="45" t="s">
+      <c r="Z47" s="30" t="s">
         <v>36</v>
       </c>
       <c r="AA47" s="13"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
       <c r="R48" t="s">
         <v>18</v>
       </c>
       <c r="S48" t="s">
         <v>21</v>
       </c>
-      <c r="V48" s="45"/>
-      <c r="W48" s="45"/>
-      <c r="X48" s="45"/>
-      <c r="Y48" s="45"/>
-      <c r="Z48" s="45"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
       <c r="AA48" s="13"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.35">
@@ -1927,11 +2044,11 @@
       <c r="U49" t="s">
         <v>10</v>
       </c>
-      <c r="V49" s="45"/>
-      <c r="W49" s="45"/>
-      <c r="X49" s="45"/>
-      <c r="Y49" s="45"/>
-      <c r="Z49" s="45"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="30"/>
       <c r="AA49" s="13"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.35">
@@ -3139,17 +3256,17 @@
       <c r="Z67" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AC67" s="42" t="s">
+      <c r="AC67" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="AD67" s="36" t="s">
+      <c r="AD67" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AE67" s="36"/>
-      <c r="AF67" s="36" t="s">
+      <c r="AE67" s="34"/>
+      <c r="AF67" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="AG67" s="37"/>
+      <c r="AG67" s="43"/>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
@@ -3217,11 +3334,11 @@
       <c r="Z68" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="AC68" s="43"/>
-      <c r="AD68" s="38"/>
-      <c r="AE68" s="38"/>
-      <c r="AF68" s="38"/>
-      <c r="AG68" s="39"/>
+      <c r="AC68" s="33"/>
+      <c r="AD68" s="35"/>
+      <c r="AE68" s="35"/>
+      <c r="AF68" s="35"/>
+      <c r="AG68" s="44"/>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
@@ -3365,14 +3482,14 @@
       <c r="AC70" s="19">
         <v>0.29299999999999998</v>
       </c>
-      <c r="AD70" s="44">
+      <c r="AD70" s="36">
         <v>72154</v>
       </c>
-      <c r="AE70" s="44"/>
-      <c r="AF70" s="40">
+      <c r="AE70" s="36"/>
+      <c r="AF70" s="45">
         <v>28.1</v>
       </c>
-      <c r="AG70" s="41"/>
+      <c r="AG70" s="46"/>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
@@ -3446,14 +3563,14 @@
       <c r="AC71" s="21">
         <v>0.31</v>
       </c>
-      <c r="AD71" s="34">
+      <c r="AD71" s="37">
         <v>67811</v>
       </c>
-      <c r="AE71" s="34"/>
-      <c r="AF71" s="30">
+      <c r="AE71" s="37"/>
+      <c r="AF71" s="38">
         <v>25</v>
       </c>
-      <c r="AG71" s="31"/>
+      <c r="AG71" s="39"/>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
@@ -3527,14 +3644,14 @@
       <c r="AC72" s="21">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AD72" s="34">
+      <c r="AD72" s="37">
         <v>187455</v>
       </c>
-      <c r="AE72" s="34"/>
-      <c r="AF72" s="30">
+      <c r="AE72" s="37"/>
+      <c r="AF72" s="38">
         <v>70</v>
       </c>
-      <c r="AG72" s="31"/>
+      <c r="AG72" s="39"/>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
@@ -3608,14 +3725,14 @@
       <c r="AC73" s="21">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AD73" s="34">
+      <c r="AD73" s="37">
         <v>63266</v>
       </c>
-      <c r="AE73" s="34"/>
-      <c r="AF73" s="30">
+      <c r="AE73" s="37"/>
+      <c r="AF73" s="38">
         <v>30.6</v>
       </c>
-      <c r="AG73" s="31"/>
+      <c r="AG73" s="39"/>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
@@ -3689,14 +3806,14 @@
       <c r="AC74" s="21">
         <v>0.30299999999999999</v>
       </c>
-      <c r="AD74" s="34">
+      <c r="AD74" s="37">
         <v>26553</v>
       </c>
-      <c r="AE74" s="34"/>
-      <c r="AF74" s="30">
+      <c r="AE74" s="37"/>
+      <c r="AF74" s="38">
         <v>10</v>
       </c>
-      <c r="AG74" s="31"/>
+      <c r="AG74" s="39"/>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
@@ -3770,14 +3887,14 @@
       <c r="AC75" s="21">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AD75" s="34">
+      <c r="AD75" s="37">
         <v>24949</v>
       </c>
-      <c r="AE75" s="34"/>
-      <c r="AF75" s="30">
+      <c r="AE75" s="37"/>
+      <c r="AF75" s="38">
         <v>10</v>
       </c>
-      <c r="AG75" s="31"/>
+      <c r="AG75" s="39"/>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
@@ -3851,14 +3968,14 @@
       <c r="AC76" s="21">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AD76" s="34">
+      <c r="AD76" s="37">
         <v>22870</v>
       </c>
-      <c r="AE76" s="34"/>
-      <c r="AF76" s="30">
+      <c r="AE76" s="37"/>
+      <c r="AF76" s="38">
         <v>10</v>
       </c>
-      <c r="AG76" s="31"/>
+      <c r="AG76" s="39"/>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
@@ -3932,14 +4049,14 @@
       <c r="AC77" s="21">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AD77" s="34">
+      <c r="AD77" s="37">
         <v>139836</v>
       </c>
-      <c r="AE77" s="34"/>
-      <c r="AF77" s="30">
+      <c r="AE77" s="37"/>
+      <c r="AF77" s="38">
         <v>52.2</v>
       </c>
-      <c r="AG77" s="31"/>
+      <c r="AG77" s="39"/>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
@@ -4013,14 +4130,14 @@
       <c r="AC78" s="21">
         <v>0.26800000000000002</v>
       </c>
-      <c r="AD78" s="34">
+      <c r="AD78" s="37">
         <v>23515</v>
       </c>
-      <c r="AE78" s="34"/>
-      <c r="AF78" s="30">
+      <c r="AE78" s="37"/>
+      <c r="AF78" s="38">
         <v>10</v>
       </c>
-      <c r="AG78" s="31"/>
+      <c r="AG78" s="39"/>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
@@ -4094,14 +4211,14 @@
       <c r="AC79" s="21">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AD79" s="34">
+      <c r="AD79" s="37">
         <v>49503</v>
       </c>
-      <c r="AE79" s="34"/>
-      <c r="AF79" s="30">
+      <c r="AE79" s="37"/>
+      <c r="AF79" s="38">
         <v>20.2</v>
       </c>
-      <c r="AG79" s="31"/>
+      <c r="AG79" s="39"/>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
@@ -4175,14 +4292,14 @@
       <c r="AC80" s="21">
         <v>0.307</v>
       </c>
-      <c r="AD80" s="34">
+      <c r="AD80" s="37">
         <v>188420</v>
       </c>
-      <c r="AE80" s="34"/>
-      <c r="AF80" s="30">
+      <c r="AE80" s="37"/>
+      <c r="AF80" s="38">
         <v>70</v>
       </c>
-      <c r="AG80" s="31"/>
+      <c r="AG80" s="39"/>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -4256,14 +4373,14 @@
       <c r="AC81" s="21">
         <v>0.28899999999999998</v>
       </c>
-      <c r="AD81" s="34">
+      <c r="AD81" s="37">
         <v>26573</v>
       </c>
-      <c r="AE81" s="34"/>
-      <c r="AF81" s="30">
+      <c r="AE81" s="37"/>
+      <c r="AF81" s="38">
         <v>10.5</v>
       </c>
-      <c r="AG81" s="31"/>
+      <c r="AG81" s="39"/>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
@@ -4337,14 +4454,14 @@
       <c r="AC82" s="21">
         <v>0.28799999999999998</v>
       </c>
-      <c r="AD82" s="34">
+      <c r="AD82" s="37">
         <v>25253</v>
       </c>
-      <c r="AE82" s="34"/>
-      <c r="AF82" s="30">
+      <c r="AE82" s="37"/>
+      <c r="AF82" s="38">
         <v>10</v>
       </c>
-      <c r="AG82" s="31"/>
+      <c r="AG82" s="39"/>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
@@ -4418,14 +4535,14 @@
       <c r="AC83" s="21">
         <v>0.20100000000000001</v>
       </c>
-      <c r="AD83" s="34">
+      <c r="AD83" s="37">
         <v>17610</v>
       </c>
-      <c r="AE83" s="34"/>
-      <c r="AF83" s="30">
+      <c r="AE83" s="37"/>
+      <c r="AF83" s="38">
         <v>10</v>
       </c>
-      <c r="AG83" s="31"/>
+      <c r="AG83" s="39"/>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
@@ -4499,14 +4616,14 @@
       <c r="AC84" s="21">
         <v>0.221</v>
       </c>
-      <c r="AD84" s="34">
+      <c r="AD84" s="37">
         <v>19372</v>
       </c>
-      <c r="AE84" s="34"/>
-      <c r="AF84" s="30">
+      <c r="AE84" s="37"/>
+      <c r="AF84" s="38">
         <v>10</v>
       </c>
-      <c r="AG84" s="31"/>
+      <c r="AG84" s="39"/>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
@@ -4580,14 +4697,14 @@
       <c r="AC85" s="21">
         <v>0.216</v>
       </c>
-      <c r="AD85" s="34">
+      <c r="AD85" s="37">
         <v>18939</v>
       </c>
-      <c r="AE85" s="34"/>
-      <c r="AF85" s="30">
+      <c r="AE85" s="37"/>
+      <c r="AF85" s="38">
         <v>10</v>
       </c>
-      <c r="AG85" s="31"/>
+      <c r="AG85" s="39"/>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
@@ -4661,14 +4778,14 @@
       <c r="AC86" s="21">
         <v>0.23</v>
       </c>
-      <c r="AD86" s="34">
+      <c r="AD86" s="37">
         <v>20382</v>
       </c>
-      <c r="AE86" s="34"/>
-      <c r="AF86" s="30">
+      <c r="AE86" s="37"/>
+      <c r="AF86" s="38">
         <v>10.1</v>
       </c>
-      <c r="AG86" s="31"/>
+      <c r="AG86" s="39"/>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
@@ -4742,14 +4859,14 @@
       <c r="AC87" s="21">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AD87" s="34">
+      <c r="AD87" s="37">
         <v>19968</v>
       </c>
-      <c r="AE87" s="34"/>
-      <c r="AF87" s="30">
+      <c r="AE87" s="37"/>
+      <c r="AF87" s="38">
         <v>10.1</v>
       </c>
-      <c r="AG87" s="31"/>
+      <c r="AG87" s="39"/>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
@@ -4823,14 +4940,14 @@
       <c r="AC88" s="21">
         <v>0.26500000000000001</v>
       </c>
-      <c r="AD88" s="34">
+      <c r="AD88" s="37">
         <v>23240</v>
       </c>
-      <c r="AE88" s="34"/>
-      <c r="AF88" s="30">
+      <c r="AE88" s="37"/>
+      <c r="AF88" s="38">
         <v>10</v>
       </c>
-      <c r="AG88" s="31"/>
+      <c r="AG88" s="39"/>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
@@ -4904,14 +5021,14 @@
       <c r="AC89" s="23">
         <v>0.254</v>
       </c>
-      <c r="AD89" s="35">
+      <c r="AD89" s="42">
         <v>26709</v>
       </c>
-      <c r="AE89" s="35"/>
-      <c r="AF89" s="32">
+      <c r="AE89" s="42"/>
+      <c r="AF89" s="40">
         <v>12</v>
       </c>
-      <c r="AG89" s="33"/>
+      <c r="AG89" s="41"/>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
@@ -5046,51 +5163,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Z47:Z49"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="AC67:AC68"/>
-    <mergeCell ref="AD67:AE68"/>
-    <mergeCell ref="AD70:AE70"/>
-    <mergeCell ref="AD71:AE71"/>
-    <mergeCell ref="AD72:AE72"/>
-    <mergeCell ref="AD73:AE73"/>
-    <mergeCell ref="AD74:AE74"/>
-    <mergeCell ref="AD75:AE75"/>
-    <mergeCell ref="AD76:AE76"/>
-    <mergeCell ref="AD77:AE77"/>
-    <mergeCell ref="AD85:AE85"/>
-    <mergeCell ref="AD86:AE86"/>
-    <mergeCell ref="AD87:AE87"/>
-    <mergeCell ref="AD78:AE78"/>
-    <mergeCell ref="AD79:AE79"/>
-    <mergeCell ref="AD80:AE80"/>
-    <mergeCell ref="AD81:AE81"/>
-    <mergeCell ref="AD82:AE82"/>
-    <mergeCell ref="AF79:AG79"/>
-    <mergeCell ref="AF80:AG80"/>
-    <mergeCell ref="AF81:AG81"/>
-    <mergeCell ref="AD83:AE83"/>
-    <mergeCell ref="AD84:AE84"/>
-    <mergeCell ref="AF74:AG74"/>
-    <mergeCell ref="AF75:AG75"/>
-    <mergeCell ref="AF76:AG76"/>
-    <mergeCell ref="AF77:AG77"/>
-    <mergeCell ref="AF78:AG78"/>
+  <mergeCells count="73">
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="AF87:AG87"/>
     <mergeCell ref="AF88:AG88"/>
@@ -5107,11 +5192,51 @@
     <mergeCell ref="AF71:AG71"/>
     <mergeCell ref="AF72:AG72"/>
     <mergeCell ref="AF73:AG73"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="AF74:AG74"/>
+    <mergeCell ref="AF75:AG75"/>
+    <mergeCell ref="AF76:AG76"/>
+    <mergeCell ref="AF77:AG77"/>
+    <mergeCell ref="AF78:AG78"/>
+    <mergeCell ref="AF79:AG79"/>
+    <mergeCell ref="AF80:AG80"/>
+    <mergeCell ref="AF81:AG81"/>
+    <mergeCell ref="AD83:AE83"/>
+    <mergeCell ref="AD84:AE84"/>
+    <mergeCell ref="AD85:AE85"/>
+    <mergeCell ref="AD86:AE86"/>
+    <mergeCell ref="AD87:AE87"/>
+    <mergeCell ref="AD78:AE78"/>
+    <mergeCell ref="AD79:AE79"/>
+    <mergeCell ref="AD80:AE80"/>
+    <mergeCell ref="AD81:AE81"/>
+    <mergeCell ref="AD82:AE82"/>
+    <mergeCell ref="AD73:AE73"/>
+    <mergeCell ref="AD74:AE74"/>
+    <mergeCell ref="AD75:AE75"/>
+    <mergeCell ref="AD76:AE76"/>
+    <mergeCell ref="AD77:AE77"/>
+    <mergeCell ref="AC67:AC68"/>
+    <mergeCell ref="AD67:AE68"/>
+    <mergeCell ref="AD70:AE70"/>
+    <mergeCell ref="AD71:AE71"/>
+    <mergeCell ref="AD72:AE72"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="S8:U8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="106">
   <si>
     <t>NumBuses</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t># of conventional cars w/o subsidy:</t>
+  </si>
+  <si>
+    <t>(in 2045)</t>
   </si>
 </sst>
 </file>
@@ -588,31 +591,9 @@
     <xf numFmtId="8" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -627,10 +608,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -642,8 +632,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,7 +931,7 @@
   <dimension ref="A1:AG91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -959,34 +962,34 @@
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="29"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="16">
         <v>0.1</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
       <c r="L1" s="17">
         <v>7256200.8565999996</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
       <c r="Q1" s="26">
         <v>2221460.4</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
       <c r="V1" s="26">
         <v>8809340386.1000004</v>
       </c>
@@ -998,37 +1001,40 @@
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="6">
         <v>4765</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="25">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
       <c r="Q2" s="26">
         <v>19867.2</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="47">
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="29">
         <v>348494.96600000001</v>
+      </c>
+      <c r="W2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.35">
@@ -1038,30 +1044,33 @@
       <c r="C3" s="6">
         <v>42</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="29"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I3" s="4"/>
       <c r="L3" s="27"/>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
       <c r="Q3" s="26">
         <v>1596613.3</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="48">
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="30">
         <v>2066077.2990000001</v>
+      </c>
+      <c r="W3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.35">
@@ -1072,76 +1081,82 @@
         <v>26</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="29"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="17">
         <v>1</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="N4" s="29" t="s">
+      <c r="N4" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
       <c r="Q4" s="26">
         <v>43560</v>
       </c>
-      <c r="S4" s="29" t="s">
+      <c r="S4" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="47">
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="29">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
       </c>
+      <c r="W4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="17">
         <v>1</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
       <c r="Q5" s="28">
         <v>50</v>
       </c>
-      <c r="S5" s="29" t="s">
+      <c r="S5" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="47">
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="29">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
       </c>
+      <c r="W5" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="I6" s="4"/>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
       <c r="Q6" s="28">
         <v>10</v>
       </c>
-      <c r="S6" s="29" t="s">
+      <c r="S6" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="47">
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="29">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
       </c>
@@ -1150,12 +1165,12 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="S7" s="29" t="s">
+      <c r="S7" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="47">
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="29">
         <f>V4*V6</f>
         <v>29903074042.27026</v>
       </c>
@@ -1164,12 +1179,12 @@
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="S8" s="29" t="s">
+      <c r="S8" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="47">
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="29">
         <f>V5*V6</f>
         <v>5911072775.7976093</v>
       </c>
@@ -1178,11 +1193,11 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.35">
@@ -1766,17 +1781,17 @@
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
       <c r="F40" s="2"/>
-      <c r="H40" s="31" t="s">
+      <c r="H40" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
       <c r="O40" s="4"/>
@@ -1977,40 +1992,40 @@
       <c r="S47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V47" s="30" t="s">
+      <c r="V47" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="W47" s="30" t="s">
+      <c r="W47" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="X47" s="30" t="s">
+      <c r="X47" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="Y47" s="30" t="s">
+      <c r="Y47" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="Z47" s="30" t="s">
+      <c r="Z47" s="47" t="s">
         <v>36</v>
       </c>
       <c r="AA47" s="13"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
       <c r="R48" t="s">
         <v>18</v>
       </c>
       <c r="S48" t="s">
         <v>21</v>
       </c>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="47"/>
+      <c r="X48" s="47"/>
+      <c r="Y48" s="47"/>
+      <c r="Z48" s="47"/>
       <c r="AA48" s="13"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.35">
@@ -2044,11 +2059,11 @@
       <c r="U49" t="s">
         <v>10</v>
       </c>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="30"/>
-      <c r="Z49" s="30"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="47"/>
+      <c r="Y49" s="47"/>
+      <c r="Z49" s="47"/>
       <c r="AA49" s="13"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.35">
@@ -3256,17 +3271,17 @@
       <c r="Z67" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AC67" s="32" t="s">
+      <c r="AC67" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="AD67" s="34" t="s">
+      <c r="AD67" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="AE67" s="34"/>
-      <c r="AF67" s="34" t="s">
+      <c r="AE67" s="38"/>
+      <c r="AF67" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="AG67" s="43"/>
+      <c r="AG67" s="39"/>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
@@ -3334,11 +3349,11 @@
       <c r="Z68" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="AC68" s="33"/>
-      <c r="AD68" s="35"/>
-      <c r="AE68" s="35"/>
-      <c r="AF68" s="35"/>
-      <c r="AG68" s="44"/>
+      <c r="AC68" s="45"/>
+      <c r="AD68" s="40"/>
+      <c r="AE68" s="40"/>
+      <c r="AF68" s="40"/>
+      <c r="AG68" s="41"/>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
@@ -3482,14 +3497,14 @@
       <c r="AC70" s="19">
         <v>0.29299999999999998</v>
       </c>
-      <c r="AD70" s="36">
+      <c r="AD70" s="46">
         <v>72154</v>
       </c>
-      <c r="AE70" s="36"/>
-      <c r="AF70" s="45">
+      <c r="AE70" s="46"/>
+      <c r="AF70" s="42">
         <v>28.1</v>
       </c>
-      <c r="AG70" s="46"/>
+      <c r="AG70" s="43"/>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
@@ -3563,14 +3578,14 @@
       <c r="AC71" s="21">
         <v>0.31</v>
       </c>
-      <c r="AD71" s="37">
+      <c r="AD71" s="36">
         <v>67811</v>
       </c>
-      <c r="AE71" s="37"/>
-      <c r="AF71" s="38">
+      <c r="AE71" s="36"/>
+      <c r="AF71" s="32">
         <v>25</v>
       </c>
-      <c r="AG71" s="39"/>
+      <c r="AG71" s="33"/>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
@@ -3644,14 +3659,14 @@
       <c r="AC72" s="21">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AD72" s="37">
+      <c r="AD72" s="36">
         <v>187455</v>
       </c>
-      <c r="AE72" s="37"/>
-      <c r="AF72" s="38">
+      <c r="AE72" s="36"/>
+      <c r="AF72" s="32">
         <v>70</v>
       </c>
-      <c r="AG72" s="39"/>
+      <c r="AG72" s="33"/>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
@@ -3725,14 +3740,14 @@
       <c r="AC73" s="21">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AD73" s="37">
+      <c r="AD73" s="36">
         <v>63266</v>
       </c>
-      <c r="AE73" s="37"/>
-      <c r="AF73" s="38">
+      <c r="AE73" s="36"/>
+      <c r="AF73" s="32">
         <v>30.6</v>
       </c>
-      <c r="AG73" s="39"/>
+      <c r="AG73" s="33"/>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
@@ -3806,14 +3821,14 @@
       <c r="AC74" s="21">
         <v>0.30299999999999999</v>
       </c>
-      <c r="AD74" s="37">
+      <c r="AD74" s="36">
         <v>26553</v>
       </c>
-      <c r="AE74" s="37"/>
-      <c r="AF74" s="38">
+      <c r="AE74" s="36"/>
+      <c r="AF74" s="32">
         <v>10</v>
       </c>
-      <c r="AG74" s="39"/>
+      <c r="AG74" s="33"/>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
@@ -3887,14 +3902,14 @@
       <c r="AC75" s="21">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AD75" s="37">
+      <c r="AD75" s="36">
         <v>24949</v>
       </c>
-      <c r="AE75" s="37"/>
-      <c r="AF75" s="38">
+      <c r="AE75" s="36"/>
+      <c r="AF75" s="32">
         <v>10</v>
       </c>
-      <c r="AG75" s="39"/>
+      <c r="AG75" s="33"/>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
@@ -3968,14 +3983,14 @@
       <c r="AC76" s="21">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AD76" s="37">
+      <c r="AD76" s="36">
         <v>22870</v>
       </c>
-      <c r="AE76" s="37"/>
-      <c r="AF76" s="38">
+      <c r="AE76" s="36"/>
+      <c r="AF76" s="32">
         <v>10</v>
       </c>
-      <c r="AG76" s="39"/>
+      <c r="AG76" s="33"/>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
@@ -4049,14 +4064,14 @@
       <c r="AC77" s="21">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AD77" s="37">
+      <c r="AD77" s="36">
         <v>139836</v>
       </c>
-      <c r="AE77" s="37"/>
-      <c r="AF77" s="38">
+      <c r="AE77" s="36"/>
+      <c r="AF77" s="32">
         <v>52.2</v>
       </c>
-      <c r="AG77" s="39"/>
+      <c r="AG77" s="33"/>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
@@ -4130,14 +4145,14 @@
       <c r="AC78" s="21">
         <v>0.26800000000000002</v>
       </c>
-      <c r="AD78" s="37">
+      <c r="AD78" s="36">
         <v>23515</v>
       </c>
-      <c r="AE78" s="37"/>
-      <c r="AF78" s="38">
+      <c r="AE78" s="36"/>
+      <c r="AF78" s="32">
         <v>10</v>
       </c>
-      <c r="AG78" s="39"/>
+      <c r="AG78" s="33"/>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
@@ -4211,14 +4226,14 @@
       <c r="AC79" s="21">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AD79" s="37">
+      <c r="AD79" s="36">
         <v>49503</v>
       </c>
-      <c r="AE79" s="37"/>
-      <c r="AF79" s="38">
+      <c r="AE79" s="36"/>
+      <c r="AF79" s="32">
         <v>20.2</v>
       </c>
-      <c r="AG79" s="39"/>
+      <c r="AG79" s="33"/>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
@@ -4292,14 +4307,14 @@
       <c r="AC80" s="21">
         <v>0.307</v>
       </c>
-      <c r="AD80" s="37">
+      <c r="AD80" s="36">
         <v>188420</v>
       </c>
-      <c r="AE80" s="37"/>
-      <c r="AF80" s="38">
+      <c r="AE80" s="36"/>
+      <c r="AF80" s="32">
         <v>70</v>
       </c>
-      <c r="AG80" s="39"/>
+      <c r="AG80" s="33"/>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -4373,14 +4388,14 @@
       <c r="AC81" s="21">
         <v>0.28899999999999998</v>
       </c>
-      <c r="AD81" s="37">
+      <c r="AD81" s="36">
         <v>26573</v>
       </c>
-      <c r="AE81" s="37"/>
-      <c r="AF81" s="38">
+      <c r="AE81" s="36"/>
+      <c r="AF81" s="32">
         <v>10.5</v>
       </c>
-      <c r="AG81" s="39"/>
+      <c r="AG81" s="33"/>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
@@ -4454,14 +4469,14 @@
       <c r="AC82" s="21">
         <v>0.28799999999999998</v>
       </c>
-      <c r="AD82" s="37">
+      <c r="AD82" s="36">
         <v>25253</v>
       </c>
-      <c r="AE82" s="37"/>
-      <c r="AF82" s="38">
+      <c r="AE82" s="36"/>
+      <c r="AF82" s="32">
         <v>10</v>
       </c>
-      <c r="AG82" s="39"/>
+      <c r="AG82" s="33"/>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
@@ -4535,14 +4550,14 @@
       <c r="AC83" s="21">
         <v>0.20100000000000001</v>
       </c>
-      <c r="AD83" s="37">
+      <c r="AD83" s="36">
         <v>17610</v>
       </c>
-      <c r="AE83" s="37"/>
-      <c r="AF83" s="38">
+      <c r="AE83" s="36"/>
+      <c r="AF83" s="32">
         <v>10</v>
       </c>
-      <c r="AG83" s="39"/>
+      <c r="AG83" s="33"/>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
@@ -4616,14 +4631,14 @@
       <c r="AC84" s="21">
         <v>0.221</v>
       </c>
-      <c r="AD84" s="37">
+      <c r="AD84" s="36">
         <v>19372</v>
       </c>
-      <c r="AE84" s="37"/>
-      <c r="AF84" s="38">
+      <c r="AE84" s="36"/>
+      <c r="AF84" s="32">
         <v>10</v>
       </c>
-      <c r="AG84" s="39"/>
+      <c r="AG84" s="33"/>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
@@ -4697,14 +4712,14 @@
       <c r="AC85" s="21">
         <v>0.216</v>
       </c>
-      <c r="AD85" s="37">
+      <c r="AD85" s="36">
         <v>18939</v>
       </c>
-      <c r="AE85" s="37"/>
-      <c r="AF85" s="38">
+      <c r="AE85" s="36"/>
+      <c r="AF85" s="32">
         <v>10</v>
       </c>
-      <c r="AG85" s="39"/>
+      <c r="AG85" s="33"/>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
@@ -4778,14 +4793,14 @@
       <c r="AC86" s="21">
         <v>0.23</v>
       </c>
-      <c r="AD86" s="37">
+      <c r="AD86" s="36">
         <v>20382</v>
       </c>
-      <c r="AE86" s="37"/>
-      <c r="AF86" s="38">
+      <c r="AE86" s="36"/>
+      <c r="AF86" s="32">
         <v>10.1</v>
       </c>
-      <c r="AG86" s="39"/>
+      <c r="AG86" s="33"/>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
@@ -4859,14 +4874,14 @@
       <c r="AC87" s="21">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AD87" s="37">
+      <c r="AD87" s="36">
         <v>19968</v>
       </c>
-      <c r="AE87" s="37"/>
-      <c r="AF87" s="38">
+      <c r="AE87" s="36"/>
+      <c r="AF87" s="32">
         <v>10.1</v>
       </c>
-      <c r="AG87" s="39"/>
+      <c r="AG87" s="33"/>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
@@ -4940,14 +4955,14 @@
       <c r="AC88" s="21">
         <v>0.26500000000000001</v>
       </c>
-      <c r="AD88" s="37">
+      <c r="AD88" s="36">
         <v>23240</v>
       </c>
-      <c r="AE88" s="37"/>
-      <c r="AF88" s="38">
+      <c r="AE88" s="36"/>
+      <c r="AF88" s="32">
         <v>10</v>
       </c>
-      <c r="AG88" s="39"/>
+      <c r="AG88" s="33"/>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
@@ -5021,14 +5036,14 @@
       <c r="AC89" s="23">
         <v>0.254</v>
       </c>
-      <c r="AD89" s="42">
+      <c r="AD89" s="37">
         <v>26709</v>
       </c>
-      <c r="AE89" s="42"/>
-      <c r="AF89" s="40">
+      <c r="AE89" s="37"/>
+      <c r="AF89" s="34">
         <v>12</v>
       </c>
-      <c r="AG89" s="41"/>
+      <c r="AG89" s="35"/>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
@@ -5164,18 +5179,51 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="AC67:AC68"/>
+    <mergeCell ref="AD67:AE68"/>
+    <mergeCell ref="AD70:AE70"/>
+    <mergeCell ref="AD71:AE71"/>
+    <mergeCell ref="AD72:AE72"/>
+    <mergeCell ref="AD73:AE73"/>
+    <mergeCell ref="AD74:AE74"/>
+    <mergeCell ref="AD75:AE75"/>
+    <mergeCell ref="AD76:AE76"/>
+    <mergeCell ref="AD77:AE77"/>
+    <mergeCell ref="AD85:AE85"/>
+    <mergeCell ref="AD86:AE86"/>
+    <mergeCell ref="AD87:AE87"/>
+    <mergeCell ref="AD78:AE78"/>
+    <mergeCell ref="AD79:AE79"/>
+    <mergeCell ref="AD80:AE80"/>
+    <mergeCell ref="AD81:AE81"/>
+    <mergeCell ref="AD82:AE82"/>
+    <mergeCell ref="AF79:AG79"/>
+    <mergeCell ref="AF80:AG80"/>
+    <mergeCell ref="AF81:AG81"/>
+    <mergeCell ref="AD83:AE83"/>
+    <mergeCell ref="AD84:AE84"/>
+    <mergeCell ref="AF74:AG74"/>
+    <mergeCell ref="AF75:AG75"/>
+    <mergeCell ref="AF76:AG76"/>
+    <mergeCell ref="AF77:AG77"/>
+    <mergeCell ref="AF78:AG78"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="AF87:AG87"/>
     <mergeCell ref="AF88:AG88"/>
@@ -5192,51 +5240,18 @@
     <mergeCell ref="AF71:AG71"/>
     <mergeCell ref="AF72:AG72"/>
     <mergeCell ref="AF73:AG73"/>
-    <mergeCell ref="AF74:AG74"/>
-    <mergeCell ref="AF75:AG75"/>
-    <mergeCell ref="AF76:AG76"/>
-    <mergeCell ref="AF77:AG77"/>
-    <mergeCell ref="AF78:AG78"/>
-    <mergeCell ref="AF79:AG79"/>
-    <mergeCell ref="AF80:AG80"/>
-    <mergeCell ref="AF81:AG81"/>
-    <mergeCell ref="AD83:AE83"/>
-    <mergeCell ref="AD84:AE84"/>
-    <mergeCell ref="AD85:AE85"/>
-    <mergeCell ref="AD86:AE86"/>
-    <mergeCell ref="AD87:AE87"/>
-    <mergeCell ref="AD78:AE78"/>
-    <mergeCell ref="AD79:AE79"/>
-    <mergeCell ref="AD80:AE80"/>
-    <mergeCell ref="AD81:AE81"/>
-    <mergeCell ref="AD82:AE82"/>
-    <mergeCell ref="AD73:AE73"/>
-    <mergeCell ref="AD74:AE74"/>
-    <mergeCell ref="AD75:AE75"/>
-    <mergeCell ref="AD76:AE76"/>
-    <mergeCell ref="AD77:AE77"/>
-    <mergeCell ref="AC67:AC68"/>
-    <mergeCell ref="AD67:AE68"/>
-    <mergeCell ref="AD70:AE70"/>
-    <mergeCell ref="AD71:AE71"/>
-    <mergeCell ref="AD72:AE72"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Z47:Z49"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -18,30 +18,30 @@
     <definedName name="BusDemand">Sheet2!$C$11:$E$36</definedName>
     <definedName name="CAPEX_solar">Sheet2!$Q$1</definedName>
     <definedName name="CAPEX_wind">Sheet2!$Q$3</definedName>
-    <definedName name="CH4_rate">Sheet2!$Y$50:$Y$91</definedName>
-    <definedName name="CO2_rate">Sheet2!$X$50:$X$91</definedName>
+    <definedName name="CH4_rate">Sheet2!$Y$50:$Y$92</definedName>
+    <definedName name="CO2_rate">Sheet2!$X$50:$X$92</definedName>
     <definedName name="DiscRate">Sheet2!$G$1</definedName>
     <definedName name="EV_subsidy_cost">Sheet2!$V$1</definedName>
     <definedName name="LineCapacity">Sheet2!$P$42:$P$44</definedName>
     <definedName name="LineFromBus">Sheet2!$H$42:$J$44</definedName>
     <definedName name="LineReactance">Sheet2!$M$42:$M$44</definedName>
     <definedName name="LineToBus">Sheet2!$C$42:$E$44</definedName>
-    <definedName name="MarginalC">Sheet2!$N$50:$N$91</definedName>
+    <definedName name="MarginalC">Sheet2!$N$50:$N$92</definedName>
     <definedName name="maxCO2">Sheet2!$L$2</definedName>
-    <definedName name="MaxGen">Sheet2!$H$50:$H$91</definedName>
-    <definedName name="MinGen">Sheet2!$K$50:$K$91</definedName>
-    <definedName name="N2O_rate">Sheet2!$Z$50:$Z$91</definedName>
-    <definedName name="NOx_rate">Sheet2!$V$50:$V$91</definedName>
+    <definedName name="MaxGen">Sheet2!$H$50:$H$92</definedName>
+    <definedName name="MinGen">Sheet2!$K$50:$K$92</definedName>
+    <definedName name="N2O_rate">Sheet2!$Z$50:$Z$92</definedName>
+    <definedName name="NOx_rate">Sheet2!$V$50:$V$92</definedName>
     <definedName name="NumBuses">Sheet2!$C$1</definedName>
     <definedName name="NumLines">Sheet2!$C$2</definedName>
     <definedName name="NumUnits">Sheet2!$C$3</definedName>
     <definedName name="NumYears">Sheet2!$C$4</definedName>
     <definedName name="OPEX_solar">Sheet2!$Q$2</definedName>
     <definedName name="OPEX_wind">Sheet2!$Q$4</definedName>
-    <definedName name="SO2_rate">Sheet2!$W$50:$W$91</definedName>
+    <definedName name="SO2_rate">Sheet2!$W$50:$W$92</definedName>
     <definedName name="solar_cap_factor">Sheet2!$G$4</definedName>
     <definedName name="solar_inc">Sheet2!$Q$5</definedName>
-    <definedName name="UnitsByBus">Sheet2!$C$50:$E$91</definedName>
+    <definedName name="UnitsByBus">Sheet2!$C$50:$E$92</definedName>
     <definedName name="wind_cap_factor">Sheet2!$G$5</definedName>
     <definedName name="wind_inc">Sheet2!$Q$6</definedName>
   </definedNames>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="107">
   <si>
     <t>NumBuses</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>(in 2045)</t>
+  </si>
+  <si>
+    <t>STOR</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -593,7 +596,34 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,19 +638,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -630,21 +651,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -928,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG91"/>
+  <dimension ref="A1:AG92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -962,34 +968,34 @@
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="31"/>
+      <c r="F1" s="32"/>
       <c r="G1" s="16">
         <v>0.1</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
       <c r="L1" s="17">
         <v>7256200.8565999996</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
       <c r="Q1" s="26">
         <v>2221460.4</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
       <c r="V1" s="26">
         <v>8809340386.1000004</v>
       </c>
@@ -1001,35 +1007,35 @@
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="31"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="6">
         <v>4765</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="25">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
       <c r="Q2" s="26">
         <v>19867.2</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
       <c r="V2" s="29">
         <v>348494.96600000001</v>
       </c>
@@ -1042,30 +1048,30 @@
         <v>2</v>
       </c>
       <c r="C3" s="6">
-        <v>42</v>
-      </c>
-      <c r="E3" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="31"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I3" s="4"/>
       <c r="L3" s="27"/>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
       <c r="Q3" s="26">
         <v>1596613.3</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
       <c r="V3" s="30">
         <v>2066077.2990000001</v>
       </c>
@@ -1081,27 +1087,27 @@
         <v>26</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="17">
         <v>1</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
       <c r="Q4" s="26">
         <v>43560</v>
       </c>
-      <c r="S4" s="31" t="s">
+      <c r="S4" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
       <c r="V4" s="29">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
@@ -1112,27 +1118,27 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="31"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="17">
         <v>1</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
       <c r="Q5" s="28">
         <v>50</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
       <c r="V5" s="29">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
@@ -1143,19 +1149,19 @@
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="I6" s="4"/>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
       <c r="Q6" s="28">
         <v>10</v>
       </c>
-      <c r="S6" s="31" t="s">
+      <c r="S6" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
       <c r="V6" s="29">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
@@ -1165,11 +1171,11 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="S7" s="31" t="s">
+      <c r="S7" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
       <c r="V7" s="29">
         <f>V4*V6</f>
         <v>29903074042.27026</v>
@@ -1179,11 +1185,11 @@
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="S8" s="31" t="s">
+      <c r="S8" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
       <c r="V8" s="29">
         <f>V5*V6</f>
         <v>5911072775.7976093</v>
@@ -1193,11 +1199,11 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.35">
@@ -1781,17 +1787,17 @@
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="2"/>
-      <c r="H40" s="48" t="s">
+      <c r="H40" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
       <c r="O40" s="4"/>
@@ -1992,40 +1998,40 @@
       <c r="S47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V47" s="47" t="s">
+      <c r="V47" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="W47" s="47" t="s">
+      <c r="W47" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="X47" s="47" t="s">
+      <c r="X47" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="Y47" s="47" t="s">
+      <c r="Y47" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="Z47" s="47" t="s">
+      <c r="Z47" s="33" t="s">
         <v>36</v>
       </c>
       <c r="AA47" s="13"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
       <c r="R48" t="s">
         <v>18</v>
       </c>
       <c r="S48" t="s">
         <v>21</v>
       </c>
-      <c r="V48" s="47"/>
-      <c r="W48" s="47"/>
-      <c r="X48" s="47"/>
-      <c r="Y48" s="47"/>
-      <c r="Z48" s="47"/>
+      <c r="V48" s="33"/>
+      <c r="W48" s="33"/>
+      <c r="X48" s="33"/>
+      <c r="Y48" s="33"/>
+      <c r="Z48" s="33"/>
       <c r="AA48" s="13"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.35">
@@ -2059,11 +2065,11 @@
       <c r="U49" t="s">
         <v>10</v>
       </c>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
-      <c r="X49" s="47"/>
-      <c r="Y49" s="47"/>
-      <c r="Z49" s="47"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="33"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
       <c r="AA49" s="13"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.35">
@@ -2165,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="N51" s="8">
-        <f t="shared" ref="N51:N91" si="4">R51*S51*1000/1000000</f>
+        <f t="shared" ref="N51:N92" si="4">R51*S51*1000/1000000</f>
         <v>23.617080000000001</v>
       </c>
       <c r="P51" s="3">
@@ -3271,17 +3277,17 @@
       <c r="Z67" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AC67" s="44" t="s">
+      <c r="AC67" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="AD67" s="38" t="s">
+      <c r="AD67" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="AE67" s="38"/>
-      <c r="AF67" s="38" t="s">
+      <c r="AE67" s="37"/>
+      <c r="AF67" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AG67" s="39"/>
+      <c r="AG67" s="46"/>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
@@ -3349,11 +3355,11 @@
       <c r="Z68" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="AC68" s="45"/>
-      <c r="AD68" s="40"/>
-      <c r="AE68" s="40"/>
-      <c r="AF68" s="40"/>
-      <c r="AG68" s="41"/>
+      <c r="AC68" s="36"/>
+      <c r="AD68" s="38"/>
+      <c r="AE68" s="38"/>
+      <c r="AF68" s="38"/>
+      <c r="AG68" s="47"/>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
@@ -3497,14 +3503,14 @@
       <c r="AC70" s="19">
         <v>0.29299999999999998</v>
       </c>
-      <c r="AD70" s="46">
+      <c r="AD70" s="39">
         <v>72154</v>
       </c>
-      <c r="AE70" s="46"/>
-      <c r="AF70" s="42">
+      <c r="AE70" s="39"/>
+      <c r="AF70" s="48">
         <v>28.1</v>
       </c>
-      <c r="AG70" s="43"/>
+      <c r="AG70" s="49"/>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
@@ -3578,14 +3584,14 @@
       <c r="AC71" s="21">
         <v>0.31</v>
       </c>
-      <c r="AD71" s="36">
+      <c r="AD71" s="40">
         <v>67811</v>
       </c>
-      <c r="AE71" s="36"/>
-      <c r="AF71" s="32">
+      <c r="AE71" s="40"/>
+      <c r="AF71" s="41">
         <v>25</v>
       </c>
-      <c r="AG71" s="33"/>
+      <c r="AG71" s="42"/>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
@@ -3659,14 +3665,14 @@
       <c r="AC72" s="21">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AD72" s="36">
+      <c r="AD72" s="40">
         <v>187455</v>
       </c>
-      <c r="AE72" s="36"/>
-      <c r="AF72" s="32">
+      <c r="AE72" s="40"/>
+      <c r="AF72" s="41">
         <v>70</v>
       </c>
-      <c r="AG72" s="33"/>
+      <c r="AG72" s="42"/>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
@@ -3740,14 +3746,14 @@
       <c r="AC73" s="21">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AD73" s="36">
+      <c r="AD73" s="40">
         <v>63266</v>
       </c>
-      <c r="AE73" s="36"/>
-      <c r="AF73" s="32">
+      <c r="AE73" s="40"/>
+      <c r="AF73" s="41">
         <v>30.6</v>
       </c>
-      <c r="AG73" s="33"/>
+      <c r="AG73" s="42"/>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
@@ -3821,14 +3827,14 @@
       <c r="AC74" s="21">
         <v>0.30299999999999999</v>
       </c>
-      <c r="AD74" s="36">
+      <c r="AD74" s="40">
         <v>26553</v>
       </c>
-      <c r="AE74" s="36"/>
-      <c r="AF74" s="32">
+      <c r="AE74" s="40"/>
+      <c r="AF74" s="41">
         <v>10</v>
       </c>
-      <c r="AG74" s="33"/>
+      <c r="AG74" s="42"/>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
@@ -3902,14 +3908,14 @@
       <c r="AC75" s="21">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AD75" s="36">
+      <c r="AD75" s="40">
         <v>24949</v>
       </c>
-      <c r="AE75" s="36"/>
-      <c r="AF75" s="32">
+      <c r="AE75" s="40"/>
+      <c r="AF75" s="41">
         <v>10</v>
       </c>
-      <c r="AG75" s="33"/>
+      <c r="AG75" s="42"/>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
@@ -3983,14 +3989,14 @@
       <c r="AC76" s="21">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AD76" s="36">
+      <c r="AD76" s="40">
         <v>22870</v>
       </c>
-      <c r="AE76" s="36"/>
-      <c r="AF76" s="32">
+      <c r="AE76" s="40"/>
+      <c r="AF76" s="41">
         <v>10</v>
       </c>
-      <c r="AG76" s="33"/>
+      <c r="AG76" s="42"/>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
@@ -4064,14 +4070,14 @@
       <c r="AC77" s="21">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AD77" s="36">
+      <c r="AD77" s="40">
         <v>139836</v>
       </c>
-      <c r="AE77" s="36"/>
-      <c r="AF77" s="32">
+      <c r="AE77" s="40"/>
+      <c r="AF77" s="41">
         <v>52.2</v>
       </c>
-      <c r="AG77" s="33"/>
+      <c r="AG77" s="42"/>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
@@ -4145,14 +4151,14 @@
       <c r="AC78" s="21">
         <v>0.26800000000000002</v>
       </c>
-      <c r="AD78" s="36">
+      <c r="AD78" s="40">
         <v>23515</v>
       </c>
-      <c r="AE78" s="36"/>
-      <c r="AF78" s="32">
+      <c r="AE78" s="40"/>
+      <c r="AF78" s="41">
         <v>10</v>
       </c>
-      <c r="AG78" s="33"/>
+      <c r="AG78" s="42"/>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
@@ -4226,14 +4232,14 @@
       <c r="AC79" s="21">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AD79" s="36">
+      <c r="AD79" s="40">
         <v>49503</v>
       </c>
-      <c r="AE79" s="36"/>
-      <c r="AF79" s="32">
+      <c r="AE79" s="40"/>
+      <c r="AF79" s="41">
         <v>20.2</v>
       </c>
-      <c r="AG79" s="33"/>
+      <c r="AG79" s="42"/>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
@@ -4307,14 +4313,14 @@
       <c r="AC80" s="21">
         <v>0.307</v>
       </c>
-      <c r="AD80" s="36">
+      <c r="AD80" s="40">
         <v>188420</v>
       </c>
-      <c r="AE80" s="36"/>
-      <c r="AF80" s="32">
+      <c r="AE80" s="40"/>
+      <c r="AF80" s="41">
         <v>70</v>
       </c>
-      <c r="AG80" s="33"/>
+      <c r="AG80" s="42"/>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -4388,14 +4394,14 @@
       <c r="AC81" s="21">
         <v>0.28899999999999998</v>
       </c>
-      <c r="AD81" s="36">
+      <c r="AD81" s="40">
         <v>26573</v>
       </c>
-      <c r="AE81" s="36"/>
-      <c r="AF81" s="32">
+      <c r="AE81" s="40"/>
+      <c r="AF81" s="41">
         <v>10.5</v>
       </c>
-      <c r="AG81" s="33"/>
+      <c r="AG81" s="42"/>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
@@ -4469,14 +4475,14 @@
       <c r="AC82" s="21">
         <v>0.28799999999999998</v>
       </c>
-      <c r="AD82" s="36">
+      <c r="AD82" s="40">
         <v>25253</v>
       </c>
-      <c r="AE82" s="36"/>
-      <c r="AF82" s="32">
+      <c r="AE82" s="40"/>
+      <c r="AF82" s="41">
         <v>10</v>
       </c>
-      <c r="AG82" s="33"/>
+      <c r="AG82" s="42"/>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
@@ -4550,14 +4556,14 @@
       <c r="AC83" s="21">
         <v>0.20100000000000001</v>
       </c>
-      <c r="AD83" s="36">
+      <c r="AD83" s="40">
         <v>17610</v>
       </c>
-      <c r="AE83" s="36"/>
-      <c r="AF83" s="32">
+      <c r="AE83" s="40"/>
+      <c r="AF83" s="41">
         <v>10</v>
       </c>
-      <c r="AG83" s="33"/>
+      <c r="AG83" s="42"/>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
@@ -4631,14 +4637,14 @@
       <c r="AC84" s="21">
         <v>0.221</v>
       </c>
-      <c r="AD84" s="36">
+      <c r="AD84" s="40">
         <v>19372</v>
       </c>
-      <c r="AE84" s="36"/>
-      <c r="AF84" s="32">
+      <c r="AE84" s="40"/>
+      <c r="AF84" s="41">
         <v>10</v>
       </c>
-      <c r="AG84" s="33"/>
+      <c r="AG84" s="42"/>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
@@ -4712,14 +4718,14 @@
       <c r="AC85" s="21">
         <v>0.216</v>
       </c>
-      <c r="AD85" s="36">
+      <c r="AD85" s="40">
         <v>18939</v>
       </c>
-      <c r="AE85" s="36"/>
-      <c r="AF85" s="32">
+      <c r="AE85" s="40"/>
+      <c r="AF85" s="41">
         <v>10</v>
       </c>
-      <c r="AG85" s="33"/>
+      <c r="AG85" s="42"/>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
@@ -4793,14 +4799,14 @@
       <c r="AC86" s="21">
         <v>0.23</v>
       </c>
-      <c r="AD86" s="36">
+      <c r="AD86" s="40">
         <v>20382</v>
       </c>
-      <c r="AE86" s="36"/>
-      <c r="AF86" s="32">
+      <c r="AE86" s="40"/>
+      <c r="AF86" s="41">
         <v>10.1</v>
       </c>
-      <c r="AG86" s="33"/>
+      <c r="AG86" s="42"/>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
@@ -4874,14 +4880,14 @@
       <c r="AC87" s="21">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AD87" s="36">
+      <c r="AD87" s="40">
         <v>19968</v>
       </c>
-      <c r="AE87" s="36"/>
-      <c r="AF87" s="32">
+      <c r="AE87" s="40"/>
+      <c r="AF87" s="41">
         <v>10.1</v>
       </c>
-      <c r="AG87" s="33"/>
+      <c r="AG87" s="42"/>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
@@ -4955,14 +4961,14 @@
       <c r="AC88" s="21">
         <v>0.26500000000000001</v>
       </c>
-      <c r="AD88" s="36">
+      <c r="AD88" s="40">
         <v>23240</v>
       </c>
-      <c r="AE88" s="36"/>
-      <c r="AF88" s="32">
+      <c r="AE88" s="40"/>
+      <c r="AF88" s="41">
         <v>10</v>
       </c>
-      <c r="AG88" s="33"/>
+      <c r="AG88" s="42"/>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
@@ -5036,14 +5042,14 @@
       <c r="AC89" s="23">
         <v>0.254</v>
       </c>
-      <c r="AD89" s="37">
+      <c r="AD89" s="45">
         <v>26709</v>
       </c>
-      <c r="AE89" s="37"/>
-      <c r="AF89" s="34">
+      <c r="AE89" s="45"/>
+      <c r="AF89" s="43">
         <v>12</v>
       </c>
-      <c r="AG89" s="35"/>
+      <c r="AG89" s="44"/>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
@@ -5177,53 +5183,83 @@
         <v>0</v>
       </c>
     </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" s="31">
+        <v>43</v>
+      </c>
+      <c r="C92" s="6">
+        <v>0</v>
+      </c>
+      <c r="D92" s="6">
+        <v>1</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0</v>
+      </c>
+      <c r="G92" s="31">
+        <v>43</v>
+      </c>
+      <c r="H92" s="6">
+        <v>0</v>
+      </c>
+      <c r="J92" s="31">
+        <v>43</v>
+      </c>
+      <c r="K92" s="6">
+        <v>0</v>
+      </c>
+      <c r="M92" s="31">
+        <v>43</v>
+      </c>
+      <c r="N92" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P92" s="31">
+        <v>43</v>
+      </c>
+      <c r="R92" s="6">
+        <v>0</v>
+      </c>
+      <c r="S92" s="6">
+        <v>0</v>
+      </c>
+      <c r="U92" s="31">
+        <v>43</v>
+      </c>
+      <c r="V92" s="6">
+        <v>0</v>
+      </c>
+      <c r="W92" s="6">
+        <v>0</v>
+      </c>
+      <c r="X92" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Z47:Z49"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="AC67:AC68"/>
-    <mergeCell ref="AD67:AE68"/>
-    <mergeCell ref="AD70:AE70"/>
-    <mergeCell ref="AD71:AE71"/>
-    <mergeCell ref="AD72:AE72"/>
-    <mergeCell ref="AD73:AE73"/>
-    <mergeCell ref="AD74:AE74"/>
-    <mergeCell ref="AD75:AE75"/>
-    <mergeCell ref="AD76:AE76"/>
-    <mergeCell ref="AD77:AE77"/>
-    <mergeCell ref="AD85:AE85"/>
-    <mergeCell ref="AD86:AE86"/>
-    <mergeCell ref="AD87:AE87"/>
-    <mergeCell ref="AD78:AE78"/>
-    <mergeCell ref="AD79:AE79"/>
-    <mergeCell ref="AD80:AE80"/>
-    <mergeCell ref="AD81:AE81"/>
-    <mergeCell ref="AD82:AE82"/>
-    <mergeCell ref="AF79:AG79"/>
-    <mergeCell ref="AF80:AG80"/>
-    <mergeCell ref="AF81:AG81"/>
-    <mergeCell ref="AD83:AE83"/>
-    <mergeCell ref="AD84:AE84"/>
-    <mergeCell ref="AF74:AG74"/>
-    <mergeCell ref="AF75:AG75"/>
-    <mergeCell ref="AF76:AG76"/>
-    <mergeCell ref="AF77:AG77"/>
-    <mergeCell ref="AF78:AG78"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="AF87:AG87"/>
     <mergeCell ref="AF88:AG88"/>
@@ -5240,18 +5276,51 @@
     <mergeCell ref="AF71:AG71"/>
     <mergeCell ref="AF72:AG72"/>
     <mergeCell ref="AF73:AG73"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="AF74:AG74"/>
+    <mergeCell ref="AF75:AG75"/>
+    <mergeCell ref="AF76:AG76"/>
+    <mergeCell ref="AF77:AG77"/>
+    <mergeCell ref="AF78:AG78"/>
+    <mergeCell ref="AF79:AG79"/>
+    <mergeCell ref="AF80:AG80"/>
+    <mergeCell ref="AF81:AG81"/>
+    <mergeCell ref="AD83:AE83"/>
+    <mergeCell ref="AD84:AE84"/>
+    <mergeCell ref="AD85:AE85"/>
+    <mergeCell ref="AD86:AE86"/>
+    <mergeCell ref="AD87:AE87"/>
+    <mergeCell ref="AD78:AE78"/>
+    <mergeCell ref="AD79:AE79"/>
+    <mergeCell ref="AD80:AE80"/>
+    <mergeCell ref="AD81:AE81"/>
+    <mergeCell ref="AD82:AE82"/>
+    <mergeCell ref="AD73:AE73"/>
+    <mergeCell ref="AD74:AE74"/>
+    <mergeCell ref="AD75:AE75"/>
+    <mergeCell ref="AD76:AE76"/>
+    <mergeCell ref="AD77:AE77"/>
+    <mergeCell ref="AC67:AC68"/>
+    <mergeCell ref="AD67:AE68"/>
+    <mergeCell ref="AD70:AE70"/>
+    <mergeCell ref="AD71:AE71"/>
+    <mergeCell ref="AD72:AE72"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="S8:U8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -602,30 +602,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,10 +614,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -651,6 +636,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="F2" s="32"/>
       <c r="G2" s="6">
-        <v>4765</v>
+        <v>7000</v>
       </c>
       <c r="I2" s="32" t="s">
         <v>84</v>
@@ -1229,19 +1229,19 @@
       </c>
       <c r="C11" s="7">
         <f>0.15*F11</f>
-        <v>714.75</v>
+        <v>1050</v>
       </c>
       <c r="D11" s="7">
         <f>0.5*F11</f>
-        <v>2382.5</v>
+        <v>3500</v>
       </c>
       <c r="E11" s="7">
         <f>0.35*F11</f>
-        <v>1667.75</v>
+        <v>2450</v>
       </c>
       <c r="F11" s="2">
         <f>G2</f>
-        <v>4765</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.35">
@@ -1250,19 +1250,19 @@
       </c>
       <c r="C12" s="7">
         <f t="shared" ref="C12:C36" si="0">0.15*F12</f>
-        <v>721.18274999999983</v>
+        <v>1059.4499999999998</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" ref="D12:D36" si="1">0.5*F12</f>
-        <v>2403.9424999999997</v>
+        <v>3531.4999999999995</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" ref="E12:E36" si="2">0.35*F12</f>
-        <v>1682.7597499999997</v>
+        <v>2472.0499999999997</v>
       </c>
       <c r="F12" s="14">
         <f t="shared" ref="F12:F36" si="3">F11*(1+$G$3)</f>
-        <v>4807.8849999999993</v>
+        <v>7062.9999999999991</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.35">
@@ -1271,19 +1271,19 @@
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>727.67339474999983</v>
+        <v>1068.9850499999998</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="1"/>
-        <v>2425.5779824999995</v>
+        <v>3563.2834999999991</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="2"/>
-        <v>1697.9045877499996</v>
+        <v>2494.2984499999993</v>
       </c>
       <c r="F13" s="14">
         <f t="shared" si="3"/>
-        <v>4851.155964999999</v>
+        <v>7126.5669999999982</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.35">
@@ -1292,19 +1292,19 @@
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>734.22245530274972</v>
+        <v>1078.6059154499997</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="1"/>
-        <v>2447.4081843424992</v>
+        <v>3595.3530514999989</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="2"/>
-        <v>1713.1857290397493</v>
+        <v>2516.747136049999</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="3"/>
-        <v>4894.8163686849985</v>
+        <v>7190.7061029999977</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.35">
@@ -1313,19 +1313,19 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>740.83045740047453</v>
+        <v>1088.3133686890494</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="1"/>
-        <v>2469.4348580015817</v>
+        <v>3627.7112289634983</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="2"/>
-        <v>1728.604400601107</v>
+        <v>2539.3978602744487</v>
       </c>
       <c r="F15" s="14">
         <f t="shared" si="3"/>
-        <v>4938.8697160031634</v>
+        <v>7255.4224579269967</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.35">
@@ -1334,19 +1334,19 @@
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>747.49793151707877</v>
+        <v>1098.1081890072508</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="1"/>
-        <v>2491.6597717235959</v>
+        <v>3660.3606300241695</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="2"/>
-        <v>1744.1618402065171</v>
+        <v>2562.2524410169185</v>
       </c>
       <c r="F16" s="14">
         <f t="shared" si="3"/>
-        <v>4983.3195434471918</v>
+        <v>7320.721260048339</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
@@ -1355,19 +1355,19 @@
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>754.22541290073241</v>
+        <v>1107.9911627083159</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" si="1"/>
-        <v>2514.0847096691082</v>
+        <v>3693.3038756943865</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="2"/>
-        <v>1759.8592967683755</v>
+        <v>2585.3127129860704</v>
       </c>
       <c r="F17" s="14">
         <f t="shared" si="3"/>
-        <v>5028.1694193382164</v>
+        <v>7386.6077513887731</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
@@ -1376,19 +1376,19 @@
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>761.01344161683892</v>
+        <v>1117.9630831726906</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="1"/>
-        <v>2536.7114720561299</v>
+        <v>3726.5436105756357</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="2"/>
-        <v>1775.6980304392907</v>
+        <v>2608.5805274029449</v>
       </c>
       <c r="F18" s="14">
         <f t="shared" si="3"/>
-        <v>5073.4229441122598</v>
+        <v>7453.0872211512715</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
@@ -1397,19 +1397,19 @@
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>767.86256259139043</v>
+        <v>1128.0247509212447</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="1"/>
-        <v>2559.5418753046347</v>
+        <v>3760.0825030708161</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="2"/>
-        <v>1791.6793127132441</v>
+        <v>2632.0577521495711</v>
       </c>
       <c r="F19" s="14">
         <f t="shared" si="3"/>
-        <v>5119.0837506092694</v>
+        <v>7520.1650061416321</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
@@ -1418,19 +1418,19 @@
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
-        <v>774.77332565471283</v>
+        <v>1138.1769736795359</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" si="1"/>
-        <v>2582.5777521823761</v>
+        <v>3793.9232455984529</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="2"/>
-        <v>1807.8044265276631</v>
+        <v>2655.746271918917</v>
       </c>
       <c r="F20" s="14">
         <f t="shared" si="3"/>
-        <v>5165.1555043647522</v>
+        <v>7587.8464911969058</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
@@ -1439,19 +1439,19 @@
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
-        <v>781.74628558560516</v>
+        <v>1148.4205664426515</v>
       </c>
       <c r="D21" s="7">
         <f t="shared" si="1"/>
-        <v>2605.8209519520174</v>
+        <v>3828.0685548088386</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="2"/>
-        <v>1824.074666366412</v>
+        <v>2679.6479883661868</v>
       </c>
       <c r="F21" s="14">
         <f t="shared" si="3"/>
-        <v>5211.6419039040347</v>
+        <v>7656.1371096176772</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
@@ -1460,19 +1460,19 @@
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
-        <v>788.7820021558756</v>
+        <v>1158.7563515406353</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" si="1"/>
-        <v>2629.2733405195854</v>
+        <v>3862.5211718021178</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="2"/>
-        <v>1840.4913383637097</v>
+        <v>2703.7648202614823</v>
       </c>
       <c r="F22" s="14">
         <f t="shared" si="3"/>
-        <v>5258.5466810391708</v>
+        <v>7725.0423436042356</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
@@ -1481,19 +1481,19 @@
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
-        <v>795.88104017527849</v>
+        <v>1169.1851587045007</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" si="1"/>
-        <v>2652.9368005842616</v>
+        <v>3897.2838623483362</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="2"/>
-        <v>1857.0557604089829</v>
+        <v>2728.0987036438351</v>
       </c>
       <c r="F23" s="14">
         <f t="shared" si="3"/>
-        <v>5305.8736011685232</v>
+        <v>7794.5677246966725</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
@@ -1502,19 +1502,19 @@
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
-        <v>803.04396953685591</v>
+        <v>1179.7078251328412</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" si="1"/>
-        <v>2676.8132317895197</v>
+        <v>3932.359417109471</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="2"/>
-        <v>1873.7692622526636</v>
+        <v>2752.6515919766293</v>
       </c>
       <c r="F24" s="14">
         <f t="shared" si="3"/>
-        <v>5353.6264635790394</v>
+        <v>7864.718834218942</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
@@ -1523,19 +1523,19 @@
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>810.2713652626876</v>
+        <v>1190.3251955590367</v>
       </c>
       <c r="D25" s="7">
         <f t="shared" si="1"/>
-        <v>2700.9045508756253</v>
+        <v>3967.7506518634559</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="2"/>
-        <v>1890.6331856129375</v>
+        <v>2777.4254563044192</v>
       </c>
       <c r="F25" s="14">
         <f t="shared" si="3"/>
-        <v>5401.8091017512506</v>
+        <v>7935.5013037269118</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
@@ -1544,19 +1544,19 @@
       </c>
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>817.56380755005171</v>
+        <v>1201.038122319068</v>
       </c>
       <c r="D26" s="7">
         <f t="shared" si="1"/>
-        <v>2725.2126918335057</v>
+        <v>4003.4604077302265</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="2"/>
-        <v>1907.6488842834538</v>
+        <v>2802.4222854111586</v>
       </c>
       <c r="F26" s="14">
         <f t="shared" si="3"/>
-        <v>5450.4253836670114</v>
+        <v>8006.920815460453</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>824.92188181800202</v>
+        <v>1211.8474654199395</v>
       </c>
       <c r="D27" s="7">
         <f t="shared" si="1"/>
-        <v>2749.7396060600067</v>
+        <v>4039.491551399798</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="2"/>
-        <v>1924.8177242420045</v>
+        <v>2827.6440859798586</v>
       </c>
       <c r="F27" s="14">
         <f t="shared" si="3"/>
-        <v>5499.4792121200135</v>
+        <v>8078.9831027995961</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
@@ -1586,19 +1586,19 @@
       </c>
       <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>832.34617875436402</v>
+        <v>1222.7540926087188</v>
       </c>
       <c r="D28" s="7">
         <f t="shared" si="1"/>
-        <v>2774.4872625145467</v>
+        <v>4075.8469753623958</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="2"/>
-        <v>1942.1410837601825</v>
+        <v>2853.0928827536768</v>
       </c>
       <c r="F28" s="14">
         <f t="shared" si="3"/>
-        <v>5548.9745250290935</v>
+        <v>8151.6939507247916</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
@@ -1607,19 +1607,19 @@
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>839.83729436315321</v>
+        <v>1233.758879442197</v>
       </c>
       <c r="D29" s="7">
         <f t="shared" si="1"/>
-        <v>2799.4576478771774</v>
+        <v>4112.5295981406571</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="2"/>
-        <v>1959.6203535140239</v>
+        <v>2878.7707186984599</v>
       </c>
       <c r="F29" s="14">
         <f t="shared" si="3"/>
-        <v>5598.9152957543547</v>
+        <v>8225.0591962813141</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
@@ -1628,19 +1628,19 @@
       </c>
       <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>847.39583001242147</v>
+        <v>1244.8627093571768</v>
       </c>
       <c r="D30" s="7">
         <f t="shared" si="1"/>
-        <v>2824.6527667080718</v>
+        <v>4149.5423645239225</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="2"/>
-        <v>1977.2569366956502</v>
+        <v>2904.6796551667458</v>
       </c>
       <c r="F30" s="14">
         <f t="shared" si="3"/>
-        <v>5649.3055334161436</v>
+        <v>8299.084729047845</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
@@ -1649,19 +1649,19 @@
       </c>
       <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>855.02239248253318</v>
+        <v>1256.0664737413911</v>
       </c>
       <c r="D31" s="7">
         <f t="shared" si="1"/>
-        <v>2850.0746416084439</v>
+        <v>4186.8882458046373</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="2"/>
-        <v>1995.0522491259105</v>
+        <v>2930.821772063246</v>
       </c>
       <c r="F31" s="14">
         <f t="shared" si="3"/>
-        <v>5700.1492832168879</v>
+        <v>8373.7764916092747</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
@@ -1670,19 +1670,19 @@
       </c>
       <c r="C32" s="7">
         <f t="shared" si="0"/>
-        <v>862.71759401487577</v>
+        <v>1267.3710720050635</v>
       </c>
       <c r="D32" s="7">
         <f t="shared" si="1"/>
-        <v>2875.7253133829195</v>
+        <v>4224.5702400168784</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="2"/>
-        <v>2013.0077193680436</v>
+        <v>2957.1991680118149</v>
       </c>
       <c r="F32" s="14">
         <f t="shared" si="3"/>
-        <v>5751.4506267658389</v>
+        <v>8449.1404800337568</v>
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.35">
@@ -1691,19 +1691,19 @@
       </c>
       <c r="C33" s="7">
         <f t="shared" si="0"/>
-        <v>870.48205236100966</v>
+        <v>1278.7774116531091</v>
       </c>
       <c r="D33" s="7">
         <f t="shared" si="1"/>
-        <v>2901.6068412033655</v>
+        <v>4262.5913721770303</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="2"/>
-        <v>2031.1247888423557</v>
+        <v>2983.8139605239212</v>
       </c>
       <c r="F33" s="14">
         <f t="shared" si="3"/>
-        <v>5803.2136824067311</v>
+        <v>8525.1827443540606</v>
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.35">
@@ -1712,19 +1712,19 @@
       </c>
       <c r="C34" s="7">
         <f t="shared" si="0"/>
-        <v>878.31639083225866</v>
+        <v>1290.2864083579868</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" si="1"/>
-        <v>2927.7213027741955</v>
+        <v>4300.9546945266229</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="2"/>
-        <v>2049.4049119419369</v>
+        <v>3010.6682861686359</v>
       </c>
       <c r="F34" s="14">
         <f t="shared" si="3"/>
-        <v>5855.4426055483909</v>
+        <v>8601.9093890532458</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.35">
@@ -1733,19 +1733,19 @@
       </c>
       <c r="C35" s="7">
         <f t="shared" si="0"/>
-        <v>886.22123834974877</v>
+        <v>1301.8989860332088</v>
       </c>
       <c r="D35" s="7">
         <f t="shared" si="1"/>
-        <v>2954.0707944991627</v>
+        <v>4339.6632867773624</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="2"/>
-        <v>2067.8495561494137</v>
+        <v>3037.7643007441534</v>
       </c>
       <c r="F35" s="14">
         <f t="shared" si="3"/>
-        <v>5908.1415889983255</v>
+        <v>8679.3265735547247</v>
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.35">
@@ -1754,19 +1754,19 @@
       </c>
       <c r="C36" s="7">
         <f t="shared" si="0"/>
-        <v>894.19722949489642</v>
+        <v>1313.6160769075072</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" si="1"/>
-        <v>2980.6574316496549</v>
+        <v>4378.7202563583578</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="2"/>
-        <v>2086.4602021547585</v>
+        <v>3065.1041794508501</v>
       </c>
       <c r="F36" s="14">
         <f t="shared" si="3"/>
-        <v>5961.3148632993098</v>
+        <v>8757.4405127167156</v>
       </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.35">
@@ -1787,17 +1787,17 @@
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
       <c r="F40" s="2"/>
-      <c r="H40" s="34" t="s">
+      <c r="H40" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
       <c r="O40" s="4"/>
@@ -1998,40 +1998,40 @@
       <c r="S47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V47" s="33" t="s">
+      <c r="V47" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="W47" s="33" t="s">
+      <c r="W47" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X47" s="33" t="s">
+      <c r="X47" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="Y47" s="33" t="s">
+      <c r="Y47" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="Z47" s="33" t="s">
+      <c r="Z47" s="48" t="s">
         <v>36</v>
       </c>
       <c r="AA47" s="13"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
       <c r="R48" t="s">
         <v>18</v>
       </c>
       <c r="S48" t="s">
         <v>21</v>
       </c>
-      <c r="V48" s="33"/>
-      <c r="W48" s="33"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="33"/>
-      <c r="Z48" s="33"/>
+      <c r="V48" s="48"/>
+      <c r="W48" s="48"/>
+      <c r="X48" s="48"/>
+      <c r="Y48" s="48"/>
+      <c r="Z48" s="48"/>
       <c r="AA48" s="13"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.35">
@@ -2065,11 +2065,11 @@
       <c r="U49" t="s">
         <v>10</v>
       </c>
-      <c r="V49" s="33"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
+      <c r="V49" s="48"/>
+      <c r="W49" s="48"/>
+      <c r="X49" s="48"/>
+      <c r="Y49" s="48"/>
+      <c r="Z49" s="48"/>
       <c r="AA49" s="13"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.35">
@@ -3277,17 +3277,17 @@
       <c r="Z67" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AC67" s="35" t="s">
+      <c r="AC67" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="AD67" s="37" t="s">
+      <c r="AD67" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="AE67" s="37"/>
-      <c r="AF67" s="37" t="s">
+      <c r="AE67" s="39"/>
+      <c r="AF67" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AG67" s="46"/>
+      <c r="AG67" s="40"/>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
@@ -3355,11 +3355,11 @@
       <c r="Z68" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="AC68" s="36"/>
-      <c r="AD68" s="38"/>
-      <c r="AE68" s="38"/>
-      <c r="AF68" s="38"/>
-      <c r="AG68" s="47"/>
+      <c r="AC68" s="46"/>
+      <c r="AD68" s="41"/>
+      <c r="AE68" s="41"/>
+      <c r="AF68" s="41"/>
+      <c r="AG68" s="42"/>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
@@ -3503,14 +3503,14 @@
       <c r="AC70" s="19">
         <v>0.29299999999999998</v>
       </c>
-      <c r="AD70" s="39">
+      <c r="AD70" s="47">
         <v>72154</v>
       </c>
-      <c r="AE70" s="39"/>
-      <c r="AF70" s="48">
+      <c r="AE70" s="47"/>
+      <c r="AF70" s="43">
         <v>28.1</v>
       </c>
-      <c r="AG70" s="49"/>
+      <c r="AG70" s="44"/>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
@@ -3584,14 +3584,14 @@
       <c r="AC71" s="21">
         <v>0.31</v>
       </c>
-      <c r="AD71" s="40">
+      <c r="AD71" s="37">
         <v>67811</v>
       </c>
-      <c r="AE71" s="40"/>
-      <c r="AF71" s="41">
+      <c r="AE71" s="37"/>
+      <c r="AF71" s="33">
         <v>25</v>
       </c>
-      <c r="AG71" s="42"/>
+      <c r="AG71" s="34"/>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
@@ -3665,14 +3665,14 @@
       <c r="AC72" s="21">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AD72" s="40">
+      <c r="AD72" s="37">
         <v>187455</v>
       </c>
-      <c r="AE72" s="40"/>
-      <c r="AF72" s="41">
+      <c r="AE72" s="37"/>
+      <c r="AF72" s="33">
         <v>70</v>
       </c>
-      <c r="AG72" s="42"/>
+      <c r="AG72" s="34"/>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
@@ -3746,14 +3746,14 @@
       <c r="AC73" s="21">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AD73" s="40">
+      <c r="AD73" s="37">
         <v>63266</v>
       </c>
-      <c r="AE73" s="40"/>
-      <c r="AF73" s="41">
+      <c r="AE73" s="37"/>
+      <c r="AF73" s="33">
         <v>30.6</v>
       </c>
-      <c r="AG73" s="42"/>
+      <c r="AG73" s="34"/>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
@@ -3827,14 +3827,14 @@
       <c r="AC74" s="21">
         <v>0.30299999999999999</v>
       </c>
-      <c r="AD74" s="40">
+      <c r="AD74" s="37">
         <v>26553</v>
       </c>
-      <c r="AE74" s="40"/>
-      <c r="AF74" s="41">
+      <c r="AE74" s="37"/>
+      <c r="AF74" s="33">
         <v>10</v>
       </c>
-      <c r="AG74" s="42"/>
+      <c r="AG74" s="34"/>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
@@ -3908,14 +3908,14 @@
       <c r="AC75" s="21">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AD75" s="40">
+      <c r="AD75" s="37">
         <v>24949</v>
       </c>
-      <c r="AE75" s="40"/>
-      <c r="AF75" s="41">
+      <c r="AE75" s="37"/>
+      <c r="AF75" s="33">
         <v>10</v>
       </c>
-      <c r="AG75" s="42"/>
+      <c r="AG75" s="34"/>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
@@ -3989,14 +3989,14 @@
       <c r="AC76" s="21">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AD76" s="40">
+      <c r="AD76" s="37">
         <v>22870</v>
       </c>
-      <c r="AE76" s="40"/>
-      <c r="AF76" s="41">
+      <c r="AE76" s="37"/>
+      <c r="AF76" s="33">
         <v>10</v>
       </c>
-      <c r="AG76" s="42"/>
+      <c r="AG76" s="34"/>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
@@ -4070,14 +4070,14 @@
       <c r="AC77" s="21">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AD77" s="40">
+      <c r="AD77" s="37">
         <v>139836</v>
       </c>
-      <c r="AE77" s="40"/>
-      <c r="AF77" s="41">
+      <c r="AE77" s="37"/>
+      <c r="AF77" s="33">
         <v>52.2</v>
       </c>
-      <c r="AG77" s="42"/>
+      <c r="AG77" s="34"/>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
@@ -4151,14 +4151,14 @@
       <c r="AC78" s="21">
         <v>0.26800000000000002</v>
       </c>
-      <c r="AD78" s="40">
+      <c r="AD78" s="37">
         <v>23515</v>
       </c>
-      <c r="AE78" s="40"/>
-      <c r="AF78" s="41">
+      <c r="AE78" s="37"/>
+      <c r="AF78" s="33">
         <v>10</v>
       </c>
-      <c r="AG78" s="42"/>
+      <c r="AG78" s="34"/>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
@@ -4232,14 +4232,14 @@
       <c r="AC79" s="21">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AD79" s="40">
+      <c r="AD79" s="37">
         <v>49503</v>
       </c>
-      <c r="AE79" s="40"/>
-      <c r="AF79" s="41">
+      <c r="AE79" s="37"/>
+      <c r="AF79" s="33">
         <v>20.2</v>
       </c>
-      <c r="AG79" s="42"/>
+      <c r="AG79" s="34"/>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
@@ -4313,14 +4313,14 @@
       <c r="AC80" s="21">
         <v>0.307</v>
       </c>
-      <c r="AD80" s="40">
+      <c r="AD80" s="37">
         <v>188420</v>
       </c>
-      <c r="AE80" s="40"/>
-      <c r="AF80" s="41">
+      <c r="AE80" s="37"/>
+      <c r="AF80" s="33">
         <v>70</v>
       </c>
-      <c r="AG80" s="42"/>
+      <c r="AG80" s="34"/>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -4394,14 +4394,14 @@
       <c r="AC81" s="21">
         <v>0.28899999999999998</v>
       </c>
-      <c r="AD81" s="40">
+      <c r="AD81" s="37">
         <v>26573</v>
       </c>
-      <c r="AE81" s="40"/>
-      <c r="AF81" s="41">
+      <c r="AE81" s="37"/>
+      <c r="AF81" s="33">
         <v>10.5</v>
       </c>
-      <c r="AG81" s="42"/>
+      <c r="AG81" s="34"/>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
@@ -4475,14 +4475,14 @@
       <c r="AC82" s="21">
         <v>0.28799999999999998</v>
       </c>
-      <c r="AD82" s="40">
+      <c r="AD82" s="37">
         <v>25253</v>
       </c>
-      <c r="AE82" s="40"/>
-      <c r="AF82" s="41">
+      <c r="AE82" s="37"/>
+      <c r="AF82" s="33">
         <v>10</v>
       </c>
-      <c r="AG82" s="42"/>
+      <c r="AG82" s="34"/>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
@@ -4556,14 +4556,14 @@
       <c r="AC83" s="21">
         <v>0.20100000000000001</v>
       </c>
-      <c r="AD83" s="40">
+      <c r="AD83" s="37">
         <v>17610</v>
       </c>
-      <c r="AE83" s="40"/>
-      <c r="AF83" s="41">
+      <c r="AE83" s="37"/>
+      <c r="AF83" s="33">
         <v>10</v>
       </c>
-      <c r="AG83" s="42"/>
+      <c r="AG83" s="34"/>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
@@ -4637,14 +4637,14 @@
       <c r="AC84" s="21">
         <v>0.221</v>
       </c>
-      <c r="AD84" s="40">
+      <c r="AD84" s="37">
         <v>19372</v>
       </c>
-      <c r="AE84" s="40"/>
-      <c r="AF84" s="41">
+      <c r="AE84" s="37"/>
+      <c r="AF84" s="33">
         <v>10</v>
       </c>
-      <c r="AG84" s="42"/>
+      <c r="AG84" s="34"/>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
@@ -4718,14 +4718,14 @@
       <c r="AC85" s="21">
         <v>0.216</v>
       </c>
-      <c r="AD85" s="40">
+      <c r="AD85" s="37">
         <v>18939</v>
       </c>
-      <c r="AE85" s="40"/>
-      <c r="AF85" s="41">
+      <c r="AE85" s="37"/>
+      <c r="AF85" s="33">
         <v>10</v>
       </c>
-      <c r="AG85" s="42"/>
+      <c r="AG85" s="34"/>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
@@ -4799,14 +4799,14 @@
       <c r="AC86" s="21">
         <v>0.23</v>
       </c>
-      <c r="AD86" s="40">
+      <c r="AD86" s="37">
         <v>20382</v>
       </c>
-      <c r="AE86" s="40"/>
-      <c r="AF86" s="41">
+      <c r="AE86" s="37"/>
+      <c r="AF86" s="33">
         <v>10.1</v>
       </c>
-      <c r="AG86" s="42"/>
+      <c r="AG86" s="34"/>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
@@ -4880,14 +4880,14 @@
       <c r="AC87" s="21">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AD87" s="40">
+      <c r="AD87" s="37">
         <v>19968</v>
       </c>
-      <c r="AE87" s="40"/>
-      <c r="AF87" s="41">
+      <c r="AE87" s="37"/>
+      <c r="AF87" s="33">
         <v>10.1</v>
       </c>
-      <c r="AG87" s="42"/>
+      <c r="AG87" s="34"/>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
@@ -4961,14 +4961,14 @@
       <c r="AC88" s="21">
         <v>0.26500000000000001</v>
       </c>
-      <c r="AD88" s="40">
+      <c r="AD88" s="37">
         <v>23240</v>
       </c>
-      <c r="AE88" s="40"/>
-      <c r="AF88" s="41">
+      <c r="AE88" s="37"/>
+      <c r="AF88" s="33">
         <v>10</v>
       </c>
-      <c r="AG88" s="42"/>
+      <c r="AG88" s="34"/>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
@@ -5042,14 +5042,14 @@
       <c r="AC89" s="23">
         <v>0.254</v>
       </c>
-      <c r="AD89" s="45">
+      <c r="AD89" s="38">
         <v>26709</v>
       </c>
-      <c r="AE89" s="45"/>
-      <c r="AF89" s="43">
+      <c r="AE89" s="38"/>
+      <c r="AF89" s="35">
         <v>12</v>
       </c>
-      <c r="AG89" s="44"/>
+      <c r="AG89" s="36"/>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
@@ -5248,18 +5248,51 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="AC67:AC68"/>
+    <mergeCell ref="AD67:AE68"/>
+    <mergeCell ref="AD70:AE70"/>
+    <mergeCell ref="AD71:AE71"/>
+    <mergeCell ref="AD72:AE72"/>
+    <mergeCell ref="AD73:AE73"/>
+    <mergeCell ref="AD74:AE74"/>
+    <mergeCell ref="AD75:AE75"/>
+    <mergeCell ref="AD76:AE76"/>
+    <mergeCell ref="AD77:AE77"/>
+    <mergeCell ref="AD85:AE85"/>
+    <mergeCell ref="AD86:AE86"/>
+    <mergeCell ref="AD87:AE87"/>
+    <mergeCell ref="AD78:AE78"/>
+    <mergeCell ref="AD79:AE79"/>
+    <mergeCell ref="AD80:AE80"/>
+    <mergeCell ref="AD81:AE81"/>
+    <mergeCell ref="AD82:AE82"/>
+    <mergeCell ref="AF79:AG79"/>
+    <mergeCell ref="AF80:AG80"/>
+    <mergeCell ref="AF81:AG81"/>
+    <mergeCell ref="AD83:AE83"/>
+    <mergeCell ref="AD84:AE84"/>
+    <mergeCell ref="AF74:AG74"/>
+    <mergeCell ref="AF75:AG75"/>
+    <mergeCell ref="AF76:AG76"/>
+    <mergeCell ref="AF77:AG77"/>
+    <mergeCell ref="AF78:AG78"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="AF87:AG87"/>
     <mergeCell ref="AF88:AG88"/>
@@ -5276,51 +5309,18 @@
     <mergeCell ref="AF71:AG71"/>
     <mergeCell ref="AF72:AG72"/>
     <mergeCell ref="AF73:AG73"/>
-    <mergeCell ref="AF74:AG74"/>
-    <mergeCell ref="AF75:AG75"/>
-    <mergeCell ref="AF76:AG76"/>
-    <mergeCell ref="AF77:AG77"/>
-    <mergeCell ref="AF78:AG78"/>
-    <mergeCell ref="AF79:AG79"/>
-    <mergeCell ref="AF80:AG80"/>
-    <mergeCell ref="AF81:AG81"/>
-    <mergeCell ref="AD83:AE83"/>
-    <mergeCell ref="AD84:AE84"/>
-    <mergeCell ref="AD85:AE85"/>
-    <mergeCell ref="AD86:AE86"/>
-    <mergeCell ref="AD87:AE87"/>
-    <mergeCell ref="AD78:AE78"/>
-    <mergeCell ref="AD79:AE79"/>
-    <mergeCell ref="AD80:AE80"/>
-    <mergeCell ref="AD81:AE81"/>
-    <mergeCell ref="AD82:AE82"/>
-    <mergeCell ref="AD73:AE73"/>
-    <mergeCell ref="AD74:AE74"/>
-    <mergeCell ref="AD75:AE75"/>
-    <mergeCell ref="AD76:AE76"/>
-    <mergeCell ref="AD77:AE77"/>
-    <mergeCell ref="AC67:AC68"/>
-    <mergeCell ref="AD67:AE68"/>
-    <mergeCell ref="AD70:AE70"/>
-    <mergeCell ref="AD71:AE71"/>
-    <mergeCell ref="AD72:AE72"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Z47:Z49"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -637,32 +637,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -676,10 +656,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -691,10 +680,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,14 +978,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E221" sqref="E221"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.54296875" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="21" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.36328125" customWidth="1"/>
     <col min="10" max="10" width="9.453125" customWidth="1"/>
     <col min="12" max="12" width="8.6328125" customWidth="1"/>
@@ -1010,35 +1010,35 @@
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="33"/>
+      <c r="F1" s="34"/>
       <c r="G1" s="16">
         <v>0.1</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="17">
         <v>7256200.8565999996</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
       <c r="Q1" s="26">
         <f>2221460.4*solar_inc</f>
         <v>111073020</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
       <c r="V1" s="26">
         <v>8809340386.1000004</v>
       </c>
@@ -1050,35 +1050,35 @@
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="6">
         <v>4198</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="25">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
       <c r="Q2" s="26">
         <v>19867.2</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="28">
         <v>348494.96600000001</v>
       </c>
@@ -1093,27 +1093,27 @@
       <c r="C3" s="6">
         <v>43</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="6">
         <v>3726</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
       <c r="Q3" s="26">
         <f>1596613.3*wind_inc</f>
         <v>15966133</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="S3" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
       <c r="V3" s="29">
         <v>2066077.2990000001</v>
       </c>
@@ -1126,37 +1126,37 @@
         <v>27</v>
       </c>
       <c r="C4" s="6">
-        <f>COUNT(B14:B67)/2</f>
-        <v>27</v>
+        <f>2045-2020+1</f>
+        <v>26</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="6">
         <v>4765</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="33"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
       <c r="Q4" s="26">
         <v>43560</v>
       </c>
-      <c r="S4" s="33" t="s">
+      <c r="S4" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
       <c r="V4" s="28">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
@@ -1170,35 +1170,35 @@
         <v>112</v>
       </c>
       <c r="C5" s="6">
-        <v>4</v>
-      </c>
-      <c r="E5" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="6">
         <v>4050</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="33"/>
+      <c r="J5" s="34"/>
       <c r="K5" s="17">
         <v>1</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
       <c r="Q5" s="27">
         <v>50</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="S5" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
       <c r="V5" s="28">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
@@ -1212,35 +1212,36 @@
         <v>113</v>
       </c>
       <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="33" t="s">
+        <f>C5*NumYears</f>
+        <v>208</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="6">
         <v>5974</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="33"/>
+      <c r="J6" s="34"/>
       <c r="K6" s="17">
         <v>1</v>
       </c>
-      <c r="N6" s="33" t="s">
+      <c r="N6" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
       <c r="Q6" s="27">
         <v>10</v>
       </c>
-      <c r="S6" s="33" t="s">
+      <c r="S6" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
       <c r="V6" s="28">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
@@ -1250,18 +1251,18 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="6">
         <v>5009</v>
       </c>
-      <c r="S7" s="33" t="s">
+      <c r="S7" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
       <c r="V7" s="28">
         <f>V4*V6</f>
         <v>29903074042.27026</v>
@@ -1271,18 +1272,18 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="33"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="6">
         <v>4359</v>
       </c>
-      <c r="S8" s="33" t="s">
+      <c r="S8" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
       <c r="V8" s="28">
         <f>V5*V6</f>
         <v>5911072775.7976093</v>
@@ -1292,10 +1293,10 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="33"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="6">
         <v>3780</v>
       </c>
@@ -1317,26 +1318,26 @@
       <c r="V11" s="28"/>
     </row>
     <row r="12" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="51" t="s">
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
     </row>
     <row r="13" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
@@ -1354,10 +1355,10 @@
       <c r="E13" s="2">
         <v>3</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
       <c r="K13" s="4" t="s">
         <v>3</v>
       </c>
@@ -1383,11 +1384,11 @@
         <v>0</v>
       </c>
       <c r="C14" s="7">
-        <f>0.15*F14</f>
+        <f t="shared" ref="C14:C45" si="0">0.15*F14</f>
         <v>629.69999999999993</v>
       </c>
       <c r="D14" s="7">
-        <f>0.5*F14</f>
+        <f t="shared" ref="D14:D45" si="1">0.5*F14</f>
         <v>2099</v>
       </c>
       <c r="E14" s="7">
@@ -1401,39 +1402,39 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
-      <c r="L14" s="35" t="s">
+      <c r="L14" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
       <c r="O14" s="2"/>
-      <c r="Q14" s="35" t="s">
+      <c r="Q14" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
       <c r="T14" s="2"/>
       <c r="U14" s="4"/>
       <c r="X14" s="4"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <f t="shared" ref="A15:A78" si="0">B15+2020</f>
+        <f t="shared" ref="A15:A78" si="2">B15+2020</f>
         <v>2020</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
       </c>
       <c r="C15" s="7">
-        <f>0.15*F15</f>
+        <f t="shared" si="0"/>
         <v>558.9</v>
       </c>
       <c r="D15" s="7">
-        <f>0.5*F15</f>
+        <f t="shared" si="1"/>
         <v>1863</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" ref="E15:E67" si="1">0.35*F15</f>
+        <f t="shared" ref="E15:E67" si="3">0.35*F15</f>
         <v>1304.0999999999999</v>
       </c>
       <c r="F15" s="32">
@@ -1481,22 +1482,22 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7">
-        <f>0.15*F16</f>
         <v>714.75</v>
       </c>
       <c r="D16" s="7">
-        <f>0.5*F16</f>
+        <f t="shared" si="1"/>
         <v>2382.5</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1667.75</v>
       </c>
       <c r="F16" s="32">
@@ -1551,22 +1552,22 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7">
-        <f>0.15*F17</f>
         <v>607.5</v>
       </c>
       <c r="D17" s="7">
-        <f>0.5*F17</f>
+        <f t="shared" si="1"/>
         <v>2025</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1417.5</v>
       </c>
       <c r="F17" s="32">
@@ -1621,22 +1622,22 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7">
-        <f>0.15*F18</f>
         <v>896.1</v>
       </c>
       <c r="D18" s="7">
-        <f>0.5*F18</f>
+        <f t="shared" si="1"/>
         <v>2987</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2090.9</v>
       </c>
       <c r="F18" s="14">
@@ -1694,22 +1695,22 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="7">
-        <f>0.15*F19</f>
         <v>758.11215000000004</v>
       </c>
       <c r="D19" s="7">
-        <f>0.5*F19</f>
+        <f t="shared" si="1"/>
         <v>2527.0405000000001</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1768.9283499999999</v>
       </c>
       <c r="F19" s="14" t="str">
@@ -1722,22 +1723,22 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
         <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="7">
-        <f>0.15*F20</f>
         <v>653.85</v>
       </c>
       <c r="D20" s="7">
-        <f>0.5*F20</f>
+        <f t="shared" si="1"/>
         <v>2179.5</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1525.6499999999999</v>
       </c>
       <c r="F20" s="14">
@@ -1750,22 +1751,22 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
         <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="7">
-        <f>0.15*F21</f>
         <v>567</v>
       </c>
       <c r="D21" s="7">
-        <f>0.5*F21</f>
+        <f t="shared" si="1"/>
         <v>1890</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1323</v>
       </c>
       <c r="F21" s="14">
@@ -1798,26 +1799,26 @@
       <c r="AB21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AE21" s="34" t="s">
+      <c r="AE21" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AF21" s="34" t="s">
+      <c r="AF21" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AG21" s="34" t="s">
+      <c r="AG21" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="AH21" s="34" t="s">
+      <c r="AH21" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="AI21" s="34" t="s">
+      <c r="AI21" s="51" t="s">
         <v>34</v>
       </c>
       <c r="AJ21" s="13"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
       <c r="B22" s="4">
@@ -1825,65 +1826,65 @@
         <v>1</v>
       </c>
       <c r="C22" s="7">
-        <f>0.15*F22</f>
+        <f t="shared" si="0"/>
         <v>635.36729999999989</v>
       </c>
       <c r="D22" s="7">
-        <f>0.5*F22</f>
+        <f t="shared" si="1"/>
         <v>2117.8909999999996</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1482.5236999999997</v>
       </c>
       <c r="F22" s="14">
-        <f>F14*(1+$K$4)^B22</f>
+        <f t="shared" ref="F22:F67" si="4">F14*(1+$K$4)^B22</f>
         <v>4235.7819999999992</v>
       </c>
       <c r="G22" s="32"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="L22" s="35" t="s">
+      <c r="L22" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
       <c r="AA22" t="s">
         <v>17</v>
       </c>
       <c r="AB22" t="s">
         <v>20</v>
       </c>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="34"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
       <c r="AJ22" s="13"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" ref="B23:B86" si="5">B15+1</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
         <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="B23" s="4">
-        <f t="shared" ref="B23:B86" si="2">B15+1</f>
-        <v>1</v>
-      </c>
-      <c r="C23" s="7">
-        <f>0.15*F23</f>
         <v>563.93009999999992</v>
       </c>
       <c r="D23" s="7">
-        <f>0.5*F23</f>
+        <f t="shared" si="1"/>
         <v>1879.7669999999998</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1315.8368999999998</v>
       </c>
       <c r="F23" s="14">
-        <f>F15*(1+$K$4)^B23</f>
+        <f t="shared" si="4"/>
         <v>3759.5339999999997</v>
       </c>
       <c r="G23" s="14"/>
@@ -1919,36 +1920,36 @@
       <c r="AD23" t="s">
         <v>10</v>
       </c>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
       <c r="AJ23" s="13"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
         <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="B24" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C24" s="7">
-        <f>0.15*F24</f>
         <v>721.18274999999983</v>
       </c>
       <c r="D24" s="7">
-        <f>0.5*F24</f>
+        <f t="shared" si="1"/>
         <v>2403.9424999999997</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1682.7597499999997</v>
       </c>
       <c r="F24" s="14">
-        <f>F16*(1+$K$4)^B24</f>
+        <f t="shared" si="4"/>
         <v>4807.8849999999993</v>
       </c>
       <c r="G24" s="14"/>
@@ -1998,7 +1999,7 @@
         <v>12963</v>
       </c>
       <c r="AB24" s="6">
-        <f>IF(EXACT(Z24,$AA$16),$AB$16,IF(EXACT(Z24,$AA$17),$AB$17,IF(EXACT(Z24,$AA$18),$AB$18,0)))</f>
+        <f t="shared" ref="AB24:AB43" si="6">IF(EXACT(Z24,$AA$16),$AB$16,IF(EXACT(Z24,$AA$17),$AB$17,IF(EXACT(Z24,$AA$18),$AB$18,0)))</f>
         <v>3.06</v>
       </c>
       <c r="AD24" s="11">
@@ -2022,27 +2023,27 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="B25" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C25" s="7">
-        <f>0.15*F25</f>
         <v>612.96749999999986</v>
       </c>
       <c r="D25" s="7">
-        <f>0.5*F25</f>
+        <f t="shared" si="1"/>
         <v>2043.2249999999997</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1430.2574999999997</v>
       </c>
       <c r="F25" s="14">
-        <f>F17*(1+$K$4)^B25</f>
+        <f t="shared" si="4"/>
         <v>4086.4499999999994</v>
       </c>
       <c r="G25" s="14"/>
@@ -2079,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="W25" s="8">
-        <f t="shared" ref="W25:W66" si="3">AA25*AB25*1000/1000000</f>
+        <f t="shared" ref="W25:W66" si="7">AA25*AB25*1000/1000000</f>
         <v>23.617080000000001</v>
       </c>
       <c r="Y25" s="3">
@@ -2092,7 +2093,7 @@
         <v>7718</v>
       </c>
       <c r="AB25" s="6">
-        <f>IF(EXACT(Z25,$AA$16),$AB$16,IF(EXACT(Z25,$AA$17),$AB$17,IF(EXACT(Z25,$AA$18),$AB$18,0)))</f>
+        <f t="shared" si="6"/>
         <v>3.06</v>
       </c>
       <c r="AD25" s="11">
@@ -2116,27 +2117,27 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="B26" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C26" s="7">
-        <f>0.15*F26</f>
         <v>904.16489999999988</v>
       </c>
       <c r="D26" s="7">
-        <f>0.5*F26</f>
+        <f t="shared" si="1"/>
         <v>3013.8829999999998</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2109.7180999999996</v>
       </c>
       <c r="F26" s="14">
-        <f>F18*(1+$K$4)^B26</f>
+        <f t="shared" si="4"/>
         <v>6027.7659999999996</v>
       </c>
       <c r="G26" s="14"/>
@@ -2173,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="W26" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>28.115279999999998</v>
       </c>
       <c r="Y26" s="3">
@@ -2186,7 +2187,7 @@
         <v>9188</v>
       </c>
       <c r="AB26" s="6">
-        <f>IF(EXACT(Z26,$AA$16),$AB$16,IF(EXACT(Z26,$AA$17),$AB$17,IF(EXACT(Z26,$AA$18),$AB$18,0)))</f>
+        <f t="shared" si="6"/>
         <v>3.06</v>
       </c>
       <c r="AD26" s="11">
@@ -2210,27 +2211,27 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="B27" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C27" s="7">
-        <f>0.15*F27</f>
         <v>764.93515934999994</v>
       </c>
       <c r="D27" s="7">
-        <f>0.5*F27</f>
+        <f t="shared" si="1"/>
         <v>2549.7838644999997</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1784.8487051499997</v>
       </c>
       <c r="F27" s="14">
-        <f>F19*(1+$K$4)^B27</f>
+        <f t="shared" si="4"/>
         <v>5099.5677289999994</v>
       </c>
       <c r="G27" s="14"/>
@@ -2267,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="W27" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>21.77496</v>
       </c>
       <c r="Y27" s="3">
@@ -2280,7 +2281,7 @@
         <v>7116</v>
       </c>
       <c r="AB27" s="6">
-        <f>IF(EXACT(Z27,$AA$16),$AB$16,IF(EXACT(Z27,$AA$17),$AB$17,IF(EXACT(Z27,$AA$18),$AB$18,0)))</f>
+        <f t="shared" si="6"/>
         <v>3.06</v>
       </c>
       <c r="AD27" s="11">
@@ -2304,27 +2305,27 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="B28" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C28" s="7">
-        <f>0.15*F28</f>
         <v>659.73464999999999</v>
       </c>
       <c r="D28" s="7">
-        <f>0.5*F28</f>
+        <f t="shared" si="1"/>
         <v>2199.1154999999999</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1539.3808499999998</v>
       </c>
       <c r="F28" s="14">
-        <f>F20*(1+$K$4)^B28</f>
+        <f t="shared" si="4"/>
         <v>4398.2309999999998</v>
       </c>
       <c r="G28" s="14"/>
@@ -2361,7 +2362,7 @@
         <v>5</v>
       </c>
       <c r="W28" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.94144</v>
       </c>
       <c r="Y28" s="3">
@@ -2374,7 +2375,7 @@
         <v>7824</v>
       </c>
       <c r="AB28" s="6">
-        <f>IF(EXACT(Z28,$AA$16),$AB$16,IF(EXACT(Z28,$AA$17),$AB$17,IF(EXACT(Z28,$AA$18),$AB$18,0)))</f>
+        <f t="shared" si="6"/>
         <v>3.06</v>
       </c>
       <c r="AD28" s="11">
@@ -2398,27 +2399,27 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="B29" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C29" s="7">
-        <f>0.15*F29</f>
         <v>572.10299999999995</v>
       </c>
       <c r="D29" s="7">
-        <f>0.5*F29</f>
+        <f t="shared" si="1"/>
         <v>1907.0099999999998</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1334.9069999999997</v>
       </c>
       <c r="F29" s="14">
-        <f>F21*(1+$K$4)^B29</f>
+        <f t="shared" si="4"/>
         <v>3814.0199999999995</v>
       </c>
       <c r="G29" s="14"/>
@@ -2455,7 +2456,7 @@
         <v>6</v>
       </c>
       <c r="W29" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>38.22552000000001</v>
       </c>
       <c r="Y29" s="3">
@@ -2468,7 +2469,7 @@
         <v>12492</v>
       </c>
       <c r="AB29" s="6">
-        <f>IF(EXACT(Z29,$AA$16),$AB$16,IF(EXACT(Z29,$AA$17),$AB$17,IF(EXACT(Z29,$AA$18),$AB$18,0)))</f>
+        <f t="shared" si="6"/>
         <v>3.06</v>
       </c>
       <c r="AD29" s="11">
@@ -2492,27 +2493,27 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="B30" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="C30" s="7">
-        <f>0.15*F30</f>
         <v>646.85537615129977</v>
       </c>
       <c r="D30" s="7">
-        <f>0.5*F30</f>
+        <f t="shared" si="1"/>
         <v>2156.1845871709993</v>
       </c>
       <c r="E30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1509.3292110196994</v>
       </c>
       <c r="F30" s="14">
-        <f>F22*(1+$K$4)^B30</f>
+        <f t="shared" si="4"/>
         <v>4312.3691743419986</v>
       </c>
       <c r="G30" s="14"/>
@@ -2549,7 +2550,7 @@
         <v>7</v>
       </c>
       <c r="W30" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.6982999999999999</v>
       </c>
       <c r="Y30" s="3">
@@ -2562,7 +2563,7 @@
         <v>555</v>
       </c>
       <c r="AB30" s="6">
-        <f>IF(EXACT(Z30,$AA$16),$AB$16,IF(EXACT(Z30,$AA$17),$AB$17,IF(EXACT(Z30,$AA$18),$AB$18,0)))</f>
+        <f t="shared" si="6"/>
         <v>3.06</v>
       </c>
       <c r="AD30" s="11">
@@ -2586,27 +2587,27 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="B31" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="C31" s="7">
-        <f>0.15*F31</f>
         <v>574.12652013809975</v>
       </c>
       <c r="D31" s="7">
-        <f>0.5*F31</f>
+        <f t="shared" si="1"/>
         <v>1913.7550671269994</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1339.6285469888994</v>
       </c>
       <c r="F31" s="14">
-        <f>F23*(1+$K$4)^B31</f>
+        <f t="shared" si="4"/>
         <v>3827.5101342539988</v>
       </c>
       <c r="G31" s="14"/>
@@ -2643,7 +2644,7 @@
         <v>8</v>
       </c>
       <c r="W31" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>36.677160000000001</v>
       </c>
       <c r="Y31" s="3">
@@ -2656,7 +2657,7 @@
         <v>11986</v>
       </c>
       <c r="AB31" s="6">
-        <f>IF(EXACT(Z31,$AA$16),$AB$16,IF(EXACT(Z31,$AA$17),$AB$17,IF(EXACT(Z31,$AA$18),$AB$18,0)))</f>
+        <f t="shared" si="6"/>
         <v>3.06</v>
       </c>
       <c r="AD31" s="11">
@@ -2680,27 +2681,27 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C32" s="7">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="B32" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="C32" s="7">
-        <f>0.15*F32</f>
         <v>734.22245530274972</v>
       </c>
       <c r="D32" s="7">
-        <f>0.5*F32</f>
+        <f t="shared" si="1"/>
         <v>2447.4081843424992</v>
       </c>
       <c r="E32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1713.1857290397493</v>
       </c>
       <c r="F32" s="14">
-        <f>F24*(1+$K$4)^B32</f>
+        <f t="shared" si="4"/>
         <v>4894.8163686849985</v>
       </c>
       <c r="G32" s="14"/>
@@ -2737,7 +2738,7 @@
         <v>9</v>
       </c>
       <c r="W32" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.494679999999999</v>
       </c>
       <c r="Y32" s="3">
@@ -2750,7 +2751,7 @@
         <v>7678</v>
       </c>
       <c r="AB32" s="6">
-        <f>IF(EXACT(Z32,$AA$16),$AB$16,IF(EXACT(Z32,$AA$17),$AB$17,IF(EXACT(Z32,$AA$18),$AB$18,0)))</f>
+        <f t="shared" si="6"/>
         <v>3.06</v>
       </c>
       <c r="AD32" s="11">
@@ -2774,27 +2775,27 @@
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="B33" s="4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C33" s="7">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="B33" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="C33" s="7">
-        <f>0.15*F33</f>
         <v>624.05056536749976</v>
       </c>
       <c r="D33" s="7">
-        <f>0.5*F33</f>
+        <f t="shared" si="1"/>
         <v>2080.1685512249992</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1456.1179858574994</v>
       </c>
       <c r="F33" s="14">
-        <f>F25*(1+$K$4)^B33</f>
+        <f t="shared" si="4"/>
         <v>4160.3371024499984</v>
       </c>
       <c r="G33" s="14"/>
@@ -2831,7 +2832,7 @@
         <v>10</v>
       </c>
       <c r="W33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>31.606739999999999</v>
       </c>
       <c r="Y33" s="3">
@@ -2844,7 +2845,7 @@
         <v>10329</v>
       </c>
       <c r="AB33" s="6">
-        <f>IF(EXACT(Z33,$AA$16),$AB$16,IF(EXACT(Z33,$AA$17),$AB$17,IF(EXACT(Z33,$AA$18),$AB$18,0)))</f>
+        <f t="shared" si="6"/>
         <v>3.06</v>
       </c>
       <c r="AD33" s="11">
@@ -2868,27 +2869,27 @@
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C34" s="7">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="B34" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="C34" s="7">
-        <f>0.15*F34</f>
         <v>920.51310555689975</v>
       </c>
       <c r="D34" s="7">
-        <f>0.5*F34</f>
+        <f t="shared" si="1"/>
         <v>3068.3770185229992</v>
       </c>
       <c r="E34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2147.8639129660992</v>
       </c>
       <c r="F34" s="14">
-        <f>F26*(1+$K$4)^B34</f>
+        <f t="shared" si="4"/>
         <v>6136.7540370459983</v>
       </c>
       <c r="G34" s="14"/>
@@ -2925,7 +2926,7 @@
         <v>11</v>
       </c>
       <c r="W34" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>38.996639999999999</v>
       </c>
       <c r="Y34" s="3">
@@ -2938,7 +2939,7 @@
         <v>12744</v>
       </c>
       <c r="AB34" s="6">
-        <f>IF(EXACT(Z34,$AA$16),$AB$16,IF(EXACT(Z34,$AA$17),$AB$17,IF(EXACT(Z34,$AA$18),$AB$18,0)))</f>
+        <f t="shared" si="6"/>
         <v>3.06</v>
       </c>
       <c r="AD34" s="11">
@@ -2962,27 +2963,27 @@
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C35" s="7">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="B35" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="C35" s="7">
-        <f>0.15*F35</f>
         <v>778.76595196620701</v>
       </c>
       <c r="D35" s="7">
-        <f>0.5*F35</f>
+        <f t="shared" si="1"/>
         <v>2595.8865065540235</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1817.1205545878163</v>
       </c>
       <c r="F35" s="14">
-        <f>F27*(1+$K$4)^B35</f>
+        <f t="shared" si="4"/>
         <v>5191.7730131080471</v>
       </c>
       <c r="G35" s="14"/>
@@ -3019,7 +3020,7 @@
         <v>12</v>
       </c>
       <c r="W35" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>35.954999999999998</v>
       </c>
       <c r="Y35" s="3">
@@ -3032,7 +3033,7 @@
         <v>11750</v>
       </c>
       <c r="AB35" s="6">
-        <f>IF(EXACT(Z35,$AA$16),$AB$16,IF(EXACT(Z35,$AA$17),$AB$17,IF(EXACT(Z35,$AA$18),$AB$18,0)))</f>
+        <f t="shared" si="6"/>
         <v>3.06</v>
       </c>
       <c r="AD35" s="11">
@@ -3056,27 +3057,27 @@
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="B36" s="4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C36" s="7">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="B36" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="C36" s="7">
-        <f>0.15*F36</f>
         <v>671.66331220664972</v>
       </c>
       <c r="D36" s="7">
-        <f>0.5*F36</f>
+        <f t="shared" si="1"/>
         <v>2238.8777073554993</v>
       </c>
       <c r="E36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1567.2143951488495</v>
       </c>
       <c r="F36" s="14">
-        <f>F28*(1+$K$4)^B36</f>
+        <f t="shared" si="4"/>
         <v>4477.7554147109986</v>
       </c>
       <c r="G36" s="14"/>
@@ -3113,7 +3114,7 @@
         <v>13</v>
       </c>
       <c r="W36" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>26.289359999999999</v>
       </c>
       <c r="Y36" s="3">
@@ -3126,7 +3127,7 @@
         <v>12171</v>
       </c>
       <c r="AB36" s="6">
-        <f>IF(EXACT(Z36,$AA$16),$AB$16,IF(EXACT(Z36,$AA$17),$AB$17,IF(EXACT(Z36,$AA$18),$AB$18,0)))</f>
+        <f t="shared" si="6"/>
         <v>2.16</v>
       </c>
       <c r="AD36" s="11">
@@ -3150,27 +3151,27 @@
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="B37" s="4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C37" s="7">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="B37" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="C37" s="7">
-        <f>0.15*F37</f>
         <v>582.44719434299986</v>
       </c>
       <c r="D37" s="7">
-        <f>0.5*F37</f>
+        <f t="shared" si="1"/>
         <v>1941.4906478099995</v>
       </c>
       <c r="E37" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1359.0434534669996</v>
       </c>
       <c r="F37" s="14">
-        <f>F29*(1+$K$4)^B37</f>
+        <f t="shared" si="4"/>
         <v>3882.9812956199989</v>
       </c>
       <c r="G37" s="14"/>
@@ -3207,7 +3208,7 @@
         <v>14</v>
       </c>
       <c r="W37" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>34.819740000000003</v>
       </c>
       <c r="Y37" s="3">
@@ -3220,7 +3221,7 @@
         <v>11379</v>
       </c>
       <c r="AB37" s="6">
-        <f>IF(EXACT(Z37,$AA$16),$AB$16,IF(EXACT(Z37,$AA$17),$AB$17,IF(EXACT(Z37,$AA$18),$AB$18,0)))</f>
+        <f t="shared" si="6"/>
         <v>3.06</v>
       </c>
       <c r="AD37" s="11">
@@ -3244,27 +3245,27 @@
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
         <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="B38" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="C38" s="7">
-        <f>0.15*F38</f>
         <v>664.47812872135864</v>
       </c>
       <c r="D38" s="7">
-        <f>0.5*F38</f>
+        <f t="shared" si="1"/>
         <v>2214.9270957378621</v>
       </c>
       <c r="E38" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1550.4489670165035</v>
       </c>
       <c r="F38" s="14">
-        <f>F30*(1+$K$4)^B38</f>
+        <f t="shared" si="4"/>
         <v>4429.8541914757243</v>
       </c>
       <c r="G38" s="14"/>
@@ -3301,7 +3302,7 @@
         <v>15</v>
       </c>
       <c r="W38" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.647179999999999</v>
       </c>
       <c r="Y38" s="3">
@@ -3314,7 +3315,7 @@
         <v>12303</v>
       </c>
       <c r="AB38" s="6">
-        <f>IF(EXACT(Z38,$AA$16),$AB$16,IF(EXACT(Z38,$AA$17),$AB$17,IF(EXACT(Z38,$AA$18),$AB$18,0)))</f>
+        <f t="shared" si="6"/>
         <v>3.06</v>
       </c>
       <c r="AD38" s="11">
@@ -3338,27 +3339,27 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="B39" s="4">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="C39" s="7">
         <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="B39" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <f>0.15*F39</f>
         <v>589.76786746445498</v>
       </c>
       <c r="D39" s="7">
-        <f>0.5*F39</f>
+        <f t="shared" si="1"/>
         <v>1965.8928915481833</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1376.1250240837282</v>
       </c>
       <c r="F39" s="14">
-        <f>F31*(1+$K$4)^B39</f>
+        <f t="shared" si="4"/>
         <v>3931.7857830963667</v>
       </c>
       <c r="G39" s="14"/>
@@ -3395,7 +3396,7 @@
         <v>16</v>
       </c>
       <c r="W39" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25.404119999999999</v>
       </c>
       <c r="Y39" s="3">
@@ -3408,7 +3409,7 @@
         <v>8302</v>
       </c>
       <c r="AB39" s="6">
-        <f>IF(EXACT(Z39,$AA$16),$AB$16,IF(EXACT(Z39,$AA$17),$AB$17,IF(EXACT(Z39,$AA$18),$AB$18,0)))</f>
+        <f t="shared" si="6"/>
         <v>3.06</v>
       </c>
       <c r="AD39" s="11">
@@ -3432,27 +3433,27 @@
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="B40" s="4">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="C40" s="7">
         <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="B40" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="C40" s="7">
-        <f>0.15*F40</f>
         <v>754.22541290073218</v>
       </c>
       <c r="D40" s="7">
-        <f>0.5*F40</f>
+        <f t="shared" si="1"/>
         <v>2514.0847096691073</v>
       </c>
       <c r="E40" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1759.8592967683751</v>
       </c>
       <c r="F40" s="14">
-        <f>F32*(1+$K$4)^B40</f>
+        <f t="shared" si="4"/>
         <v>5028.1694193382145</v>
       </c>
       <c r="G40" s="14"/>
@@ -3489,7 +3490,7 @@
         <v>17</v>
       </c>
       <c r="W40" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.453280000000003</v>
       </c>
       <c r="Y40" s="3">
@@ -3502,7 +3503,7 @@
         <v>10858</v>
       </c>
       <c r="AB40" s="6">
-        <f>IF(EXACT(Z40,$AA$16),$AB$16,IF(EXACT(Z40,$AA$17),$AB$17,IF(EXACT(Z40,$AA$18),$AB$18,0)))</f>
+        <f t="shared" si="6"/>
         <v>2.16</v>
       </c>
       <c r="AD40" s="11">
@@ -3526,27 +3527,27 @@
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="B41" s="4">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="C41" s="7">
         <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="B41" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="C41" s="7">
-        <f>0.15*F41</f>
         <v>641.05202985266851</v>
       </c>
       <c r="D41" s="7">
-        <f>0.5*F41</f>
+        <f t="shared" si="1"/>
         <v>2136.840099508895</v>
       </c>
       <c r="E41" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1495.7880696562265</v>
       </c>
       <c r="F41" s="14">
-        <f>F33*(1+$K$4)^B41</f>
+        <f t="shared" si="4"/>
         <v>4273.6801990177901</v>
       </c>
       <c r="G41" s="14"/>
@@ -3583,7 +3584,7 @@
         <v>18</v>
       </c>
       <c r="W41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.647680000000001</v>
       </c>
       <c r="Y41" s="3">
@@ -3596,7 +3597,7 @@
         <v>10948</v>
       </c>
       <c r="AB41" s="6">
-        <f>IF(EXACT(Z41,$AA$16),$AB$16,IF(EXACT(Z41,$AA$17),$AB$17,IF(EXACT(Z41,$AA$18),$AB$18,0)))</f>
+        <f t="shared" si="6"/>
         <v>2.16</v>
       </c>
       <c r="AD41" s="11">
@@ -3617,41 +3618,41 @@
       <c r="AI41" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AL41" s="36" t="s">
+      <c r="AL41" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="AM41" s="38" t="s">
+      <c r="AM41" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AN41" s="38"/>
-      <c r="AO41" s="38" t="s">
+      <c r="AN41" s="42"/>
+      <c r="AO41" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="AP41" s="47"/>
+      <c r="AP41" s="43"/>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="C42" s="7">
         <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="B42" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="C42" s="7">
-        <f>0.15*F42</f>
         <v>945.5913151456399</v>
       </c>
       <c r="D42" s="7">
-        <f>0.5*F42</f>
+        <f t="shared" si="1"/>
         <v>3151.9710504854665</v>
       </c>
       <c r="E42" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2206.3797353398263</v>
       </c>
       <c r="F42" s="14">
-        <f>F34*(1+$K$4)^B42</f>
+        <f t="shared" si="4"/>
         <v>6303.9421009709331</v>
       </c>
       <c r="G42" s="14"/>
@@ -3688,7 +3689,7 @@
         <v>19</v>
       </c>
       <c r="W42" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>223.99503999999999</v>
       </c>
       <c r="Y42" s="3">
@@ -3701,7 +3702,7 @@
         <v>17834</v>
       </c>
       <c r="AB42" s="6">
-        <f>IF(EXACT(Z42,$AA$16),$AB$16,IF(EXACT(Z42,$AA$17),$AB$17,IF(EXACT(Z42,$AA$18),$AB$18,0)))</f>
+        <f t="shared" si="6"/>
         <v>12.56</v>
       </c>
       <c r="AD42" s="11">
@@ -3722,35 +3723,35 @@
       <c r="AI42" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="AL42" s="37"/>
-      <c r="AM42" s="39"/>
-      <c r="AN42" s="39"/>
-      <c r="AO42" s="39"/>
-      <c r="AP42" s="48"/>
+      <c r="AL42" s="49"/>
+      <c r="AM42" s="44"/>
+      <c r="AN42" s="44"/>
+      <c r="AO42" s="44"/>
+      <c r="AP42" s="45"/>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="B43" s="4">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="B43" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="C43" s="7">
-        <f>0.15*F43</f>
         <v>799.98244051600113</v>
       </c>
       <c r="D43" s="7">
-        <f>0.5*F43</f>
+        <f t="shared" si="1"/>
         <v>2666.6081350533373</v>
       </c>
       <c r="E43" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1866.6256945373359</v>
       </c>
       <c r="F43" s="14">
-        <f>F35*(1+$K$4)^B43</f>
+        <f t="shared" si="4"/>
         <v>5333.2162701066745</v>
       </c>
       <c r="G43" s="14"/>
@@ -3787,7 +3788,7 @@
         <v>20</v>
       </c>
       <c r="W43" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>36.931139999999999</v>
       </c>
       <c r="Y43" s="3">
@@ -3800,7 +3801,7 @@
         <v>12069</v>
       </c>
       <c r="AB43" s="6">
-        <f>IF(EXACT(Z43,$AA$16),$AB$16,IF(EXACT(Z43,$AA$17),$AB$17,IF(EXACT(Z43,$AA$18),$AB$18,0)))</f>
+        <f t="shared" si="6"/>
         <v>3.06</v>
       </c>
       <c r="AD43" s="11">
@@ -3827,27 +3828,27 @@
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="B44" s="4">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="C44" s="7">
         <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="B44" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="C44" s="7">
-        <f>0.15*F44</f>
         <v>689.96192546364978</v>
       </c>
       <c r="D44" s="7">
-        <f>0.5*F44</f>
+        <f t="shared" si="1"/>
         <v>2299.8730848788327</v>
       </c>
       <c r="E44" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1609.9111594151827</v>
       </c>
       <c r="F44" s="14">
-        <f>F36*(1+$K$4)^B44</f>
+        <f t="shared" si="4"/>
         <v>4599.7461697576655</v>
       </c>
       <c r="G44" s="14"/>
@@ -3872,7 +3873,7 @@
         <v>21</v>
       </c>
       <c r="Q44" s="6">
-        <f>$K$5*AO44</f>
+        <f t="shared" ref="Q44:Q63" si="8">$K$5*AO44</f>
         <v>28.1</v>
       </c>
       <c r="S44" s="12">
@@ -3885,7 +3886,7 @@
         <v>21</v>
       </c>
       <c r="W44" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y44" s="12">
@@ -3924,38 +3925,38 @@
       <c r="AL44" s="19">
         <v>0.29299999999999998</v>
       </c>
-      <c r="AM44" s="40">
+      <c r="AM44" s="50">
         <v>72154</v>
       </c>
-      <c r="AN44" s="40"/>
-      <c r="AO44" s="49">
+      <c r="AN44" s="50"/>
+      <c r="AO44" s="46">
         <v>28.1</v>
       </c>
-      <c r="AP44" s="50"/>
+      <c r="AP44" s="47"/>
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="B45" s="4">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="C45" s="7">
         <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="B45" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="C45" s="7">
-        <f>0.15*F45</f>
         <v>598.31522786249059</v>
       </c>
       <c r="D45" s="7">
-        <f>0.5*F45</f>
+        <f t="shared" si="1"/>
         <v>1994.3840928749687</v>
       </c>
       <c r="E45" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1396.068865012478</v>
       </c>
       <c r="F45" s="14">
-        <f>F37*(1+$K$4)^B45</f>
+        <f t="shared" si="4"/>
         <v>3988.7681857499374</v>
       </c>
       <c r="G45" s="14"/>
@@ -3980,7 +3981,7 @@
         <v>22</v>
       </c>
       <c r="Q45" s="6">
-        <f>$K$5*AO45</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="S45" s="12">
@@ -3993,7 +3994,7 @@
         <v>22</v>
       </c>
       <c r="W45" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y45" s="12">
@@ -4032,38 +4033,38 @@
       <c r="AL45" s="21">
         <v>0.31</v>
       </c>
-      <c r="AM45" s="41">
+      <c r="AM45" s="40">
         <v>67811</v>
       </c>
-      <c r="AN45" s="41"/>
-      <c r="AO45" s="42">
+      <c r="AN45" s="40"/>
+      <c r="AO45" s="36">
         <v>25</v>
       </c>
-      <c r="AP45" s="43"/>
+      <c r="AP45" s="37"/>
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
       <c r="B46" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C46" s="7">
-        <f>0.15*F46</f>
+        <f t="shared" ref="C46:C67" si="9">0.15*F46</f>
         <v>688.72421970375024</v>
       </c>
       <c r="D46" s="7">
-        <f>0.5*F46</f>
+        <f t="shared" ref="D46:D67" si="10">0.5*F46</f>
         <v>2295.7473990125009</v>
       </c>
       <c r="E46" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1607.0231793087505</v>
       </c>
       <c r="F46" s="14">
-        <f>F38*(1+$K$4)^B46</f>
+        <f t="shared" si="4"/>
         <v>4591.4947980250017</v>
       </c>
       <c r="G46" s="14"/>
@@ -4088,7 +4089,7 @@
         <v>23</v>
       </c>
       <c r="Q46" s="6">
-        <f>$K$5*AO46</f>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="S46" s="12">
@@ -4101,7 +4102,7 @@
         <v>23</v>
       </c>
       <c r="W46" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y46" s="12">
@@ -4140,38 +4141,38 @@
       <c r="AL46" s="21">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AM46" s="41">
+      <c r="AM46" s="40">
         <v>187455</v>
       </c>
-      <c r="AN46" s="41"/>
-      <c r="AO46" s="42">
+      <c r="AN46" s="40"/>
+      <c r="AO46" s="36">
         <v>70</v>
       </c>
-      <c r="AP46" s="43"/>
+      <c r="AP46" s="37"/>
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
       <c r="B47" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C47" s="7">
-        <f>0.15*F47</f>
+        <f t="shared" si="9"/>
         <v>611.28786150933138</v>
       </c>
       <c r="D47" s="7">
-        <f>0.5*F47</f>
+        <f t="shared" si="10"/>
         <v>2037.6262050311047</v>
       </c>
       <c r="E47" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1426.3383435217731</v>
       </c>
       <c r="F47" s="14">
-        <f>F39*(1+$K$4)^B47</f>
+        <f t="shared" si="4"/>
         <v>4075.2524100622095</v>
       </c>
       <c r="G47" s="14"/>
@@ -4196,7 +4197,7 @@
         <v>24</v>
       </c>
       <c r="Q47" s="6">
-        <f>$K$5*AO47</f>
+        <f t="shared" si="8"/>
         <v>30.6</v>
       </c>
       <c r="S47" s="12">
@@ -4209,7 +4210,7 @@
         <v>24</v>
       </c>
       <c r="W47" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y47" s="12">
@@ -4248,38 +4249,38 @@
       <c r="AL47" s="21">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AM47" s="41">
+      <c r="AM47" s="40">
         <v>63266</v>
       </c>
-      <c r="AN47" s="41"/>
-      <c r="AO47" s="42">
+      <c r="AN47" s="40"/>
+      <c r="AO47" s="36">
         <v>30.6</v>
       </c>
-      <c r="AP47" s="43"/>
+      <c r="AP47" s="37"/>
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
       <c r="B48" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C48" s="7">
-        <f>0.15*F48</f>
+        <f t="shared" si="9"/>
         <v>781.74628558560494</v>
       </c>
       <c r="D48" s="7">
-        <f>0.5*F48</f>
+        <f t="shared" si="10"/>
         <v>2605.8209519520165</v>
       </c>
       <c r="E48" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1824.0746663664113</v>
       </c>
       <c r="F48" s="14">
-        <f>F40*(1+$K$4)^B48</f>
+        <f t="shared" si="4"/>
         <v>5211.6419039040329</v>
       </c>
       <c r="G48" s="14"/>
@@ -4304,7 +4305,7 @@
         <v>25</v>
       </c>
       <c r="Q48" s="6">
-        <f>$K$5*AO48</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="S48" s="12">
@@ -4317,7 +4318,7 @@
         <v>25</v>
       </c>
       <c r="W48" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y48" s="12">
@@ -4356,38 +4357,38 @@
       <c r="AL48" s="21">
         <v>0.30299999999999999</v>
       </c>
-      <c r="AM48" s="41">
+      <c r="AM48" s="40">
         <v>26553</v>
       </c>
-      <c r="AN48" s="41"/>
-      <c r="AO48" s="42">
+      <c r="AN48" s="40"/>
+      <c r="AO48" s="36">
         <v>10</v>
       </c>
-      <c r="AP48" s="43"/>
+      <c r="AP48" s="37"/>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
       <c r="B49" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C49" s="7">
-        <f>0.15*F49</f>
+        <f t="shared" si="9"/>
         <v>664.44332772753421</v>
       </c>
       <c r="D49" s="7">
-        <f>0.5*F49</f>
+        <f t="shared" si="10"/>
         <v>2214.8110924251141</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1550.3677646975798</v>
       </c>
       <c r="F49" s="14">
-        <f>F41*(1+$K$4)^B49</f>
+        <f t="shared" si="4"/>
         <v>4429.6221848502282</v>
       </c>
       <c r="G49" s="14"/>
@@ -4412,7 +4413,7 @@
         <v>26</v>
       </c>
       <c r="Q49" s="6">
-        <f>$K$5*AO49</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="S49" s="12">
@@ -4425,7 +4426,7 @@
         <v>26</v>
       </c>
       <c r="W49" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y49" s="12">
@@ -4464,38 +4465,38 @@
       <c r="AL49" s="21">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AM49" s="41">
+      <c r="AM49" s="40">
         <v>24949</v>
       </c>
-      <c r="AN49" s="41"/>
-      <c r="AO49" s="42">
+      <c r="AN49" s="40"/>
+      <c r="AO49" s="36">
         <v>10</v>
       </c>
-      <c r="AP49" s="43"/>
+      <c r="AP49" s="37"/>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
       <c r="B50" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C50" s="7">
-        <f>0.15*F50</f>
+        <f t="shared" si="9"/>
         <v>980.09492341834311</v>
       </c>
       <c r="D50" s="7">
-        <f>0.5*F50</f>
+        <f t="shared" si="10"/>
         <v>3266.9830780611437</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2286.8881546428006</v>
       </c>
       <c r="F50" s="14">
-        <f>F42*(1+$K$4)^B50</f>
+        <f t="shared" si="4"/>
         <v>6533.9661561222874</v>
       </c>
       <c r="G50" s="14"/>
@@ -4520,7 +4521,7 @@
         <v>27</v>
       </c>
       <c r="Q50" s="6">
-        <f>$K$5*AO50</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="S50" s="12">
@@ -4533,7 +4534,7 @@
         <v>27</v>
       </c>
       <c r="W50" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y50" s="12">
@@ -4572,38 +4573,38 @@
       <c r="AL50" s="21">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AM50" s="41">
+      <c r="AM50" s="40">
         <v>22870</v>
       </c>
-      <c r="AN50" s="41"/>
-      <c r="AO50" s="42">
+      <c r="AN50" s="40"/>
+      <c r="AO50" s="36">
         <v>10</v>
       </c>
-      <c r="AP50" s="43"/>
+      <c r="AP50" s="37"/>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C51" s="7">
-        <f>0.15*F51</f>
+        <f t="shared" si="9"/>
         <v>829.17293783814898</v>
       </c>
       <c r="D51" s="7">
-        <f>0.5*F51</f>
+        <f t="shared" si="10"/>
         <v>2763.9097927938301</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1934.7368549556809</v>
       </c>
       <c r="F51" s="14">
-        <f>F43*(1+$K$4)^B51</f>
+        <f t="shared" si="4"/>
         <v>5527.8195855876602</v>
       </c>
       <c r="G51" s="14"/>
@@ -4628,7 +4629,7 @@
         <v>28</v>
       </c>
       <c r="Q51" s="6">
-        <f>$K$5*AO51</f>
+        <f t="shared" si="8"/>
         <v>52.2</v>
       </c>
       <c r="S51" s="12">
@@ -4641,7 +4642,7 @@
         <v>28</v>
       </c>
       <c r="W51" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y51" s="12">
@@ -4680,38 +4681,38 @@
       <c r="AL51" s="21">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AM51" s="41">
+      <c r="AM51" s="40">
         <v>139836</v>
       </c>
-      <c r="AN51" s="41"/>
-      <c r="AO51" s="42">
+      <c r="AN51" s="40"/>
+      <c r="AO51" s="36">
         <v>52.2</v>
       </c>
-      <c r="AP51" s="43"/>
+      <c r="AP51" s="37"/>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
       <c r="B52" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C52" s="7">
-        <f>0.15*F52</f>
+        <f t="shared" si="9"/>
         <v>715.13789273193117</v>
       </c>
       <c r="D52" s="7">
-        <f>0.5*F52</f>
+        <f t="shared" si="10"/>
         <v>2383.792975773104</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1668.6550830411727</v>
       </c>
       <c r="F52" s="14">
-        <f>F44*(1+$K$4)^B52</f>
+        <f t="shared" si="4"/>
         <v>4767.585951546208</v>
       </c>
       <c r="G52" s="14"/>
@@ -4736,7 +4737,7 @@
         <v>29</v>
       </c>
       <c r="Q52" s="6">
-        <f>$K$5*AO52</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="S52" s="12">
@@ -4749,7 +4750,7 @@
         <v>29</v>
       </c>
       <c r="W52" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y52" s="12">
@@ -4788,38 +4789,38 @@
       <c r="AL52" s="21">
         <v>0.26800000000000002</v>
       </c>
-      <c r="AM52" s="41">
+      <c r="AM52" s="40">
         <v>23515</v>
       </c>
-      <c r="AN52" s="41"/>
-      <c r="AO52" s="42">
+      <c r="AN52" s="40"/>
+      <c r="AO52" s="36">
         <v>10</v>
       </c>
-      <c r="AP52" s="43"/>
+      <c r="AP52" s="37"/>
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
       <c r="B53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C53" s="7">
-        <f>0.15*F53</f>
+        <f t="shared" si="9"/>
         <v>620.14710587903187</v>
       </c>
       <c r="D53" s="7">
-        <f>0.5*F53</f>
+        <f t="shared" si="10"/>
         <v>2067.1570195967729</v>
       </c>
       <c r="E53" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1447.009913717741</v>
       </c>
       <c r="F53" s="14">
-        <f>F45*(1+$K$4)^B53</f>
+        <f t="shared" si="4"/>
         <v>4134.3140391935458</v>
       </c>
       <c r="G53" s="14"/>
@@ -4844,7 +4845,7 @@
         <v>30</v>
       </c>
       <c r="Q53" s="6">
-        <f>$K$5*AO53</f>
+        <f t="shared" si="8"/>
         <v>20.2</v>
       </c>
       <c r="S53" s="12">
@@ -4857,7 +4858,7 @@
         <v>30</v>
       </c>
       <c r="W53" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y53" s="12">
@@ -4896,38 +4897,38 @@
       <c r="AL53" s="21">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AM53" s="41">
+      <c r="AM53" s="40">
         <v>49503</v>
       </c>
-      <c r="AN53" s="41"/>
-      <c r="AO53" s="42">
+      <c r="AN53" s="40"/>
+      <c r="AO53" s="36">
         <v>20.2</v>
       </c>
-      <c r="AP53" s="43"/>
+      <c r="AP53" s="37"/>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
       <c r="B54" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C54" s="7">
-        <f>0.15*F54</f>
+        <f t="shared" si="9"/>
         <v>720.27971964220694</v>
       </c>
       <c r="D54" s="7">
-        <f>0.5*F54</f>
+        <f t="shared" si="10"/>
         <v>2400.9323988073565</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1680.6526791651495</v>
       </c>
       <c r="F54" s="14">
-        <f>F46*(1+$K$4)^B54</f>
+        <f t="shared" si="4"/>
         <v>4801.8647976147131</v>
       </c>
       <c r="G54" s="14"/>
@@ -4952,7 +4953,7 @@
         <v>31</v>
       </c>
       <c r="Q54" s="6">
-        <f>$K$5*AO54</f>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="S54" s="12">
@@ -4965,7 +4966,7 @@
         <v>31</v>
       </c>
       <c r="W54" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y54" s="12">
@@ -5004,38 +5005,38 @@
       <c r="AL54" s="21">
         <v>0.307</v>
       </c>
-      <c r="AM54" s="41">
+      <c r="AM54" s="40">
         <v>188420</v>
       </c>
-      <c r="AN54" s="41"/>
-      <c r="AO54" s="42">
+      <c r="AN54" s="40"/>
+      <c r="AO54" s="36">
         <v>70</v>
       </c>
-      <c r="AP54" s="43"/>
+      <c r="AP54" s="37"/>
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
       <c r="B55" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C55" s="7">
-        <f>0.15*F55</f>
+        <f t="shared" si="9"/>
         <v>639.29543482297822</v>
       </c>
       <c r="D55" s="7">
-        <f>0.5*F55</f>
+        <f t="shared" si="10"/>
         <v>2130.9847827432609</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1491.6893479202824</v>
       </c>
       <c r="F55" s="14">
-        <f>F47*(1+$K$4)^B55</f>
+        <f t="shared" si="4"/>
         <v>4261.9695654865218</v>
       </c>
       <c r="G55" s="14"/>
@@ -5060,7 +5061,7 @@
         <v>32</v>
       </c>
       <c r="Q55" s="6">
-        <f>$K$5*AO55</f>
+        <f t="shared" si="8"/>
         <v>10.5</v>
       </c>
       <c r="S55" s="12">
@@ -5073,7 +5074,7 @@
         <v>32</v>
       </c>
       <c r="W55" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y55" s="12">
@@ -5112,38 +5113,38 @@
       <c r="AL55" s="21">
         <v>0.28899999999999998</v>
       </c>
-      <c r="AM55" s="41">
+      <c r="AM55" s="40">
         <v>26573</v>
       </c>
-      <c r="AN55" s="41"/>
-      <c r="AO55" s="42">
+      <c r="AN55" s="40"/>
+      <c r="AO55" s="36">
         <v>10.5</v>
       </c>
-      <c r="AP55" s="43"/>
+      <c r="AP55" s="37"/>
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
       <c r="B56" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C56" s="7">
-        <f>0.15*F56</f>
+        <f t="shared" si="9"/>
         <v>817.56380755005125</v>
       </c>
       <c r="D56" s="7">
-        <f>0.5*F56</f>
+        <f t="shared" si="10"/>
         <v>2725.2126918335043</v>
       </c>
       <c r="E56" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1907.6488842834528</v>
       </c>
       <c r="F56" s="14">
-        <f>F48*(1+$K$4)^B56</f>
+        <f t="shared" si="4"/>
         <v>5450.4253836670086</v>
       </c>
       <c r="G56" s="14"/>
@@ -5168,7 +5169,7 @@
         <v>33</v>
       </c>
       <c r="Q56" s="6">
-        <f>$K$5*AO56</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="S56" s="12">
@@ -5181,7 +5182,7 @@
         <v>33</v>
       </c>
       <c r="W56" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y56" s="12">
@@ -5220,38 +5221,38 @@
       <c r="AL56" s="21">
         <v>0.28799999999999998</v>
       </c>
-      <c r="AM56" s="41">
+      <c r="AM56" s="40">
         <v>25253</v>
       </c>
-      <c r="AN56" s="41"/>
-      <c r="AO56" s="42">
+      <c r="AN56" s="40"/>
+      <c r="AO56" s="36">
         <v>10</v>
       </c>
-      <c r="AP56" s="43"/>
+      <c r="AP56" s="37"/>
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
       <c r="B57" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C57" s="7">
-        <f>0.15*F57</f>
+        <f t="shared" si="9"/>
         <v>694.88634219888957</v>
       </c>
       <c r="D57" s="7">
-        <f>0.5*F57</f>
+        <f t="shared" si="10"/>
         <v>2316.287807329632</v>
       </c>
       <c r="E57" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1621.4014651307423</v>
       </c>
       <c r="F57" s="14">
-        <f>F49*(1+$K$4)^B57</f>
+        <f t="shared" si="4"/>
         <v>4632.5756146592639</v>
       </c>
       <c r="G57" s="14"/>
@@ -5276,7 +5277,7 @@
         <v>34</v>
       </c>
       <c r="Q57" s="6">
-        <f>$K$5*AO57</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="S57" s="12">
@@ -5289,7 +5290,7 @@
         <v>34</v>
       </c>
       <c r="W57" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y57" s="12">
@@ -5328,38 +5329,38 @@
       <c r="AL57" s="21">
         <v>0.20100000000000001</v>
       </c>
-      <c r="AM57" s="41">
+      <c r="AM57" s="40">
         <v>17610</v>
       </c>
-      <c r="AN57" s="41"/>
-      <c r="AO57" s="42">
+      <c r="AN57" s="40"/>
+      <c r="AO57" s="36">
         <v>10</v>
       </c>
-      <c r="AP57" s="43"/>
+      <c r="AP57" s="37"/>
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
       <c r="B58" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C58" s="7">
-        <f>0.15*F58</f>
+        <f t="shared" si="9"/>
         <v>1025.0002489620163</v>
       </c>
       <c r="D58" s="7">
-        <f>0.5*F58</f>
+        <f t="shared" si="10"/>
         <v>3416.6674965400543</v>
       </c>
       <c r="E58" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2391.6672475780379</v>
       </c>
       <c r="F58" s="14">
-        <f>F50*(1+$K$4)^B58</f>
+        <f t="shared" si="4"/>
         <v>6833.3349930801087</v>
       </c>
       <c r="G58" s="14"/>
@@ -5384,7 +5385,7 @@
         <v>35</v>
       </c>
       <c r="Q58" s="6">
-        <f>$K$5*AO58</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="S58" s="12">
@@ -5397,7 +5398,7 @@
         <v>35</v>
       </c>
       <c r="W58" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y58" s="12">
@@ -5436,38 +5437,38 @@
       <c r="AL58" s="21">
         <v>0.221</v>
       </c>
-      <c r="AM58" s="41">
+      <c r="AM58" s="40">
         <v>19372</v>
       </c>
-      <c r="AN58" s="41"/>
-      <c r="AO58" s="42">
+      <c r="AN58" s="40"/>
+      <c r="AO58" s="36">
         <v>10</v>
       </c>
-      <c r="AP58" s="43"/>
+      <c r="AP58" s="37"/>
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
       <c r="B59" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C59" s="7">
-        <f>0.15*F59</f>
+        <f t="shared" si="9"/>
         <v>867.16342204121122</v>
       </c>
       <c r="D59" s="7">
-        <f>0.5*F59</f>
+        <f t="shared" si="10"/>
         <v>2890.5447401373708</v>
       </c>
       <c r="E59" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2023.3813180961595</v>
       </c>
       <c r="F59" s="14">
-        <f>F51*(1+$K$4)^B59</f>
+        <f t="shared" si="4"/>
         <v>5781.0894802747416</v>
       </c>
       <c r="G59" s="14"/>
@@ -5492,7 +5493,7 @@
         <v>36</v>
       </c>
       <c r="Q59" s="6">
-        <f>$K$5*AO59</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="S59" s="12">
@@ -5505,7 +5506,7 @@
         <v>36</v>
       </c>
       <c r="W59" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y59" s="12">
@@ -5544,38 +5545,38 @@
       <c r="AL59" s="21">
         <v>0.216</v>
       </c>
-      <c r="AM59" s="41">
+      <c r="AM59" s="40">
         <v>18939</v>
       </c>
-      <c r="AN59" s="41"/>
-      <c r="AO59" s="42">
+      <c r="AN59" s="40"/>
+      <c r="AO59" s="36">
         <v>10</v>
       </c>
-      <c r="AP59" s="43"/>
+      <c r="AP59" s="37"/>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
       <c r="B60" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C60" s="7">
-        <f>0.15*F60</f>
+        <f t="shared" si="9"/>
         <v>747.90359645554543</v>
       </c>
       <c r="D60" s="7">
-        <f>0.5*F60</f>
+        <f t="shared" si="10"/>
         <v>2493.0119881851515</v>
       </c>
       <c r="E60" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1745.108391729606</v>
       </c>
       <c r="F60" s="14">
-        <f>F52*(1+$K$4)^B60</f>
+        <f t="shared" si="4"/>
         <v>4986.023976370303</v>
       </c>
       <c r="G60" s="14"/>
@@ -5600,7 +5601,7 @@
         <v>37</v>
       </c>
       <c r="Q60" s="6">
-        <f>$K$5*AO60</f>
+        <f t="shared" si="8"/>
         <v>10.1</v>
       </c>
       <c r="S60" s="12">
@@ -5613,7 +5614,7 @@
         <v>37</v>
       </c>
       <c r="W60" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y60" s="12">
@@ -5652,38 +5653,38 @@
       <c r="AL60" s="21">
         <v>0.23</v>
       </c>
-      <c r="AM60" s="41">
+      <c r="AM60" s="40">
         <v>20382</v>
       </c>
-      <c r="AN60" s="41"/>
-      <c r="AO60" s="42">
+      <c r="AN60" s="40"/>
+      <c r="AO60" s="36">
         <v>10.1</v>
       </c>
-      <c r="AP60" s="43"/>
+      <c r="AP60" s="37"/>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
       <c r="B61" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C61" s="7">
-        <f>0.15*F61</f>
+        <f t="shared" si="9"/>
         <v>648.5605860522968</v>
       </c>
       <c r="D61" s="7">
-        <f>0.5*F61</f>
+        <f t="shared" si="10"/>
         <v>2161.8686201743226</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1513.3080341220257</v>
       </c>
       <c r="F61" s="14">
-        <f>F53*(1+$K$4)^B61</f>
+        <f t="shared" si="4"/>
         <v>4323.7372403486452</v>
       </c>
       <c r="G61" s="14"/>
@@ -5708,7 +5709,7 @@
         <v>38</v>
       </c>
       <c r="Q61" s="6">
-        <f>$K$5*AO61</f>
+        <f t="shared" si="8"/>
         <v>10.1</v>
       </c>
       <c r="S61" s="12">
@@ -5721,7 +5722,7 @@
         <v>38</v>
       </c>
       <c r="W61" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y61" s="12">
@@ -5760,38 +5761,38 @@
       <c r="AL61" s="21">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AM61" s="41">
+      <c r="AM61" s="40">
         <v>19968</v>
       </c>
-      <c r="AN61" s="41"/>
-      <c r="AO61" s="42">
+      <c r="AN61" s="40"/>
+      <c r="AO61" s="36">
         <v>10.1</v>
       </c>
-      <c r="AP61" s="43"/>
+      <c r="AP61" s="37"/>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2026</v>
       </c>
       <c r="B62" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C62" s="7">
-        <f>0.15*F62</f>
+        <f t="shared" si="9"/>
         <v>760.06053718246562</v>
       </c>
       <c r="D62" s="7">
-        <f>0.5*F62</f>
+        <f t="shared" si="10"/>
         <v>2533.5351239415522</v>
       </c>
       <c r="E62" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1773.4745867590864</v>
       </c>
       <c r="F62" s="14">
-        <f>F54*(1+$K$4)^B62</f>
+        <f t="shared" si="4"/>
         <v>5067.0702478831045</v>
       </c>
       <c r="G62" s="14"/>
@@ -5816,7 +5817,7 @@
         <v>39</v>
       </c>
       <c r="Q62" s="6">
-        <f>$K$5*AO62</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="S62" s="12">
@@ -5829,7 +5830,7 @@
         <v>39</v>
       </c>
       <c r="W62" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y62" s="12">
@@ -5868,38 +5869,38 @@
       <c r="AL62" s="21">
         <v>0.26500000000000001</v>
       </c>
-      <c r="AM62" s="41">
+      <c r="AM62" s="40">
         <v>23240</v>
       </c>
-      <c r="AN62" s="41"/>
-      <c r="AO62" s="42">
+      <c r="AN62" s="40"/>
+      <c r="AO62" s="36">
         <v>10</v>
       </c>
-      <c r="AP62" s="43"/>
+      <c r="AP62" s="37"/>
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2026</v>
       </c>
       <c r="B63" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C63" s="7">
-        <f>0.15*F63</f>
+        <f t="shared" si="9"/>
         <v>674.6035163272669</v>
       </c>
       <c r="D63" s="7">
-        <f>0.5*F63</f>
+        <f t="shared" si="10"/>
         <v>2248.6783877575563</v>
       </c>
       <c r="E63" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1574.0748714302892</v>
       </c>
       <c r="F63" s="14">
-        <f>F55*(1+$K$4)^B63</f>
+        <f t="shared" si="4"/>
         <v>4497.3567755151125</v>
       </c>
       <c r="G63" s="14"/>
@@ -5924,7 +5925,7 @@
         <v>40</v>
       </c>
       <c r="Q63" s="6">
-        <f>$K$5*AO63</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="S63" s="12">
@@ -5937,7 +5938,7 @@
         <v>40</v>
       </c>
       <c r="W63" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y63" s="12">
@@ -5976,38 +5977,38 @@
       <c r="AL63" s="23">
         <v>0.254</v>
       </c>
-      <c r="AM63" s="46">
+      <c r="AM63" s="41">
         <v>26709</v>
       </c>
-      <c r="AN63" s="46"/>
-      <c r="AO63" s="44">
+      <c r="AN63" s="41"/>
+      <c r="AO63" s="38">
         <v>12</v>
       </c>
-      <c r="AP63" s="45"/>
+      <c r="AP63" s="39"/>
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2026</v>
       </c>
       <c r="B64" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C64" s="7">
-        <f>0.15*F64</f>
+        <f t="shared" si="9"/>
         <v>862.71759401487566</v>
       </c>
       <c r="D64" s="7">
-        <f>0.5*F64</f>
+        <f t="shared" si="10"/>
         <v>2875.725313382919</v>
       </c>
       <c r="E64" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2013.0077193680431</v>
       </c>
       <c r="F64" s="14">
-        <f>F56*(1+$K$4)^B64</f>
+        <f t="shared" si="4"/>
         <v>5751.450626765838</v>
       </c>
       <c r="G64" s="14"/>
@@ -6044,7 +6045,7 @@
         <v>41</v>
       </c>
       <c r="W64" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y64" s="24">
@@ -6080,27 +6081,27 @@
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2026</v>
       </c>
       <c r="B65" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C65" s="7">
-        <f>0.15*F65</f>
+        <f t="shared" si="9"/>
         <v>733.26469166007303</v>
       </c>
       <c r="D65" s="7">
-        <f>0.5*F65</f>
+        <f t="shared" si="10"/>
         <v>2444.21563886691</v>
       </c>
       <c r="E65" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1710.9509472068369</v>
       </c>
       <c r="F65" s="14">
-        <f>F57*(1+$K$4)^B65</f>
+        <f t="shared" si="4"/>
         <v>4888.43127773382</v>
       </c>
       <c r="G65" s="14"/>
@@ -6137,7 +6138,7 @@
         <v>42</v>
       </c>
       <c r="W65" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y65" s="24">
@@ -6173,27 +6174,27 @@
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2026</v>
       </c>
       <c r="B66" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C66" s="7">
-        <f>0.15*F66</f>
+        <f t="shared" si="9"/>
         <v>1081.6106834511791</v>
       </c>
       <c r="D66" s="7">
-        <f>0.5*F66</f>
+        <f t="shared" si="10"/>
         <v>3605.3689448372638</v>
       </c>
       <c r="E66" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2523.7582613860845</v>
       </c>
       <c r="F66" s="14">
-        <f>F58*(1+$K$4)^B66</f>
+        <f t="shared" si="4"/>
         <v>7210.7378896745277</v>
       </c>
       <c r="G66" s="14"/>
@@ -6230,7 +6231,7 @@
         <v>43</v>
       </c>
       <c r="W66" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y66" s="30">
@@ -6263,27 +6264,27 @@
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2026</v>
       </c>
       <c r="B67" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C67" s="7">
-        <f>0.15*F67</f>
+        <f t="shared" si="9"/>
         <v>915.05657928148958</v>
       </c>
       <c r="D67" s="7">
-        <f>0.5*F67</f>
+        <f t="shared" si="10"/>
         <v>3050.1885976049653</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2135.1320183234757</v>
       </c>
       <c r="F67" s="14">
-        <f>F59*(1+$K$4)^B67</f>
+        <f t="shared" si="4"/>
         <v>6100.3771952099305</v>
       </c>
       <c r="G67" s="14"/>
@@ -6292,1753 +6293,1753 @@
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2026</v>
       </c>
       <c r="B68" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C68" s="7">
-        <f t="shared" ref="C68:C131" si="4">0.15*F68</f>
+        <f t="shared" ref="C68:C131" si="11">0.15*F68</f>
         <v>789.21007183858205</v>
       </c>
       <c r="D68" s="7">
-        <f t="shared" ref="D68:D131" si="5">0.5*F68</f>
+        <f t="shared" ref="D68:D131" si="12">0.5*F68</f>
         <v>2630.7002394619403</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" ref="E68:E131" si="6">0.35*F68</f>
+        <f t="shared" ref="E68:E131" si="13">0.35*F68</f>
         <v>1841.490167623358</v>
       </c>
       <c r="F68" s="14">
-        <f t="shared" ref="F68:F131" si="7">F60*(1+$K$4)^B68</f>
+        <f t="shared" ref="F68:F131" si="14">F60*(1+$K$4)^B68</f>
         <v>5261.4004789238807</v>
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2026</v>
       </c>
       <c r="B69" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C69" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>684.38037888273448</v>
       </c>
       <c r="D69" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2281.2679296091151</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1596.8875507263804</v>
       </c>
       <c r="F69" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4562.5358592182301</v>
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2027</v>
       </c>
       <c r="B70" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C70" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>809.25678242514357</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2697.522608083812</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1888.2658256586683</v>
       </c>
       <c r="F70" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5395.0452161676239</v>
       </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2027</v>
       </c>
       <c r="B71" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C71" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>718.26840669749504</v>
       </c>
       <c r="D71" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2394.2280223249836</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1675.9596156274883</v>
       </c>
       <c r="F71" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4788.4560446499672</v>
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2027</v>
       </c>
       <c r="B72" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C72" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>918.55849648780577</v>
       </c>
       <c r="D72" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3061.8616549593526</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2143.3031584715468</v>
       </c>
       <c r="F72" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6123.7233099187051</v>
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2027</v>
       </c>
       <c r="B73" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C73" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>780.72652901901665</v>
       </c>
       <c r="D73" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2602.4217633967223</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1821.6952343777054</v>
       </c>
       <c r="F73" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5204.8435267934447</v>
       </c>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2027</v>
       </c>
       <c r="B74" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C74" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1151.6198232986678</v>
       </c>
       <c r="D74" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3838.7327443288932</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2687.1129210302252</v>
       </c>
       <c r="F74" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7677.4654886577864</v>
       </c>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2027</v>
       </c>
       <c r="B75" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C75" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>974.28521395332359</v>
       </c>
       <c r="D75" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3247.617379844412</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2273.3321658910882</v>
       </c>
       <c r="F75" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6495.2347596888239</v>
       </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2027</v>
       </c>
       <c r="B76" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C76" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>840.29307160343035</v>
       </c>
       <c r="D76" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2800.9769053447681</v>
       </c>
       <c r="E76" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1960.6838337413376</v>
       </c>
       <c r="F76" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5601.9538106895361</v>
       </c>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2027</v>
       </c>
       <c r="B77" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C77" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>728.67809375108197</v>
       </c>
       <c r="D77" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2428.9269791702732</v>
       </c>
       <c r="E77" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1700.2488854191911</v>
       </c>
       <c r="F77" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4857.8539583405463</v>
       </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2028</v>
       </c>
       <c r="B78" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C78" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>869.39207659661986</v>
       </c>
       <c r="D78" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2897.9735886553995</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2028.5815120587795</v>
       </c>
       <c r="F78" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5795.9471773107989</v>
       </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
-        <f t="shared" ref="A79:A142" si="8">B79+2020</f>
+        <f t="shared" ref="A79:A142" si="15">B79+2020</f>
         <v>2028</v>
       </c>
       <c r="B79" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C79" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>771.64241958051559</v>
       </c>
       <c r="D79" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2572.1413986017187</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1800.498979021203</v>
       </c>
       <c r="F79" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5144.2827972034374</v>
       </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2028</v>
       </c>
       <c r="B80" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C80" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>986.81592305452409</v>
       </c>
       <c r="D80" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3289.3864101817471</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2302.5704871272228</v>
       </c>
       <c r="F80" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6578.7728203634942</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2028</v>
       </c>
       <c r="B81" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C81" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>838.7417604136042</v>
       </c>
       <c r="D81" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2795.8058680453473</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1957.0641076317429</v>
       </c>
       <c r="F81" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5591.6117360906946</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2028</v>
       </c>
       <c r="B82" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C82" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1237.1958707928077</v>
       </c>
       <c r="D82" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4123.9862359760255</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2886.7903651832175</v>
       </c>
       <c r="F82" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8247.9724719520509</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2028</v>
       </c>
       <c r="B83" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C83" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1046.6836531389997</v>
       </c>
       <c r="D83" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3488.9455104633325</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2442.2618573243326</v>
       </c>
       <c r="F83" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6977.8910209266651</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2028</v>
       </c>
       <c r="B84" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C84" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>902.73465028219766</v>
       </c>
       <c r="D84" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3009.1155009406589</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2106.380850658461</v>
       </c>
       <c r="F84" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6018.2310018813178</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2028</v>
       </c>
       <c r="B85" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C85" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>782.82564305269705</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2609.4188101756567</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1826.5931671229596</v>
       </c>
       <c r="F85" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5218.8376203513135</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2029</v>
       </c>
       <c r="B86" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="C86" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>942.40194541115056</v>
       </c>
       <c r="D86" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3141.3398180371687</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2198.9378726260179</v>
       </c>
       <c r="F86" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6282.6796360743374</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2029</v>
       </c>
       <c r="B87" s="4">
-        <f t="shared" ref="B87:B150" si="9">B79+1</f>
+        <f t="shared" ref="B87:B150" si="16">B79+1</f>
         <v>9</v>
       </c>
       <c r="C87" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>836.443460838958</v>
       </c>
       <c r="D87" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2788.1448694631936</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1951.7014086242355</v>
       </c>
       <c r="F87" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5576.2897389263871</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2029</v>
       </c>
       <c r="B88" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="C88" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1069.6868198866439</v>
       </c>
       <c r="D88" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3565.6227329554799</v>
       </c>
       <c r="E88" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2495.9359130688358</v>
       </c>
       <c r="F88" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7131.2454659109599</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2029</v>
       </c>
       <c r="B89" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="C89" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>909.17767482495469</v>
       </c>
       <c r="D89" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3030.5922494165156</v>
       </c>
       <c r="E89" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2121.4145745915607</v>
       </c>
       <c r="F89" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6061.1844988330313</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2029</v>
       </c>
       <c r="B90" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="C90" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1341.093192445501</v>
       </c>
       <c r="D90" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4470.3106414850035</v>
       </c>
       <c r="E90" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3129.2174490395023</v>
       </c>
       <c r="F90" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8940.6212829700071</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2029</v>
       </c>
       <c r="B91" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="C91" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1134.5821264091314</v>
       </c>
       <c r="D91" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3781.9404213637713</v>
       </c>
       <c r="E91" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2647.3582949546399</v>
       </c>
       <c r="F91" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7563.8808427275426</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2029</v>
       </c>
       <c r="B92" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="C92" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>978.54456408937722</v>
       </c>
       <c r="D92" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3261.8152136312574</v>
       </c>
       <c r="E92" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2283.2706495418802</v>
       </c>
       <c r="F92" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6523.6304272625148</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2029</v>
       </c>
       <c r="B93" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="C93" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>848.56582983662418</v>
       </c>
       <c r="D93" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2828.5527661220808</v>
       </c>
       <c r="E93" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1979.9869362854565</v>
       </c>
       <c r="F93" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5657.1055322441616</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2030</v>
       </c>
       <c r="B94" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C94" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1030.7369294911718</v>
       </c>
       <c r="D94" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3435.7897649705728</v>
       </c>
       <c r="E94" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2405.052835479401</v>
       </c>
       <c r="F94" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6871.5795299411457</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2030</v>
       </c>
       <c r="B95" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C95" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>914.84654580374104</v>
       </c>
       <c r="D95" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3049.4884860124703</v>
       </c>
       <c r="E95" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2134.641940208729</v>
       </c>
       <c r="F95" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6098.9769720249406</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2030</v>
       </c>
       <c r="B96" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C96" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1169.9527082004365</v>
       </c>
       <c r="D96" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3899.8423606681222</v>
       </c>
       <c r="E96" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2729.8896524676852</v>
       </c>
       <c r="F96" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7799.6847213362444</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2030</v>
       </c>
       <c r="B97" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C97" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>994.3984193518927</v>
       </c>
       <c r="D97" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3314.6613978396426</v>
       </c>
       <c r="E97" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2320.2629784877495</v>
       </c>
       <c r="F97" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6629.3227956792853</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2030</v>
       </c>
       <c r="B98" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C98" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1466.7990511625203</v>
       </c>
       <c r="D98" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4889.3301705417343</v>
       </c>
       <c r="E98" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3422.531119379214</v>
       </c>
       <c r="F98" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9778.6603410834687</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2030</v>
       </c>
       <c r="B99" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C99" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1240.9309031299838</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4136.4363437666125</v>
       </c>
       <c r="E99" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2895.5054406366285</v>
       </c>
       <c r="F99" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8272.872687533225</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2030</v>
       </c>
       <c r="B100" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C100" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1070.2673357913336</v>
       </c>
       <c r="D100" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3567.557785971112</v>
       </c>
       <c r="E100" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2497.2904501797784</v>
       </c>
       <c r="F100" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7135.1155719422241</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2030</v>
       </c>
       <c r="B101" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C101" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>928.10519139509972</v>
       </c>
       <c r="D101" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3093.6839713169993</v>
       </c>
       <c r="E101" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2165.5787799218992</v>
       </c>
       <c r="F101" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6187.3679426339986</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2031</v>
       </c>
       <c r="B102" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="C102" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1137.4980607765594</v>
       </c>
       <c r="D102" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3791.6602025885318</v>
       </c>
       <c r="E102" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2654.1621418119721</v>
       </c>
       <c r="F102" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7583.3204051770635</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2031</v>
       </c>
       <c r="B103" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="C103" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1009.6040434619961</v>
       </c>
       <c r="D103" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3365.3468115399869</v>
       </c>
       <c r="E103" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2355.7427680779906</v>
       </c>
       <c r="F103" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6730.6936230799738</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2031</v>
       </c>
       <c r="B104" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="C104" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1291.1334586946894</v>
       </c>
       <c r="D104" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4303.7781956489644</v>
       </c>
       <c r="E104" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3012.6447369542748</v>
       </c>
       <c r="F104" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8607.5563912979287</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2031</v>
       </c>
       <c r="B105" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="C105" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1097.3956994152134</v>
       </c>
       <c r="D105" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3657.9856647173783</v>
       </c>
       <c r="E105" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2560.5899653021647</v>
       </c>
       <c r="F105" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7315.9713294347566</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2031</v>
       </c>
       <c r="B106" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="C106" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1618.7263971127124</v>
       </c>
       <c r="D106" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>5395.7546570423747</v>
       </c>
       <c r="E106" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3777.028259929662</v>
       </c>
       <c r="F106" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10791.509314084749</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2031</v>
       </c>
       <c r="B107" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="C107" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1369.4633960237388</v>
       </c>
       <c r="D107" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4564.8779867457961</v>
       </c>
       <c r="E107" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3195.4145907220573</v>
       </c>
       <c r="F107" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9129.7559734915922</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2031</v>
       </c>
       <c r="B108" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="C108" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1181.1229268520779</v>
       </c>
       <c r="D108" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3937.07642284026</v>
       </c>
       <c r="E108" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2755.9534959881817</v>
       </c>
       <c r="F108" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7874.1528456805199</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2031</v>
       </c>
       <c r="B109" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="C109" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1024.2359861208656</v>
       </c>
       <c r="D109" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3414.119953736219</v>
       </c>
       <c r="E109" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2389.883967615353</v>
       </c>
       <c r="F109" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6828.2399074724381</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2032</v>
       </c>
       <c r="B110" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="C110" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1266.6150959191468</v>
       </c>
       <c r="D110" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4222.0503197304897</v>
       </c>
       <c r="E110" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2955.4352238113424</v>
       </c>
       <c r="F110" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8444.1006394609794</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2032</v>
       </c>
       <c r="B111" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="C111" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1124.2038702703048</v>
       </c>
       <c r="D111" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3747.3462342343496</v>
       </c>
       <c r="E111" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2623.1423639640448</v>
       </c>
       <c r="F111" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7494.6924684686992</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2032</v>
       </c>
       <c r="B112" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="C112" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1437.6895979168021</v>
       </c>
       <c r="D112" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4792.2986597226736</v>
       </c>
       <c r="E112" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3354.6090618058715</v>
       </c>
       <c r="F112" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9584.5973194453472</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2032</v>
       </c>
       <c r="B113" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="C113" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1221.9607285546797</v>
       </c>
       <c r="D113" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4073.202428515599</v>
       </c>
       <c r="E113" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2851.241699960919</v>
       </c>
       <c r="F113" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8146.4048570311979</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2032</v>
       </c>
       <c r="B114" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="C114" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1802.4675042927547</v>
       </c>
       <c r="D114" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>6008.2250143091824</v>
       </c>
       <c r="E114" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4205.7575100164277</v>
       </c>
       <c r="F114" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>12016.450028618365</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2032</v>
       </c>
       <c r="B115" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="C115" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1524.9107409714479</v>
       </c>
       <c r="D115" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>5083.03580323816</v>
       </c>
       <c r="E115" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3558.1250622667117</v>
       </c>
       <c r="F115" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10166.07160647632</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2032</v>
       </c>
       <c r="B116" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="C116" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1315.1918063629255</v>
       </c>
       <c r="D116" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4383.9726878764186</v>
       </c>
       <c r="E116" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3068.7808815134927</v>
       </c>
       <c r="F116" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8767.9453757528372</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2032</v>
       </c>
       <c r="B117" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="C117" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1140.4966799843673</v>
       </c>
       <c r="D117" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3801.6555999478915</v>
       </c>
       <c r="E117" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2661.1589199635237</v>
       </c>
       <c r="F117" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7603.3111998957829</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2033</v>
       </c>
       <c r="B118" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="C118" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1423.0816572259071</v>
       </c>
       <c r="D118" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4743.605524086357</v>
       </c>
       <c r="E118" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3320.5238668604497</v>
       </c>
       <c r="F118" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9487.2110481727141</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2033</v>
       </c>
       <c r="B119" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="C119" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1263.0781931452425</v>
       </c>
       <c r="D119" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4210.2606438174753</v>
       </c>
       <c r="E119" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2947.1824506722323</v>
       </c>
       <c r="F119" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8420.5212876349506</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2033</v>
       </c>
       <c r="B120" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="C120" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1615.2892083567049</v>
       </c>
       <c r="D120" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>5384.2973611890166</v>
       </c>
       <c r="E120" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3769.0081528323112</v>
       </c>
       <c r="F120" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10768.594722378033</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2033</v>
       </c>
       <c r="B121" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="C121" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1372.911079505699</v>
       </c>
       <c r="D121" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4576.3702650189971</v>
       </c>
       <c r="E121" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3203.4591855132976</v>
       </c>
       <c r="F121" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9152.7405300379942</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2033</v>
       </c>
       <c r="B122" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="C122" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2025.1285898684064</v>
       </c>
       <c r="D122" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>6750.4286328946882</v>
       </c>
       <c r="E122" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4725.3000430262819</v>
       </c>
       <c r="F122" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13500.857265789376</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2033</v>
       </c>
       <c r="B123" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="C123" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1713.2848892887021</v>
       </c>
       <c r="D123" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>5710.9496309623401</v>
       </c>
       <c r="E123" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3997.6647416736378</v>
       </c>
       <c r="F123" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>11421.89926192468</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2033</v>
       </c>
       <c r="B124" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="C124" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1477.6591100161338</v>
       </c>
       <c r="D124" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4925.5303667204462</v>
       </c>
       <c r="E124" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3447.8712567043121</v>
       </c>
       <c r="F124" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9851.0607334408924</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2033</v>
       </c>
       <c r="B125" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="C125" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1281.3836742053188</v>
       </c>
       <c r="D125" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4271.2789140177292</v>
       </c>
       <c r="E125" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2989.8952398124102</v>
       </c>
       <c r="F125" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8542.5578280354584</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2034</v>
       </c>
       <c r="B126" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="C126" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1613.2666208894348</v>
       </c>
       <c r="D126" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>5377.5554029647828</v>
       </c>
       <c r="E126" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3764.2887820753476</v>
       </c>
       <c r="F126" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10755.110805929566</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2034</v>
       </c>
       <c r="B127" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="C127" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1431.8798069161583</v>
       </c>
       <c r="D127" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4772.9326897205274</v>
       </c>
       <c r="E127" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3341.0528828043689</v>
       </c>
       <c r="F127" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9545.8653794410548</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2034</v>
       </c>
       <c r="B128" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="C128" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1831.1613741158069</v>
       </c>
       <c r="D128" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>6103.8712470526898</v>
       </c>
       <c r="E128" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4272.7098729368827</v>
       </c>
       <c r="F128" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>12207.74249410538</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2034</v>
       </c>
       <c r="B129" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="C129" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1556.3910944740858</v>
       </c>
       <c r="D129" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>5187.9703149136194</v>
       </c>
       <c r="E129" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3631.5792204395334</v>
       </c>
       <c r="F129" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10375.940629827239</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2034</v>
       </c>
       <c r="B130" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="C130" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2295.7729378736267</v>
       </c>
       <c r="D130" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>7652.5764595787559</v>
       </c>
       <c r="E130" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5356.8035217051292</v>
       </c>
       <c r="F130" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15305.152919157512</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2034</v>
       </c>
       <c r="B131" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="C131" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1942.253496086588</v>
       </c>
       <c r="D131" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>6474.1783202886272</v>
       </c>
       <c r="E131" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4531.9248242020385</v>
       </c>
       <c r="F131" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>12948.356640577254</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2034</v>
       </c>
       <c r="B132" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="C132" s="7">
-        <f t="shared" ref="C132:C134" si="10">0.15*F132</f>
+        <f t="shared" ref="C132:C134" si="17">0.15*F132</f>
         <v>1675.1379705709976</v>
       </c>
       <c r="D132" s="7">
-        <f t="shared" ref="D132:D134" si="11">0.5*F132</f>
+        <f t="shared" ref="D132:D134" si="18">0.5*F132</f>
         <v>5583.7932352366588</v>
       </c>
       <c r="E132" s="7">
-        <f t="shared" ref="E132:E195" si="12">0.35*F132</f>
+        <f t="shared" ref="E132:E195" si="19">0.35*F132</f>
         <v>3908.655264665661</v>
       </c>
       <c r="F132" s="14">
-        <f t="shared" ref="F132:F134" si="13">F124*(1+$K$4)^B132</f>
+        <f t="shared" ref="F132:F134" si="20">F124*(1+$K$4)^B132</f>
         <v>11167.586470473318</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2034</v>
       </c>
       <c r="B133" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="C133" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1452.631688175813</v>
       </c>
       <c r="D133" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>4842.1056272527103</v>
       </c>
       <c r="E133" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>3389.4739390768968</v>
       </c>
       <c r="F133" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>9684.2112545054206</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2035</v>
       </c>
       <c r="B134" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="C134" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1845.3282982410237</v>
       </c>
       <c r="D134" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>6151.0943274700794</v>
       </c>
       <c r="E134" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4305.7660292290557</v>
       </c>
       <c r="F134" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>12302.188654940159</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2035</v>
       </c>
       <c r="B135" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="C135" s="7">
@@ -8050,7 +8051,7 @@
         <v>5459.4991577307064</v>
       </c>
       <c r="E135" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>3821.649410411494</v>
       </c>
       <c r="F135" s="14">
@@ -8060,973 +8061,973 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2035</v>
       </c>
       <c r="B136" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="C136" s="7">
-        <f t="shared" ref="C136:C199" si="14">0.15*F136</f>
+        <f t="shared" ref="C136:C172" si="21">0.15*F136</f>
         <v>2094.5663032678603</v>
       </c>
       <c r="D136" s="7">
-        <f t="shared" ref="D136:D199" si="15">0.5*F136</f>
+        <f t="shared" ref="D136:D172" si="22">0.5*F136</f>
         <v>6981.8876775595354</v>
       </c>
       <c r="E136" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4887.3213742916741</v>
       </c>
       <c r="F136" s="14">
-        <f t="shared" ref="F136:F199" si="16">F128*(1+$K$4)^B136</f>
+        <f t="shared" ref="F136:F172" si="23">F128*(1+$K$4)^B136</f>
         <v>13963.775355119071</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2035</v>
       </c>
       <c r="B137" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="C137" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1780.2714644774053</v>
       </c>
       <c r="D137" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>5934.2382149246841</v>
       </c>
       <c r="E137" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4153.9667504472791</v>
       </c>
       <c r="F137" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>11868.476429849368</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2035</v>
       </c>
       <c r="B138" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="C138" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2626.0103034044491</v>
       </c>
       <c r="D138" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>8753.3676780148307</v>
       </c>
       <c r="E138" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6127.3573746103812</v>
       </c>
       <c r="F138" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>17506.735356029661</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2035</v>
       </c>
       <c r="B139" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="C139" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2221.6385638166489</v>
       </c>
       <c r="D139" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>7405.4618793888303</v>
       </c>
       <c r="E139" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5183.8233155721809</v>
       </c>
       <c r="F139" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>14810.923758777661</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2035</v>
       </c>
       <c r="B140" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="C140" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1916.0995836190148</v>
       </c>
       <c r="D140" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>6386.998612063383</v>
       </c>
       <c r="E140" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4470.899028444368</v>
       </c>
       <c r="F140" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>12773.997224126766</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2035</v>
       </c>
       <c r="B141" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="C141" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1661.5867001789111</v>
       </c>
       <c r="D141" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>5538.6223339297039</v>
       </c>
       <c r="E141" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>3877.0356337507924</v>
       </c>
       <c r="F141" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>11077.244667859408</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2036</v>
       </c>
       <c r="B142" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="C142" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2129.7680200867385</v>
       </c>
       <c r="D142" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>7099.2267336224622</v>
       </c>
       <c r="E142" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4969.4587135357233</v>
       </c>
       <c r="F142" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>14198.453467244924</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
-        <f t="shared" ref="A143:A206" si="17">B143+2020</f>
+        <f t="shared" ref="A143:A206" si="24">B143+2020</f>
         <v>2036</v>
       </c>
       <c r="B143" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="C143" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1890.3086333595011</v>
       </c>
       <c r="D143" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>6301.0287778650036</v>
       </c>
       <c r="E143" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4410.7201445055025</v>
       </c>
       <c r="F143" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>12602.057555730007</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2036</v>
       </c>
       <c r="B144" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="C144" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2417.4236816849238</v>
       </c>
       <c r="D144" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>8058.0789389497468</v>
       </c>
       <c r="E144" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5640.6552572648225</v>
       </c>
       <c r="F144" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>16116.157877899494</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2036</v>
       </c>
       <c r="B145" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="C145" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2054.6832971298936</v>
       </c>
       <c r="D145" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>6848.9443237663118</v>
       </c>
       <c r="E145" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4794.2610266364181</v>
       </c>
       <c r="F145" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>13697.888647532624</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2036</v>
       </c>
       <c r="B146" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="C146" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>3030.7846955688851</v>
       </c>
       <c r="D146" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>10102.615651896283</v>
       </c>
       <c r="E146" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>7071.8309563273979</v>
       </c>
       <c r="F146" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>20205.231303792567</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2036</v>
       </c>
       <c r="B147" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="C147" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2564.0829168003825</v>
       </c>
       <c r="D147" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>8546.9430560012752</v>
       </c>
       <c r="E147" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5982.8601392008923</v>
       </c>
       <c r="F147" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>17093.88611200255</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2036</v>
       </c>
       <c r="B148" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="C148" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2211.4480227627669</v>
       </c>
       <c r="D148" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>7371.4934092092235</v>
       </c>
       <c r="E148" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5160.0453864464562</v>
       </c>
       <c r="F148" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>14742.986818418447</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2036</v>
       </c>
       <c r="B149" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="C149" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1917.7044106545666</v>
       </c>
       <c r="D149" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>6392.3480355152224</v>
       </c>
       <c r="E149" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4474.6436248606551</v>
       </c>
       <c r="F149" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>12784.696071030445</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2037</v>
       </c>
       <c r="B150" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
       <c r="C150" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2480.1738693983129</v>
       </c>
       <c r="D150" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>8267.2462313277101</v>
       </c>
       <c r="E150" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5787.0723619293967</v>
       </c>
       <c r="F150" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>16534.49246265542</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2037</v>
       </c>
       <c r="B151" s="4">
-        <f t="shared" ref="B151:B214" si="18">B143+1</f>
+        <f t="shared" ref="B151:B214" si="25">B143+1</f>
         <v>17</v>
       </c>
       <c r="C151" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2201.3167787942139</v>
       </c>
       <c r="D151" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>7337.7225959807138</v>
       </c>
       <c r="E151" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5136.405817186499</v>
       </c>
       <c r="F151" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>14675.445191961428</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2037</v>
       </c>
       <c r="B152" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="C152" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2815.1568574756939</v>
       </c>
       <c r="D152" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>9383.8561915856462</v>
       </c>
       <c r="E152" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6568.6993341099524</v>
       </c>
       <c r="F152" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>18767.712383171292</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2037</v>
       </c>
       <c r="B153" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="C153" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2392.7356291241472</v>
       </c>
       <c r="D153" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>7975.7854304138236</v>
       </c>
       <c r="E153" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5583.049801289676</v>
       </c>
       <c r="F153" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>15951.570860827647</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2037</v>
       </c>
       <c r="B154" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="C154" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>3529.4327526883098</v>
       </c>
       <c r="D154" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>11764.775842294366</v>
       </c>
       <c r="E154" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>8235.3430896060563</v>
       </c>
       <c r="F154" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>23529.551684588732</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2037</v>
       </c>
       <c r="B155" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="C155" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2985.9456002912093</v>
       </c>
       <c r="D155" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>9953.1520009706983</v>
       </c>
       <c r="E155" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6967.2064006794881</v>
       </c>
       <c r="F155" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>19906.304001941397</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2037</v>
       </c>
       <c r="B156" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="C156" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2575.2924956425081</v>
       </c>
       <c r="D156" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>8584.3083188083601</v>
       </c>
       <c r="E156" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6009.0158231658515</v>
       </c>
       <c r="F156" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>17168.61663761672</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2037</v>
       </c>
       <c r="B157" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="C157" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2233.2199205158699</v>
       </c>
       <c r="D157" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>7444.0664017195668</v>
       </c>
       <c r="E157" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5210.8464812036964</v>
       </c>
       <c r="F157" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>14888.132803439134</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2038</v>
       </c>
       <c r="B158" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>18</v>
       </c>
       <c r="C158" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2914.2252704101734</v>
       </c>
       <c r="D158" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>9714.0842347005782</v>
       </c>
       <c r="E158" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6799.8589642904044</v>
       </c>
       <c r="F158" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>19428.168469401156</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2038</v>
       </c>
       <c r="B159" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>18</v>
       </c>
       <c r="C159" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2586.5658307642457</v>
       </c>
       <c r="D159" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>8621.8861025474853</v>
       </c>
       <c r="E159" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6035.3202717832391</v>
       </c>
       <c r="F159" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>17243.772205094971</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2038</v>
       </c>
       <c r="B160" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>18</v>
       </c>
       <c r="C160" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>3307.8331142221241</v>
       </c>
       <c r="D160" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>11026.110380740414</v>
       </c>
       <c r="E160" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>7718.2772665182893</v>
       </c>
       <c r="F160" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>22052.220761480829</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2038</v>
       </c>
       <c r="B161" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>18</v>
       </c>
       <c r="C161" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2811.4845986567902</v>
       </c>
       <c r="D161" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>9371.6153288559672</v>
       </c>
       <c r="E161" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6560.1307301991765</v>
       </c>
       <c r="F161" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>18743.230657711934</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2038</v>
       </c>
       <c r="B162" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>18</v>
       </c>
       <c r="C162" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>4147.1133314507806</v>
       </c>
       <c r="D162" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>13823.711104835937</v>
       </c>
       <c r="E162" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>9676.5977733851541</v>
       </c>
       <c r="F162" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>27647.422209671873</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2038</v>
       </c>
       <c r="B163" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>18</v>
       </c>
       <c r="C163" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>3508.5113313244219</v>
       </c>
       <c r="D163" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>11695.037771081406</v>
       </c>
       <c r="E163" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>8186.5264397569836</v>
       </c>
       <c r="F163" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>23390.075542162813</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2038</v>
       </c>
       <c r="B164" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>18</v>
       </c>
       <c r="C164" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>3025.9904606283822</v>
       </c>
       <c r="D164" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>10086.634868761274</v>
       </c>
       <c r="E164" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>7060.6444081328909</v>
       </c>
       <c r="F164" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>20173.269737522547</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2038</v>
       </c>
       <c r="B165" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>18</v>
       </c>
       <c r="C165" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2624.0522920796702</v>
       </c>
       <c r="D165" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>8746.8409735989007</v>
       </c>
       <c r="E165" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6122.7886815192305</v>
       </c>
       <c r="F165" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>17493.681947197801</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2039</v>
       </c>
       <c r="B166" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="C166" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>3455.0574912380575</v>
       </c>
       <c r="D166" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>11516.858304126859</v>
       </c>
       <c r="E166" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>8061.8008128888014</v>
       </c>
       <c r="F166" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>23033.716608253719</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2039</v>
       </c>
       <c r="B167" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="C167" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>3066.5898552532153</v>
       </c>
       <c r="D167" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>10221.966184177385</v>
       </c>
       <c r="E167" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>7155.3763289241688</v>
       </c>
       <c r="F167" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>20443.93236835477</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2039</v>
       </c>
       <c r="B168" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="C168" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>3921.712469211373</v>
       </c>
       <c r="D168" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>13072.374897371245</v>
       </c>
       <c r="E168" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>9150.6624281598706</v>
       </c>
       <c r="F168" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>26144.749794742489</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2039</v>
       </c>
       <c r="B169" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="C169" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>3333.2498426665402</v>
       </c>
       <c r="D169" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>11110.832808888468</v>
       </c>
       <c r="E169" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>7777.5829662219276</v>
       </c>
       <c r="F169" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>22221.665617776936</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2039</v>
       </c>
       <c r="B170" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="C170" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>4916.7492740962743</v>
       </c>
       <c r="D170" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>16389.164246987581</v>
       </c>
       <c r="E170" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>11472.414972891305</v>
       </c>
       <c r="F170" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>32778.328493975161</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2039</v>
       </c>
       <c r="B171" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="C171" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>4159.6332587836914</v>
       </c>
       <c r="D171" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>13865.44419594564</v>
       </c>
       <c r="E171" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>9705.8109371619466</v>
       </c>
       <c r="F171" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>27730.88839189128</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2039</v>
       </c>
       <c r="B172" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="C172" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>3587.5644602922093</v>
       </c>
       <c r="D172" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>11958.548200974032</v>
       </c>
       <c r="E172" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>8370.9837406818224</v>
       </c>
       <c r="F172" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>23917.096401948063</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2039</v>
       </c>
       <c r="B173" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="C173" s="7">
@@ -9038,7 +9039,7 @@
         <v>10370.110621629234</v>
       </c>
       <c r="E173" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>7259.0774351404634</v>
       </c>
       <c r="F173" s="14">
@@ -9048,323 +9049,323 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2040</v>
       </c>
       <c r="B174" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="C174" s="7">
-        <f t="shared" ref="C174:C185" si="19">0.15*F174</f>
+        <f t="shared" ref="C174:C185" si="26">0.15*F174</f>
         <v>4133.1255996125401</v>
       </c>
       <c r="D174" s="7">
-        <f t="shared" ref="D174:D185" si="20">0.5*F174</f>
+        <f t="shared" ref="D174:D185" si="27">0.5*F174</f>
         <v>13777.085332041801</v>
       </c>
       <c r="E174" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>9643.9597324292608</v>
       </c>
       <c r="F174" s="14">
-        <f t="shared" ref="F174:F185" si="21">F166*(1+$K$4)^B174</f>
+        <f t="shared" ref="F174:F185" si="28">F166*(1+$K$4)^B174</f>
         <v>27554.170664083602</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2040</v>
       </c>
       <c r="B175" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="C175" s="7">
+        <f t="shared" si="26"/>
+        <v>3668.4197199038399</v>
+      </c>
+      <c r="D175" s="7">
+        <f t="shared" si="27"/>
+        <v>12228.0657330128</v>
+      </c>
+      <c r="E175" s="7">
         <f t="shared" si="19"/>
-        <v>3668.4197199038399</v>
-      </c>
-      <c r="D175" s="7">
-        <f t="shared" si="20"/>
-        <v>12228.0657330128</v>
-      </c>
-      <c r="E175" s="7">
-        <f t="shared" si="12"/>
         <v>8559.6460131089589</v>
       </c>
       <c r="F175" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>24456.131466025599</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2040</v>
       </c>
       <c r="B176" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="C176" s="7">
+        <f t="shared" si="26"/>
+        <v>4691.3633830761682</v>
+      </c>
+      <c r="D176" s="7">
+        <f t="shared" si="27"/>
+        <v>15637.877943587227</v>
+      </c>
+      <c r="E176" s="7">
         <f t="shared" si="19"/>
-        <v>4691.3633830761682</v>
-      </c>
-      <c r="D176" s="7">
-        <f t="shared" si="20"/>
-        <v>15637.877943587227</v>
-      </c>
-      <c r="E176" s="7">
-        <f t="shared" si="12"/>
         <v>10946.514560511059</v>
       </c>
       <c r="F176" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>31275.755887174455</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2040</v>
       </c>
       <c r="B177" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="C177" s="7">
+        <f t="shared" si="26"/>
+        <v>3987.412739025915</v>
+      </c>
+      <c r="D177" s="7">
+        <f t="shared" si="27"/>
+        <v>13291.375796753051</v>
+      </c>
+      <c r="E177" s="7">
         <f t="shared" si="19"/>
-        <v>3987.412739025915</v>
-      </c>
-      <c r="D177" s="7">
-        <f t="shared" si="20"/>
-        <v>13291.375796753051</v>
-      </c>
-      <c r="E177" s="7">
-        <f t="shared" si="12"/>
         <v>9303.9630577271346</v>
       </c>
       <c r="F177" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>26582.751593506102</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2040</v>
       </c>
       <c r="B178" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="C178" s="7">
+        <f t="shared" si="26"/>
+        <v>5881.6799266520529</v>
+      </c>
+      <c r="D178" s="7">
+        <f t="shared" si="27"/>
+        <v>19605.599755506842</v>
+      </c>
+      <c r="E178" s="7">
         <f t="shared" si="19"/>
-        <v>5881.6799266520529</v>
-      </c>
-      <c r="D178" s="7">
-        <f t="shared" si="20"/>
-        <v>19605.599755506842</v>
-      </c>
-      <c r="E178" s="7">
-        <f t="shared" si="12"/>
         <v>13723.919828854789</v>
       </c>
       <c r="F178" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>39211.199511013685</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2040</v>
       </c>
       <c r="B179" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="C179" s="7">
+        <f t="shared" si="26"/>
+        <v>4975.9770280169969</v>
+      </c>
+      <c r="D179" s="7">
+        <f t="shared" si="27"/>
+        <v>16586.59009338999</v>
+      </c>
+      <c r="E179" s="7">
         <f t="shared" si="19"/>
-        <v>4975.9770280169969</v>
-      </c>
-      <c r="D179" s="7">
-        <f t="shared" si="20"/>
-        <v>16586.59009338999</v>
-      </c>
-      <c r="E179" s="7">
-        <f t="shared" si="12"/>
         <v>11610.613065372992</v>
       </c>
       <c r="F179" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>33173.18018677998</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2040</v>
       </c>
       <c r="B180" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="C180" s="7">
+        <f t="shared" si="26"/>
+        <v>4291.6375628182623</v>
+      </c>
+      <c r="D180" s="7">
+        <f t="shared" si="27"/>
+        <v>14305.458542727541</v>
+      </c>
+      <c r="E180" s="7">
         <f t="shared" si="19"/>
-        <v>4291.6375628182623</v>
-      </c>
-      <c r="D180" s="7">
-        <f t="shared" si="20"/>
-        <v>14305.458542727541</v>
-      </c>
-      <c r="E180" s="7">
-        <f t="shared" si="12"/>
         <v>10013.820979909278</v>
       </c>
       <c r="F180" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>28610.917085455083</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2040</v>
       </c>
       <c r="B181" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="C181" s="7">
+        <f t="shared" si="26"/>
+        <v>3721.5852230908531</v>
+      </c>
+      <c r="D181" s="7">
+        <f t="shared" si="27"/>
+        <v>12405.28407696951</v>
+      </c>
+      <c r="E181" s="7">
         <f t="shared" si="19"/>
-        <v>3721.5852230908531</v>
-      </c>
-      <c r="D181" s="7">
-        <f t="shared" si="20"/>
-        <v>12405.28407696951</v>
-      </c>
-      <c r="E181" s="7">
-        <f t="shared" si="12"/>
         <v>8683.6988538786572</v>
       </c>
       <c r="F181" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>24810.568153939021</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2041</v>
       </c>
       <c r="B182" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="C182" s="7">
+        <f t="shared" si="26"/>
+        <v>4988.7655446785902</v>
+      </c>
+      <c r="D182" s="7">
+        <f t="shared" si="27"/>
+        <v>16629.218482261967</v>
+      </c>
+      <c r="E182" s="7">
         <f t="shared" si="19"/>
-        <v>4988.7655446785902</v>
-      </c>
-      <c r="D182" s="7">
-        <f t="shared" si="20"/>
-        <v>16629.218482261967</v>
-      </c>
-      <c r="E182" s="7">
-        <f t="shared" si="12"/>
         <v>11640.452937583377</v>
       </c>
       <c r="F182" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>33258.436964523935</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2041</v>
       </c>
       <c r="B183" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="C183" s="7">
+        <f t="shared" si="26"/>
+        <v>4427.8562218848074</v>
+      </c>
+      <c r="D183" s="7">
+        <f t="shared" si="27"/>
+        <v>14759.520739616024</v>
+      </c>
+      <c r="E183" s="7">
         <f t="shared" si="19"/>
-        <v>4427.8562218848074</v>
-      </c>
-      <c r="D183" s="7">
-        <f t="shared" si="20"/>
-        <v>14759.520739616024</v>
-      </c>
-      <c r="E183" s="7">
-        <f t="shared" si="12"/>
         <v>10331.664517731217</v>
       </c>
       <c r="F183" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>29519.041479232048</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2041</v>
       </c>
       <c r="B184" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="C184" s="7">
+        <f t="shared" si="26"/>
+        <v>5662.5697523567133</v>
+      </c>
+      <c r="D184" s="7">
+        <f t="shared" si="27"/>
+        <v>18875.232507855711</v>
+      </c>
+      <c r="E184" s="7">
         <f t="shared" si="19"/>
-        <v>5662.5697523567133</v>
-      </c>
-      <c r="D184" s="7">
-        <f t="shared" si="20"/>
-        <v>18875.232507855711</v>
-      </c>
-      <c r="E184" s="7">
-        <f t="shared" si="12"/>
         <v>13212.662755498997</v>
       </c>
       <c r="F184" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>37750.465015711423</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2041</v>
       </c>
       <c r="B185" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="C185" s="7">
+        <f t="shared" si="26"/>
+        <v>4812.8871977008803</v>
+      </c>
+      <c r="D185" s="7">
+        <f t="shared" si="27"/>
+        <v>16042.9573256696</v>
+      </c>
+      <c r="E185" s="7">
         <f t="shared" si="19"/>
-        <v>4812.8871977008803</v>
-      </c>
-      <c r="D185" s="7">
-        <f t="shared" si="20"/>
-        <v>16042.9573256696</v>
-      </c>
-      <c r="E185" s="7">
-        <f t="shared" si="12"/>
         <v>11230.07012796872</v>
       </c>
       <c r="F185" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>32085.914651339201</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2041</v>
       </c>
       <c r="B186" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="C186" s="7">
@@ -9376,7 +9377,7 @@
         <v>23664.352361370413</v>
       </c>
       <c r="E186" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>16565.046652959289</v>
       </c>
       <c r="F186" s="14">
@@ -9386,375 +9387,375 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2041</v>
       </c>
       <c r="B187" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="C187" s="7">
-        <f t="shared" ref="C187:C200" si="22">0.15*F187</f>
+        <f t="shared" ref="C187:C200" si="29">0.15*F187</f>
         <v>6006.1041335909295</v>
       </c>
       <c r="D187" s="7">
-        <f t="shared" ref="D187:D200" si="23">0.5*F187</f>
+        <f t="shared" ref="D187:D200" si="30">0.5*F187</f>
         <v>20020.347111969764</v>
       </c>
       <c r="E187" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>14014.242978378834</v>
       </c>
       <c r="F187" s="14">
-        <f t="shared" ref="F187:F200" si="24">F179*(1+$K$4)^B187</f>
+        <f t="shared" ref="F187:F200" si="31">F179*(1+$K$4)^B187</f>
         <v>40040.694223939528</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2041</v>
       </c>
       <c r="B188" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="C188" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>5180.0926653773176</v>
       </c>
       <c r="D188" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>17266.975551257725</v>
       </c>
       <c r="E188" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>12086.882885880406</v>
       </c>
       <c r="F188" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>34533.95110251545</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2041</v>
       </c>
       <c r="B189" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="C189" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>4492.0280511874871</v>
       </c>
       <c r="D189" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>14973.426837291623</v>
       </c>
       <c r="E189" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>10481.398786104135</v>
       </c>
       <c r="F189" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>29946.853674583246</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2042</v>
       </c>
       <c r="B190" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="C190" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>6075.7339910174333</v>
       </c>
       <c r="D190" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>20252.446636724777</v>
       </c>
       <c r="E190" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>14176.712645707343</v>
       </c>
       <c r="F190" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>40504.893273449554</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2042</v>
       </c>
       <c r="B191" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="C191" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>5392.6119224704489</v>
       </c>
       <c r="D191" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>17975.373074901498</v>
       </c>
       <c r="E191" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>12582.761152431047</v>
       </c>
       <c r="F191" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>35950.746149802995</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2042</v>
       </c>
       <c r="B192" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="C192" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>6896.3488487846753</v>
       </c>
       <c r="D192" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>22987.829495948918</v>
       </c>
       <c r="E192" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>16091.480647164241</v>
       </c>
       <c r="F192" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>45975.658991897835</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2042</v>
       </c>
       <c r="B193" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="C193" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>5861.5346983374484</v>
       </c>
       <c r="D193" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>19538.448994458162</v>
       </c>
       <c r="E193" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>13676.914296120713</v>
       </c>
       <c r="F193" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>39076.897988916324</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2042</v>
       </c>
       <c r="B194" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="C194" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>8646.1255031772616</v>
       </c>
       <c r="D194" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>28820.418343924204</v>
       </c>
       <c r="E194" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>20174.292840746941</v>
       </c>
       <c r="F194" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>57640.836687848408</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2042</v>
       </c>
       <c r="B195" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="C195" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>7314.7336172118594</v>
       </c>
       <c r="D195" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>24382.445390706198</v>
       </c>
       <c r="E195" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>17067.711773494339</v>
       </c>
       <c r="F195" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>48764.890781412396</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2042</v>
       </c>
       <c r="B196" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="C196" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>6308.7480864328236</v>
       </c>
       <c r="D196" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>21029.160288109411</v>
       </c>
       <c r="E196" s="7">
-        <f t="shared" ref="E196:E209" si="25">0.35*F196</f>
+        <f t="shared" ref="E196:E209" si="32">0.35*F196</f>
         <v>14720.412201676587</v>
       </c>
       <c r="F196" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>42058.320576218823</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2042</v>
       </c>
       <c r="B197" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="C197" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>5470.7657184482832</v>
       </c>
       <c r="D197" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>18235.885728160945</v>
       </c>
       <c r="E197" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>12765.12000971266</v>
       </c>
       <c r="F197" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>36471.771456321891</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2043</v>
       </c>
       <c r="B198" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="C198" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>7466.1304661032609</v>
       </c>
       <c r="D198" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>24887.101553677538</v>
       </c>
       <c r="E198" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>17420.971087574275</v>
       </c>
       <c r="F198" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>49774.203107355075</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2043</v>
       </c>
       <c r="B199" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="C199" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>6626.6798753455778</v>
       </c>
       <c r="D199" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>22088.932917818594</v>
       </c>
       <c r="E199" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>15462.253042473016</v>
       </c>
       <c r="F199" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>44177.865835637189</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2043</v>
       </c>
       <c r="B200" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="C200" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>8474.5382732210655</v>
       </c>
       <c r="D200" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>28248.460910736889</v>
       </c>
       <c r="E200" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>19773.922637515821</v>
       </c>
       <c r="F200" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>56496.921821473778</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2043</v>
       </c>
       <c r="B201" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="C201" s="7">
@@ -9766,7 +9767,7 @@
         <v>24009.709693281096</v>
       </c>
       <c r="E201" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>16806.796785296767</v>
       </c>
       <c r="F201" s="14">
@@ -9776,549 +9777,567 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2043</v>
       </c>
       <c r="B202" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="C202" s="7">
-        <f t="shared" ref="C202:C209" si="26">0.15*F202</f>
+        <f t="shared" ref="C202:C209" si="33">0.15*F202</f>
         <v>10624.74116353046</v>
       </c>
       <c r="D202" s="7">
-        <f t="shared" ref="D202:D209" si="27">0.5*F202</f>
+        <f t="shared" ref="D202:D209" si="34">0.5*F202</f>
         <v>35415.803878434868</v>
       </c>
       <c r="E202" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>24791.062714904405</v>
       </c>
       <c r="F202" s="14">
-        <f t="shared" ref="F202:F209" si="28">F194*(1+$K$4)^B202</f>
+        <f t="shared" ref="F202:F209" si="35">F194*(1+$K$4)^B202</f>
         <v>70831.607756869736</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2043</v>
       </c>
       <c r="B203" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="C203" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>8988.6679686168754</v>
       </c>
       <c r="D203" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>29962.22656205625</v>
       </c>
       <c r="E203" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>20973.558593439375</v>
       </c>
       <c r="F203" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>59924.453124112501</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2043</v>
       </c>
       <c r="B204" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="C204" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>7752.4684854083171</v>
       </c>
       <c r="D204" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>25841.561618027725</v>
       </c>
       <c r="E204" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>18089.093132619408</v>
       </c>
       <c r="F204" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>51683.12323605545</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2043</v>
       </c>
       <c r="B205" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="C205" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>6722.7187141187051</v>
       </c>
       <c r="D205" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>22409.062380395684</v>
       </c>
       <c r="E205" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>15686.343666276978</v>
       </c>
       <c r="F205" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>44818.124760791368</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2044</v>
       </c>
       <c r="B206" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="C206" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>9257.2835080109417</v>
       </c>
       <c r="D206" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>30857.611693369807</v>
       </c>
       <c r="E206" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>21600.328185358863</v>
       </c>
       <c r="F206" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>61715.223386739613</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="4">
-        <f t="shared" ref="A207:A221" si="29">B207+2020</f>
+        <f t="shared" ref="A207:A221" si="36">B207+2020</f>
         <v>2044</v>
       </c>
       <c r="B207" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="C207" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>8216.4455337896034</v>
       </c>
       <c r="D207" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>27388.151779298678</v>
       </c>
       <c r="E207" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>19171.706245509075</v>
       </c>
       <c r="F207" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>54776.303558597356</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2044</v>
       </c>
       <c r="B208" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="C208" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>10507.612176196317</v>
       </c>
       <c r="D208" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>35025.373920654391</v>
       </c>
       <c r="E208" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>24517.761744458072</v>
       </c>
       <c r="F208" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>70050.747841308781</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2044</v>
       </c>
       <c r="B209" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="C209" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>8930.919058466965</v>
       </c>
       <c r="D209" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>29769.730194889886</v>
       </c>
       <c r="E209" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>20838.811136422919</v>
       </c>
       <c r="F209" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>59539.460389779772</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2044</v>
       </c>
       <c r="B210" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="C210" s="7">
-        <f t="shared" ref="C210:C219" si="30">0.15*F210</f>
+        <f t="shared" ref="C210:C219" si="37">0.15*F210</f>
         <v>13173.656902538674</v>
       </c>
       <c r="D210" s="7">
-        <f t="shared" ref="D210:D219" si="31">0.5*F210</f>
+        <f t="shared" ref="D210:D219" si="38">0.5*F210</f>
         <v>43912.189675128917</v>
       </c>
       <c r="E210" s="7">
-        <f t="shared" ref="E210:E219" si="32">0.35*F210</f>
+        <f t="shared" ref="E210:E219" si="39">0.35*F210</f>
         <v>30738.532772590239</v>
       </c>
       <c r="F210" s="14">
-        <f t="shared" ref="F210:F219" si="33">F202*(1+$K$4)^B210</f>
+        <f t="shared" ref="F210:F219" si="40">F202*(1+$K$4)^B210</f>
         <v>87824.379350257834</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2044</v>
       </c>
       <c r="B211" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="C211" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>11145.083537268094</v>
       </c>
       <c r="D211" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>37150.278457560315</v>
       </c>
       <c r="E211" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>26005.194920292219</v>
       </c>
       <c r="F211" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>74300.556915120629</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2044</v>
       </c>
       <c r="B212" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="C212" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>9612.315105149999</v>
       </c>
       <c r="D212" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>32041.050350499998</v>
       </c>
       <c r="E212" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>22428.735245349999</v>
       </c>
       <c r="F212" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>64082.100700999996</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2044</v>
       </c>
       <c r="B213" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="C213" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>8335.5244545691658</v>
       </c>
       <c r="D213" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>27785.081515230551</v>
       </c>
       <c r="E213" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>19449.557060661384</v>
       </c>
       <c r="F213" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>55570.163030461103</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2045</v>
       </c>
       <c r="B214" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
       <c r="C214" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>11581.444232965625</v>
       </c>
       <c r="D214" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>38604.814109885418</v>
       </c>
       <c r="E214" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>27023.369876919791</v>
       </c>
       <c r="F214" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>77209.628219770835</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2045</v>
       </c>
       <c r="B215" s="4">
-        <f t="shared" ref="B215:B221" si="34">B207+1</f>
+        <f t="shared" ref="B215:B221" si="41">B207+1</f>
         <v>25</v>
       </c>
       <c r="C215" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>10279.290426877062</v>
       </c>
       <c r="D215" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>34264.301422923541</v>
       </c>
       <c r="E215" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>23985.010996046476</v>
       </c>
       <c r="F215" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>68528.602845847083</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2045</v>
       </c>
       <c r="B216" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>25</v>
       </c>
       <c r="C216" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>13145.684080533874</v>
       </c>
       <c r="D216" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>43818.946935112916</v>
       </c>
       <c r="E216" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>30673.262854579039</v>
       </c>
       <c r="F216" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>87637.893870225831</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2045</v>
       </c>
       <c r="B217" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>25</v>
       </c>
       <c r="C217" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>11173.14176834464</v>
       </c>
       <c r="D217" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>37243.805894482131</v>
       </c>
       <c r="E217" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>26070.66412613749</v>
       </c>
       <c r="F217" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>74487.611788964263</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2045</v>
       </c>
       <c r="B218" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>25</v>
       </c>
       <c r="C218" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>16481.073808417495</v>
       </c>
       <c r="D218" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>54936.912694724982</v>
       </c>
       <c r="E218" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>38455.838886307487</v>
       </c>
       <c r="F218" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>109873.82538944996</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2045</v>
       </c>
       <c r="B219" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>25</v>
       </c>
       <c r="C219" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>13943.200869554825</v>
       </c>
       <c r="D219" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>46477.336231849418</v>
       </c>
       <c r="E219" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>32534.13536229459</v>
       </c>
       <c r="F219" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>92954.672463698837</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2045</v>
       </c>
       <c r="B220" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>25</v>
       </c>
       <c r="C220" s="7">
-        <f t="shared" ref="C220:C221" si="35">0.15*F220</f>
+        <f t="shared" ref="C220:C221" si="42">0.15*F220</f>
         <v>12025.611103262783</v>
       </c>
       <c r="D220" s="7">
-        <f t="shared" ref="D220:D221" si="36">0.5*F220</f>
+        <f t="shared" ref="D220:D221" si="43">0.5*F220</f>
         <v>40085.370344209281</v>
       </c>
       <c r="E220" s="7">
-        <f t="shared" ref="E220:E221" si="37">0.35*F220</f>
+        <f t="shared" ref="E220:E221" si="44">0.35*F220</f>
         <v>28059.759240946496</v>
       </c>
       <c r="F220" s="14">
-        <f t="shared" ref="F220:F221" si="38">F212*(1+$K$4)^B220</f>
+        <f t="shared" ref="F220:F221" si="45">F212*(1+$K$4)^B220</f>
         <v>80170.740688418562</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2045</v>
       </c>
       <c r="B221" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>25</v>
       </c>
       <c r="C221" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>10428.265650454992</v>
       </c>
       <c r="D221" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>34760.885501516641</v>
       </c>
       <c r="E221" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>24332.619851061649</v>
       </c>
       <c r="F221" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>69521.771003033282</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="AO61:AP61"/>
-    <mergeCell ref="AO62:AP62"/>
-    <mergeCell ref="AO63:AP63"/>
-    <mergeCell ref="AO56:AP56"/>
-    <mergeCell ref="AO57:AP57"/>
-    <mergeCell ref="AO58:AP58"/>
-    <mergeCell ref="AO59:AP59"/>
-    <mergeCell ref="AO60:AP60"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="AF21:AF23"/>
+    <mergeCell ref="AG21:AG23"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="AH21:AH23"/>
+    <mergeCell ref="AI21:AI23"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="AE21:AE23"/>
+    <mergeCell ref="AL41:AL42"/>
+    <mergeCell ref="AM41:AN42"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AM45:AN45"/>
+    <mergeCell ref="AM46:AN46"/>
+    <mergeCell ref="AM47:AN47"/>
+    <mergeCell ref="AM48:AN48"/>
+    <mergeCell ref="AM49:AN49"/>
+    <mergeCell ref="AM50:AN50"/>
+    <mergeCell ref="AM51:AN51"/>
+    <mergeCell ref="AM58:AN58"/>
+    <mergeCell ref="AM59:AN59"/>
+    <mergeCell ref="AM60:AN60"/>
+    <mergeCell ref="AM61:AN61"/>
+    <mergeCell ref="AM52:AN52"/>
+    <mergeCell ref="AM53:AN53"/>
+    <mergeCell ref="AM54:AN54"/>
+    <mergeCell ref="AM55:AN55"/>
+    <mergeCell ref="AM56:AN56"/>
     <mergeCell ref="AM62:AN62"/>
     <mergeCell ref="AM63:AN63"/>
     <mergeCell ref="AO41:AP42"/>
@@ -10335,48 +10354,30 @@
     <mergeCell ref="AO54:AP54"/>
     <mergeCell ref="AO55:AP55"/>
     <mergeCell ref="AM57:AN57"/>
-    <mergeCell ref="AM58:AN58"/>
-    <mergeCell ref="AM59:AN59"/>
-    <mergeCell ref="AM60:AN60"/>
-    <mergeCell ref="AM61:AN61"/>
-    <mergeCell ref="AM52:AN52"/>
-    <mergeCell ref="AM53:AN53"/>
-    <mergeCell ref="AM54:AN54"/>
-    <mergeCell ref="AM55:AN55"/>
-    <mergeCell ref="AM56:AN56"/>
-    <mergeCell ref="AM47:AN47"/>
-    <mergeCell ref="AM48:AN48"/>
-    <mergeCell ref="AM49:AN49"/>
-    <mergeCell ref="AM50:AN50"/>
-    <mergeCell ref="AM51:AN51"/>
-    <mergeCell ref="AL41:AL42"/>
-    <mergeCell ref="AM41:AN42"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AM46:AN46"/>
-    <mergeCell ref="AH21:AH23"/>
-    <mergeCell ref="AI21:AI23"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="AE21:AE23"/>
+    <mergeCell ref="AO61:AP61"/>
+    <mergeCell ref="AO62:AP62"/>
+    <mergeCell ref="AO63:AP63"/>
+    <mergeCell ref="AO56:AP56"/>
+    <mergeCell ref="AO57:AP57"/>
+    <mergeCell ref="AO58:AP58"/>
+    <mergeCell ref="AO59:AP59"/>
+    <mergeCell ref="AO60:AP60"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="AF21:AF23"/>
-    <mergeCell ref="AG21:AG23"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -627,27 +627,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,10 +639,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -673,6 +661,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N98" sqref="N98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2345,17 +2345,17 @@
       </c>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
       <c r="F40" s="2"/>
-      <c r="H40" s="35" t="s">
+      <c r="H40" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
       <c r="O40" s="4"/>
@@ -2578,11 +2578,11 @@
       <c r="AD47" s="12"/>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
       <c r="U48" t="s">
         <v>17</v>
       </c>
@@ -3950,17 +3950,17 @@
       <c r="AC67" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AF67" s="36" t="s">
+      <c r="AF67" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="AG67" s="38" t="s">
+      <c r="AG67" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="AH67" s="38"/>
-      <c r="AI67" s="38" t="s">
+      <c r="AH67" s="41"/>
+      <c r="AI67" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="AJ67" s="47"/>
+      <c r="AJ67" s="42"/>
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
@@ -4034,11 +4034,11 @@
       <c r="AC68" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="AF68" s="37"/>
-      <c r="AG68" s="39"/>
-      <c r="AH68" s="39"/>
-      <c r="AI68" s="39"/>
-      <c r="AJ68" s="48"/>
+      <c r="AF68" s="48"/>
+      <c r="AG68" s="43"/>
+      <c r="AH68" s="43"/>
+      <c r="AI68" s="43"/>
+      <c r="AJ68" s="44"/>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
@@ -4195,14 +4195,14 @@
       <c r="AF70" s="18">
         <v>0.29299999999999998</v>
       </c>
-      <c r="AG70" s="40">
+      <c r="AG70" s="49">
         <v>72154</v>
       </c>
-      <c r="AH70" s="40"/>
-      <c r="AI70" s="49">
+      <c r="AH70" s="49"/>
+      <c r="AI70" s="45">
         <v>28.1</v>
       </c>
-      <c r="AJ70" s="50"/>
+      <c r="AJ70" s="46"/>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
@@ -4283,14 +4283,14 @@
       <c r="AF71" s="20">
         <v>0.31</v>
       </c>
-      <c r="AG71" s="41">
+      <c r="AG71" s="39">
         <v>67811</v>
       </c>
-      <c r="AH71" s="41"/>
-      <c r="AI71" s="42">
+      <c r="AH71" s="39"/>
+      <c r="AI71" s="35">
         <v>25</v>
       </c>
-      <c r="AJ71" s="43"/>
+      <c r="AJ71" s="36"/>
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
@@ -4371,14 +4371,14 @@
       <c r="AF72" s="20">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AG72" s="41">
+      <c r="AG72" s="39">
         <v>187455</v>
       </c>
-      <c r="AH72" s="41"/>
-      <c r="AI72" s="42">
+      <c r="AH72" s="39"/>
+      <c r="AI72" s="35">
         <v>70</v>
       </c>
-      <c r="AJ72" s="43"/>
+      <c r="AJ72" s="36"/>
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
@@ -4459,14 +4459,14 @@
       <c r="AF73" s="20">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AG73" s="41">
+      <c r="AG73" s="39">
         <v>63266</v>
       </c>
-      <c r="AH73" s="41"/>
-      <c r="AI73" s="42">
+      <c r="AH73" s="39"/>
+      <c r="AI73" s="35">
         <v>30.6</v>
       </c>
-      <c r="AJ73" s="43"/>
+      <c r="AJ73" s="36"/>
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
@@ -4547,14 +4547,14 @@
       <c r="AF74" s="20">
         <v>0.30299999999999999</v>
       </c>
-      <c r="AG74" s="41">
+      <c r="AG74" s="39">
         <v>26553</v>
       </c>
-      <c r="AH74" s="41"/>
-      <c r="AI74" s="42">
+      <c r="AH74" s="39"/>
+      <c r="AI74" s="35">
         <v>10</v>
       </c>
-      <c r="AJ74" s="43"/>
+      <c r="AJ74" s="36"/>
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
@@ -4635,14 +4635,14 @@
       <c r="AF75" s="20">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AG75" s="41">
+      <c r="AG75" s="39">
         <v>24949</v>
       </c>
-      <c r="AH75" s="41"/>
-      <c r="AI75" s="42">
+      <c r="AH75" s="39"/>
+      <c r="AI75" s="35">
         <v>10</v>
       </c>
-      <c r="AJ75" s="43"/>
+      <c r="AJ75" s="36"/>
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
@@ -4723,14 +4723,14 @@
       <c r="AF76" s="20">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AG76" s="41">
+      <c r="AG76" s="39">
         <v>22870</v>
       </c>
-      <c r="AH76" s="41"/>
-      <c r="AI76" s="42">
+      <c r="AH76" s="39"/>
+      <c r="AI76" s="35">
         <v>10</v>
       </c>
-      <c r="AJ76" s="43"/>
+      <c r="AJ76" s="36"/>
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
@@ -4811,14 +4811,14 @@
       <c r="AF77" s="20">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AG77" s="41">
+      <c r="AG77" s="39">
         <v>139836</v>
       </c>
-      <c r="AH77" s="41"/>
-      <c r="AI77" s="42">
+      <c r="AH77" s="39"/>
+      <c r="AI77" s="35">
         <v>52.2</v>
       </c>
-      <c r="AJ77" s="43"/>
+      <c r="AJ77" s="36"/>
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
@@ -4899,14 +4899,14 @@
       <c r="AF78" s="20">
         <v>0.26800000000000002</v>
       </c>
-      <c r="AG78" s="41">
+      <c r="AG78" s="39">
         <v>23515</v>
       </c>
-      <c r="AH78" s="41"/>
-      <c r="AI78" s="42">
+      <c r="AH78" s="39"/>
+      <c r="AI78" s="35">
         <v>10</v>
       </c>
-      <c r="AJ78" s="43"/>
+      <c r="AJ78" s="36"/>
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
@@ -4987,14 +4987,14 @@
       <c r="AF79" s="20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AG79" s="41">
+      <c r="AG79" s="39">
         <v>49503</v>
       </c>
-      <c r="AH79" s="41"/>
-      <c r="AI79" s="42">
+      <c r="AH79" s="39"/>
+      <c r="AI79" s="35">
         <v>20.2</v>
       </c>
-      <c r="AJ79" s="43"/>
+      <c r="AJ79" s="36"/>
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
@@ -5075,14 +5075,14 @@
       <c r="AF80" s="20">
         <v>0.307</v>
       </c>
-      <c r="AG80" s="41">
+      <c r="AG80" s="39">
         <v>188420</v>
       </c>
-      <c r="AH80" s="41"/>
-      <c r="AI80" s="42">
+      <c r="AH80" s="39"/>
+      <c r="AI80" s="35">
         <v>70</v>
       </c>
-      <c r="AJ80" s="43"/>
+      <c r="AJ80" s="36"/>
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -5163,14 +5163,14 @@
       <c r="AF81" s="20">
         <v>0.28899999999999998</v>
       </c>
-      <c r="AG81" s="41">
+      <c r="AG81" s="39">
         <v>26573</v>
       </c>
-      <c r="AH81" s="41"/>
-      <c r="AI81" s="42">
+      <c r="AH81" s="39"/>
+      <c r="AI81" s="35">
         <v>10.5</v>
       </c>
-      <c r="AJ81" s="43"/>
+      <c r="AJ81" s="36"/>
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
@@ -5251,14 +5251,14 @@
       <c r="AF82" s="20">
         <v>0.28799999999999998</v>
       </c>
-      <c r="AG82" s="41">
+      <c r="AG82" s="39">
         <v>25253</v>
       </c>
-      <c r="AH82" s="41"/>
-      <c r="AI82" s="42">
+      <c r="AH82" s="39"/>
+      <c r="AI82" s="35">
         <v>10</v>
       </c>
-      <c r="AJ82" s="43"/>
+      <c r="AJ82" s="36"/>
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
@@ -5339,14 +5339,14 @@
       <c r="AF83" s="20">
         <v>0.20100000000000001</v>
       </c>
-      <c r="AG83" s="41">
+      <c r="AG83" s="39">
         <v>17610</v>
       </c>
-      <c r="AH83" s="41"/>
-      <c r="AI83" s="42">
+      <c r="AH83" s="39"/>
+      <c r="AI83" s="35">
         <v>10</v>
       </c>
-      <c r="AJ83" s="43"/>
+      <c r="AJ83" s="36"/>
     </row>
     <row r="84" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
@@ -5427,14 +5427,14 @@
       <c r="AF84" s="20">
         <v>0.221</v>
       </c>
-      <c r="AG84" s="41">
+      <c r="AG84" s="39">
         <v>19372</v>
       </c>
-      <c r="AH84" s="41"/>
-      <c r="AI84" s="42">
+      <c r="AH84" s="39"/>
+      <c r="AI84" s="35">
         <v>10</v>
       </c>
-      <c r="AJ84" s="43"/>
+      <c r="AJ84" s="36"/>
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
@@ -5515,14 +5515,14 @@
       <c r="AF85" s="20">
         <v>0.216</v>
       </c>
-      <c r="AG85" s="41">
+      <c r="AG85" s="39">
         <v>18939</v>
       </c>
-      <c r="AH85" s="41"/>
-      <c r="AI85" s="42">
+      <c r="AH85" s="39"/>
+      <c r="AI85" s="35">
         <v>10</v>
       </c>
-      <c r="AJ85" s="43"/>
+      <c r="AJ85" s="36"/>
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
@@ -5603,14 +5603,14 @@
       <c r="AF86" s="20">
         <v>0.23</v>
       </c>
-      <c r="AG86" s="41">
+      <c r="AG86" s="39">
         <v>20382</v>
       </c>
-      <c r="AH86" s="41"/>
-      <c r="AI86" s="42">
+      <c r="AH86" s="39"/>
+      <c r="AI86" s="35">
         <v>10.1</v>
       </c>
-      <c r="AJ86" s="43"/>
+      <c r="AJ86" s="36"/>
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
@@ -5691,14 +5691,14 @@
       <c r="AF87" s="20">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AG87" s="41">
+      <c r="AG87" s="39">
         <v>19968</v>
       </c>
-      <c r="AH87" s="41"/>
-      <c r="AI87" s="42">
+      <c r="AH87" s="39"/>
+      <c r="AI87" s="35">
         <v>10.1</v>
       </c>
-      <c r="AJ87" s="43"/>
+      <c r="AJ87" s="36"/>
     </row>
     <row r="88" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
@@ -5779,14 +5779,14 @@
       <c r="AF88" s="20">
         <v>0.26500000000000001</v>
       </c>
-      <c r="AG88" s="41">
+      <c r="AG88" s="39">
         <v>23240</v>
       </c>
-      <c r="AH88" s="41"/>
-      <c r="AI88" s="42">
+      <c r="AH88" s="39"/>
+      <c r="AI88" s="35">
         <v>10</v>
       </c>
-      <c r="AJ88" s="43"/>
+      <c r="AJ88" s="36"/>
     </row>
     <row r="89" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
@@ -5867,14 +5867,14 @@
       <c r="AF89" s="22">
         <v>0.254</v>
       </c>
-      <c r="AG89" s="46">
+      <c r="AG89" s="40">
         <v>26709</v>
       </c>
-      <c r="AH89" s="46"/>
-      <c r="AI89" s="44">
+      <c r="AH89" s="40"/>
+      <c r="AI89" s="37">
         <v>12</v>
       </c>
-      <c r="AJ89" s="45"/>
+      <c r="AJ89" s="38"/>
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
@@ -6046,13 +6046,13 @@
         <v>43</v>
       </c>
       <c r="K92" s="6">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="M92" s="30">
         <v>43</v>
       </c>
       <c r="N92" s="6">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="P92" s="33">
         <v>43</v>
@@ -6091,18 +6091,48 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="AF67:AF68"/>
+    <mergeCell ref="AG67:AH68"/>
+    <mergeCell ref="AG70:AH70"/>
+    <mergeCell ref="AG71:AH71"/>
+    <mergeCell ref="AG72:AH72"/>
+    <mergeCell ref="AG73:AH73"/>
+    <mergeCell ref="AG74:AH74"/>
+    <mergeCell ref="AG75:AH75"/>
+    <mergeCell ref="AG76:AH76"/>
+    <mergeCell ref="AG77:AH77"/>
+    <mergeCell ref="AG85:AH85"/>
+    <mergeCell ref="AG86:AH86"/>
+    <mergeCell ref="AG87:AH87"/>
+    <mergeCell ref="AG78:AH78"/>
+    <mergeCell ref="AG79:AH79"/>
+    <mergeCell ref="AG80:AH80"/>
+    <mergeCell ref="AG81:AH81"/>
+    <mergeCell ref="AG82:AH82"/>
+    <mergeCell ref="AI79:AJ79"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="AI81:AJ81"/>
+    <mergeCell ref="AG83:AH83"/>
+    <mergeCell ref="AG84:AH84"/>
+    <mergeCell ref="AI74:AJ74"/>
+    <mergeCell ref="AI75:AJ75"/>
+    <mergeCell ref="AI76:AJ76"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AI78:AJ78"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="AI87:AJ87"/>
     <mergeCell ref="AI88:AJ88"/>
@@ -6119,48 +6149,18 @@
     <mergeCell ref="AI71:AJ71"/>
     <mergeCell ref="AI72:AJ72"/>
     <mergeCell ref="AI73:AJ73"/>
-    <mergeCell ref="AI74:AJ74"/>
-    <mergeCell ref="AI75:AJ75"/>
-    <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AI78:AJ78"/>
-    <mergeCell ref="AI79:AJ79"/>
-    <mergeCell ref="AI80:AJ80"/>
-    <mergeCell ref="AI81:AJ81"/>
-    <mergeCell ref="AG83:AH83"/>
-    <mergeCell ref="AG84:AH84"/>
-    <mergeCell ref="AG85:AH85"/>
-    <mergeCell ref="AG86:AH86"/>
-    <mergeCell ref="AG87:AH87"/>
-    <mergeCell ref="AG78:AH78"/>
-    <mergeCell ref="AG79:AH79"/>
-    <mergeCell ref="AG80:AH80"/>
-    <mergeCell ref="AG81:AH81"/>
-    <mergeCell ref="AG82:AH82"/>
-    <mergeCell ref="AG73:AH73"/>
-    <mergeCell ref="AG74:AH74"/>
-    <mergeCell ref="AG75:AH75"/>
-    <mergeCell ref="AG76:AH76"/>
-    <mergeCell ref="AG77:AH77"/>
-    <mergeCell ref="AF67:AF68"/>
-    <mergeCell ref="AG67:AH68"/>
-    <mergeCell ref="AG70:AH70"/>
-    <mergeCell ref="AG71:AH71"/>
-    <mergeCell ref="AG72:AH72"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfi\Google Drive\School\College\Semester 6 (Spring 2020)\ENV 717\Assignments\Assignment 11 (group project)\ENV717A11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jawessel\opl\ENV717A11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,37 +15,40 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="BusDemandOff">Sheet2!$I$11:$K$36</definedName>
-    <definedName name="BusDemandPeak">Sheet2!$C$11:$E$36</definedName>
+    <definedName name="bat_eff">Sheet2!$Q$9</definedName>
+    <definedName name="BusDemandOff">Sheet2!$I$13:$K$38</definedName>
+    <definedName name="BusDemandPeak">Sheet2!$C$13:$E$38</definedName>
     <definedName name="CAPEX_solar">Sheet2!$Q$1</definedName>
+    <definedName name="CAPEX_storage">Sheet2!$Q$7</definedName>
     <definedName name="CAPEX_wind">Sheet2!$Q$3</definedName>
-    <definedName name="CH4_rate">Sheet2!$AB$50:$AB$92</definedName>
-    <definedName name="CO2_rate">Sheet2!$AA$50:$AA$92</definedName>
+    <definedName name="CH4_rate">Sheet2!$AB$52:$AB$94</definedName>
+    <definedName name="CO2_rate">Sheet2!$AA$52:$AA$94</definedName>
     <definedName name="DiscRate">Sheet2!$G$1</definedName>
     <definedName name="EV_subsidy_cost">Sheet2!$V$1</definedName>
-    <definedName name="LineCapacity">Sheet2!$P$42:$P$44</definedName>
-    <definedName name="LineFromBus">Sheet2!$H$42:$J$44</definedName>
-    <definedName name="LineReactance">Sheet2!$M$42:$M$44</definedName>
-    <definedName name="LineToBus">Sheet2!$C$42:$E$44</definedName>
-    <definedName name="MarginalC">Sheet2!$Q$50:$Q$92</definedName>
+    <definedName name="LineCapacity">Sheet2!$P$44:$P$46</definedName>
+    <definedName name="LineFromBus">Sheet2!$H$44:$J$46</definedName>
+    <definedName name="LineReactance">Sheet2!$M$44:$M$46</definedName>
+    <definedName name="LineToBus">Sheet2!$C$44:$E$46</definedName>
+    <definedName name="MarginalC">Sheet2!$Q$52:$Q$94</definedName>
     <definedName name="maxCO2">Sheet2!$L$2</definedName>
-    <definedName name="MaxGenOff">Sheet2!$K$50:$K$92</definedName>
-    <definedName name="MaxGenPeak">Sheet2!$H$50:$H$92</definedName>
-    <definedName name="MinGen">Sheet2!$N$50:$N$92</definedName>
-    <definedName name="N2O_rate">Sheet2!$AC$50:$AC$92</definedName>
-    <definedName name="NOx_rate">Sheet2!$Y$50:$Y$92</definedName>
+    <definedName name="MaxGenOff">Sheet2!$K$52:$K$94</definedName>
+    <definedName name="MaxGenPeak">Sheet2!$H$52:$H$94</definedName>
+    <definedName name="MinGen">Sheet2!$N$52:$N$94</definedName>
+    <definedName name="N2O_rate">Sheet2!$AC$52:$AC$94</definedName>
+    <definedName name="NOx_rate">Sheet2!$Y$52:$Y$94</definedName>
     <definedName name="NumBuses">Sheet2!$C$1</definedName>
     <definedName name="NumLines">Sheet2!$C$2</definedName>
     <definedName name="NumUnits">Sheet2!$C$3</definedName>
     <definedName name="NumYears">Sheet2!$C$4</definedName>
     <definedName name="OffHours">Sheet2!$C$7</definedName>
     <definedName name="OPEX_solar">Sheet2!$Q$2</definedName>
+    <definedName name="OPEX_storage">Sheet2!$Q$8</definedName>
     <definedName name="OPEX_wind">Sheet2!$Q$4</definedName>
     <definedName name="PeakHours">Sheet2!$C$6</definedName>
-    <definedName name="SO2_rate">Sheet2!$Z$50:$Z$92</definedName>
+    <definedName name="SO2_rate">Sheet2!$Z$52:$Z$94</definedName>
     <definedName name="solar_cap_factor">Sheet2!$G$4</definedName>
     <definedName name="solar_inc">Sheet2!$Q$5</definedName>
-    <definedName name="UnitsByBus">Sheet2!$C$50:$E$92</definedName>
+    <definedName name="UnitsByBus">Sheet2!$C$52:$E$94</definedName>
     <definedName name="wind_cap_factor">Sheet2!$G$5</definedName>
     <definedName name="wind_inc">Sheet2!$Q$6</definedName>
   </definedNames>
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
   <si>
     <t>NumBuses</t>
   </si>
@@ -319,15 +322,9 @@
     <t>WIND</t>
   </si>
   <si>
-    <t>CAPEX of new solar ($):</t>
-  </si>
-  <si>
     <t>OPEX of new solar ($/MW):</t>
   </si>
   <si>
-    <t>CAPEX of new wind ($):</t>
-  </si>
-  <si>
     <t>OPEX of new wind ($/MW):</t>
   </si>
   <si>
@@ -395,6 +392,21 @@
   </si>
   <si>
     <t>OffHours</t>
+  </si>
+  <si>
+    <t>CAPEX of new storage ($/MW):</t>
+  </si>
+  <si>
+    <t>CAPEX of new solar ($/MW):</t>
+  </si>
+  <si>
+    <t>CAPEX of new wind ($/MW):</t>
+  </si>
+  <si>
+    <t>OPEX of new storage ($/MW):</t>
+  </si>
+  <si>
+    <t>Battery Efficiency</t>
   </si>
 </sst>
 </file>
@@ -555,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -627,6 +639,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,19 +675,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -661,18 +688,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -956,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ92"/>
+  <dimension ref="A1:AJ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N98" sqref="N98"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -990,34 +1005,34 @@
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="34"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="15">
         <v>0.1</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
       <c r="L1" s="16">
         <v>7256200.8565999996</v>
       </c>
-      <c r="N1" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
+      <c r="N1" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
       <c r="Q1" s="25">
         <v>2221460.4</v>
       </c>
-      <c r="S1" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
+      <c r="S1" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
       <c r="V1" s="25">
         <v>8809340386.1000004</v>
       </c>
@@ -1029,40 +1044,40 @@
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="6">
         <v>7000</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
       <c r="L2" s="24">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
       </c>
-      <c r="N2" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
+      <c r="N2" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
       <c r="Q2" s="25">
         <v>19867.2</v>
       </c>
-      <c r="S2" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
+      <c r="S2" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
       <c r="V2" s="28">
         <v>348494.96600000001</v>
       </c>
       <c r="W2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.35">
@@ -1072,33 +1087,33 @@
       <c r="C3" s="6">
         <v>43</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="35"/>
       <c r="G3" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I3" s="4"/>
       <c r="L3" s="26"/>
-      <c r="N3" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
+      <c r="N3" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
       <c r="Q3" s="25">
         <v>1596613.3</v>
       </c>
-      <c r="S3" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
+      <c r="S3" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
       <c r="V3" s="29">
         <v>2066077.2990000001</v>
       </c>
       <c r="W3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.35">
@@ -1109,1832 +1124,1722 @@
         <v>26</v>
       </c>
       <c r="D4" s="14"/>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="34"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="16">
         <v>1</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="N4" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
+      <c r="N4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
       <c r="Q4" s="25">
         <v>43560</v>
       </c>
-      <c r="S4" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
+      <c r="S4" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
       <c r="V4" s="28">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
       </c>
       <c r="W4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
-      <c r="E5" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="34"/>
+      <c r="E5" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="35"/>
       <c r="G5" s="16">
         <v>1</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="N5" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
+      <c r="N5" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
       <c r="Q5" s="27">
         <v>50</v>
       </c>
-      <c r="S5" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
+      <c r="S5" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
       <c r="V5" s="28">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
       </c>
       <c r="W5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="6">
         <f>16*365</f>
         <v>5840</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="34"/>
+      <c r="E6" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="35"/>
       <c r="G6" s="10">
         <v>0.3</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="N6" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
+      <c r="N6" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
       <c r="Q6" s="27">
         <v>10</v>
       </c>
-      <c r="S6" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
+      <c r="S6" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
       <c r="V6" s="28">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
       </c>
       <c r="W6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="6">
         <f>8*365</f>
         <v>2920</v>
       </c>
-      <c r="S7" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
+      <c r="N7" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="25">
+        <v>601000</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
       <c r="V7" s="28">
         <f>V4*V6</f>
         <v>29903074042.27026</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="S8" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
+      <c r="N8" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="25">
+        <v>15025</v>
+      </c>
+      <c r="S8" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
       <c r="V8" s="28">
         <f>V5*V6</f>
         <v>5911072775.7976093</v>
       </c>
       <c r="W8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="C9" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="2"/>
-      <c r="I9" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="33"/>
+      <c r="N9" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="27">
+        <v>0.95</v>
+      </c>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="28"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B10" s="9" t="s">
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="28"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="C11" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="2"/>
+      <c r="I11" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="33"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="33">
-        <v>1</v>
-      </c>
-      <c r="J10" s="33">
+      <c r="I12" s="33">
+        <v>1</v>
+      </c>
+      <c r="J12" s="33">
         <v>2</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K12" s="33">
         <v>3</v>
       </c>
-      <c r="L10" s="33" t="s">
+      <c r="L12" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B11" s="4">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B13" s="4">
         <v>2020</v>
       </c>
-      <c r="C11" s="7">
-        <f>0.15*F11</f>
+      <c r="C13" s="7">
+        <f>0.15*F13</f>
         <v>1050</v>
       </c>
-      <c r="D11" s="7">
-        <f>0.5*F11</f>
+      <c r="D13" s="7">
+        <f>0.5*F13</f>
         <v>3500</v>
       </c>
-      <c r="E11" s="7">
-        <f>0.35*F11</f>
+      <c r="E13" s="7">
+        <f>0.35*F13</f>
         <v>2450</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F13" s="2">
         <f>G2</f>
         <v>7000</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H13" s="4">
         <v>2020</v>
       </c>
-      <c r="I11" s="7">
-        <f>0.15*L11</f>
+      <c r="I13" s="7">
+        <f>0.15*L13</f>
         <v>315</v>
       </c>
-      <c r="J11" s="7">
-        <f>0.5*L11</f>
+      <c r="J13" s="7">
+        <f>0.5*L13</f>
         <v>1050</v>
       </c>
-      <c r="K11" s="7">
-        <f>0.35*L11</f>
+      <c r="K13" s="7">
+        <f>0.35*L13</f>
         <v>735</v>
       </c>
-      <c r="L11" s="33">
-        <f>F11*$G$6</f>
+      <c r="L13" s="33">
+        <f>F13*$G$6</f>
         <v>2100</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B12" s="4">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B14" s="4">
         <v>2021</v>
       </c>
-      <c r="C12" s="7">
-        <f t="shared" ref="C12:C36" si="0">0.15*F12</f>
+      <c r="C14" s="7">
+        <f t="shared" ref="C14:C38" si="0">0.15*F14</f>
         <v>1059.4499999999998</v>
       </c>
-      <c r="D12" s="7">
-        <f t="shared" ref="D12:D36" si="1">0.5*F12</f>
+      <c r="D14" s="7">
+        <f t="shared" ref="D14:D38" si="1">0.5*F14</f>
         <v>3531.4999999999995</v>
       </c>
-      <c r="E12" s="7">
-        <f t="shared" ref="E12:E36" si="2">0.35*F12</f>
+      <c r="E14" s="7">
+        <f t="shared" ref="E14:E38" si="2">0.35*F14</f>
         <v>2472.0499999999997</v>
       </c>
-      <c r="F12" s="13">
-        <f t="shared" ref="F12:F36" si="3">F11*(1+$G$3)</f>
+      <c r="F14" s="13">
+        <f t="shared" ref="F14:F38" si="3">F13*(1+$G$3)</f>
         <v>7062.9999999999991</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H14" s="4">
         <v>2021</v>
       </c>
-      <c r="I12" s="7">
-        <f t="shared" ref="I12:I36" si="4">0.15*L12</f>
+      <c r="I14" s="7">
+        <f t="shared" ref="I14:I38" si="4">0.15*L14</f>
         <v>317.83499999999992</v>
       </c>
-      <c r="J12" s="7">
-        <f t="shared" ref="J12:J36" si="5">0.5*L12</f>
+      <c r="J14" s="7">
+        <f t="shared" ref="J14:J38" si="5">0.5*L14</f>
         <v>1059.4499999999998</v>
       </c>
-      <c r="K12" s="7">
-        <f t="shared" ref="K12:K36" si="6">0.35*L12</f>
+      <c r="K14" s="7">
+        <f t="shared" ref="K14:K38" si="6">0.35*L14</f>
         <v>741.61499999999978</v>
       </c>
-      <c r="L12" s="33">
-        <f>F12*$G$6</f>
+      <c r="L14" s="33">
+        <f>F14*$G$6</f>
         <v>2118.8999999999996</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B13" s="4">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B15" s="4">
         <v>2022</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C15" s="7">
         <f t="shared" si="0"/>
         <v>1068.9850499999998</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D15" s="7">
         <f t="shared" si="1"/>
         <v>3563.2834999999991</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E15" s="7">
         <f t="shared" si="2"/>
         <v>2494.2984499999993</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F15" s="13">
         <f t="shared" si="3"/>
         <v>7126.5669999999982</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H15" s="4">
         <v>2022</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I15" s="7">
         <f t="shared" si="4"/>
         <v>320.69551499999994</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J15" s="7">
         <f t="shared" si="5"/>
         <v>1068.9850499999998</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K15" s="7">
         <f t="shared" si="6"/>
         <v>748.28953499999977</v>
       </c>
-      <c r="L13" s="33">
-        <f t="shared" ref="L13:L36" si="7">F13*$G$6</f>
+      <c r="L15" s="33">
+        <f t="shared" ref="L15:L38" si="7">F15*$G$6</f>
         <v>2137.9700999999995</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B14" s="4">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B16" s="4">
         <v>2023</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C16" s="7">
         <f t="shared" si="0"/>
         <v>1078.6059154499997</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D16" s="7">
         <f t="shared" si="1"/>
         <v>3595.3530514999989</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E16" s="7">
         <f t="shared" si="2"/>
         <v>2516.747136049999</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F16" s="13">
         <f t="shared" si="3"/>
         <v>7190.7061029999977</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H16" s="4">
         <v>2023</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I16" s="7">
         <f t="shared" si="4"/>
         <v>323.58177463499987</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J16" s="7">
         <f t="shared" si="5"/>
         <v>1078.6059154499997</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K16" s="7">
         <f t="shared" si="6"/>
         <v>755.02414081499967</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L16" s="33">
         <f t="shared" si="7"/>
         <v>2157.2118308999993</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B15" s="4">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="4">
         <v>2024</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C17" s="7">
         <f t="shared" si="0"/>
         <v>1088.3133686890494</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D17" s="7">
         <f t="shared" si="1"/>
         <v>3627.7112289634983</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E17" s="7">
         <f t="shared" si="2"/>
         <v>2539.3978602744487</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F17" s="13">
         <f t="shared" si="3"/>
         <v>7255.4224579269967</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H17" s="4">
         <v>2024</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I17" s="7">
         <f t="shared" si="4"/>
         <v>326.49401060671482</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J17" s="7">
         <f t="shared" si="5"/>
         <v>1088.3133686890494</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K17" s="7">
         <f t="shared" si="6"/>
         <v>761.81935808233459</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L17" s="33">
         <f t="shared" si="7"/>
         <v>2176.6267373780988</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B16" s="4">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="4">
         <v>2025</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C18" s="7">
         <f t="shared" si="0"/>
         <v>1098.1081890072508</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D18" s="7">
         <f t="shared" si="1"/>
         <v>3660.3606300241695</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E18" s="7">
         <f t="shared" si="2"/>
         <v>2562.2524410169185</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F18" s="13">
         <f t="shared" si="3"/>
         <v>7320.721260048339</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H18" s="4">
         <v>2025</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I18" s="7">
         <f t="shared" si="4"/>
         <v>329.43245670217522</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J18" s="7">
         <f t="shared" si="5"/>
         <v>1098.1081890072508</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K18" s="7">
         <f t="shared" si="6"/>
         <v>768.67573230507548</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L18" s="33">
         <f t="shared" si="7"/>
         <v>2196.2163780145015</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="4">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="4">
         <v>2026</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C19" s="7">
         <f t="shared" si="0"/>
         <v>1107.9911627083159</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D19" s="7">
         <f t="shared" si="1"/>
         <v>3693.3038756943865</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E19" s="7">
         <f t="shared" si="2"/>
         <v>2585.3127129860704</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F19" s="13">
         <f t="shared" si="3"/>
         <v>7386.6077513887731</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H19" s="4">
         <v>2026</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I19" s="7">
         <f t="shared" si="4"/>
         <v>332.39734881249473</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J19" s="7">
         <f t="shared" si="5"/>
         <v>1107.9911627083159</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K19" s="7">
         <f t="shared" si="6"/>
         <v>775.59381389582109</v>
       </c>
-      <c r="L17" s="33">
+      <c r="L19" s="33">
         <f t="shared" si="7"/>
         <v>2215.9823254166317</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="4">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="4">
         <v>2027</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C20" s="7">
         <f t="shared" si="0"/>
         <v>1117.9630831726906</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D20" s="7">
         <f t="shared" si="1"/>
         <v>3726.5436105756357</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E20" s="7">
         <f t="shared" si="2"/>
         <v>2608.5805274029449</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F20" s="13">
         <f t="shared" si="3"/>
         <v>7453.0872211512715</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H20" s="4">
         <v>2027</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I20" s="7">
         <f t="shared" si="4"/>
         <v>335.38892495180716</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J20" s="7">
         <f t="shared" si="5"/>
         <v>1117.9630831726906</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K20" s="7">
         <f t="shared" si="6"/>
         <v>782.57415822088342</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L20" s="33">
         <f t="shared" si="7"/>
         <v>2235.9261663453813</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="4">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="4">
         <v>2028</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C21" s="7">
         <f t="shared" si="0"/>
         <v>1128.0247509212447</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D21" s="7">
         <f t="shared" si="1"/>
         <v>3760.0825030708161</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E21" s="7">
         <f t="shared" si="2"/>
         <v>2632.0577521495711</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F21" s="13">
         <f t="shared" si="3"/>
         <v>7520.1650061416321</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H21" s="4">
         <v>2028</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I21" s="7">
         <f t="shared" si="4"/>
         <v>338.40742527637343</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J21" s="7">
         <f t="shared" si="5"/>
         <v>1128.0247509212447</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K21" s="7">
         <f t="shared" si="6"/>
         <v>789.61732564487124</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L21" s="33">
         <f t="shared" si="7"/>
         <v>2256.0495018424895</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="4">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="4">
         <v>2029</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C22" s="7">
         <f t="shared" si="0"/>
         <v>1138.1769736795359</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D22" s="7">
         <f t="shared" si="1"/>
         <v>3793.9232455984529</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E22" s="7">
         <f t="shared" si="2"/>
         <v>2655.746271918917</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F22" s="13">
         <f t="shared" si="3"/>
         <v>7587.8464911969058</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H22" s="4">
         <v>2029</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I22" s="7">
         <f t="shared" si="4"/>
         <v>341.45309210386074</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J22" s="7">
         <f t="shared" si="5"/>
         <v>1138.1769736795359</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K22" s="7">
         <f t="shared" si="6"/>
         <v>796.72388157567502</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L22" s="33">
         <f t="shared" si="7"/>
         <v>2276.3539473590718</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="4">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="4">
         <v>2030</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C23" s="7">
         <f t="shared" si="0"/>
         <v>1148.4205664426515</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D23" s="7">
         <f t="shared" si="1"/>
         <v>3828.0685548088386</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E23" s="7">
         <f t="shared" si="2"/>
         <v>2679.6479883661868</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F23" s="13">
         <f t="shared" si="3"/>
         <v>7656.1371096176772</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H23" s="4">
         <v>2030</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I23" s="7">
         <f t="shared" si="4"/>
         <v>344.52616993279543</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J23" s="7">
         <f t="shared" si="5"/>
         <v>1148.4205664426515</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K23" s="7">
         <f t="shared" si="6"/>
         <v>803.89439650985605</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L23" s="33">
         <f t="shared" si="7"/>
         <v>2296.8411328853031</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="4">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="4">
         <v>2031</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C24" s="7">
         <f t="shared" si="0"/>
         <v>1158.7563515406353</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D24" s="7">
         <f t="shared" si="1"/>
         <v>3862.5211718021178</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E24" s="7">
         <f t="shared" si="2"/>
         <v>2703.7648202614823</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F24" s="13">
         <f t="shared" si="3"/>
         <v>7725.0423436042356</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H24" s="4">
         <v>2031</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I24" s="7">
         <f t="shared" si="4"/>
         <v>347.62690546219056</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J24" s="7">
         <f t="shared" si="5"/>
         <v>1158.7563515406353</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K24" s="7">
         <f t="shared" si="6"/>
         <v>811.12944607844463</v>
       </c>
-      <c r="L22" s="33">
+      <c r="L24" s="33">
         <f t="shared" si="7"/>
         <v>2317.5127030812705</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="4">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="4">
         <v>2032</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C25" s="7">
         <f t="shared" si="0"/>
         <v>1169.1851587045007</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D25" s="7">
         <f t="shared" si="1"/>
         <v>3897.2838623483362</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E25" s="7">
         <f t="shared" si="2"/>
         <v>2728.0987036438351</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F25" s="13">
         <f t="shared" si="3"/>
         <v>7794.5677246966725</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H25" s="4">
         <v>2032</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I25" s="7">
         <f t="shared" si="4"/>
         <v>350.75554761135021</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J25" s="7">
         <f t="shared" si="5"/>
         <v>1169.1851587045007</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K25" s="7">
         <f t="shared" si="6"/>
         <v>818.42961109315047</v>
       </c>
-      <c r="L23" s="33">
+      <c r="L25" s="33">
         <f t="shared" si="7"/>
         <v>2338.3703174090015</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="4">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="4">
         <v>2033</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C26" s="7">
         <f t="shared" si="0"/>
         <v>1179.7078251328412</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <f t="shared" si="1"/>
         <v>3932.359417109471</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E26" s="7">
         <f t="shared" si="2"/>
         <v>2752.6515919766293</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F26" s="13">
         <f t="shared" si="3"/>
         <v>7864.718834218942</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H26" s="4">
         <v>2033</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I26" s="7">
         <f t="shared" si="4"/>
         <v>353.91234753985236</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J26" s="7">
         <f t="shared" si="5"/>
         <v>1179.7078251328412</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K26" s="7">
         <f t="shared" si="6"/>
         <v>825.79547759298885</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L26" s="33">
         <f t="shared" si="7"/>
         <v>2359.4156502656824</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="4">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="4">
         <v>2034</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C27" s="7">
         <f t="shared" si="0"/>
         <v>1190.3251955590367</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D27" s="7">
         <f t="shared" si="1"/>
         <v>3967.7506518634559</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E27" s="7">
         <f t="shared" si="2"/>
         <v>2777.4254563044192</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F27" s="13">
         <f t="shared" si="3"/>
         <v>7935.5013037269118</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H27" s="4">
         <v>2034</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I27" s="7">
         <f t="shared" si="4"/>
         <v>357.09755866771098</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J27" s="7">
         <f t="shared" si="5"/>
         <v>1190.3251955590367</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K27" s="7">
         <f t="shared" si="6"/>
         <v>833.22763689132569</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L27" s="33">
         <f t="shared" si="7"/>
         <v>2380.6503911180735</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="4">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="4">
         <v>2035</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C28" s="7">
         <f t="shared" si="0"/>
         <v>1201.038122319068</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D28" s="7">
         <f t="shared" si="1"/>
         <v>4003.4604077302265</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E28" s="7">
         <f t="shared" si="2"/>
         <v>2802.4222854111586</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F28" s="13">
         <f t="shared" si="3"/>
         <v>8006.920815460453</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H28" s="4">
         <v>2035</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I28" s="7">
         <f t="shared" si="4"/>
         <v>360.31143669572037</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J28" s="7">
         <f t="shared" si="5"/>
         <v>1201.038122319068</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K28" s="7">
         <f t="shared" si="6"/>
         <v>840.72668562334752</v>
       </c>
-      <c r="L26" s="33">
+      <c r="L28" s="33">
         <f t="shared" si="7"/>
         <v>2402.0762446381359</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="4">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="4">
         <v>2036</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C29" s="7">
         <f t="shared" si="0"/>
         <v>1211.8474654199395</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D29" s="7">
         <f t="shared" si="1"/>
         <v>4039.491551399798</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E29" s="7">
         <f t="shared" si="2"/>
         <v>2827.6440859798586</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F29" s="13">
         <f t="shared" si="3"/>
         <v>8078.9831027995961</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H29" s="4">
         <v>2036</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I29" s="7">
         <f t="shared" si="4"/>
         <v>363.55423962598184</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J29" s="7">
         <f t="shared" si="5"/>
         <v>1211.8474654199395</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K29" s="7">
         <f t="shared" si="6"/>
         <v>848.29322579395762</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L29" s="33">
         <f t="shared" si="7"/>
         <v>2423.6949308398789</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="4">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="4">
         <v>2037</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C30" s="7">
         <f t="shared" si="0"/>
         <v>1222.7540926087188</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D30" s="7">
         <f t="shared" si="1"/>
         <v>4075.8469753623958</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E30" s="7">
         <f t="shared" si="2"/>
         <v>2853.0928827536768</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F30" s="13">
         <f t="shared" si="3"/>
         <v>8151.6939507247916</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H30" s="4">
         <v>2037</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I30" s="7">
         <f t="shared" si="4"/>
         <v>366.8262277826156</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J30" s="7">
         <f t="shared" si="5"/>
         <v>1222.7540926087188</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K30" s="7">
         <f t="shared" si="6"/>
         <v>855.92786482610313</v>
       </c>
-      <c r="L28" s="33">
+      <c r="L30" s="33">
         <f t="shared" si="7"/>
         <v>2445.5081852174376</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="4">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="4">
         <v>2038</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C31" s="7">
         <f t="shared" si="0"/>
         <v>1233.758879442197</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D31" s="7">
         <f t="shared" si="1"/>
         <v>4112.5295981406571</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E31" s="7">
         <f t="shared" si="2"/>
         <v>2878.7707186984599</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F31" s="13">
         <f t="shared" si="3"/>
         <v>8225.0591962813141</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H31" s="4">
         <v>2038</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I31" s="7">
         <f t="shared" si="4"/>
         <v>370.1276638326591</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J31" s="7">
         <f t="shared" si="5"/>
         <v>1233.758879442197</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K31" s="7">
         <f t="shared" si="6"/>
         <v>863.63121560953789</v>
       </c>
-      <c r="L29" s="33">
+      <c r="L31" s="33">
         <f t="shared" si="7"/>
         <v>2467.517758884394</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="4">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B32" s="4">
         <v>2039</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C32" s="7">
         <f t="shared" si="0"/>
         <v>1244.8627093571768</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D32" s="7">
         <f t="shared" si="1"/>
         <v>4149.5423645239225</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E32" s="7">
         <f t="shared" si="2"/>
         <v>2904.6796551667458</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F32" s="13">
         <f t="shared" si="3"/>
         <v>8299.084729047845</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H32" s="4">
         <v>2039</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I32" s="7">
         <f t="shared" si="4"/>
         <v>373.45881280715304</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J32" s="7">
         <f t="shared" si="5"/>
         <v>1244.8627093571768</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K32" s="7">
         <f t="shared" si="6"/>
         <v>871.40389655002366</v>
       </c>
-      <c r="L30" s="33">
+      <c r="L32" s="33">
         <f t="shared" si="7"/>
         <v>2489.7254187143535</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B31" s="4">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B33" s="4">
         <v>2040</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C33" s="7">
         <f t="shared" si="0"/>
         <v>1256.0664737413911</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D33" s="7">
         <f t="shared" si="1"/>
         <v>4186.8882458046373</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E33" s="7">
         <f t="shared" si="2"/>
         <v>2930.821772063246</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F33" s="13">
         <f t="shared" si="3"/>
         <v>8373.7764916092747</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H33" s="4">
         <v>2040</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I33" s="7">
         <f t="shared" si="4"/>
         <v>376.81994212241733</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J33" s="7">
         <f t="shared" si="5"/>
         <v>1256.0664737413911</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K33" s="7">
         <f t="shared" si="6"/>
         <v>879.24653161897368</v>
       </c>
-      <c r="L31" s="33">
+      <c r="L33" s="33">
         <f t="shared" si="7"/>
         <v>2512.1329474827821</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B32" s="4">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B34" s="4">
         <v>2041</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C34" s="7">
         <f t="shared" si="0"/>
         <v>1267.3710720050635</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D34" s="7">
         <f t="shared" si="1"/>
         <v>4224.5702400168784</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E34" s="7">
         <f t="shared" si="2"/>
         <v>2957.1991680118149</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F34" s="13">
         <f t="shared" si="3"/>
         <v>8449.1404800337568</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H34" s="4">
         <v>2041</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I34" s="7">
         <f t="shared" si="4"/>
         <v>380.21132160151905</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J34" s="7">
         <f t="shared" si="5"/>
         <v>1267.3710720050635</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K34" s="7">
         <f t="shared" si="6"/>
         <v>887.15975040354442</v>
       </c>
-      <c r="L32" s="33">
+      <c r="L34" s="33">
         <f t="shared" si="7"/>
         <v>2534.742144010127</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B33" s="4">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B35" s="4">
         <v>2042</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C35" s="7">
         <f t="shared" si="0"/>
         <v>1278.7774116531091</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D35" s="7">
         <f t="shared" si="1"/>
         <v>4262.5913721770303</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E35" s="7">
         <f t="shared" si="2"/>
         <v>2983.8139605239212</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F35" s="13">
         <f t="shared" si="3"/>
         <v>8525.1827443540606</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H35" s="4">
         <v>2042</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I35" s="7">
         <f t="shared" si="4"/>
         <v>383.63322349593273</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J35" s="7">
         <f t="shared" si="5"/>
         <v>1278.7774116531091</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K35" s="7">
         <f t="shared" si="6"/>
         <v>895.14418815717636</v>
       </c>
-      <c r="L33" s="33">
+      <c r="L35" s="33">
         <f t="shared" si="7"/>
         <v>2557.5548233062182</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B34" s="4">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B36" s="4">
         <v>2043</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C36" s="7">
         <f t="shared" si="0"/>
         <v>1290.2864083579868</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D36" s="7">
         <f t="shared" si="1"/>
         <v>4300.9546945266229</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E36" s="7">
         <f t="shared" si="2"/>
         <v>3010.6682861686359</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F36" s="13">
         <f t="shared" si="3"/>
         <v>8601.9093890532458</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H36" s="4">
         <v>2043</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I36" s="7">
         <f t="shared" si="4"/>
         <v>387.08592250739605</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J36" s="7">
         <f t="shared" si="5"/>
         <v>1290.2864083579868</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K36" s="7">
         <f t="shared" si="6"/>
         <v>903.20048585059067</v>
       </c>
-      <c r="L34" s="33">
+      <c r="L36" s="33">
         <f t="shared" si="7"/>
         <v>2580.5728167159737</v>
       </c>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B35" s="4">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B37" s="4">
         <v>2044</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C37" s="7">
         <f t="shared" si="0"/>
         <v>1301.8989860332088</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D37" s="7">
         <f t="shared" si="1"/>
         <v>4339.6632867773624</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E37" s="7">
         <f t="shared" si="2"/>
         <v>3037.7643007441534</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F37" s="13">
         <f t="shared" si="3"/>
         <v>8679.3265735547247</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H37" s="4">
         <v>2044</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I37" s="7">
         <f t="shared" si="4"/>
         <v>390.56969580996264</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J37" s="7">
         <f t="shared" si="5"/>
         <v>1301.8989860332088</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K37" s="7">
         <f t="shared" si="6"/>
         <v>911.32929022324606</v>
       </c>
-      <c r="L35" s="33">
+      <c r="L37" s="33">
         <f t="shared" si="7"/>
         <v>2603.7979720664175</v>
       </c>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B36" s="4">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B38" s="4">
         <v>2045</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C38" s="7">
         <f t="shared" si="0"/>
         <v>1313.6160769075072</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D38" s="7">
         <f t="shared" si="1"/>
         <v>4378.7202563583578</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E38" s="7">
         <f t="shared" si="2"/>
         <v>3065.1041794508501</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F38" s="13">
         <f t="shared" si="3"/>
         <v>8757.4405127167156</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H38" s="4">
         <v>2045</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I38" s="7">
         <f t="shared" si="4"/>
         <v>394.08482307225216</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J38" s="7">
         <f t="shared" si="5"/>
         <v>1313.6160769075072</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K38" s="7">
         <f t="shared" si="6"/>
         <v>919.53125383525503</v>
       </c>
-      <c r="L36" s="33">
+      <c r="L38" s="33">
         <f t="shared" si="7"/>
         <v>2627.2321538150145</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B39" s="4" t="s">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O39" s="4" t="s">
+      <c r="O41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R39" s="4" t="s">
+      <c r="R41" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="C40" s="50" t="s">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C42" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="2"/>
-      <c r="H40" s="50" t="s">
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="2"/>
+      <c r="H42" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="4"/>
-      <c r="O40" s="4"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B41" s="2" t="s">
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="4"/>
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
         <v>2</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E43" s="2">
         <v>3</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" t="s">
+      <c r="F43" s="2"/>
+      <c r="G43" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="2">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2">
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2">
         <v>2</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J43" s="2">
         <v>3</v>
       </c>
-      <c r="K41" s="2"/>
-      <c r="L41" t="s">
+      <c r="K43" s="2"/>
+      <c r="L43" t="s">
         <v>4</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O43" t="s">
         <v>4</v>
       </c>
-      <c r="R41" t="s">
+      <c r="R43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B42" s="5" t="s">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B44" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="6">
-        <v>0</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0</v>
-      </c>
-      <c r="E42" s="6">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="6">
-        <v>1</v>
-      </c>
-      <c r="I42" s="6">
-        <v>0</v>
-      </c>
-      <c r="J42" s="6">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1" t="s">
+      <c r="H44" s="6">
+        <v>1</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="M42" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="6">
-        <v>1100</v>
-      </c>
-      <c r="R42" t="s">
-        <v>21</v>
-      </c>
-      <c r="S42" s="6">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="6">
-        <v>1</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="6">
-        <v>0</v>
-      </c>
-      <c r="I43" s="6">
-        <v>1</v>
-      </c>
-      <c r="J43" s="6">
-        <v>0</v>
-      </c>
-      <c r="L43" t="s">
-        <v>6</v>
-      </c>
-      <c r="M43" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="O43" t="s">
-        <v>6</v>
-      </c>
-      <c r="P43" s="6">
-        <v>2000</v>
-      </c>
-      <c r="R43" t="s">
-        <v>23</v>
-      </c>
-      <c r="S43" s="6">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="6">
-        <v>0</v>
-      </c>
-      <c r="D44" s="6">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>7</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0</v>
-      </c>
-      <c r="I44" s="6">
-        <v>0</v>
-      </c>
-      <c r="J44" s="6">
-        <v>1</v>
-      </c>
-      <c r="L44" t="s">
-        <v>7</v>
       </c>
       <c r="M44" s="6">
         <v>0.1</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="6">
+        <v>1100</v>
+      </c>
+      <c r="R44" t="s">
+        <v>21</v>
+      </c>
+      <c r="S44" s="6">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <v>1</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>6</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>6</v>
+      </c>
+      <c r="P45" s="6">
+        <v>2000</v>
+      </c>
+      <c r="R45" t="s">
+        <v>23</v>
+      </c>
+      <c r="S45" s="6">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P44" s="6">
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O46" t="s">
+        <v>7</v>
+      </c>
+      <c r="P46" s="6">
         <v>1000</v>
       </c>
-      <c r="R44" t="s">
+      <c r="R46" t="s">
         <v>24</v>
       </c>
-      <c r="S44" s="6">
+      <c r="S46" s="6">
         <v>12.56</v>
       </c>
-      <c r="T44" t="s">
+      <c r="T46" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="2:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="4" t="s">
+    <row r="49" spans="1:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H47" s="4"/>
-      <c r="J47" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K47" s="4"/>
-      <c r="M47" s="4" t="s">
+      <c r="G49" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="J49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K49" s="4"/>
+      <c r="M49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N47" s="4"/>
-      <c r="P47" s="4" t="s">
+      <c r="N49" s="4"/>
+      <c r="P49" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="T47" s="4" t="s">
+      <c r="T49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U47" s="4" t="s">
+      <c r="U49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V47" s="4" t="s">
+      <c r="V49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Y47" s="32" t="s">
+      <c r="Y49" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="Z47" s="32" t="s">
+      <c r="Z49" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AA47" s="32" t="s">
+      <c r="AA49" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AB47" s="32" t="s">
+      <c r="AB49" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AC47" s="32" t="s">
+      <c r="AC49" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AD47" s="12"/>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="C48" s="50" t="s">
+      <c r="AD49" s="12"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="C50" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="U48" t="s">
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="U50" t="s">
         <v>17</v>
       </c>
-      <c r="V48" t="s">
+      <c r="V50" t="s">
         <v>20</v>
       </c>
-      <c r="Y48" s="32"/>
-      <c r="Z48" s="32"/>
-      <c r="AA48" s="32"/>
-      <c r="AB48" s="32"/>
-      <c r="AC48" s="32"/>
-      <c r="AD48" s="12"/>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2">
-        <v>2</v>
-      </c>
-      <c r="E49" s="2">
-        <v>3</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P49" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="S49" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="X49" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y49" s="32"/>
-      <c r="Z49" s="32"/>
-      <c r="AA49" s="32"/>
-      <c r="AB49" s="32"/>
-      <c r="AC49" s="32"/>
-      <c r="AD49" s="12"/>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="2">
-        <v>1</v>
-      </c>
-      <c r="C50" s="6">
-        <v>1</v>
-      </c>
-      <c r="D50" s="6">
-        <v>0</v>
-      </c>
-      <c r="E50" s="6">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2">
-        <v>1</v>
-      </c>
-      <c r="H50" s="6">
-        <v>519.20000000000005</v>
-      </c>
-      <c r="J50" s="33">
-        <v>1</v>
-      </c>
-      <c r="K50" s="6">
-        <v>519.20000000000005</v>
-      </c>
-      <c r="M50" s="2">
-        <v>1</v>
-      </c>
-      <c r="N50" s="6">
-        <v>78</v>
-      </c>
-      <c r="P50" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="8">
-        <f t="shared" ref="Q50:Q92" si="8">U50*V50*1000/1000000</f>
-        <v>39.666780000000003</v>
-      </c>
-      <c r="S50" s="33">
-        <v>1</v>
-      </c>
-      <c r="T50" t="s">
-        <v>21</v>
-      </c>
-      <c r="U50" s="6">
-        <v>12963</v>
-      </c>
-      <c r="V50" s="6">
-        <f t="shared" ref="V50:V69" si="9">IF(EXACT(T50,$R$42),$S$42,IF(EXACT(T50,$R$43),$S$43,IF(EXACT(T50,$R$44),$S$44,0)))</f>
-        <v>3.06</v>
-      </c>
-      <c r="X50" s="33">
-        <v>1</v>
-      </c>
-      <c r="Y50" s="6">
-        <v>1.4370000000000001</v>
-      </c>
-      <c r="Z50" s="6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AA50" s="6">
-        <v>1540.787</v>
-      </c>
-      <c r="AB50" s="6">
-        <v>2.4E-2</v>
-      </c>
-      <c r="AC50" s="6">
-        <v>2E-3</v>
-      </c>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="32"/>
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="32"/>
+      <c r="AC50" s="32"/>
+      <c r="AD50" s="12"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2">
+        <v>3</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P51" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="S51" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="X51" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="32"/>
+      <c r="AD51" s="12"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
+      <c r="H52" s="6">
+        <v>519.20000000000005</v>
+      </c>
+      <c r="J52" s="33">
+        <v>1</v>
+      </c>
+      <c r="K52" s="6">
+        <v>519.20000000000005</v>
+      </c>
+      <c r="M52" s="2">
+        <v>1</v>
+      </c>
+      <c r="N52" s="6">
+        <v>78</v>
+      </c>
+      <c r="P52" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="8">
+        <f t="shared" ref="Q52:Q94" si="8">U52*V52*1000/1000000</f>
+        <v>39.666780000000003</v>
+      </c>
+      <c r="S52" s="33">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s">
+        <v>21</v>
+      </c>
+      <c r="U52" s="6">
+        <v>12963</v>
+      </c>
+      <c r="V52" s="6">
+        <f t="shared" ref="V52:V71" si="9">IF(EXACT(T52,$R$44),$S$44,IF(EXACT(T52,$R$45),$S$45,IF(EXACT(T52,$R$46),$S$46,0)))</f>
+        <v>3.06</v>
+      </c>
+      <c r="X52" s="33">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="6">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="Z52" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AA52" s="6">
+        <v>1540.787</v>
+      </c>
+      <c r="AB52" s="6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AC52" s="6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B53" s="2">
         <v>2</v>
       </c>
-      <c r="C51" s="6">
-        <v>1</v>
-      </c>
-      <c r="D51" s="6">
-        <v>0</v>
-      </c>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
-      <c r="G51" s="2">
+      <c r="C53" s="6">
+        <v>1</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
         <v>2</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H53" s="6">
         <v>665.6</v>
       </c>
-      <c r="J51" s="33">
+      <c r="J53" s="33">
         <v>2</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K53" s="6">
         <v>665.6</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M53" s="2">
         <v>2</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N53" s="6">
         <v>100</v>
       </c>
-      <c r="P51" s="33">
+      <c r="P53" s="33">
         <v>2</v>
       </c>
-      <c r="Q51" s="8">
+      <c r="Q53" s="8">
         <f t="shared" si="8"/>
         <v>23.617080000000001</v>
       </c>
-      <c r="S51" s="33">
+      <c r="S53" s="33">
         <v>2</v>
-      </c>
-      <c r="T51" t="s">
-        <v>21</v>
-      </c>
-      <c r="U51" s="6">
-        <v>7718</v>
-      </c>
-      <c r="V51" s="6">
-        <f t="shared" si="9"/>
-        <v>3.06</v>
-      </c>
-      <c r="X51" s="33">
-        <v>2</v>
-      </c>
-      <c r="Y51" s="6">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="Z51" s="6">
-        <v>2E-3</v>
-      </c>
-      <c r="AA51" s="6">
-        <v>917.32500000000005</v>
-      </c>
-      <c r="AB51" s="6">
-        <v>1.6E-2</v>
-      </c>
-      <c r="AC51" s="6">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="2">
-        <v>3</v>
-      </c>
-      <c r="C52" s="6">
-        <v>1</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0</v>
-      </c>
-      <c r="E52" s="6">
-        <v>0</v>
-      </c>
-      <c r="G52" s="2">
-        <v>3</v>
-      </c>
-      <c r="H52" s="6">
-        <v>46.5</v>
-      </c>
-      <c r="J52" s="33">
-        <v>3</v>
-      </c>
-      <c r="K52" s="6">
-        <v>46.5</v>
-      </c>
-      <c r="M52" s="2">
-        <v>3</v>
-      </c>
-      <c r="N52" s="6">
-        <v>7</v>
-      </c>
-      <c r="P52" s="33">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="8">
-        <f t="shared" si="8"/>
-        <v>28.115279999999998</v>
-      </c>
-      <c r="S52" s="33">
-        <v>3</v>
-      </c>
-      <c r="T52" t="s">
-        <v>21</v>
-      </c>
-      <c r="U52" s="6">
-        <v>9188</v>
-      </c>
-      <c r="V52" s="6">
-        <f t="shared" si="9"/>
-        <v>3.06</v>
-      </c>
-      <c r="X52" s="33">
-        <v>3</v>
-      </c>
-      <c r="Y52" s="6">
-        <v>24.811</v>
-      </c>
-      <c r="Z52" s="6">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="AA52" s="6">
-        <v>1073.9280000000001</v>
-      </c>
-      <c r="AB52" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="AC52" s="6">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="2">
-        <v>4</v>
-      </c>
-      <c r="C53" s="6">
-        <v>1</v>
-      </c>
-      <c r="D53" s="6">
-        <v>0</v>
-      </c>
-      <c r="E53" s="6">
-        <v>0</v>
-      </c>
-      <c r="G53" s="2">
-        <v>4</v>
-      </c>
-      <c r="H53" s="6">
-        <v>212</v>
-      </c>
-      <c r="J53" s="33">
-        <v>4</v>
-      </c>
-      <c r="K53" s="6">
-        <v>212</v>
-      </c>
-      <c r="M53" s="2">
-        <v>4</v>
-      </c>
-      <c r="N53" s="6">
-        <v>32</v>
-      </c>
-      <c r="P53" s="33">
-        <v>4</v>
-      </c>
-      <c r="Q53" s="8">
-        <f t="shared" si="8"/>
-        <v>21.77496</v>
-      </c>
-      <c r="S53" s="33">
-        <v>4</v>
       </c>
       <c r="T53" t="s">
         <v>21</v>
       </c>
       <c r="U53" s="6">
-        <v>7116</v>
+        <v>7718</v>
       </c>
       <c r="V53" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
       <c r="X53" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y53" s="6">
-        <v>1.056</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="Z53" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="AA53" s="6">
-        <v>845.83</v>
+        <v>917.32500000000005</v>
       </c>
       <c r="AB53" s="6">
-        <v>2.5999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AC53" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="3">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="B54" s="2">
+        <v>3</v>
       </c>
       <c r="C54" s="6">
         <v>1</v>
@@ -2945,58 +2850,58 @@
       <c r="E54" s="6">
         <v>0</v>
       </c>
-      <c r="G54" s="3">
-        <v>5</v>
+      <c r="G54" s="2">
+        <v>3</v>
       </c>
       <c r="H54" s="6">
-        <v>464</v>
+        <v>46.5</v>
       </c>
       <c r="J54" s="33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K54" s="6">
-        <v>464</v>
-      </c>
-      <c r="M54" s="3">
-        <v>5</v>
+        <v>46.5</v>
+      </c>
+      <c r="M54" s="2">
+        <v>3</v>
       </c>
       <c r="N54" s="6">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="P54" s="33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q54" s="8">
         <f t="shared" si="8"/>
-        <v>23.94144</v>
+        <v>28.115279999999998</v>
       </c>
       <c r="S54" s="33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T54" t="s">
         <v>21</v>
       </c>
       <c r="U54" s="6">
-        <v>7824</v>
+        <v>9188</v>
       </c>
       <c r="V54" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
       <c r="X54" s="33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y54" s="6">
-        <v>0.11799999999999999</v>
+        <v>24.811</v>
       </c>
       <c r="Z54" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AA54" s="6">
-        <v>930.02099999999996</v>
+        <v>1073.9280000000001</v>
       </c>
       <c r="AB54" s="6">
-        <v>1.6E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AC54" s="6">
         <v>2E-3</v>
@@ -3004,10 +2909,10 @@
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="3">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="B55" s="2">
+        <v>4</v>
       </c>
       <c r="C55" s="6">
         <v>1</v>
@@ -3018,58 +2923,58 @@
       <c r="E55" s="6">
         <v>0</v>
       </c>
-      <c r="G55" s="3">
-        <v>6</v>
+      <c r="G55" s="2">
+        <v>4</v>
       </c>
       <c r="H55" s="6">
-        <v>101.5</v>
+        <v>212</v>
       </c>
       <c r="J55" s="33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K55" s="6">
-        <v>101.5</v>
-      </c>
-      <c r="M55" s="3">
-        <v>6</v>
+        <v>212</v>
+      </c>
+      <c r="M55" s="2">
+        <v>4</v>
       </c>
       <c r="N55" s="6">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="P55" s="33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q55" s="8">
         <f t="shared" si="8"/>
-        <v>38.22552000000001</v>
+        <v>21.77496</v>
       </c>
       <c r="S55" s="33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T55" t="s">
         <v>21</v>
       </c>
       <c r="U55" s="6">
-        <v>12492</v>
+        <v>7116</v>
       </c>
       <c r="V55" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
       <c r="X55" s="33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y55" s="6">
-        <v>1.1240000000000001</v>
+        <v>1.056</v>
       </c>
       <c r="Z55" s="6">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AA55" s="6">
-        <v>1460.1579999999999</v>
+        <v>845.83</v>
       </c>
       <c r="AB55" s="6">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AC55" s="6">
         <v>3.0000000000000001E-3</v>
@@ -3077,10 +2982,10 @@
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B56" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" s="6">
         <v>1</v>
@@ -3092,68 +2997,68 @@
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H56" s="6">
-        <v>84.6</v>
+        <v>464</v>
       </c>
       <c r="J56" s="33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K56" s="6">
-        <v>84.6</v>
+        <v>464</v>
       </c>
       <c r="M56" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N56" s="6">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="P56" s="33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q56" s="8">
         <f t="shared" si="8"/>
-        <v>1.6982999999999999</v>
+        <v>23.94144</v>
       </c>
       <c r="S56" s="33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T56" t="s">
         <v>21</v>
       </c>
       <c r="U56" s="6">
-        <v>555</v>
+        <v>7824</v>
       </c>
       <c r="V56" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
       <c r="X56" s="33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y56" s="6">
-        <v>8.0000000000000002E-3</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="Z56" s="6">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA56" s="6">
-        <v>65.930999999999997</v>
+        <v>930.02099999999996</v>
       </c>
       <c r="AB56" s="6">
-        <v>2.5999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AC56" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B57" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" s="6">
         <v>1</v>
@@ -3165,57 +3070,57 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H57" s="6">
-        <v>88</v>
+        <v>101.5</v>
       </c>
       <c r="J57" s="33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K57" s="6">
-        <v>88</v>
+        <v>101.5</v>
       </c>
       <c r="M57" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N57" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P57" s="33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q57" s="8">
         <f t="shared" si="8"/>
-        <v>36.677160000000001</v>
+        <v>38.22552000000001</v>
       </c>
       <c r="S57" s="33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T57" t="s">
         <v>21</v>
       </c>
       <c r="U57" s="6">
-        <v>11986</v>
+        <v>12492</v>
       </c>
       <c r="V57" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
       <c r="X57" s="33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y57" s="6">
-        <v>1.3009999999999999</v>
+        <v>1.1240000000000001</v>
       </c>
       <c r="Z57" s="6">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="6">
-        <v>1424.5930000000001</v>
+        <v>1460.1579999999999</v>
       </c>
       <c r="AB57" s="6">
-        <v>2.7E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AC57" s="6">
         <v>3.0000000000000001E-3</v>
@@ -3223,145 +3128,145 @@
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B58" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C58" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="6">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H58" s="6">
-        <v>650</v>
+        <v>84.6</v>
       </c>
       <c r="J58" s="33">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K58" s="6">
-        <v>650</v>
+        <v>84.6</v>
       </c>
       <c r="M58" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N58" s="6">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="P58" s="33">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q58" s="8">
         <f t="shared" si="8"/>
-        <v>23.494679999999999</v>
+        <v>1.6982999999999999</v>
       </c>
       <c r="S58" s="33">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T58" t="s">
         <v>21</v>
       </c>
       <c r="U58" s="6">
-        <v>7678</v>
+        <v>555</v>
       </c>
       <c r="V58" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
       <c r="X58" s="33">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y58" s="6">
-        <v>8.2000000000000003E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="Z58" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="6">
-        <v>912.65499999999997</v>
+        <v>65.930999999999997</v>
       </c>
       <c r="AB58" s="6">
-        <v>1.7999999999999999E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AC58" s="6">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B59" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C59" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H59" s="6">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="J59" s="33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K59" s="6">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="M59" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N59" s="6">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P59" s="33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q59" s="8">
         <f t="shared" si="8"/>
-        <v>31.606739999999999</v>
+        <v>36.677160000000001</v>
       </c>
       <c r="S59" s="33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T59" t="s">
         <v>21</v>
       </c>
       <c r="U59" s="6">
-        <v>10329</v>
+        <v>11986</v>
       </c>
       <c r="V59" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
       <c r="X59" s="33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y59" s="6">
-        <v>1.306</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="Z59" s="6">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AA59" s="6">
-        <v>1235.3320000000001</v>
+        <v>1424.5930000000001</v>
       </c>
       <c r="AB59" s="6">
-        <v>2.4E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AC59" s="6">
         <v>3.0000000000000001E-3</v>
@@ -3369,10 +3274,10 @@
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B60" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C60" s="6">
         <v>0</v>
@@ -3384,68 +3289,68 @@
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H60" s="6">
-        <v>154</v>
+        <v>650</v>
       </c>
       <c r="J60" s="33">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K60" s="6">
-        <v>154</v>
+        <v>650</v>
       </c>
       <c r="M60" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N60" s="6">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="P60" s="33">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q60" s="8">
         <f t="shared" si="8"/>
-        <v>38.996639999999999</v>
+        <v>23.494679999999999</v>
       </c>
       <c r="S60" s="33">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T60" t="s">
         <v>21</v>
       </c>
       <c r="U60" s="6">
-        <v>12744</v>
+        <v>7678</v>
       </c>
       <c r="V60" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
       <c r="X60" s="33">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y60" s="6">
-        <v>2.9769999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="Z60" s="6">
-        <v>8.0000000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA60" s="6">
-        <v>1514.692</v>
+        <v>912.65499999999997</v>
       </c>
       <c r="AB60" s="6">
-        <v>2.8000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AC60" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B61" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C61" s="6">
         <v>0</v>
@@ -3457,57 +3362,57 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H61" s="6">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="J61" s="33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K61" s="6">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="M61" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N61" s="6">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P61" s="33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q61" s="8">
         <f t="shared" si="8"/>
-        <v>35.954999999999998</v>
+        <v>31.606739999999999</v>
       </c>
       <c r="S61" s="33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T61" t="s">
         <v>21</v>
       </c>
       <c r="U61" s="6">
-        <v>11750</v>
+        <v>10329</v>
       </c>
       <c r="V61" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
       <c r="X61" s="33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y61" s="6">
-        <v>0.41199999999999998</v>
+        <v>1.306</v>
       </c>
       <c r="Z61" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="AA61" s="6">
-        <v>1397.9780000000001</v>
+        <v>1235.3320000000001</v>
       </c>
       <c r="AB61" s="6">
-        <v>2.5999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AC61" s="6">
         <v>3.0000000000000001E-3</v>
@@ -3515,10 +3420,10 @@
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B62" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C62" s="6">
         <v>0</v>
@@ -3530,68 +3435,68 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H62" s="6">
-        <v>1848</v>
+        <v>154</v>
       </c>
       <c r="J62" s="33">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K62" s="6">
-        <v>1848</v>
+        <v>154</v>
       </c>
       <c r="M62" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N62" s="6">
-        <v>277</v>
+        <v>23</v>
       </c>
       <c r="P62" s="33">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q62" s="8">
         <f t="shared" si="8"/>
-        <v>26.289359999999999</v>
+        <v>38.996639999999999</v>
       </c>
       <c r="S62" s="33">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U62" s="6">
-        <v>12171</v>
+        <v>12744</v>
       </c>
       <c r="V62" s="6">
         <f t="shared" si="9"/>
-        <v>2.16</v>
+        <v>3.06</v>
       </c>
       <c r="X62" s="33">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y62" s="6">
-        <v>2.74</v>
+        <v>2.9769999999999999</v>
       </c>
       <c r="Z62" s="6">
-        <v>0.53300000000000003</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AA62" s="6">
-        <v>2551.596</v>
+        <v>1514.692</v>
       </c>
       <c r="AB62" s="6">
-        <v>0.27400000000000002</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AC62" s="6">
-        <v>0.04</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C63" s="6">
         <v>0</v>
@@ -3603,54 +3508,54 @@
         <v>0</v>
       </c>
       <c r="G63" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H63" s="6">
-        <v>656.1</v>
+        <v>150</v>
       </c>
       <c r="J63" s="33">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K63" s="6">
-        <v>656.1</v>
+        <v>150</v>
       </c>
       <c r="M63" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N63" s="6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="P63" s="33">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q63" s="8">
         <f t="shared" si="8"/>
-        <v>34.819740000000003</v>
+        <v>35.954999999999998</v>
       </c>
       <c r="S63" s="33">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T63" t="s">
         <v>21</v>
       </c>
       <c r="U63" s="6">
-        <v>11379</v>
+        <v>11750</v>
       </c>
       <c r="V63" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
       <c r="X63" s="33">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y63" s="6">
-        <v>0.38900000000000001</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="Z63" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="AA63" s="6">
-        <v>1352.424</v>
+        <v>1397.9780000000001</v>
       </c>
       <c r="AB63" s="6">
         <v>2.5999999999999999E-2</v>
@@ -3661,156 +3566,156 @@
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B64" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C64" s="6">
         <v>0</v>
       </c>
       <c r="D64" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H64" s="6">
-        <v>50.3</v>
+        <v>1848</v>
       </c>
       <c r="J64" s="33">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K64" s="6">
-        <v>50.3</v>
+        <v>1848</v>
       </c>
       <c r="M64" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N64" s="6">
-        <v>8</v>
+        <v>277</v>
       </c>
       <c r="P64" s="33">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q64" s="8">
         <f t="shared" si="8"/>
-        <v>37.647179999999999</v>
+        <v>26.289359999999999</v>
       </c>
       <c r="S64" s="33">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T64" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U64" s="6">
-        <v>12303</v>
+        <v>12171</v>
       </c>
       <c r="V64" s="6">
         <f t="shared" si="9"/>
-        <v>3.06</v>
+        <v>2.16</v>
       </c>
       <c r="X64" s="33">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y64" s="6">
-        <v>3.8889999999999998</v>
+        <v>2.74</v>
       </c>
       <c r="Z64" s="6">
-        <v>3.9E-2</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="AA64" s="6">
-        <v>1436.3489999999999</v>
+        <v>2551.596</v>
       </c>
       <c r="AB64" s="6">
-        <v>2.7E-2</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="AC64" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B65" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C65" s="6">
         <v>0</v>
       </c>
       <c r="D65" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H65" s="6">
-        <v>67</v>
+        <v>656.1</v>
       </c>
       <c r="J65" s="33">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K65" s="6">
-        <v>67</v>
+        <v>656.1</v>
       </c>
       <c r="M65" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N65" s="6">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="P65" s="33">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q65" s="8">
         <f t="shared" si="8"/>
-        <v>25.404119999999999</v>
+        <v>34.819740000000003</v>
       </c>
       <c r="S65" s="33">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T65" t="s">
         <v>21</v>
       </c>
       <c r="U65" s="6">
-        <v>8302</v>
+        <v>11379</v>
       </c>
       <c r="V65" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
       <c r="X65" s="33">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y65" s="6">
-        <v>0.35699999999999998</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="Z65" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AA65" s="6">
-        <v>986.73699999999997</v>
+        <v>1352.424</v>
       </c>
       <c r="AB65" s="6">
-        <v>1.7000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AC65" s="6">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B66" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C66" s="6">
         <v>0</v>
@@ -3822,68 +3727,68 @@
         <v>1</v>
       </c>
       <c r="G66" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H66" s="6">
-        <v>257</v>
+        <v>50.3</v>
       </c>
       <c r="J66" s="33">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K66" s="6">
-        <v>257</v>
+        <v>50.3</v>
       </c>
       <c r="M66" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N66" s="6">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="P66" s="33">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q66" s="8">
         <f t="shared" si="8"/>
-        <v>23.453280000000003</v>
+        <v>37.647179999999999</v>
       </c>
       <c r="S66" s="33">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T66" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U66" s="6">
-        <v>10858</v>
+        <v>12303</v>
       </c>
       <c r="V66" s="6">
         <f t="shared" si="9"/>
-        <v>2.16</v>
+        <v>3.06</v>
       </c>
       <c r="X66" s="33">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y66" s="6">
-        <v>3.786</v>
+        <v>3.8889999999999998</v>
       </c>
       <c r="Z66" s="6">
-        <v>1.365</v>
+        <v>3.9E-2</v>
       </c>
       <c r="AA66" s="6">
-        <v>2277.605</v>
+        <v>1436.3489999999999</v>
       </c>
       <c r="AB66" s="6">
-        <v>0.249</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AC66" s="6">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B67" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C67" s="6">
         <v>0</v>
@@ -3895,79 +3800,68 @@
         <v>1</v>
       </c>
       <c r="G67" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H67" s="6">
-        <v>2269.6</v>
+        <v>67</v>
       </c>
       <c r="J67" s="33">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K67" s="6">
-        <v>2269.6</v>
+        <v>67</v>
       </c>
       <c r="M67" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N67" s="6">
-        <v>340</v>
+        <v>10</v>
       </c>
       <c r="P67" s="33">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q67" s="8">
         <f t="shared" si="8"/>
-        <v>23.647680000000001</v>
+        <v>25.404119999999999</v>
       </c>
       <c r="S67" s="33">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T67" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U67" s="6">
-        <v>10948</v>
+        <v>8302</v>
       </c>
       <c r="V67" s="6">
         <f t="shared" si="9"/>
-        <v>2.16</v>
+        <v>3.06</v>
       </c>
       <c r="X67" s="33">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y67" s="6">
-        <v>1.2689999999999999</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="Z67" s="6">
-        <v>0.40300000000000002</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA67" s="6">
-        <v>2246.4659999999999</v>
+        <v>986.73699999999997</v>
       </c>
       <c r="AB67" s="6">
-        <v>0.223</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AC67" s="6">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="AF67" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG67" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH67" s="41"/>
-      <c r="AI67" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ67" s="42"/>
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B68" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C68" s="6">
         <v>0</v>
@@ -3979,73 +3873,68 @@
         <v>1</v>
       </c>
       <c r="G68" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H68" s="6">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="J68" s="33">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K68" s="6">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="M68" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N68" s="6">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="P68" s="33">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q68" s="8">
         <f t="shared" si="8"/>
-        <v>223.99503999999999</v>
+        <v>23.453280000000003</v>
       </c>
       <c r="S68" s="33">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U68" s="6">
-        <v>17834</v>
+        <v>10858</v>
       </c>
       <c r="V68" s="6">
         <f t="shared" si="9"/>
-        <v>12.56</v>
+        <v>2.16</v>
       </c>
       <c r="X68" s="33">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y68" s="6">
-        <v>15.976000000000001</v>
+        <v>3.786</v>
       </c>
       <c r="Z68" s="6">
-        <v>9.0060000000000002</v>
+        <v>1.365</v>
       </c>
       <c r="AA68" s="6">
-        <v>2912.8049999999998</v>
+        <v>2277.605</v>
       </c>
       <c r="AB68" s="6">
-        <v>0.11799999999999999</v>
+        <v>0.249</v>
       </c>
       <c r="AC68" s="6">
-        <v>2.4E-2</v>
-      </c>
-      <c r="AF68" s="48"/>
-      <c r="AG68" s="43"/>
-      <c r="AH68" s="43"/>
-      <c r="AI68" s="43"/>
-      <c r="AJ68" s="44"/>
-    </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C69" s="6">
         <v>0</v>
@@ -4057,550 +3946,536 @@
         <v>1</v>
       </c>
       <c r="G69" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H69" s="6">
-        <v>398.3</v>
+        <v>2269.6</v>
       </c>
       <c r="J69" s="33">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K69" s="6">
-        <v>398.3</v>
+        <v>2269.6</v>
       </c>
       <c r="M69" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N69" s="6">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="P69" s="33">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q69" s="8">
         <f t="shared" si="8"/>
-        <v>36.931139999999999</v>
+        <v>23.647680000000001</v>
       </c>
       <c r="S69" s="33">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T69" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U69" s="6">
-        <v>12069</v>
+        <v>10948</v>
       </c>
       <c r="V69" s="6">
         <f t="shared" si="9"/>
-        <v>3.06</v>
+        <v>2.16</v>
       </c>
       <c r="X69" s="33">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y69" s="6">
-        <v>2.1019999999999999</v>
+        <v>1.2689999999999999</v>
       </c>
       <c r="Z69" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="AA69" s="6">
-        <v>1434.461</v>
+        <v>2246.4659999999999</v>
       </c>
       <c r="AB69" s="6">
-        <v>2.7E-2</v>
+        <v>0.223</v>
       </c>
       <c r="AC69" s="6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>10</v>
-      </c>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AF69" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG69" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH69" s="39"/>
+      <c r="AI69" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ69" s="48"/>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" s="11">
-        <v>21</v>
+        <v>75</v>
+      </c>
+      <c r="B70" s="3">
+        <v>19</v>
       </c>
       <c r="C70" s="6">
         <v>0</v>
       </c>
       <c r="D70" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" s="6">
-        <v>0</v>
-      </c>
-      <c r="G70" s="11">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
+        <v>19</v>
       </c>
       <c r="H70" s="6">
-        <f>$G$4*AI70</f>
-        <v>28.1</v>
+        <v>27</v>
       </c>
       <c r="J70" s="33">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K70" s="6">
-        <f>$G$4*AL70</f>
-        <v>0</v>
-      </c>
-      <c r="M70" s="11">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="M70" s="3">
+        <v>19</v>
       </c>
       <c r="N70" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P70" s="33">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q70" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>223.99503999999999</v>
       </c>
       <c r="S70" s="33">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="T70" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="U70" s="6">
-        <v>0</v>
+        <v>17834</v>
       </c>
       <c r="V70" s="6">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>12.56</v>
       </c>
       <c r="X70" s="33">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y70" s="6">
-        <v>0</v>
+        <v>15.976000000000001</v>
       </c>
       <c r="Z70" s="6">
-        <v>0</v>
+        <v>9.0060000000000002</v>
       </c>
       <c r="AA70" s="6">
-        <v>0</v>
+        <v>2912.8049999999998</v>
       </c>
       <c r="AB70" s="6">
-        <v>0</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="AC70" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE70" s="17">
-        <v>21</v>
-      </c>
-      <c r="AF70" s="18">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="AG70" s="49">
-        <v>72154</v>
-      </c>
-      <c r="AH70" s="49"/>
-      <c r="AI70" s="45">
-        <v>28.1</v>
-      </c>
-      <c r="AJ70" s="46"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="AF70" s="38"/>
+      <c r="AG70" s="40"/>
+      <c r="AH70" s="40"/>
+      <c r="AI70" s="40"/>
+      <c r="AJ70" s="49"/>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" s="11">
-        <v>22</v>
+        <v>69</v>
+      </c>
+      <c r="B71" s="3">
+        <v>20</v>
       </c>
       <c r="C71" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" s="6">
         <v>0</v>
       </c>
       <c r="E71" s="6">
-        <v>0</v>
-      </c>
-      <c r="G71" s="11">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
+        <v>20</v>
       </c>
       <c r="H71" s="6">
-        <f t="shared" ref="H71:H89" si="10">$G$4*AI71</f>
-        <v>25</v>
+        <v>398.3</v>
       </c>
       <c r="J71" s="33">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" ref="K71:K89" si="11">$G$4*AL71</f>
-        <v>0</v>
-      </c>
-      <c r="M71" s="11">
-        <v>22</v>
+        <v>398.3</v>
+      </c>
+      <c r="M71" s="3">
+        <v>20</v>
       </c>
       <c r="N71" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="P71" s="33">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q71" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>36.931139999999999</v>
       </c>
       <c r="S71" s="33">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T71" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="U71" s="6">
-        <v>0</v>
+        <v>12069</v>
       </c>
       <c r="V71" s="6">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>3.06</v>
       </c>
       <c r="X71" s="33">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y71" s="6">
-        <v>0</v>
+        <v>2.1019999999999999</v>
       </c>
       <c r="Z71" s="6">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AA71" s="6">
-        <v>0</v>
+        <v>1434.461</v>
       </c>
       <c r="AB71" s="6">
-        <v>0</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AC71" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE71" s="19">
-        <v>22</v>
-      </c>
-      <c r="AF71" s="20">
-        <v>0.31</v>
-      </c>
-      <c r="AG71" s="39">
-        <v>67811</v>
-      </c>
-      <c r="AH71" s="39"/>
-      <c r="AI71" s="35">
-        <v>25</v>
-      </c>
-      <c r="AJ71" s="36"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="11">
+        <v>21</v>
+      </c>
+      <c r="C72" s="6">
+        <v>0</v>
+      </c>
+      <c r="D72" s="6">
+        <v>1</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+      <c r="G72" s="11">
+        <v>21</v>
+      </c>
+      <c r="H72" s="6">
+        <f>$G$4*AI72</f>
+        <v>28.1</v>
+      </c>
+      <c r="J72" s="33">
+        <v>21</v>
+      </c>
+      <c r="K72" s="6">
+        <f>$G$4*AL72</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="11">
+        <v>21</v>
+      </c>
+      <c r="N72" s="6">
+        <v>0</v>
+      </c>
+      <c r="P72" s="33">
+        <v>21</v>
+      </c>
+      <c r="Q72" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="33">
+        <v>21</v>
+      </c>
+      <c r="T72" t="s">
+        <v>37</v>
+      </c>
+      <c r="U72" s="6">
+        <v>0</v>
+      </c>
+      <c r="V72" s="6">
+        <v>0</v>
+      </c>
+      <c r="X72" s="33">
+        <v>21</v>
+      </c>
+      <c r="Y72" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="17">
+        <v>21</v>
+      </c>
+      <c r="AF72" s="18">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="AG72" s="41">
+        <v>72154</v>
+      </c>
+      <c r="AH72" s="41"/>
+      <c r="AI72" s="50">
+        <v>28.1</v>
+      </c>
+      <c r="AJ72" s="51"/>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="11">
+        <v>22</v>
+      </c>
+      <c r="C73" s="6">
+        <v>1</v>
+      </c>
+      <c r="D73" s="6">
+        <v>0</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="G73" s="11">
+        <v>22</v>
+      </c>
+      <c r="H73" s="6">
+        <f t="shared" ref="H73:H91" si="10">$G$4*AI73</f>
+        <v>25</v>
+      </c>
+      <c r="J73" s="33">
+        <v>22</v>
+      </c>
+      <c r="K73" s="6">
+        <f t="shared" ref="K73:K91" si="11">$G$4*AL73</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="11">
+        <v>22</v>
+      </c>
+      <c r="N73" s="6">
+        <v>0</v>
+      </c>
+      <c r="P73" s="33">
+        <v>22</v>
+      </c>
+      <c r="Q73" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S73" s="33">
+        <v>22</v>
+      </c>
+      <c r="T73" t="s">
+        <v>37</v>
+      </c>
+      <c r="U73" s="6">
+        <v>0</v>
+      </c>
+      <c r="V73" s="6">
+        <v>0</v>
+      </c>
+      <c r="X73" s="33">
+        <v>22</v>
+      </c>
+      <c r="Y73" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="19">
+        <v>22</v>
+      </c>
+      <c r="AF73" s="20">
+        <v>0.31</v>
+      </c>
+      <c r="AG73" s="42">
+        <v>67811</v>
+      </c>
+      <c r="AH73" s="42"/>
+      <c r="AI73" s="43">
+        <v>25</v>
+      </c>
+      <c r="AJ73" s="44"/>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="11">
+      <c r="B74" s="11">
         <v>23</v>
       </c>
-      <c r="C72" s="6">
-        <v>1</v>
-      </c>
-      <c r="D72" s="6">
-        <v>0</v>
-      </c>
-      <c r="E72" s="6">
-        <v>0</v>
-      </c>
-      <c r="G72" s="11">
+      <c r="C74" s="6">
+        <v>1</v>
+      </c>
+      <c r="D74" s="6">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11">
         <v>23</v>
       </c>
-      <c r="H72" s="6">
+      <c r="H74" s="6">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="J72" s="33">
+      <c r="J74" s="33">
         <v>23</v>
       </c>
-      <c r="K72" s="6">
+      <c r="K74" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M72" s="11">
+      <c r="M74" s="11">
         <v>23</v>
       </c>
-      <c r="N72" s="6">
-        <v>0</v>
-      </c>
-      <c r="P72" s="33">
+      <c r="N74" s="6">
+        <v>0</v>
+      </c>
+      <c r="P74" s="33">
         <v>23</v>
       </c>
-      <c r="Q72" s="8">
+      <c r="Q74" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S72" s="33">
+      <c r="S74" s="33">
         <v>23</v>
       </c>
-      <c r="T72" t="s">
+      <c r="T74" t="s">
         <v>37</v>
       </c>
-      <c r="U72" s="6">
-        <v>0</v>
-      </c>
-      <c r="V72" s="6">
-        <v>0</v>
-      </c>
-      <c r="X72" s="33">
+      <c r="U74" s="6">
+        <v>0</v>
+      </c>
+      <c r="V74" s="6">
+        <v>0</v>
+      </c>
+      <c r="X74" s="33">
         <v>23</v>
       </c>
-      <c r="Y72" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB72" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC72" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE72" s="19">
+      <c r="Y74" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="19">
         <v>23</v>
       </c>
-      <c r="AF72" s="20">
+      <c r="AF74" s="20">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AG72" s="39">
+      <c r="AG74" s="42">
         <v>187455</v>
       </c>
-      <c r="AH72" s="39"/>
-      <c r="AI72" s="35">
+      <c r="AH74" s="42"/>
+      <c r="AI74" s="43">
         <v>70</v>
       </c>
-      <c r="AJ72" s="36"/>
-    </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="AJ74" s="44"/>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>40</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B75" s="11">
         <v>24</v>
       </c>
-      <c r="C73" s="6">
-        <v>0</v>
-      </c>
-      <c r="D73" s="6">
-        <v>0</v>
-      </c>
-      <c r="E73" s="6">
-        <v>1</v>
-      </c>
-      <c r="G73" s="11">
+      <c r="C75" s="6">
+        <v>0</v>
+      </c>
+      <c r="D75" s="6">
+        <v>0</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1</v>
+      </c>
+      <c r="G75" s="11">
         <v>24</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H75" s="6">
         <f t="shared" si="10"/>
         <v>30.6</v>
       </c>
-      <c r="J73" s="33">
+      <c r="J75" s="33">
         <v>24</v>
-      </c>
-      <c r="K73" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M73" s="11">
-        <v>24</v>
-      </c>
-      <c r="N73" s="6">
-        <v>0</v>
-      </c>
-      <c r="P73" s="33">
-        <v>24</v>
-      </c>
-      <c r="Q73" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S73" s="33">
-        <v>24</v>
-      </c>
-      <c r="T73" t="s">
-        <v>37</v>
-      </c>
-      <c r="U73" s="6">
-        <v>0</v>
-      </c>
-      <c r="V73" s="6">
-        <v>0</v>
-      </c>
-      <c r="X73" s="33">
-        <v>24</v>
-      </c>
-      <c r="Y73" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB73" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE73" s="19">
-        <v>24</v>
-      </c>
-      <c r="AF73" s="20">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="AG73" s="39">
-        <v>63266</v>
-      </c>
-      <c r="AH73" s="39"/>
-      <c r="AI73" s="35">
-        <v>30.6</v>
-      </c>
-      <c r="AJ73" s="36"/>
-    </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74" s="11">
-        <v>25</v>
-      </c>
-      <c r="C74" s="6">
-        <v>0</v>
-      </c>
-      <c r="D74" s="6">
-        <v>1</v>
-      </c>
-      <c r="E74" s="6">
-        <v>0</v>
-      </c>
-      <c r="G74" s="11">
-        <v>25</v>
-      </c>
-      <c r="H74" s="6">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="J74" s="33">
-        <v>25</v>
-      </c>
-      <c r="K74" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="11">
-        <v>25</v>
-      </c>
-      <c r="N74" s="6">
-        <v>0</v>
-      </c>
-      <c r="P74" s="33">
-        <v>25</v>
-      </c>
-      <c r="Q74" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S74" s="33">
-        <v>25</v>
-      </c>
-      <c r="T74" t="s">
-        <v>37</v>
-      </c>
-      <c r="U74" s="6">
-        <v>0</v>
-      </c>
-      <c r="V74" s="6">
-        <v>0</v>
-      </c>
-      <c r="X74" s="33">
-        <v>25</v>
-      </c>
-      <c r="Y74" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z74" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA74" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB74" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC74" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE74" s="19">
-        <v>25</v>
-      </c>
-      <c r="AF74" s="20">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="AG74" s="39">
-        <v>26553</v>
-      </c>
-      <c r="AH74" s="39"/>
-      <c r="AI74" s="35">
-        <v>10</v>
-      </c>
-      <c r="AJ74" s="36"/>
-    </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>42</v>
-      </c>
-      <c r="B75" s="11">
-        <v>26</v>
-      </c>
-      <c r="C75" s="6">
-        <v>0</v>
-      </c>
-      <c r="D75" s="6">
-        <v>1</v>
-      </c>
-      <c r="E75" s="6">
-        <v>0</v>
-      </c>
-      <c r="G75" s="11">
-        <v>26</v>
-      </c>
-      <c r="H75" s="6">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="J75" s="33">
-        <v>26</v>
       </c>
       <c r="K75" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M75" s="11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N75" s="6">
         <v>0</v>
       </c>
       <c r="P75" s="33">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q75" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S75" s="33">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T75" t="s">
         <v>37</v>
@@ -4612,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="33">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y75" s="6">
         <v>0</v>
@@ -4630,26 +4505,26 @@
         <v>0</v>
       </c>
       <c r="AE75" s="19">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF75" s="20">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AG75" s="39">
-        <v>24949</v>
-      </c>
-      <c r="AH75" s="39"/>
-      <c r="AI75" s="35">
-        <v>10</v>
-      </c>
-      <c r="AJ75" s="36"/>
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AG75" s="42">
+        <v>63266</v>
+      </c>
+      <c r="AH75" s="42"/>
+      <c r="AI75" s="43">
+        <v>30.6</v>
+      </c>
+      <c r="AJ75" s="44"/>
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B76" s="11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C76" s="6">
         <v>0</v>
@@ -4661,34 +4536,34 @@
         <v>0</v>
       </c>
       <c r="G76" s="11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H76" s="6">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J76" s="33">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K76" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M76" s="11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N76" s="6">
         <v>0</v>
       </c>
       <c r="P76" s="33">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q76" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S76" s="33">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T76" t="s">
         <v>37</v>
@@ -4700,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="33">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y76" s="6">
         <v>0</v>
@@ -4718,26 +4593,26 @@
         <v>0</v>
       </c>
       <c r="AE76" s="19">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF76" s="20">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="AG76" s="39">
-        <v>22870</v>
-      </c>
-      <c r="AH76" s="39"/>
-      <c r="AI76" s="35">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="AG76" s="42">
+        <v>26553</v>
+      </c>
+      <c r="AH76" s="42"/>
+      <c r="AI76" s="43">
         <v>10</v>
       </c>
-      <c r="AJ76" s="36"/>
+      <c r="AJ76" s="44"/>
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B77" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C77" s="6">
         <v>0</v>
@@ -4749,34 +4624,34 @@
         <v>0</v>
       </c>
       <c r="G77" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H77" s="6">
         <f t="shared" si="10"/>
-        <v>52.2</v>
+        <v>10</v>
       </c>
       <c r="J77" s="33">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K77" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M77" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N77" s="6">
         <v>0</v>
       </c>
       <c r="P77" s="33">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q77" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S77" s="33">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T77" t="s">
         <v>37</v>
@@ -4788,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="33">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y77" s="6">
         <v>0</v>
@@ -4806,26 +4681,26 @@
         <v>0</v>
       </c>
       <c r="AE77" s="19">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF77" s="20">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="AG77" s="39">
-        <v>139836</v>
-      </c>
-      <c r="AH77" s="39"/>
-      <c r="AI77" s="35">
-        <v>52.2</v>
-      </c>
-      <c r="AJ77" s="36"/>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AG77" s="42">
+        <v>24949</v>
+      </c>
+      <c r="AH77" s="42"/>
+      <c r="AI77" s="43">
+        <v>10</v>
+      </c>
+      <c r="AJ77" s="44"/>
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B78" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C78" s="6">
         <v>0</v>
@@ -4837,34 +4712,34 @@
         <v>0</v>
       </c>
       <c r="G78" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H78" s="6">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J78" s="33">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K78" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M78" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N78" s="6">
         <v>0</v>
       </c>
       <c r="P78" s="33">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q78" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S78" s="33">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T78" t="s">
         <v>37</v>
@@ -4876,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="33">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y78" s="6">
         <v>0</v>
@@ -4894,65 +4769,65 @@
         <v>0</v>
       </c>
       <c r="AE78" s="19">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF78" s="20">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="AG78" s="39">
-        <v>23515</v>
-      </c>
-      <c r="AH78" s="39"/>
-      <c r="AI78" s="35">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="AG78" s="42">
+        <v>22870</v>
+      </c>
+      <c r="AH78" s="42"/>
+      <c r="AI78" s="43">
         <v>10</v>
       </c>
-      <c r="AJ78" s="36"/>
+      <c r="AJ78" s="44"/>
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B79" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C79" s="6">
         <v>0</v>
       </c>
       <c r="D79" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H79" s="6">
         <f t="shared" si="10"/>
-        <v>20.2</v>
+        <v>52.2</v>
       </c>
       <c r="J79" s="33">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K79" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M79" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N79" s="6">
         <v>0</v>
       </c>
       <c r="P79" s="33">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q79" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S79" s="33">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T79" t="s">
         <v>37</v>
@@ -4964,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="X79" s="33">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y79" s="6">
         <v>0</v>
@@ -4982,65 +4857,65 @@
         <v>0</v>
       </c>
       <c r="AE79" s="19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF79" s="20">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AG79" s="39">
-        <v>49503</v>
-      </c>
-      <c r="AH79" s="39"/>
-      <c r="AI79" s="35">
-        <v>20.2</v>
-      </c>
-      <c r="AJ79" s="36"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="AG79" s="42">
+        <v>139836</v>
+      </c>
+      <c r="AH79" s="42"/>
+      <c r="AI79" s="43">
+        <v>52.2</v>
+      </c>
+      <c r="AJ79" s="44"/>
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B80" s="11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C80" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" s="6">
         <v>0</v>
       </c>
       <c r="G80" s="11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H80" s="6">
         <f t="shared" si="10"/>
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="J80" s="33">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K80" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M80" s="11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N80" s="6">
         <v>0</v>
       </c>
       <c r="P80" s="33">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q80" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S80" s="33">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T80" t="s">
         <v>37</v>
@@ -5052,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="X80" s="33">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Y80" s="6">
         <v>0</v>
@@ -5070,65 +4945,65 @@
         <v>0</v>
       </c>
       <c r="AE80" s="19">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AF80" s="20">
-        <v>0.307</v>
-      </c>
-      <c r="AG80" s="39">
-        <v>188420</v>
-      </c>
-      <c r="AH80" s="39"/>
-      <c r="AI80" s="35">
-        <v>70</v>
-      </c>
-      <c r="AJ80" s="36"/>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="AG80" s="42">
+        <v>23515</v>
+      </c>
+      <c r="AH80" s="42"/>
+      <c r="AI80" s="43">
+        <v>10</v>
+      </c>
+      <c r="AJ80" s="44"/>
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B81" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C81" s="6">
         <v>0</v>
       </c>
       <c r="D81" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H81" s="6">
         <f t="shared" si="10"/>
-        <v>10.5</v>
+        <v>20.2</v>
       </c>
       <c r="J81" s="33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K81" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M81" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N81" s="6">
         <v>0</v>
       </c>
       <c r="P81" s="33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q81" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S81" s="33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T81" t="s">
         <v>37</v>
@@ -5140,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="X81" s="33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y81" s="6">
         <v>0</v>
@@ -5158,65 +5033,65 @@
         <v>0</v>
       </c>
       <c r="AE81" s="19">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF81" s="20">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="AG81" s="39">
-        <v>26573</v>
-      </c>
-      <c r="AH81" s="39"/>
-      <c r="AI81" s="35">
-        <v>10.5</v>
-      </c>
-      <c r="AJ81" s="36"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AG81" s="42">
+        <v>49503</v>
+      </c>
+      <c r="AH81" s="42"/>
+      <c r="AI81" s="43">
+        <v>20.2</v>
+      </c>
+      <c r="AJ81" s="44"/>
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B82" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C82" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" s="6">
         <v>0</v>
       </c>
       <c r="G82" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H82" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="J82" s="33">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K82" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M82" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N82" s="6">
         <v>0</v>
       </c>
       <c r="P82" s="33">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q82" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S82" s="33">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T82" t="s">
         <v>37</v>
@@ -5228,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="X82" s="33">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Y82" s="6">
         <v>0</v>
@@ -5246,65 +5121,65 @@
         <v>0</v>
       </c>
       <c r="AE82" s="19">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AF82" s="20">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="AG82" s="39">
-        <v>25253</v>
-      </c>
-      <c r="AH82" s="39"/>
-      <c r="AI82" s="35">
-        <v>10</v>
-      </c>
-      <c r="AJ82" s="36"/>
+        <v>0.307</v>
+      </c>
+      <c r="AG82" s="42">
+        <v>188420</v>
+      </c>
+      <c r="AH82" s="42"/>
+      <c r="AI82" s="43">
+        <v>70</v>
+      </c>
+      <c r="AJ82" s="44"/>
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B83" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C83" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
       </c>
       <c r="G83" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H83" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J83" s="33">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K83" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M83" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N83" s="6">
         <v>0</v>
       </c>
       <c r="P83" s="33">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q83" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S83" s="33">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T83" t="s">
         <v>37</v>
@@ -5316,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="X83" s="33">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y83" s="6">
         <v>0</v>
@@ -5334,65 +5209,65 @@
         <v>0</v>
       </c>
       <c r="AE83" s="19">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF83" s="20">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="AG83" s="39">
-        <v>17610</v>
-      </c>
-      <c r="AH83" s="39"/>
-      <c r="AI83" s="35">
-        <v>10</v>
-      </c>
-      <c r="AJ83" s="36"/>
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="AG83" s="42">
+        <v>26573</v>
+      </c>
+      <c r="AH83" s="42"/>
+      <c r="AI83" s="43">
+        <v>10.5</v>
+      </c>
+      <c r="AJ83" s="44"/>
     </row>
     <row r="84" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B84" s="11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C84" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" s="6">
         <v>0</v>
       </c>
       <c r="G84" s="11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H84" s="6">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J84" s="33">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K84" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M84" s="11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N84" s="6">
         <v>0</v>
       </c>
       <c r="P84" s="33">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q84" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S84" s="33">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T84" t="s">
         <v>37</v>
@@ -5404,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="X84" s="33">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Y84" s="6">
         <v>0</v>
@@ -5422,26 +5297,26 @@
         <v>0</v>
       </c>
       <c r="AE84" s="19">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AF84" s="20">
-        <v>0.221</v>
-      </c>
-      <c r="AG84" s="39">
-        <v>19372</v>
-      </c>
-      <c r="AH84" s="39"/>
-      <c r="AI84" s="35">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="AG84" s="42">
+        <v>25253</v>
+      </c>
+      <c r="AH84" s="42"/>
+      <c r="AI84" s="43">
         <v>10</v>
       </c>
-      <c r="AJ84" s="36"/>
+      <c r="AJ84" s="44"/>
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B85" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C85" s="6">
         <v>1</v>
@@ -5453,34 +5328,34 @@
         <v>0</v>
       </c>
       <c r="G85" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H85" s="6">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J85" s="33">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K85" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M85" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N85" s="6">
         <v>0</v>
       </c>
       <c r="P85" s="33">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q85" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S85" s="33">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T85" t="s">
         <v>37</v>
@@ -5492,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="X85" s="33">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y85" s="6">
         <v>0</v>
@@ -5510,26 +5385,26 @@
         <v>0</v>
       </c>
       <c r="AE85" s="19">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF85" s="20">
-        <v>0.216</v>
-      </c>
-      <c r="AG85" s="39">
-        <v>18939</v>
-      </c>
-      <c r="AH85" s="39"/>
-      <c r="AI85" s="35">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="AG85" s="42">
+        <v>17610</v>
+      </c>
+      <c r="AH85" s="42"/>
+      <c r="AI85" s="43">
         <v>10</v>
       </c>
-      <c r="AJ85" s="36"/>
+      <c r="AJ85" s="44"/>
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B86" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C86" s="6">
         <v>1</v>
@@ -5541,34 +5416,34 @@
         <v>0</v>
       </c>
       <c r="G86" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H86" s="6">
         <f t="shared" si="10"/>
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="J86" s="33">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K86" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M86" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N86" s="6">
         <v>0</v>
       </c>
       <c r="P86" s="33">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q86" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S86" s="33">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T86" t="s">
         <v>37</v>
@@ -5580,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="X86" s="33">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y86" s="6">
         <v>0</v>
@@ -5598,65 +5473,65 @@
         <v>0</v>
       </c>
       <c r="AE86" s="19">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF86" s="20">
-        <v>0.23</v>
-      </c>
-      <c r="AG86" s="39">
-        <v>20382</v>
-      </c>
-      <c r="AH86" s="39"/>
-      <c r="AI86" s="35">
-        <v>10.1</v>
-      </c>
-      <c r="AJ86" s="36"/>
+        <v>0.221</v>
+      </c>
+      <c r="AG86" s="42">
+        <v>19372</v>
+      </c>
+      <c r="AH86" s="42"/>
+      <c r="AI86" s="43">
+        <v>10</v>
+      </c>
+      <c r="AJ86" s="44"/>
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B87" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C87" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" s="6">
         <v>0</v>
       </c>
       <c r="E87" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H87" s="6">
         <f t="shared" si="10"/>
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="J87" s="33">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K87" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M87" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N87" s="6">
         <v>0</v>
       </c>
       <c r="P87" s="33">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q87" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S87" s="33">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T87" t="s">
         <v>37</v>
@@ -5668,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="X87" s="33">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y87" s="6">
         <v>0</v>
@@ -5686,65 +5561,65 @@
         <v>0</v>
       </c>
       <c r="AE87" s="19">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF87" s="20">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="AG87" s="39">
-        <v>19968</v>
-      </c>
-      <c r="AH87" s="39"/>
-      <c r="AI87" s="35">
-        <v>10.1</v>
-      </c>
-      <c r="AJ87" s="36"/>
+        <v>0.216</v>
+      </c>
+      <c r="AG87" s="42">
+        <v>18939</v>
+      </c>
+      <c r="AH87" s="42"/>
+      <c r="AI87" s="43">
+        <v>10</v>
+      </c>
+      <c r="AJ87" s="44"/>
     </row>
     <row r="88" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B88" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C88" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" s="6">
         <v>0</v>
       </c>
       <c r="G88" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H88" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="J88" s="33">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K88" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M88" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N88" s="6">
         <v>0</v>
       </c>
       <c r="P88" s="33">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q88" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S88" s="33">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T88" t="s">
         <v>37</v>
@@ -5756,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="33">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y88" s="6">
         <v>0</v>
@@ -5774,65 +5649,65 @@
         <v>0</v>
       </c>
       <c r="AE88" s="19">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AF88" s="20">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="AG88" s="39">
-        <v>23240</v>
-      </c>
-      <c r="AH88" s="39"/>
-      <c r="AI88" s="35">
-        <v>10</v>
-      </c>
-      <c r="AJ88" s="36"/>
+        <v>0.23</v>
+      </c>
+      <c r="AG88" s="42">
+        <v>20382</v>
+      </c>
+      <c r="AH88" s="42"/>
+      <c r="AI88" s="43">
+        <v>10.1</v>
+      </c>
+      <c r="AJ88" s="44"/>
     </row>
     <row r="89" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B89" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C89" s="6">
         <v>0</v>
       </c>
       <c r="D89" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H89" s="6">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>10.1</v>
       </c>
       <c r="J89" s="33">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K89" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M89" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N89" s="6">
         <v>0</v>
       </c>
       <c r="P89" s="33">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q89" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S89" s="33">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T89" t="s">
         <v>37</v>
@@ -5844,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="X89" s="33">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y89" s="6">
         <v>0</v>
@@ -5861,27 +5736,27 @@
       <c r="AC89" s="6">
         <v>0</v>
       </c>
-      <c r="AE89" s="21">
-        <v>40</v>
-      </c>
-      <c r="AF89" s="22">
-        <v>0.254</v>
-      </c>
-      <c r="AG89" s="40">
-        <v>26709</v>
-      </c>
-      <c r="AH89" s="40"/>
-      <c r="AI89" s="37">
-        <v>12</v>
-      </c>
-      <c r="AJ89" s="38"/>
+      <c r="AE89" s="19">
+        <v>38</v>
+      </c>
+      <c r="AF89" s="20">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="AG89" s="42">
+        <v>19968</v>
+      </c>
+      <c r="AH89" s="42"/>
+      <c r="AI89" s="43">
+        <v>10.1</v>
+      </c>
+      <c r="AJ89" s="44"/>
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="23">
-        <v>41</v>
+        <v>55</v>
+      </c>
+      <c r="B90" s="11">
+        <v>39</v>
       </c>
       <c r="C90" s="6">
         <v>0</v>
@@ -5892,33 +5767,35 @@
       <c r="E90" s="6">
         <v>0</v>
       </c>
-      <c r="G90" s="23">
-        <v>41</v>
+      <c r="G90" s="11">
+        <v>39</v>
       </c>
       <c r="H90" s="6">
-        <v>10000</v>
+        <f t="shared" si="10"/>
+        <v>10</v>
       </c>
       <c r="J90" s="33">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K90" s="6">
-        <v>0</v>
-      </c>
-      <c r="M90" s="23">
-        <v>41</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="11">
+        <v>39</v>
       </c>
       <c r="N90" s="6">
         <v>0</v>
       </c>
       <c r="P90" s="33">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q90" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S90" s="33">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T90" t="s">
         <v>37</v>
@@ -5930,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="X90" s="33">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Y90" s="6">
         <v>0</v>
@@ -5947,53 +5824,69 @@
       <c r="AC90" s="6">
         <v>0</v>
       </c>
+      <c r="AE90" s="19">
+        <v>39</v>
+      </c>
+      <c r="AF90" s="20">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="AG90" s="42">
+        <v>23240</v>
+      </c>
+      <c r="AH90" s="42"/>
+      <c r="AI90" s="43">
+        <v>10</v>
+      </c>
+      <c r="AJ90" s="44"/>
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>84</v>
-      </c>
-      <c r="B91" s="23">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="B91" s="11">
+        <v>40</v>
       </c>
       <c r="C91" s="6">
         <v>0</v>
       </c>
       <c r="D91" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="6">
-        <v>1</v>
-      </c>
-      <c r="G91" s="23">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="G91" s="11">
+        <v>40</v>
       </c>
       <c r="H91" s="6">
-        <v>10000</v>
+        <f t="shared" si="10"/>
+        <v>12</v>
       </c>
       <c r="J91" s="33">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K91" s="6">
-        <v>10000</v>
-      </c>
-      <c r="M91" s="23">
-        <v>42</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="11">
+        <v>40</v>
       </c>
       <c r="N91" s="6">
         <v>0</v>
       </c>
       <c r="P91" s="33">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q91" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S91" s="33">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T91" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="U91" s="6">
         <v>0</v>
@@ -6002,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="X91" s="33">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y91" s="6">
         <v>0</v>
@@ -6019,13 +5912,27 @@
       <c r="AC91" s="6">
         <v>0</v>
       </c>
+      <c r="AE91" s="21">
+        <v>40</v>
+      </c>
+      <c r="AF91" s="22">
+        <v>0.254</v>
+      </c>
+      <c r="AG91" s="47">
+        <v>26709</v>
+      </c>
+      <c r="AH91" s="47"/>
+      <c r="AI91" s="45">
+        <v>12</v>
+      </c>
+      <c r="AJ91" s="46"/>
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>104</v>
-      </c>
-      <c r="B92" s="30">
-        <v>43</v>
+        <v>83</v>
+      </c>
+      <c r="B92" s="23">
+        <v>41</v>
       </c>
       <c r="C92" s="6">
         <v>0</v>
@@ -6036,61 +5943,267 @@
       <c r="E92" s="6">
         <v>0</v>
       </c>
-      <c r="G92" s="30">
-        <v>43</v>
+      <c r="G92" s="23">
+        <v>41</v>
       </c>
       <c r="H92" s="6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J92" s="33">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K92" s="6">
         <v>0</v>
       </c>
-      <c r="M92" s="30">
-        <v>43</v>
+      <c r="M92" s="23">
+        <v>41</v>
       </c>
       <c r="N92" s="6">
         <v>0</v>
       </c>
       <c r="P92" s="33">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q92" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S92" s="33">
+        <v>41</v>
+      </c>
+      <c r="T92" t="s">
+        <v>37</v>
+      </c>
+      <c r="U92" s="6">
+        <v>0</v>
+      </c>
+      <c r="V92" s="6">
+        <v>0</v>
+      </c>
+      <c r="X92" s="33">
+        <v>41</v>
+      </c>
+      <c r="Y92" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" s="23">
+        <v>42</v>
+      </c>
+      <c r="C93" s="6">
+        <v>0</v>
+      </c>
+      <c r="D93" s="6">
+        <v>0</v>
+      </c>
+      <c r="E93" s="6">
+        <v>1</v>
+      </c>
+      <c r="G93" s="23">
+        <v>42</v>
+      </c>
+      <c r="H93" s="6">
+        <v>10000</v>
+      </c>
+      <c r="J93" s="33">
+        <v>42</v>
+      </c>
+      <c r="K93" s="6">
+        <v>10000</v>
+      </c>
+      <c r="M93" s="23">
+        <v>42</v>
+      </c>
+      <c r="N93" s="6">
+        <v>0</v>
+      </c>
+      <c r="P93" s="33">
+        <v>42</v>
+      </c>
+      <c r="Q93" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S93" s="33">
+        <v>42</v>
+      </c>
+      <c r="T93" t="s">
+        <v>85</v>
+      </c>
+      <c r="U93" s="6">
+        <v>0</v>
+      </c>
+      <c r="V93" s="6">
+        <v>0</v>
+      </c>
+      <c r="X93" s="33">
+        <v>42</v>
+      </c>
+      <c r="Y93" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="30">
         <v>43</v>
       </c>
-      <c r="U92" s="6">
-        <v>0</v>
-      </c>
-      <c r="V92" s="6">
-        <v>0</v>
-      </c>
-      <c r="X92" s="33">
+      <c r="C94" s="6">
+        <v>0</v>
+      </c>
+      <c r="D94" s="6">
+        <v>1</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0</v>
+      </c>
+      <c r="G94" s="30">
         <v>43</v>
       </c>
-      <c r="Y92" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z92" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA92" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB92" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC92" s="6">
+      <c r="H94" s="6">
+        <v>0</v>
+      </c>
+      <c r="J94" s="33">
+        <v>43</v>
+      </c>
+      <c r="K94" s="6">
+        <v>0</v>
+      </c>
+      <c r="M94" s="30">
+        <v>43</v>
+      </c>
+      <c r="N94" s="6">
+        <v>0</v>
+      </c>
+      <c r="P94" s="33">
+        <v>43</v>
+      </c>
+      <c r="Q94" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S94" s="33">
+        <v>43</v>
+      </c>
+      <c r="U94" s="6">
+        <v>0</v>
+      </c>
+      <c r="V94" s="6">
+        <v>0</v>
+      </c>
+      <c r="X94" s="33">
+        <v>43</v>
+      </c>
+      <c r="Y94" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="73">
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="AI89:AJ89"/>
+    <mergeCell ref="AI90:AJ90"/>
+    <mergeCell ref="AI91:AJ91"/>
+    <mergeCell ref="AI84:AJ84"/>
+    <mergeCell ref="AI85:AJ85"/>
+    <mergeCell ref="AI86:AJ86"/>
+    <mergeCell ref="AI87:AJ87"/>
+    <mergeCell ref="AI88:AJ88"/>
+    <mergeCell ref="AG90:AH90"/>
+    <mergeCell ref="AG91:AH91"/>
+    <mergeCell ref="AI69:AJ70"/>
+    <mergeCell ref="AI72:AJ72"/>
+    <mergeCell ref="AI73:AJ73"/>
+    <mergeCell ref="AI74:AJ74"/>
+    <mergeCell ref="AI75:AJ75"/>
+    <mergeCell ref="AI76:AJ76"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AI78:AJ78"/>
+    <mergeCell ref="AI79:AJ79"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="AI81:AJ81"/>
+    <mergeCell ref="AI82:AJ82"/>
+    <mergeCell ref="AI83:AJ83"/>
+    <mergeCell ref="AG85:AH85"/>
+    <mergeCell ref="AG86:AH86"/>
+    <mergeCell ref="AG87:AH87"/>
+    <mergeCell ref="AG88:AH88"/>
+    <mergeCell ref="AG89:AH89"/>
+    <mergeCell ref="AG80:AH80"/>
+    <mergeCell ref="AG81:AH81"/>
+    <mergeCell ref="AG82:AH82"/>
+    <mergeCell ref="AG83:AH83"/>
+    <mergeCell ref="AG84:AH84"/>
+    <mergeCell ref="AG75:AH75"/>
+    <mergeCell ref="AG76:AH76"/>
+    <mergeCell ref="AG77:AH77"/>
+    <mergeCell ref="AG78:AH78"/>
+    <mergeCell ref="AG79:AH79"/>
+    <mergeCell ref="AF69:AF70"/>
+    <mergeCell ref="AG69:AH70"/>
+    <mergeCell ref="AG72:AH72"/>
+    <mergeCell ref="AG73:AH73"/>
+    <mergeCell ref="AG74:AH74"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="I11:K11"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="S8:U8"/>
@@ -6100,67 +6213,8 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="N5:P5"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="AF67:AF68"/>
-    <mergeCell ref="AG67:AH68"/>
-    <mergeCell ref="AG70:AH70"/>
-    <mergeCell ref="AG71:AH71"/>
-    <mergeCell ref="AG72:AH72"/>
-    <mergeCell ref="AG73:AH73"/>
-    <mergeCell ref="AG74:AH74"/>
-    <mergeCell ref="AG75:AH75"/>
-    <mergeCell ref="AG76:AH76"/>
-    <mergeCell ref="AG77:AH77"/>
-    <mergeCell ref="AG85:AH85"/>
-    <mergeCell ref="AG86:AH86"/>
-    <mergeCell ref="AG87:AH87"/>
-    <mergeCell ref="AG78:AH78"/>
-    <mergeCell ref="AG79:AH79"/>
-    <mergeCell ref="AG80:AH80"/>
-    <mergeCell ref="AG81:AH81"/>
-    <mergeCell ref="AG82:AH82"/>
-    <mergeCell ref="AI79:AJ79"/>
-    <mergeCell ref="AI80:AJ80"/>
-    <mergeCell ref="AI81:AJ81"/>
-    <mergeCell ref="AG83:AH83"/>
-    <mergeCell ref="AG84:AH84"/>
-    <mergeCell ref="AI74:AJ74"/>
-    <mergeCell ref="AI75:AJ75"/>
-    <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AI78:AJ78"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="AI87:AJ87"/>
-    <mergeCell ref="AI88:AJ88"/>
-    <mergeCell ref="AI89:AJ89"/>
-    <mergeCell ref="AI82:AJ82"/>
-    <mergeCell ref="AI83:AJ83"/>
-    <mergeCell ref="AI84:AJ84"/>
-    <mergeCell ref="AI85:AJ85"/>
-    <mergeCell ref="AI86:AJ86"/>
-    <mergeCell ref="AG88:AH88"/>
-    <mergeCell ref="AG89:AH89"/>
-    <mergeCell ref="AI67:AJ68"/>
-    <mergeCell ref="AI70:AJ70"/>
-    <mergeCell ref="AI71:AJ71"/>
-    <mergeCell ref="AI72:AJ72"/>
-    <mergeCell ref="AI73:AJ73"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -642,27 +642,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -675,10 +654,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -688,6 +676,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2396,17 +2396,17 @@
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
       <c r="F42" s="2"/>
-      <c r="H42" s="36" t="s">
+      <c r="H42" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
       <c r="O42" s="4"/>
@@ -2629,11 +2629,11 @@
       <c r="AD49" s="12"/>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
       <c r="U50" t="s">
         <v>17</v>
       </c>
@@ -4001,17 +4001,17 @@
       <c r="AC69" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AF69" s="37" t="s">
+      <c r="AF69" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="AG69" s="39" t="s">
+      <c r="AG69" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="AH69" s="39"/>
-      <c r="AI69" s="39" t="s">
+      <c r="AH69" s="42"/>
+      <c r="AI69" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="AJ69" s="48"/>
+      <c r="AJ69" s="43"/>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
@@ -4085,11 +4085,11 @@
       <c r="AC70" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="AF70" s="38"/>
-      <c r="AG70" s="40"/>
-      <c r="AH70" s="40"/>
-      <c r="AI70" s="40"/>
-      <c r="AJ70" s="49"/>
+      <c r="AF70" s="49"/>
+      <c r="AG70" s="44"/>
+      <c r="AH70" s="44"/>
+      <c r="AI70" s="44"/>
+      <c r="AJ70" s="45"/>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
@@ -4246,14 +4246,14 @@
       <c r="AF72" s="18">
         <v>0.29299999999999998</v>
       </c>
-      <c r="AG72" s="41">
+      <c r="AG72" s="50">
         <v>72154</v>
       </c>
-      <c r="AH72" s="41"/>
-      <c r="AI72" s="50">
+      <c r="AH72" s="50"/>
+      <c r="AI72" s="46">
         <v>28.1</v>
       </c>
-      <c r="AJ72" s="51"/>
+      <c r="AJ72" s="47"/>
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
@@ -4334,14 +4334,14 @@
       <c r="AF73" s="20">
         <v>0.31</v>
       </c>
-      <c r="AG73" s="42">
+      <c r="AG73" s="40">
         <v>67811</v>
       </c>
-      <c r="AH73" s="42"/>
-      <c r="AI73" s="43">
+      <c r="AH73" s="40"/>
+      <c r="AI73" s="36">
         <v>25</v>
       </c>
-      <c r="AJ73" s="44"/>
+      <c r="AJ73" s="37"/>
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
@@ -4422,14 +4422,14 @@
       <c r="AF74" s="20">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AG74" s="42">
+      <c r="AG74" s="40">
         <v>187455</v>
       </c>
-      <c r="AH74" s="42"/>
-      <c r="AI74" s="43">
+      <c r="AH74" s="40"/>
+      <c r="AI74" s="36">
         <v>70</v>
       </c>
-      <c r="AJ74" s="44"/>
+      <c r="AJ74" s="37"/>
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
@@ -4510,14 +4510,14 @@
       <c r="AF75" s="20">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AG75" s="42">
+      <c r="AG75" s="40">
         <v>63266</v>
       </c>
-      <c r="AH75" s="42"/>
-      <c r="AI75" s="43">
+      <c r="AH75" s="40"/>
+      <c r="AI75" s="36">
         <v>30.6</v>
       </c>
-      <c r="AJ75" s="44"/>
+      <c r="AJ75" s="37"/>
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
@@ -4598,14 +4598,14 @@
       <c r="AF76" s="20">
         <v>0.30299999999999999</v>
       </c>
-      <c r="AG76" s="42">
+      <c r="AG76" s="40">
         <v>26553</v>
       </c>
-      <c r="AH76" s="42"/>
-      <c r="AI76" s="43">
+      <c r="AH76" s="40"/>
+      <c r="AI76" s="36">
         <v>10</v>
       </c>
-      <c r="AJ76" s="44"/>
+      <c r="AJ76" s="37"/>
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
@@ -4686,14 +4686,14 @@
       <c r="AF77" s="20">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AG77" s="42">
+      <c r="AG77" s="40">
         <v>24949</v>
       </c>
-      <c r="AH77" s="42"/>
-      <c r="AI77" s="43">
+      <c r="AH77" s="40"/>
+      <c r="AI77" s="36">
         <v>10</v>
       </c>
-      <c r="AJ77" s="44"/>
+      <c r="AJ77" s="37"/>
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
@@ -4774,14 +4774,14 @@
       <c r="AF78" s="20">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AG78" s="42">
+      <c r="AG78" s="40">
         <v>22870</v>
       </c>
-      <c r="AH78" s="42"/>
-      <c r="AI78" s="43">
+      <c r="AH78" s="40"/>
+      <c r="AI78" s="36">
         <v>10</v>
       </c>
-      <c r="AJ78" s="44"/>
+      <c r="AJ78" s="37"/>
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
@@ -4862,14 +4862,14 @@
       <c r="AF79" s="20">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AG79" s="42">
+      <c r="AG79" s="40">
         <v>139836</v>
       </c>
-      <c r="AH79" s="42"/>
-      <c r="AI79" s="43">
+      <c r="AH79" s="40"/>
+      <c r="AI79" s="36">
         <v>52.2</v>
       </c>
-      <c r="AJ79" s="44"/>
+      <c r="AJ79" s="37"/>
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
@@ -4950,14 +4950,14 @@
       <c r="AF80" s="20">
         <v>0.26800000000000002</v>
       </c>
-      <c r="AG80" s="42">
+      <c r="AG80" s="40">
         <v>23515</v>
       </c>
-      <c r="AH80" s="42"/>
-      <c r="AI80" s="43">
+      <c r="AH80" s="40"/>
+      <c r="AI80" s="36">
         <v>10</v>
       </c>
-      <c r="AJ80" s="44"/>
+      <c r="AJ80" s="37"/>
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -5038,14 +5038,14 @@
       <c r="AF81" s="20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AG81" s="42">
+      <c r="AG81" s="40">
         <v>49503</v>
       </c>
-      <c r="AH81" s="42"/>
-      <c r="AI81" s="43">
+      <c r="AH81" s="40"/>
+      <c r="AI81" s="36">
         <v>20.2</v>
       </c>
-      <c r="AJ81" s="44"/>
+      <c r="AJ81" s="37"/>
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
@@ -5126,14 +5126,14 @@
       <c r="AF82" s="20">
         <v>0.307</v>
       </c>
-      <c r="AG82" s="42">
+      <c r="AG82" s="40">
         <v>188420</v>
       </c>
-      <c r="AH82" s="42"/>
-      <c r="AI82" s="43">
+      <c r="AH82" s="40"/>
+      <c r="AI82" s="36">
         <v>70</v>
       </c>
-      <c r="AJ82" s="44"/>
+      <c r="AJ82" s="37"/>
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
@@ -5214,14 +5214,14 @@
       <c r="AF83" s="20">
         <v>0.28899999999999998</v>
       </c>
-      <c r="AG83" s="42">
+      <c r="AG83" s="40">
         <v>26573</v>
       </c>
-      <c r="AH83" s="42"/>
-      <c r="AI83" s="43">
+      <c r="AH83" s="40"/>
+      <c r="AI83" s="36">
         <v>10.5</v>
       </c>
-      <c r="AJ83" s="44"/>
+      <c r="AJ83" s="37"/>
     </row>
     <row r="84" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
@@ -5302,14 +5302,14 @@
       <c r="AF84" s="20">
         <v>0.28799999999999998</v>
       </c>
-      <c r="AG84" s="42">
+      <c r="AG84" s="40">
         <v>25253</v>
       </c>
-      <c r="AH84" s="42"/>
-      <c r="AI84" s="43">
+      <c r="AH84" s="40"/>
+      <c r="AI84" s="36">
         <v>10</v>
       </c>
-      <c r="AJ84" s="44"/>
+      <c r="AJ84" s="37"/>
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
@@ -5390,14 +5390,14 @@
       <c r="AF85" s="20">
         <v>0.20100000000000001</v>
       </c>
-      <c r="AG85" s="42">
+      <c r="AG85" s="40">
         <v>17610</v>
       </c>
-      <c r="AH85" s="42"/>
-      <c r="AI85" s="43">
+      <c r="AH85" s="40"/>
+      <c r="AI85" s="36">
         <v>10</v>
       </c>
-      <c r="AJ85" s="44"/>
+      <c r="AJ85" s="37"/>
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
@@ -5478,14 +5478,14 @@
       <c r="AF86" s="20">
         <v>0.221</v>
       </c>
-      <c r="AG86" s="42">
+      <c r="AG86" s="40">
         <v>19372</v>
       </c>
-      <c r="AH86" s="42"/>
-      <c r="AI86" s="43">
+      <c r="AH86" s="40"/>
+      <c r="AI86" s="36">
         <v>10</v>
       </c>
-      <c r="AJ86" s="44"/>
+      <c r="AJ86" s="37"/>
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
@@ -5566,14 +5566,14 @@
       <c r="AF87" s="20">
         <v>0.216</v>
       </c>
-      <c r="AG87" s="42">
+      <c r="AG87" s="40">
         <v>18939</v>
       </c>
-      <c r="AH87" s="42"/>
-      <c r="AI87" s="43">
+      <c r="AH87" s="40"/>
+      <c r="AI87" s="36">
         <v>10</v>
       </c>
-      <c r="AJ87" s="44"/>
+      <c r="AJ87" s="37"/>
     </row>
     <row r="88" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
@@ -5654,14 +5654,14 @@
       <c r="AF88" s="20">
         <v>0.23</v>
       </c>
-      <c r="AG88" s="42">
+      <c r="AG88" s="40">
         <v>20382</v>
       </c>
-      <c r="AH88" s="42"/>
-      <c r="AI88" s="43">
+      <c r="AH88" s="40"/>
+      <c r="AI88" s="36">
         <v>10.1</v>
       </c>
-      <c r="AJ88" s="44"/>
+      <c r="AJ88" s="37"/>
     </row>
     <row r="89" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
@@ -5742,14 +5742,14 @@
       <c r="AF89" s="20">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AG89" s="42">
+      <c r="AG89" s="40">
         <v>19968</v>
       </c>
-      <c r="AH89" s="42"/>
-      <c r="AI89" s="43">
+      <c r="AH89" s="40"/>
+      <c r="AI89" s="36">
         <v>10.1</v>
       </c>
-      <c r="AJ89" s="44"/>
+      <c r="AJ89" s="37"/>
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
@@ -5830,14 +5830,14 @@
       <c r="AF90" s="20">
         <v>0.26500000000000001</v>
       </c>
-      <c r="AG90" s="42">
+      <c r="AG90" s="40">
         <v>23240</v>
       </c>
-      <c r="AH90" s="42"/>
-      <c r="AI90" s="43">
+      <c r="AH90" s="40"/>
+      <c r="AI90" s="36">
         <v>10</v>
       </c>
-      <c r="AJ90" s="44"/>
+      <c r="AJ90" s="37"/>
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
@@ -5918,14 +5918,14 @@
       <c r="AF91" s="22">
         <v>0.254</v>
       </c>
-      <c r="AG91" s="47">
+      <c r="AG91" s="41">
         <v>26709</v>
       </c>
-      <c r="AH91" s="47"/>
-      <c r="AI91" s="45">
+      <c r="AH91" s="41"/>
+      <c r="AI91" s="38">
         <v>12</v>
       </c>
-      <c r="AJ91" s="46"/>
+      <c r="AJ91" s="39"/>
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
@@ -6097,7 +6097,7 @@
         <v>43</v>
       </c>
       <c r="K94" s="6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="M94" s="30">
         <v>43</v>
@@ -6142,19 +6142,49 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="AF69:AF70"/>
+    <mergeCell ref="AG69:AH70"/>
+    <mergeCell ref="AG72:AH72"/>
+    <mergeCell ref="AG73:AH73"/>
+    <mergeCell ref="AG74:AH74"/>
+    <mergeCell ref="AG75:AH75"/>
+    <mergeCell ref="AG76:AH76"/>
+    <mergeCell ref="AG77:AH77"/>
+    <mergeCell ref="AG78:AH78"/>
+    <mergeCell ref="AG79:AH79"/>
+    <mergeCell ref="AG87:AH87"/>
+    <mergeCell ref="AG88:AH88"/>
+    <mergeCell ref="AG89:AH89"/>
+    <mergeCell ref="AG80:AH80"/>
+    <mergeCell ref="AG81:AH81"/>
+    <mergeCell ref="AG82:AH82"/>
+    <mergeCell ref="AG83:AH83"/>
+    <mergeCell ref="AG84:AH84"/>
+    <mergeCell ref="AI81:AJ81"/>
+    <mergeCell ref="AI82:AJ82"/>
+    <mergeCell ref="AI83:AJ83"/>
+    <mergeCell ref="AG85:AH85"/>
+    <mergeCell ref="AG86:AH86"/>
+    <mergeCell ref="AI76:AJ76"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AI78:AJ78"/>
+    <mergeCell ref="AI79:AJ79"/>
+    <mergeCell ref="AI80:AJ80"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="AI89:AJ89"/>
     <mergeCell ref="AI90:AJ90"/>
@@ -6171,50 +6201,20 @@
     <mergeCell ref="AI73:AJ73"/>
     <mergeCell ref="AI74:AJ74"/>
     <mergeCell ref="AI75:AJ75"/>
-    <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AI78:AJ78"/>
-    <mergeCell ref="AI79:AJ79"/>
-    <mergeCell ref="AI80:AJ80"/>
-    <mergeCell ref="AI81:AJ81"/>
-    <mergeCell ref="AI82:AJ82"/>
-    <mergeCell ref="AI83:AJ83"/>
-    <mergeCell ref="AG85:AH85"/>
-    <mergeCell ref="AG86:AH86"/>
-    <mergeCell ref="AG87:AH87"/>
-    <mergeCell ref="AG88:AH88"/>
-    <mergeCell ref="AG89:AH89"/>
-    <mergeCell ref="AG80:AH80"/>
-    <mergeCell ref="AG81:AH81"/>
-    <mergeCell ref="AG82:AH82"/>
-    <mergeCell ref="AG83:AH83"/>
-    <mergeCell ref="AG84:AH84"/>
-    <mergeCell ref="AG75:AH75"/>
-    <mergeCell ref="AG76:AH76"/>
-    <mergeCell ref="AG77:AH77"/>
-    <mergeCell ref="AG78:AH78"/>
-    <mergeCell ref="AG79:AH79"/>
-    <mergeCell ref="AF69:AF70"/>
-    <mergeCell ref="AG69:AH70"/>
-    <mergeCell ref="AG72:AH72"/>
-    <mergeCell ref="AG73:AH73"/>
-    <mergeCell ref="AG74:AH74"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K95" sqref="K95"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O84" sqref="O84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6103,7 +6103,7 @@
         <v>43</v>
       </c>
       <c r="N94" s="6">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="P94" s="33">
         <v>43</v>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -753,28 +753,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -789,10 +771,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -804,8 +795,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1122,34 +1122,34 @@
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="38"/>
+      <c r="F1" s="39"/>
       <c r="G1" s="14">
         <v>0.1</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
       <c r="L1" s="15">
         <v>7256200.8565999996</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
       <c r="Q1" s="24">
         <v>2221460.4</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
       <c r="V1" s="24">
         <v>8809340386.1000004</v>
       </c>
@@ -1161,31 +1161,31 @@
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="6"/>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="23">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
       <c r="Q2" s="24">
         <v>19867.2</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
       <c r="V2" s="27">
         <v>348494.96600000001</v>
       </c>
@@ -1203,27 +1203,27 @@
       <c r="F3" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
       <c r="Q3" s="24">
         <v>1596613.3</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="S3" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
       <c r="V3" s="28">
         <v>2066077.2990000001</v>
       </c>
@@ -1245,27 +1245,27 @@
       <c r="G4" s="6">
         <v>4198</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="15">
         <v>1</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
       <c r="Q4" s="24">
         <v>43560</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="S4" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
       <c r="V4" s="27">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
@@ -1282,27 +1282,27 @@
       <c r="G5" s="6">
         <v>3726</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
       <c r="L5" s="15">
         <v>1</v>
       </c>
-      <c r="N5" s="38" t="s">
+      <c r="N5" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
       <c r="Q5" s="26">
         <v>50</v>
       </c>
-      <c r="S5" s="38" t="s">
+      <c r="S5" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
       <c r="V5" s="27">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
@@ -1325,23 +1325,23 @@
       <c r="G6" s="6">
         <v>4765</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
       <c r="L6" s="10"/>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
       <c r="Q6" s="26">
         <v>10</v>
       </c>
-      <c r="S6" s="38" t="s">
+      <c r="S6" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
       <c r="V6" s="27">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
@@ -1364,11 +1364,11 @@
       <c r="G7" s="6">
         <v>4050</v>
       </c>
-      <c r="S7" s="38" t="s">
+      <c r="S7" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
       <c r="V7" s="27">
         <f>V4*V6</f>
         <v>29903074042.27026</v>
@@ -1384,11 +1384,11 @@
       <c r="G8" s="6">
         <v>5974</v>
       </c>
-      <c r="S8" s="38" t="s">
+      <c r="S8" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
       <c r="V8" s="27">
         <f>V5*V6</f>
         <v>5911072775.7976093</v>
@@ -5697,17 +5697,17 @@
       </c>
     </row>
     <row r="45" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
       <c r="F45" s="2"/>
-      <c r="H45" s="39" t="s">
+      <c r="H45" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
       <c r="O45" s="4"/>
@@ -5941,30 +5941,30 @@
       </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="G53" s="55" t="s">
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="G53" s="38" t="s">
         <v>137</v>
       </c>
       <c r="H53">
         <v>0.5</v>
       </c>
-      <c r="J53" s="55" t="s">
+      <c r="J53" s="38" t="s">
         <v>138</v>
       </c>
       <c r="K53">
         <v>0.7</v>
       </c>
-      <c r="M53" s="55" t="s">
+      <c r="M53" s="38" t="s">
         <v>139</v>
       </c>
       <c r="N53">
         <v>1</v>
       </c>
-      <c r="P53" s="55" t="s">
+      <c r="P53" s="38" t="s">
         <v>140</v>
       </c>
       <c r="Q53">
@@ -9999,27 +9999,27 @@
       </c>
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="D103" s="40" t="s">
+      <c r="D103" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="E103" s="42" t="s">
+      <c r="E103" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="F103" s="42"/>
-      <c r="G103" s="42" t="s">
+      <c r="F103" s="46"/>
+      <c r="G103" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="H103" s="51"/>
+      <c r="H103" s="47"/>
       <c r="N103" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="D104" s="41"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="52"/>
+      <c r="D104" s="55"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="49"/>
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
@@ -10033,14 +10033,14 @@
       <c r="D106" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E106" s="44">
+      <c r="E106" s="52">
         <v>72154</v>
       </c>
-      <c r="F106" s="44"/>
-      <c r="G106" s="53">
+      <c r="F106" s="52"/>
+      <c r="G106" s="50">
         <v>28.1</v>
       </c>
-      <c r="H106" s="54"/>
+      <c r="H106" s="51"/>
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C107" s="18">
@@ -10049,14 +10049,14 @@
       <c r="D107" s="19">
         <v>0.31</v>
       </c>
-      <c r="E107" s="45">
+      <c r="E107" s="44">
         <v>67811</v>
       </c>
-      <c r="F107" s="45"/>
-      <c r="G107" s="46">
+      <c r="F107" s="44"/>
+      <c r="G107" s="40">
         <v>25</v>
       </c>
-      <c r="H107" s="47"/>
+      <c r="H107" s="41"/>
     </row>
     <row r="108" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C108" s="18">
@@ -10065,14 +10065,14 @@
       <c r="D108" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E108" s="45">
+      <c r="E108" s="44">
         <v>187455</v>
       </c>
-      <c r="F108" s="45"/>
-      <c r="G108" s="46">
+      <c r="F108" s="44"/>
+      <c r="G108" s="40">
         <v>70</v>
       </c>
-      <c r="H108" s="47"/>
+      <c r="H108" s="41"/>
     </row>
     <row r="109" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C109" s="18">
@@ -10081,14 +10081,14 @@
       <c r="D109" s="19">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E109" s="45">
+      <c r="E109" s="44">
         <v>63266</v>
       </c>
-      <c r="F109" s="45"/>
-      <c r="G109" s="46">
+      <c r="F109" s="44"/>
+      <c r="G109" s="40">
         <v>30.6</v>
       </c>
-      <c r="H109" s="47"/>
+      <c r="H109" s="41"/>
     </row>
     <row r="110" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C110" s="18">
@@ -10097,14 +10097,14 @@
       <c r="D110" s="19">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E110" s="45">
+      <c r="E110" s="44">
         <v>26553</v>
       </c>
-      <c r="F110" s="45"/>
-      <c r="G110" s="46">
+      <c r="F110" s="44"/>
+      <c r="G110" s="40">
         <v>10</v>
       </c>
-      <c r="H110" s="47"/>
+      <c r="H110" s="41"/>
     </row>
     <row r="111" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C111" s="18">
@@ -10113,14 +10113,14 @@
       <c r="D111" s="19">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E111" s="45">
+      <c r="E111" s="44">
         <v>24949</v>
       </c>
-      <c r="F111" s="45"/>
-      <c r="G111" s="46">
+      <c r="F111" s="44"/>
+      <c r="G111" s="40">
         <v>10</v>
       </c>
-      <c r="H111" s="47"/>
+      <c r="H111" s="41"/>
     </row>
     <row r="112" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C112" s="18">
@@ -10129,14 +10129,14 @@
       <c r="D112" s="19">
         <v>0.26100000000000001</v>
       </c>
-      <c r="E112" s="45">
+      <c r="E112" s="44">
         <v>22870</v>
       </c>
-      <c r="F112" s="45"/>
-      <c r="G112" s="46">
+      <c r="F112" s="44"/>
+      <c r="G112" s="40">
         <v>10</v>
       </c>
-      <c r="H112" s="47"/>
+      <c r="H112" s="41"/>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" s="18">
@@ -10145,14 +10145,14 @@
       <c r="D113" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E113" s="45">
+      <c r="E113" s="44">
         <v>139836</v>
       </c>
-      <c r="F113" s="45"/>
-      <c r="G113" s="46">
+      <c r="F113" s="44"/>
+      <c r="G113" s="40">
         <v>52.2</v>
       </c>
-      <c r="H113" s="47"/>
+      <c r="H113" s="41"/>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" s="18">
@@ -10161,14 +10161,14 @@
       <c r="D114" s="19">
         <v>0.26800000000000002</v>
       </c>
-      <c r="E114" s="45">
+      <c r="E114" s="44">
         <v>23515</v>
       </c>
-      <c r="F114" s="45"/>
-      <c r="G114" s="46">
+      <c r="F114" s="44"/>
+      <c r="G114" s="40">
         <v>10</v>
       </c>
-      <c r="H114" s="47"/>
+      <c r="H114" s="41"/>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" s="18">
@@ -10177,14 +10177,14 @@
       <c r="D115" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E115" s="45">
+      <c r="E115" s="44">
         <v>49503</v>
       </c>
-      <c r="F115" s="45"/>
-      <c r="G115" s="46">
+      <c r="F115" s="44"/>
+      <c r="G115" s="40">
         <v>20.2</v>
       </c>
-      <c r="H115" s="47"/>
+      <c r="H115" s="41"/>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C116" s="18">
@@ -10193,14 +10193,14 @@
       <c r="D116" s="19">
         <v>0.307</v>
       </c>
-      <c r="E116" s="45">
+      <c r="E116" s="44">
         <v>188420</v>
       </c>
-      <c r="F116" s="45"/>
-      <c r="G116" s="46">
+      <c r="F116" s="44"/>
+      <c r="G116" s="40">
         <v>70</v>
       </c>
-      <c r="H116" s="47"/>
+      <c r="H116" s="41"/>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C117" s="18">
@@ -10209,14 +10209,14 @@
       <c r="D117" s="19">
         <v>0.28899999999999998</v>
       </c>
-      <c r="E117" s="45">
+      <c r="E117" s="44">
         <v>26573</v>
       </c>
-      <c r="F117" s="45"/>
-      <c r="G117" s="46">
+      <c r="F117" s="44"/>
+      <c r="G117" s="40">
         <v>10.5</v>
       </c>
-      <c r="H117" s="47"/>
+      <c r="H117" s="41"/>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C118" s="18">
@@ -10225,14 +10225,14 @@
       <c r="D118" s="19">
         <v>0.28799999999999998</v>
       </c>
-      <c r="E118" s="45">
+      <c r="E118" s="44">
         <v>25253</v>
       </c>
-      <c r="F118" s="45"/>
-      <c r="G118" s="46">
+      <c r="F118" s="44"/>
+      <c r="G118" s="40">
         <v>10</v>
       </c>
-      <c r="H118" s="47"/>
+      <c r="H118" s="41"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C119" s="18">
@@ -10241,14 +10241,14 @@
       <c r="D119" s="19">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E119" s="45">
+      <c r="E119" s="44">
         <v>17610</v>
       </c>
-      <c r="F119" s="45"/>
-      <c r="G119" s="46">
+      <c r="F119" s="44"/>
+      <c r="G119" s="40">
         <v>10</v>
       </c>
-      <c r="H119" s="47"/>
+      <c r="H119" s="41"/>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C120" s="18">
@@ -10257,14 +10257,14 @@
       <c r="D120" s="19">
         <v>0.221</v>
       </c>
-      <c r="E120" s="45">
+      <c r="E120" s="44">
         <v>19372</v>
       </c>
-      <c r="F120" s="45"/>
-      <c r="G120" s="46">
+      <c r="F120" s="44"/>
+      <c r="G120" s="40">
         <v>10</v>
       </c>
-      <c r="H120" s="47"/>
+      <c r="H120" s="41"/>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C121" s="18">
@@ -10273,14 +10273,14 @@
       <c r="D121" s="19">
         <v>0.216</v>
       </c>
-      <c r="E121" s="45">
+      <c r="E121" s="44">
         <v>18939</v>
       </c>
-      <c r="F121" s="45"/>
-      <c r="G121" s="46">
+      <c r="F121" s="44"/>
+      <c r="G121" s="40">
         <v>10</v>
       </c>
-      <c r="H121" s="47"/>
+      <c r="H121" s="41"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C122" s="18">
@@ -10289,14 +10289,14 @@
       <c r="D122" s="19">
         <v>0.23</v>
       </c>
-      <c r="E122" s="45">
+      <c r="E122" s="44">
         <v>20382</v>
       </c>
-      <c r="F122" s="45"/>
-      <c r="G122" s="46">
+      <c r="F122" s="44"/>
+      <c r="G122" s="40">
         <v>10.1</v>
       </c>
-      <c r="H122" s="47"/>
+      <c r="H122" s="41"/>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C123" s="18">
@@ -10305,14 +10305,14 @@
       <c r="D123" s="19">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E123" s="45">
+      <c r="E123" s="44">
         <v>19968</v>
       </c>
-      <c r="F123" s="45"/>
-      <c r="G123" s="46">
+      <c r="F123" s="44"/>
+      <c r="G123" s="40">
         <v>10.1</v>
       </c>
-      <c r="H123" s="47"/>
+      <c r="H123" s="41"/>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C124" s="18">
@@ -10321,14 +10321,14 @@
       <c r="D124" s="19">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E124" s="45">
+      <c r="E124" s="44">
         <v>23240</v>
       </c>
-      <c r="F124" s="45"/>
-      <c r="G124" s="46">
+      <c r="F124" s="44"/>
+      <c r="G124" s="40">
         <v>10</v>
       </c>
-      <c r="H124" s="47"/>
+      <c r="H124" s="41"/>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C125" s="20">
@@ -10337,29 +10337,57 @@
       <c r="D125" s="21">
         <v>0.254</v>
       </c>
-      <c r="E125" s="50">
+      <c r="E125" s="45">
         <v>26709</v>
       </c>
-      <c r="F125" s="50"/>
-      <c r="G125" s="48">
+      <c r="F125" s="45"/>
+      <c r="G125" s="42">
         <v>12</v>
       </c>
-      <c r="H125" s="49"/>
+      <c r="H125" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:F104"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G123:H123"/>
     <mergeCell ref="G124:H124"/>
@@ -10376,46 +10404,18 @@
     <mergeCell ref="G107:H107"/>
     <mergeCell ref="G108:H108"/>
     <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:F104"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -21,10 +21,10 @@
     <definedName name="CAPEX_solar">Sheet2!$Q$1</definedName>
     <definedName name="CAPEX_storage">Sheet2!$Q$7</definedName>
     <definedName name="CAPEX_wind">Sheet2!$Q$3</definedName>
-    <definedName name="CH4_rate">Sheet2!$AB$52:$AB$94</definedName>
-    <definedName name="CO2_rate">Sheet2!$AA$52:$AA$94</definedName>
+    <definedName name="CH4_rate">Sheet2!$AE$52:$AE$94</definedName>
+    <definedName name="CO2_rate">Sheet2!$AD$52:$AD$94</definedName>
     <definedName name="DiscRate">Sheet2!$G$1</definedName>
-    <definedName name="EV_subsidy_cost">Sheet2!$V$1</definedName>
+    <definedName name="EV_subsidy_cost">Sheet2!$Y$1</definedName>
     <definedName name="LineCapacity">Sheet2!$P$44:$P$46</definedName>
     <definedName name="LineFromBus">Sheet2!$H$44:$J$46</definedName>
     <definedName name="LineReactance">Sheet2!$M$44:$M$46</definedName>
@@ -34,8 +34,8 @@
     <definedName name="MaxGenOff">Sheet2!$K$52:$K$94</definedName>
     <definedName name="MaxGenPeak">Sheet2!$H$52:$H$94</definedName>
     <definedName name="MinGen">Sheet2!$N$52:$N$94</definedName>
-    <definedName name="N2O_rate">Sheet2!$AC$52:$AC$94</definedName>
-    <definedName name="NOx_rate">Sheet2!$Y$52:$Y$94</definedName>
+    <definedName name="N2O_rate">Sheet2!$AF$52:$AF$94</definedName>
+    <definedName name="NOx_rate">Sheet2!$AB$52:$AB$94</definedName>
     <definedName name="NumBuses">Sheet2!$C$1</definedName>
     <definedName name="NumLines">Sheet2!$C$2</definedName>
     <definedName name="NumUnits">Sheet2!$C$3</definedName>
@@ -45,7 +45,8 @@
     <definedName name="OPEX_storage">Sheet2!$Q$8</definedName>
     <definedName name="OPEX_wind">Sheet2!$Q$4</definedName>
     <definedName name="PeakHours">Sheet2!$C$6</definedName>
-    <definedName name="SO2_rate">Sheet2!$Z$52:$Z$94</definedName>
+    <definedName name="RampRate">Sheet2!$T$52:$T$94</definedName>
+    <definedName name="SO2_rate">Sheet2!$AC$52:$AC$94</definedName>
     <definedName name="solar_cap_factor">Sheet2!$G$4</definedName>
     <definedName name="solar_inc">Sheet2!$Q$5</definedName>
     <definedName name="UnitsByBus">Sheet2!$C$52:$E$94</definedName>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="116">
   <si>
     <t>NumBuses</t>
   </si>
@@ -407,6 +408,9 @@
   </si>
   <si>
     <t>Battery Efficiency</t>
+  </si>
+  <si>
+    <t>RampRate (MW/hr)</t>
   </si>
 </sst>
 </file>
@@ -567,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -639,7 +643,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -654,19 +682,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -678,18 +697,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -971,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ94"/>
+  <dimension ref="A1:AM94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O84" sqref="O84"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T52" sqref="T52:T94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -988,135 +999,145 @@
     <col min="15" max="15" width="10" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
     <col min="17" max="17" width="13.26953125" customWidth="1"/>
-    <col min="18" max="18" width="9.54296875" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" customWidth="1"/>
-    <col min="20" max="20" width="10.6328125" customWidth="1"/>
-    <col min="21" max="21" width="10.54296875" customWidth="1"/>
-    <col min="22" max="22" width="16.7265625" customWidth="1"/>
-    <col min="23" max="24" width="16.26953125" customWidth="1"/>
-    <col min="25" max="25" width="16.1796875" customWidth="1"/>
-    <col min="26" max="29" width="16.26953125" customWidth="1"/>
+    <col min="18" max="20" width="8.7265625" customWidth="1"/>
+    <col min="21" max="21" width="9.54296875" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" customWidth="1"/>
+    <col min="23" max="23" width="10.6328125" customWidth="1"/>
+    <col min="24" max="24" width="10.54296875" customWidth="1"/>
+    <col min="25" max="25" width="16.7265625" customWidth="1"/>
+    <col min="26" max="27" width="16.26953125" customWidth="1"/>
+    <col min="28" max="28" width="16.1796875" customWidth="1"/>
+    <col min="29" max="32" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="35"/>
+      <c r="F1" s="36"/>
       <c r="G1" s="15">
         <v>0.1</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
       <c r="L1" s="16">
         <v>7256200.8565999996</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
       <c r="Q1" s="25">
         <v>2221460.4</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="V1" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="25">
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="25">
         <v>8809340386.1000004</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="35"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="6">
         <v>7000</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="24">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
       <c r="Q2" s="25">
         <v>19867.2</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="V2" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="28">
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="28">
         <v>348494.96600000001</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6">
         <v>43</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="35"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I3" s="4"/>
       <c r="L3" s="26"/>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
       <c r="Q3" s="25">
         <v>1596613.3</v>
       </c>
-      <c r="S3" s="35" t="s">
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="V3" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="29">
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="29">
         <v>2066077.2990000001</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1124,67 +1145,73 @@
         <v>26</v>
       </c>
       <c r="D4" s="14"/>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="35"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="16">
         <v>1</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
       <c r="Q4" s="25">
         <v>43560</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="V4" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="28">
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="28">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="16">
         <v>1</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
       <c r="Q5" s="27">
         <v>50</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="V5" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="28">
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="28">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>108</v>
       </c>
@@ -1192,36 +1219,39 @@
         <f>16*365</f>
         <v>5840</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="35"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="10">
         <v>0.3</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="N6" s="35" t="s">
+      <c r="N6" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
       <c r="Q6" s="27">
         <v>10</v>
       </c>
-      <c r="S6" s="35" t="s">
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="V6" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="28">
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="28">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Z6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>109</v>
       </c>
@@ -1229,84 +1259,93 @@
         <f>8*365</f>
         <v>2920</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="N7" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
       <c r="Q7" s="25">
         <v>601000</v>
       </c>
-      <c r="S7" s="35" t="s">
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="V7" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="28">
-        <f>V4*V6</f>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="28">
+        <f>Y4*Y6</f>
         <v>29903074042.27026</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Z7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="N8" s="35" t="s">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="N8" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
       <c r="Q8" s="25">
         <v>15025</v>
       </c>
-      <c r="S8" s="35" t="s">
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="V8" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="28">
-        <f>V5*V6</f>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="28">
+        <f>Y5*Y6</f>
         <v>5911072775.7976093</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Z8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="N9" s="35" t="s">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="N9" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
       <c r="Q9" s="27">
         <v>0.95</v>
       </c>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="28"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="28"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="C11" s="35" t="s">
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="28"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="28"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="C11" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="2"/>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
       <c r="L11" s="33"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
         <v>28</v>
       </c>
@@ -1338,7 +1377,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <v>2020</v>
       </c>
@@ -1378,7 +1417,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <v>2021</v>
       </c>
@@ -1418,7 +1457,7 @@
         <v>2118.8999999999996</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <v>2022</v>
       </c>
@@ -1458,7 +1497,7 @@
         <v>2137.9700999999995</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>2023</v>
       </c>
@@ -2138,7 +2177,7 @@
         <v>2489.7254187143535</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B33" s="4">
         <v>2040</v>
       </c>
@@ -2178,7 +2217,7 @@
         <v>2512.1329474827821</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B34" s="4">
         <v>2041</v>
       </c>
@@ -2218,7 +2257,7 @@
         <v>2534.742144010127</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B35" s="4">
         <v>2042</v>
       </c>
@@ -2258,7 +2297,7 @@
         <v>2557.5548233062182</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B36" s="4">
         <v>2043</v>
       </c>
@@ -2298,7 +2337,7 @@
         <v>2580.5728167159737</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B37" s="4">
         <v>2044</v>
       </c>
@@ -2338,7 +2377,7 @@
         <v>2603.7979720664175</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B38" s="4">
         <v>2045</v>
       </c>
@@ -2378,7 +2417,7 @@
         <v>2627.2321538150145</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>3</v>
       </c>
@@ -2391,27 +2430,27 @@
       <c r="O41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R41" s="4" t="s">
+      <c r="U41" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C42" s="51" t="s">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="C42" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
       <c r="F42" s="2"/>
-      <c r="H42" s="51" t="s">
+      <c r="H42" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
       <c r="O42" s="4"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
         <v>4</v>
       </c>
@@ -2444,11 +2483,11 @@
       <c r="O43" t="s">
         <v>4</v>
       </c>
-      <c r="R43" t="s">
+      <c r="U43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B44" s="5" t="s">
         <v>5</v>
       </c>
@@ -2485,14 +2524,14 @@
       <c r="P44" s="6">
         <v>1100</v>
       </c>
-      <c r="R44" t="s">
+      <c r="U44" t="s">
         <v>21</v>
       </c>
-      <c r="S44" s="6">
+      <c r="V44" s="6">
         <v>3.06</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B45" s="2" t="s">
         <v>6</v>
       </c>
@@ -2529,14 +2568,14 @@
       <c r="P45" s="6">
         <v>2000</v>
       </c>
-      <c r="R45" t="s">
+      <c r="U45" t="s">
         <v>23</v>
       </c>
-      <c r="S45" s="6">
+      <c r="V45" s="6">
         <v>2.16</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
@@ -2573,17 +2612,17 @@
       <c r="P46" s="6">
         <v>1000</v>
       </c>
-      <c r="R46" t="s">
+      <c r="U46" t="s">
         <v>24</v>
       </c>
-      <c r="S46" s="6">
+      <c r="V46" s="6">
         <v>12.56</v>
       </c>
-      <c r="T46" t="s">
+      <c r="W46" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
         <v>26</v>
       </c>
@@ -2602,52 +2641,55 @@
       <c r="P49" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="T49" s="4" t="s">
+      <c r="S49" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="W49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U49" s="4" t="s">
+      <c r="X49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V49" s="4" t="s">
+      <c r="Y49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Y49" s="32" t="s">
+      <c r="AB49" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="Z49" s="32" t="s">
+      <c r="AC49" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AA49" s="32" t="s">
+      <c r="AD49" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AB49" s="32" t="s">
+      <c r="AE49" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AC49" s="32" t="s">
+      <c r="AF49" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AD49" s="12"/>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="C50" s="51" t="s">
+      <c r="AG49" s="12"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="C50" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="U50" t="s">
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="X50" t="s">
         <v>17</v>
       </c>
-      <c r="V50" t="s">
+      <c r="Y50" t="s">
         <v>20</v>
       </c>
-      <c r="Y50" s="32"/>
-      <c r="Z50" s="32"/>
-      <c r="AA50" s="32"/>
       <c r="AB50" s="32"/>
       <c r="AC50" s="32"/>
-      <c r="AD50" s="12"/>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD50" s="32"/>
+      <c r="AE50" s="32"/>
+      <c r="AF50" s="32"/>
+      <c r="AG50" s="12"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2675,20 +2717,23 @@
       <c r="P51" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="S51" s="33" t="s">
+      <c r="S51" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="X51" t="s">
+      <c r="V51" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="Y51" s="32"/>
-      <c r="Z51" s="32"/>
-      <c r="AA51" s="32"/>
+      <c r="AA51" t="s">
+        <v>10</v>
+      </c>
       <c r="AB51" s="32"/>
       <c r="AC51" s="32"/>
-      <c r="AD51" s="12"/>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD51" s="32"/>
+      <c r="AE51" s="32"/>
+      <c r="AF51" s="32"/>
+      <c r="AG51" s="12"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -2726,42 +2771,50 @@
         <v>1</v>
       </c>
       <c r="Q52" s="8">
-        <f t="shared" ref="Q52:Q94" si="8">U52*V52*1000/1000000</f>
+        <f t="shared" ref="Q52:Q94" si="8">X52*Y52*1000/1000000</f>
         <v>39.666780000000003</v>
       </c>
-      <c r="S52" s="33">
+      <c r="R52" s="55"/>
+      <c r="S52" s="35">
         <v>1</v>
       </c>
-      <c r="T52" t="s">
+      <c r="T52" s="56">
+        <v>2520</v>
+      </c>
+      <c r="U52" s="55"/>
+      <c r="V52" s="33">
+        <v>1</v>
+      </c>
+      <c r="W52" t="s">
         <v>21</v>
       </c>
-      <c r="U52" s="6">
+      <c r="X52" s="6">
         <v>12963</v>
       </c>
-      <c r="V52" s="6">
-        <f t="shared" ref="V52:V71" si="9">IF(EXACT(T52,$R$44),$S$44,IF(EXACT(T52,$R$45),$S$45,IF(EXACT(T52,$R$46),$S$46,0)))</f>
+      <c r="Y52" s="6">
+        <f t="shared" ref="Y52:Y71" si="9">IF(EXACT(W52,$U$44),$V$44,IF(EXACT(W52,$U$45),$V$45,IF(EXACT(W52,$U$46),$V$46,0)))</f>
         <v>3.06</v>
       </c>
-      <c r="X52" s="33">
+      <c r="AA52" s="33">
         <v>1</v>
       </c>
-      <c r="Y52" s="6">
+      <c r="AB52" s="6">
         <v>1.4370000000000001</v>
       </c>
-      <c r="Z52" s="6">
+      <c r="AC52" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AA52" s="6">
+      <c r="AD52" s="6">
         <v>1540.787</v>
       </c>
-      <c r="AB52" s="6">
+      <c r="AE52" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="AC52" s="6">
+      <c r="AF52" s="6">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -2802,39 +2855,47 @@
         <f t="shared" si="8"/>
         <v>23.617080000000001</v>
       </c>
-      <c r="S53" s="33">
+      <c r="R53" s="55"/>
+      <c r="S53" s="35">
         <v>2</v>
       </c>
-      <c r="T53" t="s">
+      <c r="T53" s="56">
+        <v>1980</v>
+      </c>
+      <c r="U53" s="55"/>
+      <c r="V53" s="33">
+        <v>2</v>
+      </c>
+      <c r="W53" t="s">
         <v>21</v>
       </c>
-      <c r="U53" s="6">
+      <c r="X53" s="6">
         <v>7718</v>
       </c>
-      <c r="V53" s="6">
+      <c r="Y53" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
-      <c r="X53" s="33">
+      <c r="AA53" s="33">
         <v>2</v>
       </c>
-      <c r="Y53" s="6">
+      <c r="AB53" s="6">
         <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="Z53" s="6">
-        <v>2E-3</v>
-      </c>
-      <c r="AA53" s="6">
-        <v>917.32500000000005</v>
-      </c>
-      <c r="AB53" s="6">
-        <v>1.6E-2</v>
       </c>
       <c r="AC53" s="6">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD53" s="6">
+        <v>917.32500000000005</v>
+      </c>
+      <c r="AE53" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AF53" s="6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -2875,39 +2936,47 @@
         <f t="shared" si="8"/>
         <v>28.115279999999998</v>
       </c>
-      <c r="S54" s="33">
+      <c r="R54" s="55"/>
+      <c r="S54" s="35">
         <v>3</v>
       </c>
-      <c r="T54" t="s">
+      <c r="T54" s="56">
+        <v>240</v>
+      </c>
+      <c r="U54" s="55"/>
+      <c r="V54" s="33">
+        <v>3</v>
+      </c>
+      <c r="W54" t="s">
         <v>21</v>
       </c>
-      <c r="U54" s="6">
+      <c r="X54" s="6">
         <v>9188</v>
       </c>
-      <c r="V54" s="6">
+      <c r="Y54" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
-      <c r="X54" s="33">
+      <c r="AA54" s="33">
         <v>3</v>
       </c>
-      <c r="Y54" s="6">
+      <c r="AB54" s="6">
         <v>24.811</v>
       </c>
-      <c r="Z54" s="6">
+      <c r="AC54" s="6">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="AA54" s="6">
+      <c r="AD54" s="6">
         <v>1073.9280000000001</v>
       </c>
-      <c r="AB54" s="6">
+      <c r="AE54" s="6">
         <v>0.02</v>
       </c>
-      <c r="AC54" s="6">
+      <c r="AF54" s="6">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -2948,39 +3017,47 @@
         <f t="shared" si="8"/>
         <v>21.77496</v>
       </c>
-      <c r="S55" s="33">
+      <c r="R55" s="55"/>
+      <c r="S55" s="35">
         <v>4</v>
       </c>
-      <c r="T55" t="s">
+      <c r="T55" s="56">
+        <v>1020</v>
+      </c>
+      <c r="U55" s="55"/>
+      <c r="V55" s="33">
+        <v>4</v>
+      </c>
+      <c r="W55" t="s">
         <v>21</v>
       </c>
-      <c r="U55" s="6">
+      <c r="X55" s="6">
         <v>7116</v>
       </c>
-      <c r="V55" s="6">
+      <c r="Y55" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
-      <c r="X55" s="33">
+      <c r="AA55" s="33">
         <v>4</v>
       </c>
-      <c r="Y55" s="6">
+      <c r="AB55" s="6">
         <v>1.056</v>
       </c>
-      <c r="Z55" s="6">
+      <c r="AC55" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AA55" s="6">
+      <c r="AD55" s="6">
         <v>845.83</v>
       </c>
-      <c r="AB55" s="6">
+      <c r="AE55" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="AC55" s="6">
+      <c r="AF55" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3021,39 +3098,47 @@
         <f t="shared" si="8"/>
         <v>23.94144</v>
       </c>
-      <c r="S56" s="33">
+      <c r="R56" s="55"/>
+      <c r="S56" s="35">
         <v>5</v>
       </c>
-      <c r="T56" t="s">
+      <c r="T56" s="56">
+        <v>2220</v>
+      </c>
+      <c r="U56" s="55"/>
+      <c r="V56" s="33">
+        <v>5</v>
+      </c>
+      <c r="W56" t="s">
         <v>21</v>
       </c>
-      <c r="U56" s="6">
+      <c r="X56" s="6">
         <v>7824</v>
       </c>
-      <c r="V56" s="6">
+      <c r="Y56" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
-      <c r="X56" s="33">
+      <c r="AA56" s="33">
         <v>5</v>
       </c>
-      <c r="Y56" s="6">
+      <c r="AB56" s="6">
         <v>0.11799999999999999</v>
       </c>
-      <c r="Z56" s="6">
+      <c r="AC56" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA56" s="6">
+      <c r="AD56" s="6">
         <v>930.02099999999996</v>
       </c>
-      <c r="AB56" s="6">
+      <c r="AE56" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="AC56" s="6">
+      <c r="AF56" s="6">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3094,39 +3179,47 @@
         <f t="shared" si="8"/>
         <v>38.22552000000001</v>
       </c>
-      <c r="S57" s="33">
+      <c r="R57" s="55"/>
+      <c r="S57" s="35">
         <v>6</v>
       </c>
-      <c r="T57" t="s">
+      <c r="T57" s="56">
+        <v>300</v>
+      </c>
+      <c r="U57" s="55"/>
+      <c r="V57" s="33">
+        <v>6</v>
+      </c>
+      <c r="W57" t="s">
         <v>21</v>
       </c>
-      <c r="U57" s="6">
+      <c r="X57" s="6">
         <v>12492</v>
       </c>
-      <c r="V57" s="6">
+      <c r="Y57" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
-      <c r="X57" s="33">
+      <c r="AA57" s="33">
         <v>6</v>
       </c>
-      <c r="Y57" s="6">
+      <c r="AB57" s="6">
         <v>1.1240000000000001</v>
       </c>
-      <c r="Z57" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="6">
+      <c r="AC57" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="6">
         <v>1460.1579999999999</v>
       </c>
-      <c r="AB57" s="6">
+      <c r="AE57" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AC57" s="6">
+      <c r="AF57" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3167,39 +3260,47 @@
         <f t="shared" si="8"/>
         <v>1.6982999999999999</v>
       </c>
-      <c r="S58" s="33">
+      <c r="R58" s="55"/>
+      <c r="S58" s="35">
         <v>7</v>
       </c>
-      <c r="T58" t="s">
+      <c r="T58" s="56">
+        <v>420</v>
+      </c>
+      <c r="U58" s="55"/>
+      <c r="V58" s="33">
+        <v>7</v>
+      </c>
+      <c r="W58" t="s">
         <v>21</v>
       </c>
-      <c r="U58" s="6">
+      <c r="X58" s="6">
         <v>555</v>
       </c>
-      <c r="V58" s="6">
+      <c r="Y58" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
-      <c r="X58" s="33">
+      <c r="AA58" s="33">
         <v>7</v>
       </c>
-      <c r="Y58" s="6">
+      <c r="AB58" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Z58" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="6">
+      <c r="AC58" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="6">
         <v>65.930999999999997</v>
       </c>
-      <c r="AB58" s="6">
+      <c r="AE58" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="AC58" s="6">
+      <c r="AF58" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3240,39 +3341,47 @@
         <f t="shared" si="8"/>
         <v>36.677160000000001</v>
       </c>
-      <c r="S59" s="33">
+      <c r="R59" s="55"/>
+      <c r="S59" s="35">
         <v>8</v>
       </c>
-      <c r="T59" t="s">
+      <c r="T59" s="56">
+        <v>420</v>
+      </c>
+      <c r="U59" s="55"/>
+      <c r="V59" s="33">
+        <v>8</v>
+      </c>
+      <c r="W59" t="s">
         <v>21</v>
       </c>
-      <c r="U59" s="6">
+      <c r="X59" s="6">
         <v>11986</v>
       </c>
-      <c r="V59" s="6">
+      <c r="Y59" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
-      <c r="X59" s="33">
+      <c r="AA59" s="33">
         <v>8</v>
       </c>
-      <c r="Y59" s="6">
+      <c r="AB59" s="6">
         <v>1.3009999999999999</v>
       </c>
-      <c r="Z59" s="6">
+      <c r="AC59" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AA59" s="6">
+      <c r="AD59" s="6">
         <v>1424.5930000000001</v>
       </c>
-      <c r="AB59" s="6">
+      <c r="AE59" s="6">
         <v>2.7E-2</v>
       </c>
-      <c r="AC59" s="6">
+      <c r="AF59" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3313,39 +3422,47 @@
         <f t="shared" si="8"/>
         <v>23.494679999999999</v>
       </c>
-      <c r="S60" s="33">
+      <c r="R60" s="55"/>
+      <c r="S60" s="35">
         <v>9</v>
       </c>
-      <c r="T60" t="s">
+      <c r="T60" s="56">
+        <v>1980</v>
+      </c>
+      <c r="U60" s="55"/>
+      <c r="V60" s="33">
+        <v>9</v>
+      </c>
+      <c r="W60" t="s">
         <v>21</v>
       </c>
-      <c r="U60" s="6">
+      <c r="X60" s="6">
         <v>7678</v>
       </c>
-      <c r="V60" s="6">
+      <c r="Y60" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
-      <c r="X60" s="33">
+      <c r="AA60" s="33">
         <v>9</v>
       </c>
-      <c r="Y60" s="6">
+      <c r="AB60" s="6">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="Z60" s="6">
+      <c r="AC60" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA60" s="6">
+      <c r="AD60" s="6">
         <v>912.65499999999997</v>
       </c>
-      <c r="AB60" s="6">
+      <c r="AE60" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AC60" s="6">
+      <c r="AF60" s="6">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3386,39 +3503,47 @@
         <f t="shared" si="8"/>
         <v>31.606739999999999</v>
       </c>
-      <c r="S61" s="33">
+      <c r="R61" s="55"/>
+      <c r="S61" s="35">
         <v>10</v>
       </c>
-      <c r="T61" t="s">
+      <c r="T61" s="56">
+        <v>900</v>
+      </c>
+      <c r="U61" s="55"/>
+      <c r="V61" s="33">
+        <v>10</v>
+      </c>
+      <c r="W61" t="s">
         <v>21</v>
       </c>
-      <c r="U61" s="6">
+      <c r="X61" s="6">
         <v>10329</v>
       </c>
-      <c r="V61" s="6">
+      <c r="Y61" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
-      <c r="X61" s="33">
+      <c r="AA61" s="33">
         <v>10</v>
       </c>
-      <c r="Y61" s="6">
+      <c r="AB61" s="6">
         <v>1.306</v>
       </c>
-      <c r="Z61" s="6">
+      <c r="AC61" s="6">
         <v>0.01</v>
       </c>
-      <c r="AA61" s="6">
+      <c r="AD61" s="6">
         <v>1235.3320000000001</v>
       </c>
-      <c r="AB61" s="6">
+      <c r="AE61" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="AC61" s="6">
+      <c r="AF61" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3459,39 +3584,47 @@
         <f t="shared" si="8"/>
         <v>38.996639999999999</v>
       </c>
-      <c r="S62" s="33">
+      <c r="R62" s="55"/>
+      <c r="S62" s="35">
         <v>11</v>
       </c>
-      <c r="T62" t="s">
+      <c r="T62" s="56">
+        <v>480</v>
+      </c>
+      <c r="U62" s="55"/>
+      <c r="V62" s="33">
+        <v>11</v>
+      </c>
+      <c r="W62" t="s">
         <v>21</v>
       </c>
-      <c r="U62" s="6">
+      <c r="X62" s="6">
         <v>12744</v>
       </c>
-      <c r="V62" s="6">
+      <c r="Y62" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
-      <c r="X62" s="33">
+      <c r="AA62" s="33">
         <v>11</v>
       </c>
-      <c r="Y62" s="6">
+      <c r="AB62" s="6">
         <v>2.9769999999999999</v>
       </c>
-      <c r="Z62" s="6">
+      <c r="AC62" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AA62" s="6">
+      <c r="AD62" s="6">
         <v>1514.692</v>
       </c>
-      <c r="AB62" s="6">
+      <c r="AE62" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AC62" s="6">
+      <c r="AF62" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3532,39 +3665,47 @@
         <f t="shared" si="8"/>
         <v>35.954999999999998</v>
       </c>
-      <c r="S63" s="33">
+      <c r="R63" s="55"/>
+      <c r="S63" s="35">
         <v>12</v>
       </c>
-      <c r="T63" t="s">
+      <c r="T63" s="56">
+        <v>720</v>
+      </c>
+      <c r="U63" s="55"/>
+      <c r="V63" s="33">
+        <v>12</v>
+      </c>
+      <c r="W63" t="s">
         <v>21</v>
       </c>
-      <c r="U63" s="6">
+      <c r="X63" s="6">
         <v>11750</v>
       </c>
-      <c r="V63" s="6">
+      <c r="Y63" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
-      <c r="X63" s="33">
+      <c r="AA63" s="33">
         <v>12</v>
       </c>
-      <c r="Y63" s="6">
+      <c r="AB63" s="6">
         <v>0.41199999999999998</v>
       </c>
-      <c r="Z63" s="6">
+      <c r="AC63" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AA63" s="6">
+      <c r="AD63" s="6">
         <v>1397.9780000000001</v>
       </c>
-      <c r="AB63" s="6">
+      <c r="AE63" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="AC63" s="6">
+      <c r="AF63" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -3605,39 +3746,47 @@
         <f t="shared" si="8"/>
         <v>26.289359999999999</v>
       </c>
-      <c r="S64" s="33">
+      <c r="R64" s="55"/>
+      <c r="S64" s="35">
         <v>13</v>
       </c>
-      <c r="T64" t="s">
+      <c r="T64" s="56">
+        <v>2220</v>
+      </c>
+      <c r="U64" s="55"/>
+      <c r="V64" s="33">
+        <v>13</v>
+      </c>
+      <c r="W64" t="s">
         <v>23</v>
       </c>
-      <c r="U64" s="6">
+      <c r="X64" s="6">
         <v>12171</v>
       </c>
-      <c r="V64" s="6">
+      <c r="Y64" s="6">
         <f t="shared" si="9"/>
         <v>2.16</v>
       </c>
-      <c r="X64" s="33">
+      <c r="AA64" s="33">
         <v>13</v>
       </c>
-      <c r="Y64" s="6">
+      <c r="AB64" s="6">
         <v>2.74</v>
       </c>
-      <c r="Z64" s="6">
+      <c r="AC64" s="6">
         <v>0.53300000000000003</v>
       </c>
-      <c r="AA64" s="6">
+      <c r="AD64" s="6">
         <v>2551.596</v>
       </c>
-      <c r="AB64" s="6">
+      <c r="AE64" s="6">
         <v>0.27400000000000002</v>
       </c>
-      <c r="AC64" s="6">
+      <c r="AF64" s="6">
         <v>0.04</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -3678,39 +3827,47 @@
         <f t="shared" si="8"/>
         <v>34.819740000000003</v>
       </c>
-      <c r="S65" s="33">
+      <c r="R65" s="55"/>
+      <c r="S65" s="35">
         <v>14</v>
       </c>
-      <c r="T65" t="s">
+      <c r="T65" s="56">
+        <v>3120</v>
+      </c>
+      <c r="U65" s="55"/>
+      <c r="V65" s="33">
+        <v>14</v>
+      </c>
+      <c r="W65" t="s">
         <v>21</v>
       </c>
-      <c r="U65" s="6">
+      <c r="X65" s="6">
         <v>11379</v>
       </c>
-      <c r="V65" s="6">
+      <c r="Y65" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
-      <c r="X65" s="33">
+      <c r="AA65" s="33">
         <v>14</v>
       </c>
-      <c r="Y65" s="6">
+      <c r="AB65" s="6">
         <v>0.38900000000000001</v>
       </c>
-      <c r="Z65" s="6">
+      <c r="AC65" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AA65" s="6">
+      <c r="AD65" s="6">
         <v>1352.424</v>
       </c>
-      <c r="AB65" s="6">
+      <c r="AE65" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="AC65" s="6">
+      <c r="AF65" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -3751,39 +3908,47 @@
         <f t="shared" si="8"/>
         <v>37.647179999999999</v>
       </c>
-      <c r="S66" s="33">
+      <c r="R66" s="55"/>
+      <c r="S66" s="35">
         <v>15</v>
       </c>
-      <c r="T66" t="s">
+      <c r="T66" s="56">
+        <v>180</v>
+      </c>
+      <c r="U66" s="55"/>
+      <c r="V66" s="33">
+        <v>15</v>
+      </c>
+      <c r="W66" t="s">
         <v>21</v>
       </c>
-      <c r="U66" s="6">
+      <c r="X66" s="6">
         <v>12303</v>
       </c>
-      <c r="V66" s="6">
+      <c r="Y66" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
-      <c r="X66" s="33">
+      <c r="AA66" s="33">
         <v>15</v>
       </c>
-      <c r="Y66" s="6">
+      <c r="AB66" s="6">
         <v>3.8889999999999998</v>
       </c>
-      <c r="Z66" s="6">
+      <c r="AC66" s="6">
         <v>3.9E-2</v>
       </c>
-      <c r="AA66" s="6">
+      <c r="AD66" s="6">
         <v>1436.3489999999999</v>
       </c>
-      <c r="AB66" s="6">
+      <c r="AE66" s="6">
         <v>2.7E-2</v>
       </c>
-      <c r="AC66" s="6">
+      <c r="AF66" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -3824,39 +3989,47 @@
         <f t="shared" si="8"/>
         <v>25.404119999999999</v>
       </c>
-      <c r="S67" s="33">
+      <c r="R67" s="55"/>
+      <c r="S67" s="35">
         <v>16</v>
       </c>
-      <c r="T67" t="s">
+      <c r="T67" s="56">
+        <v>180</v>
+      </c>
+      <c r="U67" s="55"/>
+      <c r="V67" s="33">
+        <v>16</v>
+      </c>
+      <c r="W67" t="s">
         <v>21</v>
       </c>
-      <c r="U67" s="6">
+      <c r="X67" s="6">
         <v>8302</v>
       </c>
-      <c r="V67" s="6">
+      <c r="Y67" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
-      <c r="X67" s="33">
+      <c r="AA67" s="33">
         <v>16</v>
       </c>
-      <c r="Y67" s="6">
+      <c r="AB67" s="6">
         <v>0.35699999999999998</v>
       </c>
-      <c r="Z67" s="6">
+      <c r="AC67" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA67" s="6">
+      <c r="AD67" s="6">
         <v>986.73699999999997</v>
       </c>
-      <c r="AB67" s="6">
+      <c r="AE67" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AC67" s="6">
+      <c r="AF67" s="6">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -3897,39 +4070,47 @@
         <f t="shared" si="8"/>
         <v>23.453280000000003</v>
       </c>
-      <c r="S68" s="33">
+      <c r="R68" s="55"/>
+      <c r="S68" s="35">
         <v>17</v>
       </c>
-      <c r="T68" t="s">
+      <c r="T68" s="56">
+        <v>300</v>
+      </c>
+      <c r="U68" s="55"/>
+      <c r="V68" s="33">
+        <v>17</v>
+      </c>
+      <c r="W68" t="s">
         <v>23</v>
       </c>
-      <c r="U68" s="6">
+      <c r="X68" s="6">
         <v>10858</v>
       </c>
-      <c r="V68" s="6">
+      <c r="Y68" s="6">
         <f t="shared" si="9"/>
         <v>2.16</v>
       </c>
-      <c r="X68" s="33">
+      <c r="AA68" s="33">
         <v>17</v>
       </c>
-      <c r="Y68" s="6">
+      <c r="AB68" s="6">
         <v>3.786</v>
       </c>
-      <c r="Z68" s="6">
+      <c r="AC68" s="6">
         <v>1.365</v>
       </c>
-      <c r="AA68" s="6">
+      <c r="AD68" s="6">
         <v>2277.605</v>
       </c>
-      <c r="AB68" s="6">
+      <c r="AE68" s="6">
         <v>0.249</v>
       </c>
-      <c r="AC68" s="6">
+      <c r="AF68" s="6">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -3970,50 +4151,58 @@
         <f t="shared" si="8"/>
         <v>23.647680000000001</v>
       </c>
-      <c r="S69" s="33">
+      <c r="R69" s="55"/>
+      <c r="S69" s="35">
         <v>18</v>
       </c>
-      <c r="T69" t="s">
+      <c r="T69" s="56">
+        <v>2700</v>
+      </c>
+      <c r="U69" s="55"/>
+      <c r="V69" s="33">
+        <v>18</v>
+      </c>
+      <c r="W69" t="s">
         <v>23</v>
       </c>
-      <c r="U69" s="6">
+      <c r="X69" s="6">
         <v>10948</v>
       </c>
-      <c r="V69" s="6">
+      <c r="Y69" s="6">
         <f t="shared" si="9"/>
         <v>2.16</v>
       </c>
-      <c r="X69" s="33">
+      <c r="AA69" s="33">
         <v>18</v>
       </c>
-      <c r="Y69" s="6">
+      <c r="AB69" s="6">
         <v>1.2689999999999999</v>
       </c>
-      <c r="Z69" s="6">
+      <c r="AC69" s="6">
         <v>0.40300000000000002</v>
       </c>
-      <c r="AA69" s="6">
+      <c r="AD69" s="6">
         <v>2246.4659999999999</v>
       </c>
-      <c r="AB69" s="6">
+      <c r="AE69" s="6">
         <v>0.223</v>
       </c>
-      <c r="AC69" s="6">
+      <c r="AF69" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AF69" s="48" t="s">
+      <c r="AI69" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG69" s="42" t="s">
+      <c r="AJ69" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="AH69" s="42"/>
-      <c r="AI69" s="42" t="s">
+      <c r="AK69" s="40"/>
+      <c r="AL69" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="AJ69" s="43"/>
-    </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM69" s="49"/>
+    </row>
+    <row r="70" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -4054,44 +4243,52 @@
         <f t="shared" si="8"/>
         <v>223.99503999999999</v>
       </c>
-      <c r="S70" s="33">
+      <c r="R70" s="55"/>
+      <c r="S70" s="35">
         <v>19</v>
       </c>
-      <c r="T70" t="s">
+      <c r="T70" s="56">
+        <v>120</v>
+      </c>
+      <c r="U70" s="55"/>
+      <c r="V70" s="33">
+        <v>19</v>
+      </c>
+      <c r="W70" t="s">
         <v>24</v>
       </c>
-      <c r="U70" s="6">
+      <c r="X70" s="6">
         <v>17834</v>
       </c>
-      <c r="V70" s="6">
+      <c r="Y70" s="6">
         <f t="shared" si="9"/>
         <v>12.56</v>
       </c>
-      <c r="X70" s="33">
+      <c r="AA70" s="33">
         <v>19</v>
       </c>
-      <c r="Y70" s="6">
+      <c r="AB70" s="6">
         <v>15.976000000000001</v>
       </c>
-      <c r="Z70" s="6">
+      <c r="AC70" s="6">
         <v>9.0060000000000002</v>
       </c>
-      <c r="AA70" s="6">
+      <c r="AD70" s="6">
         <v>2912.8049999999998</v>
       </c>
-      <c r="AB70" s="6">
+      <c r="AE70" s="6">
         <v>0.11799999999999999</v>
       </c>
-      <c r="AC70" s="6">
+      <c r="AF70" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="AF70" s="49"/>
-      <c r="AG70" s="44"/>
-      <c r="AH70" s="44"/>
-      <c r="AI70" s="44"/>
-      <c r="AJ70" s="45"/>
-    </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AI70" s="39"/>
+      <c r="AJ70" s="41"/>
+      <c r="AK70" s="41"/>
+      <c r="AL70" s="41"/>
+      <c r="AM70" s="50"/>
+    </row>
+    <row r="71" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -4132,42 +4329,50 @@
         <f t="shared" si="8"/>
         <v>36.931139999999999</v>
       </c>
-      <c r="S71" s="33">
+      <c r="R71" s="55"/>
+      <c r="S71" s="35">
         <v>20</v>
       </c>
-      <c r="T71" t="s">
+      <c r="T71" s="56">
+        <v>1920</v>
+      </c>
+      <c r="U71" s="55"/>
+      <c r="V71" s="33">
+        <v>20</v>
+      </c>
+      <c r="W71" t="s">
         <v>21</v>
       </c>
-      <c r="U71" s="6">
+      <c r="X71" s="6">
         <v>12069</v>
       </c>
-      <c r="V71" s="6">
+      <c r="Y71" s="6">
         <f t="shared" si="9"/>
         <v>3.06</v>
       </c>
-      <c r="X71" s="33">
+      <c r="AA71" s="33">
         <v>20</v>
       </c>
-      <c r="Y71" s="6">
+      <c r="AB71" s="6">
         <v>2.1019999999999999</v>
       </c>
-      <c r="Z71" s="6">
+      <c r="AC71" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AA71" s="6">
+      <c r="AD71" s="6">
         <v>1434.461</v>
       </c>
-      <c r="AB71" s="6">
+      <c r="AE71" s="6">
         <v>2.7E-2</v>
       </c>
-      <c r="AC71" s="6">
+      <c r="AF71" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AE71" t="s">
+      <c r="AH71" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>36</v>
       </c>
@@ -4187,14 +4392,14 @@
         <v>21</v>
       </c>
       <c r="H72" s="6">
-        <f>$G$4*AI72</f>
+        <f>$G$4*AL72</f>
         <v>28.1</v>
       </c>
       <c r="J72" s="33">
         <v>21</v>
       </c>
       <c r="K72" s="6">
-        <f>$G$4*AL72</f>
+        <f>$G$4*AO72</f>
         <v>0</v>
       </c>
       <c r="M72" s="11">
@@ -4210,52 +4415,60 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S72" s="33">
+      <c r="R72" s="55"/>
+      <c r="S72" s="35">
         <v>21</v>
       </c>
-      <c r="T72" t="s">
+      <c r="T72" s="56">
+        <f>H72</f>
+        <v>28.1</v>
+      </c>
+      <c r="V72" s="33">
+        <v>21</v>
+      </c>
+      <c r="W72" t="s">
         <v>37</v>
       </c>
-      <c r="U72" s="6">
-        <v>0</v>
-      </c>
-      <c r="V72" s="6">
-        <v>0</v>
-      </c>
-      <c r="X72" s="33">
+      <c r="X72" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="33">
         <v>21</v>
       </c>
-      <c r="Y72" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="6">
-        <v>0</v>
-      </c>
       <c r="AB72" s="6">
         <v>0</v>
       </c>
       <c r="AC72" s="6">
         <v>0</v>
       </c>
-      <c r="AE72" s="17">
+      <c r="AD72" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="17">
         <v>21</v>
       </c>
-      <c r="AF72" s="18">
+      <c r="AI72" s="18">
         <v>0.29299999999999998</v>
       </c>
-      <c r="AG72" s="50">
+      <c r="AJ72" s="42">
         <v>72154</v>
       </c>
-      <c r="AH72" s="50"/>
-      <c r="AI72" s="46">
+      <c r="AK72" s="42"/>
+      <c r="AL72" s="51">
         <v>28.1</v>
       </c>
-      <c r="AJ72" s="47"/>
-    </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM72" s="52"/>
+    </row>
+    <row r="73" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -4275,14 +4488,14 @@
         <v>22</v>
       </c>
       <c r="H73" s="6">
-        <f t="shared" ref="H73:H91" si="10">$G$4*AI73</f>
+        <f t="shared" ref="H73:H91" si="10">$G$4*AL73</f>
         <v>25</v>
       </c>
       <c r="J73" s="33">
         <v>22</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" ref="K73:K91" si="11">$G$4*AL73</f>
+        <f t="shared" ref="K73:K91" si="11">$G$4*AO73</f>
         <v>0</v>
       </c>
       <c r="M73" s="11">
@@ -4298,52 +4511,60 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S73" s="33">
+      <c r="R73" s="55"/>
+      <c r="S73" s="35">
         <v>22</v>
       </c>
-      <c r="T73" t="s">
+      <c r="T73" s="56">
+        <f t="shared" ref="T73:T91" si="12">H73</f>
+        <v>25</v>
+      </c>
+      <c r="V73" s="33">
+        <v>22</v>
+      </c>
+      <c r="W73" t="s">
         <v>37</v>
       </c>
-      <c r="U73" s="6">
-        <v>0</v>
-      </c>
-      <c r="V73" s="6">
-        <v>0</v>
-      </c>
-      <c r="X73" s="33">
+      <c r="X73" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="33">
         <v>22</v>
       </c>
-      <c r="Y73" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="6">
-        <v>0</v>
-      </c>
       <c r="AB73" s="6">
         <v>0</v>
       </c>
       <c r="AC73" s="6">
         <v>0</v>
       </c>
-      <c r="AE73" s="19">
+      <c r="AD73" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="19">
         <v>22</v>
       </c>
-      <c r="AF73" s="20">
+      <c r="AI73" s="20">
         <v>0.31</v>
       </c>
-      <c r="AG73" s="40">
+      <c r="AJ73" s="43">
         <v>67811</v>
       </c>
-      <c r="AH73" s="40"/>
-      <c r="AI73" s="36">
+      <c r="AK73" s="43"/>
+      <c r="AL73" s="44">
         <v>25</v>
       </c>
-      <c r="AJ73" s="37"/>
-    </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM73" s="45"/>
+    </row>
+    <row r="74" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>39</v>
       </c>
@@ -4386,52 +4607,60 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S74" s="33">
+      <c r="R74" s="55"/>
+      <c r="S74" s="35">
         <v>23</v>
       </c>
-      <c r="T74" t="s">
+      <c r="T74" s="56">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="V74" s="33">
+        <v>23</v>
+      </c>
+      <c r="W74" t="s">
         <v>37</v>
       </c>
-      <c r="U74" s="6">
-        <v>0</v>
-      </c>
-      <c r="V74" s="6">
-        <v>0</v>
-      </c>
-      <c r="X74" s="33">
+      <c r="X74" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="33">
         <v>23</v>
       </c>
-      <c r="Y74" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z74" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA74" s="6">
-        <v>0</v>
-      </c>
       <c r="AB74" s="6">
         <v>0</v>
       </c>
       <c r="AC74" s="6">
         <v>0</v>
       </c>
-      <c r="AE74" s="19">
+      <c r="AD74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="19">
         <v>23</v>
       </c>
-      <c r="AF74" s="20">
+      <c r="AI74" s="20">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AG74" s="40">
+      <c r="AJ74" s="43">
         <v>187455</v>
       </c>
-      <c r="AH74" s="40"/>
-      <c r="AI74" s="36">
+      <c r="AK74" s="43"/>
+      <c r="AL74" s="44">
         <v>70</v>
       </c>
-      <c r="AJ74" s="37"/>
-    </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM74" s="45"/>
+    </row>
+    <row r="75" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>40</v>
       </c>
@@ -4474,52 +4703,60 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S75" s="33">
+      <c r="R75" s="55"/>
+      <c r="S75" s="35">
         <v>24</v>
       </c>
-      <c r="T75" t="s">
+      <c r="T75" s="56">
+        <f t="shared" si="12"/>
+        <v>30.6</v>
+      </c>
+      <c r="V75" s="33">
+        <v>24</v>
+      </c>
+      <c r="W75" t="s">
         <v>37</v>
       </c>
-      <c r="U75" s="6">
-        <v>0</v>
-      </c>
-      <c r="V75" s="6">
-        <v>0</v>
-      </c>
-      <c r="X75" s="33">
+      <c r="X75" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="33">
         <v>24</v>
       </c>
-      <c r="Y75" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z75" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA75" s="6">
-        <v>0</v>
-      </c>
       <c r="AB75" s="6">
         <v>0</v>
       </c>
       <c r="AC75" s="6">
         <v>0</v>
       </c>
-      <c r="AE75" s="19">
+      <c r="AD75" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="19">
         <v>24</v>
       </c>
-      <c r="AF75" s="20">
+      <c r="AI75" s="20">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AG75" s="40">
+      <c r="AJ75" s="43">
         <v>63266</v>
       </c>
-      <c r="AH75" s="40"/>
-      <c r="AI75" s="36">
+      <c r="AK75" s="43"/>
+      <c r="AL75" s="44">
         <v>30.6</v>
       </c>
-      <c r="AJ75" s="37"/>
-    </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM75" s="45"/>
+    </row>
+    <row r="76" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>41</v>
       </c>
@@ -4562,52 +4799,60 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S76" s="33">
+      <c r="R76" s="55"/>
+      <c r="S76" s="35">
         <v>25</v>
       </c>
-      <c r="T76" t="s">
+      <c r="T76" s="56">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="V76" s="33">
+        <v>25</v>
+      </c>
+      <c r="W76" t="s">
         <v>37</v>
       </c>
-      <c r="U76" s="6">
-        <v>0</v>
-      </c>
-      <c r="V76" s="6">
-        <v>0</v>
-      </c>
-      <c r="X76" s="33">
+      <c r="X76" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="33">
         <v>25</v>
       </c>
-      <c r="Y76" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z76" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA76" s="6">
-        <v>0</v>
-      </c>
       <c r="AB76" s="6">
         <v>0</v>
       </c>
       <c r="AC76" s="6">
         <v>0</v>
       </c>
-      <c r="AE76" s="19">
+      <c r="AD76" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="19">
         <v>25</v>
       </c>
-      <c r="AF76" s="20">
+      <c r="AI76" s="20">
         <v>0.30299999999999999</v>
       </c>
-      <c r="AG76" s="40">
+      <c r="AJ76" s="43">
         <v>26553</v>
       </c>
-      <c r="AH76" s="40"/>
-      <c r="AI76" s="36">
+      <c r="AK76" s="43"/>
+      <c r="AL76" s="44">
         <v>10</v>
       </c>
-      <c r="AJ76" s="37"/>
-    </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM76" s="45"/>
+    </row>
+    <row r="77" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>42</v>
       </c>
@@ -4650,52 +4895,60 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S77" s="33">
+      <c r="R77" s="55"/>
+      <c r="S77" s="35">
         <v>26</v>
       </c>
-      <c r="T77" t="s">
+      <c r="T77" s="56">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="V77" s="33">
+        <v>26</v>
+      </c>
+      <c r="W77" t="s">
         <v>37</v>
       </c>
-      <c r="U77" s="6">
-        <v>0</v>
-      </c>
-      <c r="V77" s="6">
-        <v>0</v>
-      </c>
-      <c r="X77" s="33">
+      <c r="X77" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="33">
         <v>26</v>
       </c>
-      <c r="Y77" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z77" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA77" s="6">
-        <v>0</v>
-      </c>
       <c r="AB77" s="6">
         <v>0</v>
       </c>
       <c r="AC77" s="6">
         <v>0</v>
       </c>
-      <c r="AE77" s="19">
+      <c r="AD77" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH77" s="19">
         <v>26</v>
       </c>
-      <c r="AF77" s="20">
+      <c r="AI77" s="20">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AG77" s="40">
+      <c r="AJ77" s="43">
         <v>24949</v>
       </c>
-      <c r="AH77" s="40"/>
-      <c r="AI77" s="36">
+      <c r="AK77" s="43"/>
+      <c r="AL77" s="44">
         <v>10</v>
       </c>
-      <c r="AJ77" s="37"/>
-    </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM77" s="45"/>
+    </row>
+    <row r="78" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>43</v>
       </c>
@@ -4738,52 +4991,60 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S78" s="33">
+      <c r="R78" s="55"/>
+      <c r="S78" s="35">
         <v>27</v>
       </c>
-      <c r="T78" t="s">
+      <c r="T78" s="56">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="V78" s="33">
+        <v>27</v>
+      </c>
+      <c r="W78" t="s">
         <v>37</v>
       </c>
-      <c r="U78" s="6">
-        <v>0</v>
-      </c>
-      <c r="V78" s="6">
-        <v>0</v>
-      </c>
-      <c r="X78" s="33">
+      <c r="X78" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="33">
         <v>27</v>
       </c>
-      <c r="Y78" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z78" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA78" s="6">
-        <v>0</v>
-      </c>
       <c r="AB78" s="6">
         <v>0</v>
       </c>
       <c r="AC78" s="6">
         <v>0</v>
       </c>
-      <c r="AE78" s="19">
+      <c r="AD78" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF78" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH78" s="19">
         <v>27</v>
       </c>
-      <c r="AF78" s="20">
+      <c r="AI78" s="20">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AG78" s="40">
+      <c r="AJ78" s="43">
         <v>22870</v>
       </c>
-      <c r="AH78" s="40"/>
-      <c r="AI78" s="36">
+      <c r="AK78" s="43"/>
+      <c r="AL78" s="44">
         <v>10</v>
       </c>
-      <c r="AJ78" s="37"/>
-    </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM78" s="45"/>
+    </row>
+    <row r="79" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>44</v>
       </c>
@@ -4826,52 +5087,60 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S79" s="33">
+      <c r="R79" s="55"/>
+      <c r="S79" s="35">
         <v>28</v>
       </c>
-      <c r="T79" t="s">
+      <c r="T79" s="56">
+        <f t="shared" si="12"/>
+        <v>52.2</v>
+      </c>
+      <c r="V79" s="33">
+        <v>28</v>
+      </c>
+      <c r="W79" t="s">
         <v>37</v>
       </c>
-      <c r="U79" s="6">
-        <v>0</v>
-      </c>
-      <c r="V79" s="6">
-        <v>0</v>
-      </c>
-      <c r="X79" s="33">
+      <c r="X79" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="33">
         <v>28</v>
       </c>
-      <c r="Y79" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z79" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA79" s="6">
-        <v>0</v>
-      </c>
       <c r="AB79" s="6">
         <v>0</v>
       </c>
       <c r="AC79" s="6">
         <v>0</v>
       </c>
-      <c r="AE79" s="19">
+      <c r="AD79" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF79" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="19">
         <v>28</v>
       </c>
-      <c r="AF79" s="20">
+      <c r="AI79" s="20">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AG79" s="40">
+      <c r="AJ79" s="43">
         <v>139836</v>
       </c>
-      <c r="AH79" s="40"/>
-      <c r="AI79" s="36">
+      <c r="AK79" s="43"/>
+      <c r="AL79" s="44">
         <v>52.2</v>
       </c>
-      <c r="AJ79" s="37"/>
-    </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM79" s="45"/>
+    </row>
+    <row r="80" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>45</v>
       </c>
@@ -4914,52 +5183,60 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S80" s="33">
+      <c r="R80" s="55"/>
+      <c r="S80" s="35">
         <v>29</v>
       </c>
-      <c r="T80" t="s">
+      <c r="T80" s="56">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="V80" s="33">
+        <v>29</v>
+      </c>
+      <c r="W80" t="s">
         <v>37</v>
       </c>
-      <c r="U80" s="6">
-        <v>0</v>
-      </c>
-      <c r="V80" s="6">
-        <v>0</v>
-      </c>
-      <c r="X80" s="33">
+      <c r="X80" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="33">
         <v>29</v>
       </c>
-      <c r="Y80" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z80" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA80" s="6">
-        <v>0</v>
-      </c>
       <c r="AB80" s="6">
         <v>0</v>
       </c>
       <c r="AC80" s="6">
         <v>0</v>
       </c>
-      <c r="AE80" s="19">
+      <c r="AD80" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF80" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH80" s="19">
         <v>29</v>
       </c>
-      <c r="AF80" s="20">
+      <c r="AI80" s="20">
         <v>0.26800000000000002</v>
       </c>
-      <c r="AG80" s="40">
+      <c r="AJ80" s="43">
         <v>23515</v>
       </c>
-      <c r="AH80" s="40"/>
-      <c r="AI80" s="36">
+      <c r="AK80" s="43"/>
+      <c r="AL80" s="44">
         <v>10</v>
       </c>
-      <c r="AJ80" s="37"/>
-    </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM80" s="45"/>
+    </row>
+    <row r="81" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>46</v>
       </c>
@@ -5002,52 +5279,60 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S81" s="33">
+      <c r="R81" s="55"/>
+      <c r="S81" s="35">
         <v>30</v>
       </c>
-      <c r="T81" t="s">
+      <c r="T81" s="56">
+        <f t="shared" si="12"/>
+        <v>20.2</v>
+      </c>
+      <c r="V81" s="33">
+        <v>30</v>
+      </c>
+      <c r="W81" t="s">
         <v>37</v>
       </c>
-      <c r="U81" s="6">
-        <v>0</v>
-      </c>
-      <c r="V81" s="6">
-        <v>0</v>
-      </c>
-      <c r="X81" s="33">
+      <c r="X81" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="33">
         <v>30</v>
       </c>
-      <c r="Y81" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="6">
-        <v>0</v>
-      </c>
       <c r="AB81" s="6">
         <v>0</v>
       </c>
       <c r="AC81" s="6">
         <v>0</v>
       </c>
-      <c r="AE81" s="19">
+      <c r="AD81" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH81" s="19">
         <v>30</v>
       </c>
-      <c r="AF81" s="20">
+      <c r="AI81" s="20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AG81" s="40">
+      <c r="AJ81" s="43">
         <v>49503</v>
       </c>
-      <c r="AH81" s="40"/>
-      <c r="AI81" s="36">
+      <c r="AK81" s="43"/>
+      <c r="AL81" s="44">
         <v>20.2</v>
       </c>
-      <c r="AJ81" s="37"/>
-    </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM81" s="45"/>
+    </row>
+    <row r="82" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>47</v>
       </c>
@@ -5090,52 +5375,60 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S82" s="33">
+      <c r="R82" s="55"/>
+      <c r="S82" s="35">
         <v>31</v>
       </c>
-      <c r="T82" t="s">
+      <c r="T82" s="56">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="V82" s="33">
+        <v>31</v>
+      </c>
+      <c r="W82" t="s">
         <v>37</v>
       </c>
-      <c r="U82" s="6">
-        <v>0</v>
-      </c>
-      <c r="V82" s="6">
-        <v>0</v>
-      </c>
-      <c r="X82" s="33">
+      <c r="X82" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="33">
         <v>31</v>
       </c>
-      <c r="Y82" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z82" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA82" s="6">
-        <v>0</v>
-      </c>
       <c r="AB82" s="6">
         <v>0</v>
       </c>
       <c r="AC82" s="6">
         <v>0</v>
       </c>
-      <c r="AE82" s="19">
+      <c r="AD82" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH82" s="19">
         <v>31</v>
       </c>
-      <c r="AF82" s="20">
+      <c r="AI82" s="20">
         <v>0.307</v>
       </c>
-      <c r="AG82" s="40">
+      <c r="AJ82" s="43">
         <v>188420</v>
       </c>
-      <c r="AH82" s="40"/>
-      <c r="AI82" s="36">
+      <c r="AK82" s="43"/>
+      <c r="AL82" s="44">
         <v>70</v>
       </c>
-      <c r="AJ82" s="37"/>
-    </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM82" s="45"/>
+    </row>
+    <row r="83" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>48</v>
       </c>
@@ -5178,52 +5471,60 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S83" s="33">
+      <c r="R83" s="55"/>
+      <c r="S83" s="35">
         <v>32</v>
       </c>
-      <c r="T83" t="s">
+      <c r="T83" s="56">
+        <f t="shared" si="12"/>
+        <v>10.5</v>
+      </c>
+      <c r="V83" s="33">
+        <v>32</v>
+      </c>
+      <c r="W83" t="s">
         <v>37</v>
       </c>
-      <c r="U83" s="6">
-        <v>0</v>
-      </c>
-      <c r="V83" s="6">
-        <v>0</v>
-      </c>
-      <c r="X83" s="33">
+      <c r="X83" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="33">
         <v>32</v>
       </c>
-      <c r="Y83" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="6">
-        <v>0</v>
-      </c>
       <c r="AB83" s="6">
         <v>0</v>
       </c>
       <c r="AC83" s="6">
         <v>0</v>
       </c>
-      <c r="AE83" s="19">
+      <c r="AD83" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="19">
         <v>32</v>
       </c>
-      <c r="AF83" s="20">
+      <c r="AI83" s="20">
         <v>0.28899999999999998</v>
       </c>
-      <c r="AG83" s="40">
+      <c r="AJ83" s="43">
         <v>26573</v>
       </c>
-      <c r="AH83" s="40"/>
-      <c r="AI83" s="36">
+      <c r="AK83" s="43"/>
+      <c r="AL83" s="44">
         <v>10.5</v>
       </c>
-      <c r="AJ83" s="37"/>
-    </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM83" s="45"/>
+    </row>
+    <row r="84" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>49</v>
       </c>
@@ -5266,52 +5567,60 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S84" s="33">
+      <c r="R84" s="55"/>
+      <c r="S84" s="35">
         <v>33</v>
       </c>
-      <c r="T84" t="s">
+      <c r="T84" s="56">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="V84" s="33">
+        <v>33</v>
+      </c>
+      <c r="W84" t="s">
         <v>37</v>
       </c>
-      <c r="U84" s="6">
-        <v>0</v>
-      </c>
-      <c r="V84" s="6">
-        <v>0</v>
-      </c>
-      <c r="X84" s="33">
+      <c r="X84" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="33">
         <v>33</v>
       </c>
-      <c r="Y84" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z84" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA84" s="6">
-        <v>0</v>
-      </c>
       <c r="AB84" s="6">
         <v>0</v>
       </c>
       <c r="AC84" s="6">
         <v>0</v>
       </c>
-      <c r="AE84" s="19">
+      <c r="AD84" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="19">
         <v>33</v>
       </c>
-      <c r="AF84" s="20">
+      <c r="AI84" s="20">
         <v>0.28799999999999998</v>
       </c>
-      <c r="AG84" s="40">
+      <c r="AJ84" s="43">
         <v>25253</v>
       </c>
-      <c r="AH84" s="40"/>
-      <c r="AI84" s="36">
+      <c r="AK84" s="43"/>
+      <c r="AL84" s="44">
         <v>10</v>
       </c>
-      <c r="AJ84" s="37"/>
-    </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM84" s="45"/>
+    </row>
+    <row r="85" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>50</v>
       </c>
@@ -5354,52 +5663,60 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S85" s="33">
+      <c r="R85" s="55"/>
+      <c r="S85" s="35">
         <v>34</v>
       </c>
-      <c r="T85" t="s">
+      <c r="T85" s="56">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="V85" s="33">
+        <v>34</v>
+      </c>
+      <c r="W85" t="s">
         <v>37</v>
       </c>
-      <c r="U85" s="6">
-        <v>0</v>
-      </c>
-      <c r="V85" s="6">
-        <v>0</v>
-      </c>
-      <c r="X85" s="33">
+      <c r="X85" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="33">
         <v>34</v>
       </c>
-      <c r="Y85" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z85" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA85" s="6">
-        <v>0</v>
-      </c>
       <c r="AB85" s="6">
         <v>0</v>
       </c>
       <c r="AC85" s="6">
         <v>0</v>
       </c>
-      <c r="AE85" s="19">
+      <c r="AD85" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="19">
         <v>34</v>
       </c>
-      <c r="AF85" s="20">
+      <c r="AI85" s="20">
         <v>0.20100000000000001</v>
       </c>
-      <c r="AG85" s="40">
+      <c r="AJ85" s="43">
         <v>17610</v>
       </c>
-      <c r="AH85" s="40"/>
-      <c r="AI85" s="36">
+      <c r="AK85" s="43"/>
+      <c r="AL85" s="44">
         <v>10</v>
       </c>
-      <c r="AJ85" s="37"/>
-    </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM85" s="45"/>
+    </row>
+    <row r="86" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>51</v>
       </c>
@@ -5442,52 +5759,60 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S86" s="33">
+      <c r="R86" s="55"/>
+      <c r="S86" s="35">
         <v>35</v>
       </c>
-      <c r="T86" t="s">
+      <c r="T86" s="56">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="V86" s="33">
+        <v>35</v>
+      </c>
+      <c r="W86" t="s">
         <v>37</v>
       </c>
-      <c r="U86" s="6">
-        <v>0</v>
-      </c>
-      <c r="V86" s="6">
-        <v>0</v>
-      </c>
-      <c r="X86" s="33">
+      <c r="X86" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="33">
         <v>35</v>
       </c>
-      <c r="Y86" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z86" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA86" s="6">
-        <v>0</v>
-      </c>
       <c r="AB86" s="6">
         <v>0</v>
       </c>
       <c r="AC86" s="6">
         <v>0</v>
       </c>
-      <c r="AE86" s="19">
+      <c r="AD86" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="19">
         <v>35</v>
       </c>
-      <c r="AF86" s="20">
+      <c r="AI86" s="20">
         <v>0.221</v>
       </c>
-      <c r="AG86" s="40">
+      <c r="AJ86" s="43">
         <v>19372</v>
       </c>
-      <c r="AH86" s="40"/>
-      <c r="AI86" s="36">
+      <c r="AK86" s="43"/>
+      <c r="AL86" s="44">
         <v>10</v>
       </c>
-      <c r="AJ86" s="37"/>
-    </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM86" s="45"/>
+    </row>
+    <row r="87" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>52</v>
       </c>
@@ -5530,52 +5855,60 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S87" s="33">
+      <c r="R87" s="55"/>
+      <c r="S87" s="35">
         <v>36</v>
       </c>
-      <c r="T87" t="s">
+      <c r="T87" s="56">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="V87" s="33">
+        <v>36</v>
+      </c>
+      <c r="W87" t="s">
         <v>37</v>
       </c>
-      <c r="U87" s="6">
-        <v>0</v>
-      </c>
-      <c r="V87" s="6">
-        <v>0</v>
-      </c>
-      <c r="X87" s="33">
+      <c r="X87" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="33">
         <v>36</v>
       </c>
-      <c r="Y87" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z87" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA87" s="6">
-        <v>0</v>
-      </c>
       <c r="AB87" s="6">
         <v>0</v>
       </c>
       <c r="AC87" s="6">
         <v>0</v>
       </c>
-      <c r="AE87" s="19">
+      <c r="AD87" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH87" s="19">
         <v>36</v>
       </c>
-      <c r="AF87" s="20">
+      <c r="AI87" s="20">
         <v>0.216</v>
       </c>
-      <c r="AG87" s="40">
+      <c r="AJ87" s="43">
         <v>18939</v>
       </c>
-      <c r="AH87" s="40"/>
-      <c r="AI87" s="36">
+      <c r="AK87" s="43"/>
+      <c r="AL87" s="44">
         <v>10</v>
       </c>
-      <c r="AJ87" s="37"/>
-    </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM87" s="45"/>
+    </row>
+    <row r="88" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>53</v>
       </c>
@@ -5618,29 +5951,28 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S88" s="33">
+      <c r="R88" s="55"/>
+      <c r="S88" s="35">
         <v>37</v>
       </c>
-      <c r="T88" t="s">
+      <c r="T88" s="56">
+        <f t="shared" si="12"/>
+        <v>10.1</v>
+      </c>
+      <c r="V88" s="33">
         <v>37</v>
       </c>
-      <c r="U88" s="6">
-        <v>0</v>
-      </c>
-      <c r="V88" s="6">
-        <v>0</v>
-      </c>
-      <c r="X88" s="33">
+      <c r="W88" t="s">
         <v>37</v>
       </c>
+      <c r="X88" s="6">
+        <v>0</v>
+      </c>
       <c r="Y88" s="6">
         <v>0</v>
       </c>
-      <c r="Z88" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA88" s="6">
-        <v>0</v>
+      <c r="AA88" s="33">
+        <v>37</v>
       </c>
       <c r="AB88" s="6">
         <v>0</v>
@@ -5648,22 +5980,31 @@
       <c r="AC88" s="6">
         <v>0</v>
       </c>
-      <c r="AE88" s="19">
+      <c r="AD88" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH88" s="19">
         <v>37</v>
       </c>
-      <c r="AF88" s="20">
+      <c r="AI88" s="20">
         <v>0.23</v>
       </c>
-      <c r="AG88" s="40">
+      <c r="AJ88" s="43">
         <v>20382</v>
       </c>
-      <c r="AH88" s="40"/>
-      <c r="AI88" s="36">
+      <c r="AK88" s="43"/>
+      <c r="AL88" s="44">
         <v>10.1</v>
       </c>
-      <c r="AJ88" s="37"/>
-    </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM88" s="45"/>
+    </row>
+    <row r="89" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>54</v>
       </c>
@@ -5706,52 +6047,60 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S89" s="33">
+      <c r="R89" s="55"/>
+      <c r="S89" s="35">
         <v>38</v>
       </c>
-      <c r="T89" t="s">
+      <c r="T89" s="56">
+        <f t="shared" si="12"/>
+        <v>10.1</v>
+      </c>
+      <c r="V89" s="33">
+        <v>38</v>
+      </c>
+      <c r="W89" t="s">
         <v>37</v>
       </c>
-      <c r="U89" s="6">
-        <v>0</v>
-      </c>
-      <c r="V89" s="6">
-        <v>0</v>
-      </c>
-      <c r="X89" s="33">
+      <c r="X89" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="33">
         <v>38</v>
       </c>
-      <c r="Y89" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="6">
-        <v>0</v>
-      </c>
       <c r="AB89" s="6">
         <v>0</v>
       </c>
       <c r="AC89" s="6">
         <v>0</v>
       </c>
-      <c r="AE89" s="19">
+      <c r="AD89" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH89" s="19">
         <v>38</v>
       </c>
-      <c r="AF89" s="20">
+      <c r="AI89" s="20">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AG89" s="40">
+      <c r="AJ89" s="43">
         <v>19968</v>
       </c>
-      <c r="AH89" s="40"/>
-      <c r="AI89" s="36">
+      <c r="AK89" s="43"/>
+      <c r="AL89" s="44">
         <v>10.1</v>
       </c>
-      <c r="AJ89" s="37"/>
-    </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM89" s="45"/>
+    </row>
+    <row r="90" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>55</v>
       </c>
@@ -5794,52 +6143,60 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S90" s="33">
+      <c r="R90" s="55"/>
+      <c r="S90" s="35">
         <v>39</v>
       </c>
-      <c r="T90" t="s">
+      <c r="T90" s="56">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="V90" s="33">
+        <v>39</v>
+      </c>
+      <c r="W90" t="s">
         <v>37</v>
       </c>
-      <c r="U90" s="6">
-        <v>0</v>
-      </c>
-      <c r="V90" s="6">
-        <v>0</v>
-      </c>
-      <c r="X90" s="33">
+      <c r="X90" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="33">
         <v>39</v>
       </c>
-      <c r="Y90" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z90" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA90" s="6">
-        <v>0</v>
-      </c>
       <c r="AB90" s="6">
         <v>0</v>
       </c>
       <c r="AC90" s="6">
         <v>0</v>
       </c>
-      <c r="AE90" s="19">
+      <c r="AD90" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE90" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF90" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH90" s="19">
         <v>39</v>
       </c>
-      <c r="AF90" s="20">
+      <c r="AI90" s="20">
         <v>0.26500000000000001</v>
       </c>
-      <c r="AG90" s="40">
+      <c r="AJ90" s="43">
         <v>23240</v>
       </c>
-      <c r="AH90" s="40"/>
-      <c r="AI90" s="36">
+      <c r="AK90" s="43"/>
+      <c r="AL90" s="44">
         <v>10</v>
       </c>
-      <c r="AJ90" s="37"/>
-    </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM90" s="45"/>
+    </row>
+    <row r="91" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>56</v>
       </c>
@@ -5882,52 +6239,60 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S91" s="33">
+      <c r="R91" s="55"/>
+      <c r="S91" s="35">
         <v>40</v>
       </c>
-      <c r="T91" t="s">
+      <c r="T91" s="56">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="V91" s="33">
+        <v>40</v>
+      </c>
+      <c r="W91" t="s">
         <v>37</v>
       </c>
-      <c r="U91" s="6">
-        <v>0</v>
-      </c>
-      <c r="V91" s="6">
-        <v>0</v>
-      </c>
-      <c r="X91" s="33">
+      <c r="X91" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="33">
         <v>40</v>
       </c>
-      <c r="Y91" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="6">
-        <v>0</v>
-      </c>
       <c r="AB91" s="6">
         <v>0</v>
       </c>
       <c r="AC91" s="6">
         <v>0</v>
       </c>
-      <c r="AE91" s="21">
+      <c r="AD91" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH91" s="21">
         <v>40</v>
       </c>
-      <c r="AF91" s="22">
+      <c r="AI91" s="22">
         <v>0.254</v>
       </c>
-      <c r="AG91" s="41">
+      <c r="AJ91" s="48">
         <v>26709</v>
       </c>
-      <c r="AH91" s="41"/>
-      <c r="AI91" s="38">
+      <c r="AK91" s="48"/>
+      <c r="AL91" s="46">
         <v>12</v>
       </c>
-      <c r="AJ91" s="39"/>
-    </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM91" s="47"/>
+    </row>
+    <row r="92" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>83</v>
       </c>
@@ -5968,38 +6333,45 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S92" s="33">
+      <c r="R92" s="55"/>
+      <c r="S92" s="35">
         <v>41</v>
       </c>
-      <c r="T92" t="s">
+      <c r="T92" s="56">
+        <v>0</v>
+      </c>
+      <c r="V92" s="33">
+        <v>41</v>
+      </c>
+      <c r="W92" t="s">
         <v>37</v>
       </c>
-      <c r="U92" s="6">
-        <v>0</v>
-      </c>
-      <c r="V92" s="6">
-        <v>0</v>
-      </c>
-      <c r="X92" s="33">
+      <c r="X92" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="33">
         <v>41</v>
       </c>
-      <c r="Y92" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z92" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA92" s="6">
-        <v>0</v>
-      </c>
       <c r="AB92" s="6">
         <v>0</v>
       </c>
       <c r="AC92" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AD92" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>84</v>
       </c>
@@ -6040,38 +6412,45 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S93" s="33">
+      <c r="R93" s="55"/>
+      <c r="S93" s="35">
         <v>42</v>
       </c>
-      <c r="T93" t="s">
+      <c r="T93" s="56">
+        <v>0</v>
+      </c>
+      <c r="V93" s="33">
+        <v>42</v>
+      </c>
+      <c r="W93" t="s">
         <v>85</v>
       </c>
-      <c r="U93" s="6">
-        <v>0</v>
-      </c>
-      <c r="V93" s="6">
-        <v>0</v>
-      </c>
-      <c r="X93" s="33">
+      <c r="X93" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="33">
         <v>42</v>
       </c>
-      <c r="Y93" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z93" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA93" s="6">
-        <v>0</v>
-      </c>
       <c r="AB93" s="6">
         <v>0</v>
       </c>
       <c r="AC93" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AD93" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>102</v>
       </c>
@@ -6112,38 +6491,111 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S94" s="33">
+      <c r="R94" s="55"/>
+      <c r="S94" s="35">
         <v>43</v>
       </c>
-      <c r="U94" s="6">
-        <v>0</v>
-      </c>
-      <c r="V94" s="6">
-        <v>0</v>
-      </c>
-      <c r="X94" s="33">
+      <c r="T94" s="56">
+        <v>10000</v>
+      </c>
+      <c r="V94" s="33">
         <v>43</v>
       </c>
+      <c r="W94" t="s">
+        <v>102</v>
+      </c>
+      <c r="X94" s="6">
+        <v>0</v>
+      </c>
       <c r="Y94" s="6">
         <v>0</v>
       </c>
-      <c r="Z94" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="6">
-        <v>0</v>
+      <c r="AA94" s="33">
+        <v>43</v>
       </c>
       <c r="AB94" s="6">
         <v>0</v>
       </c>
       <c r="AC94" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="AL89:AM89"/>
+    <mergeCell ref="AL90:AM90"/>
+    <mergeCell ref="AL91:AM91"/>
+    <mergeCell ref="AL84:AM84"/>
+    <mergeCell ref="AL85:AM85"/>
+    <mergeCell ref="AL86:AM86"/>
+    <mergeCell ref="AL87:AM87"/>
+    <mergeCell ref="AL88:AM88"/>
+    <mergeCell ref="AJ90:AK90"/>
+    <mergeCell ref="AJ91:AK91"/>
+    <mergeCell ref="AL69:AM70"/>
+    <mergeCell ref="AL72:AM72"/>
+    <mergeCell ref="AL73:AM73"/>
+    <mergeCell ref="AL74:AM74"/>
+    <mergeCell ref="AL75:AM75"/>
+    <mergeCell ref="AL76:AM76"/>
+    <mergeCell ref="AL77:AM77"/>
+    <mergeCell ref="AL78:AM78"/>
+    <mergeCell ref="AL79:AM79"/>
+    <mergeCell ref="AL80:AM80"/>
+    <mergeCell ref="AL81:AM81"/>
+    <mergeCell ref="AL82:AM82"/>
+    <mergeCell ref="AL83:AM83"/>
+    <mergeCell ref="AJ85:AK85"/>
+    <mergeCell ref="AJ86:AK86"/>
+    <mergeCell ref="AJ87:AK87"/>
+    <mergeCell ref="AJ88:AK88"/>
+    <mergeCell ref="AJ89:AK89"/>
+    <mergeCell ref="AJ80:AK80"/>
+    <mergeCell ref="AJ81:AK81"/>
+    <mergeCell ref="AJ82:AK82"/>
+    <mergeCell ref="AJ83:AK83"/>
+    <mergeCell ref="AJ84:AK84"/>
+    <mergeCell ref="AJ75:AK75"/>
+    <mergeCell ref="AJ76:AK76"/>
+    <mergeCell ref="AJ77:AK77"/>
+    <mergeCell ref="AJ78:AK78"/>
+    <mergeCell ref="AJ79:AK79"/>
+    <mergeCell ref="AI69:AI70"/>
+    <mergeCell ref="AJ69:AK70"/>
+    <mergeCell ref="AJ72:AK72"/>
+    <mergeCell ref="AJ73:AK73"/>
+    <mergeCell ref="AJ74:AK74"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="I11:K11"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
@@ -6152,69 +6604,6 @@
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="N8:P8"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="AF69:AF70"/>
-    <mergeCell ref="AG69:AH70"/>
-    <mergeCell ref="AG72:AH72"/>
-    <mergeCell ref="AG73:AH73"/>
-    <mergeCell ref="AG74:AH74"/>
-    <mergeCell ref="AG75:AH75"/>
-    <mergeCell ref="AG76:AH76"/>
-    <mergeCell ref="AG77:AH77"/>
-    <mergeCell ref="AG78:AH78"/>
-    <mergeCell ref="AG79:AH79"/>
-    <mergeCell ref="AG87:AH87"/>
-    <mergeCell ref="AG88:AH88"/>
-    <mergeCell ref="AG89:AH89"/>
-    <mergeCell ref="AG80:AH80"/>
-    <mergeCell ref="AG81:AH81"/>
-    <mergeCell ref="AG82:AH82"/>
-    <mergeCell ref="AG83:AH83"/>
-    <mergeCell ref="AG84:AH84"/>
-    <mergeCell ref="AI81:AJ81"/>
-    <mergeCell ref="AI82:AJ82"/>
-    <mergeCell ref="AI83:AJ83"/>
-    <mergeCell ref="AG85:AH85"/>
-    <mergeCell ref="AG86:AH86"/>
-    <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AI78:AJ78"/>
-    <mergeCell ref="AI79:AJ79"/>
-    <mergeCell ref="AI80:AJ80"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="AI89:AJ89"/>
-    <mergeCell ref="AI90:AJ90"/>
-    <mergeCell ref="AI91:AJ91"/>
-    <mergeCell ref="AI84:AJ84"/>
-    <mergeCell ref="AI85:AJ85"/>
-    <mergeCell ref="AI86:AJ86"/>
-    <mergeCell ref="AI87:AJ87"/>
-    <mergeCell ref="AI88:AJ88"/>
-    <mergeCell ref="AG90:AH90"/>
-    <mergeCell ref="AG91:AH91"/>
-    <mergeCell ref="AI69:AJ70"/>
-    <mergeCell ref="AI72:AJ72"/>
-    <mergeCell ref="AI73:AJ73"/>
-    <mergeCell ref="AI74:AJ74"/>
-    <mergeCell ref="AI75:AJ75"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="N6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -646,28 +646,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -682,10 +665,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -697,10 +689,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -985,7 +985,7 @@
   <dimension ref="A1:AM94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T52" sqref="T52:T94"/>
+      <selection activeCell="T94" sqref="T94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1017,37 +1017,37 @@
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="36"/>
+      <c r="F1" s="40"/>
       <c r="G1" s="15">
         <v>0.1</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
       <c r="L1" s="16">
         <v>7256200.8565999996</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
       <c r="Q1" s="25">
         <v>2221460.4</v>
       </c>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="V1" s="36" t="s">
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="V1" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
       <c r="Y1" s="25">
         <v>8809340386.1000004</v>
       </c>
@@ -1059,38 +1059,38 @@
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="6">
         <v>7000</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="24">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
       <c r="Q2" s="25">
         <v>19867.2</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="V2" s="36" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="V2" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="28">
         <v>348494.96600000001</v>
       </c>
@@ -1105,31 +1105,31 @@
       <c r="C3" s="6">
         <v>43</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="36"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I3" s="4"/>
       <c r="L3" s="26"/>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
       <c r="Q3" s="25">
         <v>1596613.3</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="V3" s="36" t="s">
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="V3" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
       <c r="Y3" s="29">
         <v>2066077.2990000001</v>
       </c>
@@ -1145,30 +1145,30 @@
         <v>26</v>
       </c>
       <c r="D4" s="14"/>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="36"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="16">
         <v>1</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="N4" s="36" t="s">
+      <c r="N4" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
       <c r="Q4" s="25">
         <v>43560</v>
       </c>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="V4" s="36" t="s">
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="V4" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
       <c r="Y4" s="28">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
@@ -1179,30 +1179,30 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="16">
         <v>1</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
       <c r="Q5" s="27">
         <v>50</v>
       </c>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="V5" s="36" t="s">
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="V5" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
       <c r="Y5" s="28">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
@@ -1219,30 +1219,30 @@
         <f>16*365</f>
         <v>5840</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="10">
         <v>0.3</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
       <c r="Q6" s="27">
         <v>10</v>
       </c>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="V6" s="36" t="s">
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="V6" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
       <c r="Y6" s="28">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
@@ -1259,22 +1259,22 @@
         <f>8*365</f>
         <v>2920</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="N7" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
       <c r="Q7" s="25">
         <v>601000</v>
       </c>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="V7" s="36" t="s">
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="V7" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
       <c r="Y7" s="28">
         <f>Y4*Y6</f>
         <v>29903074042.27026</v>
@@ -1284,22 +1284,22 @@
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="N8" s="36" t="s">
+      <c r="N8" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
       <c r="Q8" s="25">
         <v>15025</v>
       </c>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="V8" s="36" t="s">
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="V8" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
       <c r="Y8" s="28">
         <f>Y5*Y6</f>
         <v>5911072775.7976093</v>
@@ -1309,17 +1309,17 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="N9" s="36" t="s">
+      <c r="N9" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
       <c r="Q9" s="27">
         <v>0.95</v>
       </c>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
       <c r="V9" s="34"/>
       <c r="W9" s="34"/>
       <c r="X9" s="34"/>
@@ -1332,17 +1332,17 @@
       <c r="Y10" s="28"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="2"/>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
       <c r="L11" s="33"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.35">
@@ -2435,17 +2435,17 @@
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
       <c r="F42" s="2"/>
-      <c r="H42" s="37" t="s">
+      <c r="H42" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
       <c r="O42" s="4"/>
@@ -2671,11 +2671,11 @@
       <c r="AG49" s="12"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
       <c r="X50" t="s">
         <v>17</v>
       </c>
@@ -2774,14 +2774,14 @@
         <f t="shared" ref="Q52:Q94" si="8">X52*Y52*1000/1000000</f>
         <v>39.666780000000003</v>
       </c>
-      <c r="R52" s="55"/>
+      <c r="R52" s="38"/>
       <c r="S52" s="35">
         <v>1</v>
       </c>
-      <c r="T52" s="56">
+      <c r="T52" s="39">
         <v>2520</v>
       </c>
-      <c r="U52" s="55"/>
+      <c r="U52" s="38"/>
       <c r="V52" s="33">
         <v>1</v>
       </c>
@@ -2855,14 +2855,14 @@
         <f t="shared" si="8"/>
         <v>23.617080000000001</v>
       </c>
-      <c r="R53" s="55"/>
+      <c r="R53" s="38"/>
       <c r="S53" s="35">
         <v>2</v>
       </c>
-      <c r="T53" s="56">
+      <c r="T53" s="39">
         <v>1980</v>
       </c>
-      <c r="U53" s="55"/>
+      <c r="U53" s="38"/>
       <c r="V53" s="33">
         <v>2</v>
       </c>
@@ -2936,14 +2936,14 @@
         <f t="shared" si="8"/>
         <v>28.115279999999998</v>
       </c>
-      <c r="R54" s="55"/>
+      <c r="R54" s="38"/>
       <c r="S54" s="35">
         <v>3</v>
       </c>
-      <c r="T54" s="56">
+      <c r="T54" s="39">
         <v>240</v>
       </c>
-      <c r="U54" s="55"/>
+      <c r="U54" s="38"/>
       <c r="V54" s="33">
         <v>3</v>
       </c>
@@ -3017,14 +3017,14 @@
         <f t="shared" si="8"/>
         <v>21.77496</v>
       </c>
-      <c r="R55" s="55"/>
+      <c r="R55" s="38"/>
       <c r="S55" s="35">
         <v>4</v>
       </c>
-      <c r="T55" s="56">
+      <c r="T55" s="39">
         <v>1020</v>
       </c>
-      <c r="U55" s="55"/>
+      <c r="U55" s="38"/>
       <c r="V55" s="33">
         <v>4</v>
       </c>
@@ -3098,14 +3098,14 @@
         <f t="shared" si="8"/>
         <v>23.94144</v>
       </c>
-      <c r="R56" s="55"/>
+      <c r="R56" s="38"/>
       <c r="S56" s="35">
         <v>5</v>
       </c>
-      <c r="T56" s="56">
+      <c r="T56" s="39">
         <v>2220</v>
       </c>
-      <c r="U56" s="55"/>
+      <c r="U56" s="38"/>
       <c r="V56" s="33">
         <v>5</v>
       </c>
@@ -3179,14 +3179,14 @@
         <f t="shared" si="8"/>
         <v>38.22552000000001</v>
       </c>
-      <c r="R57" s="55"/>
+      <c r="R57" s="38"/>
       <c r="S57" s="35">
         <v>6</v>
       </c>
-      <c r="T57" s="56">
+      <c r="T57" s="39">
         <v>300</v>
       </c>
-      <c r="U57" s="55"/>
+      <c r="U57" s="38"/>
       <c r="V57" s="33">
         <v>6</v>
       </c>
@@ -3260,14 +3260,14 @@
         <f t="shared" si="8"/>
         <v>1.6982999999999999</v>
       </c>
-      <c r="R58" s="55"/>
+      <c r="R58" s="38"/>
       <c r="S58" s="35">
         <v>7</v>
       </c>
-      <c r="T58" s="56">
+      <c r="T58" s="39">
         <v>420</v>
       </c>
-      <c r="U58" s="55"/>
+      <c r="U58" s="38"/>
       <c r="V58" s="33">
         <v>7</v>
       </c>
@@ -3341,14 +3341,14 @@
         <f t="shared" si="8"/>
         <v>36.677160000000001</v>
       </c>
-      <c r="R59" s="55"/>
+      <c r="R59" s="38"/>
       <c r="S59" s="35">
         <v>8</v>
       </c>
-      <c r="T59" s="56">
+      <c r="T59" s="39">
         <v>420</v>
       </c>
-      <c r="U59" s="55"/>
+      <c r="U59" s="38"/>
       <c r="V59" s="33">
         <v>8</v>
       </c>
@@ -3422,14 +3422,14 @@
         <f t="shared" si="8"/>
         <v>23.494679999999999</v>
       </c>
-      <c r="R60" s="55"/>
+      <c r="R60" s="38"/>
       <c r="S60" s="35">
         <v>9</v>
       </c>
-      <c r="T60" s="56">
+      <c r="T60" s="39">
         <v>1980</v>
       </c>
-      <c r="U60" s="55"/>
+      <c r="U60" s="38"/>
       <c r="V60" s="33">
         <v>9</v>
       </c>
@@ -3503,14 +3503,14 @@
         <f t="shared" si="8"/>
         <v>31.606739999999999</v>
       </c>
-      <c r="R61" s="55"/>
+      <c r="R61" s="38"/>
       <c r="S61" s="35">
         <v>10</v>
       </c>
-      <c r="T61" s="56">
+      <c r="T61" s="39">
         <v>900</v>
       </c>
-      <c r="U61" s="55"/>
+      <c r="U61" s="38"/>
       <c r="V61" s="33">
         <v>10</v>
       </c>
@@ -3584,14 +3584,14 @@
         <f t="shared" si="8"/>
         <v>38.996639999999999</v>
       </c>
-      <c r="R62" s="55"/>
+      <c r="R62" s="38"/>
       <c r="S62" s="35">
         <v>11</v>
       </c>
-      <c r="T62" s="56">
+      <c r="T62" s="39">
         <v>480</v>
       </c>
-      <c r="U62" s="55"/>
+      <c r="U62" s="38"/>
       <c r="V62" s="33">
         <v>11</v>
       </c>
@@ -3665,14 +3665,14 @@
         <f t="shared" si="8"/>
         <v>35.954999999999998</v>
       </c>
-      <c r="R63" s="55"/>
+      <c r="R63" s="38"/>
       <c r="S63" s="35">
         <v>12</v>
       </c>
-      <c r="T63" s="56">
+      <c r="T63" s="39">
         <v>720</v>
       </c>
-      <c r="U63" s="55"/>
+      <c r="U63" s="38"/>
       <c r="V63" s="33">
         <v>12</v>
       </c>
@@ -3746,14 +3746,14 @@
         <f t="shared" si="8"/>
         <v>26.289359999999999</v>
       </c>
-      <c r="R64" s="55"/>
+      <c r="R64" s="38"/>
       <c r="S64" s="35">
         <v>13</v>
       </c>
-      <c r="T64" s="56">
+      <c r="T64" s="39">
         <v>2220</v>
       </c>
-      <c r="U64" s="55"/>
+      <c r="U64" s="38"/>
       <c r="V64" s="33">
         <v>13</v>
       </c>
@@ -3827,14 +3827,14 @@
         <f t="shared" si="8"/>
         <v>34.819740000000003</v>
       </c>
-      <c r="R65" s="55"/>
+      <c r="R65" s="38"/>
       <c r="S65" s="35">
         <v>14</v>
       </c>
-      <c r="T65" s="56">
+      <c r="T65" s="39">
         <v>3120</v>
       </c>
-      <c r="U65" s="55"/>
+      <c r="U65" s="38"/>
       <c r="V65" s="33">
         <v>14</v>
       </c>
@@ -3908,14 +3908,14 @@
         <f t="shared" si="8"/>
         <v>37.647179999999999</v>
       </c>
-      <c r="R66" s="55"/>
+      <c r="R66" s="38"/>
       <c r="S66" s="35">
         <v>15</v>
       </c>
-      <c r="T66" s="56">
+      <c r="T66" s="39">
         <v>180</v>
       </c>
-      <c r="U66" s="55"/>
+      <c r="U66" s="38"/>
       <c r="V66" s="33">
         <v>15</v>
       </c>
@@ -3989,14 +3989,14 @@
         <f t="shared" si="8"/>
         <v>25.404119999999999</v>
       </c>
-      <c r="R67" s="55"/>
+      <c r="R67" s="38"/>
       <c r="S67" s="35">
         <v>16</v>
       </c>
-      <c r="T67" s="56">
+      <c r="T67" s="39">
         <v>180</v>
       </c>
-      <c r="U67" s="55"/>
+      <c r="U67" s="38"/>
       <c r="V67" s="33">
         <v>16</v>
       </c>
@@ -4070,14 +4070,14 @@
         <f t="shared" si="8"/>
         <v>23.453280000000003</v>
       </c>
-      <c r="R68" s="55"/>
+      <c r="R68" s="38"/>
       <c r="S68" s="35">
         <v>17</v>
       </c>
-      <c r="T68" s="56">
+      <c r="T68" s="39">
         <v>300</v>
       </c>
-      <c r="U68" s="55"/>
+      <c r="U68" s="38"/>
       <c r="V68" s="33">
         <v>17</v>
       </c>
@@ -4151,14 +4151,14 @@
         <f t="shared" si="8"/>
         <v>23.647680000000001</v>
       </c>
-      <c r="R69" s="55"/>
+      <c r="R69" s="38"/>
       <c r="S69" s="35">
         <v>18</v>
       </c>
-      <c r="T69" s="56">
+      <c r="T69" s="39">
         <v>2700</v>
       </c>
-      <c r="U69" s="55"/>
+      <c r="U69" s="38"/>
       <c r="V69" s="33">
         <v>18</v>
       </c>
@@ -4190,17 +4190,17 @@
       <c r="AF69" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AI69" s="38" t="s">
+      <c r="AI69" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="AJ69" s="40" t="s">
+      <c r="AJ69" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="AK69" s="40"/>
-      <c r="AL69" s="40" t="s">
+      <c r="AK69" s="47"/>
+      <c r="AL69" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="AM69" s="49"/>
+      <c r="AM69" s="48"/>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
@@ -4243,14 +4243,14 @@
         <f t="shared" si="8"/>
         <v>223.99503999999999</v>
       </c>
-      <c r="R70" s="55"/>
+      <c r="R70" s="38"/>
       <c r="S70" s="35">
         <v>19</v>
       </c>
-      <c r="T70" s="56">
+      <c r="T70" s="39">
         <v>120</v>
       </c>
-      <c r="U70" s="55"/>
+      <c r="U70" s="38"/>
       <c r="V70" s="33">
         <v>19</v>
       </c>
@@ -4282,10 +4282,10 @@
       <c r="AF70" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="AI70" s="39"/>
-      <c r="AJ70" s="41"/>
-      <c r="AK70" s="41"/>
-      <c r="AL70" s="41"/>
+      <c r="AI70" s="54"/>
+      <c r="AJ70" s="49"/>
+      <c r="AK70" s="49"/>
+      <c r="AL70" s="49"/>
       <c r="AM70" s="50"/>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.35">
@@ -4329,14 +4329,14 @@
         <f t="shared" si="8"/>
         <v>36.931139999999999</v>
       </c>
-      <c r="R71" s="55"/>
+      <c r="R71" s="38"/>
       <c r="S71" s="35">
         <v>20</v>
       </c>
-      <c r="T71" s="56">
+      <c r="T71" s="39">
         <v>1920</v>
       </c>
-      <c r="U71" s="55"/>
+      <c r="U71" s="38"/>
       <c r="V71" s="33">
         <v>20</v>
       </c>
@@ -4415,11 +4415,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R72" s="55"/>
+      <c r="R72" s="38"/>
       <c r="S72" s="35">
         <v>21</v>
       </c>
-      <c r="T72" s="56">
+      <c r="T72" s="39">
         <f>H72</f>
         <v>28.1</v>
       </c>
@@ -4459,10 +4459,10 @@
       <c r="AI72" s="18">
         <v>0.29299999999999998</v>
       </c>
-      <c r="AJ72" s="42">
+      <c r="AJ72" s="55">
         <v>72154</v>
       </c>
-      <c r="AK72" s="42"/>
+      <c r="AK72" s="55"/>
       <c r="AL72" s="51">
         <v>28.1</v>
       </c>
@@ -4511,11 +4511,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R73" s="55"/>
+      <c r="R73" s="38"/>
       <c r="S73" s="35">
         <v>22</v>
       </c>
-      <c r="T73" s="56">
+      <c r="T73" s="39">
         <f t="shared" ref="T73:T91" si="12">H73</f>
         <v>25</v>
       </c>
@@ -4555,14 +4555,14 @@
       <c r="AI73" s="20">
         <v>0.31</v>
       </c>
-      <c r="AJ73" s="43">
+      <c r="AJ73" s="45">
         <v>67811</v>
       </c>
-      <c r="AK73" s="43"/>
-      <c r="AL73" s="44">
+      <c r="AK73" s="45"/>
+      <c r="AL73" s="41">
         <v>25</v>
       </c>
-      <c r="AM73" s="45"/>
+      <c r="AM73" s="42"/>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
@@ -4607,11 +4607,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R74" s="55"/>
+      <c r="R74" s="38"/>
       <c r="S74" s="35">
         <v>23</v>
       </c>
-      <c r="T74" s="56">
+      <c r="T74" s="39">
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
@@ -4651,14 +4651,14 @@
       <c r="AI74" s="20">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AJ74" s="43">
+      <c r="AJ74" s="45">
         <v>187455</v>
       </c>
-      <c r="AK74" s="43"/>
-      <c r="AL74" s="44">
+      <c r="AK74" s="45"/>
+      <c r="AL74" s="41">
         <v>70</v>
       </c>
-      <c r="AM74" s="45"/>
+      <c r="AM74" s="42"/>
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
@@ -4703,11 +4703,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R75" s="55"/>
+      <c r="R75" s="38"/>
       <c r="S75" s="35">
         <v>24</v>
       </c>
-      <c r="T75" s="56">
+      <c r="T75" s="39">
         <f t="shared" si="12"/>
         <v>30.6</v>
       </c>
@@ -4747,14 +4747,14 @@
       <c r="AI75" s="20">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AJ75" s="43">
+      <c r="AJ75" s="45">
         <v>63266</v>
       </c>
-      <c r="AK75" s="43"/>
-      <c r="AL75" s="44">
+      <c r="AK75" s="45"/>
+      <c r="AL75" s="41">
         <v>30.6</v>
       </c>
-      <c r="AM75" s="45"/>
+      <c r="AM75" s="42"/>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
@@ -4799,11 +4799,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R76" s="55"/>
+      <c r="R76" s="38"/>
       <c r="S76" s="35">
         <v>25</v>
       </c>
-      <c r="T76" s="56">
+      <c r="T76" s="39">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
@@ -4843,14 +4843,14 @@
       <c r="AI76" s="20">
         <v>0.30299999999999999</v>
       </c>
-      <c r="AJ76" s="43">
+      <c r="AJ76" s="45">
         <v>26553</v>
       </c>
-      <c r="AK76" s="43"/>
-      <c r="AL76" s="44">
+      <c r="AK76" s="45"/>
+      <c r="AL76" s="41">
         <v>10</v>
       </c>
-      <c r="AM76" s="45"/>
+      <c r="AM76" s="42"/>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
@@ -4895,11 +4895,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R77" s="55"/>
+      <c r="R77" s="38"/>
       <c r="S77" s="35">
         <v>26</v>
       </c>
-      <c r="T77" s="56">
+      <c r="T77" s="39">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
@@ -4939,14 +4939,14 @@
       <c r="AI77" s="20">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AJ77" s="43">
+      <c r="AJ77" s="45">
         <v>24949</v>
       </c>
-      <c r="AK77" s="43"/>
-      <c r="AL77" s="44">
+      <c r="AK77" s="45"/>
+      <c r="AL77" s="41">
         <v>10</v>
       </c>
-      <c r="AM77" s="45"/>
+      <c r="AM77" s="42"/>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
@@ -4991,11 +4991,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R78" s="55"/>
+      <c r="R78" s="38"/>
       <c r="S78" s="35">
         <v>27</v>
       </c>
-      <c r="T78" s="56">
+      <c r="T78" s="39">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
@@ -5035,14 +5035,14 @@
       <c r="AI78" s="20">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AJ78" s="43">
+      <c r="AJ78" s="45">
         <v>22870</v>
       </c>
-      <c r="AK78" s="43"/>
-      <c r="AL78" s="44">
+      <c r="AK78" s="45"/>
+      <c r="AL78" s="41">
         <v>10</v>
       </c>
-      <c r="AM78" s="45"/>
+      <c r="AM78" s="42"/>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
@@ -5087,11 +5087,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R79" s="55"/>
+      <c r="R79" s="38"/>
       <c r="S79" s="35">
         <v>28</v>
       </c>
-      <c r="T79" s="56">
+      <c r="T79" s="39">
         <f t="shared" si="12"/>
         <v>52.2</v>
       </c>
@@ -5131,14 +5131,14 @@
       <c r="AI79" s="20">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AJ79" s="43">
+      <c r="AJ79" s="45">
         <v>139836</v>
       </c>
-      <c r="AK79" s="43"/>
-      <c r="AL79" s="44">
+      <c r="AK79" s="45"/>
+      <c r="AL79" s="41">
         <v>52.2</v>
       </c>
-      <c r="AM79" s="45"/>
+      <c r="AM79" s="42"/>
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
@@ -5183,11 +5183,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R80" s="55"/>
+      <c r="R80" s="38"/>
       <c r="S80" s="35">
         <v>29</v>
       </c>
-      <c r="T80" s="56">
+      <c r="T80" s="39">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
@@ -5227,14 +5227,14 @@
       <c r="AI80" s="20">
         <v>0.26800000000000002</v>
       </c>
-      <c r="AJ80" s="43">
+      <c r="AJ80" s="45">
         <v>23515</v>
       </c>
-      <c r="AK80" s="43"/>
-      <c r="AL80" s="44">
+      <c r="AK80" s="45"/>
+      <c r="AL80" s="41">
         <v>10</v>
       </c>
-      <c r="AM80" s="45"/>
+      <c r="AM80" s="42"/>
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -5279,11 +5279,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R81" s="55"/>
+      <c r="R81" s="38"/>
       <c r="S81" s="35">
         <v>30</v>
       </c>
-      <c r="T81" s="56">
+      <c r="T81" s="39">
         <f t="shared" si="12"/>
         <v>20.2</v>
       </c>
@@ -5323,14 +5323,14 @@
       <c r="AI81" s="20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AJ81" s="43">
+      <c r="AJ81" s="45">
         <v>49503</v>
       </c>
-      <c r="AK81" s="43"/>
-      <c r="AL81" s="44">
+      <c r="AK81" s="45"/>
+      <c r="AL81" s="41">
         <v>20.2</v>
       </c>
-      <c r="AM81" s="45"/>
+      <c r="AM81" s="42"/>
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
@@ -5375,11 +5375,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R82" s="55"/>
+      <c r="R82" s="38"/>
       <c r="S82" s="35">
         <v>31</v>
       </c>
-      <c r="T82" s="56">
+      <c r="T82" s="39">
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
@@ -5419,14 +5419,14 @@
       <c r="AI82" s="20">
         <v>0.307</v>
       </c>
-      <c r="AJ82" s="43">
+      <c r="AJ82" s="45">
         <v>188420</v>
       </c>
-      <c r="AK82" s="43"/>
-      <c r="AL82" s="44">
+      <c r="AK82" s="45"/>
+      <c r="AL82" s="41">
         <v>70</v>
       </c>
-      <c r="AM82" s="45"/>
+      <c r="AM82" s="42"/>
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
@@ -5471,11 +5471,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R83" s="55"/>
+      <c r="R83" s="38"/>
       <c r="S83" s="35">
         <v>32</v>
       </c>
-      <c r="T83" s="56">
+      <c r="T83" s="39">
         <f t="shared" si="12"/>
         <v>10.5</v>
       </c>
@@ -5515,14 +5515,14 @@
       <c r="AI83" s="20">
         <v>0.28899999999999998</v>
       </c>
-      <c r="AJ83" s="43">
+      <c r="AJ83" s="45">
         <v>26573</v>
       </c>
-      <c r="AK83" s="43"/>
-      <c r="AL83" s="44">
+      <c r="AK83" s="45"/>
+      <c r="AL83" s="41">
         <v>10.5</v>
       </c>
-      <c r="AM83" s="45"/>
+      <c r="AM83" s="42"/>
     </row>
     <row r="84" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
@@ -5567,11 +5567,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R84" s="55"/>
+      <c r="R84" s="38"/>
       <c r="S84" s="35">
         <v>33</v>
       </c>
-      <c r="T84" s="56">
+      <c r="T84" s="39">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
@@ -5611,14 +5611,14 @@
       <c r="AI84" s="20">
         <v>0.28799999999999998</v>
       </c>
-      <c r="AJ84" s="43">
+      <c r="AJ84" s="45">
         <v>25253</v>
       </c>
-      <c r="AK84" s="43"/>
-      <c r="AL84" s="44">
+      <c r="AK84" s="45"/>
+      <c r="AL84" s="41">
         <v>10</v>
       </c>
-      <c r="AM84" s="45"/>
+      <c r="AM84" s="42"/>
     </row>
     <row r="85" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
@@ -5663,11 +5663,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R85" s="55"/>
+      <c r="R85" s="38"/>
       <c r="S85" s="35">
         <v>34</v>
       </c>
-      <c r="T85" s="56">
+      <c r="T85" s="39">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
@@ -5707,14 +5707,14 @@
       <c r="AI85" s="20">
         <v>0.20100000000000001</v>
       </c>
-      <c r="AJ85" s="43">
+      <c r="AJ85" s="45">
         <v>17610</v>
       </c>
-      <c r="AK85" s="43"/>
-      <c r="AL85" s="44">
+      <c r="AK85" s="45"/>
+      <c r="AL85" s="41">
         <v>10</v>
       </c>
-      <c r="AM85" s="45"/>
+      <c r="AM85" s="42"/>
     </row>
     <row r="86" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
@@ -5759,11 +5759,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R86" s="55"/>
+      <c r="R86" s="38"/>
       <c r="S86" s="35">
         <v>35</v>
       </c>
-      <c r="T86" s="56">
+      <c r="T86" s="39">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
@@ -5803,14 +5803,14 @@
       <c r="AI86" s="20">
         <v>0.221</v>
       </c>
-      <c r="AJ86" s="43">
+      <c r="AJ86" s="45">
         <v>19372</v>
       </c>
-      <c r="AK86" s="43"/>
-      <c r="AL86" s="44">
+      <c r="AK86" s="45"/>
+      <c r="AL86" s="41">
         <v>10</v>
       </c>
-      <c r="AM86" s="45"/>
+      <c r="AM86" s="42"/>
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
@@ -5855,11 +5855,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R87" s="55"/>
+      <c r="R87" s="38"/>
       <c r="S87" s="35">
         <v>36</v>
       </c>
-      <c r="T87" s="56">
+      <c r="T87" s="39">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
@@ -5899,14 +5899,14 @@
       <c r="AI87" s="20">
         <v>0.216</v>
       </c>
-      <c r="AJ87" s="43">
+      <c r="AJ87" s="45">
         <v>18939</v>
       </c>
-      <c r="AK87" s="43"/>
-      <c r="AL87" s="44">
+      <c r="AK87" s="45"/>
+      <c r="AL87" s="41">
         <v>10</v>
       </c>
-      <c r="AM87" s="45"/>
+      <c r="AM87" s="42"/>
     </row>
     <row r="88" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
@@ -5951,11 +5951,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R88" s="55"/>
+      <c r="R88" s="38"/>
       <c r="S88" s="35">
         <v>37</v>
       </c>
-      <c r="T88" s="56">
+      <c r="T88" s="39">
         <f t="shared" si="12"/>
         <v>10.1</v>
       </c>
@@ -5995,14 +5995,14 @@
       <c r="AI88" s="20">
         <v>0.23</v>
       </c>
-      <c r="AJ88" s="43">
+      <c r="AJ88" s="45">
         <v>20382</v>
       </c>
-      <c r="AK88" s="43"/>
-      <c r="AL88" s="44">
+      <c r="AK88" s="45"/>
+      <c r="AL88" s="41">
         <v>10.1</v>
       </c>
-      <c r="AM88" s="45"/>
+      <c r="AM88" s="42"/>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
@@ -6047,11 +6047,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R89" s="55"/>
+      <c r="R89" s="38"/>
       <c r="S89" s="35">
         <v>38</v>
       </c>
-      <c r="T89" s="56">
+      <c r="T89" s="39">
         <f t="shared" si="12"/>
         <v>10.1</v>
       </c>
@@ -6091,14 +6091,14 @@
       <c r="AI89" s="20">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AJ89" s="43">
+      <c r="AJ89" s="45">
         <v>19968</v>
       </c>
-      <c r="AK89" s="43"/>
-      <c r="AL89" s="44">
+      <c r="AK89" s="45"/>
+      <c r="AL89" s="41">
         <v>10.1</v>
       </c>
-      <c r="AM89" s="45"/>
+      <c r="AM89" s="42"/>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
@@ -6143,11 +6143,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R90" s="55"/>
+      <c r="R90" s="38"/>
       <c r="S90" s="35">
         <v>39</v>
       </c>
-      <c r="T90" s="56">
+      <c r="T90" s="39">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
@@ -6187,14 +6187,14 @@
       <c r="AI90" s="20">
         <v>0.26500000000000001</v>
       </c>
-      <c r="AJ90" s="43">
+      <c r="AJ90" s="45">
         <v>23240</v>
       </c>
-      <c r="AK90" s="43"/>
-      <c r="AL90" s="44">
+      <c r="AK90" s="45"/>
+      <c r="AL90" s="41">
         <v>10</v>
       </c>
-      <c r="AM90" s="45"/>
+      <c r="AM90" s="42"/>
     </row>
     <row r="91" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
@@ -6239,11 +6239,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R91" s="55"/>
+      <c r="R91" s="38"/>
       <c r="S91" s="35">
         <v>40</v>
       </c>
-      <c r="T91" s="56">
+      <c r="T91" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -6283,14 +6283,14 @@
       <c r="AI91" s="22">
         <v>0.254</v>
       </c>
-      <c r="AJ91" s="48">
+      <c r="AJ91" s="46">
         <v>26709</v>
       </c>
-      <c r="AK91" s="48"/>
-      <c r="AL91" s="46">
+      <c r="AK91" s="46"/>
+      <c r="AL91" s="43">
         <v>12</v>
       </c>
-      <c r="AM91" s="47"/>
+      <c r="AM91" s="44"/>
     </row>
     <row r="92" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
@@ -6333,12 +6333,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R92" s="55"/>
+      <c r="R92" s="38"/>
       <c r="S92" s="35">
         <v>41</v>
       </c>
-      <c r="T92" s="56">
-        <v>0</v>
+      <c r="T92" s="39">
+        <v>10000</v>
       </c>
       <c r="V92" s="33">
         <v>41</v>
@@ -6412,12 +6412,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R93" s="55"/>
+      <c r="R93" s="38"/>
       <c r="S93" s="35">
         <v>42</v>
       </c>
-      <c r="T93" s="56">
-        <v>0</v>
+      <c r="T93" s="39">
+        <v>10000</v>
       </c>
       <c r="V93" s="33">
         <v>42</v>
@@ -6491,11 +6491,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R94" s="55"/>
+      <c r="R94" s="38"/>
       <c r="S94" s="35">
         <v>43</v>
       </c>
-      <c r="T94" s="56">
+      <c r="T94" s="39">
         <v>10000</v>
       </c>
       <c r="V94" s="33">
@@ -6531,20 +6531,49 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="AI69:AI70"/>
+    <mergeCell ref="AJ69:AK70"/>
+    <mergeCell ref="AJ72:AK72"/>
+    <mergeCell ref="AJ73:AK73"/>
+    <mergeCell ref="AJ74:AK74"/>
+    <mergeCell ref="AJ75:AK75"/>
+    <mergeCell ref="AJ76:AK76"/>
+    <mergeCell ref="AJ77:AK77"/>
+    <mergeCell ref="AJ78:AK78"/>
+    <mergeCell ref="AJ79:AK79"/>
+    <mergeCell ref="AJ87:AK87"/>
+    <mergeCell ref="AJ88:AK88"/>
+    <mergeCell ref="AJ89:AK89"/>
+    <mergeCell ref="AJ80:AK80"/>
+    <mergeCell ref="AJ81:AK81"/>
+    <mergeCell ref="AJ82:AK82"/>
+    <mergeCell ref="AJ83:AK83"/>
+    <mergeCell ref="AJ84:AK84"/>
+    <mergeCell ref="AL81:AM81"/>
+    <mergeCell ref="AL82:AM82"/>
+    <mergeCell ref="AL83:AM83"/>
+    <mergeCell ref="AJ85:AK85"/>
+    <mergeCell ref="AJ86:AK86"/>
+    <mergeCell ref="AL76:AM76"/>
+    <mergeCell ref="AL77:AM77"/>
+    <mergeCell ref="AL78:AM78"/>
+    <mergeCell ref="AL79:AM79"/>
+    <mergeCell ref="AL80:AM80"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="AL89:AM89"/>
     <mergeCell ref="AL90:AM90"/>
@@ -6561,49 +6590,20 @@
     <mergeCell ref="AL73:AM73"/>
     <mergeCell ref="AL74:AM74"/>
     <mergeCell ref="AL75:AM75"/>
-    <mergeCell ref="AL76:AM76"/>
-    <mergeCell ref="AL77:AM77"/>
-    <mergeCell ref="AL78:AM78"/>
-    <mergeCell ref="AL79:AM79"/>
-    <mergeCell ref="AL80:AM80"/>
-    <mergeCell ref="AL81:AM81"/>
-    <mergeCell ref="AL82:AM82"/>
-    <mergeCell ref="AL83:AM83"/>
-    <mergeCell ref="AJ85:AK85"/>
-    <mergeCell ref="AJ86:AK86"/>
-    <mergeCell ref="AJ87:AK87"/>
-    <mergeCell ref="AJ88:AK88"/>
-    <mergeCell ref="AJ89:AK89"/>
-    <mergeCell ref="AJ80:AK80"/>
-    <mergeCell ref="AJ81:AK81"/>
-    <mergeCell ref="AJ82:AK82"/>
-    <mergeCell ref="AJ83:AK83"/>
-    <mergeCell ref="AJ84:AK84"/>
-    <mergeCell ref="AJ75:AK75"/>
-    <mergeCell ref="AJ76:AK76"/>
-    <mergeCell ref="AJ77:AK77"/>
-    <mergeCell ref="AJ78:AK78"/>
-    <mergeCell ref="AJ79:AK79"/>
-    <mergeCell ref="AI69:AI70"/>
-    <mergeCell ref="AJ69:AK70"/>
-    <mergeCell ref="AJ72:AK72"/>
-    <mergeCell ref="AJ73:AK73"/>
-    <mergeCell ref="AJ74:AK74"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="N6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -15,10 +15,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="bat_eff">Sheet2!$Q$7</definedName>
     <definedName name="CAPEX_solar">Sheet2!$Q$1</definedName>
+    <definedName name="CAPEX_storage">Sheet2!$Q$5</definedName>
     <definedName name="CAPEX_wind">Sheet2!$Q$3</definedName>
-    <definedName name="CH4_rate">Sheet2!$AK$55:$AK$97</definedName>
-    <definedName name="CO2_rate">Sheet2!$AJ$55:$AJ$97</definedName>
+    <definedName name="CH4_rate">Sheet2!$AN$55:$AN$97</definedName>
+    <definedName name="CO2_rate">Sheet2!$AM$55:$AM$97</definedName>
     <definedName name="DiscRate">Sheet2!$G$1</definedName>
     <definedName name="EV_subsidy_cost">Sheet2!$V$1</definedName>
     <definedName name="FallDemandOff">Sheet2!$AS$16:$AU$41</definedName>
@@ -35,19 +37,21 @@
     <definedName name="maxCO2">Sheet2!$L$2</definedName>
     <definedName name="MaxGenOff">Sheet2!$T$55:$T$97</definedName>
     <definedName name="MinGen">Sheet2!$W$55:$W$97</definedName>
-    <definedName name="N2O_rate">Sheet2!$AL$55:$AL$97</definedName>
-    <definedName name="NOx_rate">Sheet2!$AH$55:$AH$97</definedName>
+    <definedName name="N2O_rate">Sheet2!$AO$55:$AO$97</definedName>
+    <definedName name="NOx_rate">Sheet2!$AK$55:$AK$97</definedName>
     <definedName name="NumBuses">Sheet2!$C$1</definedName>
     <definedName name="NumLines">Sheet2!$C$2</definedName>
     <definedName name="NumUnits">Sheet2!$C$3</definedName>
     <definedName name="NumYears">Sheet2!$C$4</definedName>
     <definedName name="OffHours">Sheet2!$C$7</definedName>
     <definedName name="OPEX_solar">Sheet2!$Q$2</definedName>
+    <definedName name="OPEX_storage">Sheet2!$Q$6</definedName>
     <definedName name="OPEX_wind">Sheet2!$Q$4</definedName>
     <definedName name="PeakHours">Sheet2!$C$6</definedName>
-    <definedName name="SO2_rate">Sheet2!$AI$55:$AI$97</definedName>
+    <definedName name="RampRate">Sheet2!$AC$55:$AC$97</definedName>
+    <definedName name="SO2_rate">Sheet2!$AL$55:$AL$97</definedName>
     <definedName name="solar_cap_factor">Sheet2!$L$4</definedName>
-    <definedName name="solar_inc">Sheet2!$Q$5</definedName>
+    <definedName name="solar_inc">Sheet2!$Q$8</definedName>
     <definedName name="SpringDemandOff">Sheet2!$U$16:$W$41</definedName>
     <definedName name="SpringDemandPeak">Sheet2!$O$16:$Q$41</definedName>
     <definedName name="SpringMaxGenPeak">Sheet2!$K$55:$K$97</definedName>
@@ -62,7 +66,7 @@
     <definedName name="SummerSolarFactor">Sheet2!$N$53</definedName>
     <definedName name="UnitsByBus">Sheet2!$C$55:$E$97</definedName>
     <definedName name="wind_cap_factor">Sheet2!$L$5</definedName>
-    <definedName name="wind_inc">Sheet2!$Q$6</definedName>
+    <definedName name="wind_inc">Sheet2!$Q$9</definedName>
     <definedName name="WinterDemandOff">Sheet2!$I$16:$K$41</definedName>
     <definedName name="WinterDemandPeak">Sheet2!$C$16:$E$41</definedName>
     <definedName name="WinterMaxGenPeak">Sheet2!$H$55:$H$97</definedName>
@@ -80,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="145">
   <si>
     <t>NumBuses</t>
   </si>
@@ -503,6 +507,18 @@
   </si>
   <si>
     <t>FallSolarFactor</t>
+  </si>
+  <si>
+    <t>CAPEX of new storage ($):</t>
+  </si>
+  <si>
+    <t>OPEX of new storage ($/MW):</t>
+  </si>
+  <si>
+    <t>Battery Efficiency</t>
+  </si>
+  <si>
+    <t>RampRate (MW/hr)</t>
   </si>
 </sst>
 </file>
@@ -672,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -756,7 +772,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -771,19 +811,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -795,18 +826,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="V41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AC55" sqref="AC55:AC97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1122,34 +1142,34 @@
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="39"/>
+      <c r="F1" s="40"/>
       <c r="G1" s="14">
         <v>0.1</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
       <c r="L1" s="15">
         <v>7256200.8565999996</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
       <c r="Q1" s="24">
         <v>2221460.4</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
       <c r="V1" s="24">
         <v>8809340386.1000004</v>
       </c>
@@ -1161,31 +1181,31 @@
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="6"/>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="23">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
       <c r="Q2" s="24">
         <v>19867.2</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="27">
         <v>348494.96600000001</v>
       </c>
@@ -1203,27 +1223,27 @@
       <c r="F3" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
       <c r="Q3" s="24">
         <v>1596613.3</v>
       </c>
-      <c r="S3" s="39" t="s">
+      <c r="S3" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
       <c r="V3" s="28">
         <v>2066077.2990000001</v>
       </c>
@@ -1245,27 +1265,27 @@
       <c r="G4" s="6">
         <v>4198</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="15">
         <v>1</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
       <c r="Q4" s="24">
         <v>43560</v>
       </c>
-      <c r="S4" s="39" t="s">
+      <c r="S4" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
       <c r="V4" s="27">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
@@ -1282,27 +1302,27 @@
       <c r="G5" s="6">
         <v>3726</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
       <c r="L5" s="15">
         <v>1</v>
       </c>
-      <c r="N5" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="26">
-        <v>50</v>
-      </c>
-      <c r="S5" s="39" t="s">
+      <c r="N5" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="24">
+        <v>601000</v>
+      </c>
+      <c r="S5" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
       <c r="V5" s="27">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
@@ -1325,23 +1345,23 @@
       <c r="G6" s="6">
         <v>4765</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
       <c r="L6" s="10"/>
-      <c r="N6" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="26">
-        <v>10</v>
-      </c>
-      <c r="S6" s="39" t="s">
+      <c r="N6" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="24">
+        <v>15025</v>
+      </c>
+      <c r="S6" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
       <c r="V6" s="27">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
@@ -1364,11 +1384,19 @@
       <c r="G7" s="6">
         <v>4050</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="N7" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="26">
+        <v>0.95</v>
+      </c>
+      <c r="S7" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
       <c r="V7" s="27">
         <f>V4*V6</f>
         <v>29903074042.27026</v>
@@ -1384,11 +1412,19 @@
       <c r="G8" s="6">
         <v>5974</v>
       </c>
-      <c r="S8" s="39" t="s">
+      <c r="N8" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="26">
+        <v>50</v>
+      </c>
+      <c r="S8" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
       <c r="V8" s="27">
         <f>V5*V6</f>
         <v>5911072775.7976093</v>
@@ -1403,6 +1439,14 @@
       </c>
       <c r="G9" s="6">
         <v>5009</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="26">
+        <v>10</v>
       </c>
       <c r="S9" s="33"/>
       <c r="T9" s="33"/>
@@ -5697,17 +5741,17 @@
       </c>
     </row>
     <row r="45" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
       <c r="F45" s="2"/>
-      <c r="H45" s="53" t="s">
+      <c r="H45" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
       <c r="O45" s="4"/>
@@ -5837,7 +5881,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
@@ -5884,7 +5928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="4" t="s">
         <v>25</v>
       </c>
@@ -5915,37 +5959,40 @@
       <c r="Y52" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AC52" s="4" t="s">
+      <c r="AB52" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AD52" s="4" t="s">
+      <c r="AG52" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AE52" s="4" t="s">
+      <c r="AH52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AH52" s="31" t="s">
+      <c r="AK52" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AI52" s="31" t="s">
+      <c r="AL52" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="AJ52" s="31" t="s">
+      <c r="AM52" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AK52" s="31" t="s">
+      <c r="AN52" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AL52" s="31" t="s">
+      <c r="AO52" s="31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="C53" s="53" t="s">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C53" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
       <c r="G53" s="38" t="s">
         <v>137</v>
       </c>
@@ -5970,19 +6017,19 @@
       <c r="Q53">
         <v>0.7</v>
       </c>
-      <c r="AD53" t="s">
+      <c r="AG53" t="s">
         <v>16</v>
       </c>
-      <c r="AE53" t="s">
+      <c r="AH53" t="s">
         <v>19</v>
       </c>
-      <c r="AH53" s="31"/>
-      <c r="AI53" s="31"/>
-      <c r="AJ53" s="31"/>
       <c r="AK53" s="31"/>
       <c r="AL53" s="31"/>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM53" s="31"/>
+      <c r="AN53" s="31"/>
+      <c r="AO53" s="31"/>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -6019,19 +6066,22 @@
       <c r="Y54" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AB54" s="32" t="s">
+      <c r="AB54" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AG54" t="s">
+      <c r="AE54" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AH54" s="31"/>
-      <c r="AI54" s="31"/>
-      <c r="AJ54" s="31"/>
+      <c r="AJ54" t="s">
+        <v>10</v>
+      </c>
       <c r="AK54" s="31"/>
       <c r="AL54" s="31"/>
-    </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM54" s="31"/>
+      <c r="AN54" s="31"/>
+      <c r="AO54" s="31"/>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -6087,42 +6137,48 @@
         <v>1</v>
       </c>
       <c r="Z55" s="8">
-        <f t="shared" ref="Z55:Z97" si="32">AD55*AE55*1000/1000000</f>
+        <f>AG55*AH55*1000/1000000</f>
         <v>39.666780000000003</v>
       </c>
-      <c r="AB55" s="32">
+      <c r="AB55" s="39">
         <v>1</v>
       </c>
-      <c r="AC55" t="s">
+      <c r="AC55" s="57">
+        <v>2520</v>
+      </c>
+      <c r="AE55" s="32">
+        <v>1</v>
+      </c>
+      <c r="AF55" t="s">
         <v>20</v>
       </c>
-      <c r="AD55" s="6">
+      <c r="AG55" s="6">
         <v>12963</v>
       </c>
-      <c r="AE55" s="6">
-        <f t="shared" ref="AE55:AE74" si="33">IF(EXACT(AC55,$R$47),$S$47,IF(EXACT(AC55,$R$48),$S$48,IF(EXACT(AC55,$R$49),$S$49,0)))</f>
+      <c r="AH55" s="6">
+        <f t="shared" ref="AH55:AH74" si="32">IF(EXACT(AF55,$R$47),$S$47,IF(EXACT(AF55,$R$48),$S$48,IF(EXACT(AF55,$R$49),$S$49,0)))</f>
         <v>3.06</v>
       </c>
-      <c r="AG55" s="32">
+      <c r="AJ55" s="32">
         <v>1</v>
       </c>
-      <c r="AH55" s="6">
+      <c r="AK55" s="6">
         <v>1.4370000000000001</v>
       </c>
-      <c r="AI55" s="6">
+      <c r="AL55" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AJ55" s="6">
+      <c r="AM55" s="6">
         <v>1540.787</v>
       </c>
-      <c r="AK55" s="6">
+      <c r="AN55" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="AL55" s="6">
+      <c r="AO55" s="6">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -6178,42 +6234,48 @@
         <v>2</v>
       </c>
       <c r="Z56" s="8">
+        <f>AG56*AH56*1000/1000000</f>
+        <v>23.617080000000001</v>
+      </c>
+      <c r="AB56" s="39">
+        <v>2</v>
+      </c>
+      <c r="AC56" s="57">
+        <v>1980</v>
+      </c>
+      <c r="AE56" s="32">
+        <v>2</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG56" s="6">
+        <v>7718</v>
+      </c>
+      <c r="AH56" s="6">
         <f t="shared" si="32"/>
-        <v>23.617080000000001</v>
-      </c>
-      <c r="AB56" s="32">
+        <v>3.06</v>
+      </c>
+      <c r="AJ56" s="32">
         <v>2</v>
       </c>
-      <c r="AC56" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD56" s="6">
-        <v>7718</v>
-      </c>
-      <c r="AE56" s="6">
-        <f t="shared" si="33"/>
-        <v>3.06</v>
-      </c>
-      <c r="AG56" s="32">
-        <v>2</v>
-      </c>
-      <c r="AH56" s="6">
+      <c r="AK56" s="6">
         <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="AI56" s="6">
-        <v>2E-3</v>
-      </c>
-      <c r="AJ56" s="6">
-        <v>917.32500000000005</v>
-      </c>
-      <c r="AK56" s="6">
-        <v>1.6E-2</v>
       </c>
       <c r="AL56" s="6">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM56" s="6">
+        <v>917.32500000000005</v>
+      </c>
+      <c r="AN56" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AO56" s="6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -6269,42 +6331,48 @@
         <v>3</v>
       </c>
       <c r="Z57" s="8">
+        <f>AG57*AH57*1000/1000000</f>
+        <v>28.115279999999998</v>
+      </c>
+      <c r="AB57" s="39">
+        <v>3</v>
+      </c>
+      <c r="AC57" s="57">
+        <v>240</v>
+      </c>
+      <c r="AE57" s="32">
+        <v>3</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG57" s="6">
+        <v>9188</v>
+      </c>
+      <c r="AH57" s="6">
         <f t="shared" si="32"/>
-        <v>28.115279999999998</v>
-      </c>
-      <c r="AB57" s="32">
+        <v>3.06</v>
+      </c>
+      <c r="AJ57" s="32">
         <v>3</v>
       </c>
-      <c r="AC57" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD57" s="6">
-        <v>9188</v>
-      </c>
-      <c r="AE57" s="6">
-        <f t="shared" si="33"/>
-        <v>3.06</v>
-      </c>
-      <c r="AG57" s="32">
-        <v>3</v>
-      </c>
-      <c r="AH57" s="6">
+      <c r="AK57" s="6">
         <v>24.811</v>
       </c>
-      <c r="AI57" s="6">
+      <c r="AL57" s="6">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="AJ57" s="6">
+      <c r="AM57" s="6">
         <v>1073.9280000000001</v>
       </c>
-      <c r="AK57" s="6">
+      <c r="AN57" s="6">
         <v>0.02</v>
       </c>
-      <c r="AL57" s="6">
+      <c r="AO57" s="6">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -6360,42 +6428,48 @@
         <v>4</v>
       </c>
       <c r="Z58" s="8">
+        <f>AG58*AH58*1000/1000000</f>
+        <v>21.77496</v>
+      </c>
+      <c r="AB58" s="39">
+        <v>4</v>
+      </c>
+      <c r="AC58" s="57">
+        <v>1020</v>
+      </c>
+      <c r="AE58" s="32">
+        <v>4</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG58" s="6">
+        <v>7116</v>
+      </c>
+      <c r="AH58" s="6">
         <f t="shared" si="32"/>
-        <v>21.77496</v>
-      </c>
-      <c r="AB58" s="32">
+        <v>3.06</v>
+      </c>
+      <c r="AJ58" s="32">
         <v>4</v>
       </c>
-      <c r="AC58" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD58" s="6">
-        <v>7116</v>
-      </c>
-      <c r="AE58" s="6">
-        <f t="shared" si="33"/>
-        <v>3.06</v>
-      </c>
-      <c r="AG58" s="32">
-        <v>4</v>
-      </c>
-      <c r="AH58" s="6">
+      <c r="AK58" s="6">
         <v>1.056</v>
       </c>
-      <c r="AI58" s="6">
+      <c r="AL58" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AJ58" s="6">
+      <c r="AM58" s="6">
         <v>845.83</v>
       </c>
-      <c r="AK58" s="6">
+      <c r="AN58" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="AL58" s="6">
+      <c r="AO58" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -6451,42 +6525,48 @@
         <v>5</v>
       </c>
       <c r="Z59" s="8">
+        <f>AG59*AH59*1000/1000000</f>
+        <v>23.94144</v>
+      </c>
+      <c r="AB59" s="39">
+        <v>5</v>
+      </c>
+      <c r="AC59" s="57">
+        <v>2220</v>
+      </c>
+      <c r="AE59" s="32">
+        <v>5</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG59" s="6">
+        <v>7824</v>
+      </c>
+      <c r="AH59" s="6">
         <f t="shared" si="32"/>
-        <v>23.94144</v>
-      </c>
-      <c r="AB59" s="32">
+        <v>3.06</v>
+      </c>
+      <c r="AJ59" s="32">
         <v>5</v>
       </c>
-      <c r="AC59" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD59" s="6">
-        <v>7824</v>
-      </c>
-      <c r="AE59" s="6">
-        <f t="shared" si="33"/>
-        <v>3.06</v>
-      </c>
-      <c r="AG59" s="32">
-        <v>5</v>
-      </c>
-      <c r="AH59" s="6">
+      <c r="AK59" s="6">
         <v>0.11799999999999999</v>
       </c>
-      <c r="AI59" s="6">
+      <c r="AL59" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AJ59" s="6">
+      <c r="AM59" s="6">
         <v>930.02099999999996</v>
       </c>
-      <c r="AK59" s="6">
+      <c r="AN59" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="AL59" s="6">
+      <c r="AO59" s="6">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -6542,42 +6622,48 @@
         <v>6</v>
       </c>
       <c r="Z60" s="8">
+        <f>AG60*AH60*1000/1000000</f>
+        <v>38.22552000000001</v>
+      </c>
+      <c r="AB60" s="39">
+        <v>6</v>
+      </c>
+      <c r="AC60" s="57">
+        <v>300</v>
+      </c>
+      <c r="AE60" s="32">
+        <v>6</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG60" s="6">
+        <v>12492</v>
+      </c>
+      <c r="AH60" s="6">
         <f t="shared" si="32"/>
-        <v>38.22552000000001</v>
-      </c>
-      <c r="AB60" s="32">
+        <v>3.06</v>
+      </c>
+      <c r="AJ60" s="32">
         <v>6</v>
       </c>
-      <c r="AC60" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD60" s="6">
-        <v>12492</v>
-      </c>
-      <c r="AE60" s="6">
-        <f t="shared" si="33"/>
-        <v>3.06</v>
-      </c>
-      <c r="AG60" s="32">
-        <v>6</v>
-      </c>
-      <c r="AH60" s="6">
+      <c r="AK60" s="6">
         <v>1.1240000000000001</v>
       </c>
-      <c r="AI60" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ60" s="6">
+      <c r="AL60" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="6">
         <v>1460.1579999999999</v>
       </c>
-      <c r="AK60" s="6">
+      <c r="AN60" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AL60" s="6">
+      <c r="AO60" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -6633,42 +6719,48 @@
         <v>7</v>
       </c>
       <c r="Z61" s="8">
+        <f>AG61*AH61*1000/1000000</f>
+        <v>1.6982999999999999</v>
+      </c>
+      <c r="AB61" s="39">
+        <v>7</v>
+      </c>
+      <c r="AC61" s="57">
+        <v>420</v>
+      </c>
+      <c r="AE61" s="32">
+        <v>7</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG61" s="6">
+        <v>555</v>
+      </c>
+      <c r="AH61" s="6">
         <f t="shared" si="32"/>
-        <v>1.6982999999999999</v>
-      </c>
-      <c r="AB61" s="32">
+        <v>3.06</v>
+      </c>
+      <c r="AJ61" s="32">
         <v>7</v>
       </c>
-      <c r="AC61" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD61" s="6">
-        <v>555</v>
-      </c>
-      <c r="AE61" s="6">
-        <f t="shared" si="33"/>
-        <v>3.06</v>
-      </c>
-      <c r="AG61" s="32">
-        <v>7</v>
-      </c>
-      <c r="AH61" s="6">
+      <c r="AK61" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AI61" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ61" s="6">
+      <c r="AL61" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="6">
         <v>65.930999999999997</v>
       </c>
-      <c r="AK61" s="6">
+      <c r="AN61" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="AL61" s="6">
+      <c r="AO61" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -6724,42 +6816,48 @@
         <v>8</v>
       </c>
       <c r="Z62" s="8">
+        <f>AG62*AH62*1000/1000000</f>
+        <v>36.677160000000001</v>
+      </c>
+      <c r="AB62" s="39">
+        <v>8</v>
+      </c>
+      <c r="AC62" s="57">
+        <v>420</v>
+      </c>
+      <c r="AE62" s="32">
+        <v>8</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG62" s="6">
+        <v>11986</v>
+      </c>
+      <c r="AH62" s="6">
         <f t="shared" si="32"/>
-        <v>36.677160000000001</v>
-      </c>
-      <c r="AB62" s="32">
+        <v>3.06</v>
+      </c>
+      <c r="AJ62" s="32">
         <v>8</v>
       </c>
-      <c r="AC62" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD62" s="6">
-        <v>11986</v>
-      </c>
-      <c r="AE62" s="6">
-        <f t="shared" si="33"/>
-        <v>3.06</v>
-      </c>
-      <c r="AG62" s="32">
-        <v>8</v>
-      </c>
-      <c r="AH62" s="6">
+      <c r="AK62" s="6">
         <v>1.3009999999999999</v>
       </c>
-      <c r="AI62" s="6">
+      <c r="AL62" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AJ62" s="6">
+      <c r="AM62" s="6">
         <v>1424.5930000000001</v>
       </c>
-      <c r="AK62" s="6">
+      <c r="AN62" s="6">
         <v>2.7E-2</v>
       </c>
-      <c r="AL62" s="6">
+      <c r="AO62" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -6815,42 +6913,48 @@
         <v>9</v>
       </c>
       <c r="Z63" s="8">
+        <f>AG63*AH63*1000/1000000</f>
+        <v>23.494679999999999</v>
+      </c>
+      <c r="AB63" s="39">
+        <v>9</v>
+      </c>
+      <c r="AC63" s="57">
+        <v>1980</v>
+      </c>
+      <c r="AE63" s="32">
+        <v>9</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG63" s="6">
+        <v>7678</v>
+      </c>
+      <c r="AH63" s="6">
         <f t="shared" si="32"/>
-        <v>23.494679999999999</v>
-      </c>
-      <c r="AB63" s="32">
+        <v>3.06</v>
+      </c>
+      <c r="AJ63" s="32">
         <v>9</v>
       </c>
-      <c r="AC63" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD63" s="6">
-        <v>7678</v>
-      </c>
-      <c r="AE63" s="6">
-        <f t="shared" si="33"/>
-        <v>3.06</v>
-      </c>
-      <c r="AG63" s="32">
-        <v>9</v>
-      </c>
-      <c r="AH63" s="6">
+      <c r="AK63" s="6">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="AI63" s="6">
+      <c r="AL63" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AJ63" s="6">
+      <c r="AM63" s="6">
         <v>912.65499999999997</v>
       </c>
-      <c r="AK63" s="6">
+      <c r="AN63" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AL63" s="6">
+      <c r="AO63" s="6">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -6906,42 +7010,48 @@
         <v>10</v>
       </c>
       <c r="Z64" s="8">
+        <f>AG64*AH64*1000/1000000</f>
+        <v>31.606739999999999</v>
+      </c>
+      <c r="AB64" s="39">
+        <v>10</v>
+      </c>
+      <c r="AC64" s="57">
+        <v>900</v>
+      </c>
+      <c r="AE64" s="32">
+        <v>10</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG64" s="6">
+        <v>10329</v>
+      </c>
+      <c r="AH64" s="6">
         <f t="shared" si="32"/>
-        <v>31.606739999999999</v>
-      </c>
-      <c r="AB64" s="32">
+        <v>3.06</v>
+      </c>
+      <c r="AJ64" s="32">
         <v>10</v>
       </c>
-      <c r="AC64" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD64" s="6">
-        <v>10329</v>
-      </c>
-      <c r="AE64" s="6">
-        <f t="shared" si="33"/>
-        <v>3.06</v>
-      </c>
-      <c r="AG64" s="32">
-        <v>10</v>
-      </c>
-      <c r="AH64" s="6">
+      <c r="AK64" s="6">
         <v>1.306</v>
       </c>
-      <c r="AI64" s="6">
+      <c r="AL64" s="6">
         <v>0.01</v>
       </c>
-      <c r="AJ64" s="6">
+      <c r="AM64" s="6">
         <v>1235.3320000000001</v>
       </c>
-      <c r="AK64" s="6">
+      <c r="AN64" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="AL64" s="6">
+      <c r="AO64" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -6997,42 +7107,48 @@
         <v>11</v>
       </c>
       <c r="Z65" s="8">
+        <f>AG65*AH65*1000/1000000</f>
+        <v>38.996639999999999</v>
+      </c>
+      <c r="AB65" s="39">
+        <v>11</v>
+      </c>
+      <c r="AC65" s="57">
+        <v>480</v>
+      </c>
+      <c r="AE65" s="32">
+        <v>11</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG65" s="6">
+        <v>12744</v>
+      </c>
+      <c r="AH65" s="6">
         <f t="shared" si="32"/>
-        <v>38.996639999999999</v>
-      </c>
-      <c r="AB65" s="32">
+        <v>3.06</v>
+      </c>
+      <c r="AJ65" s="32">
         <v>11</v>
       </c>
-      <c r="AC65" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD65" s="6">
-        <v>12744</v>
-      </c>
-      <c r="AE65" s="6">
-        <f t="shared" si="33"/>
-        <v>3.06</v>
-      </c>
-      <c r="AG65" s="32">
-        <v>11</v>
-      </c>
-      <c r="AH65" s="6">
+      <c r="AK65" s="6">
         <v>2.9769999999999999</v>
       </c>
-      <c r="AI65" s="6">
+      <c r="AL65" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AJ65" s="6">
+      <c r="AM65" s="6">
         <v>1514.692</v>
       </c>
-      <c r="AK65" s="6">
+      <c r="AN65" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AL65" s="6">
+      <c r="AO65" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -7088,42 +7204,48 @@
         <v>12</v>
       </c>
       <c r="Z66" s="8">
+        <f>AG66*AH66*1000/1000000</f>
+        <v>35.954999999999998</v>
+      </c>
+      <c r="AB66" s="39">
+        <v>12</v>
+      </c>
+      <c r="AC66" s="57">
+        <v>720</v>
+      </c>
+      <c r="AE66" s="32">
+        <v>12</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG66" s="6">
+        <v>11750</v>
+      </c>
+      <c r="AH66" s="6">
         <f t="shared" si="32"/>
-        <v>35.954999999999998</v>
-      </c>
-      <c r="AB66" s="32">
+        <v>3.06</v>
+      </c>
+      <c r="AJ66" s="32">
         <v>12</v>
       </c>
-      <c r="AC66" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD66" s="6">
-        <v>11750</v>
-      </c>
-      <c r="AE66" s="6">
-        <f t="shared" si="33"/>
-        <v>3.06</v>
-      </c>
-      <c r="AG66" s="32">
-        <v>12</v>
-      </c>
-      <c r="AH66" s="6">
+      <c r="AK66" s="6">
         <v>0.41199999999999998</v>
       </c>
-      <c r="AI66" s="6">
+      <c r="AL66" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AJ66" s="6">
+      <c r="AM66" s="6">
         <v>1397.9780000000001</v>
       </c>
-      <c r="AK66" s="6">
+      <c r="AN66" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="AL66" s="6">
+      <c r="AO66" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>47</v>
       </c>
@@ -7179,42 +7301,48 @@
         <v>13</v>
       </c>
       <c r="Z67" s="8">
+        <f>AG67*AH67*1000/1000000</f>
+        <v>26.289359999999999</v>
+      </c>
+      <c r="AB67" s="39">
+        <v>13</v>
+      </c>
+      <c r="AC67" s="57">
+        <v>2220</v>
+      </c>
+      <c r="AE67" s="32">
+        <v>13</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG67" s="6">
+        <v>12171</v>
+      </c>
+      <c r="AH67" s="6">
         <f t="shared" si="32"/>
-        <v>26.289359999999999</v>
-      </c>
-      <c r="AB67" s="32">
+        <v>2.16</v>
+      </c>
+      <c r="AJ67" s="32">
         <v>13</v>
       </c>
-      <c r="AC67" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD67" s="6">
-        <v>12171</v>
-      </c>
-      <c r="AE67" s="6">
-        <f t="shared" si="33"/>
-        <v>2.16</v>
-      </c>
-      <c r="AG67" s="32">
-        <v>13</v>
-      </c>
-      <c r="AH67" s="6">
+      <c r="AK67" s="6">
         <v>2.74</v>
       </c>
-      <c r="AI67" s="6">
+      <c r="AL67" s="6">
         <v>0.53300000000000003</v>
       </c>
-      <c r="AJ67" s="6">
+      <c r="AM67" s="6">
         <v>2551.596</v>
       </c>
-      <c r="AK67" s="6">
+      <c r="AN67" s="6">
         <v>0.27400000000000002</v>
       </c>
-      <c r="AL67" s="6">
+      <c r="AO67" s="6">
         <v>0.04</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -7270,42 +7398,48 @@
         <v>14</v>
       </c>
       <c r="Z68" s="8">
+        <f>AG68*AH68*1000/1000000</f>
+        <v>34.819740000000003</v>
+      </c>
+      <c r="AB68" s="39">
+        <v>14</v>
+      </c>
+      <c r="AC68" s="57">
+        <v>3120</v>
+      </c>
+      <c r="AE68" s="32">
+        <v>14</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG68" s="6">
+        <v>11379</v>
+      </c>
+      <c r="AH68" s="6">
         <f t="shared" si="32"/>
-        <v>34.819740000000003</v>
-      </c>
-      <c r="AB68" s="32">
+        <v>3.06</v>
+      </c>
+      <c r="AJ68" s="32">
         <v>14</v>
       </c>
-      <c r="AC68" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD68" s="6">
-        <v>11379</v>
-      </c>
-      <c r="AE68" s="6">
-        <f t="shared" si="33"/>
-        <v>3.06</v>
-      </c>
-      <c r="AG68" s="32">
-        <v>14</v>
-      </c>
-      <c r="AH68" s="6">
+      <c r="AK68" s="6">
         <v>0.38900000000000001</v>
       </c>
-      <c r="AI68" s="6">
+      <c r="AL68" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AJ68" s="6">
+      <c r="AM68" s="6">
         <v>1352.424</v>
       </c>
-      <c r="AK68" s="6">
+      <c r="AN68" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="AL68" s="6">
+      <c r="AO68" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -7361,42 +7495,48 @@
         <v>15</v>
       </c>
       <c r="Z69" s="8">
+        <f>AG69*AH69*1000/1000000</f>
+        <v>37.647179999999999</v>
+      </c>
+      <c r="AB69" s="39">
+        <v>15</v>
+      </c>
+      <c r="AC69" s="57">
+        <v>180</v>
+      </c>
+      <c r="AE69" s="32">
+        <v>15</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG69" s="6">
+        <v>12303</v>
+      </c>
+      <c r="AH69" s="6">
         <f t="shared" si="32"/>
-        <v>37.647179999999999</v>
-      </c>
-      <c r="AB69" s="32">
+        <v>3.06</v>
+      </c>
+      <c r="AJ69" s="32">
         <v>15</v>
       </c>
-      <c r="AC69" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD69" s="6">
-        <v>12303</v>
-      </c>
-      <c r="AE69" s="6">
-        <f t="shared" si="33"/>
-        <v>3.06</v>
-      </c>
-      <c r="AG69" s="32">
-        <v>15</v>
-      </c>
-      <c r="AH69" s="6">
+      <c r="AK69" s="6">
         <v>3.8889999999999998</v>
       </c>
-      <c r="AI69" s="6">
+      <c r="AL69" s="6">
         <v>3.9E-2</v>
       </c>
-      <c r="AJ69" s="6">
+      <c r="AM69" s="6">
         <v>1436.3489999999999</v>
       </c>
-      <c r="AK69" s="6">
+      <c r="AN69" s="6">
         <v>2.7E-2</v>
       </c>
-      <c r="AL69" s="6">
+      <c r="AO69" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -7452,42 +7592,48 @@
         <v>16</v>
       </c>
       <c r="Z70" s="8">
+        <f>AG70*AH70*1000/1000000</f>
+        <v>25.404119999999999</v>
+      </c>
+      <c r="AB70" s="39">
+        <v>16</v>
+      </c>
+      <c r="AC70" s="57">
+        <v>180</v>
+      </c>
+      <c r="AE70" s="32">
+        <v>16</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG70" s="6">
+        <v>8302</v>
+      </c>
+      <c r="AH70" s="6">
         <f t="shared" si="32"/>
-        <v>25.404119999999999</v>
-      </c>
-      <c r="AB70" s="32">
+        <v>3.06</v>
+      </c>
+      <c r="AJ70" s="32">
         <v>16</v>
       </c>
-      <c r="AC70" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD70" s="6">
-        <v>8302</v>
-      </c>
-      <c r="AE70" s="6">
-        <f t="shared" si="33"/>
-        <v>3.06</v>
-      </c>
-      <c r="AG70" s="32">
-        <v>16</v>
-      </c>
-      <c r="AH70" s="6">
+      <c r="AK70" s="6">
         <v>0.35699999999999998</v>
       </c>
-      <c r="AI70" s="6">
+      <c r="AL70" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AJ70" s="6">
+      <c r="AM70" s="6">
         <v>986.73699999999997</v>
       </c>
-      <c r="AK70" s="6">
+      <c r="AN70" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AL70" s="6">
+      <c r="AO70" s="6">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -7543,42 +7689,48 @@
         <v>17</v>
       </c>
       <c r="Z71" s="8">
+        <f>AG71*AH71*1000/1000000</f>
+        <v>23.453280000000003</v>
+      </c>
+      <c r="AB71" s="39">
+        <v>17</v>
+      </c>
+      <c r="AC71" s="57">
+        <v>300</v>
+      </c>
+      <c r="AE71" s="32">
+        <v>17</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG71" s="6">
+        <v>10858</v>
+      </c>
+      <c r="AH71" s="6">
         <f t="shared" si="32"/>
-        <v>23.453280000000003</v>
-      </c>
-      <c r="AB71" s="32">
+        <v>2.16</v>
+      </c>
+      <c r="AJ71" s="32">
         <v>17</v>
       </c>
-      <c r="AC71" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD71" s="6">
-        <v>10858</v>
-      </c>
-      <c r="AE71" s="6">
-        <f t="shared" si="33"/>
-        <v>2.16</v>
-      </c>
-      <c r="AG71" s="32">
-        <v>17</v>
-      </c>
-      <c r="AH71" s="6">
+      <c r="AK71" s="6">
         <v>3.786</v>
       </c>
-      <c r="AI71" s="6">
+      <c r="AL71" s="6">
         <v>1.365</v>
       </c>
-      <c r="AJ71" s="6">
+      <c r="AM71" s="6">
         <v>2277.605</v>
       </c>
-      <c r="AK71" s="6">
+      <c r="AN71" s="6">
         <v>0.249</v>
       </c>
-      <c r="AL71" s="6">
+      <c r="AO71" s="6">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -7634,42 +7786,48 @@
         <v>18</v>
       </c>
       <c r="Z72" s="8">
+        <f>AG72*AH72*1000/1000000</f>
+        <v>23.647680000000001</v>
+      </c>
+      <c r="AB72" s="39">
+        <v>18</v>
+      </c>
+      <c r="AC72" s="57">
+        <v>2700</v>
+      </c>
+      <c r="AE72" s="32">
+        <v>18</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG72" s="6">
+        <v>10948</v>
+      </c>
+      <c r="AH72" s="6">
         <f t="shared" si="32"/>
-        <v>23.647680000000001</v>
-      </c>
-      <c r="AB72" s="32">
+        <v>2.16</v>
+      </c>
+      <c r="AJ72" s="32">
         <v>18</v>
       </c>
-      <c r="AC72" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD72" s="6">
-        <v>10948</v>
-      </c>
-      <c r="AE72" s="6">
-        <f t="shared" si="33"/>
-        <v>2.16</v>
-      </c>
-      <c r="AG72" s="32">
-        <v>18</v>
-      </c>
-      <c r="AH72" s="6">
+      <c r="AK72" s="6">
         <v>1.2689999999999999</v>
       </c>
-      <c r="AI72" s="6">
+      <c r="AL72" s="6">
         <v>0.40300000000000002</v>
       </c>
-      <c r="AJ72" s="6">
+      <c r="AM72" s="6">
         <v>2246.4659999999999</v>
       </c>
-      <c r="AK72" s="6">
+      <c r="AN72" s="6">
         <v>0.223</v>
       </c>
-      <c r="AL72" s="6">
+      <c r="AO72" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -7725,42 +7883,48 @@
         <v>19</v>
       </c>
       <c r="Z73" s="8">
+        <f>AG73*AH73*1000/1000000</f>
+        <v>223.99503999999999</v>
+      </c>
+      <c r="AB73" s="39">
+        <v>19</v>
+      </c>
+      <c r="AC73" s="57">
+        <v>120</v>
+      </c>
+      <c r="AE73" s="32">
+        <v>19</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG73" s="6">
+        <v>17834</v>
+      </c>
+      <c r="AH73" s="6">
         <f t="shared" si="32"/>
-        <v>223.99503999999999</v>
-      </c>
-      <c r="AB73" s="32">
+        <v>12.56</v>
+      </c>
+      <c r="AJ73" s="32">
         <v>19</v>
       </c>
-      <c r="AC73" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD73" s="6">
-        <v>17834</v>
-      </c>
-      <c r="AE73" s="6">
-        <f t="shared" si="33"/>
-        <v>12.56</v>
-      </c>
-      <c r="AG73" s="32">
-        <v>19</v>
-      </c>
-      <c r="AH73" s="6">
+      <c r="AK73" s="6">
         <v>15.976000000000001</v>
       </c>
-      <c r="AI73" s="6">
+      <c r="AL73" s="6">
         <v>9.0060000000000002</v>
       </c>
-      <c r="AJ73" s="6">
+      <c r="AM73" s="6">
         <v>2912.8049999999998</v>
       </c>
-      <c r="AK73" s="6">
+      <c r="AN73" s="6">
         <v>0.11799999999999999</v>
       </c>
-      <c r="AL73" s="6">
+      <c r="AO73" s="6">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -7816,42 +7980,48 @@
         <v>20</v>
       </c>
       <c r="Z74" s="8">
+        <f>AG74*AH74*1000/1000000</f>
+        <v>36.931139999999999</v>
+      </c>
+      <c r="AB74" s="39">
+        <v>20</v>
+      </c>
+      <c r="AC74" s="57">
+        <v>1920</v>
+      </c>
+      <c r="AE74" s="32">
+        <v>20</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG74" s="6">
+        <v>12069</v>
+      </c>
+      <c r="AH74" s="6">
         <f t="shared" si="32"/>
-        <v>36.931139999999999</v>
-      </c>
-      <c r="AB74" s="32">
+        <v>3.06</v>
+      </c>
+      <c r="AJ74" s="32">
         <v>20</v>
       </c>
-      <c r="AC74" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD74" s="6">
-        <v>12069</v>
-      </c>
-      <c r="AE74" s="6">
-        <f t="shared" si="33"/>
-        <v>3.06</v>
-      </c>
-      <c r="AG74" s="32">
-        <v>20</v>
-      </c>
-      <c r="AH74" s="6">
+      <c r="AK74" s="6">
         <v>2.1019999999999999</v>
       </c>
-      <c r="AI74" s="6">
+      <c r="AL74" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AJ74" s="6">
+      <c r="AM74" s="6">
         <v>1434.461</v>
       </c>
-      <c r="AK74" s="6">
+      <c r="AN74" s="6">
         <v>2.7E-2</v>
       </c>
-      <c r="AL74" s="6">
+      <c r="AO74" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -7871,14 +8041,14 @@
         <v>21</v>
       </c>
       <c r="H75" s="6">
-        <f t="shared" ref="H75:H94" si="34">$L$4*$G106*H$53</f>
+        <f t="shared" ref="H75:H94" si="33">$L$4*$G106*H$53</f>
         <v>14.05</v>
       </c>
       <c r="J75" s="35">
         <v>21</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" ref="K75:K94" si="35">$L$4*$G106*K$53</f>
+        <f t="shared" ref="K75:K94" si="34">$L$4*$G106*K$53</f>
         <v>19.669999999999998</v>
       </c>
       <c r="M75" s="35">
@@ -7892,7 +8062,7 @@
         <v>21</v>
       </c>
       <c r="Q75" s="6">
-        <f t="shared" ref="Q75:Q94" si="36">$L$4*$G106*Q$53</f>
+        <f t="shared" ref="Q75:Q94" si="35">$L$4*$G106*Q$53</f>
         <v>19.669999999999998</v>
       </c>
       <c r="S75" s="32">
@@ -7911,41 +8081,48 @@
         <v>21</v>
       </c>
       <c r="Z75" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB75" s="32">
+        <f>AG75*AH75*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB75" s="39">
         <v>21</v>
       </c>
-      <c r="AC75" t="s">
+      <c r="AC75" s="57">
+        <f>Q75</f>
+        <v>19.669999999999998</v>
+      </c>
+      <c r="AE75" s="32">
+        <v>21</v>
+      </c>
+      <c r="AF75" t="s">
         <v>36</v>
       </c>
-      <c r="AD75" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE75" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG75" s="32">
+      <c r="AG75" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="32">
         <v>21</v>
       </c>
-      <c r="AH75" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI75" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ75" s="6">
-        <v>0</v>
-      </c>
       <c r="AK75" s="6">
         <v>0</v>
       </c>
       <c r="AL75" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM75" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN75" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>37</v>
       </c>
@@ -7965,30 +8142,30 @@
         <v>22</v>
       </c>
       <c r="H76" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>12.5</v>
       </c>
       <c r="J76" s="35">
         <v>22</v>
       </c>
       <c r="K76" s="6">
+        <f t="shared" si="34"/>
+        <v>17.5</v>
+      </c>
+      <c r="M76" s="35">
+        <v>22</v>
+      </c>
+      <c r="N76" s="6">
+        <f t="shared" ref="N76:N94" si="36">$L$4*$G107</f>
+        <v>25</v>
+      </c>
+      <c r="P76" s="35">
+        <v>22</v>
+      </c>
+      <c r="Q76" s="6">
         <f t="shared" si="35"/>
         <v>17.5</v>
       </c>
-      <c r="M76" s="35">
-        <v>22</v>
-      </c>
-      <c r="N76" s="6">
-        <f t="shared" ref="N76:N94" si="37">$L$4*$G107</f>
-        <v>25</v>
-      </c>
-      <c r="P76" s="35">
-        <v>22</v>
-      </c>
-      <c r="Q76" s="6">
-        <f t="shared" si="36"/>
-        <v>17.5</v>
-      </c>
       <c r="S76" s="32">
         <v>22</v>
       </c>
@@ -8005,41 +8182,48 @@
         <v>22</v>
       </c>
       <c r="Z76" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB76" s="32">
+        <f>AG76*AH76*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB76" s="39">
         <v>22</v>
       </c>
-      <c r="AC76" t="s">
+      <c r="AC76" s="57">
+        <f t="shared" ref="AC76:AC94" si="37">Q76</f>
+        <v>17.5</v>
+      </c>
+      <c r="AE76" s="32">
+        <v>22</v>
+      </c>
+      <c r="AF76" t="s">
         <v>36</v>
       </c>
-      <c r="AD76" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE76" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG76" s="32">
+      <c r="AG76" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ76" s="32">
         <v>22</v>
       </c>
-      <c r="AH76" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI76" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ76" s="6">
-        <v>0</v>
-      </c>
       <c r="AK76" s="6">
         <v>0</v>
       </c>
       <c r="AL76" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM76" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN76" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO76" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -8059,30 +8243,30 @@
         <v>23</v>
       </c>
       <c r="H77" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>35</v>
       </c>
       <c r="J77" s="35">
         <v>23</v>
       </c>
       <c r="K77" s="6">
+        <f t="shared" si="34"/>
+        <v>49</v>
+      </c>
+      <c r="M77" s="35">
+        <v>23</v>
+      </c>
+      <c r="N77" s="6">
+        <f t="shared" si="36"/>
+        <v>70</v>
+      </c>
+      <c r="P77" s="35">
+        <v>23</v>
+      </c>
+      <c r="Q77" s="6">
         <f t="shared" si="35"/>
         <v>49</v>
       </c>
-      <c r="M77" s="35">
-        <v>23</v>
-      </c>
-      <c r="N77" s="6">
-        <f t="shared" si="37"/>
-        <v>70</v>
-      </c>
-      <c r="P77" s="35">
-        <v>23</v>
-      </c>
-      <c r="Q77" s="6">
-        <f t="shared" si="36"/>
-        <v>49</v>
-      </c>
       <c r="S77" s="32">
         <v>23</v>
       </c>
@@ -8099,41 +8283,48 @@
         <v>23</v>
       </c>
       <c r="Z77" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB77" s="32">
+        <f>AG77*AH77*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB77" s="39">
         <v>23</v>
       </c>
-      <c r="AC77" t="s">
+      <c r="AC77" s="57">
+        <f t="shared" si="37"/>
+        <v>49</v>
+      </c>
+      <c r="AE77" s="32">
+        <v>23</v>
+      </c>
+      <c r="AF77" t="s">
         <v>36</v>
       </c>
-      <c r="AD77" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE77" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG77" s="32">
+      <c r="AG77" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH77" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ77" s="32">
         <v>23</v>
       </c>
-      <c r="AH77" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI77" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ77" s="6">
-        <v>0</v>
-      </c>
       <c r="AK77" s="6">
         <v>0</v>
       </c>
       <c r="AL77" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM77" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN77" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -8153,30 +8344,30 @@
         <v>24</v>
       </c>
       <c r="H78" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>15.3</v>
       </c>
       <c r="J78" s="35">
         <v>24</v>
       </c>
       <c r="K78" s="6">
+        <f t="shared" si="34"/>
+        <v>21.419999999999998</v>
+      </c>
+      <c r="M78" s="35">
+        <v>24</v>
+      </c>
+      <c r="N78" s="6">
+        <f t="shared" si="36"/>
+        <v>30.6</v>
+      </c>
+      <c r="P78" s="35">
+        <v>24</v>
+      </c>
+      <c r="Q78" s="6">
         <f t="shared" si="35"/>
         <v>21.419999999999998</v>
       </c>
-      <c r="M78" s="35">
-        <v>24</v>
-      </c>
-      <c r="N78" s="6">
-        <f t="shared" si="37"/>
-        <v>30.6</v>
-      </c>
-      <c r="P78" s="35">
-        <v>24</v>
-      </c>
-      <c r="Q78" s="6">
-        <f t="shared" si="36"/>
-        <v>21.419999999999998</v>
-      </c>
       <c r="S78" s="32">
         <v>24</v>
       </c>
@@ -8193,41 +8384,48 @@
         <v>24</v>
       </c>
       <c r="Z78" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB78" s="32">
+        <f>AG78*AH78*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB78" s="39">
         <v>24</v>
       </c>
-      <c r="AC78" t="s">
+      <c r="AC78" s="57">
+        <f t="shared" si="37"/>
+        <v>21.419999999999998</v>
+      </c>
+      <c r="AE78" s="32">
+        <v>24</v>
+      </c>
+      <c r="AF78" t="s">
         <v>36</v>
       </c>
-      <c r="AD78" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE78" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG78" s="32">
+      <c r="AG78" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH78" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ78" s="32">
         <v>24</v>
       </c>
-      <c r="AH78" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI78" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ78" s="6">
-        <v>0</v>
-      </c>
       <c r="AK78" s="6">
         <v>0</v>
       </c>
       <c r="AL78" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM78" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN78" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO78" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -8247,30 +8445,30 @@
         <v>25</v>
       </c>
       <c r="H79" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="J79" s="35">
         <v>25</v>
       </c>
       <c r="K79" s="6">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="M79" s="35">
+        <v>25</v>
+      </c>
+      <c r="N79" s="6">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="P79" s="35">
+        <v>25</v>
+      </c>
+      <c r="Q79" s="6">
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
-      <c r="M79" s="35">
-        <v>25</v>
-      </c>
-      <c r="N79" s="6">
-        <f t="shared" si="37"/>
-        <v>10</v>
-      </c>
-      <c r="P79" s="35">
-        <v>25</v>
-      </c>
-      <c r="Q79" s="6">
-        <f t="shared" si="36"/>
-        <v>7</v>
-      </c>
       <c r="S79" s="32">
         <v>25</v>
       </c>
@@ -8287,41 +8485,48 @@
         <v>25</v>
       </c>
       <c r="Z79" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB79" s="32">
+        <f>AG79*AH79*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB79" s="39">
         <v>25</v>
       </c>
-      <c r="AC79" t="s">
+      <c r="AC79" s="57">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="AE79" s="32">
+        <v>25</v>
+      </c>
+      <c r="AF79" t="s">
         <v>36</v>
       </c>
-      <c r="AD79" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE79" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG79" s="32">
+      <c r="AG79" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ79" s="32">
         <v>25</v>
       </c>
-      <c r="AH79" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI79" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ79" s="6">
-        <v>0</v>
-      </c>
       <c r="AK79" s="6">
         <v>0</v>
       </c>
       <c r="AL79" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM79" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN79" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO79" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>41</v>
       </c>
@@ -8341,30 +8546,30 @@
         <v>26</v>
       </c>
       <c r="H80" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="J80" s="35">
         <v>26</v>
       </c>
       <c r="K80" s="6">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="M80" s="35">
+        <v>26</v>
+      </c>
+      <c r="N80" s="6">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="P80" s="35">
+        <v>26</v>
+      </c>
+      <c r="Q80" s="6">
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
-      <c r="M80" s="35">
-        <v>26</v>
-      </c>
-      <c r="N80" s="6">
-        <f t="shared" si="37"/>
-        <v>10</v>
-      </c>
-      <c r="P80" s="35">
-        <v>26</v>
-      </c>
-      <c r="Q80" s="6">
-        <f t="shared" si="36"/>
-        <v>7</v>
-      </c>
       <c r="S80" s="32">
         <v>26</v>
       </c>
@@ -8381,41 +8586,48 @@
         <v>26</v>
       </c>
       <c r="Z80" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB80" s="32">
+        <f>AG80*AH80*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB80" s="39">
         <v>26</v>
       </c>
-      <c r="AC80" t="s">
+      <c r="AC80" s="57">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="AE80" s="32">
+        <v>26</v>
+      </c>
+      <c r="AF80" t="s">
         <v>36</v>
       </c>
-      <c r="AD80" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE80" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG80" s="32">
+      <c r="AG80" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH80" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="32">
         <v>26</v>
       </c>
-      <c r="AH80" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI80" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ80" s="6">
-        <v>0</v>
-      </c>
       <c r="AK80" s="6">
         <v>0</v>
       </c>
       <c r="AL80" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM80" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN80" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO80" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>42</v>
       </c>
@@ -8435,30 +8647,30 @@
         <v>27</v>
       </c>
       <c r="H81" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="J81" s="35">
         <v>27</v>
       </c>
       <c r="K81" s="6">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="M81" s="35">
+        <v>27</v>
+      </c>
+      <c r="N81" s="6">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="P81" s="35">
+        <v>27</v>
+      </c>
+      <c r="Q81" s="6">
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
-      <c r="M81" s="35">
-        <v>27</v>
-      </c>
-      <c r="N81" s="6">
-        <f t="shared" si="37"/>
-        <v>10</v>
-      </c>
-      <c r="P81" s="35">
-        <v>27</v>
-      </c>
-      <c r="Q81" s="6">
-        <f t="shared" si="36"/>
-        <v>7</v>
-      </c>
       <c r="S81" s="32">
         <v>27</v>
       </c>
@@ -8475,41 +8687,48 @@
         <v>27</v>
       </c>
       <c r="Z81" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB81" s="32">
+        <f>AG81*AH81*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB81" s="39">
         <v>27</v>
       </c>
-      <c r="AC81" t="s">
+      <c r="AC81" s="57">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="AE81" s="32">
+        <v>27</v>
+      </c>
+      <c r="AF81" t="s">
         <v>36</v>
       </c>
-      <c r="AD81" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE81" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG81" s="32">
+      <c r="AG81" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH81" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ81" s="32">
         <v>27</v>
       </c>
-      <c r="AH81" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI81" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ81" s="6">
-        <v>0</v>
-      </c>
       <c r="AK81" s="6">
         <v>0</v>
       </c>
       <c r="AL81" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM81" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN81" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO81" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>43</v>
       </c>
@@ -8529,30 +8748,30 @@
         <v>28</v>
       </c>
       <c r="H82" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>26.1</v>
       </c>
       <c r="J82" s="35">
         <v>28</v>
       </c>
       <c r="K82" s="6">
+        <f t="shared" si="34"/>
+        <v>36.54</v>
+      </c>
+      <c r="M82" s="35">
+        <v>28</v>
+      </c>
+      <c r="N82" s="6">
+        <f t="shared" si="36"/>
+        <v>52.2</v>
+      </c>
+      <c r="P82" s="35">
+        <v>28</v>
+      </c>
+      <c r="Q82" s="6">
         <f t="shared" si="35"/>
         <v>36.54</v>
       </c>
-      <c r="M82" s="35">
-        <v>28</v>
-      </c>
-      <c r="N82" s="6">
-        <f t="shared" si="37"/>
-        <v>52.2</v>
-      </c>
-      <c r="P82" s="35">
-        <v>28</v>
-      </c>
-      <c r="Q82" s="6">
-        <f t="shared" si="36"/>
-        <v>36.54</v>
-      </c>
       <c r="S82" s="32">
         <v>28</v>
       </c>
@@ -8569,41 +8788,48 @@
         <v>28</v>
       </c>
       <c r="Z82" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB82" s="32">
+        <f>AG82*AH82*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB82" s="39">
         <v>28</v>
       </c>
-      <c r="AC82" t="s">
+      <c r="AC82" s="57">
+        <f t="shared" si="37"/>
+        <v>36.54</v>
+      </c>
+      <c r="AE82" s="32">
+        <v>28</v>
+      </c>
+      <c r="AF82" t="s">
         <v>36</v>
       </c>
-      <c r="AD82" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE82" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG82" s="32">
+      <c r="AG82" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH82" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ82" s="32">
         <v>28</v>
       </c>
-      <c r="AH82" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI82" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ82" s="6">
-        <v>0</v>
-      </c>
       <c r="AK82" s="6">
         <v>0</v>
       </c>
       <c r="AL82" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM82" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN82" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO82" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>44</v>
       </c>
@@ -8623,30 +8849,30 @@
         <v>29</v>
       </c>
       <c r="H83" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="J83" s="35">
         <v>29</v>
       </c>
       <c r="K83" s="6">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="M83" s="35">
+        <v>29</v>
+      </c>
+      <c r="N83" s="6">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="P83" s="35">
+        <v>29</v>
+      </c>
+      <c r="Q83" s="6">
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
-      <c r="M83" s="35">
-        <v>29</v>
-      </c>
-      <c r="N83" s="6">
-        <f t="shared" si="37"/>
-        <v>10</v>
-      </c>
-      <c r="P83" s="35">
-        <v>29</v>
-      </c>
-      <c r="Q83" s="6">
-        <f t="shared" si="36"/>
-        <v>7</v>
-      </c>
       <c r="S83" s="32">
         <v>29</v>
       </c>
@@ -8663,41 +8889,48 @@
         <v>29</v>
       </c>
       <c r="Z83" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB83" s="32">
+        <f>AG83*AH83*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB83" s="39">
         <v>29</v>
       </c>
-      <c r="AC83" t="s">
+      <c r="AC83" s="57">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="AE83" s="32">
+        <v>29</v>
+      </c>
+      <c r="AF83" t="s">
         <v>36</v>
       </c>
-      <c r="AD83" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE83" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG83" s="32">
+      <c r="AG83" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="32">
         <v>29</v>
       </c>
-      <c r="AH83" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI83" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ83" s="6">
-        <v>0</v>
-      </c>
       <c r="AK83" s="6">
         <v>0</v>
       </c>
       <c r="AL83" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM83" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN83" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO83" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>45</v>
       </c>
@@ -8717,30 +8950,30 @@
         <v>30</v>
       </c>
       <c r="H84" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>10.1</v>
       </c>
       <c r="J84" s="35">
         <v>30</v>
       </c>
       <c r="K84" s="6">
+        <f t="shared" si="34"/>
+        <v>14.139999999999999</v>
+      </c>
+      <c r="M84" s="35">
+        <v>30</v>
+      </c>
+      <c r="N84" s="6">
+        <f t="shared" si="36"/>
+        <v>20.2</v>
+      </c>
+      <c r="P84" s="35">
+        <v>30</v>
+      </c>
+      <c r="Q84" s="6">
         <f t="shared" si="35"/>
         <v>14.139999999999999</v>
       </c>
-      <c r="M84" s="35">
-        <v>30</v>
-      </c>
-      <c r="N84" s="6">
-        <f t="shared" si="37"/>
-        <v>20.2</v>
-      </c>
-      <c r="P84" s="35">
-        <v>30</v>
-      </c>
-      <c r="Q84" s="6">
-        <f t="shared" si="36"/>
-        <v>14.139999999999999</v>
-      </c>
       <c r="S84" s="32">
         <v>30</v>
       </c>
@@ -8757,41 +8990,48 @@
         <v>30</v>
       </c>
       <c r="Z84" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB84" s="32">
+        <f>AG84*AH84*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB84" s="39">
         <v>30</v>
       </c>
-      <c r="AC84" t="s">
+      <c r="AC84" s="57">
+        <f t="shared" si="37"/>
+        <v>14.139999999999999</v>
+      </c>
+      <c r="AE84" s="32">
+        <v>30</v>
+      </c>
+      <c r="AF84" t="s">
         <v>36</v>
       </c>
-      <c r="AD84" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE84" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG84" s="32">
+      <c r="AG84" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="32">
         <v>30</v>
       </c>
-      <c r="AH84" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI84" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ84" s="6">
-        <v>0</v>
-      </c>
       <c r="AK84" s="6">
         <v>0</v>
       </c>
       <c r="AL84" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM84" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN84" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO84" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>46</v>
       </c>
@@ -8811,30 +9051,30 @@
         <v>31</v>
       </c>
       <c r="H85" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>35</v>
       </c>
       <c r="J85" s="35">
         <v>31</v>
       </c>
       <c r="K85" s="6">
+        <f t="shared" si="34"/>
+        <v>49</v>
+      </c>
+      <c r="M85" s="35">
+        <v>31</v>
+      </c>
+      <c r="N85" s="6">
+        <f t="shared" si="36"/>
+        <v>70</v>
+      </c>
+      <c r="P85" s="35">
+        <v>31</v>
+      </c>
+      <c r="Q85" s="6">
         <f t="shared" si="35"/>
         <v>49</v>
       </c>
-      <c r="M85" s="35">
-        <v>31</v>
-      </c>
-      <c r="N85" s="6">
-        <f t="shared" si="37"/>
-        <v>70</v>
-      </c>
-      <c r="P85" s="35">
-        <v>31</v>
-      </c>
-      <c r="Q85" s="6">
-        <f t="shared" si="36"/>
-        <v>49</v>
-      </c>
       <c r="S85" s="32">
         <v>31</v>
       </c>
@@ -8851,41 +9091,48 @@
         <v>31</v>
       </c>
       <c r="Z85" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB85" s="32">
+        <f>AG85*AH85*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB85" s="39">
         <v>31</v>
       </c>
-      <c r="AC85" t="s">
+      <c r="AC85" s="57">
+        <f t="shared" si="37"/>
+        <v>49</v>
+      </c>
+      <c r="AE85" s="32">
+        <v>31</v>
+      </c>
+      <c r="AF85" t="s">
         <v>36</v>
       </c>
-      <c r="AD85" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE85" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG85" s="32">
+      <c r="AG85" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="32">
         <v>31</v>
       </c>
-      <c r="AH85" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI85" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ85" s="6">
-        <v>0</v>
-      </c>
       <c r="AK85" s="6">
         <v>0</v>
       </c>
       <c r="AL85" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM85" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN85" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO85" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>47</v>
       </c>
@@ -8905,30 +9152,30 @@
         <v>32</v>
       </c>
       <c r="H86" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>5.25</v>
       </c>
       <c r="J86" s="35">
         <v>32</v>
       </c>
       <c r="K86" s="6">
+        <f t="shared" si="34"/>
+        <v>7.35</v>
+      </c>
+      <c r="M86" s="35">
+        <v>32</v>
+      </c>
+      <c r="N86" s="6">
+        <f t="shared" si="36"/>
+        <v>10.5</v>
+      </c>
+      <c r="P86" s="35">
+        <v>32</v>
+      </c>
+      <c r="Q86" s="6">
         <f t="shared" si="35"/>
         <v>7.35</v>
       </c>
-      <c r="M86" s="35">
-        <v>32</v>
-      </c>
-      <c r="N86" s="6">
-        <f t="shared" si="37"/>
-        <v>10.5</v>
-      </c>
-      <c r="P86" s="35">
-        <v>32</v>
-      </c>
-      <c r="Q86" s="6">
-        <f t="shared" si="36"/>
-        <v>7.35</v>
-      </c>
       <c r="S86" s="32">
         <v>32</v>
       </c>
@@ -8945,41 +9192,48 @@
         <v>32</v>
       </c>
       <c r="Z86" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB86" s="32">
+        <f>AG86*AH86*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB86" s="39">
         <v>32</v>
       </c>
-      <c r="AC86" t="s">
+      <c r="AC86" s="57">
+        <f t="shared" si="37"/>
+        <v>7.35</v>
+      </c>
+      <c r="AE86" s="32">
+        <v>32</v>
+      </c>
+      <c r="AF86" t="s">
         <v>36</v>
       </c>
-      <c r="AD86" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE86" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG86" s="32">
+      <c r="AG86" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="32">
         <v>32</v>
       </c>
-      <c r="AH86" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI86" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ86" s="6">
-        <v>0</v>
-      </c>
       <c r="AK86" s="6">
         <v>0</v>
       </c>
       <c r="AL86" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM86" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN86" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO86" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>48</v>
       </c>
@@ -8999,30 +9253,30 @@
         <v>33</v>
       </c>
       <c r="H87" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="J87" s="35">
         <v>33</v>
       </c>
       <c r="K87" s="6">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="M87" s="35">
+        <v>33</v>
+      </c>
+      <c r="N87" s="6">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="P87" s="35">
+        <v>33</v>
+      </c>
+      <c r="Q87" s="6">
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
-      <c r="M87" s="35">
-        <v>33</v>
-      </c>
-      <c r="N87" s="6">
-        <f t="shared" si="37"/>
-        <v>10</v>
-      </c>
-      <c r="P87" s="35">
-        <v>33</v>
-      </c>
-      <c r="Q87" s="6">
-        <f t="shared" si="36"/>
-        <v>7</v>
-      </c>
       <c r="S87" s="32">
         <v>33</v>
       </c>
@@ -9039,41 +9293,48 @@
         <v>33</v>
       </c>
       <c r="Z87" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB87" s="32">
+        <f>AG87*AH87*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB87" s="39">
         <v>33</v>
       </c>
-      <c r="AC87" t="s">
+      <c r="AC87" s="57">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="AE87" s="32">
+        <v>33</v>
+      </c>
+      <c r="AF87" t="s">
         <v>36</v>
       </c>
-      <c r="AD87" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE87" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG87" s="32">
+      <c r="AG87" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH87" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="32">
         <v>33</v>
       </c>
-      <c r="AH87" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI87" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ87" s="6">
-        <v>0</v>
-      </c>
       <c r="AK87" s="6">
         <v>0</v>
       </c>
       <c r="AL87" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM87" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN87" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO87" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>49</v>
       </c>
@@ -9093,30 +9354,30 @@
         <v>34</v>
       </c>
       <c r="H88" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="J88" s="35">
         <v>34</v>
       </c>
       <c r="K88" s="6">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="M88" s="35">
+        <v>34</v>
+      </c>
+      <c r="N88" s="6">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="P88" s="35">
+        <v>34</v>
+      </c>
+      <c r="Q88" s="6">
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
-      <c r="M88" s="35">
-        <v>34</v>
-      </c>
-      <c r="N88" s="6">
-        <f t="shared" si="37"/>
-        <v>10</v>
-      </c>
-      <c r="P88" s="35">
-        <v>34</v>
-      </c>
-      <c r="Q88" s="6">
-        <f t="shared" si="36"/>
-        <v>7</v>
-      </c>
       <c r="S88" s="32">
         <v>34</v>
       </c>
@@ -9133,41 +9394,48 @@
         <v>34</v>
       </c>
       <c r="Z88" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB88" s="32">
+        <f>AG88*AH88*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB88" s="39">
         <v>34</v>
       </c>
-      <c r="AC88" t="s">
+      <c r="AC88" s="57">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="AE88" s="32">
+        <v>34</v>
+      </c>
+      <c r="AF88" t="s">
         <v>36</v>
       </c>
-      <c r="AD88" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE88" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG88" s="32">
+      <c r="AG88" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH88" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ88" s="32">
         <v>34</v>
       </c>
-      <c r="AH88" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI88" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ88" s="6">
-        <v>0</v>
-      </c>
       <c r="AK88" s="6">
         <v>0</v>
       </c>
       <c r="AL88" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM88" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN88" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO88" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>50</v>
       </c>
@@ -9187,30 +9455,30 @@
         <v>35</v>
       </c>
       <c r="H89" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="J89" s="35">
         <v>35</v>
       </c>
       <c r="K89" s="6">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="M89" s="35">
+        <v>35</v>
+      </c>
+      <c r="N89" s="6">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="P89" s="35">
+        <v>35</v>
+      </c>
+      <c r="Q89" s="6">
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
-      <c r="M89" s="35">
-        <v>35</v>
-      </c>
-      <c r="N89" s="6">
-        <f t="shared" si="37"/>
-        <v>10</v>
-      </c>
-      <c r="P89" s="35">
-        <v>35</v>
-      </c>
-      <c r="Q89" s="6">
-        <f t="shared" si="36"/>
-        <v>7</v>
-      </c>
       <c r="S89" s="32">
         <v>35</v>
       </c>
@@ -9227,41 +9495,48 @@
         <v>35</v>
       </c>
       <c r="Z89" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB89" s="32">
+        <f>AG89*AH89*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB89" s="39">
         <v>35</v>
       </c>
-      <c r="AC89" t="s">
+      <c r="AC89" s="57">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="AE89" s="32">
+        <v>35</v>
+      </c>
+      <c r="AF89" t="s">
         <v>36</v>
       </c>
-      <c r="AD89" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE89" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG89" s="32">
+      <c r="AG89" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH89" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ89" s="32">
         <v>35</v>
       </c>
-      <c r="AH89" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI89" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ89" s="6">
-        <v>0</v>
-      </c>
       <c r="AK89" s="6">
         <v>0</v>
       </c>
       <c r="AL89" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM89" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN89" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO89" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>51</v>
       </c>
@@ -9281,30 +9556,30 @@
         <v>36</v>
       </c>
       <c r="H90" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="J90" s="35">
         <v>36</v>
       </c>
       <c r="K90" s="6">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="M90" s="35">
+        <v>36</v>
+      </c>
+      <c r="N90" s="6">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="P90" s="35">
+        <v>36</v>
+      </c>
+      <c r="Q90" s="6">
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
-      <c r="M90" s="35">
-        <v>36</v>
-      </c>
-      <c r="N90" s="6">
-        <f t="shared" si="37"/>
-        <v>10</v>
-      </c>
-      <c r="P90" s="35">
-        <v>36</v>
-      </c>
-      <c r="Q90" s="6">
-        <f t="shared" si="36"/>
-        <v>7</v>
-      </c>
       <c r="S90" s="32">
         <v>36</v>
       </c>
@@ -9321,32 +9596,30 @@
         <v>36</v>
       </c>
       <c r="Z90" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB90" s="32">
+        <f>AG90*AH90*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB90" s="39">
         <v>36</v>
       </c>
-      <c r="AC90" t="s">
+      <c r="AC90" s="57">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="AE90" s="32">
         <v>36</v>
       </c>
-      <c r="AD90" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE90" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG90" s="32">
+      <c r="AF90" t="s">
         <v>36</v>
       </c>
+      <c r="AG90" s="6">
+        <v>0</v>
+      </c>
       <c r="AH90" s="6">
         <v>0</v>
       </c>
-      <c r="AI90" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ90" s="6">
-        <v>0</v>
+      <c r="AJ90" s="32">
+        <v>36</v>
       </c>
       <c r="AK90" s="6">
         <v>0</v>
@@ -9354,8 +9627,17 @@
       <c r="AL90" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM90" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN90" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO90" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>52</v>
       </c>
@@ -9375,30 +9657,30 @@
         <v>37</v>
       </c>
       <c r="H91" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>5.05</v>
       </c>
       <c r="J91" s="35">
         <v>37</v>
       </c>
       <c r="K91" s="6">
+        <f t="shared" si="34"/>
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="M91" s="35">
+        <v>37</v>
+      </c>
+      <c r="N91" s="6">
+        <f t="shared" si="36"/>
+        <v>10.1</v>
+      </c>
+      <c r="P91" s="35">
+        <v>37</v>
+      </c>
+      <c r="Q91" s="6">
         <f t="shared" si="35"/>
         <v>7.0699999999999994</v>
       </c>
-      <c r="M91" s="35">
-        <v>37</v>
-      </c>
-      <c r="N91" s="6">
-        <f t="shared" si="37"/>
-        <v>10.1</v>
-      </c>
-      <c r="P91" s="35">
-        <v>37</v>
-      </c>
-      <c r="Q91" s="6">
-        <f t="shared" si="36"/>
-        <v>7.0699999999999994</v>
-      </c>
       <c r="S91" s="32">
         <v>37</v>
       </c>
@@ -9415,41 +9697,48 @@
         <v>37</v>
       </c>
       <c r="Z91" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB91" s="32">
+        <f>AG91*AH91*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB91" s="39">
         <v>37</v>
       </c>
-      <c r="AC91" t="s">
+      <c r="AC91" s="57">
+        <f t="shared" si="37"/>
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="AE91" s="32">
+        <v>37</v>
+      </c>
+      <c r="AF91" t="s">
         <v>36</v>
       </c>
-      <c r="AD91" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE91" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG91" s="32">
+      <c r="AG91" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH91" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ91" s="32">
         <v>37</v>
       </c>
-      <c r="AH91" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI91" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ91" s="6">
-        <v>0</v>
-      </c>
       <c r="AK91" s="6">
         <v>0</v>
       </c>
       <c r="AL91" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM91" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN91" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO91" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>53</v>
       </c>
@@ -9469,30 +9758,30 @@
         <v>38</v>
       </c>
       <c r="H92" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>5.05</v>
       </c>
       <c r="J92" s="35">
         <v>38</v>
       </c>
       <c r="K92" s="6">
+        <f t="shared" si="34"/>
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="M92" s="35">
+        <v>38</v>
+      </c>
+      <c r="N92" s="6">
+        <f t="shared" si="36"/>
+        <v>10.1</v>
+      </c>
+      <c r="P92" s="35">
+        <v>38</v>
+      </c>
+      <c r="Q92" s="6">
         <f t="shared" si="35"/>
         <v>7.0699999999999994</v>
       </c>
-      <c r="M92" s="35">
-        <v>38</v>
-      </c>
-      <c r="N92" s="6">
-        <f t="shared" si="37"/>
-        <v>10.1</v>
-      </c>
-      <c r="P92" s="35">
-        <v>38</v>
-      </c>
-      <c r="Q92" s="6">
-        <f t="shared" si="36"/>
-        <v>7.0699999999999994</v>
-      </c>
       <c r="S92" s="32">
         <v>38</v>
       </c>
@@ -9509,41 +9798,48 @@
         <v>38</v>
       </c>
       <c r="Z92" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB92" s="32">
+        <f>AG92*AH92*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB92" s="39">
         <v>38</v>
       </c>
-      <c r="AC92" t="s">
+      <c r="AC92" s="57">
+        <f t="shared" si="37"/>
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="AE92" s="32">
+        <v>38</v>
+      </c>
+      <c r="AF92" t="s">
         <v>36</v>
       </c>
-      <c r="AD92" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE92" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG92" s="32">
+      <c r="AG92" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH92" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ92" s="32">
         <v>38</v>
       </c>
-      <c r="AH92" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI92" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ92" s="6">
-        <v>0</v>
-      </c>
       <c r="AK92" s="6">
         <v>0</v>
       </c>
       <c r="AL92" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM92" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN92" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO92" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>54</v>
       </c>
@@ -9563,30 +9859,30 @@
         <v>39</v>
       </c>
       <c r="H93" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="J93" s="35">
         <v>39</v>
       </c>
       <c r="K93" s="6">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="M93" s="35">
+        <v>39</v>
+      </c>
+      <c r="N93" s="6">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="P93" s="35">
+        <v>39</v>
+      </c>
+      <c r="Q93" s="6">
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
-      <c r="M93" s="35">
-        <v>39</v>
-      </c>
-      <c r="N93" s="6">
-        <f t="shared" si="37"/>
-        <v>10</v>
-      </c>
-      <c r="P93" s="35">
-        <v>39</v>
-      </c>
-      <c r="Q93" s="6">
-        <f t="shared" si="36"/>
-        <v>7</v>
-      </c>
       <c r="S93" s="32">
         <v>39</v>
       </c>
@@ -9603,41 +9899,48 @@
         <v>39</v>
       </c>
       <c r="Z93" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB93" s="32">
+        <f>AG93*AH93*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB93" s="39">
         <v>39</v>
       </c>
-      <c r="AC93" t="s">
+      <c r="AC93" s="57">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="AE93" s="32">
+        <v>39</v>
+      </c>
+      <c r="AF93" t="s">
         <v>36</v>
       </c>
-      <c r="AD93" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE93" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG93" s="32">
+      <c r="AG93" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH93" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ93" s="32">
         <v>39</v>
       </c>
-      <c r="AH93" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI93" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ93" s="6">
-        <v>0</v>
-      </c>
       <c r="AK93" s="6">
         <v>0</v>
       </c>
       <c r="AL93" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM93" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN93" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO93" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>55</v>
       </c>
@@ -9657,30 +9960,30 @@
         <v>40</v>
       </c>
       <c r="H94" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="J94" s="35">
         <v>40</v>
       </c>
       <c r="K94" s="6">
+        <f t="shared" si="34"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="M94" s="35">
+        <v>40</v>
+      </c>
+      <c r="N94" s="6">
+        <f t="shared" si="36"/>
+        <v>12</v>
+      </c>
+      <c r="P94" s="35">
+        <v>40</v>
+      </c>
+      <c r="Q94" s="6">
         <f t="shared" si="35"/>
         <v>8.3999999999999986</v>
       </c>
-      <c r="M94" s="35">
-        <v>40</v>
-      </c>
-      <c r="N94" s="6">
-        <f t="shared" si="37"/>
-        <v>12</v>
-      </c>
-      <c r="P94" s="35">
-        <v>40</v>
-      </c>
-      <c r="Q94" s="6">
-        <f t="shared" si="36"/>
-        <v>8.3999999999999986</v>
-      </c>
       <c r="S94" s="32">
         <v>40</v>
       </c>
@@ -9697,41 +10000,48 @@
         <v>40</v>
       </c>
       <c r="Z94" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB94" s="32">
+        <f>AG94*AH94*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB94" s="39">
         <v>40</v>
       </c>
-      <c r="AC94" t="s">
+      <c r="AC94" s="57">
+        <f t="shared" si="37"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="AE94" s="32">
+        <v>40</v>
+      </c>
+      <c r="AF94" t="s">
         <v>36</v>
       </c>
-      <c r="AD94" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE94" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG94" s="32">
+      <c r="AG94" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH94" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="32">
         <v>40</v>
       </c>
-      <c r="AH94" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI94" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ94" s="6">
-        <v>0</v>
-      </c>
       <c r="AK94" s="6">
         <v>0</v>
       </c>
       <c r="AL94" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM94" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN94" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO94" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>82</v>
       </c>
@@ -9787,41 +10097,47 @@
         <v>41</v>
       </c>
       <c r="Z95" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB95" s="32">
+        <f>AG95*AH95*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB95" s="39">
         <v>41</v>
       </c>
-      <c r="AC95" t="s">
+      <c r="AC95" s="57">
+        <v>10000</v>
+      </c>
+      <c r="AE95" s="32">
+        <v>41</v>
+      </c>
+      <c r="AF95" t="s">
         <v>36</v>
       </c>
-      <c r="AD95" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE95" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG95" s="32">
+      <c r="AG95" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH95" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="32">
         <v>41</v>
       </c>
-      <c r="AH95" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI95" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ95" s="6">
-        <v>0</v>
-      </c>
       <c r="AK95" s="6">
         <v>0</v>
       </c>
       <c r="AL95" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM95" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN95" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO95" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>83</v>
       </c>
@@ -9877,41 +10193,47 @@
         <v>42</v>
       </c>
       <c r="Z96" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB96" s="32">
+        <f>AG96*AH96*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB96" s="39">
         <v>42</v>
       </c>
-      <c r="AC96" t="s">
+      <c r="AC96" s="57">
+        <v>10000</v>
+      </c>
+      <c r="AE96" s="32">
+        <v>42</v>
+      </c>
+      <c r="AF96" t="s">
         <v>84</v>
       </c>
-      <c r="AD96" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE96" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG96" s="32">
+      <c r="AG96" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH96" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ96" s="32">
         <v>42</v>
       </c>
-      <c r="AH96" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI96" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ96" s="6">
-        <v>0</v>
-      </c>
       <c r="AK96" s="6">
         <v>0</v>
       </c>
       <c r="AL96" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM96" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN96" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO96" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -9967,29 +10289,26 @@
         <v>43</v>
       </c>
       <c r="Z97" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB97" s="32">
+        <f>AG97*AH97*1000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="AB97" s="39">
         <v>43</v>
       </c>
-      <c r="AD97" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE97" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG97" s="32">
+      <c r="AC97" s="57">
+        <v>10000</v>
+      </c>
+      <c r="AE97" s="32">
         <v>43</v>
       </c>
+      <c r="AG97" s="6">
+        <v>0</v>
+      </c>
       <c r="AH97" s="6">
         <v>0</v>
       </c>
-      <c r="AI97" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ97" s="6">
-        <v>0</v>
+      <c r="AJ97" s="32">
+        <v>43</v>
       </c>
       <c r="AK97" s="6">
         <v>0</v>
@@ -9997,146 +10316,155 @@
       <c r="AL97" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="D103" s="54" t="s">
+      <c r="AM97" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN97" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO97" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="D103" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E103" s="46" t="s">
+      <c r="E103" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46" t="s">
+      <c r="F103" s="44"/>
+      <c r="G103" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="H103" s="47"/>
+      <c r="H103" s="53"/>
       <c r="N103" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="D104" s="55"/>
-      <c r="E104" s="48"/>
-      <c r="F104" s="48"/>
-      <c r="G104" s="48"/>
-      <c r="H104" s="49"/>
-    </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="D104" s="43"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="54"/>
+    </row>
+    <row r="105" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C106" s="16">
         <v>21</v>
       </c>
       <c r="D106" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E106" s="52">
+      <c r="E106" s="46">
         <v>72154</v>
       </c>
-      <c r="F106" s="52"/>
-      <c r="G106" s="50">
+      <c r="F106" s="46"/>
+      <c r="G106" s="55">
         <v>28.1</v>
       </c>
-      <c r="H106" s="51"/>
-    </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="H106" s="56"/>
+    </row>
+    <row r="107" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C107" s="18">
         <v>22</v>
       </c>
       <c r="D107" s="19">
         <v>0.31</v>
       </c>
-      <c r="E107" s="44">
+      <c r="E107" s="47">
         <v>67811</v>
       </c>
-      <c r="F107" s="44"/>
-      <c r="G107" s="40">
+      <c r="F107" s="47"/>
+      <c r="G107" s="48">
         <v>25</v>
       </c>
-      <c r="H107" s="41"/>
-    </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="H107" s="49"/>
+    </row>
+    <row r="108" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C108" s="18">
         <v>23</v>
       </c>
       <c r="D108" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E108" s="44">
+      <c r="E108" s="47">
         <v>187455</v>
       </c>
-      <c r="F108" s="44"/>
-      <c r="G108" s="40">
+      <c r="F108" s="47"/>
+      <c r="G108" s="48">
         <v>70</v>
       </c>
-      <c r="H108" s="41"/>
-    </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="H108" s="49"/>
+    </row>
+    <row r="109" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C109" s="18">
         <v>24</v>
       </c>
       <c r="D109" s="19">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E109" s="44">
+      <c r="E109" s="47">
         <v>63266</v>
       </c>
-      <c r="F109" s="44"/>
-      <c r="G109" s="40">
+      <c r="F109" s="47"/>
+      <c r="G109" s="48">
         <v>30.6</v>
       </c>
-      <c r="H109" s="41"/>
-    </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="H109" s="49"/>
+    </row>
+    <row r="110" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C110" s="18">
         <v>25</v>
       </c>
       <c r="D110" s="19">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E110" s="44">
+      <c r="E110" s="47">
         <v>26553</v>
       </c>
-      <c r="F110" s="44"/>
-      <c r="G110" s="40">
+      <c r="F110" s="47"/>
+      <c r="G110" s="48">
         <v>10</v>
       </c>
-      <c r="H110" s="41"/>
-    </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="H110" s="49"/>
+    </row>
+    <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C111" s="18">
         <v>26</v>
       </c>
       <c r="D111" s="19">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E111" s="44">
+      <c r="E111" s="47">
         <v>24949</v>
       </c>
-      <c r="F111" s="44"/>
-      <c r="G111" s="40">
+      <c r="F111" s="47"/>
+      <c r="G111" s="48">
         <v>10</v>
       </c>
-      <c r="H111" s="41"/>
-    </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="H111" s="49"/>
+    </row>
+    <row r="112" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C112" s="18">
         <v>27</v>
       </c>
       <c r="D112" s="19">
         <v>0.26100000000000001</v>
       </c>
-      <c r="E112" s="44">
+      <c r="E112" s="47">
         <v>22870</v>
       </c>
-      <c r="F112" s="44"/>
-      <c r="G112" s="40">
+      <c r="F112" s="47"/>
+      <c r="G112" s="48">
         <v>10</v>
       </c>
-      <c r="H112" s="41"/>
+      <c r="H112" s="49"/>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" s="18">
@@ -10145,14 +10473,14 @@
       <c r="D113" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E113" s="44">
+      <c r="E113" s="47">
         <v>139836</v>
       </c>
-      <c r="F113" s="44"/>
-      <c r="G113" s="40">
+      <c r="F113" s="47"/>
+      <c r="G113" s="48">
         <v>52.2</v>
       </c>
-      <c r="H113" s="41"/>
+      <c r="H113" s="49"/>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" s="18">
@@ -10161,14 +10489,14 @@
       <c r="D114" s="19">
         <v>0.26800000000000002</v>
       </c>
-      <c r="E114" s="44">
+      <c r="E114" s="47">
         <v>23515</v>
       </c>
-      <c r="F114" s="44"/>
-      <c r="G114" s="40">
+      <c r="F114" s="47"/>
+      <c r="G114" s="48">
         <v>10</v>
       </c>
-      <c r="H114" s="41"/>
+      <c r="H114" s="49"/>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" s="18">
@@ -10177,14 +10505,14 @@
       <c r="D115" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E115" s="44">
+      <c r="E115" s="47">
         <v>49503</v>
       </c>
-      <c r="F115" s="44"/>
-      <c r="G115" s="40">
+      <c r="F115" s="47"/>
+      <c r="G115" s="48">
         <v>20.2</v>
       </c>
-      <c r="H115" s="41"/>
+      <c r="H115" s="49"/>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C116" s="18">
@@ -10193,14 +10521,14 @@
       <c r="D116" s="19">
         <v>0.307</v>
       </c>
-      <c r="E116" s="44">
+      <c r="E116" s="47">
         <v>188420</v>
       </c>
-      <c r="F116" s="44"/>
-      <c r="G116" s="40">
+      <c r="F116" s="47"/>
+      <c r="G116" s="48">
         <v>70</v>
       </c>
-      <c r="H116" s="41"/>
+      <c r="H116" s="49"/>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C117" s="18">
@@ -10209,14 +10537,14 @@
       <c r="D117" s="19">
         <v>0.28899999999999998</v>
       </c>
-      <c r="E117" s="44">
+      <c r="E117" s="47">
         <v>26573</v>
       </c>
-      <c r="F117" s="44"/>
-      <c r="G117" s="40">
+      <c r="F117" s="47"/>
+      <c r="G117" s="48">
         <v>10.5</v>
       </c>
-      <c r="H117" s="41"/>
+      <c r="H117" s="49"/>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C118" s="18">
@@ -10225,14 +10553,14 @@
       <c r="D118" s="19">
         <v>0.28799999999999998</v>
       </c>
-      <c r="E118" s="44">
+      <c r="E118" s="47">
         <v>25253</v>
       </c>
-      <c r="F118" s="44"/>
-      <c r="G118" s="40">
+      <c r="F118" s="47"/>
+      <c r="G118" s="48">
         <v>10</v>
       </c>
-      <c r="H118" s="41"/>
+      <c r="H118" s="49"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C119" s="18">
@@ -10241,14 +10569,14 @@
       <c r="D119" s="19">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E119" s="44">
+      <c r="E119" s="47">
         <v>17610</v>
       </c>
-      <c r="F119" s="44"/>
-      <c r="G119" s="40">
+      <c r="F119" s="47"/>
+      <c r="G119" s="48">
         <v>10</v>
       </c>
-      <c r="H119" s="41"/>
+      <c r="H119" s="49"/>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C120" s="18">
@@ -10257,14 +10585,14 @@
       <c r="D120" s="19">
         <v>0.221</v>
       </c>
-      <c r="E120" s="44">
+      <c r="E120" s="47">
         <v>19372</v>
       </c>
-      <c r="F120" s="44"/>
-      <c r="G120" s="40">
+      <c r="F120" s="47"/>
+      <c r="G120" s="48">
         <v>10</v>
       </c>
-      <c r="H120" s="41"/>
+      <c r="H120" s="49"/>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C121" s="18">
@@ -10273,14 +10601,14 @@
       <c r="D121" s="19">
         <v>0.216</v>
       </c>
-      <c r="E121" s="44">
+      <c r="E121" s="47">
         <v>18939</v>
       </c>
-      <c r="F121" s="44"/>
-      <c r="G121" s="40">
+      <c r="F121" s="47"/>
+      <c r="G121" s="48">
         <v>10</v>
       </c>
-      <c r="H121" s="41"/>
+      <c r="H121" s="49"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C122" s="18">
@@ -10289,14 +10617,14 @@
       <c r="D122" s="19">
         <v>0.23</v>
       </c>
-      <c r="E122" s="44">
+      <c r="E122" s="47">
         <v>20382</v>
       </c>
-      <c r="F122" s="44"/>
-      <c r="G122" s="40">
+      <c r="F122" s="47"/>
+      <c r="G122" s="48">
         <v>10.1</v>
       </c>
-      <c r="H122" s="41"/>
+      <c r="H122" s="49"/>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C123" s="18">
@@ -10305,14 +10633,14 @@
       <c r="D123" s="19">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E123" s="44">
+      <c r="E123" s="47">
         <v>19968</v>
       </c>
-      <c r="F123" s="44"/>
-      <c r="G123" s="40">
+      <c r="F123" s="47"/>
+      <c r="G123" s="48">
         <v>10.1</v>
       </c>
-      <c r="H123" s="41"/>
+      <c r="H123" s="49"/>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C124" s="18">
@@ -10321,14 +10649,14 @@
       <c r="D124" s="19">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E124" s="44">
+      <c r="E124" s="47">
         <v>23240</v>
       </c>
-      <c r="F124" s="44"/>
-      <c r="G124" s="40">
+      <c r="F124" s="47"/>
+      <c r="G124" s="48">
         <v>10</v>
       </c>
-      <c r="H124" s="41"/>
+      <c r="H124" s="49"/>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C125" s="20">
@@ -10337,57 +10665,29 @@
       <c r="D125" s="21">
         <v>0.254</v>
       </c>
-      <c r="E125" s="45">
+      <c r="E125" s="52">
         <v>26709</v>
       </c>
-      <c r="F125" s="45"/>
-      <c r="G125" s="42">
+      <c r="F125" s="52"/>
+      <c r="G125" s="50">
         <v>12</v>
       </c>
-      <c r="H125" s="43"/>
+      <c r="H125" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:F104"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
+  <mergeCells count="71">
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G123:H123"/>
     <mergeCell ref="G124:H124"/>
@@ -10404,18 +10704,49 @@
     <mergeCell ref="G107:H107"/>
     <mergeCell ref="G108:H108"/>
     <mergeCell ref="G109:H109"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:F104"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfi\Google Drive\School\College\Semester 6 (Spring 2020)\ENV 717\Assignments\Assignment 11 (group project)\ENV717A11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jawessel\opl\ENV717A11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -688,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -775,28 +775,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -811,10 +791,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -826,7 +815,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1110,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC55" sqref="AC55:AC97"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W98" sqref="W98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1142,34 +1144,34 @@
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="40"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="14">
         <v>0.1</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="15">
         <v>7256200.8565999996</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
       <c r="Q1" s="24">
         <v>2221460.4</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
       <c r="V1" s="24">
         <v>8809340386.1000004</v>
       </c>
@@ -1181,31 +1183,31 @@
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="6"/>
-      <c r="I2" s="40" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="25"/>
+      <c r="I2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="23">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
       <c r="Q2" s="24">
         <v>19867.2</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="S2" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
       <c r="V2" s="27">
         <v>348494.96600000001</v>
       </c>
@@ -1223,27 +1225,27 @@
       <c r="F3" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
       <c r="L3" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
       <c r="Q3" s="24">
         <v>1596613.3</v>
       </c>
-      <c r="S3" s="40" t="s">
+      <c r="S3" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
       <c r="V3" s="28">
         <v>2066077.2990000001</v>
       </c>
@@ -1265,27 +1267,27 @@
       <c r="G4" s="6">
         <v>4198</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="15">
         <v>1</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
       <c r="Q4" s="24">
         <v>43560</v>
       </c>
-      <c r="S4" s="40" t="s">
+      <c r="S4" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
       <c r="V4" s="27">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
@@ -1302,27 +1304,27 @@
       <c r="G5" s="6">
         <v>3726</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="15">
         <v>1</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
       <c r="Q5" s="24">
         <v>601000</v>
       </c>
-      <c r="S5" s="40" t="s">
+      <c r="S5" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
       <c r="V5" s="27">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
@@ -1345,23 +1347,23 @@
       <c r="G6" s="6">
         <v>4765</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="10"/>
-      <c r="N6" s="40" t="s">
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="58"/>
+      <c r="N6" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
       <c r="Q6" s="24">
         <v>15025</v>
       </c>
-      <c r="S6" s="40" t="s">
+      <c r="S6" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
       <c r="V6" s="27">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
@@ -1384,19 +1386,19 @@
       <c r="G7" s="6">
         <v>4050</v>
       </c>
-      <c r="N7" s="40" t="s">
+      <c r="N7" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
       <c r="Q7" s="26">
         <v>0.95</v>
       </c>
-      <c r="S7" s="40" t="s">
+      <c r="S7" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
       <c r="V7" s="27">
         <f>V4*V6</f>
         <v>29903074042.27026</v>
@@ -1412,19 +1414,19 @@
       <c r="G8" s="6">
         <v>5974</v>
       </c>
-      <c r="N8" s="40" t="s">
+      <c r="N8" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
       <c r="Q8" s="26">
         <v>50</v>
       </c>
-      <c r="S8" s="40" t="s">
+      <c r="S8" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
       <c r="V8" s="27">
         <f>V5*V6</f>
         <v>5911072775.7976093</v>
@@ -1440,11 +1442,11 @@
       <c r="G9" s="6">
         <v>5009</v>
       </c>
-      <c r="N9" s="40" t="s">
+      <c r="N9" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
       <c r="Q9" s="26">
         <v>10</v>
       </c>
@@ -1479,7 +1481,7 @@
     </row>
     <row r="12" spans="2:48" x14ac:dyDescent="0.35">
       <c r="F12" s="36"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="25"/>
       <c r="S12" s="33"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
@@ -5741,17 +5743,17 @@
       </c>
     </row>
     <row r="45" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
       <c r="F45" s="2"/>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
       <c r="O45" s="4"/>
@@ -5988,11 +5990,11 @@
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
       <c r="G53" s="38" t="s">
         <v>137</v>
       </c>
@@ -6137,13 +6139,13 @@
         <v>1</v>
       </c>
       <c r="Z55" s="8">
-        <f>AG55*AH55*1000/1000000</f>
+        <f t="shared" ref="Z55:Z97" si="32">AG55*AH55*1000/1000000</f>
         <v>39.666780000000003</v>
       </c>
       <c r="AB55" s="39">
         <v>1</v>
       </c>
-      <c r="AC55" s="57">
+      <c r="AC55" s="40">
         <v>2520</v>
       </c>
       <c r="AE55" s="32">
@@ -6156,7 +6158,7 @@
         <v>12963</v>
       </c>
       <c r="AH55" s="6">
-        <f t="shared" ref="AH55:AH74" si="32">IF(EXACT(AF55,$R$47),$S$47,IF(EXACT(AF55,$R$48),$S$48,IF(EXACT(AF55,$R$49),$S$49,0)))</f>
+        <f t="shared" ref="AH55:AH74" si="33">IF(EXACT(AF55,$R$47),$S$47,IF(EXACT(AF55,$R$48),$S$48,IF(EXACT(AF55,$R$49),$S$49,0)))</f>
         <v>3.06</v>
       </c>
       <c r="AJ55" s="32">
@@ -6234,13 +6236,13 @@
         <v>2</v>
       </c>
       <c r="Z56" s="8">
-        <f>AG56*AH56*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>23.617080000000001</v>
       </c>
       <c r="AB56" s="39">
         <v>2</v>
       </c>
-      <c r="AC56" s="57">
+      <c r="AC56" s="40">
         <v>1980</v>
       </c>
       <c r="AE56" s="32">
@@ -6253,7 +6255,7 @@
         <v>7718</v>
       </c>
       <c r="AH56" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ56" s="32">
@@ -6331,13 +6333,13 @@
         <v>3</v>
       </c>
       <c r="Z57" s="8">
-        <f>AG57*AH57*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>28.115279999999998</v>
       </c>
       <c r="AB57" s="39">
         <v>3</v>
       </c>
-      <c r="AC57" s="57">
+      <c r="AC57" s="40">
         <v>240</v>
       </c>
       <c r="AE57" s="32">
@@ -6350,7 +6352,7 @@
         <v>9188</v>
       </c>
       <c r="AH57" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ57" s="32">
@@ -6428,13 +6430,13 @@
         <v>4</v>
       </c>
       <c r="Z58" s="8">
-        <f>AG58*AH58*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>21.77496</v>
       </c>
       <c r="AB58" s="39">
         <v>4</v>
       </c>
-      <c r="AC58" s="57">
+      <c r="AC58" s="40">
         <v>1020</v>
       </c>
       <c r="AE58" s="32">
@@ -6447,7 +6449,7 @@
         <v>7116</v>
       </c>
       <c r="AH58" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ58" s="32">
@@ -6525,13 +6527,13 @@
         <v>5</v>
       </c>
       <c r="Z59" s="8">
-        <f>AG59*AH59*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>23.94144</v>
       </c>
       <c r="AB59" s="39">
         <v>5</v>
       </c>
-      <c r="AC59" s="57">
+      <c r="AC59" s="40">
         <v>2220</v>
       </c>
       <c r="AE59" s="32">
@@ -6544,7 +6546,7 @@
         <v>7824</v>
       </c>
       <c r="AH59" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ59" s="32">
@@ -6622,13 +6624,13 @@
         <v>6</v>
       </c>
       <c r="Z60" s="8">
-        <f>AG60*AH60*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>38.22552000000001</v>
       </c>
       <c r="AB60" s="39">
         <v>6</v>
       </c>
-      <c r="AC60" s="57">
+      <c r="AC60" s="40">
         <v>300</v>
       </c>
       <c r="AE60" s="32">
@@ -6641,7 +6643,7 @@
         <v>12492</v>
       </c>
       <c r="AH60" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ60" s="32">
@@ -6719,13 +6721,13 @@
         <v>7</v>
       </c>
       <c r="Z61" s="8">
-        <f>AG61*AH61*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>1.6982999999999999</v>
       </c>
       <c r="AB61" s="39">
         <v>7</v>
       </c>
-      <c r="AC61" s="57">
+      <c r="AC61" s="40">
         <v>420</v>
       </c>
       <c r="AE61" s="32">
@@ -6738,7 +6740,7 @@
         <v>555</v>
       </c>
       <c r="AH61" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ61" s="32">
@@ -6816,13 +6818,13 @@
         <v>8</v>
       </c>
       <c r="Z62" s="8">
-        <f>AG62*AH62*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>36.677160000000001</v>
       </c>
       <c r="AB62" s="39">
         <v>8</v>
       </c>
-      <c r="AC62" s="57">
+      <c r="AC62" s="40">
         <v>420</v>
       </c>
       <c r="AE62" s="32">
@@ -6835,7 +6837,7 @@
         <v>11986</v>
       </c>
       <c r="AH62" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ62" s="32">
@@ -6913,13 +6915,13 @@
         <v>9</v>
       </c>
       <c r="Z63" s="8">
-        <f>AG63*AH63*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>23.494679999999999</v>
       </c>
       <c r="AB63" s="39">
         <v>9</v>
       </c>
-      <c r="AC63" s="57">
+      <c r="AC63" s="40">
         <v>1980</v>
       </c>
       <c r="AE63" s="32">
@@ -6932,7 +6934,7 @@
         <v>7678</v>
       </c>
       <c r="AH63" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ63" s="32">
@@ -7010,13 +7012,13 @@
         <v>10</v>
       </c>
       <c r="Z64" s="8">
-        <f>AG64*AH64*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>31.606739999999999</v>
       </c>
       <c r="AB64" s="39">
         <v>10</v>
       </c>
-      <c r="AC64" s="57">
+      <c r="AC64" s="40">
         <v>900</v>
       </c>
       <c r="AE64" s="32">
@@ -7029,7 +7031,7 @@
         <v>10329</v>
       </c>
       <c r="AH64" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ64" s="32">
@@ -7107,13 +7109,13 @@
         <v>11</v>
       </c>
       <c r="Z65" s="8">
-        <f>AG65*AH65*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>38.996639999999999</v>
       </c>
       <c r="AB65" s="39">
         <v>11</v>
       </c>
-      <c r="AC65" s="57">
+      <c r="AC65" s="40">
         <v>480</v>
       </c>
       <c r="AE65" s="32">
@@ -7126,7 +7128,7 @@
         <v>12744</v>
       </c>
       <c r="AH65" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ65" s="32">
@@ -7204,13 +7206,13 @@
         <v>12</v>
       </c>
       <c r="Z66" s="8">
-        <f>AG66*AH66*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>35.954999999999998</v>
       </c>
       <c r="AB66" s="39">
         <v>12</v>
       </c>
-      <c r="AC66" s="57">
+      <c r="AC66" s="40">
         <v>720</v>
       </c>
       <c r="AE66" s="32">
@@ -7223,7 +7225,7 @@
         <v>11750</v>
       </c>
       <c r="AH66" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ66" s="32">
@@ -7301,13 +7303,13 @@
         <v>13</v>
       </c>
       <c r="Z67" s="8">
-        <f>AG67*AH67*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>26.289359999999999</v>
       </c>
       <c r="AB67" s="39">
         <v>13</v>
       </c>
-      <c r="AC67" s="57">
+      <c r="AC67" s="40">
         <v>2220</v>
       </c>
       <c r="AE67" s="32">
@@ -7320,7 +7322,7 @@
         <v>12171</v>
       </c>
       <c r="AH67" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.16</v>
       </c>
       <c r="AJ67" s="32">
@@ -7398,13 +7400,13 @@
         <v>14</v>
       </c>
       <c r="Z68" s="8">
-        <f>AG68*AH68*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>34.819740000000003</v>
       </c>
       <c r="AB68" s="39">
         <v>14</v>
       </c>
-      <c r="AC68" s="57">
+      <c r="AC68" s="40">
         <v>3120</v>
       </c>
       <c r="AE68" s="32">
@@ -7417,7 +7419,7 @@
         <v>11379</v>
       </c>
       <c r="AH68" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ68" s="32">
@@ -7495,13 +7497,13 @@
         <v>15</v>
       </c>
       <c r="Z69" s="8">
-        <f>AG69*AH69*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>37.647179999999999</v>
       </c>
       <c r="AB69" s="39">
         <v>15</v>
       </c>
-      <c r="AC69" s="57">
+      <c r="AC69" s="40">
         <v>180</v>
       </c>
       <c r="AE69" s="32">
@@ -7514,7 +7516,7 @@
         <v>12303</v>
       </c>
       <c r="AH69" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ69" s="32">
@@ -7592,13 +7594,13 @@
         <v>16</v>
       </c>
       <c r="Z70" s="8">
-        <f>AG70*AH70*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>25.404119999999999</v>
       </c>
       <c r="AB70" s="39">
         <v>16</v>
       </c>
-      <c r="AC70" s="57">
+      <c r="AC70" s="40">
         <v>180</v>
       </c>
       <c r="AE70" s="32">
@@ -7611,7 +7613,7 @@
         <v>8302</v>
       </c>
       <c r="AH70" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ70" s="32">
@@ -7689,13 +7691,13 @@
         <v>17</v>
       </c>
       <c r="Z71" s="8">
-        <f>AG71*AH71*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>23.453280000000003</v>
       </c>
       <c r="AB71" s="39">
         <v>17</v>
       </c>
-      <c r="AC71" s="57">
+      <c r="AC71" s="40">
         <v>300</v>
       </c>
       <c r="AE71" s="32">
@@ -7708,7 +7710,7 @@
         <v>10858</v>
       </c>
       <c r="AH71" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.16</v>
       </c>
       <c r="AJ71" s="32">
@@ -7786,13 +7788,13 @@
         <v>18</v>
       </c>
       <c r="Z72" s="8">
-        <f>AG72*AH72*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>23.647680000000001</v>
       </c>
       <c r="AB72" s="39">
         <v>18</v>
       </c>
-      <c r="AC72" s="57">
+      <c r="AC72" s="40">
         <v>2700</v>
       </c>
       <c r="AE72" s="32">
@@ -7805,7 +7807,7 @@
         <v>10948</v>
       </c>
       <c r="AH72" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.16</v>
       </c>
       <c r="AJ72" s="32">
@@ -7883,13 +7885,13 @@
         <v>19</v>
       </c>
       <c r="Z73" s="8">
-        <f>AG73*AH73*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>223.99503999999999</v>
       </c>
       <c r="AB73" s="39">
         <v>19</v>
       </c>
-      <c r="AC73" s="57">
+      <c r="AC73" s="40">
         <v>120</v>
       </c>
       <c r="AE73" s="32">
@@ -7902,7 +7904,7 @@
         <v>17834</v>
       </c>
       <c r="AH73" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>12.56</v>
       </c>
       <c r="AJ73" s="32">
@@ -7980,13 +7982,13 @@
         <v>20</v>
       </c>
       <c r="Z74" s="8">
-        <f>AG74*AH74*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>36.931139999999999</v>
       </c>
       <c r="AB74" s="39">
         <v>20</v>
       </c>
-      <c r="AC74" s="57">
+      <c r="AC74" s="40">
         <v>1920</v>
       </c>
       <c r="AE74" s="32">
@@ -7999,7 +8001,7 @@
         <v>12069</v>
       </c>
       <c r="AH74" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ74" s="32">
@@ -8041,14 +8043,14 @@
         <v>21</v>
       </c>
       <c r="H75" s="6">
-        <f t="shared" ref="H75:H94" si="33">$L$4*$G106*H$53</f>
+        <f t="shared" ref="H75:H94" si="34">$L$4*$G106*H$53</f>
         <v>14.05</v>
       </c>
       <c r="J75" s="35">
         <v>21</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" ref="K75:K94" si="34">$L$4*$G106*K$53</f>
+        <f t="shared" ref="K75:K94" si="35">$L$4*$G106*K$53</f>
         <v>19.669999999999998</v>
       </c>
       <c r="M75" s="35">
@@ -8062,7 +8064,7 @@
         <v>21</v>
       </c>
       <c r="Q75" s="6">
-        <f t="shared" ref="Q75:Q94" si="35">$L$4*$G106*Q$53</f>
+        <f t="shared" ref="Q75:Q94" si="36">$L$4*$G106*Q$53</f>
         <v>19.669999999999998</v>
       </c>
       <c r="S75" s="32">
@@ -8081,13 +8083,13 @@
         <v>21</v>
       </c>
       <c r="Z75" s="8">
-        <f>AG75*AH75*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB75" s="39">
         <v>21</v>
       </c>
-      <c r="AC75" s="57">
+      <c r="AC75" s="40">
         <f>Q75</f>
         <v>19.669999999999998</v>
       </c>
@@ -8142,28 +8144,28 @@
         <v>22</v>
       </c>
       <c r="H76" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>12.5</v>
       </c>
       <c r="J76" s="35">
         <v>22</v>
       </c>
       <c r="K76" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>17.5</v>
       </c>
       <c r="M76" s="35">
         <v>22</v>
       </c>
       <c r="N76" s="6">
-        <f t="shared" ref="N76:N94" si="36">$L$4*$G107</f>
+        <f t="shared" ref="N76:N94" si="37">$L$4*$G107</f>
         <v>25</v>
       </c>
       <c r="P76" s="35">
         <v>22</v>
       </c>
       <c r="Q76" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>17.5</v>
       </c>
       <c r="S76" s="32">
@@ -8182,14 +8184,14 @@
         <v>22</v>
       </c>
       <c r="Z76" s="8">
-        <f>AG76*AH76*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB76" s="39">
         <v>22</v>
       </c>
-      <c r="AC76" s="57">
-        <f t="shared" ref="AC76:AC94" si="37">Q76</f>
+      <c r="AC76" s="40">
+        <f t="shared" ref="AC76:AC94" si="38">Q76</f>
         <v>17.5</v>
       </c>
       <c r="AE76" s="32">
@@ -8243,28 +8245,28 @@
         <v>23</v>
       </c>
       <c r="H77" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>35</v>
       </c>
       <c r="J77" s="35">
         <v>23</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>49</v>
       </c>
       <c r="M77" s="35">
         <v>23</v>
       </c>
       <c r="N77" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>70</v>
       </c>
       <c r="P77" s="35">
         <v>23</v>
       </c>
       <c r="Q77" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>49</v>
       </c>
       <c r="S77" s="32">
@@ -8283,14 +8285,14 @@
         <v>23</v>
       </c>
       <c r="Z77" s="8">
-        <f>AG77*AH77*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB77" s="39">
         <v>23</v>
       </c>
-      <c r="AC77" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC77" s="40">
+        <f t="shared" si="38"/>
         <v>49</v>
       </c>
       <c r="AE77" s="32">
@@ -8344,28 +8346,28 @@
         <v>24</v>
       </c>
       <c r="H78" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>15.3</v>
       </c>
       <c r="J78" s="35">
         <v>24</v>
       </c>
       <c r="K78" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>21.419999999999998</v>
       </c>
       <c r="M78" s="35">
         <v>24</v>
       </c>
       <c r="N78" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>30.6</v>
       </c>
       <c r="P78" s="35">
         <v>24</v>
       </c>
       <c r="Q78" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>21.419999999999998</v>
       </c>
       <c r="S78" s="32">
@@ -8384,14 +8386,14 @@
         <v>24</v>
       </c>
       <c r="Z78" s="8">
-        <f>AG78*AH78*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB78" s="39">
         <v>24</v>
       </c>
-      <c r="AC78" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC78" s="40">
+        <f t="shared" si="38"/>
         <v>21.419999999999998</v>
       </c>
       <c r="AE78" s="32">
@@ -8445,28 +8447,28 @@
         <v>25</v>
       </c>
       <c r="H79" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="J79" s="35">
         <v>25</v>
       </c>
       <c r="K79" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="M79" s="35">
         <v>25</v>
       </c>
       <c r="N79" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="P79" s="35">
         <v>25</v>
       </c>
       <c r="Q79" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S79" s="32">
@@ -8485,14 +8487,14 @@
         <v>25</v>
       </c>
       <c r="Z79" s="8">
-        <f>AG79*AH79*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB79" s="39">
         <v>25</v>
       </c>
-      <c r="AC79" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC79" s="40">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="AE79" s="32">
@@ -8546,28 +8548,28 @@
         <v>26</v>
       </c>
       <c r="H80" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="J80" s="35">
         <v>26</v>
       </c>
       <c r="K80" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="M80" s="35">
         <v>26</v>
       </c>
       <c r="N80" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="P80" s="35">
         <v>26</v>
       </c>
       <c r="Q80" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S80" s="32">
@@ -8586,14 +8588,14 @@
         <v>26</v>
       </c>
       <c r="Z80" s="8">
-        <f>AG80*AH80*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB80" s="39">
         <v>26</v>
       </c>
-      <c r="AC80" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC80" s="40">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="AE80" s="32">
@@ -8647,28 +8649,28 @@
         <v>27</v>
       </c>
       <c r="H81" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="J81" s="35">
         <v>27</v>
       </c>
       <c r="K81" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="M81" s="35">
         <v>27</v>
       </c>
       <c r="N81" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="P81" s="35">
         <v>27</v>
       </c>
       <c r="Q81" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S81" s="32">
@@ -8687,14 +8689,14 @@
         <v>27</v>
       </c>
       <c r="Z81" s="8">
-        <f>AG81*AH81*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB81" s="39">
         <v>27</v>
       </c>
-      <c r="AC81" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC81" s="40">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="AE81" s="32">
@@ -8748,28 +8750,28 @@
         <v>28</v>
       </c>
       <c r="H82" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>26.1</v>
       </c>
       <c r="J82" s="35">
         <v>28</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>36.54</v>
       </c>
       <c r="M82" s="35">
         <v>28</v>
       </c>
       <c r="N82" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>52.2</v>
       </c>
       <c r="P82" s="35">
         <v>28</v>
       </c>
       <c r="Q82" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>36.54</v>
       </c>
       <c r="S82" s="32">
@@ -8788,14 +8790,14 @@
         <v>28</v>
       </c>
       <c r="Z82" s="8">
-        <f>AG82*AH82*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB82" s="39">
         <v>28</v>
       </c>
-      <c r="AC82" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC82" s="40">
+        <f t="shared" si="38"/>
         <v>36.54</v>
       </c>
       <c r="AE82" s="32">
@@ -8849,28 +8851,28 @@
         <v>29</v>
       </c>
       <c r="H83" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="J83" s="35">
         <v>29</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="M83" s="35">
         <v>29</v>
       </c>
       <c r="N83" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="P83" s="35">
         <v>29</v>
       </c>
       <c r="Q83" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S83" s="32">
@@ -8889,14 +8891,14 @@
         <v>29</v>
       </c>
       <c r="Z83" s="8">
-        <f>AG83*AH83*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB83" s="39">
         <v>29</v>
       </c>
-      <c r="AC83" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC83" s="40">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="AE83" s="32">
@@ -8950,28 +8952,28 @@
         <v>30</v>
       </c>
       <c r="H84" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>10.1</v>
       </c>
       <c r="J84" s="35">
         <v>30</v>
       </c>
       <c r="K84" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>14.139999999999999</v>
       </c>
       <c r="M84" s="35">
         <v>30</v>
       </c>
       <c r="N84" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>20.2</v>
       </c>
       <c r="P84" s="35">
         <v>30</v>
       </c>
       <c r="Q84" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>14.139999999999999</v>
       </c>
       <c r="S84" s="32">
@@ -8990,14 +8992,14 @@
         <v>30</v>
       </c>
       <c r="Z84" s="8">
-        <f>AG84*AH84*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB84" s="39">
         <v>30</v>
       </c>
-      <c r="AC84" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC84" s="40">
+        <f t="shared" si="38"/>
         <v>14.139999999999999</v>
       </c>
       <c r="AE84" s="32">
@@ -9051,28 +9053,28 @@
         <v>31</v>
       </c>
       <c r="H85" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>35</v>
       </c>
       <c r="J85" s="35">
         <v>31</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>49</v>
       </c>
       <c r="M85" s="35">
         <v>31</v>
       </c>
       <c r="N85" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>70</v>
       </c>
       <c r="P85" s="35">
         <v>31</v>
       </c>
       <c r="Q85" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>49</v>
       </c>
       <c r="S85" s="32">
@@ -9091,14 +9093,14 @@
         <v>31</v>
       </c>
       <c r="Z85" s="8">
-        <f>AG85*AH85*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB85" s="39">
         <v>31</v>
       </c>
-      <c r="AC85" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC85" s="40">
+        <f t="shared" si="38"/>
         <v>49</v>
       </c>
       <c r="AE85" s="32">
@@ -9152,28 +9154,28 @@
         <v>32</v>
       </c>
       <c r="H86" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5.25</v>
       </c>
       <c r="J86" s="35">
         <v>32</v>
       </c>
       <c r="K86" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7.35</v>
       </c>
       <c r="M86" s="35">
         <v>32</v>
       </c>
       <c r="N86" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10.5</v>
       </c>
       <c r="P86" s="35">
         <v>32</v>
       </c>
       <c r="Q86" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7.35</v>
       </c>
       <c r="S86" s="32">
@@ -9192,14 +9194,14 @@
         <v>32</v>
       </c>
       <c r="Z86" s="8">
-        <f>AG86*AH86*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB86" s="39">
         <v>32</v>
       </c>
-      <c r="AC86" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC86" s="40">
+        <f t="shared" si="38"/>
         <v>7.35</v>
       </c>
       <c r="AE86" s="32">
@@ -9253,28 +9255,28 @@
         <v>33</v>
       </c>
       <c r="H87" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="J87" s="35">
         <v>33</v>
       </c>
       <c r="K87" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="M87" s="35">
         <v>33</v>
       </c>
       <c r="N87" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="P87" s="35">
         <v>33</v>
       </c>
       <c r="Q87" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S87" s="32">
@@ -9293,14 +9295,14 @@
         <v>33</v>
       </c>
       <c r="Z87" s="8">
-        <f>AG87*AH87*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB87" s="39">
         <v>33</v>
       </c>
-      <c r="AC87" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC87" s="40">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="AE87" s="32">
@@ -9354,28 +9356,28 @@
         <v>34</v>
       </c>
       <c r="H88" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="J88" s="35">
         <v>34</v>
       </c>
       <c r="K88" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="M88" s="35">
         <v>34</v>
       </c>
       <c r="N88" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="P88" s="35">
         <v>34</v>
       </c>
       <c r="Q88" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S88" s="32">
@@ -9394,14 +9396,14 @@
         <v>34</v>
       </c>
       <c r="Z88" s="8">
-        <f>AG88*AH88*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB88" s="39">
         <v>34</v>
       </c>
-      <c r="AC88" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC88" s="40">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="AE88" s="32">
@@ -9455,28 +9457,28 @@
         <v>35</v>
       </c>
       <c r="H89" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="J89" s="35">
         <v>35</v>
       </c>
       <c r="K89" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="M89" s="35">
         <v>35</v>
       </c>
       <c r="N89" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="P89" s="35">
         <v>35</v>
       </c>
       <c r="Q89" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S89" s="32">
@@ -9495,14 +9497,14 @@
         <v>35</v>
       </c>
       <c r="Z89" s="8">
-        <f>AG89*AH89*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB89" s="39">
         <v>35</v>
       </c>
-      <c r="AC89" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC89" s="40">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="AE89" s="32">
@@ -9556,28 +9558,28 @@
         <v>36</v>
       </c>
       <c r="H90" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="J90" s="35">
         <v>36</v>
       </c>
       <c r="K90" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="M90" s="35">
         <v>36</v>
       </c>
       <c r="N90" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="P90" s="35">
         <v>36</v>
       </c>
       <c r="Q90" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S90" s="32">
@@ -9596,14 +9598,14 @@
         <v>36</v>
       </c>
       <c r="Z90" s="8">
-        <f>AG90*AH90*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB90" s="39">
         <v>36</v>
       </c>
-      <c r="AC90" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC90" s="40">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="AE90" s="32">
@@ -9657,28 +9659,28 @@
         <v>37</v>
       </c>
       <c r="H91" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5.05</v>
       </c>
       <c r="J91" s="35">
         <v>37</v>
       </c>
       <c r="K91" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7.0699999999999994</v>
       </c>
       <c r="M91" s="35">
         <v>37</v>
       </c>
       <c r="N91" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10.1</v>
       </c>
       <c r="P91" s="35">
         <v>37</v>
       </c>
       <c r="Q91" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7.0699999999999994</v>
       </c>
       <c r="S91" s="32">
@@ -9697,14 +9699,14 @@
         <v>37</v>
       </c>
       <c r="Z91" s="8">
-        <f>AG91*AH91*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB91" s="39">
         <v>37</v>
       </c>
-      <c r="AC91" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC91" s="40">
+        <f t="shared" si="38"/>
         <v>7.0699999999999994</v>
       </c>
       <c r="AE91" s="32">
@@ -9758,28 +9760,28 @@
         <v>38</v>
       </c>
       <c r="H92" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5.05</v>
       </c>
       <c r="J92" s="35">
         <v>38</v>
       </c>
       <c r="K92" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7.0699999999999994</v>
       </c>
       <c r="M92" s="35">
         <v>38</v>
       </c>
       <c r="N92" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10.1</v>
       </c>
       <c r="P92" s="35">
         <v>38</v>
       </c>
       <c r="Q92" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7.0699999999999994</v>
       </c>
       <c r="S92" s="32">
@@ -9798,14 +9800,14 @@
         <v>38</v>
       </c>
       <c r="Z92" s="8">
-        <f>AG92*AH92*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB92" s="39">
         <v>38</v>
       </c>
-      <c r="AC92" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC92" s="40">
+        <f t="shared" si="38"/>
         <v>7.0699999999999994</v>
       </c>
       <c r="AE92" s="32">
@@ -9859,28 +9861,28 @@
         <v>39</v>
       </c>
       <c r="H93" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="J93" s="35">
         <v>39</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="M93" s="35">
         <v>39</v>
       </c>
       <c r="N93" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="P93" s="35">
         <v>39</v>
       </c>
       <c r="Q93" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S93" s="32">
@@ -9899,14 +9901,14 @@
         <v>39</v>
       </c>
       <c r="Z93" s="8">
-        <f>AG93*AH93*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB93" s="39">
         <v>39</v>
       </c>
-      <c r="AC93" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC93" s="40">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="AE93" s="32">
@@ -9960,28 +9962,28 @@
         <v>40</v>
       </c>
       <c r="H94" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="J94" s="35">
         <v>40</v>
       </c>
       <c r="K94" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>8.3999999999999986</v>
       </c>
       <c r="M94" s="35">
         <v>40</v>
       </c>
       <c r="N94" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>12</v>
       </c>
       <c r="P94" s="35">
         <v>40</v>
       </c>
       <c r="Q94" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>8.3999999999999986</v>
       </c>
       <c r="S94" s="32">
@@ -10000,14 +10002,14 @@
         <v>40</v>
       </c>
       <c r="Z94" s="8">
-        <f>AG94*AH94*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB94" s="39">
         <v>40</v>
       </c>
-      <c r="AC94" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC94" s="40">
+        <f t="shared" si="38"/>
         <v>8.3999999999999986</v>
       </c>
       <c r="AE94" s="32">
@@ -10097,13 +10099,13 @@
         <v>41</v>
       </c>
       <c r="Z95" s="8">
-        <f>AG95*AH95*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB95" s="39">
         <v>41</v>
       </c>
-      <c r="AC95" s="57">
+      <c r="AC95" s="40">
         <v>10000</v>
       </c>
       <c r="AE95" s="32">
@@ -10193,13 +10195,13 @@
         <v>42</v>
       </c>
       <c r="Z96" s="8">
-        <f>AG96*AH96*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB96" s="39">
         <v>42</v>
       </c>
-      <c r="AC96" s="57">
+      <c r="AC96" s="40">
         <v>10000</v>
       </c>
       <c r="AE96" s="32">
@@ -10283,19 +10285,19 @@
         <v>43</v>
       </c>
       <c r="W97" s="6">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="Y97" s="32">
         <v>43</v>
       </c>
       <c r="Z97" s="8">
-        <f>AG97*AH97*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB97" s="39">
         <v>43</v>
       </c>
-      <c r="AC97" s="57">
+      <c r="AC97" s="40">
         <v>10000</v>
       </c>
       <c r="AE97" s="32">
@@ -10327,27 +10329,27 @@
       </c>
     </row>
     <row r="103" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D103" s="42" t="s">
+      <c r="D103" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E103" s="44" t="s">
+      <c r="E103" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F103" s="44"/>
-      <c r="G103" s="44" t="s">
+      <c r="F103" s="48"/>
+      <c r="G103" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="H103" s="53"/>
+      <c r="H103" s="49"/>
       <c r="N103" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D104" s="43"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="54"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="50"/>
+      <c r="H104" s="51"/>
     </row>
     <row r="105" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
@@ -10361,14 +10363,14 @@
       <c r="D106" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E106" s="46">
+      <c r="E106" s="54">
         <v>72154</v>
       </c>
-      <c r="F106" s="46"/>
-      <c r="G106" s="55">
+      <c r="F106" s="54"/>
+      <c r="G106" s="52">
         <v>28.1</v>
       </c>
-      <c r="H106" s="56"/>
+      <c r="H106" s="53"/>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C107" s="18">
@@ -10377,14 +10379,14 @@
       <c r="D107" s="19">
         <v>0.31</v>
       </c>
-      <c r="E107" s="47">
+      <c r="E107" s="46">
         <v>67811</v>
       </c>
-      <c r="F107" s="47"/>
-      <c r="G107" s="48">
+      <c r="F107" s="46"/>
+      <c r="G107" s="42">
         <v>25</v>
       </c>
-      <c r="H107" s="49"/>
+      <c r="H107" s="43"/>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C108" s="18">
@@ -10393,14 +10395,14 @@
       <c r="D108" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E108" s="47">
+      <c r="E108" s="46">
         <v>187455</v>
       </c>
-      <c r="F108" s="47"/>
-      <c r="G108" s="48">
+      <c r="F108" s="46"/>
+      <c r="G108" s="42">
         <v>70</v>
       </c>
-      <c r="H108" s="49"/>
+      <c r="H108" s="43"/>
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C109" s="18">
@@ -10409,14 +10411,14 @@
       <c r="D109" s="19">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E109" s="47">
+      <c r="E109" s="46">
         <v>63266</v>
       </c>
-      <c r="F109" s="47"/>
-      <c r="G109" s="48">
+      <c r="F109" s="46"/>
+      <c r="G109" s="42">
         <v>30.6</v>
       </c>
-      <c r="H109" s="49"/>
+      <c r="H109" s="43"/>
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C110" s="18">
@@ -10425,14 +10427,14 @@
       <c r="D110" s="19">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E110" s="47">
+      <c r="E110" s="46">
         <v>26553</v>
       </c>
-      <c r="F110" s="47"/>
-      <c r="G110" s="48">
+      <c r="F110" s="46"/>
+      <c r="G110" s="42">
         <v>10</v>
       </c>
-      <c r="H110" s="49"/>
+      <c r="H110" s="43"/>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C111" s="18">
@@ -10441,14 +10443,14 @@
       <c r="D111" s="19">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E111" s="47">
+      <c r="E111" s="46">
         <v>24949</v>
       </c>
-      <c r="F111" s="47"/>
-      <c r="G111" s="48">
+      <c r="F111" s="46"/>
+      <c r="G111" s="42">
         <v>10</v>
       </c>
-      <c r="H111" s="49"/>
+      <c r="H111" s="43"/>
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C112" s="18">
@@ -10457,14 +10459,14 @@
       <c r="D112" s="19">
         <v>0.26100000000000001</v>
       </c>
-      <c r="E112" s="47">
+      <c r="E112" s="46">
         <v>22870</v>
       </c>
-      <c r="F112" s="47"/>
-      <c r="G112" s="48">
+      <c r="F112" s="46"/>
+      <c r="G112" s="42">
         <v>10</v>
       </c>
-      <c r="H112" s="49"/>
+      <c r="H112" s="43"/>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" s="18">
@@ -10473,14 +10475,14 @@
       <c r="D113" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E113" s="47">
+      <c r="E113" s="46">
         <v>139836</v>
       </c>
-      <c r="F113" s="47"/>
-      <c r="G113" s="48">
+      <c r="F113" s="46"/>
+      <c r="G113" s="42">
         <v>52.2</v>
       </c>
-      <c r="H113" s="49"/>
+      <c r="H113" s="43"/>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" s="18">
@@ -10489,14 +10491,14 @@
       <c r="D114" s="19">
         <v>0.26800000000000002</v>
       </c>
-      <c r="E114" s="47">
+      <c r="E114" s="46">
         <v>23515</v>
       </c>
-      <c r="F114" s="47"/>
-      <c r="G114" s="48">
+      <c r="F114" s="46"/>
+      <c r="G114" s="42">
         <v>10</v>
       </c>
-      <c r="H114" s="49"/>
+      <c r="H114" s="43"/>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" s="18">
@@ -10505,14 +10507,14 @@
       <c r="D115" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E115" s="47">
+      <c r="E115" s="46">
         <v>49503</v>
       </c>
-      <c r="F115" s="47"/>
-      <c r="G115" s="48">
+      <c r="F115" s="46"/>
+      <c r="G115" s="42">
         <v>20.2</v>
       </c>
-      <c r="H115" s="49"/>
+      <c r="H115" s="43"/>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C116" s="18">
@@ -10521,14 +10523,14 @@
       <c r="D116" s="19">
         <v>0.307</v>
       </c>
-      <c r="E116" s="47">
+      <c r="E116" s="46">
         <v>188420</v>
       </c>
-      <c r="F116" s="47"/>
-      <c r="G116" s="48">
+      <c r="F116" s="46"/>
+      <c r="G116" s="42">
         <v>70</v>
       </c>
-      <c r="H116" s="49"/>
+      <c r="H116" s="43"/>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C117" s="18">
@@ -10537,14 +10539,14 @@
       <c r="D117" s="19">
         <v>0.28899999999999998</v>
       </c>
-      <c r="E117" s="47">
+      <c r="E117" s="46">
         <v>26573</v>
       </c>
-      <c r="F117" s="47"/>
-      <c r="G117" s="48">
+      <c r="F117" s="46"/>
+      <c r="G117" s="42">
         <v>10.5</v>
       </c>
-      <c r="H117" s="49"/>
+      <c r="H117" s="43"/>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C118" s="18">
@@ -10553,14 +10555,14 @@
       <c r="D118" s="19">
         <v>0.28799999999999998</v>
       </c>
-      <c r="E118" s="47">
+      <c r="E118" s="46">
         <v>25253</v>
       </c>
-      <c r="F118" s="47"/>
-      <c r="G118" s="48">
+      <c r="F118" s="46"/>
+      <c r="G118" s="42">
         <v>10</v>
       </c>
-      <c r="H118" s="49"/>
+      <c r="H118" s="43"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C119" s="18">
@@ -10569,14 +10571,14 @@
       <c r="D119" s="19">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E119" s="47">
+      <c r="E119" s="46">
         <v>17610</v>
       </c>
-      <c r="F119" s="47"/>
-      <c r="G119" s="48">
+      <c r="F119" s="46"/>
+      <c r="G119" s="42">
         <v>10</v>
       </c>
-      <c r="H119" s="49"/>
+      <c r="H119" s="43"/>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C120" s="18">
@@ -10585,14 +10587,14 @@
       <c r="D120" s="19">
         <v>0.221</v>
       </c>
-      <c r="E120" s="47">
+      <c r="E120" s="46">
         <v>19372</v>
       </c>
-      <c r="F120" s="47"/>
-      <c r="G120" s="48">
+      <c r="F120" s="46"/>
+      <c r="G120" s="42">
         <v>10</v>
       </c>
-      <c r="H120" s="49"/>
+      <c r="H120" s="43"/>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C121" s="18">
@@ -10601,14 +10603,14 @@
       <c r="D121" s="19">
         <v>0.216</v>
       </c>
-      <c r="E121" s="47">
+      <c r="E121" s="46">
         <v>18939</v>
       </c>
-      <c r="F121" s="47"/>
-      <c r="G121" s="48">
+      <c r="F121" s="46"/>
+      <c r="G121" s="42">
         <v>10</v>
       </c>
-      <c r="H121" s="49"/>
+      <c r="H121" s="43"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C122" s="18">
@@ -10617,14 +10619,14 @@
       <c r="D122" s="19">
         <v>0.23</v>
       </c>
-      <c r="E122" s="47">
+      <c r="E122" s="46">
         <v>20382</v>
       </c>
-      <c r="F122" s="47"/>
-      <c r="G122" s="48">
+      <c r="F122" s="46"/>
+      <c r="G122" s="42">
         <v>10.1</v>
       </c>
-      <c r="H122" s="49"/>
+      <c r="H122" s="43"/>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C123" s="18">
@@ -10633,14 +10635,14 @@
       <c r="D123" s="19">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E123" s="47">
+      <c r="E123" s="46">
         <v>19968</v>
       </c>
-      <c r="F123" s="47"/>
-      <c r="G123" s="48">
+      <c r="F123" s="46"/>
+      <c r="G123" s="42">
         <v>10.1</v>
       </c>
-      <c r="H123" s="49"/>
+      <c r="H123" s="43"/>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C124" s="18">
@@ -10649,14 +10651,14 @@
       <c r="D124" s="19">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E124" s="47">
+      <c r="E124" s="46">
         <v>23240</v>
       </c>
-      <c r="F124" s="47"/>
-      <c r="G124" s="48">
+      <c r="F124" s="46"/>
+      <c r="G124" s="42">
         <v>10</v>
       </c>
-      <c r="H124" s="49"/>
+      <c r="H124" s="43"/>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C125" s="20">
@@ -10665,29 +10667,59 @@
       <c r="D125" s="21">
         <v>0.254</v>
       </c>
-      <c r="E125" s="52">
+      <c r="E125" s="47">
         <v>26709</v>
       </c>
-      <c r="F125" s="52"/>
-      <c r="G125" s="50">
+      <c r="F125" s="47"/>
+      <c r="G125" s="44">
         <v>12</v>
       </c>
-      <c r="H125" s="51"/>
+      <c r="H125" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
+  <mergeCells count="70">
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:F104"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G123:H123"/>
     <mergeCell ref="G124:H124"/>
@@ -10704,49 +10736,18 @@
     <mergeCell ref="G107:H107"/>
     <mergeCell ref="G108:H108"/>
     <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:F104"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -775,28 +775,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -811,10 +791,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -826,7 +815,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC55" sqref="AC55:AC97"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1142,34 +1142,34 @@
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="40"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="14">
         <v>0.1</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="15">
         <v>7256200.8565999996</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
       <c r="Q1" s="24">
         <v>2221460.4</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
       <c r="V1" s="24">
         <v>8809340386.1000004</v>
       </c>
@@ -1181,31 +1181,31 @@
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="6"/>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="23">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
       <c r="Q2" s="24">
         <v>19867.2</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="S2" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
       <c r="V2" s="27">
         <v>348494.96600000001</v>
       </c>
@@ -1223,27 +1223,27 @@
       <c r="F3" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
       <c r="L3" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
       <c r="Q3" s="24">
         <v>1596613.3</v>
       </c>
-      <c r="S3" s="40" t="s">
+      <c r="S3" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
       <c r="V3" s="28">
         <v>2066077.2990000001</v>
       </c>
@@ -1265,27 +1265,27 @@
       <c r="G4" s="6">
         <v>4198</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="15">
         <v>1</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
       <c r="Q4" s="24">
         <v>43560</v>
       </c>
-      <c r="S4" s="40" t="s">
+      <c r="S4" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
       <c r="V4" s="27">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
@@ -1302,27 +1302,27 @@
       <c r="G5" s="6">
         <v>3726</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="15">
         <v>1</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
       <c r="Q5" s="24">
         <v>601000</v>
       </c>
-      <c r="S5" s="40" t="s">
+      <c r="S5" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
       <c r="V5" s="27">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
@@ -1345,23 +1345,23 @@
       <c r="G6" s="6">
         <v>4765</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
       <c r="L6" s="10"/>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
       <c r="Q6" s="24">
         <v>15025</v>
       </c>
-      <c r="S6" s="40" t="s">
+      <c r="S6" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
       <c r="V6" s="27">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
@@ -1384,19 +1384,19 @@
       <c r="G7" s="6">
         <v>4050</v>
       </c>
-      <c r="N7" s="40" t="s">
+      <c r="N7" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
       <c r="Q7" s="26">
         <v>0.95</v>
       </c>
-      <c r="S7" s="40" t="s">
+      <c r="S7" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
       <c r="V7" s="27">
         <f>V4*V6</f>
         <v>29903074042.27026</v>
@@ -1412,19 +1412,19 @@
       <c r="G8" s="6">
         <v>5974</v>
       </c>
-      <c r="N8" s="40" t="s">
+      <c r="N8" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
       <c r="Q8" s="26">
         <v>50</v>
       </c>
-      <c r="S8" s="40" t="s">
+      <c r="S8" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
       <c r="V8" s="27">
         <f>V5*V6</f>
         <v>5911072775.7976093</v>
@@ -1440,11 +1440,11 @@
       <c r="G9" s="6">
         <v>5009</v>
       </c>
-      <c r="N9" s="40" t="s">
+      <c r="N9" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
       <c r="Q9" s="26">
         <v>10</v>
       </c>
@@ -5741,17 +5741,17 @@
       </c>
     </row>
     <row r="45" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
       <c r="F45" s="2"/>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
       <c r="O45" s="4"/>
@@ -5988,11 +5988,11 @@
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
       <c r="G53" s="38" t="s">
         <v>137</v>
       </c>
@@ -6137,13 +6137,13 @@
         <v>1</v>
       </c>
       <c r="Z55" s="8">
-        <f>AG55*AH55*1000/1000000</f>
+        <f t="shared" ref="Z55:Z97" si="32">AG55*AH55*1000/1000000</f>
         <v>39.666780000000003</v>
       </c>
       <c r="AB55" s="39">
         <v>1</v>
       </c>
-      <c r="AC55" s="57">
+      <c r="AC55" s="40">
         <v>2520</v>
       </c>
       <c r="AE55" s="32">
@@ -6156,7 +6156,7 @@
         <v>12963</v>
       </c>
       <c r="AH55" s="6">
-        <f t="shared" ref="AH55:AH74" si="32">IF(EXACT(AF55,$R$47),$S$47,IF(EXACT(AF55,$R$48),$S$48,IF(EXACT(AF55,$R$49),$S$49,0)))</f>
+        <f t="shared" ref="AH55:AH74" si="33">IF(EXACT(AF55,$R$47),$S$47,IF(EXACT(AF55,$R$48),$S$48,IF(EXACT(AF55,$R$49),$S$49,0)))</f>
         <v>3.06</v>
       </c>
       <c r="AJ55" s="32">
@@ -6234,13 +6234,13 @@
         <v>2</v>
       </c>
       <c r="Z56" s="8">
-        <f>AG56*AH56*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>23.617080000000001</v>
       </c>
       <c r="AB56" s="39">
         <v>2</v>
       </c>
-      <c r="AC56" s="57">
+      <c r="AC56" s="40">
         <v>1980</v>
       </c>
       <c r="AE56" s="32">
@@ -6253,7 +6253,7 @@
         <v>7718</v>
       </c>
       <c r="AH56" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ56" s="32">
@@ -6331,13 +6331,13 @@
         <v>3</v>
       </c>
       <c r="Z57" s="8">
-        <f>AG57*AH57*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>28.115279999999998</v>
       </c>
       <c r="AB57" s="39">
         <v>3</v>
       </c>
-      <c r="AC57" s="57">
+      <c r="AC57" s="40">
         <v>240</v>
       </c>
       <c r="AE57" s="32">
@@ -6350,7 +6350,7 @@
         <v>9188</v>
       </c>
       <c r="AH57" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ57" s="32">
@@ -6428,13 +6428,13 @@
         <v>4</v>
       </c>
       <c r="Z58" s="8">
-        <f>AG58*AH58*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>21.77496</v>
       </c>
       <c r="AB58" s="39">
         <v>4</v>
       </c>
-      <c r="AC58" s="57">
+      <c r="AC58" s="40">
         <v>1020</v>
       </c>
       <c r="AE58" s="32">
@@ -6447,7 +6447,7 @@
         <v>7116</v>
       </c>
       <c r="AH58" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ58" s="32">
@@ -6525,13 +6525,13 @@
         <v>5</v>
       </c>
       <c r="Z59" s="8">
-        <f>AG59*AH59*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>23.94144</v>
       </c>
       <c r="AB59" s="39">
         <v>5</v>
       </c>
-      <c r="AC59" s="57">
+      <c r="AC59" s="40">
         <v>2220</v>
       </c>
       <c r="AE59" s="32">
@@ -6544,7 +6544,7 @@
         <v>7824</v>
       </c>
       <c r="AH59" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ59" s="32">
@@ -6622,13 +6622,13 @@
         <v>6</v>
       </c>
       <c r="Z60" s="8">
-        <f>AG60*AH60*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>38.22552000000001</v>
       </c>
       <c r="AB60" s="39">
         <v>6</v>
       </c>
-      <c r="AC60" s="57">
+      <c r="AC60" s="40">
         <v>300</v>
       </c>
       <c r="AE60" s="32">
@@ -6641,7 +6641,7 @@
         <v>12492</v>
       </c>
       <c r="AH60" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ60" s="32">
@@ -6719,13 +6719,13 @@
         <v>7</v>
       </c>
       <c r="Z61" s="8">
-        <f>AG61*AH61*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>1.6982999999999999</v>
       </c>
       <c r="AB61" s="39">
         <v>7</v>
       </c>
-      <c r="AC61" s="57">
+      <c r="AC61" s="40">
         <v>420</v>
       </c>
       <c r="AE61" s="32">
@@ -6738,7 +6738,7 @@
         <v>555</v>
       </c>
       <c r="AH61" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ61" s="32">
@@ -6816,13 +6816,13 @@
         <v>8</v>
       </c>
       <c r="Z62" s="8">
-        <f>AG62*AH62*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>36.677160000000001</v>
       </c>
       <c r="AB62" s="39">
         <v>8</v>
       </c>
-      <c r="AC62" s="57">
+      <c r="AC62" s="40">
         <v>420</v>
       </c>
       <c r="AE62" s="32">
@@ -6835,7 +6835,7 @@
         <v>11986</v>
       </c>
       <c r="AH62" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ62" s="32">
@@ -6913,13 +6913,13 @@
         <v>9</v>
       </c>
       <c r="Z63" s="8">
-        <f>AG63*AH63*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>23.494679999999999</v>
       </c>
       <c r="AB63" s="39">
         <v>9</v>
       </c>
-      <c r="AC63" s="57">
+      <c r="AC63" s="40">
         <v>1980</v>
       </c>
       <c r="AE63" s="32">
@@ -6932,7 +6932,7 @@
         <v>7678</v>
       </c>
       <c r="AH63" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ63" s="32">
@@ -7010,13 +7010,13 @@
         <v>10</v>
       </c>
       <c r="Z64" s="8">
-        <f>AG64*AH64*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>31.606739999999999</v>
       </c>
       <c r="AB64" s="39">
         <v>10</v>
       </c>
-      <c r="AC64" s="57">
+      <c r="AC64" s="40">
         <v>900</v>
       </c>
       <c r="AE64" s="32">
@@ -7029,7 +7029,7 @@
         <v>10329</v>
       </c>
       <c r="AH64" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ64" s="32">
@@ -7107,13 +7107,13 @@
         <v>11</v>
       </c>
       <c r="Z65" s="8">
-        <f>AG65*AH65*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>38.996639999999999</v>
       </c>
       <c r="AB65" s="39">
         <v>11</v>
       </c>
-      <c r="AC65" s="57">
+      <c r="AC65" s="40">
         <v>480</v>
       </c>
       <c r="AE65" s="32">
@@ -7126,7 +7126,7 @@
         <v>12744</v>
       </c>
       <c r="AH65" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ65" s="32">
@@ -7204,13 +7204,13 @@
         <v>12</v>
       </c>
       <c r="Z66" s="8">
-        <f>AG66*AH66*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>35.954999999999998</v>
       </c>
       <c r="AB66" s="39">
         <v>12</v>
       </c>
-      <c r="AC66" s="57">
+      <c r="AC66" s="40">
         <v>720</v>
       </c>
       <c r="AE66" s="32">
@@ -7223,7 +7223,7 @@
         <v>11750</v>
       </c>
       <c r="AH66" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ66" s="32">
@@ -7301,13 +7301,13 @@
         <v>13</v>
       </c>
       <c r="Z67" s="8">
-        <f>AG67*AH67*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>26.289359999999999</v>
       </c>
       <c r="AB67" s="39">
         <v>13</v>
       </c>
-      <c r="AC67" s="57">
+      <c r="AC67" s="40">
         <v>2220</v>
       </c>
       <c r="AE67" s="32">
@@ -7320,7 +7320,7 @@
         <v>12171</v>
       </c>
       <c r="AH67" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.16</v>
       </c>
       <c r="AJ67" s="32">
@@ -7398,13 +7398,13 @@
         <v>14</v>
       </c>
       <c r="Z68" s="8">
-        <f>AG68*AH68*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>34.819740000000003</v>
       </c>
       <c r="AB68" s="39">
         <v>14</v>
       </c>
-      <c r="AC68" s="57">
+      <c r="AC68" s="40">
         <v>3120</v>
       </c>
       <c r="AE68" s="32">
@@ -7417,7 +7417,7 @@
         <v>11379</v>
       </c>
       <c r="AH68" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ68" s="32">
@@ -7495,13 +7495,13 @@
         <v>15</v>
       </c>
       <c r="Z69" s="8">
-        <f>AG69*AH69*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>37.647179999999999</v>
       </c>
       <c r="AB69" s="39">
         <v>15</v>
       </c>
-      <c r="AC69" s="57">
+      <c r="AC69" s="40">
         <v>180</v>
       </c>
       <c r="AE69" s="32">
@@ -7514,7 +7514,7 @@
         <v>12303</v>
       </c>
       <c r="AH69" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ69" s="32">
@@ -7592,13 +7592,13 @@
         <v>16</v>
       </c>
       <c r="Z70" s="8">
-        <f>AG70*AH70*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>25.404119999999999</v>
       </c>
       <c r="AB70" s="39">
         <v>16</v>
       </c>
-      <c r="AC70" s="57">
+      <c r="AC70" s="40">
         <v>180</v>
       </c>
       <c r="AE70" s="32">
@@ -7611,7 +7611,7 @@
         <v>8302</v>
       </c>
       <c r="AH70" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ70" s="32">
@@ -7689,13 +7689,13 @@
         <v>17</v>
       </c>
       <c r="Z71" s="8">
-        <f>AG71*AH71*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>23.453280000000003</v>
       </c>
       <c r="AB71" s="39">
         <v>17</v>
       </c>
-      <c r="AC71" s="57">
+      <c r="AC71" s="40">
         <v>300</v>
       </c>
       <c r="AE71" s="32">
@@ -7708,7 +7708,7 @@
         <v>10858</v>
       </c>
       <c r="AH71" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.16</v>
       </c>
       <c r="AJ71" s="32">
@@ -7786,13 +7786,13 @@
         <v>18</v>
       </c>
       <c r="Z72" s="8">
-        <f>AG72*AH72*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>23.647680000000001</v>
       </c>
       <c r="AB72" s="39">
         <v>18</v>
       </c>
-      <c r="AC72" s="57">
+      <c r="AC72" s="40">
         <v>2700</v>
       </c>
       <c r="AE72" s="32">
@@ -7805,7 +7805,7 @@
         <v>10948</v>
       </c>
       <c r="AH72" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.16</v>
       </c>
       <c r="AJ72" s="32">
@@ -7883,13 +7883,13 @@
         <v>19</v>
       </c>
       <c r="Z73" s="8">
-        <f>AG73*AH73*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>223.99503999999999</v>
       </c>
       <c r="AB73" s="39">
         <v>19</v>
       </c>
-      <c r="AC73" s="57">
+      <c r="AC73" s="40">
         <v>120</v>
       </c>
       <c r="AE73" s="32">
@@ -7902,7 +7902,7 @@
         <v>17834</v>
       </c>
       <c r="AH73" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>12.56</v>
       </c>
       <c r="AJ73" s="32">
@@ -7980,13 +7980,13 @@
         <v>20</v>
       </c>
       <c r="Z74" s="8">
-        <f>AG74*AH74*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>36.931139999999999</v>
       </c>
       <c r="AB74" s="39">
         <v>20</v>
       </c>
-      <c r="AC74" s="57">
+      <c r="AC74" s="40">
         <v>1920</v>
       </c>
       <c r="AE74" s="32">
@@ -7999,7 +7999,7 @@
         <v>12069</v>
       </c>
       <c r="AH74" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="AJ74" s="32">
@@ -8041,14 +8041,14 @@
         <v>21</v>
       </c>
       <c r="H75" s="6">
-        <f t="shared" ref="H75:H94" si="33">$L$4*$G106*H$53</f>
+        <f t="shared" ref="H75:H94" si="34">$L$4*$G106*H$53</f>
         <v>14.05</v>
       </c>
       <c r="J75" s="35">
         <v>21</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" ref="K75:K94" si="34">$L$4*$G106*K$53</f>
+        <f t="shared" ref="K75:K94" si="35">$L$4*$G106*K$53</f>
         <v>19.669999999999998</v>
       </c>
       <c r="M75" s="35">
@@ -8062,7 +8062,7 @@
         <v>21</v>
       </c>
       <c r="Q75" s="6">
-        <f t="shared" ref="Q75:Q94" si="35">$L$4*$G106*Q$53</f>
+        <f t="shared" ref="Q75:Q94" si="36">$L$4*$G106*Q$53</f>
         <v>19.669999999999998</v>
       </c>
       <c r="S75" s="32">
@@ -8081,13 +8081,13 @@
         <v>21</v>
       </c>
       <c r="Z75" s="8">
-        <f>AG75*AH75*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB75" s="39">
         <v>21</v>
       </c>
-      <c r="AC75" s="57">
+      <c r="AC75" s="40">
         <f>Q75</f>
         <v>19.669999999999998</v>
       </c>
@@ -8142,28 +8142,28 @@
         <v>22</v>
       </c>
       <c r="H76" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>12.5</v>
       </c>
       <c r="J76" s="35">
         <v>22</v>
       </c>
       <c r="K76" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>17.5</v>
       </c>
       <c r="M76" s="35">
         <v>22</v>
       </c>
       <c r="N76" s="6">
-        <f t="shared" ref="N76:N94" si="36">$L$4*$G107</f>
+        <f t="shared" ref="N76:N94" si="37">$L$4*$G107</f>
         <v>25</v>
       </c>
       <c r="P76" s="35">
         <v>22</v>
       </c>
       <c r="Q76" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>17.5</v>
       </c>
       <c r="S76" s="32">
@@ -8182,14 +8182,14 @@
         <v>22</v>
       </c>
       <c r="Z76" s="8">
-        <f>AG76*AH76*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB76" s="39">
         <v>22</v>
       </c>
-      <c r="AC76" s="57">
-        <f t="shared" ref="AC76:AC94" si="37">Q76</f>
+      <c r="AC76" s="40">
+        <f t="shared" ref="AC76:AC94" si="38">Q76</f>
         <v>17.5</v>
       </c>
       <c r="AE76" s="32">
@@ -8243,28 +8243,28 @@
         <v>23</v>
       </c>
       <c r="H77" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>35</v>
       </c>
       <c r="J77" s="35">
         <v>23</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>49</v>
       </c>
       <c r="M77" s="35">
         <v>23</v>
       </c>
       <c r="N77" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>70</v>
       </c>
       <c r="P77" s="35">
         <v>23</v>
       </c>
       <c r="Q77" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>49</v>
       </c>
       <c r="S77" s="32">
@@ -8283,14 +8283,14 @@
         <v>23</v>
       </c>
       <c r="Z77" s="8">
-        <f>AG77*AH77*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB77" s="39">
         <v>23</v>
       </c>
-      <c r="AC77" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC77" s="40">
+        <f t="shared" si="38"/>
         <v>49</v>
       </c>
       <c r="AE77" s="32">
@@ -8344,28 +8344,28 @@
         <v>24</v>
       </c>
       <c r="H78" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>15.3</v>
       </c>
       <c r="J78" s="35">
         <v>24</v>
       </c>
       <c r="K78" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>21.419999999999998</v>
       </c>
       <c r="M78" s="35">
         <v>24</v>
       </c>
       <c r="N78" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>30.6</v>
       </c>
       <c r="P78" s="35">
         <v>24</v>
       </c>
       <c r="Q78" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>21.419999999999998</v>
       </c>
       <c r="S78" s="32">
@@ -8384,14 +8384,14 @@
         <v>24</v>
       </c>
       <c r="Z78" s="8">
-        <f>AG78*AH78*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB78" s="39">
         <v>24</v>
       </c>
-      <c r="AC78" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC78" s="40">
+        <f t="shared" si="38"/>
         <v>21.419999999999998</v>
       </c>
       <c r="AE78" s="32">
@@ -8445,28 +8445,28 @@
         <v>25</v>
       </c>
       <c r="H79" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="J79" s="35">
         <v>25</v>
       </c>
       <c r="K79" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="M79" s="35">
         <v>25</v>
       </c>
       <c r="N79" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="P79" s="35">
         <v>25</v>
       </c>
       <c r="Q79" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S79" s="32">
@@ -8485,14 +8485,14 @@
         <v>25</v>
       </c>
       <c r="Z79" s="8">
-        <f>AG79*AH79*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB79" s="39">
         <v>25</v>
       </c>
-      <c r="AC79" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC79" s="40">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="AE79" s="32">
@@ -8546,28 +8546,28 @@
         <v>26</v>
       </c>
       <c r="H80" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="J80" s="35">
         <v>26</v>
       </c>
       <c r="K80" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="M80" s="35">
         <v>26</v>
       </c>
       <c r="N80" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="P80" s="35">
         <v>26</v>
       </c>
       <c r="Q80" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S80" s="32">
@@ -8586,14 +8586,14 @@
         <v>26</v>
       </c>
       <c r="Z80" s="8">
-        <f>AG80*AH80*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB80" s="39">
         <v>26</v>
       </c>
-      <c r="AC80" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC80" s="40">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="AE80" s="32">
@@ -8647,28 +8647,28 @@
         <v>27</v>
       </c>
       <c r="H81" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="J81" s="35">
         <v>27</v>
       </c>
       <c r="K81" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="M81" s="35">
         <v>27</v>
       </c>
       <c r="N81" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="P81" s="35">
         <v>27</v>
       </c>
       <c r="Q81" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S81" s="32">
@@ -8687,14 +8687,14 @@
         <v>27</v>
       </c>
       <c r="Z81" s="8">
-        <f>AG81*AH81*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB81" s="39">
         <v>27</v>
       </c>
-      <c r="AC81" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC81" s="40">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="AE81" s="32">
@@ -8748,28 +8748,28 @@
         <v>28</v>
       </c>
       <c r="H82" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>26.1</v>
       </c>
       <c r="J82" s="35">
         <v>28</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>36.54</v>
       </c>
       <c r="M82" s="35">
         <v>28</v>
       </c>
       <c r="N82" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>52.2</v>
       </c>
       <c r="P82" s="35">
         <v>28</v>
       </c>
       <c r="Q82" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>36.54</v>
       </c>
       <c r="S82" s="32">
@@ -8788,14 +8788,14 @@
         <v>28</v>
       </c>
       <c r="Z82" s="8">
-        <f>AG82*AH82*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB82" s="39">
         <v>28</v>
       </c>
-      <c r="AC82" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC82" s="40">
+        <f t="shared" si="38"/>
         <v>36.54</v>
       </c>
       <c r="AE82" s="32">
@@ -8849,28 +8849,28 @@
         <v>29</v>
       </c>
       <c r="H83" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="J83" s="35">
         <v>29</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="M83" s="35">
         <v>29</v>
       </c>
       <c r="N83" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="P83" s="35">
         <v>29</v>
       </c>
       <c r="Q83" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S83" s="32">
@@ -8889,14 +8889,14 @@
         <v>29</v>
       </c>
       <c r="Z83" s="8">
-        <f>AG83*AH83*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB83" s="39">
         <v>29</v>
       </c>
-      <c r="AC83" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC83" s="40">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="AE83" s="32">
@@ -8950,28 +8950,28 @@
         <v>30</v>
       </c>
       <c r="H84" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>10.1</v>
       </c>
       <c r="J84" s="35">
         <v>30</v>
       </c>
       <c r="K84" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>14.139999999999999</v>
       </c>
       <c r="M84" s="35">
         <v>30</v>
       </c>
       <c r="N84" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>20.2</v>
       </c>
       <c r="P84" s="35">
         <v>30</v>
       </c>
       <c r="Q84" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>14.139999999999999</v>
       </c>
       <c r="S84" s="32">
@@ -8990,14 +8990,14 @@
         <v>30</v>
       </c>
       <c r="Z84" s="8">
-        <f>AG84*AH84*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB84" s="39">
         <v>30</v>
       </c>
-      <c r="AC84" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC84" s="40">
+        <f t="shared" si="38"/>
         <v>14.139999999999999</v>
       </c>
       <c r="AE84" s="32">
@@ -9051,28 +9051,28 @@
         <v>31</v>
       </c>
       <c r="H85" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>35</v>
       </c>
       <c r="J85" s="35">
         <v>31</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>49</v>
       </c>
       <c r="M85" s="35">
         <v>31</v>
       </c>
       <c r="N85" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>70</v>
       </c>
       <c r="P85" s="35">
         <v>31</v>
       </c>
       <c r="Q85" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>49</v>
       </c>
       <c r="S85" s="32">
@@ -9091,14 +9091,14 @@
         <v>31</v>
       </c>
       <c r="Z85" s="8">
-        <f>AG85*AH85*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB85" s="39">
         <v>31</v>
       </c>
-      <c r="AC85" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC85" s="40">
+        <f t="shared" si="38"/>
         <v>49</v>
       </c>
       <c r="AE85" s="32">
@@ -9152,28 +9152,28 @@
         <v>32</v>
       </c>
       <c r="H86" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5.25</v>
       </c>
       <c r="J86" s="35">
         <v>32</v>
       </c>
       <c r="K86" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7.35</v>
       </c>
       <c r="M86" s="35">
         <v>32</v>
       </c>
       <c r="N86" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10.5</v>
       </c>
       <c r="P86" s="35">
         <v>32</v>
       </c>
       <c r="Q86" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7.35</v>
       </c>
       <c r="S86" s="32">
@@ -9192,14 +9192,14 @@
         <v>32</v>
       </c>
       <c r="Z86" s="8">
-        <f>AG86*AH86*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB86" s="39">
         <v>32</v>
       </c>
-      <c r="AC86" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC86" s="40">
+        <f t="shared" si="38"/>
         <v>7.35</v>
       </c>
       <c r="AE86" s="32">
@@ -9253,28 +9253,28 @@
         <v>33</v>
       </c>
       <c r="H87" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="J87" s="35">
         <v>33</v>
       </c>
       <c r="K87" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="M87" s="35">
         <v>33</v>
       </c>
       <c r="N87" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="P87" s="35">
         <v>33</v>
       </c>
       <c r="Q87" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S87" s="32">
@@ -9293,14 +9293,14 @@
         <v>33</v>
       </c>
       <c r="Z87" s="8">
-        <f>AG87*AH87*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB87" s="39">
         <v>33</v>
       </c>
-      <c r="AC87" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC87" s="40">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="AE87" s="32">
@@ -9354,28 +9354,28 @@
         <v>34</v>
       </c>
       <c r="H88" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="J88" s="35">
         <v>34</v>
       </c>
       <c r="K88" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="M88" s="35">
         <v>34</v>
       </c>
       <c r="N88" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="P88" s="35">
         <v>34</v>
       </c>
       <c r="Q88" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S88" s="32">
@@ -9394,14 +9394,14 @@
         <v>34</v>
       </c>
       <c r="Z88" s="8">
-        <f>AG88*AH88*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB88" s="39">
         <v>34</v>
       </c>
-      <c r="AC88" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC88" s="40">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="AE88" s="32">
@@ -9455,28 +9455,28 @@
         <v>35</v>
       </c>
       <c r="H89" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="J89" s="35">
         <v>35</v>
       </c>
       <c r="K89" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="M89" s="35">
         <v>35</v>
       </c>
       <c r="N89" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="P89" s="35">
         <v>35</v>
       </c>
       <c r="Q89" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S89" s="32">
@@ -9495,14 +9495,14 @@
         <v>35</v>
       </c>
       <c r="Z89" s="8">
-        <f>AG89*AH89*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB89" s="39">
         <v>35</v>
       </c>
-      <c r="AC89" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC89" s="40">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="AE89" s="32">
@@ -9556,28 +9556,28 @@
         <v>36</v>
       </c>
       <c r="H90" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="J90" s="35">
         <v>36</v>
       </c>
       <c r="K90" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="M90" s="35">
         <v>36</v>
       </c>
       <c r="N90" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="P90" s="35">
         <v>36</v>
       </c>
       <c r="Q90" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S90" s="32">
@@ -9596,14 +9596,14 @@
         <v>36</v>
       </c>
       <c r="Z90" s="8">
-        <f>AG90*AH90*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB90" s="39">
         <v>36</v>
       </c>
-      <c r="AC90" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC90" s="40">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="AE90" s="32">
@@ -9657,28 +9657,28 @@
         <v>37</v>
       </c>
       <c r="H91" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5.05</v>
       </c>
       <c r="J91" s="35">
         <v>37</v>
       </c>
       <c r="K91" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7.0699999999999994</v>
       </c>
       <c r="M91" s="35">
         <v>37</v>
       </c>
       <c r="N91" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10.1</v>
       </c>
       <c r="P91" s="35">
         <v>37</v>
       </c>
       <c r="Q91" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7.0699999999999994</v>
       </c>
       <c r="S91" s="32">
@@ -9697,14 +9697,14 @@
         <v>37</v>
       </c>
       <c r="Z91" s="8">
-        <f>AG91*AH91*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB91" s="39">
         <v>37</v>
       </c>
-      <c r="AC91" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC91" s="40">
+        <f t="shared" si="38"/>
         <v>7.0699999999999994</v>
       </c>
       <c r="AE91" s="32">
@@ -9758,28 +9758,28 @@
         <v>38</v>
       </c>
       <c r="H92" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5.05</v>
       </c>
       <c r="J92" s="35">
         <v>38</v>
       </c>
       <c r="K92" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7.0699999999999994</v>
       </c>
       <c r="M92" s="35">
         <v>38</v>
       </c>
       <c r="N92" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10.1</v>
       </c>
       <c r="P92" s="35">
         <v>38</v>
       </c>
       <c r="Q92" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7.0699999999999994</v>
       </c>
       <c r="S92" s="32">
@@ -9798,14 +9798,14 @@
         <v>38</v>
       </c>
       <c r="Z92" s="8">
-        <f>AG92*AH92*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB92" s="39">
         <v>38</v>
       </c>
-      <c r="AC92" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC92" s="40">
+        <f t="shared" si="38"/>
         <v>7.0699999999999994</v>
       </c>
       <c r="AE92" s="32">
@@ -9859,28 +9859,28 @@
         <v>39</v>
       </c>
       <c r="H93" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="J93" s="35">
         <v>39</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="M93" s="35">
         <v>39</v>
       </c>
       <c r="N93" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="P93" s="35">
         <v>39</v>
       </c>
       <c r="Q93" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S93" s="32">
@@ -9899,14 +9899,14 @@
         <v>39</v>
       </c>
       <c r="Z93" s="8">
-        <f>AG93*AH93*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB93" s="39">
         <v>39</v>
       </c>
-      <c r="AC93" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC93" s="40">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="AE93" s="32">
@@ -9960,28 +9960,28 @@
         <v>40</v>
       </c>
       <c r="H94" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="J94" s="35">
         <v>40</v>
       </c>
       <c r="K94" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>8.3999999999999986</v>
       </c>
       <c r="M94" s="35">
         <v>40</v>
       </c>
       <c r="N94" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>12</v>
       </c>
       <c r="P94" s="35">
         <v>40</v>
       </c>
       <c r="Q94" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>8.3999999999999986</v>
       </c>
       <c r="S94" s="32">
@@ -10000,14 +10000,14 @@
         <v>40</v>
       </c>
       <c r="Z94" s="8">
-        <f>AG94*AH94*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB94" s="39">
         <v>40</v>
       </c>
-      <c r="AC94" s="57">
-        <f t="shared" si="37"/>
+      <c r="AC94" s="40">
+        <f t="shared" si="38"/>
         <v>8.3999999999999986</v>
       </c>
       <c r="AE94" s="32">
@@ -10097,13 +10097,13 @@
         <v>41</v>
       </c>
       <c r="Z95" s="8">
-        <f>AG95*AH95*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB95" s="39">
         <v>41</v>
       </c>
-      <c r="AC95" s="57">
+      <c r="AC95" s="40">
         <v>10000</v>
       </c>
       <c r="AE95" s="32">
@@ -10193,13 +10193,13 @@
         <v>42</v>
       </c>
       <c r="Z96" s="8">
-        <f>AG96*AH96*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB96" s="39">
         <v>42</v>
       </c>
-      <c r="AC96" s="57">
+      <c r="AC96" s="40">
         <v>10000</v>
       </c>
       <c r="AE96" s="32">
@@ -10277,25 +10277,25 @@
         <v>43</v>
       </c>
       <c r="T97" s="6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="V97" s="29">
         <v>43</v>
       </c>
       <c r="W97" s="6">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="Y97" s="32">
         <v>43</v>
       </c>
       <c r="Z97" s="8">
-        <f>AG97*AH97*1000/1000000</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB97" s="39">
         <v>43</v>
       </c>
-      <c r="AC97" s="57">
+      <c r="AC97" s="40">
         <v>10000</v>
       </c>
       <c r="AE97" s="32">
@@ -10327,27 +10327,27 @@
       </c>
     </row>
     <row r="103" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D103" s="42" t="s">
+      <c r="D103" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E103" s="44" t="s">
+      <c r="E103" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F103" s="44"/>
-      <c r="G103" s="44" t="s">
+      <c r="F103" s="48"/>
+      <c r="G103" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="H103" s="53"/>
+      <c r="H103" s="49"/>
       <c r="N103" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D104" s="43"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="54"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="50"/>
+      <c r="H104" s="51"/>
     </row>
     <row r="105" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
@@ -10361,14 +10361,14 @@
       <c r="D106" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E106" s="46">
+      <c r="E106" s="54">
         <v>72154</v>
       </c>
-      <c r="F106" s="46"/>
-      <c r="G106" s="55">
+      <c r="F106" s="54"/>
+      <c r="G106" s="52">
         <v>28.1</v>
       </c>
-      <c r="H106" s="56"/>
+      <c r="H106" s="53"/>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C107" s="18">
@@ -10377,14 +10377,14 @@
       <c r="D107" s="19">
         <v>0.31</v>
       </c>
-      <c r="E107" s="47">
+      <c r="E107" s="46">
         <v>67811</v>
       </c>
-      <c r="F107" s="47"/>
-      <c r="G107" s="48">
+      <c r="F107" s="46"/>
+      <c r="G107" s="42">
         <v>25</v>
       </c>
-      <c r="H107" s="49"/>
+      <c r="H107" s="43"/>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C108" s="18">
@@ -10393,14 +10393,14 @@
       <c r="D108" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E108" s="47">
+      <c r="E108" s="46">
         <v>187455</v>
       </c>
-      <c r="F108" s="47"/>
-      <c r="G108" s="48">
+      <c r="F108" s="46"/>
+      <c r="G108" s="42">
         <v>70</v>
       </c>
-      <c r="H108" s="49"/>
+      <c r="H108" s="43"/>
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C109" s="18">
@@ -10409,14 +10409,14 @@
       <c r="D109" s="19">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E109" s="47">
+      <c r="E109" s="46">
         <v>63266</v>
       </c>
-      <c r="F109" s="47"/>
-      <c r="G109" s="48">
+      <c r="F109" s="46"/>
+      <c r="G109" s="42">
         <v>30.6</v>
       </c>
-      <c r="H109" s="49"/>
+      <c r="H109" s="43"/>
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C110" s="18">
@@ -10425,14 +10425,14 @@
       <c r="D110" s="19">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E110" s="47">
+      <c r="E110" s="46">
         <v>26553</v>
       </c>
-      <c r="F110" s="47"/>
-      <c r="G110" s="48">
+      <c r="F110" s="46"/>
+      <c r="G110" s="42">
         <v>10</v>
       </c>
-      <c r="H110" s="49"/>
+      <c r="H110" s="43"/>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C111" s="18">
@@ -10441,14 +10441,14 @@
       <c r="D111" s="19">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E111" s="47">
+      <c r="E111" s="46">
         <v>24949</v>
       </c>
-      <c r="F111" s="47"/>
-      <c r="G111" s="48">
+      <c r="F111" s="46"/>
+      <c r="G111" s="42">
         <v>10</v>
       </c>
-      <c r="H111" s="49"/>
+      <c r="H111" s="43"/>
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C112" s="18">
@@ -10457,14 +10457,14 @@
       <c r="D112" s="19">
         <v>0.26100000000000001</v>
       </c>
-      <c r="E112" s="47">
+      <c r="E112" s="46">
         <v>22870</v>
       </c>
-      <c r="F112" s="47"/>
-      <c r="G112" s="48">
+      <c r="F112" s="46"/>
+      <c r="G112" s="42">
         <v>10</v>
       </c>
-      <c r="H112" s="49"/>
+      <c r="H112" s="43"/>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" s="18">
@@ -10473,14 +10473,14 @@
       <c r="D113" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E113" s="47">
+      <c r="E113" s="46">
         <v>139836</v>
       </c>
-      <c r="F113" s="47"/>
-      <c r="G113" s="48">
+      <c r="F113" s="46"/>
+      <c r="G113" s="42">
         <v>52.2</v>
       </c>
-      <c r="H113" s="49"/>
+      <c r="H113" s="43"/>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" s="18">
@@ -10489,14 +10489,14 @@
       <c r="D114" s="19">
         <v>0.26800000000000002</v>
       </c>
-      <c r="E114" s="47">
+      <c r="E114" s="46">
         <v>23515</v>
       </c>
-      <c r="F114" s="47"/>
-      <c r="G114" s="48">
+      <c r="F114" s="46"/>
+      <c r="G114" s="42">
         <v>10</v>
       </c>
-      <c r="H114" s="49"/>
+      <c r="H114" s="43"/>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" s="18">
@@ -10505,14 +10505,14 @@
       <c r="D115" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E115" s="47">
+      <c r="E115" s="46">
         <v>49503</v>
       </c>
-      <c r="F115" s="47"/>
-      <c r="G115" s="48">
+      <c r="F115" s="46"/>
+      <c r="G115" s="42">
         <v>20.2</v>
       </c>
-      <c r="H115" s="49"/>
+      <c r="H115" s="43"/>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C116" s="18">
@@ -10521,14 +10521,14 @@
       <c r="D116" s="19">
         <v>0.307</v>
       </c>
-      <c r="E116" s="47">
+      <c r="E116" s="46">
         <v>188420</v>
       </c>
-      <c r="F116" s="47"/>
-      <c r="G116" s="48">
+      <c r="F116" s="46"/>
+      <c r="G116" s="42">
         <v>70</v>
       </c>
-      <c r="H116" s="49"/>
+      <c r="H116" s="43"/>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C117" s="18">
@@ -10537,14 +10537,14 @@
       <c r="D117" s="19">
         <v>0.28899999999999998</v>
       </c>
-      <c r="E117" s="47">
+      <c r="E117" s="46">
         <v>26573</v>
       </c>
-      <c r="F117" s="47"/>
-      <c r="G117" s="48">
+      <c r="F117" s="46"/>
+      <c r="G117" s="42">
         <v>10.5</v>
       </c>
-      <c r="H117" s="49"/>
+      <c r="H117" s="43"/>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C118" s="18">
@@ -10553,14 +10553,14 @@
       <c r="D118" s="19">
         <v>0.28799999999999998</v>
       </c>
-      <c r="E118" s="47">
+      <c r="E118" s="46">
         <v>25253</v>
       </c>
-      <c r="F118" s="47"/>
-      <c r="G118" s="48">
+      <c r="F118" s="46"/>
+      <c r="G118" s="42">
         <v>10</v>
       </c>
-      <c r="H118" s="49"/>
+      <c r="H118" s="43"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C119" s="18">
@@ -10569,14 +10569,14 @@
       <c r="D119" s="19">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E119" s="47">
+      <c r="E119" s="46">
         <v>17610</v>
       </c>
-      <c r="F119" s="47"/>
-      <c r="G119" s="48">
+      <c r="F119" s="46"/>
+      <c r="G119" s="42">
         <v>10</v>
       </c>
-      <c r="H119" s="49"/>
+      <c r="H119" s="43"/>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C120" s="18">
@@ -10585,14 +10585,14 @@
       <c r="D120" s="19">
         <v>0.221</v>
       </c>
-      <c r="E120" s="47">
+      <c r="E120" s="46">
         <v>19372</v>
       </c>
-      <c r="F120" s="47"/>
-      <c r="G120" s="48">
+      <c r="F120" s="46"/>
+      <c r="G120" s="42">
         <v>10</v>
       </c>
-      <c r="H120" s="49"/>
+      <c r="H120" s="43"/>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C121" s="18">
@@ -10601,14 +10601,14 @@
       <c r="D121" s="19">
         <v>0.216</v>
       </c>
-      <c r="E121" s="47">
+      <c r="E121" s="46">
         <v>18939</v>
       </c>
-      <c r="F121" s="47"/>
-      <c r="G121" s="48">
+      <c r="F121" s="46"/>
+      <c r="G121" s="42">
         <v>10</v>
       </c>
-      <c r="H121" s="49"/>
+      <c r="H121" s="43"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C122" s="18">
@@ -10617,14 +10617,14 @@
       <c r="D122" s="19">
         <v>0.23</v>
       </c>
-      <c r="E122" s="47">
+      <c r="E122" s="46">
         <v>20382</v>
       </c>
-      <c r="F122" s="47"/>
-      <c r="G122" s="48">
+      <c r="F122" s="46"/>
+      <c r="G122" s="42">
         <v>10.1</v>
       </c>
-      <c r="H122" s="49"/>
+      <c r="H122" s="43"/>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C123" s="18">
@@ -10633,14 +10633,14 @@
       <c r="D123" s="19">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E123" s="47">
+      <c r="E123" s="46">
         <v>19968</v>
       </c>
-      <c r="F123" s="47"/>
-      <c r="G123" s="48">
+      <c r="F123" s="46"/>
+      <c r="G123" s="42">
         <v>10.1</v>
       </c>
-      <c r="H123" s="49"/>
+      <c r="H123" s="43"/>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C124" s="18">
@@ -10649,14 +10649,14 @@
       <c r="D124" s="19">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E124" s="47">
+      <c r="E124" s="46">
         <v>23240</v>
       </c>
-      <c r="F124" s="47"/>
-      <c r="G124" s="48">
+      <c r="F124" s="46"/>
+      <c r="G124" s="42">
         <v>10</v>
       </c>
-      <c r="H124" s="49"/>
+      <c r="H124" s="43"/>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C125" s="20">
@@ -10665,29 +10665,60 @@
       <c r="D125" s="21">
         <v>0.254</v>
       </c>
-      <c r="E125" s="52">
+      <c r="E125" s="47">
         <v>26709</v>
       </c>
-      <c r="F125" s="52"/>
-      <c r="G125" s="50">
+      <c r="F125" s="47"/>
+      <c r="G125" s="44">
         <v>12</v>
       </c>
-      <c r="H125" s="51"/>
+      <c r="H125" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:F104"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G123:H123"/>
     <mergeCell ref="G124:H124"/>
@@ -10704,49 +10735,18 @@
     <mergeCell ref="G107:H107"/>
     <mergeCell ref="G108:H108"/>
     <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:F104"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -52,6 +52,7 @@
     <definedName name="SO2_rate">Sheet2!$AL$55:$AL$97</definedName>
     <definedName name="solar_cap_factor">Sheet2!$L$4</definedName>
     <definedName name="solar_inc">Sheet2!$Q$8</definedName>
+    <definedName name="SolarBuildTime">Sheet2!$Q$10</definedName>
     <definedName name="SpringDemandOff">Sheet2!$U$16:$W$41</definedName>
     <definedName name="SpringDemandPeak">Sheet2!$O$16:$Q$41</definedName>
     <definedName name="SpringMaxGenPeak">Sheet2!$K$55:$K$97</definedName>
@@ -67,6 +68,7 @@
     <definedName name="UnitsByBus">Sheet2!$C$55:$E$97</definedName>
     <definedName name="wind_cap_factor">Sheet2!$L$5</definedName>
     <definedName name="wind_inc">Sheet2!$Q$9</definedName>
+    <definedName name="WindBuildTime">Sheet2!$Q$11</definedName>
     <definedName name="WinterDemandOff">Sheet2!$I$16:$K$41</definedName>
     <definedName name="WinterDemandPeak">Sheet2!$C$16:$E$41</definedName>
     <definedName name="WinterMaxGenPeak">Sheet2!$H$55:$H$97</definedName>
@@ -84,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
   <si>
     <t>NumBuses</t>
   </si>
@@ -519,6 +521,12 @@
   </si>
   <si>
     <t>RampRate (MW/hr)</t>
+  </si>
+  <si>
+    <t>Solar Build Time (years):</t>
+  </si>
+  <si>
+    <t>Wind Build Time (years):</t>
   </si>
 </sst>
 </file>
@@ -1110,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1460,6 +1468,14 @@
       <c r="G10" s="6">
         <v>4359</v>
       </c>
+      <c r="N10" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="26">
+        <v>1</v>
+      </c>
       <c r="S10" s="33"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
@@ -1471,6 +1487,14 @@
       </c>
       <c r="G11" s="6">
         <v>3780</v>
+      </c>
+      <c r="N11" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="26">
+        <v>3</v>
       </c>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -10675,9 +10699,7 @@
       <c r="H125" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="S8:U8"/>
+  <mergeCells count="73">
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="N8:P8"/>
@@ -10740,6 +10762,8 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="S3:U3"/>
@@ -10747,6 +10771,8 @@
     <mergeCell ref="S7:U7"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="S5:U5"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="S8:U8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -776,7 +776,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -791,19 +814,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -815,20 +829,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W98" sqref="W98"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V91" sqref="V91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1144,34 +1144,34 @@
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="41"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="14">
         <v>0.1</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="15">
         <v>7256200.8565999996</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
       <c r="Q1" s="24">
         <v>2221460.4</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
       <c r="V1" s="24">
         <v>8809340386.1000004</v>
       </c>
@@ -1183,31 +1183,31 @@
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="25"/>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="23">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
       <c r="Q2" s="24">
         <v>19867.2</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
       <c r="V2" s="27">
         <v>348494.96600000001</v>
       </c>
@@ -1225,27 +1225,27 @@
       <c r="F3" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="N3" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
       <c r="Q3" s="24">
         <v>1596613.3</v>
       </c>
-      <c r="S3" s="41" t="s">
+      <c r="S3" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
       <c r="V3" s="28">
         <v>2066077.2990000001</v>
       </c>
@@ -1267,27 +1267,27 @@
       <c r="G4" s="6">
         <v>4198</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
       <c r="L4" s="15">
         <v>1</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
       <c r="Q4" s="24">
         <v>43560</v>
       </c>
-      <c r="S4" s="41" t="s">
+      <c r="S4" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
       <c r="V4" s="27">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
@@ -1304,27 +1304,27 @@
       <c r="G5" s="6">
         <v>3726</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
       <c r="L5" s="15">
         <v>1</v>
       </c>
-      <c r="N5" s="41" t="s">
+      <c r="N5" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
       <c r="Q5" s="24">
         <v>601000</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="S5" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
       <c r="V5" s="27">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
@@ -1347,23 +1347,23 @@
       <c r="G6" s="6">
         <v>4765</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="58"/>
-      <c r="N6" s="41" t="s">
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="41"/>
+      <c r="N6" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
       <c r="Q6" s="24">
         <v>15025</v>
       </c>
-      <c r="S6" s="41" t="s">
+      <c r="S6" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
       <c r="V6" s="27">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
@@ -1386,19 +1386,19 @@
       <c r="G7" s="6">
         <v>4050</v>
       </c>
-      <c r="N7" s="41" t="s">
+      <c r="N7" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
       <c r="Q7" s="26">
         <v>0.95</v>
       </c>
-      <c r="S7" s="41" t="s">
+      <c r="S7" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
       <c r="V7" s="27">
         <f>V4*V6</f>
         <v>29903074042.27026</v>
@@ -1414,19 +1414,19 @@
       <c r="G8" s="6">
         <v>5974</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
       <c r="Q8" s="26">
         <v>50</v>
       </c>
-      <c r="S8" s="41" t="s">
+      <c r="S8" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
       <c r="V8" s="27">
         <f>V5*V6</f>
         <v>5911072775.7976093</v>
@@ -1442,11 +1442,11 @@
       <c r="G9" s="6">
         <v>5009</v>
       </c>
-      <c r="N9" s="41" t="s">
+      <c r="N9" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
       <c r="Q9" s="26">
         <v>10</v>
       </c>
@@ -5743,17 +5743,17 @@
       </c>
     </row>
     <row r="45" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
       <c r="F45" s="2"/>
-      <c r="H45" s="55" t="s">
+      <c r="H45" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
       <c r="O45" s="4"/>
@@ -5990,11 +5990,11 @@
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
       <c r="G53" s="38" t="s">
         <v>137</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>43</v>
       </c>
       <c r="T97" s="6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="V97" s="29">
         <v>43</v>
@@ -10329,27 +10329,27 @@
       </c>
     </row>
     <row r="103" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D103" s="56" t="s">
+      <c r="D103" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E103" s="48" t="s">
+      <c r="E103" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F103" s="48"/>
-      <c r="G103" s="48" t="s">
+      <c r="F103" s="47"/>
+      <c r="G103" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="H103" s="49"/>
+      <c r="H103" s="56"/>
       <c r="N103" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D104" s="57"/>
-      <c r="E104" s="50"/>
-      <c r="F104" s="50"/>
-      <c r="G104" s="50"/>
-      <c r="H104" s="51"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="57"/>
     </row>
     <row r="105" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
@@ -10363,14 +10363,14 @@
       <c r="D106" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E106" s="54">
+      <c r="E106" s="49">
         <v>72154</v>
       </c>
-      <c r="F106" s="54"/>
-      <c r="G106" s="52">
+      <c r="F106" s="49"/>
+      <c r="G106" s="58">
         <v>28.1</v>
       </c>
-      <c r="H106" s="53"/>
+      <c r="H106" s="59"/>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C107" s="18">
@@ -10379,14 +10379,14 @@
       <c r="D107" s="19">
         <v>0.31</v>
       </c>
-      <c r="E107" s="46">
+      <c r="E107" s="50">
         <v>67811</v>
       </c>
-      <c r="F107" s="46"/>
-      <c r="G107" s="42">
+      <c r="F107" s="50"/>
+      <c r="G107" s="51">
         <v>25</v>
       </c>
-      <c r="H107" s="43"/>
+      <c r="H107" s="52"/>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C108" s="18">
@@ -10395,14 +10395,14 @@
       <c r="D108" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E108" s="46">
+      <c r="E108" s="50">
         <v>187455</v>
       </c>
-      <c r="F108" s="46"/>
-      <c r="G108" s="42">
+      <c r="F108" s="50"/>
+      <c r="G108" s="51">
         <v>70</v>
       </c>
-      <c r="H108" s="43"/>
+      <c r="H108" s="52"/>
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C109" s="18">
@@ -10411,14 +10411,14 @@
       <c r="D109" s="19">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E109" s="46">
+      <c r="E109" s="50">
         <v>63266</v>
       </c>
-      <c r="F109" s="46"/>
-      <c r="G109" s="42">
+      <c r="F109" s="50"/>
+      <c r="G109" s="51">
         <v>30.6</v>
       </c>
-      <c r="H109" s="43"/>
+      <c r="H109" s="52"/>
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C110" s="18">
@@ -10427,14 +10427,14 @@
       <c r="D110" s="19">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E110" s="46">
+      <c r="E110" s="50">
         <v>26553</v>
       </c>
-      <c r="F110" s="46"/>
-      <c r="G110" s="42">
+      <c r="F110" s="50"/>
+      <c r="G110" s="51">
         <v>10</v>
       </c>
-      <c r="H110" s="43"/>
+      <c r="H110" s="52"/>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C111" s="18">
@@ -10443,14 +10443,14 @@
       <c r="D111" s="19">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E111" s="46">
+      <c r="E111" s="50">
         <v>24949</v>
       </c>
-      <c r="F111" s="46"/>
-      <c r="G111" s="42">
+      <c r="F111" s="50"/>
+      <c r="G111" s="51">
         <v>10</v>
       </c>
-      <c r="H111" s="43"/>
+      <c r="H111" s="52"/>
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C112" s="18">
@@ -10459,14 +10459,14 @@
       <c r="D112" s="19">
         <v>0.26100000000000001</v>
       </c>
-      <c r="E112" s="46">
+      <c r="E112" s="50">
         <v>22870</v>
       </c>
-      <c r="F112" s="46"/>
-      <c r="G112" s="42">
+      <c r="F112" s="50"/>
+      <c r="G112" s="51">
         <v>10</v>
       </c>
-      <c r="H112" s="43"/>
+      <c r="H112" s="52"/>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" s="18">
@@ -10475,14 +10475,14 @@
       <c r="D113" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E113" s="46">
+      <c r="E113" s="50">
         <v>139836</v>
       </c>
-      <c r="F113" s="46"/>
-      <c r="G113" s="42">
+      <c r="F113" s="50"/>
+      <c r="G113" s="51">
         <v>52.2</v>
       </c>
-      <c r="H113" s="43"/>
+      <c r="H113" s="52"/>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" s="18">
@@ -10491,14 +10491,14 @@
       <c r="D114" s="19">
         <v>0.26800000000000002</v>
       </c>
-      <c r="E114" s="46">
+      <c r="E114" s="50">
         <v>23515</v>
       </c>
-      <c r="F114" s="46"/>
-      <c r="G114" s="42">
+      <c r="F114" s="50"/>
+      <c r="G114" s="51">
         <v>10</v>
       </c>
-      <c r="H114" s="43"/>
+      <c r="H114" s="52"/>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" s="18">
@@ -10507,14 +10507,14 @@
       <c r="D115" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E115" s="46">
+      <c r="E115" s="50">
         <v>49503</v>
       </c>
-      <c r="F115" s="46"/>
-      <c r="G115" s="42">
+      <c r="F115" s="50"/>
+      <c r="G115" s="51">
         <v>20.2</v>
       </c>
-      <c r="H115" s="43"/>
+      <c r="H115" s="52"/>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C116" s="18">
@@ -10523,14 +10523,14 @@
       <c r="D116" s="19">
         <v>0.307</v>
       </c>
-      <c r="E116" s="46">
+      <c r="E116" s="50">
         <v>188420</v>
       </c>
-      <c r="F116" s="46"/>
-      <c r="G116" s="42">
+      <c r="F116" s="50"/>
+      <c r="G116" s="51">
         <v>70</v>
       </c>
-      <c r="H116" s="43"/>
+      <c r="H116" s="52"/>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C117" s="18">
@@ -10539,14 +10539,14 @@
       <c r="D117" s="19">
         <v>0.28899999999999998</v>
       </c>
-      <c r="E117" s="46">
+      <c r="E117" s="50">
         <v>26573</v>
       </c>
-      <c r="F117" s="46"/>
-      <c r="G117" s="42">
+      <c r="F117" s="50"/>
+      <c r="G117" s="51">
         <v>10.5</v>
       </c>
-      <c r="H117" s="43"/>
+      <c r="H117" s="52"/>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C118" s="18">
@@ -10555,14 +10555,14 @@
       <c r="D118" s="19">
         <v>0.28799999999999998</v>
       </c>
-      <c r="E118" s="46">
+      <c r="E118" s="50">
         <v>25253</v>
       </c>
-      <c r="F118" s="46"/>
-      <c r="G118" s="42">
+      <c r="F118" s="50"/>
+      <c r="G118" s="51">
         <v>10</v>
       </c>
-      <c r="H118" s="43"/>
+      <c r="H118" s="52"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C119" s="18">
@@ -10571,14 +10571,14 @@
       <c r="D119" s="19">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E119" s="46">
+      <c r="E119" s="50">
         <v>17610</v>
       </c>
-      <c r="F119" s="46"/>
-      <c r="G119" s="42">
+      <c r="F119" s="50"/>
+      <c r="G119" s="51">
         <v>10</v>
       </c>
-      <c r="H119" s="43"/>
+      <c r="H119" s="52"/>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C120" s="18">
@@ -10587,14 +10587,14 @@
       <c r="D120" s="19">
         <v>0.221</v>
       </c>
-      <c r="E120" s="46">
+      <c r="E120" s="50">
         <v>19372</v>
       </c>
-      <c r="F120" s="46"/>
-      <c r="G120" s="42">
+      <c r="F120" s="50"/>
+      <c r="G120" s="51">
         <v>10</v>
       </c>
-      <c r="H120" s="43"/>
+      <c r="H120" s="52"/>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C121" s="18">
@@ -10603,14 +10603,14 @@
       <c r="D121" s="19">
         <v>0.216</v>
       </c>
-      <c r="E121" s="46">
+      <c r="E121" s="50">
         <v>18939</v>
       </c>
-      <c r="F121" s="46"/>
-      <c r="G121" s="42">
+      <c r="F121" s="50"/>
+      <c r="G121" s="51">
         <v>10</v>
       </c>
-      <c r="H121" s="43"/>
+      <c r="H121" s="52"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C122" s="18">
@@ -10619,14 +10619,14 @@
       <c r="D122" s="19">
         <v>0.23</v>
       </c>
-      <c r="E122" s="46">
+      <c r="E122" s="50">
         <v>20382</v>
       </c>
-      <c r="F122" s="46"/>
-      <c r="G122" s="42">
+      <c r="F122" s="50"/>
+      <c r="G122" s="51">
         <v>10.1</v>
       </c>
-      <c r="H122" s="43"/>
+      <c r="H122" s="52"/>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C123" s="18">
@@ -10635,14 +10635,14 @@
       <c r="D123" s="19">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E123" s="46">
+      <c r="E123" s="50">
         <v>19968</v>
       </c>
-      <c r="F123" s="46"/>
-      <c r="G123" s="42">
+      <c r="F123" s="50"/>
+      <c r="G123" s="51">
         <v>10.1</v>
       </c>
-      <c r="H123" s="43"/>
+      <c r="H123" s="52"/>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C124" s="18">
@@ -10651,14 +10651,14 @@
       <c r="D124" s="19">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E124" s="46">
+      <c r="E124" s="50">
         <v>23240</v>
       </c>
-      <c r="F124" s="46"/>
-      <c r="G124" s="42">
+      <c r="F124" s="50"/>
+      <c r="G124" s="51">
         <v>10</v>
       </c>
-      <c r="H124" s="43"/>
+      <c r="H124" s="52"/>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C125" s="20">
@@ -10667,59 +10667,29 @@
       <c r="D125" s="21">
         <v>0.254</v>
       </c>
-      <c r="E125" s="47">
+      <c r="E125" s="55">
         <v>26709</v>
       </c>
-      <c r="F125" s="47"/>
-      <c r="G125" s="44">
+      <c r="F125" s="55"/>
+      <c r="G125" s="53">
         <v>12</v>
       </c>
-      <c r="H125" s="45"/>
+      <c r="H125" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:F104"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G123:H123"/>
     <mergeCell ref="G124:H124"/>
@@ -10736,18 +10706,48 @@
     <mergeCell ref="G107:H107"/>
     <mergeCell ref="G108:H108"/>
     <mergeCell ref="G109:H109"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:F104"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfi\Google Drive\School\College\Semester 6 (Spring 2020)\ENV 717\Assignments\Assignment 11 (group project)\ENV717A11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jawessel\opl\ENV717A11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -688,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -779,6 +779,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -791,19 +812,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -815,18 +827,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1111,7 +1113,7 @@
   <dimension ref="A1:AV125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
+      <selection activeCell="M92" sqref="M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1345,10 +1347,10 @@
       <c r="G6" s="6">
         <v>4765</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="10"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
       <c r="N6" s="41" t="s">
         <v>142</v>
       </c>
@@ -1479,7 +1481,7 @@
     </row>
     <row r="12" spans="2:48" x14ac:dyDescent="0.35">
       <c r="F12" s="36"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="25"/>
       <c r="S12" s="33"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
@@ -5741,17 +5743,17 @@
       </c>
     </row>
     <row r="45" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
       <c r="F45" s="2"/>
-      <c r="H45" s="55" t="s">
+      <c r="H45" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
       <c r="O45" s="4"/>
@@ -5988,11 +5990,11 @@
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
       <c r="G53" s="38" t="s">
         <v>137</v>
       </c>
@@ -10253,25 +10255,25 @@
         <v>43</v>
       </c>
       <c r="H97" s="6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J97" s="35">
         <v>43</v>
       </c>
       <c r="K97" s="6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="M97" s="35">
         <v>43</v>
       </c>
       <c r="N97" s="6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P97" s="35">
         <v>43</v>
       </c>
       <c r="Q97" s="6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="S97" s="32">
         <v>43</v>
@@ -10327,27 +10329,27 @@
       </c>
     </row>
     <row r="103" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D103" s="56" t="s">
+      <c r="D103" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E103" s="48" t="s">
+      <c r="E103" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F103" s="48"/>
-      <c r="G103" s="48" t="s">
+      <c r="F103" s="45"/>
+      <c r="G103" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H103" s="49"/>
+      <c r="H103" s="54"/>
       <c r="N103" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D104" s="57"/>
-      <c r="E104" s="50"/>
-      <c r="F104" s="50"/>
-      <c r="G104" s="50"/>
-      <c r="H104" s="51"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="55"/>
     </row>
     <row r="105" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
@@ -10361,14 +10363,14 @@
       <c r="D106" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E106" s="54">
+      <c r="E106" s="47">
         <v>72154</v>
       </c>
-      <c r="F106" s="54"/>
-      <c r="G106" s="52">
+      <c r="F106" s="47"/>
+      <c r="G106" s="56">
         <v>28.1</v>
       </c>
-      <c r="H106" s="53"/>
+      <c r="H106" s="57"/>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C107" s="18">
@@ -10377,14 +10379,14 @@
       <c r="D107" s="19">
         <v>0.31</v>
       </c>
-      <c r="E107" s="46">
+      <c r="E107" s="48">
         <v>67811</v>
       </c>
-      <c r="F107" s="46"/>
-      <c r="G107" s="42">
+      <c r="F107" s="48"/>
+      <c r="G107" s="49">
         <v>25</v>
       </c>
-      <c r="H107" s="43"/>
+      <c r="H107" s="50"/>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C108" s="18">
@@ -10393,14 +10395,14 @@
       <c r="D108" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E108" s="46">
+      <c r="E108" s="48">
         <v>187455</v>
       </c>
-      <c r="F108" s="46"/>
-      <c r="G108" s="42">
+      <c r="F108" s="48"/>
+      <c r="G108" s="49">
         <v>70</v>
       </c>
-      <c r="H108" s="43"/>
+      <c r="H108" s="50"/>
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C109" s="18">
@@ -10409,14 +10411,14 @@
       <c r="D109" s="19">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E109" s="46">
+      <c r="E109" s="48">
         <v>63266</v>
       </c>
-      <c r="F109" s="46"/>
-      <c r="G109" s="42">
+      <c r="F109" s="48"/>
+      <c r="G109" s="49">
         <v>30.6</v>
       </c>
-      <c r="H109" s="43"/>
+      <c r="H109" s="50"/>
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C110" s="18">
@@ -10425,14 +10427,14 @@
       <c r="D110" s="19">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E110" s="46">
+      <c r="E110" s="48">
         <v>26553</v>
       </c>
-      <c r="F110" s="46"/>
-      <c r="G110" s="42">
+      <c r="F110" s="48"/>
+      <c r="G110" s="49">
         <v>10</v>
       </c>
-      <c r="H110" s="43"/>
+      <c r="H110" s="50"/>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C111" s="18">
@@ -10441,14 +10443,14 @@
       <c r="D111" s="19">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E111" s="46">
+      <c r="E111" s="48">
         <v>24949</v>
       </c>
-      <c r="F111" s="46"/>
-      <c r="G111" s="42">
+      <c r="F111" s="48"/>
+      <c r="G111" s="49">
         <v>10</v>
       </c>
-      <c r="H111" s="43"/>
+      <c r="H111" s="50"/>
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C112" s="18">
@@ -10457,14 +10459,14 @@
       <c r="D112" s="19">
         <v>0.26100000000000001</v>
       </c>
-      <c r="E112" s="46">
+      <c r="E112" s="48">
         <v>22870</v>
       </c>
-      <c r="F112" s="46"/>
-      <c r="G112" s="42">
+      <c r="F112" s="48"/>
+      <c r="G112" s="49">
         <v>10</v>
       </c>
-      <c r="H112" s="43"/>
+      <c r="H112" s="50"/>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" s="18">
@@ -10473,14 +10475,14 @@
       <c r="D113" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E113" s="46">
+      <c r="E113" s="48">
         <v>139836</v>
       </c>
-      <c r="F113" s="46"/>
-      <c r="G113" s="42">
+      <c r="F113" s="48"/>
+      <c r="G113" s="49">
         <v>52.2</v>
       </c>
-      <c r="H113" s="43"/>
+      <c r="H113" s="50"/>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" s="18">
@@ -10489,14 +10491,14 @@
       <c r="D114" s="19">
         <v>0.26800000000000002</v>
       </c>
-      <c r="E114" s="46">
+      <c r="E114" s="48">
         <v>23515</v>
       </c>
-      <c r="F114" s="46"/>
-      <c r="G114" s="42">
+      <c r="F114" s="48"/>
+      <c r="G114" s="49">
         <v>10</v>
       </c>
-      <c r="H114" s="43"/>
+      <c r="H114" s="50"/>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" s="18">
@@ -10505,14 +10507,14 @@
       <c r="D115" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E115" s="46">
+      <c r="E115" s="48">
         <v>49503</v>
       </c>
-      <c r="F115" s="46"/>
-      <c r="G115" s="42">
+      <c r="F115" s="48"/>
+      <c r="G115" s="49">
         <v>20.2</v>
       </c>
-      <c r="H115" s="43"/>
+      <c r="H115" s="50"/>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C116" s="18">
@@ -10521,14 +10523,14 @@
       <c r="D116" s="19">
         <v>0.307</v>
       </c>
-      <c r="E116" s="46">
+      <c r="E116" s="48">
         <v>188420</v>
       </c>
-      <c r="F116" s="46"/>
-      <c r="G116" s="42">
+      <c r="F116" s="48"/>
+      <c r="G116" s="49">
         <v>70</v>
       </c>
-      <c r="H116" s="43"/>
+      <c r="H116" s="50"/>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C117" s="18">
@@ -10537,14 +10539,14 @@
       <c r="D117" s="19">
         <v>0.28899999999999998</v>
       </c>
-      <c r="E117" s="46">
+      <c r="E117" s="48">
         <v>26573</v>
       </c>
-      <c r="F117" s="46"/>
-      <c r="G117" s="42">
+      <c r="F117" s="48"/>
+      <c r="G117" s="49">
         <v>10.5</v>
       </c>
-      <c r="H117" s="43"/>
+      <c r="H117" s="50"/>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C118" s="18">
@@ -10553,14 +10555,14 @@
       <c r="D118" s="19">
         <v>0.28799999999999998</v>
       </c>
-      <c r="E118" s="46">
+      <c r="E118" s="48">
         <v>25253</v>
       </c>
-      <c r="F118" s="46"/>
-      <c r="G118" s="42">
+      <c r="F118" s="48"/>
+      <c r="G118" s="49">
         <v>10</v>
       </c>
-      <c r="H118" s="43"/>
+      <c r="H118" s="50"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C119" s="18">
@@ -10569,14 +10571,14 @@
       <c r="D119" s="19">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E119" s="46">
+      <c r="E119" s="48">
         <v>17610</v>
       </c>
-      <c r="F119" s="46"/>
-      <c r="G119" s="42">
+      <c r="F119" s="48"/>
+      <c r="G119" s="49">
         <v>10</v>
       </c>
-      <c r="H119" s="43"/>
+      <c r="H119" s="50"/>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C120" s="18">
@@ -10585,14 +10587,14 @@
       <c r="D120" s="19">
         <v>0.221</v>
       </c>
-      <c r="E120" s="46">
+      <c r="E120" s="48">
         <v>19372</v>
       </c>
-      <c r="F120" s="46"/>
-      <c r="G120" s="42">
+      <c r="F120" s="48"/>
+      <c r="G120" s="49">
         <v>10</v>
       </c>
-      <c r="H120" s="43"/>
+      <c r="H120" s="50"/>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C121" s="18">
@@ -10601,14 +10603,14 @@
       <c r="D121" s="19">
         <v>0.216</v>
       </c>
-      <c r="E121" s="46">
+      <c r="E121" s="48">
         <v>18939</v>
       </c>
-      <c r="F121" s="46"/>
-      <c r="G121" s="42">
+      <c r="F121" s="48"/>
+      <c r="G121" s="49">
         <v>10</v>
       </c>
-      <c r="H121" s="43"/>
+      <c r="H121" s="50"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C122" s="18">
@@ -10617,14 +10619,14 @@
       <c r="D122" s="19">
         <v>0.23</v>
       </c>
-      <c r="E122" s="46">
+      <c r="E122" s="48">
         <v>20382</v>
       </c>
-      <c r="F122" s="46"/>
-      <c r="G122" s="42">
+      <c r="F122" s="48"/>
+      <c r="G122" s="49">
         <v>10.1</v>
       </c>
-      <c r="H122" s="43"/>
+      <c r="H122" s="50"/>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C123" s="18">
@@ -10633,14 +10635,14 @@
       <c r="D123" s="19">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E123" s="46">
+      <c r="E123" s="48">
         <v>19968</v>
       </c>
-      <c r="F123" s="46"/>
-      <c r="G123" s="42">
+      <c r="F123" s="48"/>
+      <c r="G123" s="49">
         <v>10.1</v>
       </c>
-      <c r="H123" s="43"/>
+      <c r="H123" s="50"/>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C124" s="18">
@@ -10649,14 +10651,14 @@
       <c r="D124" s="19">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E124" s="46">
+      <c r="E124" s="48">
         <v>23240</v>
       </c>
-      <c r="F124" s="46"/>
-      <c r="G124" s="42">
+      <c r="F124" s="48"/>
+      <c r="G124" s="49">
         <v>10</v>
       </c>
-      <c r="H124" s="43"/>
+      <c r="H124" s="50"/>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C125" s="20">
@@ -10665,60 +10667,29 @@
       <c r="D125" s="21">
         <v>0.254</v>
       </c>
-      <c r="E125" s="47">
+      <c r="E125" s="53">
         <v>26709</v>
       </c>
-      <c r="F125" s="47"/>
-      <c r="G125" s="44">
+      <c r="F125" s="53"/>
+      <c r="G125" s="51">
         <v>12</v>
       </c>
-      <c r="H125" s="45"/>
+      <c r="H125" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:F104"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
+  <mergeCells count="70">
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G123:H123"/>
     <mergeCell ref="G124:H124"/>
@@ -10735,18 +10706,48 @@
     <mergeCell ref="G107:H107"/>
     <mergeCell ref="G108:H108"/>
     <mergeCell ref="G109:H109"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:F104"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -29,6 +29,10 @@
     <definedName name="FallOffHours">Sheet2!$AV$13</definedName>
     <definedName name="FallPeakHours">Sheet2!$AP$13</definedName>
     <definedName name="FallSolarFactor">Sheet2!$Q$53</definedName>
+    <definedName name="fridge_eff_benefit">Sheet2!$AY$16:$BA$41</definedName>
+    <definedName name="fridge_eff_cost">Sheet2!$BB$13</definedName>
+    <definedName name="led_eff_benefit">Sheet2!$BE$16:$BG$41</definedName>
+    <definedName name="led_eff_cost">Sheet2!$BH$13</definedName>
     <definedName name="LineCapacity">Sheet2!$P$47:$P$49</definedName>
     <definedName name="LineFromBus">Sheet2!$H$47:$J$49</definedName>
     <definedName name="LineReactance">Sheet2!$M$47:$M$49</definedName>
@@ -84,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="148">
   <si>
     <t>NumBuses</t>
   </si>
@@ -519,14 +523,24 @@
   </si>
   <si>
     <t>RampRate (MW/hr)</t>
+  </si>
+  <si>
+    <t>Refrigerator Energy Efficiency Benefits (MW)</t>
+  </si>
+  <si>
+    <t>LED Lights Energy Efficiency Benefits (MW)</t>
+  </si>
+  <si>
+    <t>Annual Cost ($):</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
@@ -684,11 +698,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -776,6 +791,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,12 +825,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -827,10 +840,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1110,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV125"/>
+  <dimension ref="A1:BL125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M92" sqref="M92"/>
+    <sheetView tabSelected="1" topLeftCell="AJ4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AV10" sqref="AV10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1135,79 +1153,84 @@
     <col min="23" max="24" width="16.26953125" customWidth="1"/>
     <col min="25" max="25" width="16.1796875" customWidth="1"/>
     <col min="26" max="29" width="16.26953125" customWidth="1"/>
+    <col min="54" max="54" width="15" customWidth="1"/>
+    <col min="55" max="56" width="8.7265625" customWidth="1"/>
+    <col min="60" max="60" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="41"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="14">
         <v>0.1</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
       <c r="L1" s="15">
         <v>7256200.8565999996</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
       <c r="Q1" s="24">
         <v>2221460.4</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
       <c r="V1" s="24">
         <v>8809340386.1000004</v>
       </c>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
     </row>
-    <row r="2" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="6"/>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
       <c r="L2" s="23">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
       <c r="Q2" s="24">
         <v>19867.2</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
       <c r="V2" s="27">
         <v>348494.96600000001</v>
       </c>
@@ -1215,7 +1238,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1225,35 +1248,39 @@
       <c r="F3" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="N3" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
       <c r="Q3" s="24">
         <v>1596613.3</v>
       </c>
-      <c r="S3" s="41" t="s">
+      <c r="S3" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
       <c r="V3" s="28">
         <v>2066077.2990000001</v>
       </c>
       <c r="W3" t="s">
         <v>102</v>
       </c>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
     </row>
-    <row r="4" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1267,27 +1294,27 @@
       <c r="G4" s="6">
         <v>4198</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
       <c r="L4" s="15">
         <v>1</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
       <c r="Q4" s="24">
         <v>43560</v>
       </c>
-      <c r="S4" s="41" t="s">
+      <c r="S4" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
       <c r="V4" s="27">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
@@ -1296,7 +1323,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
       <c r="F5" s="36" t="s">
         <v>111</v>
@@ -1304,27 +1331,27 @@
       <c r="G5" s="6">
         <v>3726</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="15">
         <v>1</v>
       </c>
-      <c r="N5" s="41" t="s">
+      <c r="N5" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
       <c r="Q5" s="24">
         <v>601000</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="S5" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
       <c r="V5" s="27">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
@@ -1333,7 +1360,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>105</v>
       </c>
@@ -1347,23 +1374,23 @@
       <c r="G6" s="6">
         <v>4765</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="59"/>
-      <c r="N6" s="41" t="s">
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="42"/>
+      <c r="N6" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
       <c r="Q6" s="24">
         <v>15025</v>
       </c>
-      <c r="S6" s="41" t="s">
+      <c r="S6" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
       <c r="V6" s="27">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
@@ -1372,7 +1399,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>106</v>
       </c>
@@ -1386,19 +1413,19 @@
       <c r="G7" s="6">
         <v>4050</v>
       </c>
-      <c r="N7" s="41" t="s">
+      <c r="N7" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
       <c r="Q7" s="26">
         <v>0.95</v>
       </c>
-      <c r="S7" s="41" t="s">
+      <c r="S7" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
       <c r="V7" s="27">
         <f>V4*V6</f>
         <v>29903074042.27026</v>
@@ -1407,26 +1434,26 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:64" x14ac:dyDescent="0.35">
       <c r="F8" s="36" t="s">
         <v>114</v>
       </c>
       <c r="G8" s="6">
         <v>5974</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
       <c r="Q8" s="26">
         <v>50</v>
       </c>
-      <c r="S8" s="41" t="s">
+      <c r="S8" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
       <c r="V8" s="27">
         <f>V5*V6</f>
         <v>5911072775.7976093</v>
@@ -1434,19 +1461,20 @@
       <c r="W8" t="s">
         <v>96</v>
       </c>
+      <c r="AA8" s="44"/>
     </row>
-    <row r="9" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:64" x14ac:dyDescent="0.35">
       <c r="F9" s="36" t="s">
         <v>115</v>
       </c>
       <c r="G9" s="6">
         <v>5009</v>
       </c>
-      <c r="N9" s="41" t="s">
+      <c r="N9" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
       <c r="Q9" s="26">
         <v>10</v>
       </c>
@@ -1455,7 +1483,7 @@
       <c r="U9" s="33"/>
       <c r="V9" s="25"/>
     </row>
-    <row r="10" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:64" x14ac:dyDescent="0.35">
       <c r="F10" s="36" t="s">
         <v>116</v>
       </c>
@@ -1467,7 +1495,7 @@
       <c r="U10" s="33"/>
       <c r="V10" s="25"/>
     </row>
-    <row r="11" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:64" x14ac:dyDescent="0.35">
       <c r="F11" s="36" t="s">
         <v>117</v>
       </c>
@@ -1479,7 +1507,7 @@
       <c r="U11" s="33"/>
       <c r="V11" s="25"/>
     </row>
-    <row r="12" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:64" x14ac:dyDescent="0.35">
       <c r="F12" s="36"/>
       <c r="G12" s="25"/>
       <c r="S12" s="33"/>
@@ -1487,7 +1515,7 @@
       <c r="U12" s="33"/>
       <c r="V12" s="25"/>
     </row>
-    <row r="13" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:64" x14ac:dyDescent="0.35">
       <c r="E13" s="36" t="s">
         <v>125</v>
       </c>
@@ -1556,8 +1584,22 @@
         <f>92*8</f>
         <v>736</v>
       </c>
+      <c r="AZ13" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA13" s="45"/>
+      <c r="BB13" s="43">
+        <v>16054000</v>
+      </c>
+      <c r="BF13" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG13" s="45"/>
+      <c r="BH13" s="43">
+        <v>10000000</v>
+      </c>
     </row>
-    <row r="14" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:64" x14ac:dyDescent="0.35">
       <c r="D14" s="33" t="s">
         <v>108</v>
       </c>
@@ -1598,8 +1640,24 @@
       </c>
       <c r="AU14" s="33"/>
       <c r="AV14" s="34"/>
+      <c r="AX14" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="AY14" s="45"/>
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="45"/>
+      <c r="BB14" s="45"/>
+      <c r="BD14" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE14" s="45"/>
+      <c r="BF14" s="45"/>
+      <c r="BG14" s="45"/>
+      <c r="BH14" s="45"/>
+      <c r="BK14" s="41"/>
+      <c r="BL14" s="41"/>
     </row>
-    <row r="15" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
@@ -1720,8 +1778,38 @@
       <c r="AV15" s="34" t="s">
         <v>34</v>
       </c>
+      <c r="AX15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY15">
+        <v>1</v>
+      </c>
+      <c r="AZ15">
+        <v>2</v>
+      </c>
+      <c r="BA15">
+        <v>3</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE15">
+        <v>1</v>
+      </c>
+      <c r="BF15">
+        <v>2</v>
+      </c>
+      <c r="BG15">
+        <v>3</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="16" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>2020</v>
       </c>
@@ -1874,8 +1962,44 @@
         <f>G11</f>
         <v>3780</v>
       </c>
+      <c r="AX16" s="4">
+        <v>2020</v>
+      </c>
+      <c r="AY16" s="27">
+        <f>0.15*BB16</f>
+        <v>1.7458725000000002</v>
+      </c>
+      <c r="AZ16" s="27">
+        <f>0.5*BB16</f>
+        <v>5.8195750000000004</v>
+      </c>
+      <c r="BA16" s="27">
+        <f>0.35*BB16</f>
+        <v>4.0737025000000004</v>
+      </c>
+      <c r="BB16">
+        <v>11.639150000000001</v>
+      </c>
+      <c r="BD16" s="4">
+        <v>2020</v>
+      </c>
+      <c r="BE16" s="27">
+        <f>0.15*BH16</f>
+        <v>10.5</v>
+      </c>
+      <c r="BF16" s="27">
+        <f>0.5*BH16</f>
+        <v>35</v>
+      </c>
+      <c r="BG16" s="27">
+        <f>0.35*BH16</f>
+        <v>24.5</v>
+      </c>
+      <c r="BH16">
+        <v>70</v>
+      </c>
     </row>
-    <row r="17" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <v>2021</v>
       </c>
@@ -2028,8 +2152,44 @@
         <f>AV16*(1+$L$3)</f>
         <v>3814.0199999999995</v>
       </c>
+      <c r="AX17" s="4">
+        <v>2021</v>
+      </c>
+      <c r="AY17" s="27">
+        <f t="shared" ref="AY17:AY41" si="28">0.15*BB17</f>
+        <v>3.4917450000000003</v>
+      </c>
+      <c r="AZ17" s="27">
+        <f t="shared" ref="AZ17:AZ41" si="29">0.5*BB17</f>
+        <v>11.639150000000001</v>
+      </c>
+      <c r="BA17" s="27">
+        <f t="shared" ref="BA17:BA41" si="30">0.35*BB17</f>
+        <v>8.1474050000000009</v>
+      </c>
+      <c r="BB17">
+        <v>23.278300000000002</v>
+      </c>
+      <c r="BD17" s="4">
+        <v>2021</v>
+      </c>
+      <c r="BE17" s="27">
+        <f t="shared" ref="BE17:BE41" si="31">0.15*BH17</f>
+        <v>21</v>
+      </c>
+      <c r="BF17" s="27">
+        <f t="shared" ref="BF17:BF41" si="32">0.5*BH17</f>
+        <v>70</v>
+      </c>
+      <c r="BG17" s="27">
+        <f t="shared" ref="BG17:BG41" si="33">0.35*BH17</f>
+        <v>49</v>
+      </c>
+      <c r="BH17">
+        <v>140</v>
+      </c>
     </row>
-    <row r="18" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>2022</v>
       </c>
@@ -2065,7 +2225,7 @@
         <v>1327.6794320999998</v>
       </c>
       <c r="L18" s="12">
-        <f t="shared" ref="L18:L41" si="28">L17*(1+$L$3)</f>
+        <f t="shared" ref="L18:L41" si="34">L17*(1+$L$3)</f>
         <v>3793.3698059999992</v>
       </c>
       <c r="N18" s="4">
@@ -2103,7 +2263,7 @@
         <v>1443.1298174999995</v>
       </c>
       <c r="X18" s="12">
-        <f t="shared" ref="X18:X41" si="29">X17*(1+$L$3)</f>
+        <f t="shared" ref="X18:X41" si="35">X17*(1+$L$3)</f>
         <v>4123.2280499999988</v>
       </c>
       <c r="Z18" s="4">
@@ -2141,7 +2301,7 @@
         <v>1784.8487051499994</v>
       </c>
       <c r="AJ18" s="12">
-        <f t="shared" ref="AJ18:AJ41" si="30">AJ17*(1+$L$3)</f>
+        <f t="shared" ref="AJ18:AJ41" si="36">AJ17*(1+$L$3)</f>
         <v>5099.5677289999985</v>
       </c>
       <c r="AL18" s="4">
@@ -2179,11 +2339,47 @@
         <v>1346.9211629999995</v>
       </c>
       <c r="AV18" s="12">
-        <f t="shared" ref="AV18:AV41" si="31">AV17*(1+$L$3)</f>
+        <f t="shared" ref="AV18:AV41" si="37">AV17*(1+$L$3)</f>
         <v>3848.3461799999991</v>
       </c>
+      <c r="AX18" s="4">
+        <v>2022</v>
+      </c>
+      <c r="AY18" s="27">
+        <f t="shared" si="28"/>
+        <v>5.2376174999999998</v>
+      </c>
+      <c r="AZ18" s="27">
+        <f t="shared" si="29"/>
+        <v>17.458725000000001</v>
+      </c>
+      <c r="BA18" s="27">
+        <f t="shared" si="30"/>
+        <v>12.2211075</v>
+      </c>
+      <c r="BB18">
+        <v>34.917450000000002</v>
+      </c>
+      <c r="BD18" s="4">
+        <v>2022</v>
+      </c>
+      <c r="BE18" s="27">
+        <f t="shared" si="31"/>
+        <v>31.5</v>
+      </c>
+      <c r="BF18" s="27">
+        <f t="shared" si="32"/>
+        <v>105</v>
+      </c>
+      <c r="BG18" s="27">
+        <f t="shared" si="33"/>
+        <v>73.5</v>
+      </c>
+      <c r="BH18">
+        <v>210</v>
+      </c>
     </row>
-    <row r="19" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <v>2023</v>
       </c>
@@ -2219,7 +2415,7 @@
         <v>1339.6285469888994</v>
       </c>
       <c r="L19" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3827.5101342539988</v>
       </c>
       <c r="N19" s="4">
@@ -2257,7 +2453,7 @@
         <v>1456.1179858574994</v>
       </c>
       <c r="X19" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4160.3371024499984</v>
       </c>
       <c r="Z19" s="4">
@@ -2295,7 +2491,7 @@
         <v>1800.9123434963492</v>
       </c>
       <c r="AJ19" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5145.4638385609978</v>
       </c>
       <c r="AL19" s="4">
@@ -2333,11 +2529,47 @@
         <v>1359.0434534669994</v>
       </c>
       <c r="AV19" s="12">
+        <f t="shared" si="37"/>
+        <v>3882.9812956199985</v>
+      </c>
+      <c r="AX19" s="4">
+        <v>2023</v>
+      </c>
+      <c r="AY19" s="27">
+        <f t="shared" si="28"/>
+        <v>6.9834900000000006</v>
+      </c>
+      <c r="AZ19" s="27">
+        <f t="shared" si="29"/>
+        <v>23.278300000000002</v>
+      </c>
+      <c r="BA19" s="27">
+        <f t="shared" si="30"/>
+        <v>16.294810000000002</v>
+      </c>
+      <c r="BB19">
+        <v>46.556600000000003</v>
+      </c>
+      <c r="BD19" s="4">
+        <v>2023</v>
+      </c>
+      <c r="BE19" s="27">
         <f t="shared" si="31"/>
-        <v>3882.9812956199985</v>
+        <v>42</v>
+      </c>
+      <c r="BF19" s="27">
+        <f t="shared" si="32"/>
+        <v>140</v>
+      </c>
+      <c r="BG19" s="27">
+        <f t="shared" si="33"/>
+        <v>98</v>
+      </c>
+      <c r="BH19">
+        <v>280</v>
       </c>
     </row>
-    <row r="20" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>2024</v>
       </c>
@@ -2373,7 +2605,7 @@
         <v>1351.6852039117996</v>
       </c>
       <c r="L20" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3861.9577254622845</v>
       </c>
       <c r="N20" s="4">
@@ -2411,7 +2643,7 @@
         <v>1469.2230477302169</v>
       </c>
       <c r="X20" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4197.7801363720482</v>
       </c>
       <c r="Z20" s="4">
@@ -2449,7 +2681,7 @@
         <v>1817.1205545878161</v>
       </c>
       <c r="AJ20" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5191.7730131080461</v>
       </c>
       <c r="AL20" s="4">
@@ -2487,11 +2719,47 @@
         <v>1371.2748445482023</v>
       </c>
       <c r="AV20" s="12">
+        <f t="shared" si="37"/>
+        <v>3917.9281272805779</v>
+      </c>
+      <c r="AX20" s="4">
+        <v>2024</v>
+      </c>
+      <c r="AY20" s="27">
+        <f t="shared" si="28"/>
+        <v>8.7293625000000006</v>
+      </c>
+      <c r="AZ20" s="27">
+        <f t="shared" si="29"/>
+        <v>29.097875000000002</v>
+      </c>
+      <c r="BA20" s="27">
+        <f t="shared" si="30"/>
+        <v>20.368512500000001</v>
+      </c>
+      <c r="BB20">
+        <v>58.195750000000004</v>
+      </c>
+      <c r="BD20" s="4">
+        <v>2024</v>
+      </c>
+      <c r="BE20" s="27">
         <f t="shared" si="31"/>
-        <v>3917.9281272805779</v>
+        <v>52.5</v>
+      </c>
+      <c r="BF20" s="27">
+        <f t="shared" si="32"/>
+        <v>175</v>
+      </c>
+      <c r="BG20" s="27">
+        <f t="shared" si="33"/>
+        <v>122.49999999999999</v>
+      </c>
+      <c r="BH20">
+        <v>350</v>
       </c>
     </row>
-    <row r="21" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <v>2025</v>
       </c>
@@ -2527,7 +2795,7 @@
         <v>1363.8503707470056</v>
       </c>
       <c r="L21" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3896.7153449914449</v>
       </c>
       <c r="N21" s="4">
@@ -2565,7 +2833,7 @@
         <v>1482.4460551597886</v>
       </c>
       <c r="X21" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4235.560157599396</v>
       </c>
       <c r="Z21" s="4">
@@ -2603,7 +2871,7 @@
         <v>1833.4746395791062</v>
       </c>
       <c r="AJ21" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5238.4989702260182</v>
       </c>
       <c r="AL21" s="4">
@@ -2641,11 +2909,47 @@
         <v>1383.6163181491359</v>
       </c>
       <c r="AV21" s="12">
+        <f t="shared" si="37"/>
+        <v>3953.1894804261028</v>
+      </c>
+      <c r="AX21" s="4">
+        <v>2025</v>
+      </c>
+      <c r="AY21" s="27">
+        <f t="shared" si="28"/>
+        <v>10.475235</v>
+      </c>
+      <c r="AZ21" s="27">
+        <f t="shared" si="29"/>
+        <v>34.917450000000002</v>
+      </c>
+      <c r="BA21" s="27">
+        <f t="shared" si="30"/>
+        <v>24.442215000000001</v>
+      </c>
+      <c r="BB21">
+        <v>69.834900000000005</v>
+      </c>
+      <c r="BD21" s="4">
+        <v>2025</v>
+      </c>
+      <c r="BE21" s="27">
         <f t="shared" si="31"/>
-        <v>3953.1894804261028</v>
+        <v>63</v>
+      </c>
+      <c r="BF21" s="27">
+        <f t="shared" si="32"/>
+        <v>210</v>
+      </c>
+      <c r="BG21" s="27">
+        <f t="shared" si="33"/>
+        <v>147</v>
+      </c>
+      <c r="BH21">
+        <v>420</v>
       </c>
     </row>
-    <row r="22" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <v>2026</v>
       </c>
@@ -2681,7 +2985,7 @@
         <v>1376.1250240837285</v>
       </c>
       <c r="L22" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3931.7857830963676</v>
       </c>
       <c r="N22" s="4">
@@ -2719,7 +3023,7 @@
         <v>1495.7880696562265</v>
       </c>
       <c r="X22" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4273.6801990177901</v>
       </c>
       <c r="Z22" s="4">
@@ -2757,7 +3061,7 @@
         <v>1849.975911335318</v>
       </c>
       <c r="AJ22" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5285.6454609580514</v>
       </c>
       <c r="AL22" s="4">
@@ -2795,11 +3099,47 @@
         <v>1396.068865012478</v>
       </c>
       <c r="AV22" s="12">
+        <f t="shared" si="37"/>
+        <v>3988.7681857499374</v>
+      </c>
+      <c r="AX22" s="4">
+        <v>2026</v>
+      </c>
+      <c r="AY22" s="27">
+        <f t="shared" si="28"/>
+        <v>12.2211075</v>
+      </c>
+      <c r="AZ22" s="27">
+        <f t="shared" si="29"/>
+        <v>40.737025000000003</v>
+      </c>
+      <c r="BA22" s="27">
+        <f t="shared" si="30"/>
+        <v>28.5159175</v>
+      </c>
+      <c r="BB22">
+        <v>81.474050000000005</v>
+      </c>
+      <c r="BD22" s="4">
+        <v>2026</v>
+      </c>
+      <c r="BE22" s="27">
         <f t="shared" si="31"/>
-        <v>3988.7681857499374</v>
+        <v>73.5</v>
+      </c>
+      <c r="BF22" s="27">
+        <f t="shared" si="32"/>
+        <v>245</v>
+      </c>
+      <c r="BG22" s="27">
+        <f t="shared" si="33"/>
+        <v>171.5</v>
+      </c>
+      <c r="BH22">
+        <v>490</v>
       </c>
     </row>
-    <row r="23" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <v>2027</v>
       </c>
@@ -2835,7 +3175,7 @@
         <v>1388.510149300482</v>
       </c>
       <c r="L23" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3967.1718551442345</v>
       </c>
       <c r="N23" s="4">
@@ -2873,7 +3213,7 @@
         <v>1509.2501622831326</v>
       </c>
       <c r="X23" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4312.1433208089502</v>
       </c>
       <c r="Z23" s="4">
@@ -2911,7 +3251,7 @@
         <v>1866.6256945373357</v>
       </c>
       <c r="AJ23" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5333.2162701066736</v>
       </c>
       <c r="AL23" s="4">
@@ -2949,11 +3289,47 @@
         <v>1408.6334847975902</v>
       </c>
       <c r="AV23" s="12">
+        <f t="shared" si="37"/>
+        <v>4024.6670994216865</v>
+      </c>
+      <c r="AX23" s="4">
+        <v>2027</v>
+      </c>
+      <c r="AY23" s="27">
+        <f t="shared" si="28"/>
+        <v>13.966980000000001</v>
+      </c>
+      <c r="AZ23" s="27">
+        <f t="shared" si="29"/>
+        <v>46.556600000000003</v>
+      </c>
+      <c r="BA23" s="27">
+        <f t="shared" si="30"/>
+        <v>32.589620000000004</v>
+      </c>
+      <c r="BB23">
+        <v>93.113200000000006</v>
+      </c>
+      <c r="BD23" s="4">
+        <v>2027</v>
+      </c>
+      <c r="BE23" s="27">
         <f t="shared" si="31"/>
-        <v>4024.6670994216865</v>
+        <v>84</v>
+      </c>
+      <c r="BF23" s="27">
+        <f t="shared" si="32"/>
+        <v>280</v>
+      </c>
+      <c r="BG23" s="27">
+        <f t="shared" si="33"/>
+        <v>196</v>
+      </c>
+      <c r="BH23">
+        <v>560</v>
       </c>
     </row>
-    <row r="24" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <v>2028</v>
       </c>
@@ -2989,7 +3365,7 @@
         <v>1401.0067406441863</v>
       </c>
       <c r="L24" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4002.8764018405323</v>
       </c>
       <c r="N24" s="4">
@@ -3027,7 +3403,7 @@
         <v>1522.8334137436805</v>
       </c>
       <c r="X24" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4350.9526106962303</v>
       </c>
       <c r="Z24" s="4">
@@ -3065,7 +3441,7 @@
         <v>1883.4253257881714</v>
       </c>
       <c r="AJ24" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5381.2152165376328</v>
       </c>
       <c r="AL24" s="4">
@@ -3103,11 +3479,47 @@
         <v>1421.3111861607683</v>
       </c>
       <c r="AV24" s="12">
+        <f t="shared" si="37"/>
+        <v>4060.8891033164814</v>
+      </c>
+      <c r="AX24" s="4">
+        <v>2028</v>
+      </c>
+      <c r="AY24" s="27">
+        <f t="shared" si="28"/>
+        <v>15.7128525</v>
+      </c>
+      <c r="AZ24" s="27">
+        <f t="shared" si="29"/>
+        <v>52.376175000000003</v>
+      </c>
+      <c r="BA24" s="27">
+        <f t="shared" si="30"/>
+        <v>36.6633225</v>
+      </c>
+      <c r="BB24">
+        <v>104.75235000000001</v>
+      </c>
+      <c r="BD24" s="4">
+        <v>2028</v>
+      </c>
+      <c r="BE24" s="27">
         <f t="shared" si="31"/>
-        <v>4060.8891033164814</v>
+        <v>94.5</v>
+      </c>
+      <c r="BF24" s="27">
+        <f t="shared" si="32"/>
+        <v>315</v>
+      </c>
+      <c r="BG24" s="27">
+        <f t="shared" si="33"/>
+        <v>220.5</v>
+      </c>
+      <c r="BH24">
+        <v>630</v>
       </c>
     </row>
-    <row r="25" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <v>2029</v>
       </c>
@@ -3143,7 +3555,7 @@
         <v>1413.6158013099837</v>
       </c>
       <c r="L25" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4038.9022894570967</v>
       </c>
       <c r="N25" s="4">
@@ -3181,7 +3593,7 @@
         <v>1536.5389144673734</v>
       </c>
       <c r="X25" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4390.1111841924958</v>
       </c>
       <c r="Z25" s="4">
@@ -3219,7 +3631,7 @@
         <v>1900.3761537202647</v>
       </c>
       <c r="AJ25" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5429.6461534864711</v>
       </c>
       <c r="AL25" s="4">
@@ -3257,11 +3669,47 @@
         <v>1434.1029868362152</v>
       </c>
       <c r="AV25" s="12">
+        <f t="shared" si="37"/>
+        <v>4097.4371052463293</v>
+      </c>
+      <c r="AX25" s="4">
+        <v>2029</v>
+      </c>
+      <c r="AY25" s="27">
+        <f t="shared" si="28"/>
+        <v>17.458725000000001</v>
+      </c>
+      <c r="AZ25" s="27">
+        <f t="shared" si="29"/>
+        <v>58.195750000000004</v>
+      </c>
+      <c r="BA25" s="27">
+        <f t="shared" si="30"/>
+        <v>40.737025000000003</v>
+      </c>
+      <c r="BB25">
+        <v>116.39150000000001</v>
+      </c>
+      <c r="BD25" s="4">
+        <v>2029</v>
+      </c>
+      <c r="BE25" s="27">
         <f t="shared" si="31"/>
-        <v>4097.4371052463293</v>
+        <v>105</v>
+      </c>
+      <c r="BF25" s="27">
+        <f t="shared" si="32"/>
+        <v>350</v>
+      </c>
+      <c r="BG25" s="27">
+        <f t="shared" si="33"/>
+        <v>244.99999999999997</v>
+      </c>
+      <c r="BH25">
+        <v>700</v>
       </c>
     </row>
-    <row r="26" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <v>2030</v>
       </c>
@@ -3297,7 +3745,7 @@
         <v>1426.3383435217734</v>
       </c>
       <c r="L26" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4075.2524100622099</v>
       </c>
       <c r="N26" s="4">
@@ -3335,7 +3783,7 @@
         <v>1550.3677646975798</v>
       </c>
       <c r="X26" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4429.6221848502282</v>
       </c>
       <c r="Z26" s="4">
@@ -3373,7 +3821,7 @@
         <v>1917.4795391037469</v>
       </c>
       <c r="AJ26" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5478.5129688678489</v>
       </c>
       <c r="AL26" s="4">
@@ -3411,11 +3859,47 @@
         <v>1447.009913717741</v>
       </c>
       <c r="AV26" s="12">
+        <f t="shared" si="37"/>
+        <v>4134.3140391935458</v>
+      </c>
+      <c r="AX26" s="4">
+        <v>2030</v>
+      </c>
+      <c r="AY26" s="27">
+        <f t="shared" si="28"/>
+        <v>19.204597500000002</v>
+      </c>
+      <c r="AZ26" s="27">
+        <f t="shared" si="29"/>
+        <v>64.015325000000004</v>
+      </c>
+      <c r="BA26" s="27">
+        <f t="shared" si="30"/>
+        <v>44.810727499999999</v>
+      </c>
+      <c r="BB26">
+        <v>128.03065000000001</v>
+      </c>
+      <c r="BD26" s="4">
+        <v>2030</v>
+      </c>
+      <c r="BE26" s="27">
         <f t="shared" si="31"/>
-        <v>4134.3140391935458</v>
+        <v>115.5</v>
+      </c>
+      <c r="BF26" s="27">
+        <f t="shared" si="32"/>
+        <v>385</v>
+      </c>
+      <c r="BG26" s="27">
+        <f t="shared" si="33"/>
+        <v>269.5</v>
+      </c>
+      <c r="BH26">
+        <v>770</v>
       </c>
     </row>
-    <row r="27" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <v>2031</v>
       </c>
@@ -3451,7 +3935,7 @@
         <v>1439.1753886134691</v>
       </c>
       <c r="L27" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4111.9296817527693</v>
       </c>
       <c r="N27" s="4">
@@ -3489,7 +3973,7 @@
         <v>1564.3210745798579</v>
       </c>
       <c r="X27" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4469.4887845138801</v>
       </c>
       <c r="Z27" s="4">
@@ -3527,7 +4011,7 @@
         <v>1934.7368549556807</v>
       </c>
       <c r="AJ27" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5527.8195855876593</v>
       </c>
       <c r="AL27" s="4">
@@ -3565,11 +4049,47 @@
         <v>1460.0330029412003</v>
       </c>
       <c r="AV27" s="12">
+        <f t="shared" si="37"/>
+        <v>4171.522865546287</v>
+      </c>
+      <c r="AX27" s="4">
+        <v>2031</v>
+      </c>
+      <c r="AY27" s="27">
+        <f t="shared" si="28"/>
+        <v>20.950469999999999</v>
+      </c>
+      <c r="AZ27" s="27">
+        <f t="shared" si="29"/>
+        <v>69.834900000000005</v>
+      </c>
+      <c r="BA27" s="27">
+        <f t="shared" si="30"/>
+        <v>48.884430000000002</v>
+      </c>
+      <c r="BB27">
+        <v>139.66980000000001</v>
+      </c>
+      <c r="BD27" s="4">
+        <v>2031</v>
+      </c>
+      <c r="BE27" s="27">
         <f t="shared" si="31"/>
-        <v>4171.522865546287</v>
+        <v>126</v>
+      </c>
+      <c r="BF27" s="27">
+        <f t="shared" si="32"/>
+        <v>420</v>
+      </c>
+      <c r="BG27" s="27">
+        <f t="shared" si="33"/>
+        <v>294</v>
+      </c>
+      <c r="BH27">
+        <v>840</v>
       </c>
     </row>
-    <row r="28" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <v>2032</v>
       </c>
@@ -3605,7 +4125,7 @@
         <v>1452.1279671109901</v>
       </c>
       <c r="L28" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4148.9370488885434</v>
       </c>
       <c r="N28" s="4">
@@ -3643,7 +4163,7 @@
         <v>1578.3999642510764</v>
       </c>
       <c r="X28" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4509.7141835745042</v>
       </c>
       <c r="Z28" s="4">
@@ -3681,7 +4201,7 @@
         <v>1952.1494866502815</v>
       </c>
       <c r="AJ28" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5577.5699618579474</v>
       </c>
       <c r="AL28" s="4">
@@ -3719,11 +4239,47 @@
         <v>1473.173299967671</v>
       </c>
       <c r="AV28" s="12">
+        <f t="shared" si="37"/>
+        <v>4209.0665713362032</v>
+      </c>
+      <c r="AX28" s="4">
+        <v>2032</v>
+      </c>
+      <c r="AY28" s="27">
+        <f t="shared" si="28"/>
+        <v>22.6963425</v>
+      </c>
+      <c r="AZ28" s="27">
+        <f t="shared" si="29"/>
+        <v>75.654475000000005</v>
+      </c>
+      <c r="BA28" s="27">
+        <f t="shared" si="30"/>
+        <v>52.958132499999998</v>
+      </c>
+      <c r="BB28">
+        <v>151.30895000000001</v>
+      </c>
+      <c r="BD28" s="4">
+        <v>2032</v>
+      </c>
+      <c r="BE28" s="27">
         <f t="shared" si="31"/>
-        <v>4209.0665713362032</v>
+        <v>136.5</v>
+      </c>
+      <c r="BF28" s="27">
+        <f t="shared" si="32"/>
+        <v>455</v>
+      </c>
+      <c r="BG28" s="27">
+        <f t="shared" si="33"/>
+        <v>318.5</v>
+      </c>
+      <c r="BH28">
+        <v>910</v>
       </c>
     </row>
-    <row r="29" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B29" s="4">
         <v>2033</v>
       </c>
@@ -3759,7 +4315,7 @@
         <v>1465.1971188149889</v>
       </c>
       <c r="L29" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4186.2774823285399</v>
       </c>
       <c r="N29" s="4">
@@ -3797,7 +4353,7 @@
         <v>1592.6055639293359</v>
       </c>
       <c r="X29" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4550.3016112266741</v>
       </c>
       <c r="Z29" s="4">
@@ -3835,7 +4391,7 @@
         <v>1969.7188320301339</v>
       </c>
       <c r="AJ29" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5627.7680915146684</v>
       </c>
       <c r="AL29" s="4">
@@ -3873,11 +4429,47 @@
         <v>1486.4318596673797</v>
       </c>
       <c r="AV29" s="12">
+        <f t="shared" si="37"/>
+        <v>4246.9481704782283</v>
+      </c>
+      <c r="AX29" s="4">
+        <v>2033</v>
+      </c>
+      <c r="AY29" s="27">
+        <f t="shared" si="28"/>
+        <v>24.442215000000001</v>
+      </c>
+      <c r="AZ29" s="27">
+        <f t="shared" si="29"/>
+        <v>81.474050000000005</v>
+      </c>
+      <c r="BA29" s="27">
+        <f t="shared" si="30"/>
+        <v>57.031835000000001</v>
+      </c>
+      <c r="BB29">
+        <v>162.94810000000001</v>
+      </c>
+      <c r="BD29" s="4">
+        <v>2033</v>
+      </c>
+      <c r="BE29" s="27">
         <f t="shared" si="31"/>
-        <v>4246.9481704782283</v>
+        <v>147</v>
+      </c>
+      <c r="BF29" s="27">
+        <f t="shared" si="32"/>
+        <v>490</v>
+      </c>
+      <c r="BG29" s="27">
+        <f t="shared" si="33"/>
+        <v>343</v>
+      </c>
+      <c r="BH29">
+        <v>980</v>
       </c>
     </row>
-    <row r="30" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B30" s="4">
         <v>2034</v>
       </c>
@@ -3913,7 +4505,7 @@
         <v>1478.3838928843236</v>
       </c>
       <c r="L30" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4223.9539796694962</v>
       </c>
       <c r="N30" s="4">
@@ -3951,7 +4543,7 @@
         <v>1606.9390140046999</v>
       </c>
       <c r="X30" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4591.2543257277139</v>
       </c>
       <c r="Z30" s="4">
@@ -3989,7 +4581,7 @@
         <v>1987.4463015184047</v>
       </c>
       <c r="AJ30" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5678.4180043382994</v>
       </c>
       <c r="AL30" s="4">
@@ -4027,11 +4619,47 @@
         <v>1499.809746404386</v>
       </c>
       <c r="AV30" s="12">
+        <f t="shared" si="37"/>
+        <v>4285.170704012532</v>
+      </c>
+      <c r="AX30" s="4">
+        <v>2034</v>
+      </c>
+      <c r="AY30" s="27">
+        <f t="shared" si="28"/>
+        <v>26.188087500000002</v>
+      </c>
+      <c r="AZ30" s="27">
+        <f t="shared" si="29"/>
+        <v>87.293625000000006</v>
+      </c>
+      <c r="BA30" s="27">
+        <f t="shared" si="30"/>
+        <v>61.105537499999997</v>
+      </c>
+      <c r="BB30">
+        <v>174.58725000000001</v>
+      </c>
+      <c r="BD30" s="4">
+        <v>2034</v>
+      </c>
+      <c r="BE30" s="27">
         <f t="shared" si="31"/>
-        <v>4285.170704012532</v>
+        <v>157.5</v>
+      </c>
+      <c r="BF30" s="27">
+        <f t="shared" si="32"/>
+        <v>525</v>
+      </c>
+      <c r="BG30" s="27">
+        <f t="shared" si="33"/>
+        <v>367.5</v>
+      </c>
+      <c r="BH30">
+        <v>1050</v>
       </c>
     </row>
-    <row r="31" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B31" s="4">
         <v>2035</v>
       </c>
@@ -4067,7 +4695,7 @@
         <v>1491.6893479202822</v>
       </c>
       <c r="L31" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4261.9695654865209</v>
       </c>
       <c r="N31" s="4">
@@ -4105,7 +4733,7 @@
         <v>1621.4014651307421</v>
       </c>
       <c r="X31" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4632.575614659263</v>
       </c>
       <c r="Z31" s="4">
@@ -4143,7 +4771,7 @@
         <v>2005.33331823207</v>
       </c>
       <c r="AJ31" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5729.5237663773432</v>
       </c>
       <c r="AL31" s="4">
@@ -4181,11 +4809,47 @@
         <v>1513.3080341220254</v>
       </c>
       <c r="AV31" s="12">
+        <f t="shared" si="37"/>
+        <v>4323.7372403486443</v>
+      </c>
+      <c r="AX31" s="4">
+        <v>2035</v>
+      </c>
+      <c r="AY31" s="27">
+        <f t="shared" si="28"/>
+        <v>27.933960000000003</v>
+      </c>
+      <c r="AZ31" s="27">
+        <f t="shared" si="29"/>
+        <v>93.113200000000006</v>
+      </c>
+      <c r="BA31" s="27">
+        <f t="shared" si="30"/>
+        <v>65.179240000000007</v>
+      </c>
+      <c r="BB31">
+        <v>186.22640000000001</v>
+      </c>
+      <c r="BD31" s="4">
+        <v>2035</v>
+      </c>
+      <c r="BE31" s="27">
         <f t="shared" si="31"/>
-        <v>4323.7372403486443</v>
+        <v>168</v>
+      </c>
+      <c r="BF31" s="27">
+        <f t="shared" si="32"/>
+        <v>560</v>
+      </c>
+      <c r="BG31" s="27">
+        <f t="shared" si="33"/>
+        <v>392</v>
+      </c>
+      <c r="BH31">
+        <v>1120</v>
       </c>
     </row>
-    <row r="32" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B32" s="4">
         <v>2036</v>
       </c>
@@ -4221,7 +4885,7 @@
         <v>1505.1145520515645</v>
       </c>
       <c r="L32" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4300.3272915758989</v>
       </c>
       <c r="N32" s="4">
@@ -4259,7 +4923,7 @@
         <v>1635.9940783169184</v>
       </c>
       <c r="X32" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4674.2687951911957</v>
       </c>
       <c r="Z32" s="4">
@@ -4297,7 +4961,7 @@
         <v>2023.3813180961586</v>
       </c>
       <c r="AJ32" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5781.0894802747389</v>
       </c>
       <c r="AL32" s="4">
@@ -4335,11 +4999,47 @@
         <v>1526.9278064291236</v>
       </c>
       <c r="AV32" s="12">
+        <f t="shared" si="37"/>
+        <v>4362.650875511782</v>
+      </c>
+      <c r="AX32" s="4">
+        <v>2036</v>
+      </c>
+      <c r="AY32" s="27">
+        <f t="shared" si="28"/>
+        <v>29.6798325</v>
+      </c>
+      <c r="AZ32" s="27">
+        <f t="shared" si="29"/>
+        <v>98.932775000000007</v>
+      </c>
+      <c r="BA32" s="27">
+        <f t="shared" si="30"/>
+        <v>69.252942500000003</v>
+      </c>
+      <c r="BB32">
+        <v>197.86555000000001</v>
+      </c>
+      <c r="BD32" s="4">
+        <v>2036</v>
+      </c>
+      <c r="BE32" s="27">
         <f t="shared" si="31"/>
-        <v>4362.650875511782</v>
+        <v>178.5</v>
+      </c>
+      <c r="BF32" s="27">
+        <f t="shared" si="32"/>
+        <v>595</v>
+      </c>
+      <c r="BG32" s="27">
+        <f t="shared" si="33"/>
+        <v>416.5</v>
+      </c>
+      <c r="BH32">
+        <v>1190</v>
       </c>
     </row>
-    <row r="33" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B33" s="4">
         <v>2037</v>
       </c>
@@ -4375,7 +5075,7 @@
         <v>1518.6605830200285</v>
       </c>
       <c r="L33" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4339.0302372000815</v>
       </c>
       <c r="N33" s="4">
@@ -4413,7 +5113,7 @@
         <v>1650.7180250217707</v>
       </c>
       <c r="X33" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4716.3372143479164</v>
       </c>
       <c r="Z33" s="4">
@@ -4451,7 +5151,7 @@
         <v>2041.5917499590239</v>
       </c>
       <c r="AJ33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5833.1192855972113</v>
       </c>
       <c r="AL33" s="4">
@@ -4489,11 +5189,47 @@
         <v>1540.6701566869856</v>
       </c>
       <c r="AV33" s="12">
+        <f t="shared" si="37"/>
+        <v>4401.9147333913879</v>
+      </c>
+      <c r="AX33" s="4">
+        <v>2037</v>
+      </c>
+      <c r="AY33" s="27">
+        <f t="shared" si="28"/>
+        <v>31.425705000000001</v>
+      </c>
+      <c r="AZ33" s="27">
+        <f t="shared" si="29"/>
+        <v>104.75235000000001</v>
+      </c>
+      <c r="BA33" s="27">
+        <f t="shared" si="30"/>
+        <v>73.326644999999999</v>
+      </c>
+      <c r="BB33">
+        <v>209.50470000000001</v>
+      </c>
+      <c r="BD33" s="4">
+        <v>2037</v>
+      </c>
+      <c r="BE33" s="27">
         <f t="shared" si="31"/>
-        <v>4401.9147333913879</v>
+        <v>189</v>
+      </c>
+      <c r="BF33" s="27">
+        <f t="shared" si="32"/>
+        <v>630</v>
+      </c>
+      <c r="BG33" s="27">
+        <f t="shared" si="33"/>
+        <v>441</v>
+      </c>
+      <c r="BH33">
+        <v>1260</v>
       </c>
     </row>
-    <row r="34" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B34" s="4">
         <v>2038</v>
       </c>
@@ -4529,7 +5265,7 @@
         <v>1532.3285282672086</v>
       </c>
       <c r="L34" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4378.081509334882</v>
       </c>
       <c r="N34" s="4">
@@ -4567,7 +5303,7 @@
         <v>1665.5744872469663</v>
       </c>
       <c r="X34" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4758.7842492770469</v>
       </c>
       <c r="Z34" s="4">
@@ -4605,7 +5341,7 @@
         <v>2059.9660757086549</v>
       </c>
       <c r="AJ34" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5885.6173591675852</v>
       </c>
       <c r="AL34" s="4">
@@ -4643,11 +5379,47 @@
         <v>1554.5361880971682</v>
       </c>
       <c r="AV34" s="12">
+        <f t="shared" si="37"/>
+        <v>4441.5319659919096</v>
+      </c>
+      <c r="AX34" s="4">
+        <v>2038</v>
+      </c>
+      <c r="AY34" s="27">
+        <f t="shared" si="28"/>
+        <v>33.171577499999998</v>
+      </c>
+      <c r="AZ34" s="27">
+        <f t="shared" si="29"/>
+        <v>110.57192500000001</v>
+      </c>
+      <c r="BA34" s="27">
+        <f t="shared" si="30"/>
+        <v>77.400347499999995</v>
+      </c>
+      <c r="BB34">
+        <v>221.14385000000001</v>
+      </c>
+      <c r="BD34" s="4">
+        <v>2038</v>
+      </c>
+      <c r="BE34" s="27">
         <f t="shared" si="31"/>
-        <v>4441.5319659919096</v>
+        <v>199.5</v>
+      </c>
+      <c r="BF34" s="27">
+        <f t="shared" si="32"/>
+        <v>665</v>
+      </c>
+      <c r="BG34" s="27">
+        <f t="shared" si="33"/>
+        <v>465.49999999999994</v>
+      </c>
+      <c r="BH34">
+        <v>1330</v>
       </c>
     </row>
-    <row r="35" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B35" s="4">
         <v>2039</v>
       </c>
@@ -4683,7 +5455,7 @@
         <v>1546.1194850216134</v>
       </c>
       <c r="L35" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4417.4842429188957</v>
       </c>
       <c r="N35" s="4">
@@ -4721,7 +5493,7 @@
         <v>1680.5646576321888</v>
       </c>
       <c r="X35" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4801.6133075205398</v>
       </c>
       <c r="Z35" s="4">
@@ -4759,7 +5531,7 @@
         <v>2078.5057703900325</v>
       </c>
       <c r="AJ35" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5938.5879154000932</v>
       </c>
       <c r="AL35" s="4">
@@ -4797,11 +5569,47 @@
         <v>1568.5270137900427</v>
       </c>
       <c r="AV35" s="12">
+        <f t="shared" si="37"/>
+        <v>4481.5057536858367</v>
+      </c>
+      <c r="AX35" s="4">
+        <v>2039</v>
+      </c>
+      <c r="AY35" s="27">
+        <f t="shared" si="28"/>
+        <v>34.917450000000002</v>
+      </c>
+      <c r="AZ35" s="27">
+        <f t="shared" si="29"/>
+        <v>116.39150000000001</v>
+      </c>
+      <c r="BA35" s="27">
+        <f t="shared" si="30"/>
+        <v>81.474050000000005</v>
+      </c>
+      <c r="BB35">
+        <v>232.78300000000002</v>
+      </c>
+      <c r="BD35" s="4">
+        <v>2039</v>
+      </c>
+      <c r="BE35" s="27">
         <f t="shared" si="31"/>
-        <v>4481.5057536858367</v>
+        <v>210</v>
+      </c>
+      <c r="BF35" s="27">
+        <f t="shared" si="32"/>
+        <v>700</v>
+      </c>
+      <c r="BG35" s="27">
+        <f t="shared" si="33"/>
+        <v>489.99999999999994</v>
+      </c>
+      <c r="BH35">
+        <v>1400</v>
       </c>
     </row>
-    <row r="36" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B36" s="4">
         <v>2040</v>
       </c>
@@ -4837,7 +5645,7 @@
         <v>1560.0345603868079</v>
       </c>
       <c r="L36" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4457.2416011051655</v>
       </c>
       <c r="N36" s="4">
@@ -4875,7 +5683,7 @@
         <v>1695.6897395508784</v>
       </c>
       <c r="X36" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4844.8278272882244</v>
       </c>
       <c r="Z36" s="4">
@@ -4913,7 +5721,7 @@
         <v>2097.2123223235426</v>
       </c>
       <c r="AJ36" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5992.0352066386931</v>
       </c>
       <c r="AL36" s="4">
@@ -4951,11 +5759,47 @@
         <v>1582.6437569141528</v>
       </c>
       <c r="AV36" s="12">
+        <f t="shared" si="37"/>
+        <v>4521.8393054690087</v>
+      </c>
+      <c r="AX36" s="4">
+        <v>2040</v>
+      </c>
+      <c r="AY36" s="27">
+        <f t="shared" si="28"/>
+        <v>36.6633225</v>
+      </c>
+      <c r="AZ36" s="27">
+        <f t="shared" si="29"/>
+        <v>122.21107500000001</v>
+      </c>
+      <c r="BA36" s="27">
+        <f t="shared" si="30"/>
+        <v>85.547752500000001</v>
+      </c>
+      <c r="BB36">
+        <v>244.42215000000002</v>
+      </c>
+      <c r="BD36" s="4">
+        <v>2040</v>
+      </c>
+      <c r="BE36" s="27">
         <f t="shared" si="31"/>
-        <v>4521.8393054690087</v>
+        <v>220.5</v>
+      </c>
+      <c r="BF36" s="27">
+        <f t="shared" si="32"/>
+        <v>735</v>
+      </c>
+      <c r="BG36" s="27">
+        <f t="shared" si="33"/>
+        <v>514.5</v>
+      </c>
+      <c r="BH36">
+        <v>1470</v>
       </c>
     </row>
-    <row r="37" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B37" s="4">
         <v>2041</v>
       </c>
@@ -4991,7 +5835,7 @@
         <v>1574.074871430289</v>
       </c>
       <c r="L37" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4497.3567755151116</v>
       </c>
       <c r="N37" s="4">
@@ -5029,7 +5873,7 @@
         <v>1710.9509472068362</v>
       </c>
       <c r="X37" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4888.4312777338182</v>
       </c>
       <c r="Z37" s="4">
@@ -5067,7 +5911,7 @@
         <v>2116.0872332244539</v>
       </c>
       <c r="AJ37" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>6045.9635234984407</v>
       </c>
       <c r="AL37" s="4">
@@ -5105,11 +5949,47 @@
         <v>1596.8875507263801</v>
       </c>
       <c r="AV37" s="12">
+        <f t="shared" si="37"/>
+        <v>4562.5358592182292</v>
+      </c>
+      <c r="AX37" s="4">
+        <v>2041</v>
+      </c>
+      <c r="AY37" s="27">
+        <f t="shared" si="28"/>
+        <v>38.409195000000004</v>
+      </c>
+      <c r="AZ37" s="27">
+        <f t="shared" si="29"/>
+        <v>128.03065000000001</v>
+      </c>
+      <c r="BA37" s="27">
+        <f t="shared" si="30"/>
+        <v>89.621454999999997</v>
+      </c>
+      <c r="BB37">
+        <v>256.06130000000002</v>
+      </c>
+      <c r="BD37" s="4">
+        <v>2041</v>
+      </c>
+      <c r="BE37" s="27">
         <f t="shared" si="31"/>
-        <v>4562.5358592182292</v>
+        <v>231</v>
+      </c>
+      <c r="BF37" s="27">
+        <f t="shared" si="32"/>
+        <v>770</v>
+      </c>
+      <c r="BG37" s="27">
+        <f t="shared" si="33"/>
+        <v>539</v>
+      </c>
+      <c r="BH37">
+        <v>1540</v>
       </c>
     </row>
-    <row r="38" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B38" s="4">
         <v>2042</v>
       </c>
@@ -5145,7 +6025,7 @@
         <v>1588.2415452731614</v>
       </c>
       <c r="L38" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4537.8329864947473</v>
       </c>
       <c r="N38" s="4">
@@ -5183,7 +6063,7 @@
         <v>1726.3495057316975</v>
       </c>
       <c r="X38" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4932.4271592334217</v>
       </c>
       <c r="Z38" s="4">
@@ -5221,7 +6101,7 @@
         <v>2135.1320183234739</v>
       </c>
       <c r="AJ38" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>6100.377195209926</v>
       </c>
       <c r="AL38" s="4">
@@ -5259,11 +6139,47 @@
         <v>1611.2595386829173</v>
       </c>
       <c r="AV38" s="12">
+        <f t="shared" si="37"/>
+        <v>4603.5986819511927</v>
+      </c>
+      <c r="AX38" s="4">
+        <v>2042</v>
+      </c>
+      <c r="AY38" s="27">
+        <f t="shared" si="28"/>
+        <v>40.155067500000008</v>
+      </c>
+      <c r="AZ38" s="27">
+        <f t="shared" si="29"/>
+        <v>133.85022500000002</v>
+      </c>
+      <c r="BA38" s="27">
+        <f t="shared" si="30"/>
+        <v>93.695157500000008</v>
+      </c>
+      <c r="BB38">
+        <v>267.70045000000005</v>
+      </c>
+      <c r="BD38" s="4">
+        <v>2042</v>
+      </c>
+      <c r="BE38" s="27">
         <f t="shared" si="31"/>
-        <v>4603.5986819511927</v>
+        <v>241.5</v>
+      </c>
+      <c r="BF38" s="27">
+        <f t="shared" si="32"/>
+        <v>805</v>
+      </c>
+      <c r="BG38" s="27">
+        <f t="shared" si="33"/>
+        <v>563.5</v>
+      </c>
+      <c r="BH38">
+        <v>1610</v>
       </c>
     </row>
-    <row r="39" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B39" s="4">
         <v>2043</v>
       </c>
@@ -5299,7 +6215,7 @@
         <v>1602.5357191806199</v>
       </c>
       <c r="L39" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4578.6734833731998</v>
       </c>
       <c r="N39" s="4">
@@ -5337,7 +6253,7 @@
         <v>1741.8866512832826</v>
       </c>
       <c r="X39" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4976.8190036665219</v>
       </c>
       <c r="Z39" s="4">
@@ -5375,7 +6291,7 @@
         <v>2154.3482064883851</v>
       </c>
       <c r="AJ39" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>6155.2805899668147</v>
       </c>
       <c r="AL39" s="4">
@@ -5413,11 +6329,47 @@
         <v>1625.7608745310636</v>
       </c>
       <c r="AV39" s="12">
+        <f t="shared" si="37"/>
+        <v>4645.031070088753</v>
+      </c>
+      <c r="AX39" s="4">
+        <v>2043</v>
+      </c>
+      <c r="AY39" s="27">
+        <f t="shared" si="28"/>
+        <v>41.900939999999999</v>
+      </c>
+      <c r="AZ39" s="27">
+        <f t="shared" si="29"/>
+        <v>139.66980000000001</v>
+      </c>
+      <c r="BA39" s="27">
+        <f t="shared" si="30"/>
+        <v>97.768860000000004</v>
+      </c>
+      <c r="BB39">
+        <v>279.33960000000002</v>
+      </c>
+      <c r="BD39" s="4">
+        <v>2043</v>
+      </c>
+      <c r="BE39" s="27">
         <f t="shared" si="31"/>
-        <v>4645.031070088753</v>
+        <v>252</v>
+      </c>
+      <c r="BF39" s="27">
+        <f t="shared" si="32"/>
+        <v>840</v>
+      </c>
+      <c r="BG39" s="27">
+        <f t="shared" si="33"/>
+        <v>588</v>
+      </c>
+      <c r="BH39">
+        <v>1680</v>
       </c>
     </row>
-    <row r="40" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B40" s="4">
         <v>2044</v>
       </c>
@@ -5453,7 +6405,7 @@
         <v>1616.9585406532453</v>
       </c>
       <c r="L40" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4619.8815447235584</v>
       </c>
       <c r="N40" s="4">
@@ -5491,7 +6443,7 @@
         <v>1757.563631144832</v>
       </c>
       <c r="X40" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>5021.6103746995204</v>
       </c>
       <c r="Z40" s="4">
@@ -5529,7 +6481,7 @@
         <v>2173.73734034678</v>
       </c>
       <c r="AJ40" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>6210.6781152765152</v>
       </c>
       <c r="AL40" s="4">
@@ -5567,11 +6519,47 @@
         <v>1640.392722401843</v>
       </c>
       <c r="AV40" s="12">
+        <f t="shared" si="37"/>
+        <v>4686.8363497195514</v>
+      </c>
+      <c r="AX40" s="4">
+        <v>2044</v>
+      </c>
+      <c r="AY40" s="27">
+        <f t="shared" si="28"/>
+        <v>43.646812499999996</v>
+      </c>
+      <c r="AZ40" s="27">
+        <f t="shared" si="29"/>
+        <v>145.489375</v>
+      </c>
+      <c r="BA40" s="27">
+        <f t="shared" si="30"/>
+        <v>101.84256249999999</v>
+      </c>
+      <c r="BB40">
+        <v>290.97874999999999</v>
+      </c>
+      <c r="BD40" s="4">
+        <v>2044</v>
+      </c>
+      <c r="BE40" s="27">
         <f t="shared" si="31"/>
-        <v>4686.8363497195514</v>
+        <v>262.5</v>
+      </c>
+      <c r="BF40" s="27">
+        <f t="shared" si="32"/>
+        <v>875</v>
+      </c>
+      <c r="BG40" s="27">
+        <f t="shared" si="33"/>
+        <v>612.5</v>
+      </c>
+      <c r="BH40">
+        <v>1750</v>
       </c>
     </row>
-    <row r="41" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B41" s="4">
         <v>2045</v>
       </c>
@@ -5607,7 +6595,7 @@
         <v>1631.5111675191242</v>
       </c>
       <c r="L41" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4661.4604786260697</v>
       </c>
       <c r="N41" s="4">
@@ -5645,7 +6633,7 @@
         <v>1773.3817038251354</v>
       </c>
       <c r="X41" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>5066.8048680718157</v>
       </c>
       <c r="Z41" s="4">
@@ -5683,7 +6671,7 @@
         <v>2193.3009764099006</v>
       </c>
       <c r="AJ41" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>6266.5742183140028</v>
       </c>
       <c r="AL41" s="4">
@@ -5721,11 +6709,47 @@
         <v>1655.1562569034593</v>
       </c>
       <c r="AV41" s="12">
+        <f t="shared" si="37"/>
+        <v>4729.0178768670266</v>
+      </c>
+      <c r="AX41" s="4">
+        <v>2045</v>
+      </c>
+      <c r="AY41" s="27">
+        <f t="shared" si="28"/>
+        <v>45.392684999999993</v>
+      </c>
+      <c r="AZ41" s="27">
+        <f t="shared" si="29"/>
+        <v>151.30894999999998</v>
+      </c>
+      <c r="BA41" s="27">
+        <f t="shared" si="30"/>
+        <v>105.91626499999998</v>
+      </c>
+      <c r="BB41">
+        <v>302.61789999999996</v>
+      </c>
+      <c r="BD41" s="4">
+        <v>2045</v>
+      </c>
+      <c r="BE41" s="27">
         <f t="shared" si="31"/>
-        <v>4729.0178768670266</v>
+        <v>273</v>
+      </c>
+      <c r="BF41" s="27">
+        <f t="shared" si="32"/>
+        <v>910</v>
+      </c>
+      <c r="BG41" s="27">
+        <f t="shared" si="33"/>
+        <v>637</v>
+      </c>
+      <c r="BH41">
+        <v>1820</v>
       </c>
     </row>
-    <row r="44" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>3</v>
       </c>
@@ -5742,23 +6766,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="C45" s="42" t="s">
+    <row r="45" spans="2:60" x14ac:dyDescent="0.35">
+      <c r="C45" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
       <c r="F45" s="2"/>
-      <c r="H45" s="42" t="s">
+      <c r="H45" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
       <c r="O45" s="4"/>
     </row>
-    <row r="46" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
@@ -5795,7 +6819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B47" s="5" t="s">
         <v>5</v>
       </c>
@@ -5839,7 +6863,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="48" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
         <v>6</v>
       </c>
@@ -5990,11 +7014,11 @@
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
       <c r="G53" s="38" t="s">
         <v>137</v>
       </c>
@@ -6139,7 +7163,7 @@
         <v>1</v>
       </c>
       <c r="Z55" s="8">
-        <f t="shared" ref="Z55:Z97" si="32">AG55*AH55*1000/1000000</f>
+        <f t="shared" ref="Z55:Z97" si="38">AG55*AH55*1000/1000000</f>
         <v>39.666780000000003</v>
       </c>
       <c r="AB55" s="39">
@@ -6158,7 +7182,7 @@
         <v>12963</v>
       </c>
       <c r="AH55" s="6">
-        <f t="shared" ref="AH55:AH74" si="33">IF(EXACT(AF55,$R$47),$S$47,IF(EXACT(AF55,$R$48),$S$48,IF(EXACT(AF55,$R$49),$S$49,0)))</f>
+        <f t="shared" ref="AH55:AH74" si="39">IF(EXACT(AF55,$R$47),$S$47,IF(EXACT(AF55,$R$48),$S$48,IF(EXACT(AF55,$R$49),$S$49,0)))</f>
         <v>3.06</v>
       </c>
       <c r="AJ55" s="32">
@@ -6236,7 +7260,7 @@
         <v>2</v>
       </c>
       <c r="Z56" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>23.617080000000001</v>
       </c>
       <c r="AB56" s="39">
@@ -6255,7 +7279,7 @@
         <v>7718</v>
       </c>
       <c r="AH56" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3.06</v>
       </c>
       <c r="AJ56" s="32">
@@ -6333,7 +7357,7 @@
         <v>3</v>
       </c>
       <c r="Z57" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>28.115279999999998</v>
       </c>
       <c r="AB57" s="39">
@@ -6352,7 +7376,7 @@
         <v>9188</v>
       </c>
       <c r="AH57" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3.06</v>
       </c>
       <c r="AJ57" s="32">
@@ -6430,7 +7454,7 @@
         <v>4</v>
       </c>
       <c r="Z58" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>21.77496</v>
       </c>
       <c r="AB58" s="39">
@@ -6449,7 +7473,7 @@
         <v>7116</v>
       </c>
       <c r="AH58" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3.06</v>
       </c>
       <c r="AJ58" s="32">
@@ -6527,7 +7551,7 @@
         <v>5</v>
       </c>
       <c r="Z59" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>23.94144</v>
       </c>
       <c r="AB59" s="39">
@@ -6546,7 +7570,7 @@
         <v>7824</v>
       </c>
       <c r="AH59" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3.06</v>
       </c>
       <c r="AJ59" s="32">
@@ -6624,7 +7648,7 @@
         <v>6</v>
       </c>
       <c r="Z60" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>38.22552000000001</v>
       </c>
       <c r="AB60" s="39">
@@ -6643,7 +7667,7 @@
         <v>12492</v>
       </c>
       <c r="AH60" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3.06</v>
       </c>
       <c r="AJ60" s="32">
@@ -6721,7 +7745,7 @@
         <v>7</v>
       </c>
       <c r="Z61" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>1.6982999999999999</v>
       </c>
       <c r="AB61" s="39">
@@ -6740,7 +7764,7 @@
         <v>555</v>
       </c>
       <c r="AH61" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3.06</v>
       </c>
       <c r="AJ61" s="32">
@@ -6818,7 +7842,7 @@
         <v>8</v>
       </c>
       <c r="Z62" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>36.677160000000001</v>
       </c>
       <c r="AB62" s="39">
@@ -6837,7 +7861,7 @@
         <v>11986</v>
       </c>
       <c r="AH62" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3.06</v>
       </c>
       <c r="AJ62" s="32">
@@ -6915,7 +7939,7 @@
         <v>9</v>
       </c>
       <c r="Z63" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>23.494679999999999</v>
       </c>
       <c r="AB63" s="39">
@@ -6934,7 +7958,7 @@
         <v>7678</v>
       </c>
       <c r="AH63" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3.06</v>
       </c>
       <c r="AJ63" s="32">
@@ -7012,7 +8036,7 @@
         <v>10</v>
       </c>
       <c r="Z64" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>31.606739999999999</v>
       </c>
       <c r="AB64" s="39">
@@ -7031,7 +8055,7 @@
         <v>10329</v>
       </c>
       <c r="AH64" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3.06</v>
       </c>
       <c r="AJ64" s="32">
@@ -7109,7 +8133,7 @@
         <v>11</v>
       </c>
       <c r="Z65" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>38.996639999999999</v>
       </c>
       <c r="AB65" s="39">
@@ -7128,7 +8152,7 @@
         <v>12744</v>
       </c>
       <c r="AH65" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3.06</v>
       </c>
       <c r="AJ65" s="32">
@@ -7206,7 +8230,7 @@
         <v>12</v>
       </c>
       <c r="Z66" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>35.954999999999998</v>
       </c>
       <c r="AB66" s="39">
@@ -7225,7 +8249,7 @@
         <v>11750</v>
       </c>
       <c r="AH66" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3.06</v>
       </c>
       <c r="AJ66" s="32">
@@ -7303,7 +8327,7 @@
         <v>13</v>
       </c>
       <c r="Z67" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>26.289359999999999</v>
       </c>
       <c r="AB67" s="39">
@@ -7322,7 +8346,7 @@
         <v>12171</v>
       </c>
       <c r="AH67" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>2.16</v>
       </c>
       <c r="AJ67" s="32">
@@ -7400,7 +8424,7 @@
         <v>14</v>
       </c>
       <c r="Z68" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>34.819740000000003</v>
       </c>
       <c r="AB68" s="39">
@@ -7419,7 +8443,7 @@
         <v>11379</v>
       </c>
       <c r="AH68" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3.06</v>
       </c>
       <c r="AJ68" s="32">
@@ -7497,7 +8521,7 @@
         <v>15</v>
       </c>
       <c r="Z69" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>37.647179999999999</v>
       </c>
       <c r="AB69" s="39">
@@ -7516,7 +8540,7 @@
         <v>12303</v>
       </c>
       <c r="AH69" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3.06</v>
       </c>
       <c r="AJ69" s="32">
@@ -7594,7 +8618,7 @@
         <v>16</v>
       </c>
       <c r="Z70" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>25.404119999999999</v>
       </c>
       <c r="AB70" s="39">
@@ -7613,7 +8637,7 @@
         <v>8302</v>
       </c>
       <c r="AH70" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3.06</v>
       </c>
       <c r="AJ70" s="32">
@@ -7691,7 +8715,7 @@
         <v>17</v>
       </c>
       <c r="Z71" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>23.453280000000003</v>
       </c>
       <c r="AB71" s="39">
@@ -7710,7 +8734,7 @@
         <v>10858</v>
       </c>
       <c r="AH71" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>2.16</v>
       </c>
       <c r="AJ71" s="32">
@@ -7788,7 +8812,7 @@
         <v>18</v>
       </c>
       <c r="Z72" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>23.647680000000001</v>
       </c>
       <c r="AB72" s="39">
@@ -7807,7 +8831,7 @@
         <v>10948</v>
       </c>
       <c r="AH72" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>2.16</v>
       </c>
       <c r="AJ72" s="32">
@@ -7885,7 +8909,7 @@
         <v>19</v>
       </c>
       <c r="Z73" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>223.99503999999999</v>
       </c>
       <c r="AB73" s="39">
@@ -7904,7 +8928,7 @@
         <v>17834</v>
       </c>
       <c r="AH73" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>12.56</v>
       </c>
       <c r="AJ73" s="32">
@@ -7982,7 +9006,7 @@
         <v>20</v>
       </c>
       <c r="Z74" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>36.931139999999999</v>
       </c>
       <c r="AB74" s="39">
@@ -8001,7 +9025,7 @@
         <v>12069</v>
       </c>
       <c r="AH74" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3.06</v>
       </c>
       <c r="AJ74" s="32">
@@ -8043,14 +9067,14 @@
         <v>21</v>
       </c>
       <c r="H75" s="6">
-        <f t="shared" ref="H75:H94" si="34">$L$4*$G106*H$53</f>
+        <f t="shared" ref="H75:H94" si="40">$L$4*$G106*H$53</f>
         <v>14.05</v>
       </c>
       <c r="J75" s="35">
         <v>21</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" ref="K75:K94" si="35">$L$4*$G106*K$53</f>
+        <f t="shared" ref="K75:K94" si="41">$L$4*$G106*K$53</f>
         <v>19.669999999999998</v>
       </c>
       <c r="M75" s="35">
@@ -8064,7 +9088,7 @@
         <v>21</v>
       </c>
       <c r="Q75" s="6">
-        <f t="shared" ref="Q75:Q94" si="36">$L$4*$G106*Q$53</f>
+        <f t="shared" ref="Q75:Q94" si="42">$L$4*$G106*Q$53</f>
         <v>19.669999999999998</v>
       </c>
       <c r="S75" s="32">
@@ -8083,7 +9107,7 @@
         <v>21</v>
       </c>
       <c r="Z75" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB75" s="39">
@@ -8144,28 +9168,28 @@
         <v>22</v>
       </c>
       <c r="H76" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>12.5</v>
       </c>
       <c r="J76" s="35">
         <v>22</v>
       </c>
       <c r="K76" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>17.5</v>
       </c>
       <c r="M76" s="35">
         <v>22</v>
       </c>
       <c r="N76" s="6">
-        <f t="shared" ref="N76:N94" si="37">$L$4*$G107</f>
+        <f t="shared" ref="N76:N94" si="43">$L$4*$G107</f>
         <v>25</v>
       </c>
       <c r="P76" s="35">
         <v>22</v>
       </c>
       <c r="Q76" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>17.5</v>
       </c>
       <c r="S76" s="32">
@@ -8184,14 +9208,14 @@
         <v>22</v>
       </c>
       <c r="Z76" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB76" s="39">
         <v>22</v>
       </c>
       <c r="AC76" s="40">
-        <f t="shared" ref="AC76:AC94" si="38">Q76</f>
+        <f t="shared" ref="AC76:AC94" si="44">Q76</f>
         <v>17.5</v>
       </c>
       <c r="AE76" s="32">
@@ -8245,28 +9269,28 @@
         <v>23</v>
       </c>
       <c r="H77" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>35</v>
       </c>
       <c r="J77" s="35">
         <v>23</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>49</v>
       </c>
       <c r="M77" s="35">
         <v>23</v>
       </c>
       <c r="N77" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>70</v>
       </c>
       <c r="P77" s="35">
         <v>23</v>
       </c>
       <c r="Q77" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>49</v>
       </c>
       <c r="S77" s="32">
@@ -8285,14 +9309,14 @@
         <v>23</v>
       </c>
       <c r="Z77" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB77" s="39">
         <v>23</v>
       </c>
       <c r="AC77" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>49</v>
       </c>
       <c r="AE77" s="32">
@@ -8346,28 +9370,28 @@
         <v>24</v>
       </c>
       <c r="H78" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>15.3</v>
       </c>
       <c r="J78" s="35">
         <v>24</v>
       </c>
       <c r="K78" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>21.419999999999998</v>
       </c>
       <c r="M78" s="35">
         <v>24</v>
       </c>
       <c r="N78" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>30.6</v>
       </c>
       <c r="P78" s="35">
         <v>24</v>
       </c>
       <c r="Q78" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>21.419999999999998</v>
       </c>
       <c r="S78" s="32">
@@ -8386,14 +9410,14 @@
         <v>24</v>
       </c>
       <c r="Z78" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB78" s="39">
         <v>24</v>
       </c>
       <c r="AC78" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>21.419999999999998</v>
       </c>
       <c r="AE78" s="32">
@@ -8447,28 +9471,28 @@
         <v>25</v>
       </c>
       <c r="H79" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="J79" s="35">
         <v>25</v>
       </c>
       <c r="K79" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="M79" s="35">
         <v>25</v>
       </c>
       <c r="N79" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="P79" s="35">
         <v>25</v>
       </c>
       <c r="Q79" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>7</v>
       </c>
       <c r="S79" s="32">
@@ -8487,14 +9511,14 @@
         <v>25</v>
       </c>
       <c r="Z79" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB79" s="39">
         <v>25</v>
       </c>
       <c r="AC79" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>7</v>
       </c>
       <c r="AE79" s="32">
@@ -8548,28 +9572,28 @@
         <v>26</v>
       </c>
       <c r="H80" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="J80" s="35">
         <v>26</v>
       </c>
       <c r="K80" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="M80" s="35">
         <v>26</v>
       </c>
       <c r="N80" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="P80" s="35">
         <v>26</v>
       </c>
       <c r="Q80" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>7</v>
       </c>
       <c r="S80" s="32">
@@ -8588,14 +9612,14 @@
         <v>26</v>
       </c>
       <c r="Z80" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB80" s="39">
         <v>26</v>
       </c>
       <c r="AC80" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>7</v>
       </c>
       <c r="AE80" s="32">
@@ -8649,28 +9673,28 @@
         <v>27</v>
       </c>
       <c r="H81" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="J81" s="35">
         <v>27</v>
       </c>
       <c r="K81" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="M81" s="35">
         <v>27</v>
       </c>
       <c r="N81" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="P81" s="35">
         <v>27</v>
       </c>
       <c r="Q81" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>7</v>
       </c>
       <c r="S81" s="32">
@@ -8689,14 +9713,14 @@
         <v>27</v>
       </c>
       <c r="Z81" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB81" s="39">
         <v>27</v>
       </c>
       <c r="AC81" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>7</v>
       </c>
       <c r="AE81" s="32">
@@ -8750,28 +9774,28 @@
         <v>28</v>
       </c>
       <c r="H82" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>26.1</v>
       </c>
       <c r="J82" s="35">
         <v>28</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>36.54</v>
       </c>
       <c r="M82" s="35">
         <v>28</v>
       </c>
       <c r="N82" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>52.2</v>
       </c>
       <c r="P82" s="35">
         <v>28</v>
       </c>
       <c r="Q82" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>36.54</v>
       </c>
       <c r="S82" s="32">
@@ -8790,14 +9814,14 @@
         <v>28</v>
       </c>
       <c r="Z82" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB82" s="39">
         <v>28</v>
       </c>
       <c r="AC82" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>36.54</v>
       </c>
       <c r="AE82" s="32">
@@ -8851,28 +9875,28 @@
         <v>29</v>
       </c>
       <c r="H83" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="J83" s="35">
         <v>29</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="M83" s="35">
         <v>29</v>
       </c>
       <c r="N83" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="P83" s="35">
         <v>29</v>
       </c>
       <c r="Q83" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>7</v>
       </c>
       <c r="S83" s="32">
@@ -8891,14 +9915,14 @@
         <v>29</v>
       </c>
       <c r="Z83" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB83" s="39">
         <v>29</v>
       </c>
       <c r="AC83" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>7</v>
       </c>
       <c r="AE83" s="32">
@@ -8952,28 +9976,28 @@
         <v>30</v>
       </c>
       <c r="H84" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>10.1</v>
       </c>
       <c r="J84" s="35">
         <v>30</v>
       </c>
       <c r="K84" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>14.139999999999999</v>
       </c>
       <c r="M84" s="35">
         <v>30</v>
       </c>
       <c r="N84" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>20.2</v>
       </c>
       <c r="P84" s="35">
         <v>30</v>
       </c>
       <c r="Q84" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>14.139999999999999</v>
       </c>
       <c r="S84" s="32">
@@ -8992,14 +10016,14 @@
         <v>30</v>
       </c>
       <c r="Z84" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB84" s="39">
         <v>30</v>
       </c>
       <c r="AC84" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>14.139999999999999</v>
       </c>
       <c r="AE84" s="32">
@@ -9053,28 +10077,28 @@
         <v>31</v>
       </c>
       <c r="H85" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>35</v>
       </c>
       <c r="J85" s="35">
         <v>31</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>49</v>
       </c>
       <c r="M85" s="35">
         <v>31</v>
       </c>
       <c r="N85" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>70</v>
       </c>
       <c r="P85" s="35">
         <v>31</v>
       </c>
       <c r="Q85" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>49</v>
       </c>
       <c r="S85" s="32">
@@ -9093,14 +10117,14 @@
         <v>31</v>
       </c>
       <c r="Z85" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB85" s="39">
         <v>31</v>
       </c>
       <c r="AC85" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>49</v>
       </c>
       <c r="AE85" s="32">
@@ -9154,28 +10178,28 @@
         <v>32</v>
       </c>
       <c r="H86" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>5.25</v>
       </c>
       <c r="J86" s="35">
         <v>32</v>
       </c>
       <c r="K86" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>7.35</v>
       </c>
       <c r="M86" s="35">
         <v>32</v>
       </c>
       <c r="N86" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>10.5</v>
       </c>
       <c r="P86" s="35">
         <v>32</v>
       </c>
       <c r="Q86" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>7.35</v>
       </c>
       <c r="S86" s="32">
@@ -9194,14 +10218,14 @@
         <v>32</v>
       </c>
       <c r="Z86" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB86" s="39">
         <v>32</v>
       </c>
       <c r="AC86" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>7.35</v>
       </c>
       <c r="AE86" s="32">
@@ -9255,28 +10279,28 @@
         <v>33</v>
       </c>
       <c r="H87" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="J87" s="35">
         <v>33</v>
       </c>
       <c r="K87" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="M87" s="35">
         <v>33</v>
       </c>
       <c r="N87" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="P87" s="35">
         <v>33</v>
       </c>
       <c r="Q87" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>7</v>
       </c>
       <c r="S87" s="32">
@@ -9295,14 +10319,14 @@
         <v>33</v>
       </c>
       <c r="Z87" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB87" s="39">
         <v>33</v>
       </c>
       <c r="AC87" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>7</v>
       </c>
       <c r="AE87" s="32">
@@ -9356,28 +10380,28 @@
         <v>34</v>
       </c>
       <c r="H88" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="J88" s="35">
         <v>34</v>
       </c>
       <c r="K88" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="M88" s="35">
         <v>34</v>
       </c>
       <c r="N88" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="P88" s="35">
         <v>34</v>
       </c>
       <c r="Q88" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>7</v>
       </c>
       <c r="S88" s="32">
@@ -9396,14 +10420,14 @@
         <v>34</v>
       </c>
       <c r="Z88" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB88" s="39">
         <v>34</v>
       </c>
       <c r="AC88" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>7</v>
       </c>
       <c r="AE88" s="32">
@@ -9457,28 +10481,28 @@
         <v>35</v>
       </c>
       <c r="H89" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="J89" s="35">
         <v>35</v>
       </c>
       <c r="K89" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="M89" s="35">
         <v>35</v>
       </c>
       <c r="N89" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="P89" s="35">
         <v>35</v>
       </c>
       <c r="Q89" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>7</v>
       </c>
       <c r="S89" s="32">
@@ -9497,14 +10521,14 @@
         <v>35</v>
       </c>
       <c r="Z89" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB89" s="39">
         <v>35</v>
       </c>
       <c r="AC89" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>7</v>
       </c>
       <c r="AE89" s="32">
@@ -9558,28 +10582,28 @@
         <v>36</v>
       </c>
       <c r="H90" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="J90" s="35">
         <v>36</v>
       </c>
       <c r="K90" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="M90" s="35">
         <v>36</v>
       </c>
       <c r="N90" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="P90" s="35">
         <v>36</v>
       </c>
       <c r="Q90" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>7</v>
       </c>
       <c r="S90" s="32">
@@ -9598,14 +10622,14 @@
         <v>36</v>
       </c>
       <c r="Z90" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB90" s="39">
         <v>36</v>
       </c>
       <c r="AC90" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>7</v>
       </c>
       <c r="AE90" s="32">
@@ -9659,28 +10683,28 @@
         <v>37</v>
       </c>
       <c r="H91" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>5.05</v>
       </c>
       <c r="J91" s="35">
         <v>37</v>
       </c>
       <c r="K91" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>7.0699999999999994</v>
       </c>
       <c r="M91" s="35">
         <v>37</v>
       </c>
       <c r="N91" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>10.1</v>
       </c>
       <c r="P91" s="35">
         <v>37</v>
       </c>
       <c r="Q91" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>7.0699999999999994</v>
       </c>
       <c r="S91" s="32">
@@ -9699,14 +10723,14 @@
         <v>37</v>
       </c>
       <c r="Z91" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB91" s="39">
         <v>37</v>
       </c>
       <c r="AC91" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>7.0699999999999994</v>
       </c>
       <c r="AE91" s="32">
@@ -9760,28 +10784,28 @@
         <v>38</v>
       </c>
       <c r="H92" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>5.05</v>
       </c>
       <c r="J92" s="35">
         <v>38</v>
       </c>
       <c r="K92" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>7.0699999999999994</v>
       </c>
       <c r="M92" s="35">
         <v>38</v>
       </c>
       <c r="N92" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>10.1</v>
       </c>
       <c r="P92" s="35">
         <v>38</v>
       </c>
       <c r="Q92" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>7.0699999999999994</v>
       </c>
       <c r="S92" s="32">
@@ -9800,14 +10824,14 @@
         <v>38</v>
       </c>
       <c r="Z92" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB92" s="39">
         <v>38</v>
       </c>
       <c r="AC92" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>7.0699999999999994</v>
       </c>
       <c r="AE92" s="32">
@@ -9861,28 +10885,28 @@
         <v>39</v>
       </c>
       <c r="H93" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="J93" s="35">
         <v>39</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="M93" s="35">
         <v>39</v>
       </c>
       <c r="N93" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="P93" s="35">
         <v>39</v>
       </c>
       <c r="Q93" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>7</v>
       </c>
       <c r="S93" s="32">
@@ -9901,14 +10925,14 @@
         <v>39</v>
       </c>
       <c r="Z93" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB93" s="39">
         <v>39</v>
       </c>
       <c r="AC93" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>7</v>
       </c>
       <c r="AE93" s="32">
@@ -9962,28 +10986,28 @@
         <v>40</v>
       </c>
       <c r="H94" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>6</v>
       </c>
       <c r="J94" s="35">
         <v>40</v>
       </c>
       <c r="K94" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>8.3999999999999986</v>
       </c>
       <c r="M94" s="35">
         <v>40</v>
       </c>
       <c r="N94" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="P94" s="35">
         <v>40</v>
       </c>
       <c r="Q94" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>8.3999999999999986</v>
       </c>
       <c r="S94" s="32">
@@ -10002,14 +11026,14 @@
         <v>40</v>
       </c>
       <c r="Z94" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB94" s="39">
         <v>40</v>
       </c>
       <c r="AC94" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>8.3999999999999986</v>
       </c>
       <c r="AE94" s="32">
@@ -10099,7 +11123,7 @@
         <v>41</v>
       </c>
       <c r="Z95" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB95" s="39">
@@ -10195,7 +11219,7 @@
         <v>42</v>
       </c>
       <c r="Z96" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB96" s="39">
@@ -10291,7 +11315,7 @@
         <v>43</v>
       </c>
       <c r="Z97" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB97" s="39">
@@ -10329,27 +11353,27 @@
       </c>
     </row>
     <row r="103" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D103" s="43" t="s">
+      <c r="D103" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="E103" s="45" t="s">
+      <c r="E103" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45" t="s">
+      <c r="F103" s="49"/>
+      <c r="G103" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="H103" s="54"/>
+      <c r="H103" s="56"/>
       <c r="N103" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D104" s="44"/>
-      <c r="E104" s="46"/>
-      <c r="F104" s="46"/>
-      <c r="G104" s="46"/>
-      <c r="H104" s="55"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="50"/>
+      <c r="H104" s="57"/>
     </row>
     <row r="105" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
@@ -10363,14 +11387,14 @@
       <c r="D106" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E106" s="47">
+      <c r="E106" s="51">
         <v>72154</v>
       </c>
-      <c r="F106" s="47"/>
-      <c r="G106" s="56">
+      <c r="F106" s="51"/>
+      <c r="G106" s="58">
         <v>28.1</v>
       </c>
-      <c r="H106" s="57"/>
+      <c r="H106" s="59"/>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C107" s="18">
@@ -10379,14 +11403,14 @@
       <c r="D107" s="19">
         <v>0.31</v>
       </c>
-      <c r="E107" s="48">
+      <c r="E107" s="52">
         <v>67811</v>
       </c>
-      <c r="F107" s="48"/>
-      <c r="G107" s="49">
+      <c r="F107" s="52"/>
+      <c r="G107" s="53">
         <v>25</v>
       </c>
-      <c r="H107" s="50"/>
+      <c r="H107" s="54"/>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C108" s="18">
@@ -10395,14 +11419,14 @@
       <c r="D108" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E108" s="48">
+      <c r="E108" s="52">
         <v>187455</v>
       </c>
-      <c r="F108" s="48"/>
-      <c r="G108" s="49">
+      <c r="F108" s="52"/>
+      <c r="G108" s="53">
         <v>70</v>
       </c>
-      <c r="H108" s="50"/>
+      <c r="H108" s="54"/>
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C109" s="18">
@@ -10411,14 +11435,14 @@
       <c r="D109" s="19">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E109" s="48">
+      <c r="E109" s="52">
         <v>63266</v>
       </c>
-      <c r="F109" s="48"/>
-      <c r="G109" s="49">
+      <c r="F109" s="52"/>
+      <c r="G109" s="53">
         <v>30.6</v>
       </c>
-      <c r="H109" s="50"/>
+      <c r="H109" s="54"/>
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C110" s="18">
@@ -10427,14 +11451,14 @@
       <c r="D110" s="19">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E110" s="48">
+      <c r="E110" s="52">
         <v>26553</v>
       </c>
-      <c r="F110" s="48"/>
-      <c r="G110" s="49">
+      <c r="F110" s="52"/>
+      <c r="G110" s="53">
         <v>10</v>
       </c>
-      <c r="H110" s="50"/>
+      <c r="H110" s="54"/>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C111" s="18">
@@ -10443,14 +11467,14 @@
       <c r="D111" s="19">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E111" s="48">
+      <c r="E111" s="52">
         <v>24949</v>
       </c>
-      <c r="F111" s="48"/>
-      <c r="G111" s="49">
+      <c r="F111" s="52"/>
+      <c r="G111" s="53">
         <v>10</v>
       </c>
-      <c r="H111" s="50"/>
+      <c r="H111" s="54"/>
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C112" s="18">
@@ -10459,14 +11483,14 @@
       <c r="D112" s="19">
         <v>0.26100000000000001</v>
       </c>
-      <c r="E112" s="48">
+      <c r="E112" s="52">
         <v>22870</v>
       </c>
-      <c r="F112" s="48"/>
-      <c r="G112" s="49">
+      <c r="F112" s="52"/>
+      <c r="G112" s="53">
         <v>10</v>
       </c>
-      <c r="H112" s="50"/>
+      <c r="H112" s="54"/>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" s="18">
@@ -10475,14 +11499,14 @@
       <c r="D113" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E113" s="48">
+      <c r="E113" s="52">
         <v>139836</v>
       </c>
-      <c r="F113" s="48"/>
-      <c r="G113" s="49">
+      <c r="F113" s="52"/>
+      <c r="G113" s="53">
         <v>52.2</v>
       </c>
-      <c r="H113" s="50"/>
+      <c r="H113" s="54"/>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" s="18">
@@ -10491,14 +11515,14 @@
       <c r="D114" s="19">
         <v>0.26800000000000002</v>
       </c>
-      <c r="E114" s="48">
+      <c r="E114" s="52">
         <v>23515</v>
       </c>
-      <c r="F114" s="48"/>
-      <c r="G114" s="49">
+      <c r="F114" s="52"/>
+      <c r="G114" s="53">
         <v>10</v>
       </c>
-      <c r="H114" s="50"/>
+      <c r="H114" s="54"/>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" s="18">
@@ -10507,14 +11531,14 @@
       <c r="D115" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E115" s="48">
+      <c r="E115" s="52">
         <v>49503</v>
       </c>
-      <c r="F115" s="48"/>
-      <c r="G115" s="49">
+      <c r="F115" s="52"/>
+      <c r="G115" s="53">
         <v>20.2</v>
       </c>
-      <c r="H115" s="50"/>
+      <c r="H115" s="54"/>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C116" s="18">
@@ -10523,14 +11547,14 @@
       <c r="D116" s="19">
         <v>0.307</v>
       </c>
-      <c r="E116" s="48">
+      <c r="E116" s="52">
         <v>188420</v>
       </c>
-      <c r="F116" s="48"/>
-      <c r="G116" s="49">
+      <c r="F116" s="52"/>
+      <c r="G116" s="53">
         <v>70</v>
       </c>
-      <c r="H116" s="50"/>
+      <c r="H116" s="54"/>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C117" s="18">
@@ -10539,14 +11563,14 @@
       <c r="D117" s="19">
         <v>0.28899999999999998</v>
       </c>
-      <c r="E117" s="48">
+      <c r="E117" s="52">
         <v>26573</v>
       </c>
-      <c r="F117" s="48"/>
-      <c r="G117" s="49">
+      <c r="F117" s="52"/>
+      <c r="G117" s="53">
         <v>10.5</v>
       </c>
-      <c r="H117" s="50"/>
+      <c r="H117" s="54"/>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C118" s="18">
@@ -10555,14 +11579,14 @@
       <c r="D118" s="19">
         <v>0.28799999999999998</v>
       </c>
-      <c r="E118" s="48">
+      <c r="E118" s="52">
         <v>25253</v>
       </c>
-      <c r="F118" s="48"/>
-      <c r="G118" s="49">
+      <c r="F118" s="52"/>
+      <c r="G118" s="53">
         <v>10</v>
       </c>
-      <c r="H118" s="50"/>
+      <c r="H118" s="54"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C119" s="18">
@@ -10571,14 +11595,14 @@
       <c r="D119" s="19">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E119" s="48">
+      <c r="E119" s="52">
         <v>17610</v>
       </c>
-      <c r="F119" s="48"/>
-      <c r="G119" s="49">
+      <c r="F119" s="52"/>
+      <c r="G119" s="53">
         <v>10</v>
       </c>
-      <c r="H119" s="50"/>
+      <c r="H119" s="54"/>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C120" s="18">
@@ -10587,14 +11611,14 @@
       <c r="D120" s="19">
         <v>0.221</v>
       </c>
-      <c r="E120" s="48">
+      <c r="E120" s="52">
         <v>19372</v>
       </c>
-      <c r="F120" s="48"/>
-      <c r="G120" s="49">
+      <c r="F120" s="52"/>
+      <c r="G120" s="53">
         <v>10</v>
       </c>
-      <c r="H120" s="50"/>
+      <c r="H120" s="54"/>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C121" s="18">
@@ -10603,14 +11627,14 @@
       <c r="D121" s="19">
         <v>0.216</v>
       </c>
-      <c r="E121" s="48">
+      <c r="E121" s="52">
         <v>18939</v>
       </c>
-      <c r="F121" s="48"/>
-      <c r="G121" s="49">
+      <c r="F121" s="52"/>
+      <c r="G121" s="53">
         <v>10</v>
       </c>
-      <c r="H121" s="50"/>
+      <c r="H121" s="54"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C122" s="18">
@@ -10619,14 +11643,14 @@
       <c r="D122" s="19">
         <v>0.23</v>
       </c>
-      <c r="E122" s="48">
+      <c r="E122" s="52">
         <v>20382</v>
       </c>
-      <c r="F122" s="48"/>
-      <c r="G122" s="49">
+      <c r="F122" s="52"/>
+      <c r="G122" s="53">
         <v>10.1</v>
       </c>
-      <c r="H122" s="50"/>
+      <c r="H122" s="54"/>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C123" s="18">
@@ -10635,14 +11659,14 @@
       <c r="D123" s="19">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E123" s="48">
+      <c r="E123" s="52">
         <v>19968</v>
       </c>
-      <c r="F123" s="48"/>
-      <c r="G123" s="49">
+      <c r="F123" s="52"/>
+      <c r="G123" s="53">
         <v>10.1</v>
       </c>
-      <c r="H123" s="50"/>
+      <c r="H123" s="54"/>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C124" s="18">
@@ -10651,14 +11675,14 @@
       <c r="D124" s="19">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E124" s="48">
+      <c r="E124" s="52">
         <v>23240</v>
       </c>
-      <c r="F124" s="48"/>
-      <c r="G124" s="49">
+      <c r="F124" s="52"/>
+      <c r="G124" s="53">
         <v>10</v>
       </c>
-      <c r="H124" s="50"/>
+      <c r="H124" s="54"/>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C125" s="20">
@@ -10667,17 +11691,17 @@
       <c r="D125" s="21">
         <v>0.254</v>
       </c>
-      <c r="E125" s="53">
+      <c r="E125" s="55">
         <v>26709</v>
       </c>
-      <c r="F125" s="53"/>
-      <c r="G125" s="51">
+      <c r="F125" s="55"/>
+      <c r="G125" s="60">
         <v>12</v>
       </c>
-      <c r="H125" s="52"/>
+      <c r="H125" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="74">
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="S3:U3"/>
@@ -10685,12 +11709,13 @@
     <mergeCell ref="S7:U7"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="S5:U5"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G103:H104"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G109:H109"/>
     <mergeCell ref="G123:H123"/>
     <mergeCell ref="G124:H124"/>
     <mergeCell ref="G125:H125"/>
@@ -10699,13 +11724,6 @@
     <mergeCell ref="G120:H120"/>
     <mergeCell ref="G121:H121"/>
     <mergeCell ref="G122:H122"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G103:H104"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G109:H109"/>
     <mergeCell ref="G110:H110"/>
     <mergeCell ref="G111:H111"/>
     <mergeCell ref="G112:H112"/>
@@ -10717,27 +11735,32 @@
     <mergeCell ref="E119:F119"/>
     <mergeCell ref="E120:F120"/>
     <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="E115:F115"/>
     <mergeCell ref="E116:F116"/>
     <mergeCell ref="E117:F117"/>
     <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
     <mergeCell ref="E108:F108"/>
     <mergeCell ref="E109:F109"/>
     <mergeCell ref="E110:F110"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="D103:D104"/>
     <mergeCell ref="E103:F104"/>
-    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="N4:P4"/>
@@ -10748,6 +11771,11 @@
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="N7:P7"/>
+    <mergeCell ref="AX14:BB14"/>
+    <mergeCell ref="BD14:BH14"/>
+    <mergeCell ref="AZ13:BA13"/>
+    <mergeCell ref="BF13:BG13"/>
+    <mergeCell ref="N9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -15,20 +15,20 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="bat_eff">Sheet2!$Q$8</definedName>
-    <definedName name="CAPEX_NGCC">Sheet2!$Q$1</definedName>
+    <definedName name="bat_eff">Sheet2!$Q$6</definedName>
+    <definedName name="CAPEX_ngcc">Sheet2!$H$18:$H$43</definedName>
     <definedName name="CAPEX_solar">Sheet2!$D$18:$D$43</definedName>
-    <definedName name="CAPEX_storage">Sheet2!$Q$6</definedName>
+    <definedName name="CAPEX_storage">Sheet2!$Q$4</definedName>
     <definedName name="CAPEX_wind">Sheet2!$F$18:$F$43</definedName>
     <definedName name="CH4_rate">Sheet2!$AN$57:$AN$100</definedName>
     <definedName name="CO2_rate">Sheet2!$AM$57:$AM$100</definedName>
     <definedName name="DiscRate">Sheet2!$G$1</definedName>
     <definedName name="EV_subsidy_cost">Sheet2!$V$1</definedName>
-    <definedName name="FallDemandOff">Sheet2!$AY$18:$BA$43</definedName>
-    <definedName name="FallDemandPeak">Sheet2!$AS$18:$AU$43</definedName>
+    <definedName name="FallDemandOff">Sheet2!$BA$18:$BC$43</definedName>
+    <definedName name="FallDemandPeak">Sheet2!$AU$18:$AW$43</definedName>
     <definedName name="FallMaxGenPeak">Sheet2!$Q$57:$Q$100</definedName>
-    <definedName name="FallOffHours">Sheet2!$BB$15</definedName>
-    <definedName name="FallPeakHours">Sheet2!$AV$15</definedName>
+    <definedName name="FallOffHours">Sheet2!$BD$15</definedName>
+    <definedName name="FallPeakHours">Sheet2!$AX$15</definedName>
     <definedName name="FallSolarFactor">Sheet2!$Q$55</definedName>
     <definedName name="LineCapacity">Sheet2!$P$49:$P$51</definedName>
     <definedName name="LineFromBus">Sheet2!$H$49:$J$51</definedName>
@@ -39,43 +39,46 @@
     <definedName name="MaxGenOff">Sheet2!$T$57:$T$100</definedName>
     <definedName name="MinGen">Sheet2!$W$57:$W$100</definedName>
     <definedName name="N2O_rate">Sheet2!$AO$57:$AO$100</definedName>
+    <definedName name="ngcc_cap_factor">Sheet2!$L$6</definedName>
+    <definedName name="ngcc_inc">Sheet2!$Q$9</definedName>
+    <definedName name="NGCCBuildTime">Sheet2!$Q$12</definedName>
     <definedName name="NOx_rate">Sheet2!$AK$57:$AK$100</definedName>
     <definedName name="NumBuses">Sheet2!$C$1</definedName>
     <definedName name="NumLines">Sheet2!$C$2</definedName>
     <definedName name="NumUnits">Sheet2!$C$3</definedName>
     <definedName name="NumYears">Sheet2!$C$4</definedName>
     <definedName name="OffHours">Sheet2!$C$7</definedName>
-    <definedName name="OPEX_NGCC">Sheet2!$Q$2</definedName>
-    <definedName name="OPEX_solar">Sheet2!$Q$3</definedName>
-    <definedName name="OPEX_storage">Sheet2!$Q$7</definedName>
-    <definedName name="OPEX_wind">Sheet2!$Q$5</definedName>
+    <definedName name="OPEX_NGCC">Sheet2!$Q$1</definedName>
+    <definedName name="OPEX_solar">Sheet2!$Q$2</definedName>
+    <definedName name="OPEX_storage">Sheet2!$Q$5</definedName>
+    <definedName name="OPEX_wind">Sheet2!$Q$3</definedName>
     <definedName name="PeakHours">Sheet2!$C$6</definedName>
     <definedName name="RampRate">Sheet2!$AC$57:$AC$100</definedName>
     <definedName name="SO2_rate">Sheet2!$AL$57:$AL$100</definedName>
     <definedName name="solar_cap_factor">Sheet2!$L$4</definedName>
-    <definedName name="solar_inc">Sheet2!$Q$9</definedName>
-    <definedName name="SolarBuildTime">Sheet2!$Q$11</definedName>
-    <definedName name="SpringDemandOff">Sheet2!$AA$18:$AC$43</definedName>
-    <definedName name="SpringDemandPeak">Sheet2!$U$18:$W$43</definedName>
+    <definedName name="solar_inc">Sheet2!$Q$7</definedName>
+    <definedName name="SolarBuildTime">Sheet2!$Q$10</definedName>
+    <definedName name="SpringDemandOff">Sheet2!$AC$18:$AE$43</definedName>
+    <definedName name="SpringDemandPeak">Sheet2!$W$18:$Y$43</definedName>
     <definedName name="SpringMaxGenPeak">Sheet2!$K$57:$K$100</definedName>
-    <definedName name="SpringOffHours">Sheet2!$AD$15</definedName>
-    <definedName name="SpringPeakHours">Sheet2!$X$15</definedName>
+    <definedName name="SpringOffHours">Sheet2!$AF$15</definedName>
+    <definedName name="SpringPeakHours">Sheet2!$Z$15</definedName>
     <definedName name="SpringSolarFactor">Sheet2!$K$55</definedName>
-    <definedName name="SummerDemandOff">Sheet2!$AM$18:$AO$43</definedName>
-    <definedName name="SummerDemandPeak">Sheet2!$AG$18:$AI$43</definedName>
+    <definedName name="SummerDemandOff">Sheet2!$AO$18:$AQ$43</definedName>
+    <definedName name="SummerDemandPeak">Sheet2!$AI$18:$AK$43</definedName>
     <definedName name="SummerMaxGenPeak">Sheet2!$N$57:$N$100</definedName>
-    <definedName name="SummerOffHours">Sheet2!$AP$15</definedName>
-    <definedName name="SummerPeakHours">Sheet2!$AJ$15</definedName>
+    <definedName name="SummerOffHours">Sheet2!$AR$15</definedName>
+    <definedName name="SummerPeakHours">Sheet2!$AL$15</definedName>
     <definedName name="SummerSolarFactor">Sheet2!$N$55</definedName>
     <definedName name="UnitsByBus">Sheet2!$C$57:$E$100</definedName>
     <definedName name="wind_cap_factor">Sheet2!$L$5</definedName>
-    <definedName name="wind_inc">Sheet2!$Q$10</definedName>
-    <definedName name="WindBuildTime">Sheet2!$Q$12</definedName>
-    <definedName name="WinterDemandOff">Sheet2!$O$18:$Q$43</definedName>
-    <definedName name="WinterDemandPeak">Sheet2!$I$18:$K$43</definedName>
+    <definedName name="wind_inc">Sheet2!$Q$8</definedName>
+    <definedName name="WindBuildTime">Sheet2!$Q$11</definedName>
+    <definedName name="WinterDemandOff">Sheet2!$Q$18:$S$43</definedName>
+    <definedName name="WinterDemandPeak">Sheet2!$K$18:$M$43</definedName>
     <definedName name="WinterMaxGenPeak">Sheet2!$H$57:$H$100</definedName>
-    <definedName name="WinterOffHours">Sheet2!$R$15</definedName>
-    <definedName name="WinterPeakHours">Sheet2!$L$15</definedName>
+    <definedName name="WinterOffHours">Sheet2!$T$15</definedName>
+    <definedName name="WinterPeakHours">Sheet2!$N$15</definedName>
     <definedName name="WinterSolarFactor">Sheet2!$H$55</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -93,6 +96,54 @@
     <author>Lenovo User</author>
   </authors>
   <commentList>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lenovo User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lenovo User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Placeholder value</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E17" authorId="0" shapeId="0">
       <text>
         <r>
@@ -117,12 +168,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="G17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lenovo User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NERL ATB Gas-CC-AvgCF-Mid beginning in 2020</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="155">
   <si>
     <t>NumBuses</t>
   </si>
@@ -382,9 +457,6 @@
     <t>OPEX of new solar ($/MW):</t>
   </si>
   <si>
-    <t>CAPEX of new wind ($):</t>
-  </si>
-  <si>
     <t>OPEX of new wind ($/MW):</t>
   </si>
   <si>
@@ -556,9 +628,6 @@
     <t>Wind Build Time (years):</t>
   </si>
   <si>
-    <t>CAPEX of new NGCC ($):</t>
-  </si>
-  <si>
     <t>OPEX of new NGCC ($/MW):</t>
   </si>
   <si>
@@ -578,6 +647,21 @@
   </si>
   <si>
     <t>Wind ($/MW)</t>
+  </si>
+  <si>
+    <t>Size of each NGCC module (MW):</t>
+  </si>
+  <si>
+    <t>NGCC Build Time (years):</t>
+  </si>
+  <si>
+    <t>NGCC Scale Factor</t>
+  </si>
+  <si>
+    <t>NGCC ($/kW)</t>
+  </si>
+  <si>
+    <t>NGCC ($/MW)</t>
   </si>
 </sst>
 </file>
@@ -870,31 +954,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -906,17 +990,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1199,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB128"/>
+  <dimension ref="A1:BD128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1213,6 +1297,8 @@
     <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.453125" customWidth="1"/>
     <col min="12" max="12" width="8.6328125" customWidth="1"/>
     <col min="14" max="14" width="9.26953125" customWidth="1"/>
@@ -1228,7 +1314,7 @@
     <col min="24" max="29" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1252,11 +1338,13 @@
       </c>
       <c r="O1" s="41"/>
       <c r="P1" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q1" s="24"/>
+        <v>143</v>
+      </c>
+      <c r="Q1" s="24">
+        <v>0</v>
+      </c>
       <c r="S1" s="48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
@@ -1264,7 +1352,7 @@
         <v>8809340386.1000004</v>
       </c>
     </row>
-    <row r="2" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1285,11 +1373,13 @@
       </c>
       <c r="O2" s="41"/>
       <c r="P2" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q2" s="24"/>
+        <v>85</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>19867.2</v>
+      </c>
       <c r="S2" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T2" s="48"/>
       <c r="U2" s="48"/>
@@ -1297,10 +1387,10 @@
         <v>348494.96600000001</v>
       </c>
       <c r="W2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1308,7 +1398,7 @@
         <v>44</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I3" s="48" t="s">
         <v>28</v>
@@ -1320,13 +1410,13 @@
       </c>
       <c r="O3" s="41"/>
       <c r="P3" s="36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="24">
-        <v>19867.2</v>
+        <v>43560</v>
       </c>
       <c r="S3" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T3" s="48"/>
       <c r="U3" s="48"/>
@@ -1334,10 +1424,10 @@
         <v>2066077.2990000001</v>
       </c>
       <c r="W3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1346,7 +1436,7 @@
       </c>
       <c r="D4" s="13"/>
       <c r="F4" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="6">
         <v>4198</v>
@@ -1361,11 +1451,13 @@
       </c>
       <c r="O4" s="41"/>
       <c r="P4" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q4" s="24"/>
+        <v>137</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>601000</v>
+      </c>
       <c r="S4" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T4" s="48"/>
       <c r="U4" s="48"/>
@@ -1374,19 +1466,19 @@
         <v>2140754.7910200004</v>
       </c>
       <c r="W4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="2:54" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
       <c r="F5" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5" s="6">
         <v>3726</v>
       </c>
       <c r="I5" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
@@ -1395,13 +1487,13 @@
       </c>
       <c r="O5" s="41"/>
       <c r="P5" s="36" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="24">
-        <v>43560</v>
+        <v>15025</v>
       </c>
       <c r="S5" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T5" s="48"/>
       <c r="U5" s="48"/>
@@ -1410,29 +1502,33 @@
         <v>423172.45869000006</v>
       </c>
       <c r="W5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:54" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:56" x14ac:dyDescent="0.35">
       <c r="F6" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G6" s="6">
         <v>4765</v>
       </c>
-      <c r="I6" s="48"/>
+      <c r="I6" s="48" t="s">
+        <v>152</v>
+      </c>
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
-      <c r="L6" s="10"/>
+      <c r="L6" s="15">
+        <v>1</v>
+      </c>
       <c r="O6" s="41"/>
       <c r="P6" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q6" s="24">
-        <v>601000</v>
+        <v>139</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>0.95</v>
       </c>
       <c r="S6" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
@@ -1441,25 +1537,25 @@
         <v>13968.472320000001</v>
       </c>
       <c r="W6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:56" x14ac:dyDescent="0.35">
       <c r="F7" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G7" s="6">
         <v>4050</v>
       </c>
       <c r="O7" s="41"/>
       <c r="P7" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q7" s="24">
-        <v>15025</v>
+        <v>88</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>50</v>
       </c>
       <c r="S7" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T7" s="48"/>
       <c r="U7" s="48"/>
@@ -1468,25 +1564,25 @@
         <v>29903074042.27026</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:54" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:56" x14ac:dyDescent="0.35">
       <c r="F8" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G8" s="6">
         <v>5974</v>
       </c>
       <c r="O8" s="41"/>
       <c r="P8" s="36" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="26">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="S8" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T8" s="48"/>
       <c r="U8" s="48"/>
@@ -1495,50 +1591,50 @@
         <v>5911072775.7976093</v>
       </c>
       <c r="W8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:56" x14ac:dyDescent="0.35">
       <c r="F9" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9" s="6">
         <v>5009</v>
       </c>
       <c r="O9" s="41"/>
       <c r="P9" s="36" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="Q9" s="26">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="S9" s="33"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
       <c r="V9" s="25"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:56" x14ac:dyDescent="0.35">
       <c r="F10" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G10" s="6">
         <v>4359</v>
       </c>
       <c r="O10" s="41"/>
       <c r="P10" s="36" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S10" s="33"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
       <c r="V10" s="25"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:56" x14ac:dyDescent="0.35">
       <c r="F11" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" s="6">
         <v>3780</v>
@@ -1548,14 +1644,14 @@
         <v>142</v>
       </c>
       <c r="Q11" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
       <c r="V11" s="25"/>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:56" x14ac:dyDescent="0.35">
       <c r="F12" s="36"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -1567,7 +1663,7 @@
       <c r="N12" s="43"/>
       <c r="O12" s="43"/>
       <c r="P12" s="36" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="Q12" s="26">
         <v>3</v>
@@ -1577,20 +1673,10 @@
       <c r="U12" s="41"/>
       <c r="V12" s="25"/>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:56" x14ac:dyDescent="0.35">
       <c r="F13" s="36"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="S13" s="41"/>
-    </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="2:56" x14ac:dyDescent="0.35">
       <c r="F14" s="36"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -1608,259 +1694,265 @@
       <c r="U14" s="33"/>
       <c r="V14" s="25"/>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="K15" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="L15" s="7">
+    <row r="15" spans="2:56" x14ac:dyDescent="0.35">
+      <c r="M15" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="7">
         <f>90*16</f>
         <v>1440</v>
       </c>
-      <c r="Q15" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="R15" s="7">
+      <c r="S15" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="T15" s="7">
         <f>8*90</f>
         <v>720</v>
       </c>
-      <c r="W15" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="X15" s="7">
+      <c r="Y15" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z15" s="7">
         <f>91*16</f>
         <v>1456</v>
       </c>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
       <c r="AA15" s="33"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD15" s="7">
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF15" s="7">
         <f>91*8</f>
         <v>728</v>
       </c>
-      <c r="AI15" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ15" s="7">
+      <c r="AK15" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL15" s="7">
         <f>92*16</f>
         <v>1472</v>
       </c>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
       <c r="AM15" s="33"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP15" s="7">
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR15" s="7">
         <f>92*8</f>
         <v>736</v>
       </c>
-      <c r="AU15" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV15" s="7">
+      <c r="AW15" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX15" s="7">
         <f>92*16</f>
         <v>1472</v>
       </c>
-      <c r="AW15" s="33"/>
-      <c r="AX15" s="33"/>
       <c r="AY15" s="33"/>
-      <c r="AZ15" s="25"/>
-      <c r="BA15" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="BB15" s="7">
+      <c r="AZ15" s="33"/>
+      <c r="BA15" s="33"/>
+      <c r="BB15" s="25"/>
+      <c r="BC15" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD15" s="7">
         <f>92*8</f>
         <v>736</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="D16" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" s="33" t="s">
+    <row r="16" spans="2:56" x14ac:dyDescent="0.35">
+      <c r="E16" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" s="33"/>
+      <c r="N16" s="2"/>
+      <c r="R16" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="2"/>
-      <c r="P16" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="32"/>
-      <c r="V16" s="33" t="s">
+      <c r="S16" s="33"/>
+      <c r="T16" s="32"/>
+      <c r="X16" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="34"/>
+      <c r="AD16" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="W16" s="33"/>
-      <c r="X16" s="34"/>
-      <c r="AB16" s="33" t="s">
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="34"/>
+      <c r="AJ16" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="34"/>
-      <c r="AH16" s="33" t="s">
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="34"/>
+      <c r="AP16" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="34"/>
-      <c r="AN16" s="33" t="s">
+      <c r="AQ16" s="33"/>
+      <c r="AR16" s="34"/>
+      <c r="AV16" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="34"/>
-      <c r="AT16" s="33" t="s">
+      <c r="AW16" s="33"/>
+      <c r="AX16" s="34"/>
+      <c r="BB16" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AU16" s="33"/>
-      <c r="AV16" s="34"/>
-      <c r="AZ16" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA16" s="33"/>
-      <c r="BB16" s="34"/>
-    </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.35">
+      <c r="BC16" s="33"/>
+      <c r="BD16" s="34"/>
+    </row>
+    <row r="17" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B17" s="44" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="F17" t="s">
         <v>149</v>
       </c>
-      <c r="E17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" s="9" t="s">
+      <c r="G17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="2">
+      <c r="K17" s="2">
         <v>1</v>
       </c>
-      <c r="J17" s="2">
+      <c r="L17" s="2">
         <v>2</v>
       </c>
-      <c r="K17" s="2">
+      <c r="M17" s="2">
         <v>3</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N17" s="30" t="s">
+      <c r="P17" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="32">
+      <c r="Q17" s="32">
         <v>1</v>
       </c>
-      <c r="P17" s="32">
+      <c r="R17" s="32">
         <v>2</v>
       </c>
-      <c r="Q17" s="32">
+      <c r="S17" s="32">
         <v>3</v>
       </c>
-      <c r="R17" s="32" t="s">
+      <c r="T17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="T17" s="33" t="s">
+      <c r="V17" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="U17" s="34">
+      <c r="W17" s="34">
         <v>1</v>
       </c>
-      <c r="V17" s="34">
+      <c r="X17" s="34">
         <v>2</v>
       </c>
-      <c r="W17" s="34">
+      <c r="Y17" s="34">
         <v>3</v>
       </c>
-      <c r="X17" s="34" t="s">
+      <c r="Z17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="Z17" s="33" t="s">
+      <c r="AB17" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="AA17" s="34">
+      <c r="AC17" s="34">
         <v>1</v>
       </c>
-      <c r="AB17" s="34">
+      <c r="AD17" s="34">
         <v>2</v>
       </c>
-      <c r="AC17" s="34">
+      <c r="AE17" s="34">
         <v>3</v>
       </c>
-      <c r="AD17" s="34" t="s">
+      <c r="AF17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AF17" s="33" t="s">
+      <c r="AH17" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="AG17" s="34">
+      <c r="AI17" s="34">
         <v>1</v>
       </c>
-      <c r="AH17" s="34">
+      <c r="AJ17" s="34">
         <v>2</v>
       </c>
-      <c r="AI17" s="34">
+      <c r="AK17" s="34">
         <v>3</v>
       </c>
-      <c r="AJ17" s="34" t="s">
+      <c r="AL17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AL17" s="33" t="s">
+      <c r="AN17" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="AM17" s="34">
+      <c r="AO17" s="34">
         <v>1</v>
       </c>
-      <c r="AN17" s="34">
+      <c r="AP17" s="34">
         <v>2</v>
       </c>
-      <c r="AO17" s="34">
+      <c r="AQ17" s="34">
         <v>3</v>
       </c>
-      <c r="AP17" s="34" t="s">
+      <c r="AR17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AR17" s="33" t="s">
+      <c r="AT17" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="AS17" s="34">
+      <c r="AU17" s="34">
         <v>1</v>
       </c>
-      <c r="AT17" s="34">
+      <c r="AV17" s="34">
         <v>2</v>
       </c>
-      <c r="AU17" s="34">
+      <c r="AW17" s="34">
         <v>3</v>
       </c>
-      <c r="AV17" s="34" t="s">
+      <c r="AX17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AX17" s="33" t="s">
+      <c r="AZ17" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="AY17" s="34">
+      <c r="BA17" s="34">
         <v>1</v>
       </c>
-      <c r="AZ17" s="34">
+      <c r="BB17" s="34">
         <v>2</v>
       </c>
-      <c r="BA17" s="34">
+      <c r="BC17" s="34">
         <v>3</v>
       </c>
-      <c r="BB17" s="34" t="s">
+      <c r="BD17" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>2020</v>
       </c>
@@ -1875,163 +1967,170 @@
         <v>1527.5389284515556</v>
       </c>
       <c r="F18" s="47">
-        <f t="shared" ref="F18:F43" si="0">E18*1000</f>
+        <f t="shared" ref="F18:H43" si="0">E18*1000</f>
         <v>1527538.9284515555</v>
       </c>
-      <c r="H18" s="4">
+      <c r="G18" s="24">
+        <v>906.89350869386863</v>
+      </c>
+      <c r="H18" s="47">
+        <f t="shared" si="0"/>
+        <v>906893.50869386864</v>
+      </c>
+      <c r="J18" s="4">
         <v>2020</v>
       </c>
-      <c r="I18" s="46">
-        <f>0.15*L18</f>
+      <c r="K18" s="46">
+        <f>0.15*N18</f>
         <v>629.69999999999993</v>
       </c>
-      <c r="J18" s="46">
-        <f>0.5*L18</f>
+      <c r="L18" s="46">
+        <f>0.5*N18</f>
         <v>2099</v>
       </c>
-      <c r="K18" s="46">
-        <f>0.35*L18</f>
+      <c r="M18" s="46">
+        <f>0.35*N18</f>
         <v>1469.3</v>
       </c>
-      <c r="L18" s="2">
+      <c r="N18" s="2">
         <f>G4</f>
         <v>4198</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>2020</v>
       </c>
-      <c r="O18" s="46">
-        <f>0.15*R18</f>
+      <c r="Q18" s="46">
+        <f>0.15*T18</f>
         <v>558.9</v>
       </c>
-      <c r="P18" s="46">
-        <f>0.5*R18</f>
+      <c r="R18" s="46">
+        <f>0.5*T18</f>
         <v>1863</v>
       </c>
-      <c r="Q18" s="46">
-        <f>0.35*R18</f>
+      <c r="S18" s="46">
+        <f>0.35*T18</f>
         <v>1304.0999999999999</v>
       </c>
-      <c r="R18" s="32">
+      <c r="T18" s="32">
         <f>G5</f>
         <v>3726</v>
       </c>
-      <c r="T18" s="4">
+      <c r="V18" s="4">
         <v>2020</v>
       </c>
-      <c r="U18" s="46">
-        <f>0.15*X18</f>
+      <c r="W18" s="46">
+        <f>0.15*Z18</f>
         <v>714.75</v>
       </c>
-      <c r="V18" s="46">
-        <f>0.5*X18</f>
+      <c r="X18" s="46">
+        <f>0.5*Z18</f>
         <v>2382.5</v>
       </c>
-      <c r="W18" s="46">
-        <f>0.35*X18</f>
+      <c r="Y18" s="46">
+        <f>0.35*Z18</f>
         <v>1667.75</v>
       </c>
-      <c r="X18" s="34">
+      <c r="Z18" s="34">
         <f>$G6</f>
         <v>4765</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="AB18" s="4">
         <v>2020</v>
       </c>
-      <c r="AA18" s="46">
-        <f>0.15*AD18</f>
+      <c r="AC18" s="46">
+        <f>0.15*AF18</f>
         <v>607.5</v>
       </c>
-      <c r="AB18" s="46">
-        <f>0.5*AD18</f>
+      <c r="AD18" s="46">
+        <f>0.5*AF18</f>
         <v>2025</v>
       </c>
-      <c r="AC18" s="46">
-        <f>0.35*AD18</f>
+      <c r="AE18" s="46">
+        <f>0.35*AF18</f>
         <v>1417.5</v>
       </c>
-      <c r="AD18" s="34">
+      <c r="AF18" s="34">
         <f>$G7</f>
         <v>4050</v>
       </c>
-      <c r="AF18" s="4">
+      <c r="AH18" s="4">
         <v>2020</v>
       </c>
-      <c r="AG18" s="46">
-        <f>0.15*AJ18</f>
+      <c r="AI18" s="46">
+        <f>0.15*AL18</f>
         <v>896.1</v>
       </c>
-      <c r="AH18" s="46">
-        <f>0.5*AJ18</f>
+      <c r="AJ18" s="46">
+        <f>0.5*AL18</f>
         <v>2987</v>
       </c>
-      <c r="AI18" s="46">
-        <f>0.35*AJ18</f>
+      <c r="AK18" s="46">
+        <f>0.35*AL18</f>
         <v>2090.9</v>
       </c>
-      <c r="AJ18" s="34">
+      <c r="AL18" s="34">
         <f>G8</f>
         <v>5974</v>
       </c>
-      <c r="AL18" s="4">
+      <c r="AN18" s="4">
         <v>2020</v>
       </c>
-      <c r="AM18" s="46">
-        <f>0.15*AP18</f>
+      <c r="AO18" s="46">
+        <f>0.15*AR18</f>
         <v>751.35</v>
       </c>
-      <c r="AN18" s="46">
-        <f>0.5*AP18</f>
+      <c r="AP18" s="46">
+        <f>0.5*AR18</f>
         <v>2504.5</v>
       </c>
-      <c r="AO18" s="46">
-        <f>0.35*AP18</f>
+      <c r="AQ18" s="46">
+        <f>0.35*AR18</f>
         <v>1753.1499999999999</v>
       </c>
-      <c r="AP18" s="34">
+      <c r="AR18" s="34">
         <f>G9</f>
         <v>5009</v>
       </c>
-      <c r="AR18" s="4">
+      <c r="AT18" s="4">
         <v>2020</v>
       </c>
-      <c r="AS18" s="46">
-        <f>0.15*AV18</f>
+      <c r="AU18" s="46">
+        <f>0.15*AX18</f>
         <v>653.85</v>
       </c>
-      <c r="AT18" s="46">
-        <f>0.5*AV18</f>
+      <c r="AV18" s="46">
+        <f>0.5*AX18</f>
         <v>2179.5</v>
       </c>
-      <c r="AU18" s="46">
-        <f>0.35*AV18</f>
+      <c r="AW18" s="46">
+        <f>0.35*AX18</f>
         <v>1525.6499999999999</v>
       </c>
-      <c r="AV18" s="34">
+      <c r="AX18" s="34">
         <f>G10</f>
         <v>4359</v>
       </c>
-      <c r="AX18" s="4">
+      <c r="AZ18" s="4">
         <v>2020</v>
       </c>
-      <c r="AY18" s="46">
-        <f>0.15*BB18</f>
+      <c r="BA18" s="46">
+        <f>0.15*BD18</f>
         <v>567</v>
       </c>
-      <c r="AZ18" s="46">
-        <f>0.5*BB18</f>
+      <c r="BB18" s="46">
+        <f>0.5*BD18</f>
         <v>1890</v>
       </c>
-      <c r="BA18" s="46">
-        <f>0.35*BB18</f>
+      <c r="BC18" s="46">
+        <f>0.35*BD18</f>
         <v>1323</v>
       </c>
-      <c r="BB18" s="34">
+      <c r="BD18" s="34">
         <f>G11</f>
         <v>3780</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <v>2021</v>
       </c>
@@ -2049,160 +2148,167 @@
         <f t="shared" si="0"/>
         <v>1500015.7045154916</v>
       </c>
-      <c r="H19" s="4">
+      <c r="G19" s="24">
+        <v>900.31031748980547</v>
+      </c>
+      <c r="H19" s="47">
+        <f t="shared" si="0"/>
+        <v>900310.31748980551</v>
+      </c>
+      <c r="J19" s="4">
         <v>2021</v>
       </c>
-      <c r="I19" s="46">
-        <f t="shared" ref="I19:I43" si="2">0.15*L19</f>
+      <c r="K19" s="46">
+        <f t="shared" ref="K19:K43" si="2">0.15*N19</f>
         <v>635.36729999999989</v>
       </c>
-      <c r="J19" s="46">
-        <f t="shared" ref="J19:J43" si="3">0.5*L19</f>
+      <c r="L19" s="46">
+        <f t="shared" ref="L19:L43" si="3">0.5*N19</f>
         <v>2117.8909999999996</v>
       </c>
-      <c r="K19" s="46">
-        <f t="shared" ref="K19:K43" si="4">0.35*L19</f>
+      <c r="M19" s="46">
+        <f t="shared" ref="M19:M43" si="4">0.35*N19</f>
         <v>1482.5236999999997</v>
       </c>
-      <c r="L19" s="12">
-        <f t="shared" ref="L19:L43" si="5">L18*(1+$L$3)</f>
+      <c r="N19" s="12">
+        <f t="shared" ref="N19:N43" si="5">N18*(1+$L$3)</f>
         <v>4235.7819999999992</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>2021</v>
       </c>
-      <c r="O19" s="46">
-        <f t="shared" ref="O19:O43" si="6">0.15*R19</f>
+      <c r="Q19" s="46">
+        <f t="shared" ref="Q19:Q43" si="6">0.15*T19</f>
         <v>563.93009999999992</v>
       </c>
-      <c r="P19" s="46">
-        <f t="shared" ref="P19:P43" si="7">0.5*R19</f>
+      <c r="R19" s="46">
+        <f t="shared" ref="R19:R43" si="7">0.5*T19</f>
         <v>1879.7669999999998</v>
       </c>
-      <c r="Q19" s="46">
-        <f t="shared" ref="Q19:Q43" si="8">0.35*R19</f>
+      <c r="S19" s="46">
+        <f t="shared" ref="S19:S43" si="8">0.35*T19</f>
         <v>1315.8368999999998</v>
       </c>
-      <c r="R19" s="12">
-        <f>R18*(1+$L$3)</f>
+      <c r="T19" s="12">
+        <f>T18*(1+$L$3)</f>
         <v>3759.5339999999997</v>
       </c>
-      <c r="T19" s="4">
+      <c r="V19" s="4">
         <v>2021</v>
       </c>
-      <c r="U19" s="46">
-        <f t="shared" ref="U19:U43" si="9">0.15*X19</f>
+      <c r="W19" s="46">
+        <f t="shared" ref="W19:W43" si="9">0.15*Z19</f>
         <v>721.18274999999983</v>
       </c>
-      <c r="V19" s="46">
-        <f t="shared" ref="V19:V43" si="10">0.5*X19</f>
+      <c r="X19" s="46">
+        <f t="shared" ref="X19:X43" si="10">0.5*Z19</f>
         <v>2403.9424999999997</v>
       </c>
-      <c r="W19" s="46">
-        <f t="shared" ref="W19:W43" si="11">0.35*X19</f>
+      <c r="Y19" s="46">
+        <f t="shared" ref="Y19:Y43" si="11">0.35*Z19</f>
         <v>1682.7597499999997</v>
       </c>
-      <c r="X19" s="12">
-        <f t="shared" ref="X19:X43" si="12">X18*(1+$L$3)</f>
+      <c r="Z19" s="12">
+        <f t="shared" ref="Z19:Z43" si="12">Z18*(1+$L$3)</f>
         <v>4807.8849999999993</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="AB19" s="4">
         <v>2021</v>
       </c>
-      <c r="AA19" s="46">
-        <f t="shared" ref="AA19:AA43" si="13">0.15*AD19</f>
+      <c r="AC19" s="46">
+        <f t="shared" ref="AC19:AC43" si="13">0.15*AF19</f>
         <v>612.96749999999986</v>
       </c>
-      <c r="AB19" s="46">
-        <f t="shared" ref="AB19:AB43" si="14">0.5*AD19</f>
+      <c r="AD19" s="46">
+        <f t="shared" ref="AD19:AD43" si="14">0.5*AF19</f>
         <v>2043.2249999999997</v>
       </c>
-      <c r="AC19" s="46">
-        <f t="shared" ref="AC19:AC43" si="15">0.35*AD19</f>
+      <c r="AE19" s="46">
+        <f t="shared" ref="AE19:AE43" si="15">0.35*AF19</f>
         <v>1430.2574999999997</v>
       </c>
-      <c r="AD19" s="12">
-        <f>AD18*(1+$L$3)</f>
+      <c r="AF19" s="12">
+        <f>AF18*(1+$L$3)</f>
         <v>4086.4499999999994</v>
       </c>
-      <c r="AF19" s="4">
+      <c r="AH19" s="4">
         <v>2021</v>
       </c>
-      <c r="AG19" s="46">
-        <f t="shared" ref="AG19:AG43" si="16">0.15*AJ19</f>
+      <c r="AI19" s="46">
+        <f t="shared" ref="AI19:AI43" si="16">0.15*AL19</f>
         <v>904.16489999999988</v>
       </c>
-      <c r="AH19" s="46">
-        <f t="shared" ref="AH19:AH43" si="17">0.5*AJ19</f>
+      <c r="AJ19" s="46">
+        <f t="shared" ref="AJ19:AJ43" si="17">0.5*AL19</f>
         <v>3013.8829999999998</v>
       </c>
-      <c r="AI19" s="46">
-        <f t="shared" ref="AI19:AI43" si="18">0.35*AJ19</f>
+      <c r="AK19" s="46">
+        <f t="shared" ref="AK19:AK43" si="18">0.35*AL19</f>
         <v>2109.7180999999996</v>
       </c>
-      <c r="AJ19" s="12">
-        <f t="shared" ref="AJ19:AJ43" si="19">AJ18*(1+$L$3)</f>
+      <c r="AL19" s="12">
+        <f t="shared" ref="AL19:AL43" si="19">AL18*(1+$L$3)</f>
         <v>6027.7659999999996</v>
       </c>
-      <c r="AL19" s="4">
+      <c r="AN19" s="4">
         <v>2021</v>
       </c>
-      <c r="AM19" s="46">
-        <f t="shared" ref="AM19:AM43" si="20">0.15*AP19</f>
+      <c r="AO19" s="46">
+        <f t="shared" ref="AO19:AO43" si="20">0.15*AR19</f>
         <v>758.11214999999982</v>
       </c>
-      <c r="AN19" s="46">
-        <f t="shared" ref="AN19:AN43" si="21">0.5*AP19</f>
+      <c r="AP19" s="46">
+        <f t="shared" ref="AP19:AP43" si="21">0.5*AR19</f>
         <v>2527.0404999999996</v>
       </c>
-      <c r="AO19" s="46">
-        <f t="shared" ref="AO19:AO43" si="22">0.35*AP19</f>
+      <c r="AQ19" s="46">
+        <f t="shared" ref="AQ19:AQ43" si="22">0.35*AR19</f>
         <v>1768.9283499999997</v>
       </c>
-      <c r="AP19" s="12">
-        <f>AP18*(1+$L$3)</f>
+      <c r="AR19" s="12">
+        <f>AR18*(1+$L$3)</f>
         <v>5054.0809999999992</v>
       </c>
-      <c r="AR19" s="4">
+      <c r="AT19" s="4">
         <v>2021</v>
       </c>
-      <c r="AS19" s="46">
-        <f t="shared" ref="AS19:AS43" si="23">0.15*AV19</f>
+      <c r="AU19" s="46">
+        <f t="shared" ref="AU19:AU43" si="23">0.15*AX19</f>
         <v>659.73464999999999</v>
       </c>
-      <c r="AT19" s="46">
-        <f t="shared" ref="AT19:AT43" si="24">0.5*AV19</f>
+      <c r="AV19" s="46">
+        <f t="shared" ref="AV19:AV43" si="24">0.5*AX19</f>
         <v>2199.1154999999999</v>
       </c>
-      <c r="AU19" s="46">
-        <f t="shared" ref="AU19:AU43" si="25">0.35*AV19</f>
+      <c r="AW19" s="46">
+        <f t="shared" ref="AW19:AW43" si="25">0.35*AX19</f>
         <v>1539.3808499999998</v>
       </c>
-      <c r="AV19" s="12">
-        <f t="shared" ref="AV19:AV43" si="26">AV18*(1+$L$3)</f>
+      <c r="AX19" s="12">
+        <f t="shared" ref="AX19:AX43" si="26">AX18*(1+$L$3)</f>
         <v>4398.2309999999998</v>
       </c>
-      <c r="AX19" s="4">
+      <c r="AZ19" s="4">
         <v>2021</v>
       </c>
-      <c r="AY19" s="46">
-        <f t="shared" ref="AY19:AY43" si="27">0.15*BB19</f>
+      <c r="BA19" s="46">
+        <f t="shared" ref="BA19:BA43" si="27">0.15*BD19</f>
         <v>572.10299999999995</v>
       </c>
-      <c r="AZ19" s="46">
-        <f t="shared" ref="AZ19:AZ43" si="28">0.5*BB19</f>
+      <c r="BB19" s="46">
+        <f t="shared" ref="BB19:BB43" si="28">0.5*BD19</f>
         <v>1907.0099999999998</v>
       </c>
-      <c r="BA19" s="46">
-        <f t="shared" ref="BA19:BA43" si="29">0.35*BB19</f>
+      <c r="BC19" s="46">
+        <f t="shared" ref="BC19:BC43" si="29">0.35*BD19</f>
         <v>1334.9069999999997</v>
       </c>
-      <c r="BB19" s="12">
-        <f>BB18*(1+$L$3)</f>
+      <c r="BD19" s="12">
+        <f>BD18*(1+$L$3)</f>
         <v>3814.0199999999995</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>2022</v>
       </c>
@@ -2220,160 +2326,167 @@
         <f t="shared" si="0"/>
         <v>1472492.4805794277</v>
       </c>
-      <c r="H20" s="4">
+      <c r="G20" s="24">
+        <v>893.72712628574254</v>
+      </c>
+      <c r="H20" s="47">
+        <f t="shared" si="0"/>
+        <v>893727.1262857425</v>
+      </c>
+      <c r="J20" s="4">
         <v>2022</v>
       </c>
-      <c r="I20" s="46">
+      <c r="K20" s="46">
         <f t="shared" si="2"/>
         <v>641.08560569999975</v>
       </c>
-      <c r="J20" s="46">
+      <c r="L20" s="46">
         <f t="shared" si="3"/>
         <v>2136.9520189999994</v>
       </c>
-      <c r="K20" s="46">
+      <c r="M20" s="46">
         <f t="shared" si="4"/>
         <v>1495.8664132999995</v>
       </c>
-      <c r="L20" s="12">
+      <c r="N20" s="12">
         <f t="shared" si="5"/>
         <v>4273.9040379999988</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>2022</v>
       </c>
-      <c r="O20" s="46">
+      <c r="Q20" s="46">
         <f t="shared" si="6"/>
         <v>569.00547089999986</v>
       </c>
-      <c r="P20" s="46">
+      <c r="R20" s="46">
         <f t="shared" si="7"/>
         <v>1896.6849029999996</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="S20" s="46">
         <f t="shared" si="8"/>
         <v>1327.6794320999998</v>
       </c>
-      <c r="R20" s="12">
-        <f t="shared" ref="R20:R43" si="30">R19*(1+$L$3)</f>
+      <c r="T20" s="12">
+        <f t="shared" ref="T20:T43" si="30">T19*(1+$L$3)</f>
         <v>3793.3698059999992</v>
       </c>
-      <c r="T20" s="4">
+      <c r="V20" s="4">
         <v>2022</v>
       </c>
-      <c r="U20" s="46">
+      <c r="W20" s="46">
         <f t="shared" si="9"/>
         <v>727.67339474999983</v>
       </c>
-      <c r="V20" s="46">
+      <c r="X20" s="46">
         <f t="shared" si="10"/>
         <v>2425.5779824999995</v>
       </c>
-      <c r="W20" s="46">
+      <c r="Y20" s="46">
         <f t="shared" si="11"/>
         <v>1697.9045877499996</v>
       </c>
-      <c r="X20" s="12">
+      <c r="Z20" s="12">
         <f t="shared" si="12"/>
         <v>4851.155964999999</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="AB20" s="4">
         <v>2022</v>
       </c>
-      <c r="AA20" s="46">
+      <c r="AC20" s="46">
         <f t="shared" si="13"/>
         <v>618.4842074999998</v>
       </c>
-      <c r="AB20" s="46">
+      <c r="AD20" s="46">
         <f t="shared" si="14"/>
         <v>2061.6140249999994</v>
       </c>
-      <c r="AC20" s="46">
+      <c r="AE20" s="46">
         <f t="shared" si="15"/>
         <v>1443.1298174999995</v>
       </c>
-      <c r="AD20" s="12">
-        <f t="shared" ref="AD20:AD43" si="31">AD19*(1+$L$3)</f>
+      <c r="AF20" s="12">
+        <f t="shared" ref="AF20:AF43" si="31">AF19*(1+$L$3)</f>
         <v>4123.2280499999988</v>
       </c>
-      <c r="AF20" s="4">
+      <c r="AH20" s="4">
         <v>2022</v>
       </c>
-      <c r="AG20" s="46">
+      <c r="AI20" s="46">
         <f t="shared" si="16"/>
         <v>912.30238409999981</v>
       </c>
-      <c r="AH20" s="46">
+      <c r="AJ20" s="46">
         <f t="shared" si="17"/>
         <v>3041.0079469999996</v>
       </c>
-      <c r="AI20" s="46">
+      <c r="AK20" s="46">
         <f t="shared" si="18"/>
         <v>2128.7055628999997</v>
       </c>
-      <c r="AJ20" s="12">
+      <c r="AL20" s="12">
         <f t="shared" si="19"/>
         <v>6082.0158939999992</v>
       </c>
-      <c r="AL20" s="4">
+      <c r="AN20" s="4">
         <v>2022</v>
       </c>
-      <c r="AM20" s="46">
+      <c r="AO20" s="46">
         <f t="shared" si="20"/>
         <v>764.93515934999971</v>
       </c>
-      <c r="AN20" s="46">
+      <c r="AP20" s="46">
         <f t="shared" si="21"/>
         <v>2549.7838644999993</v>
       </c>
-      <c r="AO20" s="46">
+      <c r="AQ20" s="46">
         <f t="shared" si="22"/>
         <v>1784.8487051499994</v>
       </c>
-      <c r="AP20" s="12">
-        <f t="shared" ref="AP20:AP43" si="32">AP19*(1+$L$3)</f>
+      <c r="AR20" s="12">
+        <f t="shared" ref="AR20:AR43" si="32">AR19*(1+$L$3)</f>
         <v>5099.5677289999985</v>
       </c>
-      <c r="AR20" s="4">
+      <c r="AT20" s="4">
         <v>2022</v>
       </c>
-      <c r="AS20" s="46">
+      <c r="AU20" s="46">
         <f t="shared" si="23"/>
         <v>665.67226184999981</v>
       </c>
-      <c r="AT20" s="46">
+      <c r="AV20" s="46">
         <f t="shared" si="24"/>
         <v>2218.9075394999995</v>
       </c>
-      <c r="AU20" s="46">
+      <c r="AW20" s="46">
         <f t="shared" si="25"/>
         <v>1553.2352776499995</v>
       </c>
-      <c r="AV20" s="12">
+      <c r="AX20" s="12">
         <f t="shared" si="26"/>
         <v>4437.8150789999991</v>
       </c>
-      <c r="AX20" s="4">
+      <c r="AZ20" s="4">
         <v>2022</v>
       </c>
-      <c r="AY20" s="46">
+      <c r="BA20" s="46">
         <f t="shared" si="27"/>
         <v>577.2519269999998</v>
       </c>
-      <c r="AZ20" s="46">
+      <c r="BB20" s="46">
         <f t="shared" si="28"/>
         <v>1924.1730899999995</v>
       </c>
-      <c r="BA20" s="46">
+      <c r="BC20" s="46">
         <f t="shared" si="29"/>
         <v>1346.9211629999995</v>
       </c>
-      <c r="BB20" s="12">
-        <f t="shared" ref="BB20:BB43" si="33">BB19*(1+$L$3)</f>
+      <c r="BD20" s="12">
+        <f t="shared" ref="BD20:BD43" si="33">BD19*(1+$L$3)</f>
         <v>3848.3461799999991</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <v>2023</v>
       </c>
@@ -2391,160 +2504,167 @@
         <f t="shared" si="0"/>
         <v>1444969.2566433635</v>
       </c>
-      <c r="H21" s="4">
+      <c r="G21" s="24">
+        <v>880.18592163739925</v>
+      </c>
+      <c r="H21" s="47">
+        <f t="shared" si="0"/>
+        <v>880185.92163739924</v>
+      </c>
+      <c r="J21" s="4">
         <v>2023</v>
       </c>
-      <c r="I21" s="46">
+      <c r="K21" s="46">
         <f t="shared" si="2"/>
         <v>646.85537615129977</v>
       </c>
-      <c r="J21" s="46">
+      <c r="L21" s="46">
         <f t="shared" si="3"/>
         <v>2156.1845871709993</v>
       </c>
-      <c r="K21" s="46">
+      <c r="M21" s="46">
         <f t="shared" si="4"/>
         <v>1509.3292110196994</v>
       </c>
-      <c r="L21" s="12">
+      <c r="N21" s="12">
         <f t="shared" si="5"/>
         <v>4312.3691743419986</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>2023</v>
       </c>
-      <c r="O21" s="46">
+      <c r="Q21" s="46">
         <f t="shared" si="6"/>
         <v>574.12652013809975</v>
       </c>
-      <c r="P21" s="46">
+      <c r="R21" s="46">
         <f t="shared" si="7"/>
         <v>1913.7550671269994</v>
       </c>
-      <c r="Q21" s="46">
+      <c r="S21" s="46">
         <f t="shared" si="8"/>
         <v>1339.6285469888994</v>
       </c>
-      <c r="R21" s="12">
+      <c r="T21" s="12">
         <f t="shared" si="30"/>
         <v>3827.5101342539988</v>
       </c>
-      <c r="T21" s="4">
+      <c r="V21" s="4">
         <v>2023</v>
       </c>
-      <c r="U21" s="46">
+      <c r="W21" s="46">
         <f t="shared" si="9"/>
         <v>734.22245530274972</v>
       </c>
-      <c r="V21" s="46">
+      <c r="X21" s="46">
         <f t="shared" si="10"/>
         <v>2447.4081843424992</v>
       </c>
-      <c r="W21" s="46">
+      <c r="Y21" s="46">
         <f t="shared" si="11"/>
         <v>1713.1857290397493</v>
       </c>
-      <c r="X21" s="12">
+      <c r="Z21" s="12">
         <f t="shared" si="12"/>
         <v>4894.8163686849985</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="AB21" s="4">
         <v>2023</v>
       </c>
-      <c r="AA21" s="46">
+      <c r="AC21" s="46">
         <f t="shared" si="13"/>
         <v>624.05056536749976</v>
       </c>
-      <c r="AB21" s="46">
+      <c r="AD21" s="46">
         <f t="shared" si="14"/>
         <v>2080.1685512249992</v>
       </c>
-      <c r="AC21" s="46">
+      <c r="AE21" s="46">
         <f t="shared" si="15"/>
         <v>1456.1179858574994</v>
       </c>
-      <c r="AD21" s="12">
+      <c r="AF21" s="12">
         <f t="shared" si="31"/>
         <v>4160.3371024499984</v>
       </c>
-      <c r="AF21" s="4">
+      <c r="AH21" s="4">
         <v>2023</v>
       </c>
-      <c r="AG21" s="46">
+      <c r="AI21" s="46">
         <f t="shared" si="16"/>
         <v>920.51310555689975</v>
       </c>
-      <c r="AH21" s="46">
+      <c r="AJ21" s="46">
         <f t="shared" si="17"/>
         <v>3068.3770185229992</v>
       </c>
-      <c r="AI21" s="46">
+      <c r="AK21" s="46">
         <f t="shared" si="18"/>
         <v>2147.8639129660992</v>
       </c>
-      <c r="AJ21" s="12">
+      <c r="AL21" s="12">
         <f t="shared" si="19"/>
         <v>6136.7540370459983</v>
       </c>
-      <c r="AL21" s="4">
+      <c r="AN21" s="4">
         <v>2023</v>
       </c>
-      <c r="AM21" s="46">
+      <c r="AO21" s="46">
         <f t="shared" si="20"/>
         <v>771.81957578414961</v>
       </c>
-      <c r="AN21" s="46">
+      <c r="AP21" s="46">
         <f t="shared" si="21"/>
         <v>2572.7319192804989</v>
       </c>
-      <c r="AO21" s="46">
+      <c r="AQ21" s="46">
         <f t="shared" si="22"/>
         <v>1800.9123434963492</v>
       </c>
-      <c r="AP21" s="12">
+      <c r="AR21" s="12">
         <f t="shared" si="32"/>
         <v>5145.4638385609978</v>
       </c>
-      <c r="AR21" s="4">
+      <c r="AT21" s="4">
         <v>2023</v>
       </c>
-      <c r="AS21" s="46">
+      <c r="AU21" s="46">
         <f t="shared" si="23"/>
         <v>671.66331220664972</v>
       </c>
-      <c r="AT21" s="46">
+      <c r="AV21" s="46">
         <f t="shared" si="24"/>
         <v>2238.8777073554993</v>
       </c>
-      <c r="AU21" s="46">
+      <c r="AW21" s="46">
         <f t="shared" si="25"/>
         <v>1567.2143951488495</v>
       </c>
-      <c r="AV21" s="12">
+      <c r="AX21" s="12">
         <f t="shared" si="26"/>
         <v>4477.7554147109986</v>
       </c>
-      <c r="AX21" s="4">
+      <c r="AZ21" s="4">
         <v>2023</v>
       </c>
-      <c r="AY21" s="46">
+      <c r="BA21" s="46">
         <f t="shared" si="27"/>
         <v>582.44719434299975</v>
       </c>
-      <c r="AZ21" s="46">
+      <c r="BB21" s="46">
         <f t="shared" si="28"/>
         <v>1941.4906478099992</v>
       </c>
-      <c r="BA21" s="46">
+      <c r="BC21" s="46">
         <f t="shared" si="29"/>
         <v>1359.0434534669994</v>
       </c>
-      <c r="BB21" s="12">
+      <c r="BD21" s="12">
         <f t="shared" si="33"/>
         <v>3882.9812956199985</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <v>2024</v>
       </c>
@@ -2562,160 +2682,167 @@
         <f t="shared" si="0"/>
         <v>1417446.0327072993</v>
       </c>
-      <c r="H22" s="4">
+      <c r="G22" s="24">
+        <v>873.37252721787161</v>
+      </c>
+      <c r="H22" s="47">
+        <f t="shared" si="0"/>
+        <v>873372.52721787163</v>
+      </c>
+      <c r="J22" s="4">
         <v>2024</v>
       </c>
-      <c r="I22" s="46">
+      <c r="K22" s="46">
         <f t="shared" si="2"/>
         <v>652.67707453666139</v>
       </c>
-      <c r="J22" s="46">
+      <c r="L22" s="46">
         <f t="shared" si="3"/>
         <v>2175.5902484555381</v>
       </c>
-      <c r="K22" s="46">
+      <c r="M22" s="46">
         <f t="shared" si="4"/>
         <v>1522.9131739188765</v>
       </c>
-      <c r="L22" s="12">
+      <c r="N22" s="12">
         <f t="shared" si="5"/>
         <v>4351.1804969110763</v>
       </c>
-      <c r="N22" s="4">
+      <c r="P22" s="4">
         <v>2024</v>
       </c>
-      <c r="O22" s="46">
+      <c r="Q22" s="46">
         <f t="shared" si="6"/>
         <v>579.29365881934268</v>
       </c>
-      <c r="P22" s="46">
+      <c r="R22" s="46">
         <f t="shared" si="7"/>
         <v>1930.9788627311423</v>
       </c>
-      <c r="Q22" s="46">
+      <c r="S22" s="46">
         <f t="shared" si="8"/>
         <v>1351.6852039117996</v>
       </c>
-      <c r="R22" s="12">
+      <c r="T22" s="12">
         <f t="shared" si="30"/>
         <v>3861.9577254622845</v>
       </c>
-      <c r="T22" s="4">
+      <c r="V22" s="4">
         <v>2024</v>
       </c>
-      <c r="U22" s="46">
+      <c r="W22" s="46">
         <f t="shared" si="9"/>
         <v>740.83045740047453</v>
       </c>
-      <c r="V22" s="46">
+      <c r="X22" s="46">
         <f t="shared" si="10"/>
         <v>2469.4348580015817</v>
       </c>
-      <c r="W22" s="46">
+      <c r="Y22" s="46">
         <f t="shared" si="11"/>
         <v>1728.604400601107</v>
       </c>
-      <c r="X22" s="12">
+      <c r="Z22" s="12">
         <f t="shared" si="12"/>
         <v>4938.8697160031634</v>
       </c>
-      <c r="Z22" s="4">
+      <c r="AB22" s="4">
         <v>2024</v>
       </c>
-      <c r="AA22" s="46">
+      <c r="AC22" s="46">
         <f t="shared" si="13"/>
         <v>629.66702045580723</v>
       </c>
-      <c r="AB22" s="46">
+      <c r="AD22" s="46">
         <f t="shared" si="14"/>
         <v>2098.8900681860241</v>
       </c>
-      <c r="AC22" s="46">
+      <c r="AE22" s="46">
         <f t="shared" si="15"/>
         <v>1469.2230477302169</v>
       </c>
-      <c r="AD22" s="12">
+      <c r="AF22" s="12">
         <f t="shared" si="31"/>
         <v>4197.7801363720482</v>
       </c>
-      <c r="AF22" s="4">
+      <c r="AH22" s="4">
         <v>2024</v>
       </c>
-      <c r="AG22" s="46">
+      <c r="AI22" s="46">
         <f t="shared" si="16"/>
         <v>928.79772350691178</v>
       </c>
-      <c r="AH22" s="46">
+      <c r="AJ22" s="46">
         <f t="shared" si="17"/>
         <v>3095.9924116897059</v>
       </c>
-      <c r="AI22" s="46">
+      <c r="AK22" s="46">
         <f t="shared" si="18"/>
         <v>2167.1946881827939</v>
       </c>
-      <c r="AJ22" s="12">
+      <c r="AL22" s="12">
         <f t="shared" si="19"/>
         <v>6191.9848233794119</v>
       </c>
-      <c r="AL22" s="4">
+      <c r="AN22" s="4">
         <v>2024</v>
       </c>
-      <c r="AM22" s="46">
+      <c r="AO22" s="46">
         <f t="shared" si="20"/>
         <v>778.7659519662069</v>
       </c>
-      <c r="AN22" s="46">
+      <c r="AP22" s="46">
         <f t="shared" si="21"/>
         <v>2595.8865065540231</v>
       </c>
-      <c r="AO22" s="46">
+      <c r="AQ22" s="46">
         <f t="shared" si="22"/>
         <v>1817.1205545878161</v>
       </c>
-      <c r="AP22" s="12">
+      <c r="AR22" s="12">
         <f t="shared" si="32"/>
         <v>5191.7730131080461</v>
       </c>
-      <c r="AR22" s="4">
+      <c r="AT22" s="4">
         <v>2024</v>
       </c>
-      <c r="AS22" s="46">
+      <c r="AU22" s="46">
         <f t="shared" si="23"/>
         <v>677.70828201650954</v>
       </c>
-      <c r="AT22" s="46">
+      <c r="AV22" s="46">
         <f t="shared" si="24"/>
         <v>2259.0276067216987</v>
       </c>
-      <c r="AU22" s="46">
+      <c r="AW22" s="46">
         <f t="shared" si="25"/>
         <v>1581.319324705189</v>
       </c>
-      <c r="AV22" s="12">
+      <c r="AX22" s="12">
         <f t="shared" si="26"/>
         <v>4518.0552134433974</v>
       </c>
-      <c r="AX22" s="4">
+      <c r="AZ22" s="4">
         <v>2024</v>
       </c>
-      <c r="AY22" s="46">
+      <c r="BA22" s="46">
         <f t="shared" si="27"/>
         <v>587.68921909208666</v>
       </c>
-      <c r="AZ22" s="46">
+      <c r="BB22" s="46">
         <f t="shared" si="28"/>
         <v>1958.9640636402889</v>
       </c>
-      <c r="BA22" s="46">
+      <c r="BC22" s="46">
         <f t="shared" si="29"/>
         <v>1371.2748445482023</v>
       </c>
-      <c r="BB22" s="12">
+      <c r="BD22" s="12">
         <f t="shared" si="33"/>
         <v>3917.9281272805779</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <v>2025</v>
       </c>
@@ -2733,160 +2860,167 @@
         <f t="shared" si="0"/>
         <v>1389922.8087712352</v>
       </c>
-      <c r="H23" s="4">
+      <c r="G23" s="24">
+        <v>869.97090246570701</v>
+      </c>
+      <c r="H23" s="47">
+        <f t="shared" si="0"/>
+        <v>869970.90246570704</v>
+      </c>
+      <c r="J23" s="4">
         <v>2025</v>
       </c>
-      <c r="I23" s="46">
+      <c r="K23" s="46">
         <f t="shared" si="2"/>
         <v>658.55116820749129</v>
       </c>
-      <c r="J23" s="46">
+      <c r="L23" s="46">
         <f t="shared" si="3"/>
         <v>2195.1705606916375</v>
       </c>
-      <c r="K23" s="46">
+      <c r="M23" s="46">
         <f t="shared" si="4"/>
         <v>1536.6193924841461</v>
       </c>
-      <c r="L23" s="12">
+      <c r="N23" s="12">
         <f t="shared" si="5"/>
         <v>4390.3411213832751</v>
       </c>
-      <c r="N23" s="4">
+      <c r="P23" s="4">
         <v>2025</v>
       </c>
-      <c r="O23" s="46">
+      <c r="Q23" s="46">
         <f t="shared" si="6"/>
         <v>584.50730174871671</v>
       </c>
-      <c r="P23" s="46">
+      <c r="R23" s="46">
         <f t="shared" si="7"/>
         <v>1948.3576724957225</v>
       </c>
-      <c r="Q23" s="46">
+      <c r="S23" s="46">
         <f t="shared" si="8"/>
         <v>1363.8503707470056</v>
       </c>
-      <c r="R23" s="12">
+      <c r="T23" s="12">
         <f t="shared" si="30"/>
         <v>3896.7153449914449</v>
       </c>
-      <c r="T23" s="4">
+      <c r="V23" s="4">
         <v>2025</v>
       </c>
-      <c r="U23" s="46">
+      <c r="W23" s="46">
         <f t="shared" si="9"/>
         <v>747.49793151707877</v>
       </c>
-      <c r="V23" s="46">
+      <c r="X23" s="46">
         <f t="shared" si="10"/>
         <v>2491.6597717235959</v>
       </c>
-      <c r="W23" s="46">
+      <c r="Y23" s="46">
         <f t="shared" si="11"/>
         <v>1744.1618402065171</v>
       </c>
-      <c r="X23" s="12">
+      <c r="Z23" s="12">
         <f t="shared" si="12"/>
         <v>4983.3195434471918</v>
       </c>
-      <c r="Z23" s="4">
+      <c r="AB23" s="4">
         <v>2025</v>
       </c>
-      <c r="AA23" s="46">
+      <c r="AC23" s="46">
         <f t="shared" si="13"/>
         <v>635.33402363990933</v>
       </c>
-      <c r="AB23" s="46">
+      <c r="AD23" s="46">
         <f t="shared" si="14"/>
         <v>2117.780078799698</v>
       </c>
-      <c r="AC23" s="46">
+      <c r="AE23" s="46">
         <f t="shared" si="15"/>
         <v>1482.4460551597886</v>
       </c>
-      <c r="AD23" s="12">
+      <c r="AF23" s="12">
         <f t="shared" si="31"/>
         <v>4235.560157599396</v>
       </c>
-      <c r="AF23" s="4">
+      <c r="AH23" s="4">
         <v>2025</v>
       </c>
-      <c r="AG23" s="46">
+      <c r="AI23" s="46">
         <f t="shared" si="16"/>
         <v>937.15690301847383</v>
       </c>
-      <c r="AH23" s="46">
+      <c r="AJ23" s="46">
         <f t="shared" si="17"/>
         <v>3123.856343394913</v>
       </c>
-      <c r="AI23" s="46">
+      <c r="AK23" s="46">
         <f t="shared" si="18"/>
         <v>2186.6994403764388</v>
       </c>
-      <c r="AJ23" s="12">
+      <c r="AL23" s="12">
         <f t="shared" si="19"/>
         <v>6247.712686789826</v>
       </c>
-      <c r="AL23" s="4">
+      <c r="AN23" s="4">
         <v>2025</v>
       </c>
-      <c r="AM23" s="46">
+      <c r="AO23" s="46">
         <f t="shared" si="20"/>
         <v>785.77484553390275</v>
       </c>
-      <c r="AN23" s="46">
+      <c r="AP23" s="46">
         <f t="shared" si="21"/>
         <v>2619.2494851130091</v>
       </c>
-      <c r="AO23" s="46">
+      <c r="AQ23" s="46">
         <f t="shared" si="22"/>
         <v>1833.4746395791062</v>
       </c>
-      <c r="AP23" s="12">
+      <c r="AR23" s="12">
         <f t="shared" si="32"/>
         <v>5238.4989702260182</v>
       </c>
-      <c r="AR23" s="4">
+      <c r="AT23" s="4">
         <v>2025</v>
       </c>
-      <c r="AS23" s="46">
+      <c r="AU23" s="46">
         <f t="shared" si="23"/>
         <v>683.80765655465802</v>
       </c>
-      <c r="AT23" s="46">
+      <c r="AV23" s="46">
         <f t="shared" si="24"/>
         <v>2279.3588551821936</v>
       </c>
-      <c r="AU23" s="46">
+      <c r="AW23" s="46">
         <f t="shared" si="25"/>
         <v>1595.5511986275353</v>
       </c>
-      <c r="AV23" s="12">
+      <c r="AX23" s="12">
         <f t="shared" si="26"/>
         <v>4558.7177103643871</v>
       </c>
-      <c r="AX23" s="4">
+      <c r="AZ23" s="4">
         <v>2025</v>
       </c>
-      <c r="AY23" s="46">
+      <c r="BA23" s="46">
         <f t="shared" si="27"/>
         <v>592.97842206391545</v>
       </c>
-      <c r="AZ23" s="46">
+      <c r="BB23" s="46">
         <f t="shared" si="28"/>
         <v>1976.5947402130514</v>
       </c>
-      <c r="BA23" s="46">
+      <c r="BC23" s="46">
         <f t="shared" si="29"/>
         <v>1383.6163181491359</v>
       </c>
-      <c r="BB23" s="12">
+      <c r="BD23" s="12">
         <f t="shared" si="33"/>
         <v>3953.1894804261028</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <v>2026</v>
       </c>
@@ -2904,160 +3038,167 @@
         <f t="shared" si="0"/>
         <v>1362399.584835171</v>
       </c>
-      <c r="H24" s="4">
+      <c r="G24" s="24">
+        <v>866.49936934831635</v>
+      </c>
+      <c r="H24" s="47">
+        <f t="shared" si="0"/>
+        <v>866499.36934831634</v>
+      </c>
+      <c r="J24" s="4">
         <v>2026</v>
       </c>
-      <c r="I24" s="46">
+      <c r="K24" s="46">
         <f t="shared" si="2"/>
         <v>664.47812872135864</v>
       </c>
-      <c r="J24" s="46">
+      <c r="L24" s="46">
         <f t="shared" si="3"/>
         <v>2214.9270957378621</v>
       </c>
-      <c r="K24" s="46">
+      <c r="M24" s="46">
         <f t="shared" si="4"/>
         <v>1550.4489670165035</v>
       </c>
-      <c r="L24" s="12">
+      <c r="N24" s="12">
         <f t="shared" si="5"/>
         <v>4429.8541914757243</v>
       </c>
-      <c r="N24" s="4">
+      <c r="P24" s="4">
         <v>2026</v>
       </c>
-      <c r="O24" s="46">
+      <c r="Q24" s="46">
         <f t="shared" si="6"/>
         <v>589.76786746445509</v>
       </c>
-      <c r="P24" s="46">
+      <c r="R24" s="46">
         <f t="shared" si="7"/>
         <v>1965.8928915481838</v>
       </c>
-      <c r="Q24" s="46">
+      <c r="S24" s="46">
         <f t="shared" si="8"/>
         <v>1376.1250240837285</v>
       </c>
-      <c r="R24" s="12">
+      <c r="T24" s="12">
         <f t="shared" si="30"/>
         <v>3931.7857830963676</v>
       </c>
-      <c r="T24" s="4">
+      <c r="V24" s="4">
         <v>2026</v>
       </c>
-      <c r="U24" s="46">
+      <c r="W24" s="46">
         <f t="shared" si="9"/>
         <v>754.22541290073241</v>
       </c>
-      <c r="V24" s="46">
+      <c r="X24" s="46">
         <f t="shared" si="10"/>
         <v>2514.0847096691082</v>
       </c>
-      <c r="W24" s="46">
+      <c r="Y24" s="46">
         <f t="shared" si="11"/>
         <v>1759.8592967683755</v>
       </c>
-      <c r="X24" s="12">
+      <c r="Z24" s="12">
         <f t="shared" si="12"/>
         <v>5028.1694193382164</v>
       </c>
-      <c r="Z24" s="4">
+      <c r="AB24" s="4">
         <v>2026</v>
       </c>
-      <c r="AA24" s="46">
+      <c r="AC24" s="46">
         <f t="shared" si="13"/>
         <v>641.05202985266851</v>
       </c>
-      <c r="AB24" s="46">
+      <c r="AD24" s="46">
         <f t="shared" si="14"/>
         <v>2136.840099508895</v>
       </c>
-      <c r="AC24" s="46">
+      <c r="AE24" s="46">
         <f t="shared" si="15"/>
         <v>1495.7880696562265</v>
       </c>
-      <c r="AD24" s="12">
+      <c r="AF24" s="12">
         <f t="shared" si="31"/>
         <v>4273.6801990177901</v>
       </c>
-      <c r="AF24" s="4">
+      <c r="AH24" s="4">
         <v>2026</v>
       </c>
-      <c r="AG24" s="46">
+      <c r="AI24" s="46">
         <f t="shared" si="16"/>
         <v>945.59131514564001</v>
       </c>
-      <c r="AH24" s="46">
+      <c r="AJ24" s="46">
         <f t="shared" si="17"/>
         <v>3151.971050485467</v>
       </c>
-      <c r="AI24" s="46">
+      <c r="AK24" s="46">
         <f t="shared" si="18"/>
         <v>2206.3797353398268</v>
       </c>
-      <c r="AJ24" s="12">
+      <c r="AL24" s="12">
         <f t="shared" si="19"/>
         <v>6303.942100970934</v>
       </c>
-      <c r="AL24" s="4">
+      <c r="AN24" s="4">
         <v>2026</v>
       </c>
-      <c r="AM24" s="46">
+      <c r="AO24" s="46">
         <f t="shared" si="20"/>
         <v>792.84681914370765</v>
       </c>
-      <c r="AN24" s="46">
+      <c r="AP24" s="46">
         <f t="shared" si="21"/>
         <v>2642.8227304790257</v>
       </c>
-      <c r="AO24" s="46">
+      <c r="AQ24" s="46">
         <f t="shared" si="22"/>
         <v>1849.975911335318</v>
       </c>
-      <c r="AP24" s="12">
+      <c r="AR24" s="12">
         <f t="shared" si="32"/>
         <v>5285.6454609580514</v>
       </c>
-      <c r="AR24" s="4">
+      <c r="AT24" s="4">
         <v>2026</v>
       </c>
-      <c r="AS24" s="46">
+      <c r="AU24" s="46">
         <f t="shared" si="23"/>
         <v>689.96192546364989</v>
       </c>
-      <c r="AT24" s="46">
+      <c r="AV24" s="46">
         <f t="shared" si="24"/>
         <v>2299.8730848788332</v>
       </c>
-      <c r="AU24" s="46">
+      <c r="AW24" s="46">
         <f t="shared" si="25"/>
         <v>1609.9111594151832</v>
       </c>
-      <c r="AV24" s="12">
+      <c r="AX24" s="12">
         <f t="shared" si="26"/>
         <v>4599.7461697576664</v>
       </c>
-      <c r="AX24" s="4">
+      <c r="AZ24" s="4">
         <v>2026</v>
       </c>
-      <c r="AY24" s="46">
+      <c r="BA24" s="46">
         <f t="shared" si="27"/>
         <v>598.31522786249059</v>
       </c>
-      <c r="AZ24" s="46">
+      <c r="BB24" s="46">
         <f t="shared" si="28"/>
         <v>1994.3840928749687</v>
       </c>
-      <c r="BA24" s="46">
+      <c r="BC24" s="46">
         <f t="shared" si="29"/>
         <v>1396.068865012478</v>
       </c>
-      <c r="BB24" s="12">
+      <c r="BD24" s="12">
         <f t="shared" si="33"/>
         <v>3988.7681857499374</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <v>2027</v>
       </c>
@@ -3075,160 +3216,167 @@
         <f t="shared" si="0"/>
         <v>1334876.3608991071</v>
       </c>
-      <c r="H25" s="4">
+      <c r="G25" s="24">
+        <v>862.84046715502154</v>
+      </c>
+      <c r="H25" s="47">
+        <f t="shared" si="0"/>
+        <v>862840.4671550215</v>
+      </c>
+      <c r="J25" s="4">
         <v>2027</v>
       </c>
-      <c r="I25" s="46">
+      <c r="K25" s="46">
         <f t="shared" si="2"/>
         <v>670.45843187985076</v>
       </c>
-      <c r="J25" s="46">
+      <c r="L25" s="46">
         <f t="shared" si="3"/>
         <v>2234.8614395995028</v>
       </c>
-      <c r="K25" s="46">
+      <c r="M25" s="46">
         <f t="shared" si="4"/>
         <v>1564.4030077196519</v>
       </c>
-      <c r="L25" s="12">
+      <c r="N25" s="12">
         <f t="shared" si="5"/>
         <v>4469.7228791990055</v>
       </c>
-      <c r="N25" s="4">
+      <c r="P25" s="4">
         <v>2027</v>
       </c>
-      <c r="O25" s="46">
+      <c r="Q25" s="46">
         <f t="shared" si="6"/>
         <v>595.07577827163516</v>
       </c>
-      <c r="P25" s="46">
+      <c r="R25" s="46">
         <f t="shared" si="7"/>
         <v>1983.5859275721173</v>
       </c>
-      <c r="Q25" s="46">
+      <c r="S25" s="46">
         <f t="shared" si="8"/>
         <v>1388.510149300482</v>
       </c>
-      <c r="R25" s="12">
+      <c r="T25" s="12">
         <f t="shared" si="30"/>
         <v>3967.1718551442345</v>
       </c>
-      <c r="T25" s="4">
+      <c r="V25" s="4">
         <v>2027</v>
       </c>
-      <c r="U25" s="46">
+      <c r="W25" s="46">
         <f t="shared" si="9"/>
         <v>761.01344161683892</v>
       </c>
-      <c r="V25" s="46">
+      <c r="X25" s="46">
         <f t="shared" si="10"/>
         <v>2536.7114720561299</v>
       </c>
-      <c r="W25" s="46">
+      <c r="Y25" s="46">
         <f t="shared" si="11"/>
         <v>1775.6980304392907</v>
       </c>
-      <c r="X25" s="12">
+      <c r="Z25" s="12">
         <f t="shared" si="12"/>
         <v>5073.4229441122598</v>
       </c>
-      <c r="Z25" s="4">
+      <c r="AB25" s="4">
         <v>2027</v>
       </c>
-      <c r="AA25" s="46">
+      <c r="AC25" s="46">
         <f t="shared" si="13"/>
         <v>646.82149812134253</v>
       </c>
-      <c r="AB25" s="46">
+      <c r="AD25" s="46">
         <f t="shared" si="14"/>
         <v>2156.0716604044751</v>
       </c>
-      <c r="AC25" s="46">
+      <c r="AE25" s="46">
         <f t="shared" si="15"/>
         <v>1509.2501622831326</v>
       </c>
-      <c r="AD25" s="12">
+      <c r="AF25" s="12">
         <f t="shared" si="31"/>
         <v>4312.1433208089502</v>
       </c>
-      <c r="AF25" s="4">
+      <c r="AH25" s="4">
         <v>2027</v>
       </c>
-      <c r="AG25" s="46">
+      <c r="AI25" s="46">
         <f t="shared" si="16"/>
         <v>954.10163698195072</v>
       </c>
-      <c r="AH25" s="46">
+      <c r="AJ25" s="46">
         <f t="shared" si="17"/>
         <v>3180.3387899398358</v>
       </c>
-      <c r="AI25" s="46">
+      <c r="AK25" s="46">
         <f t="shared" si="18"/>
         <v>2226.237152957885</v>
       </c>
-      <c r="AJ25" s="12">
+      <c r="AL25" s="12">
         <f t="shared" si="19"/>
         <v>6360.6775798796716</v>
       </c>
-      <c r="AL25" s="4">
+      <c r="AN25" s="4">
         <v>2027</v>
       </c>
-      <c r="AM25" s="46">
+      <c r="AO25" s="46">
         <f t="shared" si="20"/>
         <v>799.98244051600102</v>
       </c>
-      <c r="AN25" s="46">
+      <c r="AP25" s="46">
         <f t="shared" si="21"/>
         <v>2666.6081350533368</v>
       </c>
-      <c r="AO25" s="46">
+      <c r="AQ25" s="46">
         <f t="shared" si="22"/>
         <v>1866.6256945373357</v>
       </c>
-      <c r="AP25" s="12">
+      <c r="AR25" s="12">
         <f t="shared" si="32"/>
         <v>5333.2162701066736</v>
       </c>
-      <c r="AR25" s="4">
+      <c r="AT25" s="4">
         <v>2027</v>
       </c>
-      <c r="AS25" s="46">
+      <c r="AU25" s="46">
         <f t="shared" si="23"/>
         <v>696.17158279282273</v>
       </c>
-      <c r="AT25" s="46">
+      <c r="AV25" s="46">
         <f t="shared" si="24"/>
         <v>2320.5719426427427</v>
       </c>
-      <c r="AU25" s="46">
+      <c r="AW25" s="46">
         <f t="shared" si="25"/>
         <v>1624.4003598499198</v>
       </c>
-      <c r="AV25" s="12">
+      <c r="AX25" s="12">
         <f t="shared" si="26"/>
         <v>4641.1438852854853</v>
       </c>
-      <c r="AX25" s="4">
+      <c r="AZ25" s="4">
         <v>2027</v>
       </c>
-      <c r="AY25" s="46">
+      <c r="BA25" s="46">
         <f t="shared" si="27"/>
         <v>603.70006491325296</v>
       </c>
-      <c r="AZ25" s="46">
+      <c r="BB25" s="46">
         <f t="shared" si="28"/>
         <v>2012.3335497108433</v>
       </c>
-      <c r="BA25" s="46">
+      <c r="BC25" s="46">
         <f t="shared" si="29"/>
         <v>1408.6334847975902</v>
       </c>
-      <c r="BB25" s="12">
+      <c r="BD25" s="12">
         <f t="shared" si="33"/>
         <v>4024.6670994216865</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <v>2028</v>
       </c>
@@ -3246,160 +3394,167 @@
         <f t="shared" si="0"/>
         <v>1307353.1369630429</v>
       </c>
-      <c r="H26" s="4">
+      <c r="G26" s="24">
+        <v>859.70988833130775</v>
+      </c>
+      <c r="H26" s="47">
+        <f t="shared" si="0"/>
+        <v>859709.8883313078</v>
+      </c>
+      <c r="J26" s="4">
         <v>2028</v>
       </c>
-      <c r="I26" s="46">
+      <c r="K26" s="46">
         <f t="shared" si="2"/>
         <v>676.49255776676944</v>
       </c>
-      <c r="J26" s="46">
+      <c r="L26" s="46">
         <f t="shared" si="3"/>
         <v>2254.975192555898</v>
       </c>
-      <c r="K26" s="46">
+      <c r="M26" s="46">
         <f t="shared" si="4"/>
         <v>1578.4826347891285</v>
       </c>
-      <c r="L26" s="12">
+      <c r="N26" s="12">
         <f t="shared" si="5"/>
         <v>4509.9503851117961</v>
       </c>
-      <c r="N26" s="4">
+      <c r="P26" s="4">
         <v>2028</v>
       </c>
-      <c r="O26" s="46">
+      <c r="Q26" s="46">
         <f t="shared" si="6"/>
         <v>600.43146027607986</v>
       </c>
-      <c r="P26" s="46">
+      <c r="R26" s="46">
         <f t="shared" si="7"/>
         <v>2001.4382009202661</v>
       </c>
-      <c r="Q26" s="46">
+      <c r="S26" s="46">
         <f t="shared" si="8"/>
         <v>1401.0067406441863</v>
       </c>
-      <c r="R26" s="12">
+      <c r="T26" s="12">
         <f t="shared" si="30"/>
         <v>4002.8764018405323</v>
       </c>
-      <c r="T26" s="4">
+      <c r="V26" s="4">
         <v>2028</v>
       </c>
-      <c r="U26" s="46">
+      <c r="W26" s="46">
         <f t="shared" si="9"/>
         <v>767.86256259139043</v>
       </c>
-      <c r="V26" s="46">
+      <c r="X26" s="46">
         <f t="shared" si="10"/>
         <v>2559.5418753046347</v>
       </c>
-      <c r="W26" s="46">
+      <c r="Y26" s="46">
         <f t="shared" si="11"/>
         <v>1791.6793127132441</v>
       </c>
-      <c r="X26" s="12">
+      <c r="Z26" s="12">
         <f t="shared" si="12"/>
         <v>5119.0837506092694</v>
       </c>
-      <c r="Z26" s="4">
+      <c r="AB26" s="4">
         <v>2028</v>
       </c>
-      <c r="AA26" s="46">
+      <c r="AC26" s="46">
         <f t="shared" si="13"/>
         <v>652.64289160443457</v>
       </c>
-      <c r="AB26" s="46">
+      <c r="AD26" s="46">
         <f t="shared" si="14"/>
         <v>2175.4763053481151</v>
       </c>
-      <c r="AC26" s="46">
+      <c r="AE26" s="46">
         <f t="shared" si="15"/>
         <v>1522.8334137436805</v>
       </c>
-      <c r="AD26" s="12">
+      <c r="AF26" s="12">
         <f t="shared" si="31"/>
         <v>4350.9526106962303</v>
       </c>
-      <c r="AF26" s="4">
+      <c r="AH26" s="4">
         <v>2028</v>
       </c>
-      <c r="AG26" s="46">
+      <c r="AI26" s="46">
         <f t="shared" si="16"/>
         <v>962.68855171478822</v>
       </c>
-      <c r="AH26" s="46">
+      <c r="AJ26" s="46">
         <f t="shared" si="17"/>
         <v>3208.9618390492942</v>
       </c>
-      <c r="AI26" s="46">
+      <c r="AK26" s="46">
         <f t="shared" si="18"/>
         <v>2246.2732873345058</v>
       </c>
-      <c r="AJ26" s="12">
+      <c r="AL26" s="12">
         <f t="shared" si="19"/>
         <v>6417.9236780985884</v>
       </c>
-      <c r="AL26" s="4">
+      <c r="AN26" s="4">
         <v>2028</v>
       </c>
-      <c r="AM26" s="46">
+      <c r="AO26" s="46">
         <f t="shared" si="20"/>
         <v>807.18228248064486</v>
       </c>
-      <c r="AN26" s="46">
+      <c r="AP26" s="46">
         <f t="shared" si="21"/>
         <v>2690.6076082688164</v>
       </c>
-      <c r="AO26" s="46">
+      <c r="AQ26" s="46">
         <f t="shared" si="22"/>
         <v>1883.4253257881714</v>
       </c>
-      <c r="AP26" s="12">
+      <c r="AR26" s="12">
         <f t="shared" si="32"/>
         <v>5381.2152165376328</v>
       </c>
-      <c r="AR26" s="4">
+      <c r="AT26" s="4">
         <v>2028</v>
       </c>
-      <c r="AS26" s="46">
+      <c r="AU26" s="46">
         <f t="shared" si="23"/>
         <v>702.43712703795802</v>
       </c>
-      <c r="AT26" s="46">
+      <c r="AV26" s="46">
         <f t="shared" si="24"/>
         <v>2341.457090126527</v>
       </c>
-      <c r="AU26" s="46">
+      <c r="AW26" s="46">
         <f t="shared" si="25"/>
         <v>1639.0199630885688</v>
       </c>
-      <c r="AV26" s="12">
+      <c r="AX26" s="12">
         <f t="shared" si="26"/>
         <v>4682.9141802530539</v>
       </c>
-      <c r="AX26" s="4">
+      <c r="AZ26" s="4">
         <v>2028</v>
       </c>
-      <c r="AY26" s="46">
+      <c r="BA26" s="46">
         <f t="shared" si="27"/>
         <v>609.13336549747214</v>
       </c>
-      <c r="AZ26" s="46">
+      <c r="BB26" s="46">
         <f t="shared" si="28"/>
         <v>2030.4445516582407</v>
       </c>
-      <c r="BA26" s="46">
+      <c r="BC26" s="46">
         <f t="shared" si="29"/>
         <v>1421.3111861607683</v>
       </c>
-      <c r="BB26" s="12">
+      <c r="BD26" s="12">
         <f t="shared" si="33"/>
         <v>4060.8891033164814</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <v>2029</v>
       </c>
@@ -3417,160 +3572,167 @@
         <f t="shared" si="0"/>
         <v>1279829.913026979</v>
       </c>
-      <c r="H27" s="4">
+      <c r="G27" s="24">
+        <v>854.82272240253508</v>
+      </c>
+      <c r="H27" s="47">
+        <f t="shared" si="0"/>
+        <v>854822.72240253503</v>
+      </c>
+      <c r="J27" s="4">
         <v>2029</v>
       </c>
-      <c r="I27" s="46">
+      <c r="K27" s="46">
         <f t="shared" si="2"/>
         <v>682.58099078667021</v>
       </c>
-      <c r="J27" s="46">
+      <c r="L27" s="46">
         <f t="shared" si="3"/>
         <v>2275.2699692889009</v>
       </c>
-      <c r="K27" s="46">
+      <c r="M27" s="46">
         <f t="shared" si="4"/>
         <v>1592.6889785022306</v>
       </c>
-      <c r="L27" s="12">
+      <c r="N27" s="12">
         <f t="shared" si="5"/>
         <v>4550.5399385778019</v>
       </c>
-      <c r="N27" s="4">
+      <c r="P27" s="4">
         <v>2029</v>
       </c>
-      <c r="O27" s="46">
+      <c r="Q27" s="46">
         <f t="shared" si="6"/>
         <v>605.83534341856443</v>
       </c>
-      <c r="P27" s="46">
+      <c r="R27" s="46">
         <f t="shared" si="7"/>
         <v>2019.4511447285483</v>
       </c>
-      <c r="Q27" s="46">
+      <c r="S27" s="46">
         <f t="shared" si="8"/>
         <v>1413.6158013099837</v>
       </c>
-      <c r="R27" s="12">
+      <c r="T27" s="12">
         <f t="shared" si="30"/>
         <v>4038.9022894570967</v>
       </c>
-      <c r="T27" s="4">
+      <c r="V27" s="4">
         <v>2029</v>
       </c>
-      <c r="U27" s="46">
+      <c r="W27" s="46">
         <f t="shared" si="9"/>
         <v>774.77332565471283</v>
       </c>
-      <c r="V27" s="46">
+      <c r="X27" s="46">
         <f t="shared" si="10"/>
         <v>2582.5777521823761</v>
       </c>
-      <c r="W27" s="46">
+      <c r="Y27" s="46">
         <f t="shared" si="11"/>
         <v>1807.8044265276631</v>
       </c>
-      <c r="X27" s="12">
+      <c r="Z27" s="12">
         <f t="shared" si="12"/>
         <v>5165.1555043647522</v>
       </c>
-      <c r="Z27" s="4">
+      <c r="AB27" s="4">
         <v>2029</v>
       </c>
-      <c r="AA27" s="46">
+      <c r="AC27" s="46">
         <f t="shared" si="13"/>
         <v>658.51667762887439</v>
       </c>
-      <c r="AB27" s="46">
+      <c r="AD27" s="46">
         <f t="shared" si="14"/>
         <v>2195.0555920962479</v>
       </c>
-      <c r="AC27" s="46">
+      <c r="AE27" s="46">
         <f t="shared" si="15"/>
         <v>1536.5389144673734</v>
       </c>
-      <c r="AD27" s="12">
+      <c r="AF27" s="12">
         <f t="shared" si="31"/>
         <v>4390.1111841924958</v>
       </c>
-      <c r="AF27" s="4">
+      <c r="AH27" s="4">
         <v>2029</v>
       </c>
-      <c r="AG27" s="46">
+      <c r="AI27" s="46">
         <f t="shared" si="16"/>
         <v>971.35274868022123</v>
       </c>
-      <c r="AH27" s="46">
+      <c r="AJ27" s="46">
         <f t="shared" si="17"/>
         <v>3237.8424956007375</v>
       </c>
-      <c r="AI27" s="46">
+      <c r="AK27" s="46">
         <f t="shared" si="18"/>
         <v>2266.4897469205162</v>
       </c>
-      <c r="AJ27" s="12">
+      <c r="AL27" s="12">
         <f t="shared" si="19"/>
         <v>6475.684991201475</v>
       </c>
-      <c r="AL27" s="4">
+      <c r="AN27" s="4">
         <v>2029</v>
       </c>
-      <c r="AM27" s="46">
+      <c r="AO27" s="46">
         <f t="shared" si="20"/>
         <v>814.44692302297062</v>
       </c>
-      <c r="AN27" s="46">
+      <c r="AP27" s="46">
         <f t="shared" si="21"/>
         <v>2714.8230767432356</v>
       </c>
-      <c r="AO27" s="46">
+      <c r="AQ27" s="46">
         <f t="shared" si="22"/>
         <v>1900.3761537202647</v>
       </c>
-      <c r="AP27" s="12">
+      <c r="AR27" s="12">
         <f t="shared" si="32"/>
         <v>5429.6461534864711</v>
       </c>
-      <c r="AR27" s="4">
+      <c r="AT27" s="4">
         <v>2029</v>
       </c>
-      <c r="AS27" s="46">
+      <c r="AU27" s="46">
         <f t="shared" si="23"/>
         <v>708.75906118129967</v>
       </c>
-      <c r="AT27" s="46">
+      <c r="AV27" s="46">
         <f t="shared" si="24"/>
         <v>2362.5302039376656</v>
       </c>
-      <c r="AU27" s="46">
+      <c r="AW27" s="46">
         <f t="shared" si="25"/>
         <v>1653.7711427563659</v>
       </c>
-      <c r="AV27" s="12">
+      <c r="AX27" s="12">
         <f t="shared" si="26"/>
         <v>4725.0604078753313</v>
       </c>
-      <c r="AX27" s="4">
+      <c r="AZ27" s="4">
         <v>2029</v>
       </c>
-      <c r="AY27" s="46">
+      <c r="BA27" s="46">
         <f t="shared" si="27"/>
         <v>614.61556578694933</v>
       </c>
-      <c r="AZ27" s="46">
+      <c r="BB27" s="46">
         <f t="shared" si="28"/>
         <v>2048.7185526231647</v>
       </c>
-      <c r="BA27" s="46">
+      <c r="BC27" s="46">
         <f t="shared" si="29"/>
         <v>1434.1029868362152</v>
       </c>
-      <c r="BB27" s="12">
+      <c r="BD27" s="12">
         <f t="shared" si="33"/>
         <v>4097.4371052463293</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <v>2030</v>
       </c>
@@ -3588,160 +3750,167 @@
         <f t="shared" si="0"/>
         <v>1252306.689090915</v>
       </c>
-      <c r="H28" s="4">
+      <c r="G28" s="24">
+        <v>852.04941188846919</v>
+      </c>
+      <c r="H28" s="47">
+        <f t="shared" si="0"/>
+        <v>852049.41188846924</v>
+      </c>
+      <c r="J28" s="4">
         <v>2030</v>
       </c>
-      <c r="I28" s="46">
+      <c r="K28" s="46">
         <f t="shared" si="2"/>
         <v>688.72421970375024</v>
       </c>
-      <c r="J28" s="46">
+      <c r="L28" s="46">
         <f t="shared" si="3"/>
         <v>2295.7473990125009</v>
       </c>
-      <c r="K28" s="46">
+      <c r="M28" s="46">
         <f t="shared" si="4"/>
         <v>1607.0231793087505</v>
       </c>
-      <c r="L28" s="12">
+      <c r="N28" s="12">
         <f t="shared" si="5"/>
         <v>4591.4947980250017</v>
       </c>
-      <c r="N28" s="4">
+      <c r="P28" s="4">
         <v>2030</v>
       </c>
-      <c r="O28" s="46">
+      <c r="Q28" s="46">
         <f t="shared" si="6"/>
         <v>611.28786150933149</v>
       </c>
-      <c r="P28" s="46">
+      <c r="R28" s="46">
         <f t="shared" si="7"/>
         <v>2037.626205031105</v>
       </c>
-      <c r="Q28" s="46">
+      <c r="S28" s="46">
         <f t="shared" si="8"/>
         <v>1426.3383435217734</v>
       </c>
-      <c r="R28" s="12">
+      <c r="T28" s="12">
         <f t="shared" si="30"/>
         <v>4075.2524100622099</v>
       </c>
-      <c r="T28" s="4">
+      <c r="V28" s="4">
         <v>2030</v>
       </c>
-      <c r="U28" s="46">
+      <c r="W28" s="46">
         <f t="shared" si="9"/>
         <v>781.74628558560516</v>
       </c>
-      <c r="V28" s="46">
+      <c r="X28" s="46">
         <f t="shared" si="10"/>
         <v>2605.8209519520174</v>
       </c>
-      <c r="W28" s="46">
+      <c r="Y28" s="46">
         <f t="shared" si="11"/>
         <v>1824.074666366412</v>
       </c>
-      <c r="X28" s="12">
+      <c r="Z28" s="12">
         <f t="shared" si="12"/>
         <v>5211.6419039040347</v>
       </c>
-      <c r="Z28" s="4">
+      <c r="AB28" s="4">
         <v>2030</v>
       </c>
-      <c r="AA28" s="46">
+      <c r="AC28" s="46">
         <f t="shared" si="13"/>
         <v>664.44332772753421</v>
       </c>
-      <c r="AB28" s="46">
+      <c r="AD28" s="46">
         <f t="shared" si="14"/>
         <v>2214.8110924251141</v>
       </c>
-      <c r="AC28" s="46">
+      <c r="AE28" s="46">
         <f t="shared" si="15"/>
         <v>1550.3677646975798</v>
       </c>
-      <c r="AD28" s="12">
+      <c r="AF28" s="12">
         <f t="shared" si="31"/>
         <v>4429.6221848502282</v>
       </c>
-      <c r="AF28" s="4">
+      <c r="AH28" s="4">
         <v>2030</v>
       </c>
-      <c r="AG28" s="46">
+      <c r="AI28" s="46">
         <f t="shared" si="16"/>
         <v>980.09492341834311</v>
       </c>
-      <c r="AH28" s="46">
+      <c r="AJ28" s="46">
         <f t="shared" si="17"/>
         <v>3266.9830780611437</v>
       </c>
-      <c r="AI28" s="46">
+      <c r="AK28" s="46">
         <f t="shared" si="18"/>
         <v>2286.8881546428006</v>
       </c>
-      <c r="AJ28" s="12">
+      <c r="AL28" s="12">
         <f t="shared" si="19"/>
         <v>6533.9661561222874</v>
       </c>
-      <c r="AL28" s="4">
+      <c r="AN28" s="4">
         <v>2030</v>
       </c>
-      <c r="AM28" s="46">
+      <c r="AO28" s="46">
         <f t="shared" si="20"/>
         <v>821.77694533017734</v>
       </c>
-      <c r="AN28" s="46">
+      <c r="AP28" s="46">
         <f t="shared" si="21"/>
         <v>2739.2564844339245</v>
       </c>
-      <c r="AO28" s="46">
+      <c r="AQ28" s="46">
         <f t="shared" si="22"/>
         <v>1917.4795391037469</v>
       </c>
-      <c r="AP28" s="12">
+      <c r="AR28" s="12">
         <f t="shared" si="32"/>
         <v>5478.5129688678489</v>
       </c>
-      <c r="AR28" s="4">
+      <c r="AT28" s="4">
         <v>2030</v>
       </c>
-      <c r="AS28" s="46">
+      <c r="AU28" s="46">
         <f t="shared" si="23"/>
         <v>715.13789273193129</v>
       </c>
-      <c r="AT28" s="46">
+      <c r="AV28" s="46">
         <f t="shared" si="24"/>
         <v>2383.7929757731044</v>
       </c>
-      <c r="AU28" s="46">
+      <c r="AW28" s="46">
         <f t="shared" si="25"/>
         <v>1668.6550830411729</v>
       </c>
-      <c r="AV28" s="12">
+      <c r="AX28" s="12">
         <f t="shared" si="26"/>
         <v>4767.5859515462089</v>
       </c>
-      <c r="AX28" s="4">
+      <c r="AZ28" s="4">
         <v>2030</v>
       </c>
-      <c r="AY28" s="46">
+      <c r="BA28" s="46">
         <f t="shared" si="27"/>
         <v>620.14710587903187</v>
       </c>
-      <c r="AZ28" s="46">
+      <c r="BB28" s="46">
         <f t="shared" si="28"/>
         <v>2067.1570195967729</v>
       </c>
-      <c r="BA28" s="46">
+      <c r="BC28" s="46">
         <f t="shared" si="29"/>
         <v>1447.009913717741</v>
       </c>
-      <c r="BB28" s="12">
+      <c r="BD28" s="12">
         <f t="shared" si="33"/>
         <v>4134.3140391935458</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B29" s="4">
         <v>2031</v>
       </c>
@@ -3759,160 +3928,167 @@
         <f t="shared" si="0"/>
         <v>1242352.5239555803</v>
       </c>
-      <c r="H29" s="4">
+      <c r="G29" s="24">
+        <v>849.47691792199703</v>
+      </c>
+      <c r="H29" s="47">
+        <f t="shared" si="0"/>
+        <v>849476.91792199702</v>
+      </c>
+      <c r="J29" s="4">
         <v>2031</v>
       </c>
-      <c r="I29" s="46">
+      <c r="K29" s="46">
         <f t="shared" si="2"/>
         <v>694.92273768108396</v>
       </c>
-      <c r="J29" s="46">
+      <c r="L29" s="46">
         <f t="shared" si="3"/>
         <v>2316.4091256036131</v>
       </c>
-      <c r="K29" s="46">
+      <c r="M29" s="46">
         <f t="shared" si="4"/>
         <v>1621.486387922529</v>
       </c>
-      <c r="L29" s="12">
+      <c r="N29" s="12">
         <f t="shared" si="5"/>
         <v>4632.8182512072262</v>
       </c>
-      <c r="N29" s="4">
+      <c r="P29" s="4">
         <v>2031</v>
       </c>
-      <c r="O29" s="46">
+      <c r="Q29" s="46">
         <f t="shared" si="6"/>
         <v>616.78945226291535</v>
       </c>
-      <c r="P29" s="46">
+      <c r="R29" s="46">
         <f t="shared" si="7"/>
         <v>2055.9648408763846</v>
       </c>
-      <c r="Q29" s="46">
+      <c r="S29" s="46">
         <f t="shared" si="8"/>
         <v>1439.1753886134691</v>
       </c>
-      <c r="R29" s="12">
+      <c r="T29" s="12">
         <f t="shared" si="30"/>
         <v>4111.9296817527693</v>
       </c>
-      <c r="T29" s="4">
+      <c r="V29" s="4">
         <v>2031</v>
       </c>
-      <c r="U29" s="46">
+      <c r="W29" s="46">
         <f t="shared" si="9"/>
         <v>788.7820021558756</v>
       </c>
-      <c r="V29" s="46">
+      <c r="X29" s="46">
         <f t="shared" si="10"/>
         <v>2629.2733405195854</v>
       </c>
-      <c r="W29" s="46">
+      <c r="Y29" s="46">
         <f t="shared" si="11"/>
         <v>1840.4913383637097</v>
       </c>
-      <c r="X29" s="12">
+      <c r="Z29" s="12">
         <f t="shared" si="12"/>
         <v>5258.5466810391708</v>
       </c>
-      <c r="Z29" s="4">
+      <c r="AB29" s="4">
         <v>2031</v>
       </c>
-      <c r="AA29" s="46">
+      <c r="AC29" s="46">
         <f t="shared" si="13"/>
         <v>670.42331767708197</v>
       </c>
-      <c r="AB29" s="46">
+      <c r="AD29" s="46">
         <f t="shared" si="14"/>
         <v>2234.74439225694</v>
       </c>
-      <c r="AC29" s="46">
+      <c r="AE29" s="46">
         <f t="shared" si="15"/>
         <v>1564.3210745798579</v>
       </c>
-      <c r="AD29" s="12">
+      <c r="AF29" s="12">
         <f t="shared" si="31"/>
         <v>4469.4887845138801</v>
       </c>
-      <c r="AF29" s="4">
+      <c r="AH29" s="4">
         <v>2031</v>
       </c>
-      <c r="AG29" s="46">
+      <c r="AI29" s="46">
         <f t="shared" si="16"/>
         <v>988.91577772910807</v>
       </c>
-      <c r="AH29" s="46">
+      <c r="AJ29" s="46">
         <f t="shared" si="17"/>
         <v>3296.3859257636936</v>
       </c>
-      <c r="AI29" s="46">
+      <c r="AK29" s="46">
         <f t="shared" si="18"/>
         <v>2307.4701480345852</v>
       </c>
-      <c r="AJ29" s="12">
+      <c r="AL29" s="12">
         <f t="shared" si="19"/>
         <v>6592.7718515273873</v>
       </c>
-      <c r="AL29" s="4">
+      <c r="AN29" s="4">
         <v>2031</v>
       </c>
-      <c r="AM29" s="46">
+      <c r="AO29" s="46">
         <f t="shared" si="20"/>
         <v>829.17293783814887</v>
       </c>
-      <c r="AN29" s="46">
+      <c r="AP29" s="46">
         <f t="shared" si="21"/>
         <v>2763.9097927938296</v>
       </c>
-      <c r="AO29" s="46">
+      <c r="AQ29" s="46">
         <f t="shared" si="22"/>
         <v>1934.7368549556807</v>
       </c>
-      <c r="AP29" s="12">
+      <c r="AR29" s="12">
         <f t="shared" si="32"/>
         <v>5527.8195855876593</v>
       </c>
-      <c r="AR29" s="4">
+      <c r="AT29" s="4">
         <v>2031</v>
       </c>
-      <c r="AS29" s="46">
+      <c r="AU29" s="46">
         <f t="shared" si="23"/>
         <v>721.57413376651868</v>
       </c>
-      <c r="AT29" s="46">
+      <c r="AV29" s="46">
         <f t="shared" si="24"/>
         <v>2405.2471125550624</v>
       </c>
-      <c r="AU29" s="46">
+      <c r="AW29" s="46">
         <f t="shared" si="25"/>
         <v>1683.6729787885436</v>
       </c>
-      <c r="AV29" s="12">
+      <c r="AX29" s="12">
         <f t="shared" si="26"/>
         <v>4810.4942251101247</v>
       </c>
-      <c r="AX29" s="4">
+      <c r="AZ29" s="4">
         <v>2031</v>
       </c>
-      <c r="AY29" s="46">
+      <c r="BA29" s="46">
         <f t="shared" si="27"/>
         <v>625.728429831943</v>
       </c>
-      <c r="AZ29" s="46">
+      <c r="BB29" s="46">
         <f t="shared" si="28"/>
         <v>2085.7614327731435</v>
       </c>
-      <c r="BA29" s="46">
+      <c r="BC29" s="46">
         <f t="shared" si="29"/>
         <v>1460.0330029412003</v>
       </c>
-      <c r="BB29" s="12">
+      <c r="BD29" s="12">
         <f t="shared" si="33"/>
         <v>4171.522865546287</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B30" s="4">
         <v>2032</v>
       </c>
@@ -3930,160 +4106,167 @@
         <f t="shared" si="0"/>
         <v>1232305.5737797993</v>
       </c>
-      <c r="H30" s="4">
+      <c r="G30" s="24">
+        <v>845.99356544930481</v>
+      </c>
+      <c r="H30" s="47">
+        <f t="shared" si="0"/>
+        <v>845993.56544930476</v>
+      </c>
+      <c r="J30" s="4">
         <v>2032</v>
       </c>
-      <c r="I30" s="46">
+      <c r="K30" s="46">
         <f t="shared" si="2"/>
         <v>701.17704232021356</v>
       </c>
-      <c r="J30" s="46">
+      <c r="L30" s="46">
         <f t="shared" si="3"/>
         <v>2337.2568077340452</v>
       </c>
-      <c r="K30" s="46">
+      <c r="M30" s="46">
         <f t="shared" si="4"/>
         <v>1636.0797654138316</v>
       </c>
-      <c r="L30" s="12">
+      <c r="N30" s="12">
         <f t="shared" si="5"/>
         <v>4674.5136154680904</v>
       </c>
-      <c r="N30" s="4">
+      <c r="P30" s="4">
         <v>2032</v>
       </c>
-      <c r="O30" s="46">
+      <c r="Q30" s="46">
         <f t="shared" si="6"/>
         <v>622.34055733328148</v>
       </c>
-      <c r="P30" s="46">
+      <c r="R30" s="46">
         <f t="shared" si="7"/>
         <v>2074.4685244442717</v>
       </c>
-      <c r="Q30" s="46">
+      <c r="S30" s="46">
         <f t="shared" si="8"/>
         <v>1452.1279671109901</v>
       </c>
-      <c r="R30" s="12">
+      <c r="T30" s="12">
         <f t="shared" si="30"/>
         <v>4148.9370488885434</v>
       </c>
-      <c r="T30" s="4">
+      <c r="V30" s="4">
         <v>2032</v>
       </c>
-      <c r="U30" s="46">
+      <c r="W30" s="46">
         <f t="shared" si="9"/>
         <v>795.88104017527849</v>
       </c>
-      <c r="V30" s="46">
+      <c r="X30" s="46">
         <f t="shared" si="10"/>
         <v>2652.9368005842616</v>
       </c>
-      <c r="W30" s="46">
+      <c r="Y30" s="46">
         <f t="shared" si="11"/>
         <v>1857.0557604089829</v>
       </c>
-      <c r="X30" s="12">
+      <c r="Z30" s="12">
         <f t="shared" si="12"/>
         <v>5305.8736011685232</v>
       </c>
-      <c r="Z30" s="4">
+      <c r="AB30" s="4">
         <v>2032</v>
       </c>
-      <c r="AA30" s="46">
+      <c r="AC30" s="46">
         <f t="shared" si="13"/>
         <v>676.45712753617556</v>
       </c>
-      <c r="AB30" s="46">
+      <c r="AD30" s="46">
         <f t="shared" si="14"/>
         <v>2254.8570917872521</v>
       </c>
-      <c r="AC30" s="46">
+      <c r="AE30" s="46">
         <f t="shared" si="15"/>
         <v>1578.3999642510764</v>
       </c>
-      <c r="AD30" s="12">
+      <c r="AF30" s="12">
         <f t="shared" si="31"/>
         <v>4509.7141835745042</v>
       </c>
-      <c r="AF30" s="4">
+      <c r="AH30" s="4">
         <v>2032</v>
       </c>
-      <c r="AG30" s="46">
+      <c r="AI30" s="46">
         <f t="shared" si="16"/>
         <v>997.81601972866986</v>
       </c>
-      <c r="AH30" s="46">
+      <c r="AJ30" s="46">
         <f t="shared" si="17"/>
         <v>3326.0533990955664</v>
       </c>
-      <c r="AI30" s="46">
+      <c r="AK30" s="46">
         <f t="shared" si="18"/>
         <v>2328.2373793668962</v>
       </c>
-      <c r="AJ30" s="12">
+      <c r="AL30" s="12">
         <f t="shared" si="19"/>
         <v>6652.1067981911328</v>
       </c>
-      <c r="AL30" s="4">
+      <c r="AN30" s="4">
         <v>2032</v>
       </c>
-      <c r="AM30" s="46">
+      <c r="AO30" s="46">
         <f t="shared" si="20"/>
         <v>836.63549427869214</v>
       </c>
-      <c r="AN30" s="46">
+      <c r="AP30" s="46">
         <f t="shared" si="21"/>
         <v>2788.7849809289737</v>
       </c>
-      <c r="AO30" s="46">
+      <c r="AQ30" s="46">
         <f t="shared" si="22"/>
         <v>1952.1494866502815</v>
       </c>
-      <c r="AP30" s="12">
+      <c r="AR30" s="12">
         <f t="shared" si="32"/>
         <v>5577.5699618579474</v>
       </c>
-      <c r="AR30" s="4">
+      <c r="AT30" s="4">
         <v>2032</v>
       </c>
-      <c r="AS30" s="46">
+      <c r="AU30" s="46">
         <f t="shared" si="23"/>
         <v>728.06830097041723</v>
       </c>
-      <c r="AT30" s="46">
+      <c r="AV30" s="46">
         <f t="shared" si="24"/>
         <v>2426.8943365680575</v>
       </c>
-      <c r="AU30" s="46">
+      <c r="AW30" s="46">
         <f t="shared" si="25"/>
         <v>1698.8260355976402</v>
       </c>
-      <c r="AV30" s="12">
+      <c r="AX30" s="12">
         <f t="shared" si="26"/>
         <v>4853.788673136115</v>
       </c>
-      <c r="AX30" s="4">
+      <c r="AZ30" s="4">
         <v>2032</v>
       </c>
-      <c r="AY30" s="46">
+      <c r="BA30" s="46">
         <f t="shared" si="27"/>
         <v>631.35998570043046</v>
       </c>
-      <c r="AZ30" s="46">
+      <c r="BB30" s="46">
         <f t="shared" si="28"/>
         <v>2104.5332856681016</v>
       </c>
-      <c r="BA30" s="46">
+      <c r="BC30" s="46">
         <f t="shared" si="29"/>
         <v>1473.173299967671</v>
       </c>
-      <c r="BB30" s="12">
+      <c r="BD30" s="12">
         <f t="shared" si="33"/>
         <v>4209.0665713362032</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B31" s="4">
         <v>2033</v>
       </c>
@@ -4101,160 +4284,167 @@
         <f t="shared" si="0"/>
         <v>1222165.8385635698</v>
       </c>
-      <c r="H31" s="4">
+      <c r="G31" s="24">
+        <v>843.25496758233885</v>
+      </c>
+      <c r="H31" s="47">
+        <f t="shared" si="0"/>
+        <v>843254.96758233884</v>
+      </c>
+      <c r="J31" s="4">
         <v>2033</v>
       </c>
-      <c r="I31" s="46">
+      <c r="K31" s="46">
         <f t="shared" si="2"/>
         <v>707.48763570109543</v>
       </c>
-      <c r="J31" s="46">
+      <c r="L31" s="46">
         <f t="shared" si="3"/>
         <v>2358.2921190036514</v>
       </c>
-      <c r="K31" s="46">
+      <c r="M31" s="46">
         <f t="shared" si="4"/>
         <v>1650.8044833025558</v>
       </c>
-      <c r="L31" s="12">
+      <c r="N31" s="12">
         <f t="shared" si="5"/>
         <v>4716.5842380073027</v>
       </c>
-      <c r="N31" s="4">
+      <c r="P31" s="4">
         <v>2033</v>
       </c>
-      <c r="O31" s="46">
+      <c r="Q31" s="46">
         <f t="shared" si="6"/>
         <v>627.94162234928092</v>
       </c>
-      <c r="P31" s="46">
+      <c r="R31" s="46">
         <f t="shared" si="7"/>
         <v>2093.13874116427</v>
       </c>
-      <c r="Q31" s="46">
+      <c r="S31" s="46">
         <f t="shared" si="8"/>
         <v>1465.1971188149889</v>
       </c>
-      <c r="R31" s="12">
+      <c r="T31" s="12">
         <f t="shared" si="30"/>
         <v>4186.2774823285399</v>
       </c>
-      <c r="T31" s="4">
+      <c r="V31" s="4">
         <v>2033</v>
       </c>
-      <c r="U31" s="46">
+      <c r="W31" s="46">
         <f t="shared" si="9"/>
         <v>803.04396953685591</v>
       </c>
-      <c r="V31" s="46">
+      <c r="X31" s="46">
         <f t="shared" si="10"/>
         <v>2676.8132317895197</v>
       </c>
-      <c r="W31" s="46">
+      <c r="Y31" s="46">
         <f t="shared" si="11"/>
         <v>1873.7692622526636</v>
       </c>
-      <c r="X31" s="12">
+      <c r="Z31" s="12">
         <f t="shared" si="12"/>
         <v>5353.6264635790394</v>
       </c>
-      <c r="Z31" s="4">
+      <c r="AB31" s="4">
         <v>2033</v>
       </c>
-      <c r="AA31" s="46">
+      <c r="AC31" s="46">
         <f t="shared" si="13"/>
         <v>682.5452416840011</v>
       </c>
-      <c r="AB31" s="46">
+      <c r="AD31" s="46">
         <f t="shared" si="14"/>
         <v>2275.1508056133371</v>
       </c>
-      <c r="AC31" s="46">
+      <c r="AE31" s="46">
         <f t="shared" si="15"/>
         <v>1592.6055639293359</v>
       </c>
-      <c r="AD31" s="12">
+      <c r="AF31" s="12">
         <f t="shared" si="31"/>
         <v>4550.3016112266741</v>
       </c>
-      <c r="AF31" s="4">
+      <c r="AH31" s="4">
         <v>2033</v>
       </c>
-      <c r="AG31" s="46">
+      <c r="AI31" s="46">
         <f t="shared" si="16"/>
         <v>1006.7963639062278</v>
       </c>
-      <c r="AH31" s="46">
+      <c r="AJ31" s="46">
         <f t="shared" si="17"/>
         <v>3355.9878796874264</v>
       </c>
-      <c r="AI31" s="46">
+      <c r="AK31" s="46">
         <f t="shared" si="18"/>
         <v>2349.1915157811982</v>
       </c>
-      <c r="AJ31" s="12">
+      <c r="AL31" s="12">
         <f t="shared" si="19"/>
         <v>6711.9757593748527</v>
       </c>
-      <c r="AL31" s="4">
+      <c r="AN31" s="4">
         <v>2033</v>
       </c>
-      <c r="AM31" s="46">
+      <c r="AO31" s="46">
         <f t="shared" si="20"/>
         <v>844.16521372720024</v>
       </c>
-      <c r="AN31" s="46">
+      <c r="AP31" s="46">
         <f t="shared" si="21"/>
         <v>2813.8840457573342</v>
       </c>
-      <c r="AO31" s="46">
+      <c r="AQ31" s="46">
         <f t="shared" si="22"/>
         <v>1969.7188320301339</v>
       </c>
-      <c r="AP31" s="12">
+      <c r="AR31" s="12">
         <f t="shared" si="32"/>
         <v>5627.7680915146684</v>
       </c>
-      <c r="AR31" s="4">
+      <c r="AT31" s="4">
         <v>2033</v>
       </c>
-      <c r="AS31" s="46">
+      <c r="AU31" s="46">
         <f t="shared" si="23"/>
         <v>734.62091567915093</v>
       </c>
-      <c r="AT31" s="46">
+      <c r="AV31" s="46">
         <f t="shared" si="24"/>
         <v>2448.7363855971698</v>
       </c>
-      <c r="AU31" s="46">
+      <c r="AW31" s="46">
         <f t="shared" si="25"/>
         <v>1714.1154699180188</v>
       </c>
-      <c r="AV31" s="12">
+      <c r="AX31" s="12">
         <f t="shared" si="26"/>
         <v>4897.4727711943397</v>
       </c>
-      <c r="AX31" s="4">
+      <c r="AZ31" s="4">
         <v>2033</v>
       </c>
-      <c r="AY31" s="46">
+      <c r="BA31" s="46">
         <f t="shared" si="27"/>
         <v>637.04222557173421</v>
       </c>
-      <c r="AZ31" s="46">
+      <c r="BB31" s="46">
         <f t="shared" si="28"/>
         <v>2123.4740852391142</v>
       </c>
-      <c r="BA31" s="46">
+      <c r="BC31" s="46">
         <f t="shared" si="29"/>
         <v>1486.4318596673797</v>
       </c>
-      <c r="BB31" s="12">
+      <c r="BD31" s="12">
         <f t="shared" si="33"/>
         <v>4246.9481704782283</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B32" s="4">
         <v>2034</v>
       </c>
@@ -4272,160 +4462,167 @@
         <f t="shared" si="0"/>
         <v>1211933.3183068947</v>
       </c>
-      <c r="H32" s="4">
+      <c r="G32" s="24">
+        <v>840.89381031730045</v>
+      </c>
+      <c r="H32" s="47">
+        <f t="shared" si="0"/>
+        <v>840893.81031730049</v>
+      </c>
+      <c r="J32" s="4">
         <v>2034</v>
       </c>
-      <c r="I32" s="46">
+      <c r="K32" s="46">
         <f t="shared" si="2"/>
         <v>713.85502442240522</v>
       </c>
-      <c r="J32" s="46">
+      <c r="L32" s="46">
         <f t="shared" si="3"/>
         <v>2379.5167480746841</v>
       </c>
-      <c r="K32" s="46">
+      <c r="M32" s="46">
         <f t="shared" si="4"/>
         <v>1665.6617236522789</v>
       </c>
-      <c r="L32" s="12">
+      <c r="N32" s="12">
         <f t="shared" si="5"/>
         <v>4759.0334961493681</v>
       </c>
-      <c r="N32" s="4">
+      <c r="P32" s="4">
         <v>2034</v>
       </c>
-      <c r="O32" s="46">
+      <c r="Q32" s="46">
         <f t="shared" si="6"/>
         <v>633.59309695042441</v>
       </c>
-      <c r="P32" s="46">
+      <c r="R32" s="46">
         <f t="shared" si="7"/>
         <v>2111.9769898347481</v>
       </c>
-      <c r="Q32" s="46">
+      <c r="S32" s="46">
         <f t="shared" si="8"/>
         <v>1478.3838928843236</v>
       </c>
-      <c r="R32" s="12">
+      <c r="T32" s="12">
         <f t="shared" si="30"/>
         <v>4223.9539796694962</v>
       </c>
-      <c r="T32" s="4">
+      <c r="V32" s="4">
         <v>2034</v>
       </c>
-      <c r="U32" s="46">
+      <c r="W32" s="46">
         <f t="shared" si="9"/>
         <v>810.2713652626876</v>
       </c>
-      <c r="V32" s="46">
+      <c r="X32" s="46">
         <f t="shared" si="10"/>
         <v>2700.9045508756253</v>
       </c>
-      <c r="W32" s="46">
+      <c r="Y32" s="46">
         <f t="shared" si="11"/>
         <v>1890.6331856129375</v>
       </c>
-      <c r="X32" s="12">
+      <c r="Z32" s="12">
         <f t="shared" si="12"/>
         <v>5401.8091017512506</v>
       </c>
-      <c r="Z32" s="4">
+      <c r="AB32" s="4">
         <v>2034</v>
       </c>
-      <c r="AA32" s="46">
+      <c r="AC32" s="46">
         <f t="shared" si="13"/>
         <v>688.68814885915708</v>
       </c>
-      <c r="AB32" s="46">
+      <c r="AD32" s="46">
         <f t="shared" si="14"/>
         <v>2295.6271628638569</v>
       </c>
-      <c r="AC32" s="46">
+      <c r="AE32" s="46">
         <f t="shared" si="15"/>
         <v>1606.9390140046999</v>
       </c>
-      <c r="AD32" s="12">
+      <c r="AF32" s="12">
         <f t="shared" si="31"/>
         <v>4591.2543257277139</v>
       </c>
-      <c r="AF32" s="4">
+      <c r="AH32" s="4">
         <v>2034</v>
       </c>
-      <c r="AG32" s="46">
+      <c r="AI32" s="46">
         <f t="shared" si="16"/>
         <v>1015.8575311813838</v>
       </c>
-      <c r="AH32" s="46">
+      <c r="AJ32" s="46">
         <f t="shared" si="17"/>
         <v>3386.1917706046129</v>
       </c>
-      <c r="AI32" s="46">
+      <c r="AK32" s="46">
         <f t="shared" si="18"/>
         <v>2370.3342394232291</v>
       </c>
-      <c r="AJ32" s="12">
+      <c r="AL32" s="12">
         <f t="shared" si="19"/>
         <v>6772.3835412092258</v>
       </c>
-      <c r="AL32" s="4">
+      <c r="AN32" s="4">
         <v>2034</v>
       </c>
-      <c r="AM32" s="46">
+      <c r="AO32" s="46">
         <f t="shared" si="20"/>
         <v>851.76270065074493</v>
       </c>
-      <c r="AN32" s="46">
+      <c r="AP32" s="46">
         <f t="shared" si="21"/>
         <v>2839.2090021691497</v>
       </c>
-      <c r="AO32" s="46">
+      <c r="AQ32" s="46">
         <f t="shared" si="22"/>
         <v>1987.4463015184047</v>
       </c>
-      <c r="AP32" s="12">
+      <c r="AR32" s="12">
         <f t="shared" si="32"/>
         <v>5678.4180043382994</v>
       </c>
-      <c r="AR32" s="4">
+      <c r="AT32" s="4">
         <v>2034</v>
       </c>
-      <c r="AS32" s="46">
+      <c r="AU32" s="46">
         <f t="shared" si="23"/>
         <v>741.23250392026318</v>
       </c>
-      <c r="AT32" s="46">
+      <c r="AV32" s="46">
         <f t="shared" si="24"/>
         <v>2470.775013067544</v>
       </c>
-      <c r="AU32" s="46">
+      <c r="AW32" s="46">
         <f t="shared" si="25"/>
         <v>1729.5425091472807</v>
       </c>
-      <c r="AV32" s="12">
+      <c r="AX32" s="12">
         <f t="shared" si="26"/>
         <v>4941.550026135088</v>
       </c>
-      <c r="AX32" s="4">
+      <c r="AZ32" s="4">
         <v>2034</v>
       </c>
-      <c r="AY32" s="46">
+      <c r="BA32" s="46">
         <f t="shared" si="27"/>
         <v>642.77560560187976</v>
       </c>
-      <c r="AZ32" s="46">
+      <c r="BB32" s="46">
         <f t="shared" si="28"/>
         <v>2142.585352006266</v>
       </c>
-      <c r="BA32" s="46">
+      <c r="BC32" s="46">
         <f t="shared" si="29"/>
         <v>1499.809746404386</v>
       </c>
-      <c r="BB32" s="12">
+      <c r="BD32" s="12">
         <f t="shared" si="33"/>
         <v>4285.170704012532</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B33" s="4">
         <v>2035</v>
       </c>
@@ -4443,160 +4640,167 @@
         <f t="shared" si="0"/>
         <v>1201608.0130097715</v>
       </c>
-      <c r="H33" s="4">
+      <c r="G33" s="24">
+        <v>837.83569513203599</v>
+      </c>
+      <c r="H33" s="47">
+        <f t="shared" si="0"/>
+        <v>837835.69513203599</v>
+      </c>
+      <c r="J33" s="4">
         <v>2035</v>
       </c>
-      <c r="I33" s="46">
+      <c r="K33" s="46">
         <f t="shared" si="2"/>
         <v>720.27971964220683</v>
       </c>
-      <c r="J33" s="46">
+      <c r="L33" s="46">
         <f t="shared" si="3"/>
         <v>2400.9323988073561</v>
       </c>
-      <c r="K33" s="46">
+      <c r="M33" s="46">
         <f t="shared" si="4"/>
         <v>1680.6526791651493</v>
       </c>
-      <c r="L33" s="12">
+      <c r="N33" s="12">
         <f t="shared" si="5"/>
         <v>4801.8647976147122</v>
       </c>
-      <c r="N33" s="4">
+      <c r="P33" s="4">
         <v>2035</v>
       </c>
-      <c r="O33" s="46">
+      <c r="Q33" s="46">
         <f t="shared" si="6"/>
         <v>639.29543482297811</v>
       </c>
-      <c r="P33" s="46">
+      <c r="R33" s="46">
         <f t="shared" si="7"/>
         <v>2130.9847827432604</v>
       </c>
-      <c r="Q33" s="46">
+      <c r="S33" s="46">
         <f t="shared" si="8"/>
         <v>1491.6893479202822</v>
       </c>
-      <c r="R33" s="12">
+      <c r="T33" s="12">
         <f t="shared" si="30"/>
         <v>4261.9695654865209</v>
       </c>
-      <c r="T33" s="4">
+      <c r="V33" s="4">
         <v>2035</v>
       </c>
-      <c r="U33" s="46">
+      <c r="W33" s="46">
         <f t="shared" si="9"/>
         <v>817.56380755005171</v>
       </c>
-      <c r="V33" s="46">
+      <c r="X33" s="46">
         <f t="shared" si="10"/>
         <v>2725.2126918335057</v>
       </c>
-      <c r="W33" s="46">
+      <c r="Y33" s="46">
         <f t="shared" si="11"/>
         <v>1907.6488842834538</v>
       </c>
-      <c r="X33" s="12">
+      <c r="Z33" s="12">
         <f t="shared" si="12"/>
         <v>5450.4253836670114</v>
       </c>
-      <c r="Z33" s="4">
+      <c r="AB33" s="4">
         <v>2035</v>
       </c>
-      <c r="AA33" s="46">
+      <c r="AC33" s="46">
         <f t="shared" si="13"/>
         <v>694.88634219888945</v>
       </c>
-      <c r="AB33" s="46">
+      <c r="AD33" s="46">
         <f t="shared" si="14"/>
         <v>2316.2878073296315</v>
       </c>
-      <c r="AC33" s="46">
+      <c r="AE33" s="46">
         <f t="shared" si="15"/>
         <v>1621.4014651307421</v>
       </c>
-      <c r="AD33" s="12">
+      <c r="AF33" s="12">
         <f t="shared" si="31"/>
         <v>4632.575614659263</v>
       </c>
-      <c r="AF33" s="4">
+      <c r="AH33" s="4">
         <v>2035</v>
       </c>
-      <c r="AG33" s="46">
+      <c r="AI33" s="46">
         <f t="shared" si="16"/>
         <v>1025.000248962016</v>
       </c>
-      <c r="AH33" s="46">
+      <c r="AJ33" s="46">
         <f t="shared" si="17"/>
         <v>3416.6674965400539</v>
       </c>
-      <c r="AI33" s="46">
+      <c r="AK33" s="46">
         <f t="shared" si="18"/>
         <v>2391.6672475780374</v>
       </c>
-      <c r="AJ33" s="12">
+      <c r="AL33" s="12">
         <f t="shared" si="19"/>
         <v>6833.3349930801078</v>
       </c>
-      <c r="AL33" s="4">
+      <c r="AN33" s="4">
         <v>2035</v>
       </c>
-      <c r="AM33" s="46">
+      <c r="AO33" s="46">
         <f t="shared" si="20"/>
         <v>859.42856495660146</v>
       </c>
-      <c r="AN33" s="46">
+      <c r="AP33" s="46">
         <f t="shared" si="21"/>
         <v>2864.7618831886716</v>
       </c>
-      <c r="AO33" s="46">
+      <c r="AQ33" s="46">
         <f t="shared" si="22"/>
         <v>2005.33331823207</v>
       </c>
-      <c r="AP33" s="12">
+      <c r="AR33" s="12">
         <f t="shared" si="32"/>
         <v>5729.5237663773432</v>
       </c>
-      <c r="AR33" s="4">
+      <c r="AT33" s="4">
         <v>2035</v>
       </c>
-      <c r="AS33" s="46">
+      <c r="AU33" s="46">
         <f t="shared" si="23"/>
         <v>747.90359645554543</v>
       </c>
-      <c r="AT33" s="46">
+      <c r="AV33" s="46">
         <f t="shared" si="24"/>
         <v>2493.0119881851515</v>
       </c>
-      <c r="AU33" s="46">
+      <c r="AW33" s="46">
         <f t="shared" si="25"/>
         <v>1745.108391729606</v>
       </c>
-      <c r="AV33" s="12">
+      <c r="AX33" s="12">
         <f t="shared" si="26"/>
         <v>4986.023976370303</v>
       </c>
-      <c r="AX33" s="4">
+      <c r="AZ33" s="4">
         <v>2035</v>
       </c>
-      <c r="AY33" s="46">
+      <c r="BA33" s="46">
         <f t="shared" si="27"/>
         <v>648.56058605229657</v>
       </c>
-      <c r="AZ33" s="46">
+      <c r="BB33" s="46">
         <f t="shared" si="28"/>
         <v>2161.8686201743221</v>
       </c>
-      <c r="BA33" s="46">
+      <c r="BC33" s="46">
         <f t="shared" si="29"/>
         <v>1513.3080341220254</v>
       </c>
-      <c r="BB33" s="12">
+      <c r="BD33" s="12">
         <f t="shared" si="33"/>
         <v>4323.7372403486443</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B34" s="4">
         <v>2036</v>
       </c>
@@ -4614,160 +4818,167 @@
         <f t="shared" si="0"/>
         <v>1191189.9226722009</v>
       </c>
-      <c r="H34" s="4">
+      <c r="G34" s="24">
+        <v>834.91923005424678</v>
+      </c>
+      <c r="H34" s="47">
+        <f t="shared" si="0"/>
+        <v>834919.23005424673</v>
+      </c>
+      <c r="J34" s="4">
         <v>2036</v>
       </c>
-      <c r="I34" s="46">
+      <c r="K34" s="46">
         <f t="shared" si="2"/>
         <v>726.7622371189866</v>
       </c>
-      <c r="J34" s="46">
+      <c r="L34" s="46">
         <f t="shared" si="3"/>
         <v>2422.540790396622</v>
       </c>
-      <c r="K34" s="46">
+      <c r="M34" s="46">
         <f t="shared" si="4"/>
         <v>1695.7785532776354</v>
       </c>
-      <c r="L34" s="12">
+      <c r="N34" s="12">
         <f t="shared" si="5"/>
         <v>4845.081580793244</v>
       </c>
-      <c r="N34" s="4">
+      <c r="P34" s="4">
         <v>2036</v>
       </c>
-      <c r="O34" s="46">
+      <c r="Q34" s="46">
         <f t="shared" si="6"/>
         <v>645.04909373638486</v>
       </c>
-      <c r="P34" s="46">
+      <c r="R34" s="46">
         <f t="shared" si="7"/>
         <v>2150.1636457879495</v>
       </c>
-      <c r="Q34" s="46">
+      <c r="S34" s="46">
         <f t="shared" si="8"/>
         <v>1505.1145520515645</v>
       </c>
-      <c r="R34" s="12">
+      <c r="T34" s="12">
         <f t="shared" si="30"/>
         <v>4300.3272915758989</v>
       </c>
-      <c r="T34" s="4">
+      <c r="V34" s="4">
         <v>2036</v>
       </c>
-      <c r="U34" s="46">
+      <c r="W34" s="46">
         <f t="shared" si="9"/>
         <v>824.92188181800202</v>
       </c>
-      <c r="V34" s="46">
+      <c r="X34" s="46">
         <f t="shared" si="10"/>
         <v>2749.7396060600067</v>
       </c>
-      <c r="W34" s="46">
+      <c r="Y34" s="46">
         <f t="shared" si="11"/>
         <v>1924.8177242420045</v>
       </c>
-      <c r="X34" s="12">
+      <c r="Z34" s="12">
         <f t="shared" si="12"/>
         <v>5499.4792121200135</v>
       </c>
-      <c r="Z34" s="4">
+      <c r="AB34" s="4">
         <v>2036</v>
       </c>
-      <c r="AA34" s="46">
+      <c r="AC34" s="46">
         <f t="shared" si="13"/>
         <v>701.14031927867939</v>
       </c>
-      <c r="AB34" s="46">
+      <c r="AD34" s="46">
         <f t="shared" si="14"/>
         <v>2337.1343975955979</v>
       </c>
-      <c r="AC34" s="46">
+      <c r="AE34" s="46">
         <f t="shared" si="15"/>
         <v>1635.9940783169184</v>
       </c>
-      <c r="AD34" s="12">
+      <c r="AF34" s="12">
         <f t="shared" si="31"/>
         <v>4674.2687951911957</v>
       </c>
-      <c r="AF34" s="4">
+      <c r="AH34" s="4">
         <v>2036</v>
       </c>
-      <c r="AG34" s="46">
+      <c r="AI34" s="46">
         <f t="shared" si="16"/>
         <v>1034.2252512026741</v>
       </c>
-      <c r="AH34" s="46">
+      <c r="AJ34" s="46">
         <f t="shared" si="17"/>
         <v>3447.417504008914</v>
       </c>
-      <c r="AI34" s="46">
+      <c r="AK34" s="46">
         <f t="shared" si="18"/>
         <v>2413.1922528062396</v>
       </c>
-      <c r="AJ34" s="12">
+      <c r="AL34" s="12">
         <f t="shared" si="19"/>
         <v>6894.8350080178279</v>
       </c>
-      <c r="AL34" s="4">
+      <c r="AN34" s="4">
         <v>2036</v>
       </c>
-      <c r="AM34" s="46">
+      <c r="AO34" s="46">
         <f t="shared" si="20"/>
         <v>867.16342204121077</v>
       </c>
-      <c r="AN34" s="46">
+      <c r="AP34" s="46">
         <f t="shared" si="21"/>
         <v>2890.5447401373694</v>
       </c>
-      <c r="AO34" s="46">
+      <c r="AQ34" s="46">
         <f t="shared" si="22"/>
         <v>2023.3813180961586</v>
       </c>
-      <c r="AP34" s="12">
+      <c r="AR34" s="12">
         <f t="shared" si="32"/>
         <v>5781.0894802747389</v>
       </c>
-      <c r="AR34" s="4">
+      <c r="AT34" s="4">
         <v>2036</v>
       </c>
-      <c r="AS34" s="46">
+      <c r="AU34" s="46">
         <f t="shared" si="23"/>
         <v>754.63472882364522</v>
       </c>
-      <c r="AT34" s="46">
+      <c r="AV34" s="46">
         <f t="shared" si="24"/>
         <v>2515.4490960788175</v>
       </c>
-      <c r="AU34" s="46">
+      <c r="AW34" s="46">
         <f t="shared" si="25"/>
         <v>1760.8143672551721</v>
       </c>
-      <c r="AV34" s="12">
+      <c r="AX34" s="12">
         <f t="shared" si="26"/>
         <v>5030.8981921576351</v>
       </c>
-      <c r="AX34" s="4">
+      <c r="AZ34" s="4">
         <v>2036</v>
       </c>
-      <c r="AY34" s="46">
+      <c r="BA34" s="46">
         <f t="shared" si="27"/>
         <v>654.39763132676728</v>
       </c>
-      <c r="AZ34" s="46">
+      <c r="BB34" s="46">
         <f t="shared" si="28"/>
         <v>2181.325437755891</v>
       </c>
-      <c r="BA34" s="46">
+      <c r="BC34" s="46">
         <f t="shared" si="29"/>
         <v>1526.9278064291236</v>
       </c>
-      <c r="BB34" s="12">
+      <c r="BD34" s="12">
         <f t="shared" si="33"/>
         <v>4362.650875511782</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B35" s="4">
         <v>2037</v>
       </c>
@@ -4785,160 +4996,167 @@
         <f t="shared" si="0"/>
         <v>1180679.0472941846</v>
       </c>
-      <c r="H35" s="4">
+      <c r="G35" s="24">
+        <v>832.25515938099738</v>
+      </c>
+      <c r="H35" s="47">
+        <f t="shared" si="0"/>
+        <v>832255.15938099741</v>
+      </c>
+      <c r="J35" s="4">
         <v>2037</v>
       </c>
-      <c r="I35" s="46">
+      <c r="K35" s="46">
         <f t="shared" si="2"/>
         <v>733.30309725305744</v>
       </c>
-      <c r="J35" s="46">
+      <c r="L35" s="46">
         <f t="shared" si="3"/>
         <v>2444.3436575101914</v>
       </c>
-      <c r="K35" s="46">
+      <c r="M35" s="46">
         <f t="shared" si="4"/>
         <v>1711.0405602571338</v>
       </c>
-      <c r="L35" s="12">
+      <c r="N35" s="12">
         <f t="shared" si="5"/>
         <v>4888.6873150203828</v>
       </c>
-      <c r="N35" s="4">
+      <c r="P35" s="4">
         <v>2037</v>
       </c>
-      <c r="O35" s="46">
+      <c r="Q35" s="46">
         <f t="shared" si="6"/>
         <v>650.85453558001223</v>
       </c>
-      <c r="P35" s="46">
+      <c r="R35" s="46">
         <f t="shared" si="7"/>
         <v>2169.5151186000408</v>
       </c>
-      <c r="Q35" s="46">
+      <c r="S35" s="46">
         <f t="shared" si="8"/>
         <v>1518.6605830200285</v>
       </c>
-      <c r="R35" s="12">
+      <c r="T35" s="12">
         <f t="shared" si="30"/>
         <v>4339.0302372000815</v>
       </c>
-      <c r="T35" s="4">
+      <c r="V35" s="4">
         <v>2037</v>
       </c>
-      <c r="U35" s="46">
+      <c r="W35" s="46">
         <f t="shared" si="9"/>
         <v>832.34617875436402</v>
       </c>
-      <c r="V35" s="46">
+      <c r="X35" s="46">
         <f t="shared" si="10"/>
         <v>2774.4872625145467</v>
       </c>
-      <c r="W35" s="46">
+      <c r="Y35" s="46">
         <f t="shared" si="11"/>
         <v>1942.1410837601825</v>
       </c>
-      <c r="X35" s="12">
+      <c r="Z35" s="12">
         <f t="shared" si="12"/>
         <v>5548.9745250290935</v>
       </c>
-      <c r="Z35" s="4">
+      <c r="AB35" s="4">
         <v>2037</v>
       </c>
-      <c r="AA35" s="46">
+      <c r="AC35" s="46">
         <f t="shared" si="13"/>
         <v>707.45058215218739</v>
       </c>
-      <c r="AB35" s="46">
+      <c r="AD35" s="46">
         <f t="shared" si="14"/>
         <v>2358.1686071739582</v>
       </c>
-      <c r="AC35" s="46">
+      <c r="AE35" s="46">
         <f t="shared" si="15"/>
         <v>1650.7180250217707</v>
       </c>
-      <c r="AD35" s="12">
+      <c r="AF35" s="12">
         <f t="shared" si="31"/>
         <v>4716.3372143479164</v>
       </c>
-      <c r="AF35" s="4">
+      <c r="AH35" s="4">
         <v>2037</v>
       </c>
-      <c r="AG35" s="46">
+      <c r="AI35" s="46">
         <f t="shared" si="16"/>
         <v>1043.5332784634982</v>
       </c>
-      <c r="AH35" s="46">
+      <c r="AJ35" s="46">
         <f t="shared" si="17"/>
         <v>3478.4442615449939</v>
       </c>
-      <c r="AI35" s="46">
+      <c r="AK35" s="46">
         <f t="shared" si="18"/>
         <v>2434.9109830814955</v>
       </c>
-      <c r="AJ35" s="12">
+      <c r="AL35" s="12">
         <f t="shared" si="19"/>
         <v>6956.8885230899878</v>
       </c>
-      <c r="AL35" s="4">
+      <c r="AN35" s="4">
         <v>2037</v>
       </c>
-      <c r="AM35" s="46">
+      <c r="AO35" s="46">
         <f t="shared" si="20"/>
         <v>874.96789283958162</v>
       </c>
-      <c r="AN35" s="46">
+      <c r="AP35" s="46">
         <f t="shared" si="21"/>
         <v>2916.5596427986056</v>
       </c>
-      <c r="AO35" s="46">
+      <c r="AQ35" s="46">
         <f t="shared" si="22"/>
         <v>2041.5917499590239</v>
       </c>
-      <c r="AP35" s="12">
+      <c r="AR35" s="12">
         <f t="shared" si="32"/>
         <v>5833.1192855972113</v>
       </c>
-      <c r="AR35" s="4">
+      <c r="AT35" s="4">
         <v>2037</v>
       </c>
-      <c r="AS35" s="46">
+      <c r="AU35" s="46">
         <f t="shared" si="23"/>
         <v>761.42644138305798</v>
       </c>
-      <c r="AT35" s="46">
+      <c r="AV35" s="46">
         <f t="shared" si="24"/>
         <v>2538.0881379435268</v>
       </c>
-      <c r="AU35" s="46">
+      <c r="AW35" s="46">
         <f t="shared" si="25"/>
         <v>1776.6616965604687</v>
       </c>
-      <c r="AV35" s="12">
+      <c r="AX35" s="12">
         <f t="shared" si="26"/>
         <v>5076.1762758870536</v>
       </c>
-      <c r="AX35" s="4">
+      <c r="AZ35" s="4">
         <v>2037</v>
       </c>
-      <c r="AY35" s="46">
+      <c r="BA35" s="46">
         <f t="shared" si="27"/>
         <v>660.28721000870814</v>
       </c>
-      <c r="AZ35" s="46">
+      <c r="BB35" s="46">
         <f t="shared" si="28"/>
         <v>2200.957366695694</v>
       </c>
-      <c r="BA35" s="46">
+      <c r="BC35" s="46">
         <f t="shared" si="29"/>
         <v>1540.6701566869856</v>
       </c>
-      <c r="BB35" s="12">
+      <c r="BD35" s="12">
         <f t="shared" si="33"/>
         <v>4401.9147333913879</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B36" s="4">
         <v>2038</v>
       </c>
@@ -4956,160 +5174,167 @@
         <f t="shared" si="0"/>
         <v>1170075.3868757198</v>
       </c>
-      <c r="H36" s="4">
+      <c r="G36" s="24">
+        <v>830.48005306962114</v>
+      </c>
+      <c r="H36" s="47">
+        <f t="shared" si="0"/>
+        <v>830480.05306962109</v>
+      </c>
+      <c r="J36" s="4">
         <v>2038</v>
       </c>
-      <c r="I36" s="46">
+      <c r="K36" s="46">
         <f t="shared" si="2"/>
         <v>739.90282512833483</v>
       </c>
-      <c r="J36" s="46">
+      <c r="L36" s="46">
         <f t="shared" si="3"/>
         <v>2466.3427504277829</v>
       </c>
-      <c r="K36" s="46">
+      <c r="M36" s="46">
         <f t="shared" si="4"/>
         <v>1726.4399252994479</v>
       </c>
-      <c r="L36" s="12">
+      <c r="N36" s="12">
         <f t="shared" si="5"/>
         <v>4932.6855008555658</v>
       </c>
-      <c r="N36" s="4">
+      <c r="P36" s="4">
         <v>2038</v>
       </c>
-      <c r="O36" s="46">
+      <c r="Q36" s="46">
         <f t="shared" si="6"/>
         <v>656.71222640023223</v>
       </c>
-      <c r="P36" s="46">
+      <c r="R36" s="46">
         <f t="shared" si="7"/>
         <v>2189.040754667441</v>
       </c>
-      <c r="Q36" s="46">
+      <c r="S36" s="46">
         <f t="shared" si="8"/>
         <v>1532.3285282672086</v>
       </c>
-      <c r="R36" s="12">
+      <c r="T36" s="12">
         <f t="shared" si="30"/>
         <v>4378.081509334882</v>
       </c>
-      <c r="T36" s="4">
+      <c r="V36" s="4">
         <v>2038</v>
       </c>
-      <c r="U36" s="46">
+      <c r="W36" s="46">
         <f t="shared" si="9"/>
         <v>839.83729436315321</v>
       </c>
-      <c r="V36" s="46">
+      <c r="X36" s="46">
         <f t="shared" si="10"/>
         <v>2799.4576478771774</v>
       </c>
-      <c r="W36" s="46">
+      <c r="Y36" s="46">
         <f t="shared" si="11"/>
         <v>1959.6203535140239</v>
       </c>
-      <c r="X36" s="12">
+      <c r="Z36" s="12">
         <f t="shared" si="12"/>
         <v>5598.9152957543547</v>
       </c>
-      <c r="Z36" s="4">
+      <c r="AB36" s="4">
         <v>2038</v>
       </c>
-      <c r="AA36" s="46">
+      <c r="AC36" s="46">
         <f t="shared" si="13"/>
         <v>713.81763739155701</v>
       </c>
-      <c r="AB36" s="46">
+      <c r="AD36" s="46">
         <f t="shared" si="14"/>
         <v>2379.3921246385235</v>
       </c>
-      <c r="AC36" s="46">
+      <c r="AE36" s="46">
         <f t="shared" si="15"/>
         <v>1665.5744872469663</v>
       </c>
-      <c r="AD36" s="12">
+      <c r="AF36" s="12">
         <f t="shared" si="31"/>
         <v>4758.7842492770469</v>
       </c>
-      <c r="AF36" s="4">
+      <c r="AH36" s="4">
         <v>2038</v>
       </c>
-      <c r="AG36" s="46">
+      <c r="AI36" s="46">
         <f t="shared" si="16"/>
         <v>1052.9250779696695</v>
       </c>
-      <c r="AH36" s="46">
+      <c r="AJ36" s="46">
         <f t="shared" si="17"/>
         <v>3509.7502598988985</v>
       </c>
-      <c r="AI36" s="46">
+      <c r="AK36" s="46">
         <f t="shared" si="18"/>
         <v>2456.8251819292286</v>
       </c>
-      <c r="AJ36" s="12">
+      <c r="AL36" s="12">
         <f t="shared" si="19"/>
         <v>7019.5005197977971</v>
       </c>
-      <c r="AL36" s="4">
+      <c r="AN36" s="4">
         <v>2038</v>
       </c>
-      <c r="AM36" s="46">
+      <c r="AO36" s="46">
         <f t="shared" si="20"/>
         <v>882.8426038751378</v>
       </c>
-      <c r="AN36" s="46">
+      <c r="AP36" s="46">
         <f t="shared" si="21"/>
         <v>2942.8086795837926</v>
       </c>
-      <c r="AO36" s="46">
+      <c r="AQ36" s="46">
         <f t="shared" si="22"/>
         <v>2059.9660757086549</v>
       </c>
-      <c r="AP36" s="12">
+      <c r="AR36" s="12">
         <f t="shared" si="32"/>
         <v>5885.6173591675852</v>
       </c>
-      <c r="AR36" s="4">
+      <c r="AT36" s="4">
         <v>2038</v>
       </c>
-      <c r="AS36" s="46">
+      <c r="AU36" s="46">
         <f t="shared" si="23"/>
         <v>768.27927935550554</v>
       </c>
-      <c r="AT36" s="46">
+      <c r="AV36" s="46">
         <f t="shared" si="24"/>
         <v>2560.9309311850184</v>
       </c>
-      <c r="AU36" s="46">
+      <c r="AW36" s="46">
         <f t="shared" si="25"/>
         <v>1792.6516518295127</v>
       </c>
-      <c r="AV36" s="12">
+      <c r="AX36" s="12">
         <f t="shared" si="26"/>
         <v>5121.8618623700368</v>
       </c>
-      <c r="AX36" s="4">
+      <c r="AZ36" s="4">
         <v>2038</v>
       </c>
-      <c r="AY36" s="46">
+      <c r="BA36" s="46">
         <f t="shared" si="27"/>
         <v>666.22979489878639</v>
       </c>
-      <c r="AZ36" s="46">
+      <c r="BB36" s="46">
         <f t="shared" si="28"/>
         <v>2220.7659829959548</v>
       </c>
-      <c r="BA36" s="46">
+      <c r="BC36" s="46">
         <f t="shared" si="29"/>
         <v>1554.5361880971682</v>
       </c>
-      <c r="BB36" s="12">
+      <c r="BD36" s="12">
         <f t="shared" si="33"/>
         <v>4441.5319659919096</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B37" s="4">
         <v>2039</v>
       </c>
@@ -5127,160 +5352,167 @@
         <f t="shared" si="0"/>
         <v>1159378.9414168082</v>
       </c>
-      <c r="H37" s="4">
+      <c r="G37" s="24">
+        <v>828.26229110689326</v>
+      </c>
+      <c r="H37" s="47">
+        <f t="shared" si="0"/>
+        <v>828262.29110689322</v>
+      </c>
+      <c r="J37" s="4">
         <v>2039</v>
       </c>
-      <c r="I37" s="46">
+      <c r="K37" s="46">
         <f t="shared" si="2"/>
         <v>746.56195055448973</v>
       </c>
-      <c r="J37" s="46">
+      <c r="L37" s="46">
         <f t="shared" si="3"/>
         <v>2488.5398351816325</v>
       </c>
-      <c r="K37" s="46">
+      <c r="M37" s="46">
         <f t="shared" si="4"/>
         <v>1741.9778846271427</v>
       </c>
-      <c r="L37" s="12">
+      <c r="N37" s="12">
         <f t="shared" si="5"/>
         <v>4977.079670363265</v>
       </c>
-      <c r="N37" s="4">
+      <c r="P37" s="4">
         <v>2039</v>
       </c>
-      <c r="O37" s="46">
+      <c r="Q37" s="46">
         <f t="shared" si="6"/>
         <v>662.62263643783433</v>
       </c>
-      <c r="P37" s="46">
+      <c r="R37" s="46">
         <f t="shared" si="7"/>
         <v>2208.7421214594478</v>
       </c>
-      <c r="Q37" s="46">
+      <c r="S37" s="46">
         <f t="shared" si="8"/>
         <v>1546.1194850216134</v>
       </c>
-      <c r="R37" s="12">
+      <c r="T37" s="12">
         <f t="shared" si="30"/>
         <v>4417.4842429188957</v>
       </c>
-      <c r="T37" s="4">
+      <c r="V37" s="4">
         <v>2039</v>
       </c>
-      <c r="U37" s="46">
+      <c r="W37" s="46">
         <f t="shared" si="9"/>
         <v>847.39583001242147</v>
       </c>
-      <c r="V37" s="46">
+      <c r="X37" s="46">
         <f t="shared" si="10"/>
         <v>2824.6527667080718</v>
       </c>
-      <c r="W37" s="46">
+      <c r="Y37" s="46">
         <f t="shared" si="11"/>
         <v>1977.2569366956502</v>
       </c>
-      <c r="X37" s="12">
+      <c r="Z37" s="12">
         <f t="shared" si="12"/>
         <v>5649.3055334161436</v>
       </c>
-      <c r="Z37" s="4">
+      <c r="AB37" s="4">
         <v>2039</v>
       </c>
-      <c r="AA37" s="46">
+      <c r="AC37" s="46">
         <f t="shared" si="13"/>
         <v>720.24199612808093</v>
       </c>
-      <c r="AB37" s="46">
+      <c r="AD37" s="46">
         <f t="shared" si="14"/>
         <v>2400.8066537602699</v>
       </c>
-      <c r="AC37" s="46">
+      <c r="AE37" s="46">
         <f t="shared" si="15"/>
         <v>1680.5646576321888</v>
       </c>
-      <c r="AD37" s="12">
+      <c r="AF37" s="12">
         <f t="shared" si="31"/>
         <v>4801.6133075205398</v>
       </c>
-      <c r="AF37" s="4">
+      <c r="AH37" s="4">
         <v>2039</v>
       </c>
-      <c r="AG37" s="46">
+      <c r="AI37" s="46">
         <f t="shared" si="16"/>
         <v>1062.4014036713963</v>
       </c>
-      <c r="AH37" s="46">
+      <c r="AJ37" s="46">
         <f t="shared" si="17"/>
         <v>3541.3380122379881</v>
       </c>
-      <c r="AI37" s="46">
+      <c r="AK37" s="46">
         <f t="shared" si="18"/>
         <v>2478.9366085665915</v>
       </c>
-      <c r="AJ37" s="12">
+      <c r="AL37" s="12">
         <f t="shared" si="19"/>
         <v>7082.6760244759762</v>
       </c>
-      <c r="AL37" s="4">
+      <c r="AN37" s="4">
         <v>2039</v>
       </c>
-      <c r="AM37" s="46">
+      <c r="AO37" s="46">
         <f t="shared" si="20"/>
         <v>890.788187310014</v>
       </c>
-      <c r="AN37" s="46">
+      <c r="AP37" s="46">
         <f t="shared" si="21"/>
         <v>2969.2939577000466</v>
       </c>
-      <c r="AO37" s="46">
+      <c r="AQ37" s="46">
         <f t="shared" si="22"/>
         <v>2078.5057703900325</v>
       </c>
-      <c r="AP37" s="12">
+      <c r="AR37" s="12">
         <f t="shared" si="32"/>
         <v>5938.5879154000932</v>
       </c>
-      <c r="AR37" s="4">
+      <c r="AT37" s="4">
         <v>2039</v>
       </c>
-      <c r="AS37" s="46">
+      <c r="AU37" s="46">
         <f t="shared" si="23"/>
         <v>775.19379286970491</v>
       </c>
-      <c r="AT37" s="46">
+      <c r="AV37" s="46">
         <f t="shared" si="24"/>
         <v>2583.9793095656833</v>
       </c>
-      <c r="AU37" s="46">
+      <c r="AW37" s="46">
         <f t="shared" si="25"/>
         <v>1808.7855166959782</v>
       </c>
-      <c r="AV37" s="12">
+      <c r="AX37" s="12">
         <f t="shared" si="26"/>
         <v>5167.9586191313665</v>
       </c>
-      <c r="AX37" s="4">
+      <c r="AZ37" s="4">
         <v>2039</v>
       </c>
-      <c r="AY37" s="46">
+      <c r="BA37" s="46">
         <f t="shared" si="27"/>
         <v>672.22586305287552</v>
       </c>
-      <c r="AZ37" s="46">
+      <c r="BB37" s="46">
         <f t="shared" si="28"/>
         <v>2240.7528768429183</v>
       </c>
-      <c r="BA37" s="46">
+      <c r="BC37" s="46">
         <f t="shared" si="29"/>
         <v>1568.5270137900427</v>
       </c>
-      <c r="BB37" s="12">
+      <c r="BD37" s="12">
         <f t="shared" si="33"/>
         <v>4481.5057536858367</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B38" s="4">
         <v>2040</v>
       </c>
@@ -5298,160 +5530,167 @@
         <f t="shared" si="0"/>
         <v>1148589.7109174489</v>
       </c>
-      <c r="H38" s="4">
+      <c r="G38" s="24">
+        <v>826.1486545172429</v>
+      </c>
+      <c r="H38" s="47">
+        <f t="shared" si="0"/>
+        <v>826148.65451724292</v>
+      </c>
+      <c r="J38" s="4">
         <v>2040</v>
       </c>
-      <c r="I38" s="46">
+      <c r="K38" s="46">
         <f t="shared" si="2"/>
         <v>753.28100810948001</v>
       </c>
-      <c r="J38" s="46">
+      <c r="L38" s="46">
         <f t="shared" si="3"/>
         <v>2510.9366936982669</v>
       </c>
-      <c r="K38" s="46">
+      <c r="M38" s="46">
         <f t="shared" si="4"/>
         <v>1757.6556855887868</v>
       </c>
-      <c r="L38" s="12">
+      <c r="N38" s="12">
         <f t="shared" si="5"/>
         <v>5021.8733873965339</v>
       </c>
-      <c r="N38" s="4">
+      <c r="P38" s="4">
         <v>2040</v>
       </c>
-      <c r="O38" s="46">
+      <c r="Q38" s="46">
         <f t="shared" si="6"/>
         <v>668.58624016577483</v>
       </c>
-      <c r="P38" s="46">
+      <c r="R38" s="46">
         <f t="shared" si="7"/>
         <v>2228.6208005525828</v>
       </c>
-      <c r="Q38" s="46">
+      <c r="S38" s="46">
         <f t="shared" si="8"/>
         <v>1560.0345603868079</v>
       </c>
-      <c r="R38" s="12">
+      <c r="T38" s="12">
         <f t="shared" si="30"/>
         <v>4457.2416011051655</v>
       </c>
-      <c r="T38" s="4">
+      <c r="V38" s="4">
         <v>2040</v>
       </c>
-      <c r="U38" s="46">
+      <c r="W38" s="46">
         <f t="shared" si="9"/>
         <v>855.02239248253318</v>
       </c>
-      <c r="V38" s="46">
+      <c r="X38" s="46">
         <f t="shared" si="10"/>
         <v>2850.0746416084439</v>
       </c>
-      <c r="W38" s="46">
+      <c r="Y38" s="46">
         <f t="shared" si="11"/>
         <v>1995.0522491259105</v>
       </c>
-      <c r="X38" s="12">
+      <c r="Z38" s="12">
         <f t="shared" si="12"/>
         <v>5700.1492832168879</v>
       </c>
-      <c r="Z38" s="4">
+      <c r="AB38" s="4">
         <v>2040</v>
       </c>
-      <c r="AA38" s="46">
+      <c r="AC38" s="46">
         <f t="shared" si="13"/>
         <v>726.72417409323361</v>
       </c>
-      <c r="AB38" s="46">
+      <c r="AD38" s="46">
         <f t="shared" si="14"/>
         <v>2422.4139136441122</v>
       </c>
-      <c r="AC38" s="46">
+      <c r="AE38" s="46">
         <f t="shared" si="15"/>
         <v>1695.6897395508784</v>
       </c>
-      <c r="AD38" s="12">
+      <c r="AF38" s="12">
         <f t="shared" si="31"/>
         <v>4844.8278272882244</v>
       </c>
-      <c r="AF38" s="4">
+      <c r="AH38" s="4">
         <v>2040</v>
       </c>
-      <c r="AG38" s="46">
+      <c r="AI38" s="46">
         <f t="shared" si="16"/>
         <v>1071.963016304439</v>
       </c>
-      <c r="AH38" s="46">
+      <c r="AJ38" s="46">
         <f t="shared" si="17"/>
         <v>3573.2100543481297</v>
       </c>
-      <c r="AI38" s="46">
+      <c r="AK38" s="46">
         <f t="shared" si="18"/>
         <v>2501.2470380436907</v>
       </c>
-      <c r="AJ38" s="12">
+      <c r="AL38" s="12">
         <f t="shared" si="19"/>
         <v>7146.4201086962594</v>
       </c>
-      <c r="AL38" s="4">
+      <c r="AN38" s="4">
         <v>2040</v>
       </c>
-      <c r="AM38" s="46">
+      <c r="AO38" s="46">
         <f t="shared" si="20"/>
         <v>898.80528099580397</v>
       </c>
-      <c r="AN38" s="46">
+      <c r="AP38" s="46">
         <f t="shared" si="21"/>
         <v>2996.0176033193466</v>
       </c>
-      <c r="AO38" s="46">
+      <c r="AQ38" s="46">
         <f t="shared" si="22"/>
         <v>2097.2123223235426</v>
       </c>
-      <c r="AP38" s="12">
+      <c r="AR38" s="12">
         <f t="shared" si="32"/>
         <v>5992.0352066386931</v>
       </c>
-      <c r="AR38" s="4">
+      <c r="AT38" s="4">
         <v>2040</v>
       </c>
-      <c r="AS38" s="46">
+      <c r="AU38" s="46">
         <f t="shared" si="23"/>
         <v>782.17053700553231</v>
       </c>
-      <c r="AT38" s="46">
+      <c r="AV38" s="46">
         <f t="shared" si="24"/>
         <v>2607.2351233517743</v>
       </c>
-      <c r="AU38" s="46">
+      <c r="AW38" s="46">
         <f t="shared" si="25"/>
         <v>1825.0645863462419</v>
       </c>
-      <c r="AV38" s="12">
+      <c r="AX38" s="12">
         <f t="shared" si="26"/>
         <v>5214.4702467035486</v>
       </c>
-      <c r="AX38" s="4">
+      <c r="AZ38" s="4">
         <v>2040</v>
       </c>
-      <c r="AY38" s="46">
+      <c r="BA38" s="46">
         <f t="shared" si="27"/>
         <v>678.27589582035125</v>
       </c>
-      <c r="AZ38" s="46">
+      <c r="BB38" s="46">
         <f t="shared" si="28"/>
         <v>2260.9196527345043</v>
       </c>
-      <c r="BA38" s="46">
+      <c r="BC38" s="46">
         <f t="shared" si="29"/>
         <v>1582.6437569141528</v>
       </c>
-      <c r="BB38" s="12">
+      <c r="BD38" s="12">
         <f t="shared" si="33"/>
         <v>4521.8393054690087</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B39" s="4">
         <v>2041</v>
       </c>
@@ -5469,160 +5708,167 @@
         <f t="shared" si="0"/>
         <v>1137707.695377643</v>
       </c>
-      <c r="H39" s="4">
+      <c r="G39" s="24">
+        <v>824.88649852291314</v>
+      </c>
+      <c r="H39" s="47">
+        <f t="shared" si="0"/>
+        <v>824886.4985229132</v>
+      </c>
+      <c r="J39" s="4">
         <v>2041</v>
       </c>
-      <c r="I39" s="46">
+      <c r="K39" s="46">
         <f t="shared" si="2"/>
         <v>760.06053718246528</v>
       </c>
-      <c r="J39" s="46">
+      <c r="L39" s="46">
         <f t="shared" si="3"/>
         <v>2533.5351239415509</v>
       </c>
-      <c r="K39" s="46">
+      <c r="M39" s="46">
         <f t="shared" si="4"/>
         <v>1773.4745867590855</v>
       </c>
-      <c r="L39" s="12">
+      <c r="N39" s="12">
         <f t="shared" si="5"/>
         <v>5067.0702478831017</v>
       </c>
-      <c r="N39" s="4">
+      <c r="P39" s="4">
         <v>2041</v>
       </c>
-      <c r="O39" s="46">
+      <c r="Q39" s="46">
         <f t="shared" si="6"/>
         <v>674.60351632726668</v>
       </c>
-      <c r="P39" s="46">
+      <c r="R39" s="46">
         <f t="shared" si="7"/>
         <v>2248.6783877575558</v>
       </c>
-      <c r="Q39" s="46">
+      <c r="S39" s="46">
         <f t="shared" si="8"/>
         <v>1574.074871430289</v>
       </c>
-      <c r="R39" s="12">
+      <c r="T39" s="12">
         <f t="shared" si="30"/>
         <v>4497.3567755151116</v>
       </c>
-      <c r="T39" s="4">
+      <c r="V39" s="4">
         <v>2041</v>
       </c>
-      <c r="U39" s="46">
+      <c r="W39" s="46">
         <f t="shared" si="9"/>
         <v>862.71759401487577</v>
       </c>
-      <c r="V39" s="46">
+      <c r="X39" s="46">
         <f t="shared" si="10"/>
         <v>2875.7253133829195</v>
       </c>
-      <c r="W39" s="46">
+      <c r="Y39" s="46">
         <f t="shared" si="11"/>
         <v>2013.0077193680436</v>
       </c>
-      <c r="X39" s="12">
+      <c r="Z39" s="12">
         <f t="shared" si="12"/>
         <v>5751.4506267658389</v>
       </c>
-      <c r="Z39" s="4">
+      <c r="AB39" s="4">
         <v>2041</v>
       </c>
-      <c r="AA39" s="46">
+      <c r="AC39" s="46">
         <f t="shared" si="13"/>
         <v>733.26469166007269</v>
       </c>
-      <c r="AB39" s="46">
+      <c r="AD39" s="46">
         <f t="shared" si="14"/>
         <v>2444.2156388669091</v>
       </c>
-      <c r="AC39" s="46">
+      <c r="AE39" s="46">
         <f t="shared" si="15"/>
         <v>1710.9509472068362</v>
       </c>
-      <c r="AD39" s="12">
+      <c r="AF39" s="12">
         <f t="shared" si="31"/>
         <v>4888.4312777338182</v>
       </c>
-      <c r="AF39" s="4">
+      <c r="AH39" s="4">
         <v>2041</v>
       </c>
-      <c r="AG39" s="46">
+      <c r="AI39" s="46">
         <f t="shared" si="16"/>
         <v>1081.6106834511786</v>
       </c>
-      <c r="AH39" s="46">
+      <c r="AJ39" s="46">
         <f t="shared" si="17"/>
         <v>3605.3689448372625</v>
       </c>
-      <c r="AI39" s="46">
+      <c r="AK39" s="46">
         <f t="shared" si="18"/>
         <v>2523.7582613860836</v>
       </c>
-      <c r="AJ39" s="12">
+      <c r="AL39" s="12">
         <f t="shared" si="19"/>
         <v>7210.7378896745249</v>
       </c>
-      <c r="AL39" s="4">
+      <c r="AN39" s="4">
         <v>2041</v>
       </c>
-      <c r="AM39" s="46">
+      <c r="AO39" s="46">
         <f t="shared" si="20"/>
         <v>906.89452852476609</v>
       </c>
-      <c r="AN39" s="46">
+      <c r="AP39" s="46">
         <f t="shared" si="21"/>
         <v>3022.9817617492204</v>
       </c>
-      <c r="AO39" s="46">
+      <c r="AQ39" s="46">
         <f t="shared" si="22"/>
         <v>2116.0872332244539</v>
       </c>
-      <c r="AP39" s="12">
+      <c r="AR39" s="12">
         <f t="shared" si="32"/>
         <v>6045.9635234984407</v>
       </c>
-      <c r="AR39" s="4">
+      <c r="AT39" s="4">
         <v>2041</v>
       </c>
-      <c r="AS39" s="46">
+      <c r="AU39" s="46">
         <f t="shared" si="23"/>
         <v>789.21007183858194</v>
       </c>
-      <c r="AT39" s="46">
+      <c r="AV39" s="46">
         <f t="shared" si="24"/>
         <v>2630.7002394619399</v>
       </c>
-      <c r="AU39" s="46">
+      <c r="AW39" s="46">
         <f t="shared" si="25"/>
         <v>1841.4901676233578</v>
       </c>
-      <c r="AV39" s="12">
+      <c r="AX39" s="12">
         <f t="shared" si="26"/>
         <v>5261.4004789238797</v>
       </c>
-      <c r="AX39" s="4">
+      <c r="AZ39" s="4">
         <v>2041</v>
       </c>
-      <c r="AY39" s="46">
+      <c r="BA39" s="46">
         <f t="shared" si="27"/>
         <v>684.38037888273436</v>
       </c>
-      <c r="AZ39" s="46">
+      <c r="BB39" s="46">
         <f t="shared" si="28"/>
         <v>2281.2679296091146</v>
       </c>
-      <c r="BA39" s="46">
+      <c r="BC39" s="46">
         <f t="shared" si="29"/>
         <v>1596.8875507263801</v>
       </c>
-      <c r="BB39" s="12">
+      <c r="BD39" s="12">
         <f t="shared" si="33"/>
         <v>4562.5358592182292</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B40" s="4">
         <v>2042</v>
       </c>
@@ -5640,160 +5886,167 @@
         <f t="shared" si="0"/>
         <v>1126732.8947973896</v>
       </c>
-      <c r="H40" s="4">
+      <c r="G40" s="24">
+        <v>821.76417431532411</v>
+      </c>
+      <c r="H40" s="47">
+        <f t="shared" si="0"/>
+        <v>821764.17431532417</v>
+      </c>
+      <c r="J40" s="4">
         <v>2042</v>
       </c>
-      <c r="I40" s="46">
+      <c r="K40" s="46">
         <f t="shared" si="2"/>
         <v>766.90108201710734</v>
       </c>
-      <c r="J40" s="46">
+      <c r="L40" s="46">
         <f t="shared" si="3"/>
         <v>2556.3369400570245</v>
       </c>
-      <c r="K40" s="46">
+      <c r="M40" s="46">
         <f t="shared" si="4"/>
         <v>1789.4358580399171</v>
       </c>
-      <c r="L40" s="12">
+      <c r="N40" s="12">
         <f t="shared" si="5"/>
         <v>5112.6738801140491</v>
       </c>
-      <c r="N40" s="4">
+      <c r="P40" s="4">
         <v>2042</v>
       </c>
-      <c r="O40" s="46">
+      <c r="Q40" s="46">
         <f t="shared" si="6"/>
         <v>680.67494797421205</v>
       </c>
-      <c r="P40" s="46">
+      <c r="R40" s="46">
         <f t="shared" si="7"/>
         <v>2268.9164932473736</v>
       </c>
-      <c r="Q40" s="46">
+      <c r="S40" s="46">
         <f t="shared" si="8"/>
         <v>1588.2415452731614</v>
       </c>
-      <c r="R40" s="12">
+      <c r="T40" s="12">
         <f t="shared" si="30"/>
         <v>4537.8329864947473</v>
       </c>
-      <c r="T40" s="4">
+      <c r="V40" s="4">
         <v>2042</v>
       </c>
-      <c r="U40" s="46">
+      <c r="W40" s="46">
         <f t="shared" si="9"/>
         <v>870.48205236100966</v>
       </c>
-      <c r="V40" s="46">
+      <c r="X40" s="46">
         <f t="shared" si="10"/>
         <v>2901.6068412033655</v>
       </c>
-      <c r="W40" s="46">
+      <c r="Y40" s="46">
         <f t="shared" si="11"/>
         <v>2031.1247888423557</v>
       </c>
-      <c r="X40" s="12">
+      <c r="Z40" s="12">
         <f t="shared" si="12"/>
         <v>5803.2136824067311</v>
       </c>
-      <c r="Z40" s="4">
+      <c r="AB40" s="4">
         <v>2042</v>
       </c>
-      <c r="AA40" s="46">
+      <c r="AC40" s="46">
         <f t="shared" si="13"/>
         <v>739.86407388501323</v>
       </c>
-      <c r="AB40" s="46">
+      <c r="AD40" s="46">
         <f t="shared" si="14"/>
         <v>2466.2135796167108</v>
       </c>
-      <c r="AC40" s="46">
+      <c r="AE40" s="46">
         <f t="shared" si="15"/>
         <v>1726.3495057316975</v>
       </c>
-      <c r="AD40" s="12">
+      <c r="AF40" s="12">
         <f t="shared" si="31"/>
         <v>4932.4271592334217</v>
       </c>
-      <c r="AF40" s="4">
+      <c r="AH40" s="4">
         <v>2042</v>
       </c>
-      <c r="AG40" s="46">
+      <c r="AI40" s="46">
         <f t="shared" si="16"/>
         <v>1091.3451796022391</v>
       </c>
-      <c r="AH40" s="46">
+      <c r="AJ40" s="46">
         <f t="shared" si="17"/>
         <v>3637.8172653407973</v>
       </c>
-      <c r="AI40" s="46">
+      <c r="AK40" s="46">
         <f t="shared" si="18"/>
         <v>2546.4720857385578</v>
       </c>
-      <c r="AJ40" s="12">
+      <c r="AL40" s="12">
         <f t="shared" si="19"/>
         <v>7275.6345306815947</v>
       </c>
-      <c r="AL40" s="4">
+      <c r="AN40" s="4">
         <v>2042</v>
       </c>
-      <c r="AM40" s="46">
+      <c r="AO40" s="46">
         <f t="shared" si="20"/>
         <v>915.05657928148889</v>
       </c>
-      <c r="AN40" s="46">
+      <c r="AP40" s="46">
         <f t="shared" si="21"/>
         <v>3050.188597604963</v>
       </c>
-      <c r="AO40" s="46">
+      <c r="AQ40" s="46">
         <f t="shared" si="22"/>
         <v>2135.1320183234739</v>
       </c>
-      <c r="AP40" s="12">
+      <c r="AR40" s="12">
         <f t="shared" si="32"/>
         <v>6100.377195209926</v>
       </c>
-      <c r="AR40" s="4">
+      <c r="AT40" s="4">
         <v>2042</v>
       </c>
-      <c r="AS40" s="46">
+      <c r="AU40" s="46">
         <f t="shared" si="23"/>
         <v>796.31296248512911</v>
       </c>
-      <c r="AT40" s="46">
+      <c r="AV40" s="46">
         <f t="shared" si="24"/>
         <v>2654.3765416170972</v>
       </c>
-      <c r="AU40" s="46">
+      <c r="AW40" s="46">
         <f t="shared" si="25"/>
         <v>1858.063579131968</v>
       </c>
-      <c r="AV40" s="12">
+      <c r="AX40" s="12">
         <f t="shared" si="26"/>
         <v>5308.7530832341945</v>
       </c>
-      <c r="AX40" s="4">
+      <c r="AZ40" s="4">
         <v>2042</v>
       </c>
-      <c r="AY40" s="46">
+      <c r="BA40" s="46">
         <f t="shared" si="27"/>
         <v>690.53980229267893</v>
       </c>
-      <c r="AZ40" s="46">
+      <c r="BB40" s="46">
         <f t="shared" si="28"/>
         <v>2301.7993409755964</v>
       </c>
-      <c r="BA40" s="46">
+      <c r="BC40" s="46">
         <f t="shared" si="29"/>
         <v>1611.2595386829173</v>
       </c>
-      <c r="BB40" s="12">
+      <c r="BD40" s="12">
         <f t="shared" si="33"/>
         <v>4603.5986819511927</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B41" s="4">
         <v>2043</v>
       </c>
@@ -5811,160 +6064,167 @@
         <f t="shared" si="0"/>
         <v>1115665.3091766892</v>
       </c>
-      <c r="H41" s="4">
+      <c r="G41" s="24">
+        <v>820.93124163949585</v>
+      </c>
+      <c r="H41" s="47">
+        <f t="shared" si="0"/>
+        <v>820931.24163949583</v>
+      </c>
+      <c r="J41" s="4">
         <v>2043</v>
       </c>
-      <c r="I41" s="46">
+      <c r="K41" s="46">
         <f t="shared" si="2"/>
         <v>773.80319175526131</v>
       </c>
-      <c r="J41" s="46">
+      <c r="L41" s="46">
         <f t="shared" si="3"/>
         <v>2579.3439725175376</v>
       </c>
-      <c r="K41" s="46">
+      <c r="M41" s="46">
         <f t="shared" si="4"/>
         <v>1805.5407807622762</v>
       </c>
-      <c r="L41" s="12">
+      <c r="N41" s="12">
         <f t="shared" si="5"/>
         <v>5158.6879450350752</v>
       </c>
-      <c r="N41" s="4">
+      <c r="P41" s="4">
         <v>2043</v>
       </c>
-      <c r="O41" s="46">
+      <c r="Q41" s="46">
         <f t="shared" si="6"/>
         <v>686.80102250597997</v>
       </c>
-      <c r="P41" s="46">
+      <c r="R41" s="46">
         <f t="shared" si="7"/>
         <v>2289.3367416865999</v>
       </c>
-      <c r="Q41" s="46">
+      <c r="S41" s="46">
         <f t="shared" si="8"/>
         <v>1602.5357191806199</v>
       </c>
-      <c r="R41" s="12">
+      <c r="T41" s="12">
         <f t="shared" si="30"/>
         <v>4578.6734833731998</v>
       </c>
-      <c r="T41" s="4">
+      <c r="V41" s="4">
         <v>2043</v>
       </c>
-      <c r="U41" s="46">
+      <c r="W41" s="46">
         <f t="shared" si="9"/>
         <v>878.31639083225866</v>
       </c>
-      <c r="V41" s="46">
+      <c r="X41" s="46">
         <f t="shared" si="10"/>
         <v>2927.7213027741955</v>
       </c>
-      <c r="W41" s="46">
+      <c r="Y41" s="46">
         <f t="shared" si="11"/>
         <v>2049.4049119419369</v>
       </c>
-      <c r="X41" s="12">
+      <c r="Z41" s="12">
         <f t="shared" si="12"/>
         <v>5855.4426055483909</v>
       </c>
-      <c r="Z41" s="4">
+      <c r="AB41" s="4">
         <v>2043</v>
       </c>
-      <c r="AA41" s="46">
+      <c r="AC41" s="46">
         <f t="shared" si="13"/>
         <v>746.52285054997822</v>
       </c>
-      <c r="AB41" s="46">
+      <c r="AD41" s="46">
         <f t="shared" si="14"/>
         <v>2488.4095018332609</v>
       </c>
-      <c r="AC41" s="46">
+      <c r="AE41" s="46">
         <f t="shared" si="15"/>
         <v>1741.8866512832826</v>
       </c>
-      <c r="AD41" s="12">
+      <c r="AF41" s="12">
         <f t="shared" si="31"/>
         <v>4976.8190036665219</v>
       </c>
-      <c r="AF41" s="4">
+      <c r="AH41" s="4">
         <v>2043</v>
       </c>
-      <c r="AG41" s="46">
+      <c r="AI41" s="46">
         <f t="shared" si="16"/>
         <v>1101.1672862186592</v>
       </c>
-      <c r="AH41" s="46">
+      <c r="AJ41" s="46">
         <f t="shared" si="17"/>
         <v>3670.5576207288641</v>
       </c>
-      <c r="AI41" s="46">
+      <c r="AK41" s="46">
         <f t="shared" si="18"/>
         <v>2569.3903345102049</v>
       </c>
-      <c r="AJ41" s="12">
+      <c r="AL41" s="12">
         <f t="shared" si="19"/>
         <v>7341.1152414577282</v>
       </c>
-      <c r="AL41" s="4">
+      <c r="AN41" s="4">
         <v>2043</v>
       </c>
-      <c r="AM41" s="46">
+      <c r="AO41" s="46">
         <f t="shared" si="20"/>
         <v>923.2920884950222</v>
       </c>
-      <c r="AN41" s="46">
+      <c r="AP41" s="46">
         <f t="shared" si="21"/>
         <v>3077.6402949834073</v>
       </c>
-      <c r="AO41" s="46">
+      <c r="AQ41" s="46">
         <f t="shared" si="22"/>
         <v>2154.3482064883851</v>
       </c>
-      <c r="AP41" s="12">
+      <c r="AR41" s="12">
         <f t="shared" si="32"/>
         <v>6155.2805899668147</v>
       </c>
-      <c r="AR41" s="4">
+      <c r="AT41" s="4">
         <v>2043</v>
       </c>
-      <c r="AS41" s="46">
+      <c r="AU41" s="46">
         <f t="shared" si="23"/>
         <v>803.47977914749526</v>
       </c>
-      <c r="AT41" s="46">
+      <c r="AV41" s="46">
         <f t="shared" si="24"/>
         <v>2678.265930491651</v>
       </c>
-      <c r="AU41" s="46">
+      <c r="AW41" s="46">
         <f t="shared" si="25"/>
         <v>1874.7861513441555</v>
       </c>
-      <c r="AV41" s="12">
+      <c r="AX41" s="12">
         <f t="shared" si="26"/>
         <v>5356.5318609833021</v>
       </c>
-      <c r="AX41" s="4">
+      <c r="AZ41" s="4">
         <v>2043</v>
       </c>
-      <c r="AY41" s="46">
+      <c r="BA41" s="46">
         <f t="shared" si="27"/>
         <v>696.75466051331296</v>
       </c>
-      <c r="AZ41" s="46">
+      <c r="BB41" s="46">
         <f t="shared" si="28"/>
         <v>2322.5155350443765</v>
       </c>
-      <c r="BA41" s="46">
+      <c r="BC41" s="46">
         <f t="shared" si="29"/>
         <v>1625.7608745310636</v>
       </c>
-      <c r="BB41" s="12">
+      <c r="BD41" s="12">
         <f t="shared" si="33"/>
         <v>4645.031070088753</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B42" s="4">
         <v>2044</v>
       </c>
@@ -5982,160 +6242,167 @@
         <f t="shared" si="0"/>
         <v>1104504.9385155421</v>
       </c>
-      <c r="H42" s="4">
+      <c r="G42" s="24">
+        <v>817.98495349301083</v>
+      </c>
+      <c r="H42" s="47">
+        <f t="shared" si="0"/>
+        <v>817984.95349301083</v>
+      </c>
+      <c r="J42" s="4">
         <v>2044</v>
       </c>
-      <c r="I42" s="46">
+      <c r="K42" s="46">
         <f t="shared" si="2"/>
         <v>780.76742048105859</v>
       </c>
-      <c r="J42" s="46">
+      <c r="L42" s="46">
         <f t="shared" si="3"/>
         <v>2602.5580682701952</v>
       </c>
-      <c r="K42" s="46">
+      <c r="M42" s="46">
         <f t="shared" si="4"/>
         <v>1821.7906477891365</v>
       </c>
-      <c r="L42" s="12">
+      <c r="N42" s="12">
         <f t="shared" si="5"/>
         <v>5205.1161365403905</v>
       </c>
-      <c r="N42" s="4">
+      <c r="P42" s="4">
         <v>2044</v>
       </c>
-      <c r="O42" s="46">
+      <c r="Q42" s="46">
         <f t="shared" si="6"/>
         <v>692.98223170853373</v>
       </c>
-      <c r="P42" s="46">
+      <c r="R42" s="46">
         <f t="shared" si="7"/>
         <v>2309.9407723617792</v>
       </c>
-      <c r="Q42" s="46">
+      <c r="S42" s="46">
         <f t="shared" si="8"/>
         <v>1616.9585406532453</v>
       </c>
-      <c r="R42" s="12">
+      <c r="T42" s="12">
         <f t="shared" si="30"/>
         <v>4619.8815447235584</v>
       </c>
-      <c r="T42" s="4">
+      <c r="V42" s="4">
         <v>2044</v>
       </c>
-      <c r="U42" s="46">
+      <c r="W42" s="46">
         <f t="shared" si="9"/>
         <v>886.22123834974877</v>
       </c>
-      <c r="V42" s="46">
+      <c r="X42" s="46">
         <f t="shared" si="10"/>
         <v>2954.0707944991627</v>
       </c>
-      <c r="W42" s="46">
+      <c r="Y42" s="46">
         <f t="shared" si="11"/>
         <v>2067.8495561494137</v>
       </c>
-      <c r="X42" s="12">
+      <c r="Z42" s="12">
         <f t="shared" si="12"/>
         <v>5908.1415889983255</v>
       </c>
-      <c r="Z42" s="4">
+      <c r="AB42" s="4">
         <v>2044</v>
       </c>
-      <c r="AA42" s="46">
+      <c r="AC42" s="46">
         <f t="shared" si="13"/>
         <v>753.24155620492809</v>
       </c>
-      <c r="AB42" s="46">
+      <c r="AD42" s="46">
         <f t="shared" si="14"/>
         <v>2510.8051873497602</v>
       </c>
-      <c r="AC42" s="46">
+      <c r="AE42" s="46">
         <f t="shared" si="15"/>
         <v>1757.563631144832</v>
       </c>
-      <c r="AD42" s="12">
+      <c r="AF42" s="12">
         <f t="shared" si="31"/>
         <v>5021.6103746995204</v>
       </c>
-      <c r="AF42" s="4">
+      <c r="AH42" s="4">
         <v>2044</v>
       </c>
-      <c r="AG42" s="46">
+      <c r="AI42" s="46">
         <f t="shared" si="16"/>
         <v>1111.077791794627</v>
       </c>
-      <c r="AH42" s="46">
+      <c r="AJ42" s="46">
         <f t="shared" si="17"/>
         <v>3703.5926393154236</v>
       </c>
-      <c r="AI42" s="46">
+      <c r="AK42" s="46">
         <f t="shared" si="18"/>
         <v>2592.5148475207966</v>
       </c>
-      <c r="AJ42" s="12">
+      <c r="AL42" s="12">
         <f t="shared" si="19"/>
         <v>7407.1852786308473</v>
       </c>
-      <c r="AL42" s="4">
+      <c r="AN42" s="4">
         <v>2044</v>
       </c>
-      <c r="AM42" s="46">
+      <c r="AO42" s="46">
         <f t="shared" si="20"/>
         <v>931.60171729147726</v>
       </c>
-      <c r="AN42" s="46">
+      <c r="AP42" s="46">
         <f t="shared" si="21"/>
         <v>3105.3390576382576</v>
       </c>
-      <c r="AO42" s="46">
+      <c r="AQ42" s="46">
         <f t="shared" si="22"/>
         <v>2173.73734034678</v>
       </c>
-      <c r="AP42" s="12">
+      <c r="AR42" s="12">
         <f t="shared" si="32"/>
         <v>6210.6781152765152</v>
       </c>
-      <c r="AR42" s="4">
+      <c r="AT42" s="4">
         <v>2044</v>
       </c>
-      <c r="AS42" s="46">
+      <c r="AU42" s="46">
         <f t="shared" si="23"/>
         <v>810.71109715982266</v>
       </c>
-      <c r="AT42" s="46">
+      <c r="AV42" s="46">
         <f t="shared" si="24"/>
         <v>2702.3703238660755</v>
       </c>
-      <c r="AU42" s="46">
+      <c r="AW42" s="46">
         <f t="shared" si="25"/>
         <v>1891.6592267062526</v>
       </c>
-      <c r="AV42" s="12">
+      <c r="AX42" s="12">
         <f t="shared" si="26"/>
         <v>5404.740647732151</v>
       </c>
-      <c r="AX42" s="4">
+      <c r="AZ42" s="4">
         <v>2044</v>
       </c>
-      <c r="AY42" s="46">
+      <c r="BA42" s="46">
         <f t="shared" si="27"/>
         <v>703.02545245793272</v>
       </c>
-      <c r="AZ42" s="46">
+      <c r="BB42" s="46">
         <f t="shared" si="28"/>
         <v>2343.4181748597757</v>
       </c>
-      <c r="BA42" s="46">
+      <c r="BC42" s="46">
         <f t="shared" si="29"/>
         <v>1640.392722401843</v>
       </c>
-      <c r="BB42" s="12">
+      <c r="BD42" s="12">
         <f t="shared" si="33"/>
         <v>4686.8363497195514</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B43" s="4">
         <v>2045</v>
       </c>
@@ -6153,160 +6420,167 @@
         <f t="shared" si="0"/>
         <v>1093251.7828139476</v>
       </c>
-      <c r="H43" s="4">
+      <c r="G43" s="24">
+        <v>816.97139352978456</v>
+      </c>
+      <c r="H43" s="47">
+        <f t="shared" si="0"/>
+        <v>816971.39352978452</v>
+      </c>
+      <c r="J43" s="4">
         <v>2045</v>
       </c>
-      <c r="I43" s="46">
+      <c r="K43" s="46">
         <f t="shared" si="2"/>
         <v>787.79432726538801</v>
       </c>
-      <c r="J43" s="46">
+      <c r="L43" s="46">
         <f t="shared" si="3"/>
         <v>2625.9810908846266</v>
       </c>
-      <c r="K43" s="46">
+      <c r="M43" s="46">
         <f t="shared" si="4"/>
         <v>1838.1867636192385</v>
       </c>
-      <c r="L43" s="12">
+      <c r="N43" s="12">
         <f t="shared" si="5"/>
         <v>5251.9621817692532</v>
       </c>
-      <c r="N43" s="4">
+      <c r="P43" s="4">
         <v>2045</v>
       </c>
-      <c r="O43" s="46">
+      <c r="Q43" s="46">
         <f t="shared" si="6"/>
         <v>699.21907179391042</v>
       </c>
-      <c r="P43" s="46">
+      <c r="R43" s="46">
         <f t="shared" si="7"/>
         <v>2330.7302393130349</v>
       </c>
-      <c r="Q43" s="46">
+      <c r="S43" s="46">
         <f t="shared" si="8"/>
         <v>1631.5111675191242</v>
       </c>
-      <c r="R43" s="12">
+      <c r="T43" s="12">
         <f t="shared" si="30"/>
         <v>4661.4604786260697</v>
       </c>
-      <c r="T43" s="4">
+      <c r="V43" s="4">
         <v>2045</v>
       </c>
-      <c r="U43" s="46">
+      <c r="W43" s="46">
         <f t="shared" si="9"/>
         <v>894.19722949489642</v>
       </c>
-      <c r="V43" s="46">
+      <c r="X43" s="46">
         <f t="shared" si="10"/>
         <v>2980.6574316496549</v>
       </c>
-      <c r="W43" s="46">
+      <c r="Y43" s="46">
         <f t="shared" si="11"/>
         <v>2086.4602021547585</v>
       </c>
-      <c r="X43" s="12">
+      <c r="Z43" s="12">
         <f t="shared" si="12"/>
         <v>5961.3148632993098</v>
       </c>
-      <c r="Z43" s="4">
+      <c r="AB43" s="4">
         <v>2045</v>
       </c>
-      <c r="AA43" s="46">
+      <c r="AC43" s="46">
         <f t="shared" si="13"/>
         <v>760.02073021077229</v>
       </c>
-      <c r="AB43" s="46">
+      <c r="AD43" s="46">
         <f t="shared" si="14"/>
         <v>2533.4024340359078</v>
       </c>
-      <c r="AC43" s="46">
+      <c r="AE43" s="46">
         <f t="shared" si="15"/>
         <v>1773.3817038251354</v>
       </c>
-      <c r="AD43" s="12">
+      <c r="AF43" s="12">
         <f t="shared" si="31"/>
         <v>5066.8048680718157</v>
       </c>
-      <c r="AF43" s="4">
+      <c r="AH43" s="4">
         <v>2045</v>
       </c>
-      <c r="AG43" s="46">
+      <c r="AI43" s="46">
         <f t="shared" si="16"/>
         <v>1121.0774919207786</v>
       </c>
-      <c r="AH43" s="46">
+      <c r="AJ43" s="46">
         <f t="shared" si="17"/>
         <v>3736.9249730692623</v>
       </c>
-      <c r="AI43" s="46">
+      <c r="AK43" s="46">
         <f t="shared" si="18"/>
         <v>2615.8474811484834</v>
       </c>
-      <c r="AJ43" s="12">
+      <c r="AL43" s="12">
         <f t="shared" si="19"/>
         <v>7473.8499461385245</v>
       </c>
-      <c r="AL43" s="4">
+      <c r="AN43" s="4">
         <v>2045</v>
       </c>
-      <c r="AM43" s="46">
+      <c r="AO43" s="46">
         <f t="shared" si="20"/>
         <v>939.98613274710033</v>
       </c>
-      <c r="AN43" s="46">
+      <c r="AP43" s="46">
         <f t="shared" si="21"/>
         <v>3133.2871091570014</v>
       </c>
-      <c r="AO43" s="46">
+      <c r="AQ43" s="46">
         <f t="shared" si="22"/>
         <v>2193.3009764099006</v>
       </c>
-      <c r="AP43" s="12">
+      <c r="AR43" s="12">
         <f t="shared" si="32"/>
         <v>6266.5742183140028</v>
       </c>
-      <c r="AR43" s="4">
+      <c r="AT43" s="4">
         <v>2045</v>
       </c>
-      <c r="AS43" s="46">
+      <c r="AU43" s="46">
         <f t="shared" si="23"/>
         <v>818.00749703426095</v>
       </c>
-      <c r="AT43" s="46">
+      <c r="AV43" s="46">
         <f t="shared" si="24"/>
         <v>2726.6916567808698</v>
       </c>
-      <c r="AU43" s="46">
+      <c r="AW43" s="46">
         <f t="shared" si="25"/>
         <v>1908.6841597466087</v>
       </c>
-      <c r="AV43" s="12">
+      <c r="AX43" s="12">
         <f t="shared" si="26"/>
         <v>5453.3833135617397</v>
       </c>
-      <c r="AX43" s="4">
+      <c r="AZ43" s="4">
         <v>2045</v>
       </c>
-      <c r="AY43" s="46">
+      <c r="BA43" s="46">
         <f t="shared" si="27"/>
         <v>709.35268153005393</v>
       </c>
-      <c r="AZ43" s="46">
+      <c r="BB43" s="46">
         <f t="shared" si="28"/>
         <v>2364.5089384335133</v>
       </c>
-      <c r="BA43" s="46">
+      <c r="BC43" s="46">
         <f t="shared" si="29"/>
         <v>1655.1562569034593</v>
       </c>
-      <c r="BB43" s="12">
+      <c r="BD43" s="12">
         <f t="shared" si="33"/>
         <v>4729.0178768670266</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>3</v>
       </c>
@@ -6323,23 +6597,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="C47" s="62" t="s">
+    <row r="47" spans="2:56" x14ac:dyDescent="0.35">
+      <c r="C47" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
       <c r="F47" s="2"/>
-      <c r="H47" s="62" t="s">
+      <c r="H47" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
       <c r="O47" s="4"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
@@ -6516,23 +6790,23 @@
         <v>25</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H54" s="4"/>
       <c r="J54" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K54" s="4"/>
       <c r="M54" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N54" s="4"/>
       <c r="P54" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q54" s="4"/>
       <c r="S54" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T54" s="4"/>
       <c r="V54" s="4" t="s">
@@ -6543,7 +6817,7 @@
         <v>13</v>
       </c>
       <c r="AB54" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF54" s="4" t="s">
         <v>15</v>
@@ -6571,31 +6845,31 @@
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
       <c r="G55" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H55">
         <v>0.5</v>
       </c>
       <c r="J55" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K55">
         <v>0.7</v>
       </c>
       <c r="M55" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N55">
         <v>1</v>
       </c>
       <c r="P55" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q55">
         <v>0.7</v>
@@ -10818,7 +11092,7 @@
     </row>
     <row r="99" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99" s="42">
         <v>44</v>
@@ -10911,7 +11185,7 @@
     </row>
     <row r="100" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B100" s="29">
         <v>44</v>
@@ -10966,26 +11240,26 @@
       <c r="AO100" s="6"/>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D106" s="63" t="s">
+      <c r="D106" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="E106" s="55" t="s">
+      <c r="E106" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="F106" s="55"/>
-      <c r="G106" s="55" t="s">
+      <c r="F106" s="52"/>
+      <c r="G106" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="H106" s="56"/>
+      <c r="H106" s="57"/>
       <c r="N106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D107" s="64"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="53"/>
+      <c r="F107" s="53"/>
+      <c r="G107" s="53"/>
       <c r="H107" s="58"/>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.35">
@@ -11000,10 +11274,10 @@
       <c r="D109" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E109" s="61">
+      <c r="E109" s="55">
         <v>72154</v>
       </c>
-      <c r="F109" s="61"/>
+      <c r="F109" s="55"/>
       <c r="G109" s="59">
         <v>28.1</v>
       </c>
@@ -11016,14 +11290,14 @@
       <c r="D110" s="19">
         <v>0.31</v>
       </c>
-      <c r="E110" s="51">
+      <c r="E110" s="54">
         <v>67811</v>
       </c>
-      <c r="F110" s="51"/>
-      <c r="G110" s="49">
+      <c r="F110" s="54"/>
+      <c r="G110" s="61">
         <v>25</v>
       </c>
-      <c r="H110" s="50"/>
+      <c r="H110" s="62"/>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C111" s="18">
@@ -11032,14 +11306,14 @@
       <c r="D111" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E111" s="51">
+      <c r="E111" s="54">
         <v>187455</v>
       </c>
-      <c r="F111" s="51"/>
-      <c r="G111" s="49">
+      <c r="F111" s="54"/>
+      <c r="G111" s="61">
         <v>70</v>
       </c>
-      <c r="H111" s="50"/>
+      <c r="H111" s="62"/>
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C112" s="18">
@@ -11048,14 +11322,14 @@
       <c r="D112" s="19">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E112" s="51">
+      <c r="E112" s="54">
         <v>63266</v>
       </c>
-      <c r="F112" s="51"/>
-      <c r="G112" s="49">
+      <c r="F112" s="54"/>
+      <c r="G112" s="61">
         <v>30.6</v>
       </c>
-      <c r="H112" s="50"/>
+      <c r="H112" s="62"/>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" s="18">
@@ -11064,14 +11338,14 @@
       <c r="D113" s="19">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E113" s="51">
+      <c r="E113" s="54">
         <v>26553</v>
       </c>
-      <c r="F113" s="51"/>
-      <c r="G113" s="49">
+      <c r="F113" s="54"/>
+      <c r="G113" s="61">
         <v>10</v>
       </c>
-      <c r="H113" s="50"/>
+      <c r="H113" s="62"/>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" s="18">
@@ -11080,14 +11354,14 @@
       <c r="D114" s="19">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E114" s="51">
+      <c r="E114" s="54">
         <v>24949</v>
       </c>
-      <c r="F114" s="51"/>
-      <c r="G114" s="49">
+      <c r="F114" s="54"/>
+      <c r="G114" s="61">
         <v>10</v>
       </c>
-      <c r="H114" s="50"/>
+      <c r="H114" s="62"/>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" s="18">
@@ -11096,14 +11370,14 @@
       <c r="D115" s="19">
         <v>0.26100000000000001</v>
       </c>
-      <c r="E115" s="51">
+      <c r="E115" s="54">
         <v>22870</v>
       </c>
-      <c r="F115" s="51"/>
-      <c r="G115" s="49">
+      <c r="F115" s="54"/>
+      <c r="G115" s="61">
         <v>10</v>
       </c>
-      <c r="H115" s="50"/>
+      <c r="H115" s="62"/>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C116" s="18">
@@ -11112,14 +11386,14 @@
       <c r="D116" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E116" s="51">
+      <c r="E116" s="54">
         <v>139836</v>
       </c>
-      <c r="F116" s="51"/>
-      <c r="G116" s="49">
+      <c r="F116" s="54"/>
+      <c r="G116" s="61">
         <v>52.2</v>
       </c>
-      <c r="H116" s="50"/>
+      <c r="H116" s="62"/>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C117" s="18">
@@ -11128,14 +11402,14 @@
       <c r="D117" s="19">
         <v>0.26800000000000002</v>
       </c>
-      <c r="E117" s="51">
+      <c r="E117" s="54">
         <v>23515</v>
       </c>
-      <c r="F117" s="51"/>
-      <c r="G117" s="49">
+      <c r="F117" s="54"/>
+      <c r="G117" s="61">
         <v>10</v>
       </c>
-      <c r="H117" s="50"/>
+      <c r="H117" s="62"/>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C118" s="18">
@@ -11144,14 +11418,14 @@
       <c r="D118" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E118" s="51">
+      <c r="E118" s="54">
         <v>49503</v>
       </c>
-      <c r="F118" s="51"/>
-      <c r="G118" s="49">
+      <c r="F118" s="54"/>
+      <c r="G118" s="61">
         <v>20.2</v>
       </c>
-      <c r="H118" s="50"/>
+      <c r="H118" s="62"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C119" s="18">
@@ -11160,14 +11434,14 @@
       <c r="D119" s="19">
         <v>0.307</v>
       </c>
-      <c r="E119" s="51">
+      <c r="E119" s="54">
         <v>188420</v>
       </c>
-      <c r="F119" s="51"/>
-      <c r="G119" s="49">
+      <c r="F119" s="54"/>
+      <c r="G119" s="61">
         <v>70</v>
       </c>
-      <c r="H119" s="50"/>
+      <c r="H119" s="62"/>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C120" s="18">
@@ -11176,14 +11450,14 @@
       <c r="D120" s="19">
         <v>0.28899999999999998</v>
       </c>
-      <c r="E120" s="51">
+      <c r="E120" s="54">
         <v>26573</v>
       </c>
-      <c r="F120" s="51"/>
-      <c r="G120" s="49">
+      <c r="F120" s="54"/>
+      <c r="G120" s="61">
         <v>10.5</v>
       </c>
-      <c r="H120" s="50"/>
+      <c r="H120" s="62"/>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C121" s="18">
@@ -11192,14 +11466,14 @@
       <c r="D121" s="19">
         <v>0.28799999999999998</v>
       </c>
-      <c r="E121" s="51">
+      <c r="E121" s="54">
         <v>25253</v>
       </c>
-      <c r="F121" s="51"/>
-      <c r="G121" s="49">
+      <c r="F121" s="54"/>
+      <c r="G121" s="61">
         <v>10</v>
       </c>
-      <c r="H121" s="50"/>
+      <c r="H121" s="62"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C122" s="18">
@@ -11208,14 +11482,14 @@
       <c r="D122" s="19">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E122" s="51">
+      <c r="E122" s="54">
         <v>17610</v>
       </c>
-      <c r="F122" s="51"/>
-      <c r="G122" s="49">
+      <c r="F122" s="54"/>
+      <c r="G122" s="61">
         <v>10</v>
       </c>
-      <c r="H122" s="50"/>
+      <c r="H122" s="62"/>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C123" s="18">
@@ -11224,14 +11498,14 @@
       <c r="D123" s="19">
         <v>0.221</v>
       </c>
-      <c r="E123" s="51">
+      <c r="E123" s="54">
         <v>19372</v>
       </c>
-      <c r="F123" s="51"/>
-      <c r="G123" s="49">
+      <c r="F123" s="54"/>
+      <c r="G123" s="61">
         <v>10</v>
       </c>
-      <c r="H123" s="50"/>
+      <c r="H123" s="62"/>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C124" s="18">
@@ -11240,14 +11514,14 @@
       <c r="D124" s="19">
         <v>0.216</v>
       </c>
-      <c r="E124" s="51">
+      <c r="E124" s="54">
         <v>18939</v>
       </c>
-      <c r="F124" s="51"/>
-      <c r="G124" s="49">
+      <c r="F124" s="54"/>
+      <c r="G124" s="61">
         <v>10</v>
       </c>
-      <c r="H124" s="50"/>
+      <c r="H124" s="62"/>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C125" s="18">
@@ -11256,14 +11530,14 @@
       <c r="D125" s="19">
         <v>0.23</v>
       </c>
-      <c r="E125" s="51">
+      <c r="E125" s="54">
         <v>20382</v>
       </c>
-      <c r="F125" s="51"/>
-      <c r="G125" s="49">
+      <c r="F125" s="54"/>
+      <c r="G125" s="61">
         <v>10.1</v>
       </c>
-      <c r="H125" s="50"/>
+      <c r="H125" s="62"/>
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C126" s="18">
@@ -11272,14 +11546,14 @@
       <c r="D126" s="19">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E126" s="51">
+      <c r="E126" s="54">
         <v>19968</v>
       </c>
-      <c r="F126" s="51"/>
-      <c r="G126" s="49">
+      <c r="F126" s="54"/>
+      <c r="G126" s="61">
         <v>10.1</v>
       </c>
-      <c r="H126" s="50"/>
+      <c r="H126" s="62"/>
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C127" s="18">
@@ -11288,14 +11562,14 @@
       <c r="D127" s="19">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E127" s="51">
+      <c r="E127" s="54">
         <v>23240</v>
       </c>
-      <c r="F127" s="51"/>
-      <c r="G127" s="49">
+      <c r="F127" s="54"/>
+      <c r="G127" s="61">
         <v>10</v>
       </c>
-      <c r="H127" s="50"/>
+      <c r="H127" s="62"/>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C128" s="20">
@@ -11304,33 +11578,47 @@
       <c r="D128" s="21">
         <v>0.254</v>
       </c>
-      <c r="E128" s="54">
+      <c r="E128" s="56">
         <v>26709</v>
       </c>
-      <c r="F128" s="54"/>
-      <c r="G128" s="52">
+      <c r="F128" s="56"/>
+      <c r="G128" s="63">
         <v>12</v>
       </c>
-      <c r="H128" s="53"/>
+      <c r="H128" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:F107"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
     <mergeCell ref="E127:F127"/>
     <mergeCell ref="E128:F128"/>
     <mergeCell ref="G106:H107"/>
@@ -11347,36 +11635,22 @@
     <mergeCell ref="G119:H119"/>
     <mergeCell ref="G120:H120"/>
     <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:F107"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfi\Google Drive\School\College\Semester 6 (Spring 2020)\ENV 717\Assignments\Assignment 11 (group project)\ENV717A11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jawessel\opl\ENV717A11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -440,9 +440,6 @@
     <t>Discount Rate</t>
   </si>
   <si>
-    <t>Solar Scale Factor</t>
-  </si>
-  <si>
     <t>2020 CO2 Emissions (lb):</t>
   </si>
   <si>
@@ -675,6 +672,9 @@
   </si>
   <si>
     <t>LED Lights Energy Efficiency Benefits (MW)</t>
+  </si>
+  <si>
+    <t>Solar Off-Peak Scale Factor</t>
   </si>
 </sst>
 </file>
@@ -1302,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BP15" sqref="BP15"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T94" sqref="T94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1348,7 +1348,7 @@
         <v>0.1</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J1" s="49"/>
       <c r="K1" s="49"/>
@@ -1357,13 +1357,13 @@
       </c>
       <c r="O1" s="41"/>
       <c r="P1" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q1" s="24">
         <v>0</v>
       </c>
       <c r="S1" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T1" s="49"/>
       <c r="U1" s="49"/>
@@ -1382,7 +1382,7 @@
       <c r="F2" s="49"/>
       <c r="G2" s="25"/>
       <c r="I2" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
@@ -1392,13 +1392,13 @@
       </c>
       <c r="O2" s="41"/>
       <c r="P2" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q2" s="24">
         <v>19867.2</v>
       </c>
       <c r="S2" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="49"/>
       <c r="U2" s="49"/>
@@ -1406,7 +1406,7 @@
         <v>348494.96600000001</v>
       </c>
       <c r="W2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:68" x14ac:dyDescent="0.35">
@@ -1417,7 +1417,7 @@
         <v>44</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I3" s="49" t="s">
         <v>28</v>
@@ -1429,13 +1429,13 @@
       </c>
       <c r="O3" s="41"/>
       <c r="P3" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="24">
         <v>43560</v>
       </c>
       <c r="S3" s="49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T3" s="49"/>
       <c r="U3" s="49"/>
@@ -1443,7 +1443,7 @@
         <v>2066077.2990000001</v>
       </c>
       <c r="W3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:68" x14ac:dyDescent="0.35">
@@ -1455,28 +1455,28 @@
       </c>
       <c r="D4" s="13"/>
       <c r="F4" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="6">
         <v>4198</v>
       </c>
       <c r="I4" s="49" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="J4" s="49"/>
       <c r="K4" s="49"/>
       <c r="L4" s="15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O4" s="41"/>
       <c r="P4" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q4" s="24">
         <v>601000</v>
       </c>
       <c r="S4" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T4" s="49"/>
       <c r="U4" s="49"/>
@@ -1485,34 +1485,34 @@
         <v>2140754.7910200004</v>
       </c>
       <c r="W4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:68" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
       <c r="F5" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="6">
         <v>3726</v>
       </c>
       <c r="I5" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" s="49"/>
       <c r="K5" s="49"/>
       <c r="L5" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="41"/>
       <c r="P5" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="24">
         <v>15025</v>
       </c>
       <c r="S5" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T5" s="49"/>
       <c r="U5" s="49"/>
@@ -1521,18 +1521,18 @@
         <v>423172.45869000006</v>
       </c>
       <c r="W5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:68" x14ac:dyDescent="0.35">
       <c r="F6" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="6">
         <v>4765</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
@@ -1541,13 +1541,13 @@
       </c>
       <c r="O6" s="41"/>
       <c r="P6" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q6" s="26">
         <v>0.95</v>
       </c>
       <c r="S6" s="49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T6" s="49"/>
       <c r="U6" s="49"/>
@@ -1556,25 +1556,25 @@
         <v>13968.472320000001</v>
       </c>
       <c r="W6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:68" x14ac:dyDescent="0.35">
       <c r="F7" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="6">
         <v>4050</v>
       </c>
       <c r="O7" s="41"/>
       <c r="P7" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="26">
         <v>50</v>
       </c>
       <c r="S7" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T7" s="49"/>
       <c r="U7" s="49"/>
@@ -1583,25 +1583,25 @@
         <v>29903074042.27026</v>
       </c>
       <c r="W7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:68" x14ac:dyDescent="0.35">
       <c r="F8" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" s="6">
         <v>5974</v>
       </c>
       <c r="O8" s="41"/>
       <c r="P8" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="26">
         <v>10</v>
       </c>
       <c r="S8" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T8" s="49"/>
       <c r="U8" s="49"/>
@@ -1610,19 +1610,19 @@
         <v>5911072775.7976093</v>
       </c>
       <c r="W8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:68" x14ac:dyDescent="0.35">
       <c r="F9" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="6">
         <v>5009</v>
       </c>
       <c r="O9" s="41"/>
       <c r="P9" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q9" s="26">
         <v>300</v>
@@ -1634,14 +1634,14 @@
     </row>
     <row r="10" spans="2:68" x14ac:dyDescent="0.35">
       <c r="F10" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" s="6">
         <v>4359</v>
       </c>
       <c r="O10" s="41"/>
       <c r="P10" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="26">
         <v>1</v>
@@ -1653,14 +1653,14 @@
     </row>
     <row r="11" spans="2:68" x14ac:dyDescent="0.35">
       <c r="F11" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" s="6">
         <v>3780</v>
       </c>
       <c r="O11" s="41"/>
       <c r="P11" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="26">
         <v>3</v>
@@ -1682,7 +1682,7 @@
       <c r="N12" s="43"/>
       <c r="O12" s="43"/>
       <c r="P12" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="26">
         <v>3</v>
@@ -1715,21 +1715,21 @@
     </row>
     <row r="15" spans="2:68" x14ac:dyDescent="0.35">
       <c r="M15" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N15" s="7">
         <f>90*16</f>
         <v>1440</v>
       </c>
       <c r="S15" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T15" s="7">
         <f>8*90</f>
         <v>720</v>
       </c>
       <c r="Y15" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z15" s="7">
         <f>91*16</f>
@@ -1740,14 +1740,14 @@
       <c r="AC15" s="33"/>
       <c r="AD15" s="25"/>
       <c r="AE15" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF15" s="7">
         <f>91*8</f>
         <v>728</v>
       </c>
       <c r="AK15" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AL15" s="7">
         <f>92*16</f>
@@ -1758,14 +1758,14 @@
       <c r="AO15" s="33"/>
       <c r="AP15" s="25"/>
       <c r="AQ15" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AR15" s="7">
         <f>92*8</f>
         <v>736</v>
       </c>
       <c r="AW15" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AX15" s="7">
         <f>92*16</f>
@@ -1776,21 +1776,21 @@
       <c r="BA15" s="33"/>
       <c r="BB15" s="25"/>
       <c r="BC15" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BD15" s="7">
         <f>92*8</f>
         <v>736</v>
       </c>
       <c r="BH15" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BI15" s="49"/>
       <c r="BJ15" s="48">
         <v>16054000</v>
       </c>
       <c r="BN15" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BO15" s="49"/>
       <c r="BP15" s="48">
@@ -1799,57 +1799,57 @@
     </row>
     <row r="16" spans="2:68" x14ac:dyDescent="0.35">
       <c r="E16" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="2"/>
       <c r="R16" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S16" s="33"/>
       <c r="T16" s="32"/>
       <c r="X16" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y16" s="33"/>
       <c r="Z16" s="34"/>
       <c r="AD16" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE16" s="33"/>
       <c r="AF16" s="34"/>
       <c r="AJ16" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK16" s="33"/>
       <c r="AL16" s="34"/>
       <c r="AP16" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AQ16" s="33"/>
       <c r="AR16" s="34"/>
       <c r="AV16" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AW16" s="33"/>
       <c r="AX16" s="34"/>
       <c r="BB16" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BC16" s="33"/>
       <c r="BD16" s="34"/>
       <c r="BF16" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BG16" s="49"/>
       <c r="BH16" s="49"/>
       <c r="BI16" s="49"/>
       <c r="BJ16" s="49"/>
       <c r="BL16" s="49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BM16" s="49"/>
       <c r="BN16" s="49"/>
@@ -1861,22 +1861,22 @@
         <v>27</v>
       </c>
       <c r="C17" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="E17" t="s">
         <v>147</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>148</v>
       </c>
-      <c r="F17" t="s">
-        <v>149</v>
-      </c>
       <c r="G17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" t="s">
         <v>153</v>
-      </c>
-      <c r="H17" t="s">
-        <v>154</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>27</v>
@@ -7803,23 +7803,23 @@
         <v>25</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H54" s="4"/>
       <c r="J54" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K54" s="4"/>
       <c r="M54" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N54" s="4"/>
       <c r="P54" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q54" s="4"/>
       <c r="S54" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T54" s="4"/>
       <c r="V54" s="4" t="s">
@@ -7830,7 +7830,7 @@
         <v>13</v>
       </c>
       <c r="AB54" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF54" s="4" t="s">
         <v>15</v>
@@ -7864,25 +7864,25 @@
       <c r="D55" s="63"/>
       <c r="E55" s="63"/>
       <c r="G55" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H55">
         <v>0.5</v>
       </c>
       <c r="J55" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K55">
         <v>0.7</v>
       </c>
       <c r="M55" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N55">
         <v>1</v>
       </c>
       <c r="P55" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q55">
         <v>0.7</v>
@@ -9912,28 +9912,28 @@
       </c>
       <c r="H77" s="6">
         <f t="shared" ref="H77:H96" si="42">$L$4*$G109*H$55</f>
-        <v>14.05</v>
+        <v>10.537500000000001</v>
       </c>
       <c r="J77" s="35">
         <v>21</v>
       </c>
       <c r="K77" s="6">
         <f t="shared" ref="K77:K96" si="43">$L$4*$G109*K$55</f>
-        <v>19.669999999999998</v>
+        <v>14.752500000000001</v>
       </c>
       <c r="M77" s="35">
         <v>21</v>
       </c>
       <c r="N77" s="6">
         <f>$L$4*$G109*N$55</f>
-        <v>28.1</v>
+        <v>21.075000000000003</v>
       </c>
       <c r="P77" s="35">
         <v>21</v>
       </c>
       <c r="Q77" s="6">
         <f t="shared" ref="Q77:Q96" si="44">$L$4*$G109*Q$55</f>
-        <v>19.669999999999998</v>
+        <v>14.752500000000001</v>
       </c>
       <c r="S77" s="32">
         <v>21</v>
@@ -9959,7 +9959,7 @@
       </c>
       <c r="AC77" s="40">
         <f>Q77</f>
-        <v>19.669999999999998</v>
+        <v>14.752500000000001</v>
       </c>
       <c r="AE77" s="32">
         <v>21</v>
@@ -10013,28 +10013,28 @@
       </c>
       <c r="H78" s="6">
         <f t="shared" si="42"/>
-        <v>12.5</v>
+        <v>9.375</v>
       </c>
       <c r="J78" s="35">
         <v>22</v>
       </c>
       <c r="K78" s="6">
         <f t="shared" si="43"/>
-        <v>17.5</v>
+        <v>13.125</v>
       </c>
       <c r="M78" s="35">
         <v>22</v>
       </c>
       <c r="N78" s="6">
         <f t="shared" ref="N78:N96" si="45">$L$4*$G110</f>
-        <v>25</v>
+        <v>18.75</v>
       </c>
       <c r="P78" s="35">
         <v>22</v>
       </c>
       <c r="Q78" s="6">
         <f t="shared" si="44"/>
-        <v>17.5</v>
+        <v>13.125</v>
       </c>
       <c r="S78" s="32">
         <v>22</v>
@@ -10060,7 +10060,7 @@
       </c>
       <c r="AC78" s="40">
         <f t="shared" ref="AC78:AC96" si="46">Q78</f>
-        <v>17.5</v>
+        <v>13.125</v>
       </c>
       <c r="AE78" s="32">
         <v>22</v>
@@ -10114,28 +10114,28 @@
       </c>
       <c r="H79" s="6">
         <f t="shared" si="42"/>
-        <v>35</v>
+        <v>26.25</v>
       </c>
       <c r="J79" s="35">
         <v>23</v>
       </c>
       <c r="K79" s="6">
         <f t="shared" si="43"/>
-        <v>49</v>
+        <v>36.75</v>
       </c>
       <c r="M79" s="35">
         <v>23</v>
       </c>
       <c r="N79" s="6">
         <f t="shared" si="45"/>
-        <v>70</v>
+        <v>52.5</v>
       </c>
       <c r="P79" s="35">
         <v>23</v>
       </c>
       <c r="Q79" s="6">
         <f t="shared" si="44"/>
-        <v>49</v>
+        <v>36.75</v>
       </c>
       <c r="S79" s="32">
         <v>23</v>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="AC79" s="40">
         <f t="shared" si="46"/>
-        <v>49</v>
+        <v>36.75</v>
       </c>
       <c r="AE79" s="32">
         <v>23</v>
@@ -10215,28 +10215,28 @@
       </c>
       <c r="H80" s="6">
         <f t="shared" si="42"/>
-        <v>15.3</v>
+        <v>11.475000000000001</v>
       </c>
       <c r="J80" s="35">
         <v>24</v>
       </c>
       <c r="K80" s="6">
         <f t="shared" si="43"/>
-        <v>21.419999999999998</v>
+        <v>16.065000000000001</v>
       </c>
       <c r="M80" s="35">
         <v>24</v>
       </c>
       <c r="N80" s="6">
         <f t="shared" si="45"/>
-        <v>30.6</v>
+        <v>22.950000000000003</v>
       </c>
       <c r="P80" s="35">
         <v>24</v>
       </c>
       <c r="Q80" s="6">
         <f t="shared" si="44"/>
-        <v>21.419999999999998</v>
+        <v>16.065000000000001</v>
       </c>
       <c r="S80" s="32">
         <v>24</v>
@@ -10262,7 +10262,7 @@
       </c>
       <c r="AC80" s="40">
         <f t="shared" si="46"/>
-        <v>21.419999999999998</v>
+        <v>16.065000000000001</v>
       </c>
       <c r="AE80" s="32">
         <v>24</v>
@@ -10316,28 +10316,28 @@
       </c>
       <c r="H81" s="6">
         <f t="shared" si="42"/>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="J81" s="35">
         <v>25</v>
       </c>
       <c r="K81" s="6">
         <f t="shared" si="43"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="M81" s="35">
         <v>25</v>
       </c>
       <c r="N81" s="6">
         <f t="shared" si="45"/>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="P81" s="35">
         <v>25</v>
       </c>
       <c r="Q81" s="6">
         <f t="shared" si="44"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="S81" s="32">
         <v>25</v>
@@ -10363,7 +10363,7 @@
       </c>
       <c r="AC81" s="40">
         <f t="shared" si="46"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="AE81" s="32">
         <v>25</v>
@@ -10417,28 +10417,28 @@
       </c>
       <c r="H82" s="6">
         <f t="shared" si="42"/>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="J82" s="35">
         <v>26</v>
       </c>
       <c r="K82" s="6">
         <f t="shared" si="43"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="M82" s="35">
         <v>26</v>
       </c>
       <c r="N82" s="6">
         <f t="shared" si="45"/>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="P82" s="35">
         <v>26</v>
       </c>
       <c r="Q82" s="6">
         <f t="shared" si="44"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="S82" s="32">
         <v>26</v>
@@ -10464,7 +10464,7 @@
       </c>
       <c r="AC82" s="40">
         <f t="shared" si="46"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="AE82" s="32">
         <v>26</v>
@@ -10518,28 +10518,28 @@
       </c>
       <c r="H83" s="6">
         <f t="shared" si="42"/>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="J83" s="35">
         <v>27</v>
       </c>
       <c r="K83" s="6">
         <f t="shared" si="43"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="M83" s="35">
         <v>27</v>
       </c>
       <c r="N83" s="6">
         <f t="shared" si="45"/>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="P83" s="35">
         <v>27</v>
       </c>
       <c r="Q83" s="6">
         <f t="shared" si="44"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="S83" s="32">
         <v>27</v>
@@ -10565,7 +10565,7 @@
       </c>
       <c r="AC83" s="40">
         <f t="shared" si="46"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="AE83" s="32">
         <v>27</v>
@@ -10619,28 +10619,28 @@
       </c>
       <c r="H84" s="6">
         <f t="shared" si="42"/>
-        <v>26.1</v>
+        <v>19.575000000000003</v>
       </c>
       <c r="J84" s="35">
         <v>28</v>
       </c>
       <c r="K84" s="6">
         <f t="shared" si="43"/>
-        <v>36.54</v>
+        <v>27.405000000000001</v>
       </c>
       <c r="M84" s="35">
         <v>28</v>
       </c>
       <c r="N84" s="6">
         <f t="shared" si="45"/>
-        <v>52.2</v>
+        <v>39.150000000000006</v>
       </c>
       <c r="P84" s="35">
         <v>28</v>
       </c>
       <c r="Q84" s="6">
         <f t="shared" si="44"/>
-        <v>36.54</v>
+        <v>27.405000000000001</v>
       </c>
       <c r="S84" s="32">
         <v>28</v>
@@ -10666,7 +10666,7 @@
       </c>
       <c r="AC84" s="40">
         <f t="shared" si="46"/>
-        <v>36.54</v>
+        <v>27.405000000000001</v>
       </c>
       <c r="AE84" s="32">
         <v>28</v>
@@ -10720,28 +10720,28 @@
       </c>
       <c r="H85" s="6">
         <f t="shared" si="42"/>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="J85" s="35">
         <v>29</v>
       </c>
       <c r="K85" s="6">
         <f t="shared" si="43"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="M85" s="35">
         <v>29</v>
       </c>
       <c r="N85" s="6">
         <f t="shared" si="45"/>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="P85" s="35">
         <v>29</v>
       </c>
       <c r="Q85" s="6">
         <f t="shared" si="44"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="S85" s="32">
         <v>29</v>
@@ -10767,7 +10767,7 @@
       </c>
       <c r="AC85" s="40">
         <f t="shared" si="46"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="AE85" s="32">
         <v>29</v>
@@ -10821,28 +10821,28 @@
       </c>
       <c r="H86" s="6">
         <f t="shared" si="42"/>
-        <v>10.1</v>
+        <v>7.5749999999999993</v>
       </c>
       <c r="J86" s="35">
         <v>30</v>
       </c>
       <c r="K86" s="6">
         <f t="shared" si="43"/>
-        <v>14.139999999999999</v>
+        <v>10.604999999999999</v>
       </c>
       <c r="M86" s="35">
         <v>30</v>
       </c>
       <c r="N86" s="6">
         <f t="shared" si="45"/>
-        <v>20.2</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="P86" s="35">
         <v>30</v>
       </c>
       <c r="Q86" s="6">
         <f t="shared" si="44"/>
-        <v>14.139999999999999</v>
+        <v>10.604999999999999</v>
       </c>
       <c r="S86" s="32">
         <v>30</v>
@@ -10868,7 +10868,7 @@
       </c>
       <c r="AC86" s="40">
         <f t="shared" si="46"/>
-        <v>14.139999999999999</v>
+        <v>10.604999999999999</v>
       </c>
       <c r="AE86" s="32">
         <v>30</v>
@@ -10922,28 +10922,28 @@
       </c>
       <c r="H87" s="6">
         <f t="shared" si="42"/>
-        <v>35</v>
+        <v>26.25</v>
       </c>
       <c r="J87" s="35">
         <v>31</v>
       </c>
       <c r="K87" s="6">
         <f t="shared" si="43"/>
-        <v>49</v>
+        <v>36.75</v>
       </c>
       <c r="M87" s="35">
         <v>31</v>
       </c>
       <c r="N87" s="6">
         <f t="shared" si="45"/>
-        <v>70</v>
+        <v>52.5</v>
       </c>
       <c r="P87" s="35">
         <v>31</v>
       </c>
       <c r="Q87" s="6">
         <f t="shared" si="44"/>
-        <v>49</v>
+        <v>36.75</v>
       </c>
       <c r="S87" s="32">
         <v>31</v>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="AC87" s="40">
         <f t="shared" si="46"/>
-        <v>49</v>
+        <v>36.75</v>
       </c>
       <c r="AE87" s="32">
         <v>31</v>
@@ -11023,28 +11023,28 @@
       </c>
       <c r="H88" s="6">
         <f t="shared" si="42"/>
-        <v>5.25</v>
+        <v>3.9375</v>
       </c>
       <c r="J88" s="35">
         <v>32</v>
       </c>
       <c r="K88" s="6">
         <f t="shared" si="43"/>
-        <v>7.35</v>
+        <v>5.5124999999999993</v>
       </c>
       <c r="M88" s="35">
         <v>32</v>
       </c>
       <c r="N88" s="6">
         <f t="shared" si="45"/>
-        <v>10.5</v>
+        <v>7.875</v>
       </c>
       <c r="P88" s="35">
         <v>32</v>
       </c>
       <c r="Q88" s="6">
         <f t="shared" si="44"/>
-        <v>7.35</v>
+        <v>5.5124999999999993</v>
       </c>
       <c r="S88" s="32">
         <v>32</v>
@@ -11070,7 +11070,7 @@
       </c>
       <c r="AC88" s="40">
         <f t="shared" si="46"/>
-        <v>7.35</v>
+        <v>5.5124999999999993</v>
       </c>
       <c r="AE88" s="32">
         <v>32</v>
@@ -11124,28 +11124,28 @@
       </c>
       <c r="H89" s="6">
         <f t="shared" si="42"/>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="J89" s="35">
         <v>33</v>
       </c>
       <c r="K89" s="6">
         <f t="shared" si="43"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="M89" s="35">
         <v>33</v>
       </c>
       <c r="N89" s="6">
         <f t="shared" si="45"/>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="P89" s="35">
         <v>33</v>
       </c>
       <c r="Q89" s="6">
         <f t="shared" si="44"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="S89" s="32">
         <v>33</v>
@@ -11171,7 +11171,7 @@
       </c>
       <c r="AC89" s="40">
         <f t="shared" si="46"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="AE89" s="32">
         <v>33</v>
@@ -11225,28 +11225,28 @@
       </c>
       <c r="H90" s="6">
         <f t="shared" si="42"/>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="J90" s="35">
         <v>34</v>
       </c>
       <c r="K90" s="6">
         <f t="shared" si="43"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="M90" s="35">
         <v>34</v>
       </c>
       <c r="N90" s="6">
         <f t="shared" si="45"/>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="P90" s="35">
         <v>34</v>
       </c>
       <c r="Q90" s="6">
         <f t="shared" si="44"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="S90" s="32">
         <v>34</v>
@@ -11272,7 +11272,7 @@
       </c>
       <c r="AC90" s="40">
         <f t="shared" si="46"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="AE90" s="32">
         <v>34</v>
@@ -11326,28 +11326,28 @@
       </c>
       <c r="H91" s="6">
         <f t="shared" si="42"/>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="J91" s="35">
         <v>35</v>
       </c>
       <c r="K91" s="6">
         <f t="shared" si="43"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="M91" s="35">
         <v>35</v>
       </c>
       <c r="N91" s="6">
         <f t="shared" si="45"/>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="P91" s="35">
         <v>35</v>
       </c>
       <c r="Q91" s="6">
         <f t="shared" si="44"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="S91" s="32">
         <v>35</v>
@@ -11373,7 +11373,7 @@
       </c>
       <c r="AC91" s="40">
         <f t="shared" si="46"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="AE91" s="32">
         <v>35</v>
@@ -11427,28 +11427,28 @@
       </c>
       <c r="H92" s="6">
         <f t="shared" si="42"/>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="J92" s="35">
         <v>36</v>
       </c>
       <c r="K92" s="6">
         <f t="shared" si="43"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="M92" s="35">
         <v>36</v>
       </c>
       <c r="N92" s="6">
         <f t="shared" si="45"/>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="P92" s="35">
         <v>36</v>
       </c>
       <c r="Q92" s="6">
         <f t="shared" si="44"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="S92" s="32">
         <v>36</v>
@@ -11474,7 +11474,7 @@
       </c>
       <c r="AC92" s="40">
         <f t="shared" si="46"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="AE92" s="32">
         <v>36</v>
@@ -11528,28 +11528,28 @@
       </c>
       <c r="H93" s="6">
         <f t="shared" si="42"/>
-        <v>5.05</v>
+        <v>3.7874999999999996</v>
       </c>
       <c r="J93" s="35">
         <v>37</v>
       </c>
       <c r="K93" s="6">
         <f t="shared" si="43"/>
-        <v>7.0699999999999994</v>
+        <v>5.3024999999999993</v>
       </c>
       <c r="M93" s="35">
         <v>37</v>
       </c>
       <c r="N93" s="6">
         <f t="shared" si="45"/>
-        <v>10.1</v>
+        <v>7.5749999999999993</v>
       </c>
       <c r="P93" s="35">
         <v>37</v>
       </c>
       <c r="Q93" s="6">
         <f t="shared" si="44"/>
-        <v>7.0699999999999994</v>
+        <v>5.3024999999999993</v>
       </c>
       <c r="S93" s="32">
         <v>37</v>
@@ -11575,7 +11575,7 @@
       </c>
       <c r="AC93" s="40">
         <f t="shared" si="46"/>
-        <v>7.0699999999999994</v>
+        <v>5.3024999999999993</v>
       </c>
       <c r="AE93" s="32">
         <v>37</v>
@@ -11629,28 +11629,28 @@
       </c>
       <c r="H94" s="6">
         <f t="shared" si="42"/>
-        <v>5.05</v>
+        <v>3.7874999999999996</v>
       </c>
       <c r="J94" s="35">
         <v>38</v>
       </c>
       <c r="K94" s="6">
         <f t="shared" si="43"/>
-        <v>7.0699999999999994</v>
+        <v>5.3024999999999993</v>
       </c>
       <c r="M94" s="35">
         <v>38</v>
       </c>
       <c r="N94" s="6">
         <f t="shared" si="45"/>
-        <v>10.1</v>
+        <v>7.5749999999999993</v>
       </c>
       <c r="P94" s="35">
         <v>38</v>
       </c>
       <c r="Q94" s="6">
         <f t="shared" si="44"/>
-        <v>7.0699999999999994</v>
+        <v>5.3024999999999993</v>
       </c>
       <c r="S94" s="32">
         <v>38</v>
@@ -11676,7 +11676,7 @@
       </c>
       <c r="AC94" s="40">
         <f t="shared" si="46"/>
-        <v>7.0699999999999994</v>
+        <v>5.3024999999999993</v>
       </c>
       <c r="AE94" s="32">
         <v>38</v>
@@ -11730,28 +11730,28 @@
       </c>
       <c r="H95" s="6">
         <f t="shared" si="42"/>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="J95" s="35">
         <v>39</v>
       </c>
       <c r="K95" s="6">
         <f t="shared" si="43"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="M95" s="35">
         <v>39</v>
       </c>
       <c r="N95" s="6">
         <f t="shared" si="45"/>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="P95" s="35">
         <v>39</v>
       </c>
       <c r="Q95" s="6">
         <f t="shared" si="44"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="S95" s="32">
         <v>39</v>
@@ -11777,7 +11777,7 @@
       </c>
       <c r="AC95" s="40">
         <f t="shared" si="46"/>
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="AE95" s="32">
         <v>39</v>
@@ -11831,28 +11831,28 @@
       </c>
       <c r="H96" s="6">
         <f t="shared" si="42"/>
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J96" s="35">
         <v>40</v>
       </c>
       <c r="K96" s="6">
         <f t="shared" si="43"/>
-        <v>8.3999999999999986</v>
+        <v>6.3</v>
       </c>
       <c r="M96" s="35">
         <v>40</v>
       </c>
       <c r="N96" s="6">
         <f t="shared" si="45"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P96" s="35">
         <v>40</v>
       </c>
       <c r="Q96" s="6">
         <f t="shared" si="44"/>
-        <v>8.3999999999999986</v>
+        <v>6.3</v>
       </c>
       <c r="S96" s="32">
         <v>40</v>
@@ -11878,7 +11878,7 @@
       </c>
       <c r="AC96" s="40">
         <f t="shared" si="46"/>
-        <v>8.3999999999999986</v>
+        <v>6.3</v>
       </c>
       <c r="AE96" s="32">
         <v>40</v>
@@ -11913,7 +11913,7 @@
     </row>
     <row r="97" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B97" s="22">
         <v>41</v>
@@ -11955,7 +11955,7 @@
         <v>41</v>
       </c>
       <c r="T97" s="6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="V97" s="22">
         <v>41</v>
@@ -12009,7 +12009,7 @@
     </row>
     <row r="98" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B98" s="22">
         <v>42</v>
@@ -12051,7 +12051,7 @@
         <v>42</v>
       </c>
       <c r="T98" s="6">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="V98" s="42">
         <v>42</v>
@@ -12076,7 +12076,7 @@
         <v>42</v>
       </c>
       <c r="AF98" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG98" s="6">
         <v>0</v>
@@ -12105,7 +12105,7 @@
     </row>
     <row r="99" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="42">
         <v>44</v>
@@ -12198,7 +12198,7 @@
     </row>
     <row r="100" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B100" s="29">
         <v>44</v>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="H106" s="57"/>
       <c r="N106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.35">

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -970,31 +970,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1006,17 +1006,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1302,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T94" sqref="T94"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="F1" s="49"/>
       <c r="G1" s="14">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I1" s="49" t="s">
         <v>79</v>
@@ -7611,17 +7611,17 @@
       </c>
     </row>
     <row r="47" spans="2:68" x14ac:dyDescent="0.35">
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
       <c r="F47" s="2"/>
-      <c r="H47" s="63" t="s">
+      <c r="H47" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
       <c r="O47" s="4"/>
@@ -7858,11 +7858,11 @@
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="C55" s="63" t="s">
+      <c r="C55" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
       <c r="G55" s="38" t="s">
         <v>132</v>
       </c>
@@ -12253,26 +12253,26 @@
       <c r="AO100" s="6"/>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D106" s="64" t="s">
+      <c r="D106" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="E106" s="56" t="s">
+      <c r="E106" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="F106" s="56"/>
-      <c r="G106" s="56" t="s">
+      <c r="F106" s="53"/>
+      <c r="G106" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="H106" s="57"/>
+      <c r="H106" s="58"/>
       <c r="N106" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D107" s="65"/>
-      <c r="E107" s="58"/>
-      <c r="F107" s="58"/>
-      <c r="G107" s="58"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="54"/>
       <c r="H107" s="59"/>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.35">
@@ -12287,10 +12287,10 @@
       <c r="D109" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E109" s="62">
+      <c r="E109" s="55">
         <v>72154</v>
       </c>
-      <c r="F109" s="62"/>
+      <c r="F109" s="55"/>
       <c r="G109" s="60">
         <v>28.1</v>
       </c>
@@ -12303,14 +12303,14 @@
       <c r="D110" s="19">
         <v>0.31</v>
       </c>
-      <c r="E110" s="52">
+      <c r="E110" s="56">
         <v>67811</v>
       </c>
-      <c r="F110" s="52"/>
-      <c r="G110" s="50">
+      <c r="F110" s="56"/>
+      <c r="G110" s="62">
         <v>25</v>
       </c>
-      <c r="H110" s="51"/>
+      <c r="H110" s="63"/>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C111" s="18">
@@ -12319,14 +12319,14 @@
       <c r="D111" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E111" s="52">
+      <c r="E111" s="56">
         <v>187455</v>
       </c>
-      <c r="F111" s="52"/>
-      <c r="G111" s="50">
+      <c r="F111" s="56"/>
+      <c r="G111" s="62">
         <v>70</v>
       </c>
-      <c r="H111" s="51"/>
+      <c r="H111" s="63"/>
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C112" s="18">
@@ -12335,14 +12335,14 @@
       <c r="D112" s="19">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E112" s="52">
+      <c r="E112" s="56">
         <v>63266</v>
       </c>
-      <c r="F112" s="52"/>
-      <c r="G112" s="50">
+      <c r="F112" s="56"/>
+      <c r="G112" s="62">
         <v>30.6</v>
       </c>
-      <c r="H112" s="51"/>
+      <c r="H112" s="63"/>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" s="18">
@@ -12351,14 +12351,14 @@
       <c r="D113" s="19">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E113" s="52">
+      <c r="E113" s="56">
         <v>26553</v>
       </c>
-      <c r="F113" s="52"/>
-      <c r="G113" s="50">
+      <c r="F113" s="56"/>
+      <c r="G113" s="62">
         <v>10</v>
       </c>
-      <c r="H113" s="51"/>
+      <c r="H113" s="63"/>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" s="18">
@@ -12367,14 +12367,14 @@
       <c r="D114" s="19">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E114" s="52">
+      <c r="E114" s="56">
         <v>24949</v>
       </c>
-      <c r="F114" s="52"/>
-      <c r="G114" s="50">
+      <c r="F114" s="56"/>
+      <c r="G114" s="62">
         <v>10</v>
       </c>
-      <c r="H114" s="51"/>
+      <c r="H114" s="63"/>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" s="18">
@@ -12383,14 +12383,14 @@
       <c r="D115" s="19">
         <v>0.26100000000000001</v>
       </c>
-      <c r="E115" s="52">
+      <c r="E115" s="56">
         <v>22870</v>
       </c>
-      <c r="F115" s="52"/>
-      <c r="G115" s="50">
+      <c r="F115" s="56"/>
+      <c r="G115" s="62">
         <v>10</v>
       </c>
-      <c r="H115" s="51"/>
+      <c r="H115" s="63"/>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C116" s="18">
@@ -12399,14 +12399,14 @@
       <c r="D116" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E116" s="52">
+      <c r="E116" s="56">
         <v>139836</v>
       </c>
-      <c r="F116" s="52"/>
-      <c r="G116" s="50">
+      <c r="F116" s="56"/>
+      <c r="G116" s="62">
         <v>52.2</v>
       </c>
-      <c r="H116" s="51"/>
+      <c r="H116" s="63"/>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C117" s="18">
@@ -12415,14 +12415,14 @@
       <c r="D117" s="19">
         <v>0.26800000000000002</v>
       </c>
-      <c r="E117" s="52">
+      <c r="E117" s="56">
         <v>23515</v>
       </c>
-      <c r="F117" s="52"/>
-      <c r="G117" s="50">
+      <c r="F117" s="56"/>
+      <c r="G117" s="62">
         <v>10</v>
       </c>
-      <c r="H117" s="51"/>
+      <c r="H117" s="63"/>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C118" s="18">
@@ -12431,14 +12431,14 @@
       <c r="D118" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E118" s="52">
+      <c r="E118" s="56">
         <v>49503</v>
       </c>
-      <c r="F118" s="52"/>
-      <c r="G118" s="50">
+      <c r="F118" s="56"/>
+      <c r="G118" s="62">
         <v>20.2</v>
       </c>
-      <c r="H118" s="51"/>
+      <c r="H118" s="63"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C119" s="18">
@@ -12447,14 +12447,14 @@
       <c r="D119" s="19">
         <v>0.307</v>
       </c>
-      <c r="E119" s="52">
+      <c r="E119" s="56">
         <v>188420</v>
       </c>
-      <c r="F119" s="52"/>
-      <c r="G119" s="50">
+      <c r="F119" s="56"/>
+      <c r="G119" s="62">
         <v>70</v>
       </c>
-      <c r="H119" s="51"/>
+      <c r="H119" s="63"/>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C120" s="18">
@@ -12463,14 +12463,14 @@
       <c r="D120" s="19">
         <v>0.28899999999999998</v>
       </c>
-      <c r="E120" s="52">
+      <c r="E120" s="56">
         <v>26573</v>
       </c>
-      <c r="F120" s="52"/>
-      <c r="G120" s="50">
+      <c r="F120" s="56"/>
+      <c r="G120" s="62">
         <v>10.5</v>
       </c>
-      <c r="H120" s="51"/>
+      <c r="H120" s="63"/>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C121" s="18">
@@ -12479,14 +12479,14 @@
       <c r="D121" s="19">
         <v>0.28799999999999998</v>
       </c>
-      <c r="E121" s="52">
+      <c r="E121" s="56">
         <v>25253</v>
       </c>
-      <c r="F121" s="52"/>
-      <c r="G121" s="50">
+      <c r="F121" s="56"/>
+      <c r="G121" s="62">
         <v>10</v>
       </c>
-      <c r="H121" s="51"/>
+      <c r="H121" s="63"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C122" s="18">
@@ -12495,14 +12495,14 @@
       <c r="D122" s="19">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E122" s="52">
+      <c r="E122" s="56">
         <v>17610</v>
       </c>
-      <c r="F122" s="52"/>
-      <c r="G122" s="50">
+      <c r="F122" s="56"/>
+      <c r="G122" s="62">
         <v>10</v>
       </c>
-      <c r="H122" s="51"/>
+      <c r="H122" s="63"/>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C123" s="18">
@@ -12511,14 +12511,14 @@
       <c r="D123" s="19">
         <v>0.221</v>
       </c>
-      <c r="E123" s="52">
+      <c r="E123" s="56">
         <v>19372</v>
       </c>
-      <c r="F123" s="52"/>
-      <c r="G123" s="50">
+      <c r="F123" s="56"/>
+      <c r="G123" s="62">
         <v>10</v>
       </c>
-      <c r="H123" s="51"/>
+      <c r="H123" s="63"/>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C124" s="18">
@@ -12527,14 +12527,14 @@
       <c r="D124" s="19">
         <v>0.216</v>
       </c>
-      <c r="E124" s="52">
+      <c r="E124" s="56">
         <v>18939</v>
       </c>
-      <c r="F124" s="52"/>
-      <c r="G124" s="50">
+      <c r="F124" s="56"/>
+      <c r="G124" s="62">
         <v>10</v>
       </c>
-      <c r="H124" s="51"/>
+      <c r="H124" s="63"/>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C125" s="18">
@@ -12543,14 +12543,14 @@
       <c r="D125" s="19">
         <v>0.23</v>
       </c>
-      <c r="E125" s="52">
+      <c r="E125" s="56">
         <v>20382</v>
       </c>
-      <c r="F125" s="52"/>
-      <c r="G125" s="50">
+      <c r="F125" s="56"/>
+      <c r="G125" s="62">
         <v>10.1</v>
       </c>
-      <c r="H125" s="51"/>
+      <c r="H125" s="63"/>
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C126" s="18">
@@ -12559,14 +12559,14 @@
       <c r="D126" s="19">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E126" s="52">
+      <c r="E126" s="56">
         <v>19968</v>
       </c>
-      <c r="F126" s="52"/>
-      <c r="G126" s="50">
+      <c r="F126" s="56"/>
+      <c r="G126" s="62">
         <v>10.1</v>
       </c>
-      <c r="H126" s="51"/>
+      <c r="H126" s="63"/>
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C127" s="18">
@@ -12575,14 +12575,14 @@
       <c r="D127" s="19">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E127" s="52">
+      <c r="E127" s="56">
         <v>23240</v>
       </c>
-      <c r="F127" s="52"/>
-      <c r="G127" s="50">
+      <c r="F127" s="56"/>
+      <c r="G127" s="62">
         <v>10</v>
       </c>
-      <c r="H127" s="51"/>
+      <c r="H127" s="63"/>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C128" s="20">
@@ -12591,37 +12591,47 @@
       <c r="D128" s="21">
         <v>0.254</v>
       </c>
-      <c r="E128" s="55">
+      <c r="E128" s="57">
         <v>26709</v>
       </c>
-      <c r="F128" s="55"/>
-      <c r="G128" s="53">
+      <c r="F128" s="57"/>
+      <c r="G128" s="64">
         <v>12</v>
       </c>
-      <c r="H128" s="54"/>
+      <c r="H128" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="BH15:BI15"/>
-    <mergeCell ref="BN15:BO15"/>
-    <mergeCell ref="BF16:BJ16"/>
-    <mergeCell ref="BL16:BP16"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:F107"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
     <mergeCell ref="E127:F127"/>
     <mergeCell ref="E128:F128"/>
     <mergeCell ref="G106:H107"/>
@@ -12638,36 +12648,26 @@
     <mergeCell ref="G119:H119"/>
     <mergeCell ref="G120:H120"/>
     <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:F107"/>
+    <mergeCell ref="BH15:BI15"/>
+    <mergeCell ref="BN15:BO15"/>
+    <mergeCell ref="BF16:BJ16"/>
+    <mergeCell ref="BL16:BP16"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="S8:U8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -22,6 +22,7 @@
     <definedName name="CAPEX_wind">Sheet2!$F$18:$F$43</definedName>
     <definedName name="CH4_rate">Sheet2!$AN$57:$AN$100</definedName>
     <definedName name="CO2_rate">Sheet2!$AM$57:$AM$100</definedName>
+    <definedName name="ConvUnitCap">Sheet2!$T$57:$T$76</definedName>
     <definedName name="DiscRate">Sheet2!$G$1</definedName>
     <definedName name="EV_subsidy_cost">Sheet2!$V$1</definedName>
     <definedName name="FallDemandOff">Sheet2!$BA$18:$BC$43</definedName>
@@ -58,6 +59,11 @@
     <definedName name="OPEX_wind">Sheet2!$Q$3</definedName>
     <definedName name="PeakHours">Sheet2!$C$6</definedName>
     <definedName name="RampRate">Sheet2!$AC$57:$AC$100</definedName>
+    <definedName name="retrofit_cap_cost">Sheet2!$L$8</definedName>
+    <definedName name="retrofit_CO2_removal">Sheet2!$L$12</definedName>
+    <definedName name="retrofit_NOx_removal">Sheet2!$L$10</definedName>
+    <definedName name="retrofit_opex_cost">Sheet2!$L$9</definedName>
+    <definedName name="retrofit_SO2_removal">Sheet2!$L$11</definedName>
     <definedName name="SO2_rate">Sheet2!$AL$57:$AL$100</definedName>
     <definedName name="solar_cap_factor">Sheet2!$L$4</definedName>
     <definedName name="solar_inc">Sheet2!$Q$7</definedName>
@@ -201,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="164">
   <si>
     <t>NumBuses</t>
   </si>
@@ -675,6 +681,24 @@
   </si>
   <si>
     <t>Solar Off-Peak Scale Factor</t>
+  </si>
+  <si>
+    <t>NGCC</t>
+  </si>
+  <si>
+    <t>Retrofit LCOE ($/MW):</t>
+  </si>
+  <si>
+    <t>Retrofit Levelized OPEX ($/MWh):</t>
+  </si>
+  <si>
+    <t>Retrofit NOx Removal</t>
+  </si>
+  <si>
+    <t>Retrofit SO2 Removal</t>
+  </si>
+  <si>
+    <t>Retrofit CO2 Removal</t>
   </si>
 </sst>
 </file>
@@ -859,7 +883,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -967,7 +991,13 @@
     </xf>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1303,7 +1333,7 @@
   <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1316,7 +1346,9 @@
     <col min="6" max="6" width="13.36328125" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" customWidth="1"/>
     <col min="12" max="12" width="8.6328125" customWidth="1"/>
     <col min="14" max="14" width="9.26953125" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
@@ -1340,18 +1372,18 @@
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="49"/>
+      <c r="F1" s="50"/>
       <c r="G1" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
       <c r="L1" s="15">
         <v>7256200.8565999996</v>
       </c>
@@ -1362,11 +1394,11 @@
       <c r="Q1" s="24">
         <v>0</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
       <c r="V1" s="24">
         <v>8809340386.1000004</v>
       </c>
@@ -1378,14 +1410,14 @@
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="25"/>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="23">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
@@ -1397,11 +1429,11 @@
       <c r="Q2" s="24">
         <v>19867.2</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
       <c r="V2" s="27">
         <v>348494.96600000001</v>
       </c>
@@ -1419,11 +1451,11 @@
       <c r="F3" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
       <c r="L3" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -1434,11 +1466,11 @@
       <c r="Q3" s="24">
         <v>43560</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="S3" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
       <c r="V3" s="28">
         <v>2066077.2990000001</v>
       </c>
@@ -1460,11 +1492,11 @@
       <c r="G4" s="6">
         <v>4198</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
       <c r="L4" s="15">
         <v>0.75</v>
       </c>
@@ -1475,11 +1507,11 @@
       <c r="Q4" s="24">
         <v>601000</v>
       </c>
-      <c r="S4" s="49" t="s">
+      <c r="S4" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
       <c r="V4" s="27">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
@@ -1496,11 +1528,11 @@
       <c r="G5" s="6">
         <v>3726</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
       <c r="L5" s="15">
         <v>0.5</v>
       </c>
@@ -1511,11 +1543,11 @@
       <c r="Q5" s="24">
         <v>15025</v>
       </c>
-      <c r="S5" s="49" t="s">
+      <c r="S5" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
       <c r="V5" s="27">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
@@ -1531,11 +1563,11 @@
       <c r="G6" s="6">
         <v>4765</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
       <c r="L6" s="15">
         <v>1</v>
       </c>
@@ -1546,11 +1578,11 @@
       <c r="Q6" s="26">
         <v>0.95</v>
       </c>
-      <c r="S6" s="49" t="s">
+      <c r="S6" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
       <c r="V6" s="27">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
@@ -1573,11 +1605,11 @@
       <c r="Q7" s="26">
         <v>50</v>
       </c>
-      <c r="S7" s="49" t="s">
+      <c r="S7" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
       <c r="V7" s="27">
         <f>V4*V6</f>
         <v>29903074042.27026</v>
@@ -1593,6 +1625,14 @@
       <c r="G8" s="6">
         <v>5974</v>
       </c>
+      <c r="I8" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="49">
+        <v>15.24</v>
+      </c>
       <c r="O8" s="41"/>
       <c r="P8" s="36" t="s">
         <v>86</v>
@@ -1600,11 +1640,11 @@
       <c r="Q8" s="26">
         <v>10</v>
       </c>
-      <c r="S8" s="49" t="s">
+      <c r="S8" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
       <c r="V8" s="27">
         <f>V5*V6</f>
         <v>5911072775.7976093</v>
@@ -1619,6 +1659,14 @@
       </c>
       <c r="G9" s="6">
         <v>5009</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="49">
+        <v>9.83</v>
       </c>
       <c r="O9" s="41"/>
       <c r="P9" s="36" t="s">
@@ -1639,6 +1687,14 @@
       <c r="G10" s="6">
         <v>4359</v>
       </c>
+      <c r="I10" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="27">
+        <v>0.73499999999999999</v>
+      </c>
       <c r="O10" s="41"/>
       <c r="P10" s="36" t="s">
         <v>140</v>
@@ -1657,6 +1713,14 @@
       </c>
       <c r="G11" s="6">
         <v>3780</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="27">
+        <v>0.65249999999999997</v>
       </c>
       <c r="O11" s="41"/>
       <c r="P11" s="36" t="s">
@@ -1674,10 +1738,14 @@
       <c r="F12" s="36"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="I12" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="27">
+        <v>0.81</v>
+      </c>
       <c r="M12" s="25"/>
       <c r="N12" s="43"/>
       <c r="O12" s="43"/>
@@ -1782,17 +1850,17 @@
         <f>92*8</f>
         <v>736</v>
       </c>
-      <c r="BH15" s="49" t="s">
+      <c r="BH15" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="BI15" s="49"/>
+      <c r="BI15" s="50"/>
       <c r="BJ15" s="48">
         <v>16054000</v>
       </c>
-      <c r="BN15" s="49" t="s">
+      <c r="BN15" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="BO15" s="49"/>
+      <c r="BO15" s="50"/>
       <c r="BP15" s="48">
         <v>10000000</v>
       </c>
@@ -1841,20 +1909,20 @@
       </c>
       <c r="BC16" s="33"/>
       <c r="BD16" s="34"/>
-      <c r="BF16" s="49" t="s">
+      <c r="BF16" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="BG16" s="49"/>
-      <c r="BH16" s="49"/>
-      <c r="BI16" s="49"/>
-      <c r="BJ16" s="49"/>
-      <c r="BL16" s="49" t="s">
+      <c r="BG16" s="50"/>
+      <c r="BH16" s="50"/>
+      <c r="BI16" s="50"/>
+      <c r="BJ16" s="50"/>
+      <c r="BL16" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="BM16" s="49"/>
-      <c r="BN16" s="49"/>
-      <c r="BO16" s="49"/>
-      <c r="BP16" s="49"/>
+      <c r="BM16" s="50"/>
+      <c r="BN16" s="50"/>
+      <c r="BO16" s="50"/>
+      <c r="BP16" s="50"/>
     </row>
     <row r="17" spans="2:68" x14ac:dyDescent="0.35">
       <c r="B17" s="44" t="s">
@@ -7611,17 +7679,17 @@
       </c>
     </row>
     <row r="47" spans="2:68" x14ac:dyDescent="0.35">
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
       <c r="F47" s="2"/>
-      <c r="H47" s="50" t="s">
+      <c r="H47" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
       <c r="O47" s="4"/>
@@ -7858,11 +7926,11 @@
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
       <c r="G55" s="38" t="s">
         <v>132</v>
       </c>
@@ -12108,7 +12176,7 @@
         <v>100</v>
       </c>
       <c r="B99" s="42">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C99" s="6">
         <v>0</v>
@@ -12120,56 +12188,59 @@
         <v>0</v>
       </c>
       <c r="G99" s="42">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H99" s="6">
         <v>0</v>
       </c>
       <c r="J99" s="42">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K99" s="6">
         <v>0</v>
       </c>
       <c r="M99" s="42">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N99" s="6">
         <v>0</v>
       </c>
       <c r="P99" s="42">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q99" s="6">
         <v>0</v>
       </c>
       <c r="S99" s="42">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T99" s="6">
         <v>10000</v>
       </c>
       <c r="V99" s="42">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W99" s="6">
         <v>-10000</v>
       </c>
       <c r="Y99" s="42">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z99" s="8">
         <f t="shared" ref="Z99" si="47">AG99*AH99*1000/1000000</f>
         <v>0</v>
       </c>
       <c r="AB99" s="42">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AC99" s="40">
         <v>10000</v>
       </c>
       <c r="AE99" s="42">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>100</v>
       </c>
       <c r="AG99" s="6">
         <v>0</v>
@@ -12178,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="AJ99" s="42">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AK99" s="6">
         <v>0</v>
@@ -12240,6 +12311,9 @@
       <c r="AC100" s="40"/>
       <c r="AE100" s="42">
         <v>44</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>158</v>
       </c>
       <c r="AG100" s="6"/>
       <c r="AH100" s="6"/>
@@ -12253,27 +12327,27 @@
       <c r="AO100" s="6"/>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D106" s="51" t="s">
+      <c r="D106" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="E106" s="53" t="s">
+      <c r="E106" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="F106" s="53"/>
-      <c r="G106" s="53" t="s">
+      <c r="F106" s="55"/>
+      <c r="G106" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="H106" s="58"/>
+      <c r="H106" s="60"/>
       <c r="N106" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D107" s="52"/>
-      <c r="E107" s="54"/>
-      <c r="F107" s="54"/>
-      <c r="G107" s="54"/>
-      <c r="H107" s="59"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="61"/>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
@@ -12287,14 +12361,14 @@
       <c r="D109" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E109" s="55">
+      <c r="E109" s="57">
         <v>72154</v>
       </c>
-      <c r="F109" s="55"/>
-      <c r="G109" s="60">
+      <c r="F109" s="57"/>
+      <c r="G109" s="62">
         <v>28.1</v>
       </c>
-      <c r="H109" s="61"/>
+      <c r="H109" s="63"/>
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C110" s="18">
@@ -12303,14 +12377,14 @@
       <c r="D110" s="19">
         <v>0.31</v>
       </c>
-      <c r="E110" s="56">
+      <c r="E110" s="58">
         <v>67811</v>
       </c>
-      <c r="F110" s="56"/>
-      <c r="G110" s="62">
+      <c r="F110" s="58"/>
+      <c r="G110" s="64">
         <v>25</v>
       </c>
-      <c r="H110" s="63"/>
+      <c r="H110" s="65"/>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C111" s="18">
@@ -12319,14 +12393,14 @@
       <c r="D111" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E111" s="56">
+      <c r="E111" s="58">
         <v>187455</v>
       </c>
-      <c r="F111" s="56"/>
-      <c r="G111" s="62">
+      <c r="F111" s="58"/>
+      <c r="G111" s="64">
         <v>70</v>
       </c>
-      <c r="H111" s="63"/>
+      <c r="H111" s="65"/>
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C112" s="18">
@@ -12335,14 +12409,14 @@
       <c r="D112" s="19">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E112" s="56">
+      <c r="E112" s="58">
         <v>63266</v>
       </c>
-      <c r="F112" s="56"/>
-      <c r="G112" s="62">
+      <c r="F112" s="58"/>
+      <c r="G112" s="64">
         <v>30.6</v>
       </c>
-      <c r="H112" s="63"/>
+      <c r="H112" s="65"/>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" s="18">
@@ -12351,14 +12425,14 @@
       <c r="D113" s="19">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E113" s="56">
+      <c r="E113" s="58">
         <v>26553</v>
       </c>
-      <c r="F113" s="56"/>
-      <c r="G113" s="62">
+      <c r="F113" s="58"/>
+      <c r="G113" s="64">
         <v>10</v>
       </c>
-      <c r="H113" s="63"/>
+      <c r="H113" s="65"/>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" s="18">
@@ -12367,14 +12441,14 @@
       <c r="D114" s="19">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E114" s="56">
+      <c r="E114" s="58">
         <v>24949</v>
       </c>
-      <c r="F114" s="56"/>
-      <c r="G114" s="62">
+      <c r="F114" s="58"/>
+      <c r="G114" s="64">
         <v>10</v>
       </c>
-      <c r="H114" s="63"/>
+      <c r="H114" s="65"/>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" s="18">
@@ -12383,14 +12457,14 @@
       <c r="D115" s="19">
         <v>0.26100000000000001</v>
       </c>
-      <c r="E115" s="56">
+      <c r="E115" s="58">
         <v>22870</v>
       </c>
-      <c r="F115" s="56"/>
-      <c r="G115" s="62">
+      <c r="F115" s="58"/>
+      <c r="G115" s="64">
         <v>10</v>
       </c>
-      <c r="H115" s="63"/>
+      <c r="H115" s="65"/>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C116" s="18">
@@ -12399,14 +12473,14 @@
       <c r="D116" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E116" s="56">
+      <c r="E116" s="58">
         <v>139836</v>
       </c>
-      <c r="F116" s="56"/>
-      <c r="G116" s="62">
+      <c r="F116" s="58"/>
+      <c r="G116" s="64">
         <v>52.2</v>
       </c>
-      <c r="H116" s="63"/>
+      <c r="H116" s="65"/>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C117" s="18">
@@ -12415,14 +12489,14 @@
       <c r="D117" s="19">
         <v>0.26800000000000002</v>
       </c>
-      <c r="E117" s="56">
+      <c r="E117" s="58">
         <v>23515</v>
       </c>
-      <c r="F117" s="56"/>
-      <c r="G117" s="62">
+      <c r="F117" s="58"/>
+      <c r="G117" s="64">
         <v>10</v>
       </c>
-      <c r="H117" s="63"/>
+      <c r="H117" s="65"/>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C118" s="18">
@@ -12431,14 +12505,14 @@
       <c r="D118" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E118" s="56">
+      <c r="E118" s="58">
         <v>49503</v>
       </c>
-      <c r="F118" s="56"/>
-      <c r="G118" s="62">
+      <c r="F118" s="58"/>
+      <c r="G118" s="64">
         <v>20.2</v>
       </c>
-      <c r="H118" s="63"/>
+      <c r="H118" s="65"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C119" s="18">
@@ -12447,14 +12521,14 @@
       <c r="D119" s="19">
         <v>0.307</v>
       </c>
-      <c r="E119" s="56">
+      <c r="E119" s="58">
         <v>188420</v>
       </c>
-      <c r="F119" s="56"/>
-      <c r="G119" s="62">
+      <c r="F119" s="58"/>
+      <c r="G119" s="64">
         <v>70</v>
       </c>
-      <c r="H119" s="63"/>
+      <c r="H119" s="65"/>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C120" s="18">
@@ -12463,14 +12537,14 @@
       <c r="D120" s="19">
         <v>0.28899999999999998</v>
       </c>
-      <c r="E120" s="56">
+      <c r="E120" s="58">
         <v>26573</v>
       </c>
-      <c r="F120" s="56"/>
-      <c r="G120" s="62">
+      <c r="F120" s="58"/>
+      <c r="G120" s="64">
         <v>10.5</v>
       </c>
-      <c r="H120" s="63"/>
+      <c r="H120" s="65"/>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C121" s="18">
@@ -12479,14 +12553,14 @@
       <c r="D121" s="19">
         <v>0.28799999999999998</v>
       </c>
-      <c r="E121" s="56">
+      <c r="E121" s="58">
         <v>25253</v>
       </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="62">
+      <c r="F121" s="58"/>
+      <c r="G121" s="64">
         <v>10</v>
       </c>
-      <c r="H121" s="63"/>
+      <c r="H121" s="65"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C122" s="18">
@@ -12495,14 +12569,14 @@
       <c r="D122" s="19">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E122" s="56">
+      <c r="E122" s="58">
         <v>17610</v>
       </c>
-      <c r="F122" s="56"/>
-      <c r="G122" s="62">
+      <c r="F122" s="58"/>
+      <c r="G122" s="64">
         <v>10</v>
       </c>
-      <c r="H122" s="63"/>
+      <c r="H122" s="65"/>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C123" s="18">
@@ -12511,14 +12585,14 @@
       <c r="D123" s="19">
         <v>0.221</v>
       </c>
-      <c r="E123" s="56">
+      <c r="E123" s="58">
         <v>19372</v>
       </c>
-      <c r="F123" s="56"/>
-      <c r="G123" s="62">
+      <c r="F123" s="58"/>
+      <c r="G123" s="64">
         <v>10</v>
       </c>
-      <c r="H123" s="63"/>
+      <c r="H123" s="65"/>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C124" s="18">
@@ -12527,14 +12601,14 @@
       <c r="D124" s="19">
         <v>0.216</v>
       </c>
-      <c r="E124" s="56">
+      <c r="E124" s="58">
         <v>18939</v>
       </c>
-      <c r="F124" s="56"/>
-      <c r="G124" s="62">
+      <c r="F124" s="58"/>
+      <c r="G124" s="64">
         <v>10</v>
       </c>
-      <c r="H124" s="63"/>
+      <c r="H124" s="65"/>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C125" s="18">
@@ -12543,14 +12617,14 @@
       <c r="D125" s="19">
         <v>0.23</v>
       </c>
-      <c r="E125" s="56">
+      <c r="E125" s="58">
         <v>20382</v>
       </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="62">
+      <c r="F125" s="58"/>
+      <c r="G125" s="64">
         <v>10.1</v>
       </c>
-      <c r="H125" s="63"/>
+      <c r="H125" s="65"/>
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C126" s="18">
@@ -12559,14 +12633,14 @@
       <c r="D126" s="19">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E126" s="56">
+      <c r="E126" s="58">
         <v>19968</v>
       </c>
-      <c r="F126" s="56"/>
-      <c r="G126" s="62">
+      <c r="F126" s="58"/>
+      <c r="G126" s="64">
         <v>10.1</v>
       </c>
-      <c r="H126" s="63"/>
+      <c r="H126" s="65"/>
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C127" s="18">
@@ -12575,14 +12649,14 @@
       <c r="D127" s="19">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E127" s="56">
+      <c r="E127" s="58">
         <v>23240</v>
       </c>
-      <c r="F127" s="56"/>
-      <c r="G127" s="62">
+      <c r="F127" s="58"/>
+      <c r="G127" s="64">
         <v>10</v>
       </c>
-      <c r="H127" s="63"/>
+      <c r="H127" s="65"/>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C128" s="20">
@@ -12591,17 +12665,17 @@
       <c r="D128" s="21">
         <v>0.254</v>
       </c>
-      <c r="E128" s="57">
+      <c r="E128" s="59">
         <v>26709</v>
       </c>
-      <c r="F128" s="57"/>
-      <c r="G128" s="64">
+      <c r="F128" s="59"/>
+      <c r="G128" s="66">
         <v>12</v>
       </c>
-      <c r="H128" s="65"/>
+      <c r="H128" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="71">
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="S3:U3"/>
@@ -12668,6 +12742,11 @@
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="S8:U8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -997,7 +997,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1009,43 +1045,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1332,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="Y53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AU63" sqref="AU63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1738,11 +1738,11 @@
       <c r="F12" s="36"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="51" t="s">
+      <c r="I12" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
       <c r="L12" s="27">
         <v>0.81</v>
       </c>
@@ -7679,17 +7679,17 @@
       </c>
     </row>
     <row r="47" spans="2:68" x14ac:dyDescent="0.35">
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
       <c r="F47" s="2"/>
-      <c r="H47" s="52" t="s">
+      <c r="H47" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
       <c r="O47" s="4"/>
@@ -7926,11 +7926,11 @@
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="C55" s="52" t="s">
+      <c r="C55" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
       <c r="G55" s="38" t="s">
         <v>132</v>
       </c>
@@ -12327,27 +12327,27 @@
       <c r="AO100" s="6"/>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D106" s="53" t="s">
+      <c r="D106" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="E106" s="55" t="s">
+      <c r="E106" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="F106" s="55"/>
-      <c r="G106" s="55" t="s">
+      <c r="F106" s="57"/>
+      <c r="G106" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="H106" s="60"/>
+      <c r="H106" s="58"/>
       <c r="N106" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D107" s="54"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
-      <c r="G107" s="56"/>
-      <c r="H107" s="61"/>
+      <c r="D107" s="66"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="60"/>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
@@ -12361,14 +12361,14 @@
       <c r="D109" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E109" s="57">
+      <c r="E109" s="63">
         <v>72154</v>
       </c>
-      <c r="F109" s="57"/>
-      <c r="G109" s="62">
+      <c r="F109" s="63"/>
+      <c r="G109" s="61">
         <v>28.1</v>
       </c>
-      <c r="H109" s="63"/>
+      <c r="H109" s="62"/>
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C110" s="18">
@@ -12377,14 +12377,14 @@
       <c r="D110" s="19">
         <v>0.31</v>
       </c>
-      <c r="E110" s="58">
+      <c r="E110" s="53">
         <v>67811</v>
       </c>
-      <c r="F110" s="58"/>
-      <c r="G110" s="64">
+      <c r="F110" s="53"/>
+      <c r="G110" s="51">
         <v>25</v>
       </c>
-      <c r="H110" s="65"/>
+      <c r="H110" s="52"/>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C111" s="18">
@@ -12393,14 +12393,14 @@
       <c r="D111" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E111" s="58">
+      <c r="E111" s="53">
         <v>187455</v>
       </c>
-      <c r="F111" s="58"/>
-      <c r="G111" s="64">
+      <c r="F111" s="53"/>
+      <c r="G111" s="51">
         <v>70</v>
       </c>
-      <c r="H111" s="65"/>
+      <c r="H111" s="52"/>
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C112" s="18">
@@ -12409,14 +12409,14 @@
       <c r="D112" s="19">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E112" s="58">
+      <c r="E112" s="53">
         <v>63266</v>
       </c>
-      <c r="F112" s="58"/>
-      <c r="G112" s="64">
+      <c r="F112" s="53"/>
+      <c r="G112" s="51">
         <v>30.6</v>
       </c>
-      <c r="H112" s="65"/>
+      <c r="H112" s="52"/>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" s="18">
@@ -12425,14 +12425,14 @@
       <c r="D113" s="19">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E113" s="58">
+      <c r="E113" s="53">
         <v>26553</v>
       </c>
-      <c r="F113" s="58"/>
-      <c r="G113" s="64">
+      <c r="F113" s="53"/>
+      <c r="G113" s="51">
         <v>10</v>
       </c>
-      <c r="H113" s="65"/>
+      <c r="H113" s="52"/>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" s="18">
@@ -12441,14 +12441,14 @@
       <c r="D114" s="19">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E114" s="58">
+      <c r="E114" s="53">
         <v>24949</v>
       </c>
-      <c r="F114" s="58"/>
-      <c r="G114" s="64">
+      <c r="F114" s="53"/>
+      <c r="G114" s="51">
         <v>10</v>
       </c>
-      <c r="H114" s="65"/>
+      <c r="H114" s="52"/>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" s="18">
@@ -12457,14 +12457,14 @@
       <c r="D115" s="19">
         <v>0.26100000000000001</v>
       </c>
-      <c r="E115" s="58">
+      <c r="E115" s="53">
         <v>22870</v>
       </c>
-      <c r="F115" s="58"/>
-      <c r="G115" s="64">
+      <c r="F115" s="53"/>
+      <c r="G115" s="51">
         <v>10</v>
       </c>
-      <c r="H115" s="65"/>
+      <c r="H115" s="52"/>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C116" s="18">
@@ -12473,14 +12473,14 @@
       <c r="D116" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E116" s="58">
+      <c r="E116" s="53">
         <v>139836</v>
       </c>
-      <c r="F116" s="58"/>
-      <c r="G116" s="64">
+      <c r="F116" s="53"/>
+      <c r="G116" s="51">
         <v>52.2</v>
       </c>
-      <c r="H116" s="65"/>
+      <c r="H116" s="52"/>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C117" s="18">
@@ -12489,14 +12489,14 @@
       <c r="D117" s="19">
         <v>0.26800000000000002</v>
       </c>
-      <c r="E117" s="58">
+      <c r="E117" s="53">
         <v>23515</v>
       </c>
-      <c r="F117" s="58"/>
-      <c r="G117" s="64">
+      <c r="F117" s="53"/>
+      <c r="G117" s="51">
         <v>10</v>
       </c>
-      <c r="H117" s="65"/>
+      <c r="H117" s="52"/>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C118" s="18">
@@ -12505,14 +12505,14 @@
       <c r="D118" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E118" s="58">
+      <c r="E118" s="53">
         <v>49503</v>
       </c>
-      <c r="F118" s="58"/>
-      <c r="G118" s="64">
+      <c r="F118" s="53"/>
+      <c r="G118" s="51">
         <v>20.2</v>
       </c>
-      <c r="H118" s="65"/>
+      <c r="H118" s="52"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C119" s="18">
@@ -12521,14 +12521,14 @@
       <c r="D119" s="19">
         <v>0.307</v>
       </c>
-      <c r="E119" s="58">
+      <c r="E119" s="53">
         <v>188420</v>
       </c>
-      <c r="F119" s="58"/>
-      <c r="G119" s="64">
+      <c r="F119" s="53"/>
+      <c r="G119" s="51">
         <v>70</v>
       </c>
-      <c r="H119" s="65"/>
+      <c r="H119" s="52"/>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C120" s="18">
@@ -12537,14 +12537,14 @@
       <c r="D120" s="19">
         <v>0.28899999999999998</v>
       </c>
-      <c r="E120" s="58">
+      <c r="E120" s="53">
         <v>26573</v>
       </c>
-      <c r="F120" s="58"/>
-      <c r="G120" s="64">
+      <c r="F120" s="53"/>
+      <c r="G120" s="51">
         <v>10.5</v>
       </c>
-      <c r="H120" s="65"/>
+      <c r="H120" s="52"/>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C121" s="18">
@@ -12553,14 +12553,14 @@
       <c r="D121" s="19">
         <v>0.28799999999999998</v>
       </c>
-      <c r="E121" s="58">
+      <c r="E121" s="53">
         <v>25253</v>
       </c>
-      <c r="F121" s="58"/>
-      <c r="G121" s="64">
+      <c r="F121" s="53"/>
+      <c r="G121" s="51">
         <v>10</v>
       </c>
-      <c r="H121" s="65"/>
+      <c r="H121" s="52"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C122" s="18">
@@ -12569,14 +12569,14 @@
       <c r="D122" s="19">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E122" s="58">
+      <c r="E122" s="53">
         <v>17610</v>
       </c>
-      <c r="F122" s="58"/>
-      <c r="G122" s="64">
+      <c r="F122" s="53"/>
+      <c r="G122" s="51">
         <v>10</v>
       </c>
-      <c r="H122" s="65"/>
+      <c r="H122" s="52"/>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C123" s="18">
@@ -12585,14 +12585,14 @@
       <c r="D123" s="19">
         <v>0.221</v>
       </c>
-      <c r="E123" s="58">
+      <c r="E123" s="53">
         <v>19372</v>
       </c>
-      <c r="F123" s="58"/>
-      <c r="G123" s="64">
+      <c r="F123" s="53"/>
+      <c r="G123" s="51">
         <v>10</v>
       </c>
-      <c r="H123" s="65"/>
+      <c r="H123" s="52"/>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C124" s="18">
@@ -12601,14 +12601,14 @@
       <c r="D124" s="19">
         <v>0.216</v>
       </c>
-      <c r="E124" s="58">
+      <c r="E124" s="53">
         <v>18939</v>
       </c>
-      <c r="F124" s="58"/>
-      <c r="G124" s="64">
+      <c r="F124" s="53"/>
+      <c r="G124" s="51">
         <v>10</v>
       </c>
-      <c r="H124" s="65"/>
+      <c r="H124" s="52"/>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C125" s="18">
@@ -12617,14 +12617,14 @@
       <c r="D125" s="19">
         <v>0.23</v>
       </c>
-      <c r="E125" s="58">
+      <c r="E125" s="53">
         <v>20382</v>
       </c>
-      <c r="F125" s="58"/>
-      <c r="G125" s="64">
+      <c r="F125" s="53"/>
+      <c r="G125" s="51">
         <v>10.1</v>
       </c>
-      <c r="H125" s="65"/>
+      <c r="H125" s="52"/>
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C126" s="18">
@@ -12633,14 +12633,14 @@
       <c r="D126" s="19">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E126" s="58">
+      <c r="E126" s="53">
         <v>19968</v>
       </c>
-      <c r="F126" s="58"/>
-      <c r="G126" s="64">
+      <c r="F126" s="53"/>
+      <c r="G126" s="51">
         <v>10.1</v>
       </c>
-      <c r="H126" s="65"/>
+      <c r="H126" s="52"/>
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C127" s="18">
@@ -12649,14 +12649,14 @@
       <c r="D127" s="19">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E127" s="58">
+      <c r="E127" s="53">
         <v>23240</v>
       </c>
-      <c r="F127" s="58"/>
-      <c r="G127" s="64">
+      <c r="F127" s="53"/>
+      <c r="G127" s="51">
         <v>10</v>
       </c>
-      <c r="H127" s="65"/>
+      <c r="H127" s="52"/>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C128" s="20">
@@ -12665,24 +12665,65 @@
       <c r="D128" s="21">
         <v>0.254</v>
       </c>
-      <c r="E128" s="59">
+      <c r="E128" s="56">
         <v>26709</v>
       </c>
-      <c r="F128" s="59"/>
-      <c r="G128" s="66">
+      <c r="F128" s="56"/>
+      <c r="G128" s="54">
         <v>12</v>
       </c>
-      <c r="H128" s="67"/>
+      <c r="H128" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="BH15:BI15"/>
+    <mergeCell ref="BN15:BO15"/>
+    <mergeCell ref="BF16:BJ16"/>
+    <mergeCell ref="BL16:BP16"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:F107"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G106:H107"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="E1:F1"/>
@@ -12699,54 +12740,13 @@
     <mergeCell ref="E116:F116"/>
     <mergeCell ref="E124:F124"/>
     <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G106:H107"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:F107"/>
-    <mergeCell ref="BH15:BI15"/>
-    <mergeCell ref="BN15:BO15"/>
-    <mergeCell ref="BF16:BJ16"/>
-    <mergeCell ref="BL16:BP16"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -53,6 +53,7 @@
     <definedName name="NumUnits">Sheet2!$C$3</definedName>
     <definedName name="NumYears">Sheet2!$C$4</definedName>
     <definedName name="OffHours">Sheet2!$C$7</definedName>
+    <definedName name="OPEX_existing">Sheet2!$AR$57:$AR$76</definedName>
     <definedName name="OPEX_NGCC">Sheet2!$Q$1</definedName>
     <definedName name="OPEX_solar">Sheet2!$Q$2</definedName>
     <definedName name="OPEX_storage">Sheet2!$Q$5</definedName>
@@ -207,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="165">
   <si>
     <t>NumBuses</t>
   </si>
@@ -699,6 +700,9 @@
   </si>
   <si>
     <t>Retrofit CO2 Removal</t>
+  </si>
+  <si>
+    <t>OPEX for Existing Generators ($/year)</t>
   </si>
 </sst>
 </file>
@@ -883,7 +887,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -994,34 +998,40 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1033,20 +1043,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1332,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AU63" sqref="AU63"/>
+    <sheetView tabSelected="1" topLeftCell="X46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AT63" sqref="AT63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1372,18 +1382,18 @@
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="50"/>
+      <c r="F1" s="51"/>
       <c r="G1" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
       <c r="L1" s="15">
         <v>7256200.8565999996</v>
       </c>
@@ -1394,11 +1404,11 @@
       <c r="Q1" s="24">
         <v>0</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
       <c r="V1" s="24">
         <v>8809340386.1000004</v>
       </c>
@@ -1410,14 +1420,14 @@
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="25"/>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="23">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
@@ -1429,11 +1439,11 @@
       <c r="Q2" s="24">
         <v>19867.2</v>
       </c>
-      <c r="S2" s="50" t="s">
+      <c r="S2" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
       <c r="V2" s="27">
         <v>348494.96600000001</v>
       </c>
@@ -1451,11 +1461,11 @@
       <c r="F3" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -1466,11 +1476,11 @@
       <c r="Q3" s="24">
         <v>43560</v>
       </c>
-      <c r="S3" s="50" t="s">
+      <c r="S3" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
       <c r="V3" s="28">
         <v>2066077.2990000001</v>
       </c>
@@ -1492,11 +1502,11 @@
       <c r="G4" s="6">
         <v>4198</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="15">
         <v>0.75</v>
       </c>
@@ -1507,11 +1517,11 @@
       <c r="Q4" s="24">
         <v>601000</v>
       </c>
-      <c r="S4" s="50" t="s">
+      <c r="S4" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
       <c r="V4" s="27">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
@@ -1528,11 +1538,11 @@
       <c r="G5" s="6">
         <v>3726</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
       <c r="L5" s="15">
         <v>0.5</v>
       </c>
@@ -1543,11 +1553,11 @@
       <c r="Q5" s="24">
         <v>15025</v>
       </c>
-      <c r="S5" s="50" t="s">
+      <c r="S5" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
       <c r="V5" s="27">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
@@ -1563,11 +1573,11 @@
       <c r="G6" s="6">
         <v>4765</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
       <c r="L6" s="15">
         <v>1</v>
       </c>
@@ -1578,11 +1588,11 @@
       <c r="Q6" s="26">
         <v>0.95</v>
       </c>
-      <c r="S6" s="50" t="s">
+      <c r="S6" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
       <c r="V6" s="27">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
@@ -1605,11 +1615,11 @@
       <c r="Q7" s="26">
         <v>50</v>
       </c>
-      <c r="S7" s="50" t="s">
+      <c r="S7" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
       <c r="V7" s="27">
         <f>V4*V6</f>
         <v>29903074042.27026</v>
@@ -1625,11 +1635,11 @@
       <c r="G8" s="6">
         <v>5974</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
       <c r="L8" s="49">
         <v>15.24</v>
       </c>
@@ -1640,11 +1650,11 @@
       <c r="Q8" s="26">
         <v>10</v>
       </c>
-      <c r="S8" s="50" t="s">
+      <c r="S8" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
       <c r="V8" s="27">
         <f>V5*V6</f>
         <v>5911072775.7976093</v>
@@ -1660,11 +1670,11 @@
       <c r="G9" s="6">
         <v>5009</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
       <c r="L9" s="49">
         <v>9.83</v>
       </c>
@@ -1687,11 +1697,11 @@
       <c r="G10" s="6">
         <v>4359</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
       <c r="L10" s="27">
         <v>0.73499999999999999</v>
       </c>
@@ -1714,11 +1724,11 @@
       <c r="G11" s="6">
         <v>3780</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
       <c r="L11" s="27">
         <v>0.65249999999999997</v>
       </c>
@@ -1738,11 +1748,11 @@
       <c r="F12" s="36"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="27">
         <v>0.81</v>
       </c>
@@ -1850,17 +1860,17 @@
         <f>92*8</f>
         <v>736</v>
       </c>
-      <c r="BH15" s="50" t="s">
+      <c r="BH15" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="BI15" s="50"/>
+      <c r="BI15" s="51"/>
       <c r="BJ15" s="48">
         <v>16054000</v>
       </c>
-      <c r="BN15" s="50" t="s">
+      <c r="BN15" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="BO15" s="50"/>
+      <c r="BO15" s="51"/>
       <c r="BP15" s="48">
         <v>10000000</v>
       </c>
@@ -1909,20 +1919,20 @@
       </c>
       <c r="BC16" s="33"/>
       <c r="BD16" s="34"/>
-      <c r="BF16" s="50" t="s">
+      <c r="BF16" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="BG16" s="50"/>
-      <c r="BH16" s="50"/>
-      <c r="BI16" s="50"/>
-      <c r="BJ16" s="50"/>
-      <c r="BL16" s="50" t="s">
+      <c r="BG16" s="51"/>
+      <c r="BH16" s="51"/>
+      <c r="BI16" s="51"/>
+      <c r="BJ16" s="51"/>
+      <c r="BL16" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="BM16" s="50"/>
-      <c r="BN16" s="50"/>
-      <c r="BO16" s="50"/>
-      <c r="BP16" s="50"/>
+      <c r="BM16" s="51"/>
+      <c r="BN16" s="51"/>
+      <c r="BO16" s="51"/>
+      <c r="BP16" s="51"/>
     </row>
     <row r="17" spans="2:68" x14ac:dyDescent="0.35">
       <c r="B17" s="44" t="s">
@@ -7679,17 +7689,17 @@
       </c>
     </row>
     <row r="47" spans="2:68" x14ac:dyDescent="0.35">
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
       <c r="F47" s="2"/>
-      <c r="H47" s="64" t="s">
+      <c r="H47" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
       <c r="O47" s="4"/>
@@ -7731,7 +7741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.35">
       <c r="B49" s="5" t="s">
         <v>5</v>
       </c>
@@ -7775,7 +7785,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -7819,7 +7829,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
@@ -7866,7 +7876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:46" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="4" t="s">
         <v>25</v>
       </c>
@@ -7924,13 +7934,19 @@
       <c r="AO54" s="31" t="s">
         <v>33</v>
       </c>
+      <c r="AQ54" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR54" s="69"/>
+      <c r="AS54" s="69"/>
+      <c r="AT54" s="69"/>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="C55" s="64" t="s">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C55" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
       <c r="G55" s="38" t="s">
         <v>132</v>
       </c>
@@ -7967,7 +7983,7 @@
       <c r="AN55" s="31"/>
       <c r="AO55" s="31"/>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -8018,8 +8034,11 @@
       <c r="AM56" s="31"/>
       <c r="AN56" s="31"/>
       <c r="AO56" s="31"/>
+      <c r="AQ56" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -8115,8 +8134,12 @@
       <c r="AO57" s="6">
         <v>2E-3</v>
       </c>
+      <c r="AQ57" s="50">
+        <v>1</v>
+      </c>
+      <c r="AR57" s="27"/>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -8212,8 +8235,12 @@
       <c r="AO58" s="6">
         <v>2E-3</v>
       </c>
+      <c r="AQ58" s="50">
+        <v>2</v>
+      </c>
+      <c r="AR58" s="27"/>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -8309,8 +8336,12 @@
       <c r="AO59" s="6">
         <v>2E-3</v>
       </c>
+      <c r="AQ59" s="50">
+        <v>3</v>
+      </c>
+      <c r="AR59" s="27"/>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -8406,8 +8437,12 @@
       <c r="AO60" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="AQ60" s="50">
+        <v>4</v>
+      </c>
+      <c r="AR60" s="27"/>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -8503,8 +8538,12 @@
       <c r="AO61" s="6">
         <v>2E-3</v>
       </c>
+      <c r="AQ61" s="50">
+        <v>5</v>
+      </c>
+      <c r="AR61" s="27"/>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -8600,8 +8639,12 @@
       <c r="AO62" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="AQ62" s="50">
+        <v>6</v>
+      </c>
+      <c r="AR62" s="27"/>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -8697,8 +8740,12 @@
       <c r="AO63" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="AQ63" s="50">
+        <v>7</v>
+      </c>
+      <c r="AR63" s="27"/>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -8794,8 +8841,12 @@
       <c r="AO64" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="AQ64" s="50">
+        <v>8</v>
+      </c>
+      <c r="AR64" s="27"/>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -8891,8 +8942,12 @@
       <c r="AO65" s="6">
         <v>2E-3</v>
       </c>
+      <c r="AQ65" s="50">
+        <v>9</v>
+      </c>
+      <c r="AR65" s="27"/>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -8988,8 +9043,12 @@
       <c r="AO66" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="AQ66" s="50">
+        <v>10</v>
+      </c>
+      <c r="AR66" s="27"/>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -9085,8 +9144,12 @@
       <c r="AO67" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="AQ67" s="50">
+        <v>11</v>
+      </c>
+      <c r="AR67" s="27"/>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -9182,8 +9245,12 @@
       <c r="AO68" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="AQ68" s="50">
+        <v>12</v>
+      </c>
+      <c r="AR68" s="27"/>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -9279,8 +9346,12 @@
       <c r="AO69" s="6">
         <v>0.04</v>
       </c>
+      <c r="AQ69" s="50">
+        <v>13</v>
+      </c>
+      <c r="AR69" s="27"/>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -9376,8 +9447,12 @@
       <c r="AO70" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="AQ70" s="50">
+        <v>14</v>
+      </c>
+      <c r="AR70" s="27"/>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -9473,8 +9548,12 @@
       <c r="AO71" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="AQ71" s="50">
+        <v>15</v>
+      </c>
+      <c r="AR71" s="27"/>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -9570,8 +9649,12 @@
       <c r="AO72" s="6">
         <v>2E-3</v>
       </c>
+      <c r="AQ72" s="50">
+        <v>16</v>
+      </c>
+      <c r="AR72" s="27"/>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -9667,8 +9750,12 @@
       <c r="AO73" s="6">
         <v>3.5999999999999997E-2</v>
       </c>
+      <c r="AQ73" s="50">
+        <v>17</v>
+      </c>
+      <c r="AR73" s="27"/>
     </row>
-    <row r="74" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:44" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -9764,8 +9851,12 @@
       <c r="AO74" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
+      <c r="AQ74" s="50">
+        <v>18</v>
+      </c>
+      <c r="AR74" s="27"/>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -9861,8 +9952,12 @@
       <c r="AO75" s="6">
         <v>2.4E-2</v>
       </c>
+      <c r="AQ75" s="50">
+        <v>19</v>
+      </c>
+      <c r="AR75" s="27"/>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>68</v>
       </c>
@@ -9958,8 +10053,12 @@
       <c r="AO76" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="AQ76" s="50">
+        <v>20</v>
+      </c>
+      <c r="AR76" s="27"/>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -10060,7 +10159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>37</v>
       </c>
@@ -10161,7 +10260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -10262,7 +10361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -12327,27 +12426,27 @@
       <c r="AO100" s="6"/>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D106" s="65" t="s">
+      <c r="D106" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="E106" s="57" t="s">
+      <c r="E106" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57" t="s">
+      <c r="F106" s="56"/>
+      <c r="G106" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="H106" s="58"/>
+      <c r="H106" s="61"/>
       <c r="N106" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D107" s="66"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="60"/>
+      <c r="D107" s="55"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="57"/>
+      <c r="H107" s="62"/>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
@@ -12361,14 +12460,14 @@
       <c r="D109" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E109" s="63">
+      <c r="E109" s="58">
         <v>72154</v>
       </c>
-      <c r="F109" s="63"/>
-      <c r="G109" s="61">
+      <c r="F109" s="58"/>
+      <c r="G109" s="63">
         <v>28.1</v>
       </c>
-      <c r="H109" s="62"/>
+      <c r="H109" s="64"/>
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C110" s="18">
@@ -12377,14 +12476,14 @@
       <c r="D110" s="19">
         <v>0.31</v>
       </c>
-      <c r="E110" s="53">
+      <c r="E110" s="59">
         <v>67811</v>
       </c>
-      <c r="F110" s="53"/>
-      <c r="G110" s="51">
+      <c r="F110" s="59"/>
+      <c r="G110" s="65">
         <v>25</v>
       </c>
-      <c r="H110" s="52"/>
+      <c r="H110" s="66"/>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C111" s="18">
@@ -12393,14 +12492,14 @@
       <c r="D111" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E111" s="53">
+      <c r="E111" s="59">
         <v>187455</v>
       </c>
-      <c r="F111" s="53"/>
-      <c r="G111" s="51">
+      <c r="F111" s="59"/>
+      <c r="G111" s="65">
         <v>70</v>
       </c>
-      <c r="H111" s="52"/>
+      <c r="H111" s="66"/>
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C112" s="18">
@@ -12409,14 +12508,14 @@
       <c r="D112" s="19">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E112" s="53">
+      <c r="E112" s="59">
         <v>63266</v>
       </c>
-      <c r="F112" s="53"/>
-      <c r="G112" s="51">
+      <c r="F112" s="59"/>
+      <c r="G112" s="65">
         <v>30.6</v>
       </c>
-      <c r="H112" s="52"/>
+      <c r="H112" s="66"/>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" s="18">
@@ -12425,14 +12524,14 @@
       <c r="D113" s="19">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E113" s="53">
+      <c r="E113" s="59">
         <v>26553</v>
       </c>
-      <c r="F113" s="53"/>
-      <c r="G113" s="51">
+      <c r="F113" s="59"/>
+      <c r="G113" s="65">
         <v>10</v>
       </c>
-      <c r="H113" s="52"/>
+      <c r="H113" s="66"/>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" s="18">
@@ -12441,14 +12540,14 @@
       <c r="D114" s="19">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E114" s="53">
+      <c r="E114" s="59">
         <v>24949</v>
       </c>
-      <c r="F114" s="53"/>
-      <c r="G114" s="51">
+      <c r="F114" s="59"/>
+      <c r="G114" s="65">
         <v>10</v>
       </c>
-      <c r="H114" s="52"/>
+      <c r="H114" s="66"/>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" s="18">
@@ -12457,14 +12556,14 @@
       <c r="D115" s="19">
         <v>0.26100000000000001</v>
       </c>
-      <c r="E115" s="53">
+      <c r="E115" s="59">
         <v>22870</v>
       </c>
-      <c r="F115" s="53"/>
-      <c r="G115" s="51">
+      <c r="F115" s="59"/>
+      <c r="G115" s="65">
         <v>10</v>
       </c>
-      <c r="H115" s="52"/>
+      <c r="H115" s="66"/>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C116" s="18">
@@ -12473,14 +12572,14 @@
       <c r="D116" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E116" s="53">
+      <c r="E116" s="59">
         <v>139836</v>
       </c>
-      <c r="F116" s="53"/>
-      <c r="G116" s="51">
+      <c r="F116" s="59"/>
+      <c r="G116" s="65">
         <v>52.2</v>
       </c>
-      <c r="H116" s="52"/>
+      <c r="H116" s="66"/>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C117" s="18">
@@ -12489,14 +12588,14 @@
       <c r="D117" s="19">
         <v>0.26800000000000002</v>
       </c>
-      <c r="E117" s="53">
+      <c r="E117" s="59">
         <v>23515</v>
       </c>
-      <c r="F117" s="53"/>
-      <c r="G117" s="51">
+      <c r="F117" s="59"/>
+      <c r="G117" s="65">
         <v>10</v>
       </c>
-      <c r="H117" s="52"/>
+      <c r="H117" s="66"/>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C118" s="18">
@@ -12505,14 +12604,14 @@
       <c r="D118" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E118" s="53">
+      <c r="E118" s="59">
         <v>49503</v>
       </c>
-      <c r="F118" s="53"/>
-      <c r="G118" s="51">
+      <c r="F118" s="59"/>
+      <c r="G118" s="65">
         <v>20.2</v>
       </c>
-      <c r="H118" s="52"/>
+      <c r="H118" s="66"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C119" s="18">
@@ -12521,14 +12620,14 @@
       <c r="D119" s="19">
         <v>0.307</v>
       </c>
-      <c r="E119" s="53">
+      <c r="E119" s="59">
         <v>188420</v>
       </c>
-      <c r="F119" s="53"/>
-      <c r="G119" s="51">
+      <c r="F119" s="59"/>
+      <c r="G119" s="65">
         <v>70</v>
       </c>
-      <c r="H119" s="52"/>
+      <c r="H119" s="66"/>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C120" s="18">
@@ -12537,14 +12636,14 @@
       <c r="D120" s="19">
         <v>0.28899999999999998</v>
       </c>
-      <c r="E120" s="53">
+      <c r="E120" s="59">
         <v>26573</v>
       </c>
-      <c r="F120" s="53"/>
-      <c r="G120" s="51">
+      <c r="F120" s="59"/>
+      <c r="G120" s="65">
         <v>10.5</v>
       </c>
-      <c r="H120" s="52"/>
+      <c r="H120" s="66"/>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C121" s="18">
@@ -12553,14 +12652,14 @@
       <c r="D121" s="19">
         <v>0.28799999999999998</v>
       </c>
-      <c r="E121" s="53">
+      <c r="E121" s="59">
         <v>25253</v>
       </c>
-      <c r="F121" s="53"/>
-      <c r="G121" s="51">
+      <c r="F121" s="59"/>
+      <c r="G121" s="65">
         <v>10</v>
       </c>
-      <c r="H121" s="52"/>
+      <c r="H121" s="66"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C122" s="18">
@@ -12569,14 +12668,14 @@
       <c r="D122" s="19">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E122" s="53">
+      <c r="E122" s="59">
         <v>17610</v>
       </c>
-      <c r="F122" s="53"/>
-      <c r="G122" s="51">
+      <c r="F122" s="59"/>
+      <c r="G122" s="65">
         <v>10</v>
       </c>
-      <c r="H122" s="52"/>
+      <c r="H122" s="66"/>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C123" s="18">
@@ -12585,14 +12684,14 @@
       <c r="D123" s="19">
         <v>0.221</v>
       </c>
-      <c r="E123" s="53">
+      <c r="E123" s="59">
         <v>19372</v>
       </c>
-      <c r="F123" s="53"/>
-      <c r="G123" s="51">
+      <c r="F123" s="59"/>
+      <c r="G123" s="65">
         <v>10</v>
       </c>
-      <c r="H123" s="52"/>
+      <c r="H123" s="66"/>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C124" s="18">
@@ -12601,14 +12700,14 @@
       <c r="D124" s="19">
         <v>0.216</v>
       </c>
-      <c r="E124" s="53">
+      <c r="E124" s="59">
         <v>18939</v>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="51">
+      <c r="F124" s="59"/>
+      <c r="G124" s="65">
         <v>10</v>
       </c>
-      <c r="H124" s="52"/>
+      <c r="H124" s="66"/>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C125" s="18">
@@ -12617,14 +12716,14 @@
       <c r="D125" s="19">
         <v>0.23</v>
       </c>
-      <c r="E125" s="53">
+      <c r="E125" s="59">
         <v>20382</v>
       </c>
-      <c r="F125" s="53"/>
-      <c r="G125" s="51">
+      <c r="F125" s="59"/>
+      <c r="G125" s="65">
         <v>10.1</v>
       </c>
-      <c r="H125" s="52"/>
+      <c r="H125" s="66"/>
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C126" s="18">
@@ -12633,14 +12732,14 @@
       <c r="D126" s="19">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E126" s="53">
+      <c r="E126" s="59">
         <v>19968</v>
       </c>
-      <c r="F126" s="53"/>
-      <c r="G126" s="51">
+      <c r="F126" s="59"/>
+      <c r="G126" s="65">
         <v>10.1</v>
       </c>
-      <c r="H126" s="52"/>
+      <c r="H126" s="66"/>
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C127" s="18">
@@ -12649,14 +12748,14 @@
       <c r="D127" s="19">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E127" s="53">
+      <c r="E127" s="59">
         <v>23240</v>
       </c>
-      <c r="F127" s="53"/>
-      <c r="G127" s="51">
+      <c r="F127" s="59"/>
+      <c r="G127" s="65">
         <v>10</v>
       </c>
-      <c r="H127" s="52"/>
+      <c r="H127" s="66"/>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C128" s="20">
@@ -12665,42 +12764,48 @@
       <c r="D128" s="21">
         <v>0.254</v>
       </c>
-      <c r="E128" s="56">
+      <c r="E128" s="60">
         <v>26709</v>
       </c>
-      <c r="F128" s="56"/>
-      <c r="G128" s="54">
+      <c r="F128" s="60"/>
+      <c r="G128" s="67">
         <v>12</v>
       </c>
-      <c r="H128" s="55"/>
+      <c r="H128" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="BH15:BI15"/>
-    <mergeCell ref="BN15:BO15"/>
-    <mergeCell ref="BF16:BJ16"/>
-    <mergeCell ref="BL16:BP16"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:F107"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
+  <mergeCells count="72">
+    <mergeCell ref="AQ54:AT54"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
     <mergeCell ref="E127:F127"/>
     <mergeCell ref="E128:F128"/>
     <mergeCell ref="G106:H107"/>
@@ -12717,36 +12822,31 @@
     <mergeCell ref="G119:H119"/>
     <mergeCell ref="G120:H120"/>
     <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:F107"/>
+    <mergeCell ref="BH15:BI15"/>
+    <mergeCell ref="BN15:BO15"/>
+    <mergeCell ref="BF16:BJ16"/>
+    <mergeCell ref="BL16:BP16"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jawessel\opl\ENV717A11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfi\Google Drive\School\College\Semester 6 (Spring 2020)\ENV 717\Assignments\Assignment 11 (group project)\ENV717A11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,6 +30,7 @@
     <definedName name="FallMaxGenPeak">Sheet2!$Q$57:$Q$100</definedName>
     <definedName name="FallOffHours">Sheet2!$BD$15</definedName>
     <definedName name="FallPeakHours">Sheet2!$AX$15</definedName>
+    <definedName name="FallPPDemand">Sheet2!$CK$18:$CM$43</definedName>
     <definedName name="FallSolarFactor">Sheet2!$Q$55</definedName>
     <definedName name="fridge_eff_benefit">Sheet2!$BG$18:$BI$43</definedName>
     <definedName name="fridge_eff_cost">Sheet2!$BJ$15</definedName>
@@ -74,12 +75,14 @@
     <definedName name="SpringMaxGenPeak">Sheet2!$K$57:$K$100</definedName>
     <definedName name="SpringOffHours">Sheet2!$AF$15</definedName>
     <definedName name="SpringPeakHours">Sheet2!$Z$15</definedName>
+    <definedName name="SpringPPDemand">Sheet2!$BY$18:$CA$43</definedName>
     <definedName name="SpringSolarFactor">Sheet2!$K$55</definedName>
     <definedName name="SummerDemandOff">Sheet2!$AO$18:$AQ$43</definedName>
     <definedName name="SummerDemandPeak">Sheet2!$AI$18:$AK$43</definedName>
     <definedName name="SummerMaxGenPeak">Sheet2!$N$57:$N$100</definedName>
     <definedName name="SummerOffHours">Sheet2!$AR$15</definedName>
     <definedName name="SummerPeakHours">Sheet2!$AL$15</definedName>
+    <definedName name="SummerPPDemand">Sheet2!$CE$18:$CG$43</definedName>
     <definedName name="SummerSolarFactor">Sheet2!$N$55</definedName>
     <definedName name="UnitsByBus">Sheet2!$C$57:$E$100</definedName>
     <definedName name="wind_cap_factor">Sheet2!$L$5</definedName>
@@ -90,6 +93,7 @@
     <definedName name="WinterMaxGenPeak">Sheet2!$H$57:$H$100</definedName>
     <definedName name="WinterOffHours">Sheet2!$T$15</definedName>
     <definedName name="WinterPeakHours">Sheet2!$N$15</definedName>
+    <definedName name="WinterPPDemand">Sheet2!$BS$18:$BU$43</definedName>
     <definedName name="WinterSolarFactor">Sheet2!$H$55</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -208,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="173">
   <si>
     <t>NumBuses</t>
   </si>
@@ -703,6 +707,30 @@
   </si>
   <si>
     <t>OPEX for Existing Generators ($/year)</t>
+  </si>
+  <si>
+    <t>Peak Peak Demand Winter (MW)</t>
+  </si>
+  <si>
+    <t>Peak Peak Demand Spring(MW)</t>
+  </si>
+  <si>
+    <t>Peak Peak Demand Summer (MW)</t>
+  </si>
+  <si>
+    <t>Peak Peak Demand Fall (MW)</t>
+  </si>
+  <si>
+    <t>Winter Peak Peak Demand in Bus (MW)</t>
+  </si>
+  <si>
+    <t>Spring Peak Peak Demand in Bus (MW)</t>
+  </si>
+  <si>
+    <t>Summer Peak Peak Demand in Bus (MW)</t>
+  </si>
+  <si>
+    <t>Fall Peak Peak Demand in Bus (MW)</t>
   </si>
 </sst>
 </file>
@@ -887,7 +915,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -996,6 +1024,12 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1340,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:CN128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AT63" sqref="AT63"/>
+    <sheetView tabSelected="1" topLeftCell="Y16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1375,25 +1409,25 @@
     <col min="68" max="68" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="51"/>
+      <c r="F1" s="53"/>
       <c r="G1" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="15">
         <v>7256200.8565999996</v>
       </c>
@@ -1404,30 +1438,30 @@
       <c r="Q1" s="24">
         <v>0</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="S1" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
       <c r="V1" s="24">
         <v>8809340386.1000004</v>
       </c>
     </row>
-    <row r="2" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="25"/>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="23">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
@@ -1439,11 +1473,11 @@
       <c r="Q2" s="24">
         <v>19867.2</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="S2" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
       <c r="V2" s="27">
         <v>348494.96600000001</v>
       </c>
@@ -1451,7 +1485,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1461,11 +1495,11 @@
       <c r="F3" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -1476,19 +1510,26 @@
       <c r="Q3" s="24">
         <v>43560</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
       <c r="V3" s="28">
         <v>2066077.2990000001</v>
       </c>
       <c r="W3" t="s">
         <v>99</v>
       </c>
+      <c r="BS3" s="13"/>
+      <c r="BU3" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV3" s="6">
+        <v>6189</v>
+      </c>
     </row>
-    <row r="4" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1502,11 +1543,11 @@
       <c r="G4" s="6">
         <v>4198</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="15">
         <v>0.75</v>
       </c>
@@ -1517,11 +1558,11 @@
       <c r="Q4" s="24">
         <v>601000</v>
       </c>
-      <c r="S4" s="51" t="s">
+      <c r="S4" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
       <c r="V4" s="27">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
@@ -1529,8 +1570,10 @@
       <c r="W4" t="s">
         <v>99</v>
       </c>
+      <c r="BU4" s="36"/>
+      <c r="BV4" s="25"/>
     </row>
-    <row r="5" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
       <c r="F5" s="36" t="s">
         <v>106</v>
@@ -1538,11 +1581,11 @@
       <c r="G5" s="6">
         <v>3726</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="15">
         <v>0.5</v>
       </c>
@@ -1553,11 +1596,11 @@
       <c r="Q5" s="24">
         <v>15025</v>
       </c>
-      <c r="S5" s="51" t="s">
+      <c r="S5" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
       <c r="V5" s="27">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
@@ -1565,19 +1608,25 @@
       <c r="W5" t="s">
         <v>99</v>
       </c>
+      <c r="BU5" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="BV5" s="6">
+        <v>6951</v>
+      </c>
     </row>
-    <row r="6" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:92" x14ac:dyDescent="0.35">
       <c r="F6" s="36" t="s">
         <v>107</v>
       </c>
       <c r="G6" s="6">
         <v>4765</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="15">
         <v>1</v>
       </c>
@@ -1588,11 +1637,11 @@
       <c r="Q6" s="26">
         <v>0.95</v>
       </c>
-      <c r="S6" s="51" t="s">
+      <c r="S6" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
       <c r="V6" s="27">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
@@ -1600,8 +1649,10 @@
       <c r="W6" t="s">
         <v>94</v>
       </c>
+      <c r="BU6" s="36"/>
+      <c r="BV6" s="25"/>
     </row>
-    <row r="7" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:92" x14ac:dyDescent="0.35">
       <c r="F7" s="36" t="s">
         <v>108</v>
       </c>
@@ -1615,11 +1666,11 @@
       <c r="Q7" s="26">
         <v>50</v>
       </c>
-      <c r="S7" s="51" t="s">
+      <c r="S7" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
       <c r="V7" s="27">
         <f>V4*V6</f>
         <v>29903074042.27026</v>
@@ -1627,19 +1678,25 @@
       <c r="W7" t="s">
         <v>93</v>
       </c>
+      <c r="BU7" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="BV7" s="6">
+        <v>7618</v>
+      </c>
     </row>
-    <row r="8" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:92" x14ac:dyDescent="0.35">
       <c r="F8" s="36" t="s">
         <v>109</v>
       </c>
       <c r="G8" s="6">
         <v>5974</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="49">
         <v>15.24</v>
       </c>
@@ -1650,11 +1707,11 @@
       <c r="Q8" s="26">
         <v>10</v>
       </c>
-      <c r="S8" s="51" t="s">
+      <c r="S8" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
       <c r="V8" s="27">
         <f>V5*V6</f>
         <v>5911072775.7976093</v>
@@ -1662,19 +1719,21 @@
       <c r="W8" t="s">
         <v>93</v>
       </c>
+      <c r="BU8" s="36"/>
+      <c r="BV8" s="25"/>
     </row>
-    <row r="9" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:92" x14ac:dyDescent="0.35">
       <c r="F9" s="36" t="s">
         <v>110</v>
       </c>
       <c r="G9" s="6">
         <v>5009</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
       <c r="L9" s="49">
         <v>9.83</v>
       </c>
@@ -1689,19 +1748,25 @@
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
       <c r="V9" s="25"/>
+      <c r="BU9" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="BV9" s="6">
+        <v>6653</v>
+      </c>
     </row>
-    <row r="10" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:92" x14ac:dyDescent="0.35">
       <c r="F10" s="36" t="s">
         <v>111</v>
       </c>
       <c r="G10" s="6">
         <v>4359</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
       <c r="L10" s="27">
         <v>0.73499999999999999</v>
       </c>
@@ -1716,19 +1781,21 @@
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
       <c r="V10" s="25"/>
+      <c r="BU10" s="36"/>
+      <c r="BV10" s="25"/>
     </row>
-    <row r="11" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:92" x14ac:dyDescent="0.35">
       <c r="F11" s="36" t="s">
         <v>112</v>
       </c>
       <c r="G11" s="6">
         <v>3780</v>
       </c>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
       <c r="L11" s="27">
         <v>0.65249999999999997</v>
       </c>
@@ -1744,15 +1811,15 @@
       <c r="U11" s="33"/>
       <c r="V11" s="25"/>
     </row>
-    <row r="12" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:92" x14ac:dyDescent="0.35">
       <c r="F12" s="36"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
       <c r="L12" s="27">
         <v>0.81</v>
       </c>
@@ -1770,10 +1837,10 @@
       <c r="U12" s="41"/>
       <c r="V12" s="25"/>
     </row>
-    <row r="13" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:92" x14ac:dyDescent="0.35">
       <c r="F13" s="36"/>
     </row>
-    <row r="14" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:92" x14ac:dyDescent="0.35">
       <c r="F14" s="36"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -1791,7 +1858,7 @@
       <c r="U14" s="33"/>
       <c r="V14" s="25"/>
     </row>
-    <row r="15" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:92" x14ac:dyDescent="0.35">
       <c r="M15" s="36" t="s">
         <v>120</v>
       </c>
@@ -1860,22 +1927,42 @@
         <f>92*8</f>
         <v>736</v>
       </c>
-      <c r="BH15" s="51" t="s">
+      <c r="BH15" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="BI15" s="51"/>
+      <c r="BI15" s="53"/>
       <c r="BJ15" s="48">
         <v>16054000</v>
       </c>
-      <c r="BN15" s="51" t="s">
+      <c r="BN15" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="BO15" s="51"/>
+      <c r="BO15" s="53"/>
       <c r="BP15" s="48">
         <v>10000000</v>
       </c>
+      <c r="BU15" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV15">
+        <f>90*16</f>
+        <v>1440</v>
+      </c>
+      <c r="CA15" s="36"/>
+      <c r="CG15" s="36"/>
+      <c r="CI15" s="51"/>
+      <c r="CJ15" s="51"/>
+      <c r="CK15" s="51"/>
+      <c r="CL15" s="25"/>
+      <c r="CM15" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="CN15">
+        <f>91*8</f>
+        <v>728</v>
+      </c>
     </row>
-    <row r="16" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:92" x14ac:dyDescent="0.35">
       <c r="E16" s="4" t="s">
         <v>144</v>
       </c>
@@ -1919,22 +2006,42 @@
       </c>
       <c r="BC16" s="33"/>
       <c r="BD16" s="34"/>
-      <c r="BF16" s="51" t="s">
+      <c r="BF16" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="BG16" s="51"/>
-      <c r="BH16" s="51"/>
-      <c r="BI16" s="51"/>
-      <c r="BJ16" s="51"/>
-      <c r="BL16" s="51" t="s">
+      <c r="BG16" s="53"/>
+      <c r="BH16" s="53"/>
+      <c r="BI16" s="53"/>
+      <c r="BJ16" s="53"/>
+      <c r="BL16" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="BM16" s="51"/>
-      <c r="BN16" s="51"/>
-      <c r="BO16" s="51"/>
-      <c r="BP16" s="51"/>
+      <c r="BM16" s="53"/>
+      <c r="BN16" s="53"/>
+      <c r="BO16" s="53"/>
+      <c r="BP16" s="53"/>
+      <c r="BT16" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="BU16" s="51"/>
+      <c r="BV16" s="52"/>
+      <c r="BZ16" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA16" s="51"/>
+      <c r="CB16" s="52"/>
+      <c r="CF16" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="CG16" s="51"/>
+      <c r="CH16" s="52"/>
+      <c r="CL16" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="CM16" s="51"/>
+      <c r="CN16" s="52"/>
     </row>
-    <row r="17" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B17" s="44" t="s">
         <v>27</v>
       </c>
@@ -2106,8 +2213,68 @@
       <c r="BP17" t="s">
         <v>34</v>
       </c>
+      <c r="BR17" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="BS17" s="52">
+        <v>1</v>
+      </c>
+      <c r="BT17" s="52">
+        <v>2</v>
+      </c>
+      <c r="BU17" s="52">
+        <v>3</v>
+      </c>
+      <c r="BV17" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="BX17" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="BY17" s="52">
+        <v>1</v>
+      </c>
+      <c r="BZ17" s="52">
+        <v>2</v>
+      </c>
+      <c r="CA17" s="52">
+        <v>3</v>
+      </c>
+      <c r="CB17" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="CD17" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE17" s="52">
+        <v>1</v>
+      </c>
+      <c r="CF17" s="52">
+        <v>2</v>
+      </c>
+      <c r="CG17" s="52">
+        <v>3</v>
+      </c>
+      <c r="CH17" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="CJ17" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="CK17" s="52">
+        <v>1</v>
+      </c>
+      <c r="CL17" s="52">
+        <v>2</v>
+      </c>
+      <c r="CM17" s="52">
+        <v>3</v>
+      </c>
+      <c r="CN17" s="52" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>2020</v>
       </c>
@@ -2320,8 +2487,84 @@
       <c r="BP18" s="27">
         <v>70</v>
       </c>
+      <c r="BR18" s="4">
+        <v>2020</v>
+      </c>
+      <c r="BS18" s="46">
+        <f>0.15*BV18</f>
+        <v>928.34999999999991</v>
+      </c>
+      <c r="BT18" s="46">
+        <f>0.5*BV18</f>
+        <v>3094.5</v>
+      </c>
+      <c r="BU18" s="46">
+        <f>0.35*BV18</f>
+        <v>2166.1499999999996</v>
+      </c>
+      <c r="BV18" s="52">
+        <f>BV3</f>
+        <v>6189</v>
+      </c>
+      <c r="BX18" s="4">
+        <v>2020</v>
+      </c>
+      <c r="BY18" s="46">
+        <f>0.15*CB18</f>
+        <v>1042.6499999999999</v>
+      </c>
+      <c r="BZ18" s="46">
+        <f>0.5*CB18</f>
+        <v>3475.5</v>
+      </c>
+      <c r="CA18" s="46">
+        <f>0.35*CB18</f>
+        <v>2432.85</v>
+      </c>
+      <c r="CB18" s="52">
+        <f>BV5</f>
+        <v>6951</v>
+      </c>
+      <c r="CD18" s="4">
+        <v>2020</v>
+      </c>
+      <c r="CE18" s="46">
+        <f>0.15*CH18</f>
+        <v>1142.7</v>
+      </c>
+      <c r="CF18" s="46">
+        <f>0.5*CH18</f>
+        <v>3809</v>
+      </c>
+      <c r="CG18" s="46">
+        <f>0.35*CH18</f>
+        <v>2666.2999999999997</v>
+      </c>
+      <c r="CH18" s="52">
+        <f>BV7</f>
+        <v>7618</v>
+      </c>
+      <c r="CJ18" s="4">
+        <v>2020</v>
+      </c>
+      <c r="CK18" s="46">
+        <f>0.15*CN18</f>
+        <v>997.94999999999993</v>
+      </c>
+      <c r="CL18" s="46">
+        <f>0.5*CN18</f>
+        <v>3326.5</v>
+      </c>
+      <c r="CM18" s="46">
+        <f>0.35*CN18</f>
+        <v>2328.5499999999997</v>
+      </c>
+      <c r="CN18" s="52">
+        <f>BV9</f>
+        <v>6653</v>
+      </c>
     </row>
-    <row r="19" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <v>2021</v>
       </c>
@@ -2534,8 +2777,84 @@
       <c r="BP19" s="27">
         <v>140</v>
       </c>
+      <c r="BR19" s="4">
+        <v>2021</v>
+      </c>
+      <c r="BS19" s="46">
+        <f t="shared" ref="BS19:BS43" si="36">0.15*BV19</f>
+        <v>936.70514999999978</v>
+      </c>
+      <c r="BT19" s="46">
+        <f t="shared" ref="BT19:BT43" si="37">0.5*BV19</f>
+        <v>3122.3504999999996</v>
+      </c>
+      <c r="BU19" s="46">
+        <f t="shared" ref="BU19:BU43" si="38">0.35*BV19</f>
+        <v>2185.6453499999993</v>
+      </c>
+      <c r="BV19" s="12">
+        <f t="shared" ref="BV19:BV43" si="39">BV18*(1+$L$3)</f>
+        <v>6244.7009999999991</v>
+      </c>
+      <c r="BX19" s="4">
+        <v>2021</v>
+      </c>
+      <c r="BY19" s="46">
+        <f t="shared" ref="BY19:BY43" si="40">0.15*CB19</f>
+        <v>1052.0338499999998</v>
+      </c>
+      <c r="BZ19" s="46">
+        <f t="shared" ref="BZ19:BZ43" si="41">0.5*CB19</f>
+        <v>3506.7794999999996</v>
+      </c>
+      <c r="CA19" s="46">
+        <f t="shared" ref="CA19:CA43" si="42">0.35*CB19</f>
+        <v>2454.7456499999994</v>
+      </c>
+      <c r="CB19" s="12">
+        <f>CB18*(1+$L$3)</f>
+        <v>7013.5589999999993</v>
+      </c>
+      <c r="CD19" s="4">
+        <v>2021</v>
+      </c>
+      <c r="CE19" s="46">
+        <f t="shared" ref="CE19:CE43" si="43">0.15*CH19</f>
+        <v>1152.9842999999998</v>
+      </c>
+      <c r="CF19" s="46">
+        <f t="shared" ref="CF19:CF43" si="44">0.5*CH19</f>
+        <v>3843.2809999999995</v>
+      </c>
+      <c r="CG19" s="46">
+        <f t="shared" ref="CG19:CG43" si="45">0.35*CH19</f>
+        <v>2690.2966999999994</v>
+      </c>
+      <c r="CH19" s="12">
+        <f t="shared" ref="CH19:CH43" si="46">CH18*(1+$L$3)</f>
+        <v>7686.561999999999</v>
+      </c>
+      <c r="CJ19" s="4">
+        <v>2021</v>
+      </c>
+      <c r="CK19" s="46">
+        <f t="shared" ref="CK19:CK43" si="47">0.15*CN19</f>
+        <v>1006.9315499999999</v>
+      </c>
+      <c r="CL19" s="46">
+        <f t="shared" ref="CL19:CL43" si="48">0.5*CN19</f>
+        <v>3356.4384999999997</v>
+      </c>
+      <c r="CM19" s="46">
+        <f t="shared" ref="CM19:CM43" si="49">0.35*CN19</f>
+        <v>2349.5069499999995</v>
+      </c>
+      <c r="CN19" s="12">
+        <f>CN18*(1+$L$3)</f>
+        <v>6712.8769999999995</v>
+      </c>
     </row>
-    <row r="20" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>2022</v>
       </c>
@@ -2595,7 +2914,7 @@
         <v>1327.6794320999998</v>
       </c>
       <c r="T20" s="12">
-        <f t="shared" ref="T20:T43" si="36">T19*(1+$L$3)</f>
+        <f t="shared" ref="T20:T43" si="50">T19*(1+$L$3)</f>
         <v>3793.3698059999992</v>
       </c>
       <c r="V20" s="4">
@@ -2633,7 +2952,7 @@
         <v>1443.1298174999995</v>
       </c>
       <c r="AF20" s="12">
-        <f t="shared" ref="AF20:AF43" si="37">AF19*(1+$L$3)</f>
+        <f t="shared" ref="AF20:AF43" si="51">AF19*(1+$L$3)</f>
         <v>4123.2280499999988</v>
       </c>
       <c r="AH20" s="4">
@@ -2671,7 +2990,7 @@
         <v>1784.8487051499994</v>
       </c>
       <c r="AR20" s="12">
-        <f t="shared" ref="AR20:AR43" si="38">AR19*(1+$L$3)</f>
+        <f t="shared" ref="AR20:AR43" si="52">AR19*(1+$L$3)</f>
         <v>5099.5677289999985</v>
       </c>
       <c r="AT20" s="4">
@@ -2709,7 +3028,7 @@
         <v>1346.9211629999995</v>
       </c>
       <c r="BD20" s="12">
-        <f t="shared" ref="BD20:BD43" si="39">BD19*(1+$L$3)</f>
+        <f t="shared" ref="BD20:BD43" si="53">BD19*(1+$L$3)</f>
         <v>3848.3461799999991</v>
       </c>
       <c r="BF20" s="4">
@@ -2748,8 +3067,84 @@
       <c r="BP20" s="27">
         <v>210</v>
       </c>
+      <c r="BR20" s="4">
+        <v>2022</v>
+      </c>
+      <c r="BS20" s="46">
+        <f t="shared" si="36"/>
+        <v>945.1354963499997</v>
+      </c>
+      <c r="BT20" s="46">
+        <f t="shared" si="37"/>
+        <v>3150.4516544999992</v>
+      </c>
+      <c r="BU20" s="46">
+        <f t="shared" si="38"/>
+        <v>2205.3161581499994</v>
+      </c>
+      <c r="BV20" s="12">
+        <f t="shared" si="39"/>
+        <v>6300.9033089999984</v>
+      </c>
+      <c r="BX20" s="4">
+        <v>2022</v>
+      </c>
+      <c r="BY20" s="46">
+        <f t="shared" si="40"/>
+        <v>1061.5021546499997</v>
+      </c>
+      <c r="BZ20" s="46">
+        <f t="shared" si="41"/>
+        <v>3538.3405154999991</v>
+      </c>
+      <c r="CA20" s="46">
+        <f t="shared" si="42"/>
+        <v>2476.8383608499994</v>
+      </c>
+      <c r="CB20" s="12">
+        <f t="shared" ref="CB20:CB43" si="54">CB19*(1+$L$3)</f>
+        <v>7076.6810309999983</v>
+      </c>
+      <c r="CD20" s="4">
+        <v>2022</v>
+      </c>
+      <c r="CE20" s="46">
+        <f t="shared" si="43"/>
+        <v>1163.3611586999996</v>
+      </c>
+      <c r="CF20" s="46">
+        <f t="shared" si="44"/>
+        <v>3877.8705289999989</v>
+      </c>
+      <c r="CG20" s="46">
+        <f t="shared" si="45"/>
+        <v>2714.5093702999989</v>
+      </c>
+      <c r="CH20" s="12">
+        <f t="shared" si="46"/>
+        <v>7755.7410579999978</v>
+      </c>
+      <c r="CJ20" s="4">
+        <v>2022</v>
+      </c>
+      <c r="CK20" s="46">
+        <f t="shared" si="47"/>
+        <v>1015.9939339499998</v>
+      </c>
+      <c r="CL20" s="46">
+        <f t="shared" si="48"/>
+        <v>3386.6464464999995</v>
+      </c>
+      <c r="CM20" s="46">
+        <f t="shared" si="49"/>
+        <v>2370.6525125499993</v>
+      </c>
+      <c r="CN20" s="12">
+        <f t="shared" ref="CN20:CN43" si="55">CN19*(1+$L$3)</f>
+        <v>6773.2928929999989</v>
+      </c>
     </row>
-    <row r="21" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <v>2023</v>
       </c>
@@ -2809,7 +3204,7 @@
         <v>1339.6285469888994</v>
       </c>
       <c r="T21" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>3827.5101342539988</v>
       </c>
       <c r="V21" s="4">
@@ -2847,7 +3242,7 @@
         <v>1456.1179858574994</v>
       </c>
       <c r="AF21" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4160.3371024499984</v>
       </c>
       <c r="AH21" s="4">
@@ -2885,7 +3280,7 @@
         <v>1800.9123434963492</v>
       </c>
       <c r="AR21" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>5145.4638385609978</v>
       </c>
       <c r="AT21" s="4">
@@ -2923,7 +3318,7 @@
         <v>1359.0434534669994</v>
       </c>
       <c r="BD21" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>3882.9812956199985</v>
       </c>
       <c r="BF21" s="4">
@@ -2962,8 +3357,84 @@
       <c r="BP21" s="27">
         <v>280</v>
       </c>
+      <c r="BR21" s="4">
+        <v>2023</v>
+      </c>
+      <c r="BS21" s="46">
+        <f t="shared" si="36"/>
+        <v>953.64171581714959</v>
+      </c>
+      <c r="BT21" s="46">
+        <f t="shared" si="37"/>
+        <v>3178.8057193904988</v>
+      </c>
+      <c r="BU21" s="46">
+        <f t="shared" si="38"/>
+        <v>2225.164003573349</v>
+      </c>
+      <c r="BV21" s="12">
+        <f t="shared" si="39"/>
+        <v>6357.6114387809976</v>
+      </c>
+      <c r="BX21" s="4">
+        <v>2023</v>
+      </c>
+      <c r="BY21" s="46">
+        <f t="shared" si="40"/>
+        <v>1071.0556740418494</v>
+      </c>
+      <c r="BZ21" s="46">
+        <f t="shared" si="41"/>
+        <v>3570.1855801394986</v>
+      </c>
+      <c r="CA21" s="46">
+        <f t="shared" si="42"/>
+        <v>2499.1299060976489</v>
+      </c>
+      <c r="CB21" s="12">
+        <f t="shared" si="54"/>
+        <v>7140.3711602789972</v>
+      </c>
+      <c r="CD21" s="4">
+        <v>2023</v>
+      </c>
+      <c r="CE21" s="46">
+        <f t="shared" si="43"/>
+        <v>1173.8314091282996</v>
+      </c>
+      <c r="CF21" s="46">
+        <f t="shared" si="44"/>
+        <v>3912.7713637609986</v>
+      </c>
+      <c r="CG21" s="46">
+        <f t="shared" si="45"/>
+        <v>2738.939954632699</v>
+      </c>
+      <c r="CH21" s="12">
+        <f t="shared" si="46"/>
+        <v>7825.5427275219972</v>
+      </c>
+      <c r="CJ21" s="4">
+        <v>2023</v>
+      </c>
+      <c r="CK21" s="46">
+        <f t="shared" si="47"/>
+        <v>1025.1378793555498</v>
+      </c>
+      <c r="CL21" s="46">
+        <f t="shared" si="48"/>
+        <v>3417.1262645184993</v>
+      </c>
+      <c r="CM21" s="46">
+        <f t="shared" si="49"/>
+        <v>2391.9883851629493</v>
+      </c>
+      <c r="CN21" s="12">
+        <f t="shared" si="55"/>
+        <v>6834.2525290369986</v>
+      </c>
     </row>
-    <row r="22" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <v>2024</v>
       </c>
@@ -3023,7 +3494,7 @@
         <v>1351.6852039117996</v>
       </c>
       <c r="T22" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>3861.9577254622845</v>
       </c>
       <c r="V22" s="4">
@@ -3061,7 +3532,7 @@
         <v>1469.2230477302169</v>
       </c>
       <c r="AF22" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4197.7801363720482</v>
       </c>
       <c r="AH22" s="4">
@@ -3099,7 +3570,7 @@
         <v>1817.1205545878161</v>
       </c>
       <c r="AR22" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>5191.7730131080461</v>
       </c>
       <c r="AT22" s="4">
@@ -3137,7 +3608,7 @@
         <v>1371.2748445482023</v>
       </c>
       <c r="BD22" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>3917.9281272805779</v>
       </c>
       <c r="BF22" s="4">
@@ -3176,8 +3647,84 @@
       <c r="BP22" s="27">
         <v>350</v>
       </c>
+      <c r="BR22" s="4">
+        <v>2024</v>
+      </c>
+      <c r="BS22" s="46">
+        <f t="shared" si="36"/>
+        <v>962.22449125950379</v>
+      </c>
+      <c r="BT22" s="46">
+        <f t="shared" si="37"/>
+        <v>3207.4149708650129</v>
+      </c>
+      <c r="BU22" s="46">
+        <f t="shared" si="38"/>
+        <v>2245.1904796055087</v>
+      </c>
+      <c r="BV22" s="12">
+        <f t="shared" si="39"/>
+        <v>6414.8299417300259</v>
+      </c>
+      <c r="BX22" s="4">
+        <v>2024</v>
+      </c>
+      <c r="BY22" s="46">
+        <f t="shared" si="40"/>
+        <v>1080.6951751082261</v>
+      </c>
+      <c r="BZ22" s="46">
+        <f t="shared" si="41"/>
+        <v>3602.3172503607539</v>
+      </c>
+      <c r="CA22" s="46">
+        <f t="shared" si="42"/>
+        <v>2521.6220752525273</v>
+      </c>
+      <c r="CB22" s="12">
+        <f t="shared" si="54"/>
+        <v>7204.6345007215077</v>
+      </c>
+      <c r="CD22" s="4">
+        <v>2024</v>
+      </c>
+      <c r="CE22" s="46">
+        <f t="shared" si="43"/>
+        <v>1184.395891810454</v>
+      </c>
+      <c r="CF22" s="46">
+        <f t="shared" si="44"/>
+        <v>3947.9863060348471</v>
+      </c>
+      <c r="CG22" s="46">
+        <f t="shared" si="45"/>
+        <v>2763.5904142243926</v>
+      </c>
+      <c r="CH22" s="12">
+        <f t="shared" si="46"/>
+        <v>7895.9726120696942</v>
+      </c>
+      <c r="CJ22" s="4">
+        <v>2024</v>
+      </c>
+      <c r="CK22" s="46">
+        <f t="shared" si="47"/>
+        <v>1034.3641202697497</v>
+      </c>
+      <c r="CL22" s="46">
+        <f t="shared" si="48"/>
+        <v>3447.8804008991656</v>
+      </c>
+      <c r="CM22" s="46">
+        <f t="shared" si="49"/>
+        <v>2413.5162806294156</v>
+      </c>
+      <c r="CN22" s="12">
+        <f t="shared" si="55"/>
+        <v>6895.7608017983312</v>
+      </c>
     </row>
-    <row r="23" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <v>2025</v>
       </c>
@@ -3237,7 +3784,7 @@
         <v>1363.8503707470056</v>
       </c>
       <c r="T23" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>3896.7153449914449</v>
       </c>
       <c r="V23" s="4">
@@ -3275,7 +3822,7 @@
         <v>1482.4460551597886</v>
       </c>
       <c r="AF23" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4235.560157599396</v>
       </c>
       <c r="AH23" s="4">
@@ -3313,7 +3860,7 @@
         <v>1833.4746395791062</v>
       </c>
       <c r="AR23" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>5238.4989702260182</v>
       </c>
       <c r="AT23" s="4">
@@ -3351,7 +3898,7 @@
         <v>1383.6163181491359</v>
       </c>
       <c r="BD23" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>3953.1894804261028</v>
       </c>
       <c r="BF23" s="4">
@@ -3390,8 +3937,84 @@
       <c r="BP23" s="27">
         <v>420</v>
       </c>
+      <c r="BR23" s="4">
+        <v>2025</v>
+      </c>
+      <c r="BS23" s="46">
+        <f t="shared" si="36"/>
+        <v>970.8845116808393</v>
+      </c>
+      <c r="BT23" s="46">
+        <f t="shared" si="37"/>
+        <v>3236.281705602798</v>
+      </c>
+      <c r="BU23" s="46">
+        <f t="shared" si="38"/>
+        <v>2265.3971939219582</v>
+      </c>
+      <c r="BV23" s="12">
+        <f>BV22*(1+$L$3)</f>
+        <v>6472.5634112055959</v>
+      </c>
+      <c r="BX23" s="4">
+        <v>2025</v>
+      </c>
+      <c r="BY23" s="46">
+        <f t="shared" si="40"/>
+        <v>1090.4214316842001</v>
+      </c>
+      <c r="BZ23" s="46">
+        <f t="shared" si="41"/>
+        <v>3634.7381056140002</v>
+      </c>
+      <c r="CA23" s="46">
+        <f t="shared" si="42"/>
+        <v>2544.3166739297999</v>
+      </c>
+      <c r="CB23" s="12">
+        <f t="shared" si="54"/>
+        <v>7269.4762112280005</v>
+      </c>
+      <c r="CD23" s="4">
+        <v>2025</v>
+      </c>
+      <c r="CE23" s="46">
+        <f t="shared" si="43"/>
+        <v>1195.0554548367479</v>
+      </c>
+      <c r="CF23" s="46">
+        <f t="shared" si="44"/>
+        <v>3983.5181827891602</v>
+      </c>
+      <c r="CG23" s="46">
+        <f t="shared" si="45"/>
+        <v>2788.462727952412</v>
+      </c>
+      <c r="CH23" s="12">
+        <f t="shared" si="46"/>
+        <v>7967.0363655783203</v>
+      </c>
+      <c r="CJ23" s="4">
+        <v>2025</v>
+      </c>
+      <c r="CK23" s="46">
+        <f t="shared" si="47"/>
+        <v>1043.6733973521773</v>
+      </c>
+      <c r="CL23" s="46">
+        <f t="shared" si="48"/>
+        <v>3478.9113245072576</v>
+      </c>
+      <c r="CM23" s="46">
+        <f t="shared" si="49"/>
+        <v>2435.2379271550803</v>
+      </c>
+      <c r="CN23" s="12">
+        <f t="shared" si="55"/>
+        <v>6957.8226490145153</v>
+      </c>
     </row>
-    <row r="24" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <v>2026</v>
       </c>
@@ -3451,7 +4074,7 @@
         <v>1376.1250240837285</v>
       </c>
       <c r="T24" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>3931.7857830963676</v>
       </c>
       <c r="V24" s="4">
@@ -3489,7 +4112,7 @@
         <v>1495.7880696562265</v>
       </c>
       <c r="AF24" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4273.6801990177901</v>
       </c>
       <c r="AH24" s="4">
@@ -3527,7 +4150,7 @@
         <v>1849.975911335318</v>
       </c>
       <c r="AR24" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>5285.6454609580514</v>
       </c>
       <c r="AT24" s="4">
@@ -3565,7 +4188,7 @@
         <v>1396.068865012478</v>
       </c>
       <c r="BD24" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>3988.7681857499374</v>
       </c>
       <c r="BF24" s="4">
@@ -3604,8 +4227,84 @@
       <c r="BP24" s="27">
         <v>490</v>
       </c>
+      <c r="BR24" s="4">
+        <v>2026</v>
+      </c>
+      <c r="BS24" s="46">
+        <f t="shared" si="36"/>
+        <v>979.62247228596686</v>
+      </c>
+      <c r="BT24" s="46">
+        <f t="shared" si="37"/>
+        <v>3265.408240953223</v>
+      </c>
+      <c r="BU24" s="46">
+        <f t="shared" si="38"/>
+        <v>2285.785768667256</v>
+      </c>
+      <c r="BV24" s="12">
+        <f t="shared" si="39"/>
+        <v>6530.8164819064459</v>
+      </c>
+      <c r="BX24" s="4">
+        <v>2026</v>
+      </c>
+      <c r="BY24" s="46">
+        <f t="shared" si="40"/>
+        <v>1100.2352245693578</v>
+      </c>
+      <c r="BZ24" s="46">
+        <f t="shared" si="41"/>
+        <v>3667.4507485645258</v>
+      </c>
+      <c r="CA24" s="46">
+        <f t="shared" si="42"/>
+        <v>2567.215523995168</v>
+      </c>
+      <c r="CB24" s="12">
+        <f t="shared" si="54"/>
+        <v>7334.9014971290517</v>
+      </c>
+      <c r="CD24" s="4">
+        <v>2026</v>
+      </c>
+      <c r="CE24" s="46">
+        <f t="shared" si="43"/>
+        <v>1205.8109539302786</v>
+      </c>
+      <c r="CF24" s="46">
+        <f t="shared" si="44"/>
+        <v>4019.3698464342624</v>
+      </c>
+      <c r="CG24" s="46">
+        <f t="shared" si="45"/>
+        <v>2813.5588925039833</v>
+      </c>
+      <c r="CH24" s="12">
+        <f t="shared" si="46"/>
+        <v>8038.7396928685248</v>
+      </c>
+      <c r="CJ24" s="4">
+        <v>2026</v>
+      </c>
+      <c r="CK24" s="46">
+        <f t="shared" si="47"/>
+        <v>1053.0664579283466</v>
+      </c>
+      <c r="CL24" s="46">
+        <f t="shared" si="48"/>
+        <v>3510.2215264278225</v>
+      </c>
+      <c r="CM24" s="46">
+        <f t="shared" si="49"/>
+        <v>2457.1550684994754</v>
+      </c>
+      <c r="CN24" s="12">
+        <f t="shared" si="55"/>
+        <v>7020.443052855645</v>
+      </c>
     </row>
-    <row r="25" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <v>2027</v>
       </c>
@@ -3665,7 +4364,7 @@
         <v>1388.510149300482</v>
       </c>
       <c r="T25" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>3967.1718551442345</v>
       </c>
       <c r="V25" s="4">
@@ -3703,7 +4402,7 @@
         <v>1509.2501622831326</v>
       </c>
       <c r="AF25" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4312.1433208089502</v>
       </c>
       <c r="AH25" s="4">
@@ -3741,7 +4440,7 @@
         <v>1866.6256945373357</v>
       </c>
       <c r="AR25" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>5333.2162701066736</v>
       </c>
       <c r="AT25" s="4">
@@ -3779,7 +4478,7 @@
         <v>1408.6334847975902</v>
       </c>
       <c r="BD25" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>4024.6670994216865</v>
       </c>
       <c r="BF25" s="4">
@@ -3818,8 +4517,84 @@
       <c r="BP25" s="27">
         <v>560</v>
       </c>
+      <c r="BR25" s="4">
+        <v>2027</v>
+      </c>
+      <c r="BS25" s="46">
+        <f t="shared" si="36"/>
+        <v>988.43907453654049</v>
+      </c>
+      <c r="BT25" s="46">
+        <f t="shared" si="37"/>
+        <v>3294.7969151218017</v>
+      </c>
+      <c r="BU25" s="46">
+        <f t="shared" si="38"/>
+        <v>2306.3578405852609</v>
+      </c>
+      <c r="BV25" s="12">
+        <f t="shared" si="39"/>
+        <v>6589.5938302436034</v>
+      </c>
+      <c r="BX25" s="4">
+        <v>2027</v>
+      </c>
+      <c r="BY25" s="46">
+        <f t="shared" si="40"/>
+        <v>1110.1373415904818</v>
+      </c>
+      <c r="BZ25" s="46">
+        <f t="shared" si="41"/>
+        <v>3700.4578053016062</v>
+      </c>
+      <c r="CA25" s="46">
+        <f t="shared" si="42"/>
+        <v>2590.3204637111244</v>
+      </c>
+      <c r="CB25" s="12">
+        <f t="shared" si="54"/>
+        <v>7400.9156106032124</v>
+      </c>
+      <c r="CD25" s="4">
+        <v>2027</v>
+      </c>
+      <c r="CE25" s="46">
+        <f t="shared" si="43"/>
+        <v>1216.663252515651</v>
+      </c>
+      <c r="CF25" s="46">
+        <f t="shared" si="44"/>
+        <v>4055.5441750521704</v>
+      </c>
+      <c r="CG25" s="46">
+        <f t="shared" si="45"/>
+        <v>2838.8809225365189</v>
+      </c>
+      <c r="CH25" s="12">
+        <f t="shared" si="46"/>
+        <v>8111.0883501043409</v>
+      </c>
+      <c r="CJ25" s="4">
+        <v>2027</v>
+      </c>
+      <c r="CK25" s="46">
+        <f t="shared" si="47"/>
+        <v>1062.5440560497016</v>
+      </c>
+      <c r="CL25" s="46">
+        <f t="shared" si="48"/>
+        <v>3541.8135201656723</v>
+      </c>
+      <c r="CM25" s="46">
+        <f t="shared" si="49"/>
+        <v>2479.2694641159705</v>
+      </c>
+      <c r="CN25" s="12">
+        <f t="shared" si="55"/>
+        <v>7083.6270403313447</v>
+      </c>
     </row>
-    <row r="26" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <v>2028</v>
       </c>
@@ -3879,7 +4654,7 @@
         <v>1401.0067406441863</v>
       </c>
       <c r="T26" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>4002.8764018405323</v>
       </c>
       <c r="V26" s="4">
@@ -3917,7 +4692,7 @@
         <v>1522.8334137436805</v>
       </c>
       <c r="AF26" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4350.9526106962303</v>
       </c>
       <c r="AH26" s="4">
@@ -3955,7 +4730,7 @@
         <v>1883.4253257881714</v>
       </c>
       <c r="AR26" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>5381.2152165376328</v>
       </c>
       <c r="AT26" s="4">
@@ -3993,7 +4768,7 @@
         <v>1421.3111861607683</v>
       </c>
       <c r="BD26" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>4060.8891033164814</v>
       </c>
       <c r="BF26" s="4">
@@ -4032,8 +4807,84 @@
       <c r="BP26" s="27">
         <v>630</v>
       </c>
+      <c r="BR26" s="4">
+        <v>2028</v>
+      </c>
+      <c r="BS26" s="46">
+        <f t="shared" si="36"/>
+        <v>997.33502620736931</v>
+      </c>
+      <c r="BT26" s="46">
+        <f t="shared" si="37"/>
+        <v>3324.4500873578977</v>
+      </c>
+      <c r="BU26" s="46">
+        <f t="shared" si="38"/>
+        <v>2327.1150611505282</v>
+      </c>
+      <c r="BV26" s="12">
+        <f t="shared" si="39"/>
+        <v>6648.9001747157954</v>
+      </c>
+      <c r="BX26" s="4">
+        <v>2028</v>
+      </c>
+      <c r="BY26" s="46">
+        <f t="shared" si="40"/>
+        <v>1120.128577664796</v>
+      </c>
+      <c r="BZ26" s="46">
+        <f t="shared" si="41"/>
+        <v>3733.76192554932</v>
+      </c>
+      <c r="CA26" s="46">
+        <f t="shared" si="42"/>
+        <v>2613.633347884524</v>
+      </c>
+      <c r="CB26" s="12">
+        <f t="shared" si="54"/>
+        <v>7467.5238510986401</v>
+      </c>
+      <c r="CD26" s="4">
+        <v>2028</v>
+      </c>
+      <c r="CE26" s="46">
+        <f t="shared" si="43"/>
+        <v>1227.6132217882919</v>
+      </c>
+      <c r="CF26" s="46">
+        <f t="shared" si="44"/>
+        <v>4092.0440726276397</v>
+      </c>
+      <c r="CG26" s="46">
+        <f t="shared" si="45"/>
+        <v>2864.4308508393478</v>
+      </c>
+      <c r="CH26" s="12">
+        <f t="shared" si="46"/>
+        <v>8184.0881452552794</v>
+      </c>
+      <c r="CJ26" s="4">
+        <v>2028</v>
+      </c>
+      <c r="CK26" s="46">
+        <f t="shared" si="47"/>
+        <v>1072.1069525541488</v>
+      </c>
+      <c r="CL26" s="46">
+        <f t="shared" si="48"/>
+        <v>3573.6898418471628</v>
+      </c>
+      <c r="CM26" s="46">
+        <f t="shared" si="49"/>
+        <v>2501.582889293014</v>
+      </c>
+      <c r="CN26" s="12">
+        <f t="shared" si="55"/>
+        <v>7147.3796836943256</v>
+      </c>
     </row>
-    <row r="27" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <v>2029</v>
       </c>
@@ -4093,7 +4944,7 @@
         <v>1413.6158013099837</v>
       </c>
       <c r="T27" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>4038.9022894570967</v>
       </c>
       <c r="V27" s="4">
@@ -4131,7 +4982,7 @@
         <v>1536.5389144673734</v>
       </c>
       <c r="AF27" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4390.1111841924958</v>
       </c>
       <c r="AH27" s="4">
@@ -4169,7 +5020,7 @@
         <v>1900.3761537202647</v>
       </c>
       <c r="AR27" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>5429.6461534864711</v>
       </c>
       <c r="AT27" s="4">
@@ -4207,7 +5058,7 @@
         <v>1434.1029868362152</v>
       </c>
       <c r="BD27" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>4097.4371052463293</v>
       </c>
       <c r="BF27" s="4">
@@ -4246,8 +5097,84 @@
       <c r="BP27" s="27">
         <v>700</v>
       </c>
+      <c r="BR27" s="4">
+        <v>2029</v>
+      </c>
+      <c r="BS27" s="46">
+        <f t="shared" si="36"/>
+        <v>1006.3110414432355</v>
+      </c>
+      <c r="BT27" s="46">
+        <f t="shared" si="37"/>
+        <v>3354.3701381441183</v>
+      </c>
+      <c r="BU27" s="46">
+        <f t="shared" si="38"/>
+        <v>2348.0590967008825</v>
+      </c>
+      <c r="BV27" s="12">
+        <f t="shared" si="39"/>
+        <v>6708.7402762882366</v>
+      </c>
+      <c r="BX27" s="4">
+        <v>2029</v>
+      </c>
+      <c r="BY27" s="46">
+        <f t="shared" si="40"/>
+        <v>1130.209734863779</v>
+      </c>
+      <c r="BZ27" s="46">
+        <f t="shared" si="41"/>
+        <v>3767.3657828792634</v>
+      </c>
+      <c r="CA27" s="46">
+        <f t="shared" si="42"/>
+        <v>2637.1560480154844</v>
+      </c>
+      <c r="CB27" s="12">
+        <f t="shared" si="54"/>
+        <v>7534.7315657585268</v>
+      </c>
+      <c r="CD27" s="4">
+        <v>2029</v>
+      </c>
+      <c r="CE27" s="46">
+        <f t="shared" si="43"/>
+        <v>1238.6617407843864</v>
+      </c>
+      <c r="CF27" s="46">
+        <f t="shared" si="44"/>
+        <v>4128.8724692812884</v>
+      </c>
+      <c r="CG27" s="46">
+        <f t="shared" si="45"/>
+        <v>2890.2107284969015</v>
+      </c>
+      <c r="CH27" s="12">
+        <f t="shared" si="46"/>
+        <v>8257.7449385625769</v>
+      </c>
+      <c r="CJ27" s="4">
+        <v>2029</v>
+      </c>
+      <c r="CK27" s="46">
+        <f t="shared" si="47"/>
+        <v>1081.7559151271359</v>
+      </c>
+      <c r="CL27" s="46">
+        <f t="shared" si="48"/>
+        <v>3605.853050423787</v>
+      </c>
+      <c r="CM27" s="46">
+        <f t="shared" si="49"/>
+        <v>2524.0971352966508</v>
+      </c>
+      <c r="CN27" s="12">
+        <f t="shared" si="55"/>
+        <v>7211.7061008475739</v>
+      </c>
     </row>
-    <row r="28" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <v>2030</v>
       </c>
@@ -4307,7 +5234,7 @@
         <v>1426.3383435217734</v>
       </c>
       <c r="T28" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>4075.2524100622099</v>
       </c>
       <c r="V28" s="4">
@@ -4345,7 +5272,7 @@
         <v>1550.3677646975798</v>
       </c>
       <c r="AF28" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4429.6221848502282</v>
       </c>
       <c r="AH28" s="4">
@@ -4383,7 +5310,7 @@
         <v>1917.4795391037469</v>
       </c>
       <c r="AR28" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>5478.5129688678489</v>
       </c>
       <c r="AT28" s="4">
@@ -4421,7 +5348,7 @@
         <v>1447.009913717741</v>
       </c>
       <c r="BD28" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>4134.3140391935458</v>
       </c>
       <c r="BF28" s="4">
@@ -4460,8 +5387,84 @@
       <c r="BP28" s="27">
         <v>770</v>
       </c>
+      <c r="BR28" s="4">
+        <v>2030</v>
+      </c>
+      <c r="BS28" s="46">
+        <f t="shared" si="36"/>
+        <v>1015.3678408162244</v>
+      </c>
+      <c r="BT28" s="46">
+        <f t="shared" si="37"/>
+        <v>3384.559469387415</v>
+      </c>
+      <c r="BU28" s="46">
+        <f t="shared" si="38"/>
+        <v>2369.1916285711904</v>
+      </c>
+      <c r="BV28" s="12">
+        <f t="shared" si="39"/>
+        <v>6769.11893877483</v>
+      </c>
+      <c r="BX28" s="4">
+        <v>2030</v>
+      </c>
+      <c r="BY28" s="46">
+        <f t="shared" si="40"/>
+        <v>1140.3816224775528</v>
+      </c>
+      <c r="BZ28" s="46">
+        <f t="shared" si="41"/>
+        <v>3801.2720749251762</v>
+      </c>
+      <c r="CA28" s="46">
+        <f t="shared" si="42"/>
+        <v>2660.8904524476234</v>
+      </c>
+      <c r="CB28" s="12">
+        <f t="shared" si="54"/>
+        <v>7602.5441498503524</v>
+      </c>
+      <c r="CD28" s="4">
+        <v>2030</v>
+      </c>
+      <c r="CE28" s="46">
+        <f t="shared" si="43"/>
+        <v>1249.8096964514457</v>
+      </c>
+      <c r="CF28" s="46">
+        <f t="shared" si="44"/>
+        <v>4166.0323215048193</v>
+      </c>
+      <c r="CG28" s="46">
+        <f t="shared" si="45"/>
+        <v>2916.2226250533731</v>
+      </c>
+      <c r="CH28" s="12">
+        <f t="shared" si="46"/>
+        <v>8332.0646430096385</v>
+      </c>
+      <c r="CJ28" s="4">
+        <v>2030</v>
+      </c>
+      <c r="CK28" s="46">
+        <f t="shared" si="47"/>
+        <v>1091.4917183632801</v>
+      </c>
+      <c r="CL28" s="46">
+        <f t="shared" si="48"/>
+        <v>3638.3057278776005</v>
+      </c>
+      <c r="CM28" s="46">
+        <f t="shared" si="49"/>
+        <v>2546.8140095143203</v>
+      </c>
+      <c r="CN28" s="12">
+        <f t="shared" si="55"/>
+        <v>7276.611455755201</v>
+      </c>
     </row>
-    <row r="29" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B29" s="4">
         <v>2031</v>
       </c>
@@ -4521,7 +5524,7 @@
         <v>1439.1753886134691</v>
       </c>
       <c r="T29" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>4111.9296817527693</v>
       </c>
       <c r="V29" s="4">
@@ -4559,7 +5562,7 @@
         <v>1564.3210745798579</v>
       </c>
       <c r="AF29" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4469.4887845138801</v>
       </c>
       <c r="AH29" s="4">
@@ -4597,7 +5600,7 @@
         <v>1934.7368549556807</v>
       </c>
       <c r="AR29" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>5527.8195855876593</v>
       </c>
       <c r="AT29" s="4">
@@ -4635,7 +5638,7 @@
         <v>1460.0330029412003</v>
       </c>
       <c r="BD29" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>4171.522865546287</v>
       </c>
       <c r="BF29" s="4">
@@ -4674,8 +5677,84 @@
       <c r="BP29" s="27">
         <v>840</v>
       </c>
+      <c r="BR29" s="4">
+        <v>2031</v>
+      </c>
+      <c r="BS29" s="46">
+        <f t="shared" si="36"/>
+        <v>1024.5061513835703</v>
+      </c>
+      <c r="BT29" s="46">
+        <f t="shared" si="37"/>
+        <v>3415.0205046119013</v>
+      </c>
+      <c r="BU29" s="46">
+        <f t="shared" si="38"/>
+        <v>2390.5143532283309</v>
+      </c>
+      <c r="BV29" s="12">
+        <f t="shared" si="39"/>
+        <v>6830.0410092238026</v>
+      </c>
+      <c r="BX29" s="4">
+        <v>2031</v>
+      </c>
+      <c r="BY29" s="46">
+        <f t="shared" si="40"/>
+        <v>1150.6450570798506</v>
+      </c>
+      <c r="BZ29" s="46">
+        <f t="shared" si="41"/>
+        <v>3835.4835235995024</v>
+      </c>
+      <c r="CA29" s="46">
+        <f t="shared" si="42"/>
+        <v>2684.8384665196513</v>
+      </c>
+      <c r="CB29" s="12">
+        <f t="shared" si="54"/>
+        <v>7670.9670471990048</v>
+      </c>
+      <c r="CD29" s="4">
+        <v>2031</v>
+      </c>
+      <c r="CE29" s="46">
+        <f t="shared" si="43"/>
+        <v>1261.0579837195085</v>
+      </c>
+      <c r="CF29" s="46">
+        <f t="shared" si="44"/>
+        <v>4203.526612398362</v>
+      </c>
+      <c r="CG29" s="46">
+        <f t="shared" si="45"/>
+        <v>2942.4686286788533</v>
+      </c>
+      <c r="CH29" s="12">
+        <f t="shared" si="46"/>
+        <v>8407.053224796724</v>
+      </c>
+      <c r="CJ29" s="4">
+        <v>2031</v>
+      </c>
+      <c r="CK29" s="46">
+        <f t="shared" si="47"/>
+        <v>1101.3151438285495</v>
+      </c>
+      <c r="CL29" s="46">
+        <f t="shared" si="48"/>
+        <v>3671.0504794284984</v>
+      </c>
+      <c r="CM29" s="46">
+        <f t="shared" si="49"/>
+        <v>2569.7353355999489</v>
+      </c>
+      <c r="CN29" s="12">
+        <f t="shared" si="55"/>
+        <v>7342.1009588569968</v>
+      </c>
     </row>
-    <row r="30" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B30" s="4">
         <v>2032</v>
       </c>
@@ -4735,7 +5814,7 @@
         <v>1452.1279671109901</v>
       </c>
       <c r="T30" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>4148.9370488885434</v>
       </c>
       <c r="V30" s="4">
@@ -4773,7 +5852,7 @@
         <v>1578.3999642510764</v>
       </c>
       <c r="AF30" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4509.7141835745042</v>
       </c>
       <c r="AH30" s="4">
@@ -4811,7 +5890,7 @@
         <v>1952.1494866502815</v>
       </c>
       <c r="AR30" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>5577.5699618579474</v>
       </c>
       <c r="AT30" s="4">
@@ -4849,7 +5928,7 @@
         <v>1473.173299967671</v>
       </c>
       <c r="BD30" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>4209.0665713362032</v>
       </c>
       <c r="BF30" s="4">
@@ -4888,8 +5967,84 @@
       <c r="BP30" s="27">
         <v>910</v>
       </c>
+      <c r="BR30" s="4">
+        <v>2032</v>
+      </c>
+      <c r="BS30" s="46">
+        <f t="shared" si="36"/>
+        <v>1033.7267067460225</v>
+      </c>
+      <c r="BT30" s="46">
+        <f t="shared" si="37"/>
+        <v>3445.7556891534082</v>
+      </c>
+      <c r="BU30" s="46">
+        <f t="shared" si="38"/>
+        <v>2412.0289824073857</v>
+      </c>
+      <c r="BV30" s="12">
+        <f t="shared" si="39"/>
+        <v>6891.5113783068164</v>
+      </c>
+      <c r="BX30" s="4">
+        <v>2032</v>
+      </c>
+      <c r="BY30" s="46">
+        <f t="shared" si="40"/>
+        <v>1161.0008625935693</v>
+      </c>
+      <c r="BZ30" s="46">
+        <f t="shared" si="41"/>
+        <v>3870.0028753118977</v>
+      </c>
+      <c r="CA30" s="46">
+        <f t="shared" si="42"/>
+        <v>2709.0020127183284</v>
+      </c>
+      <c r="CB30" s="12">
+        <f t="shared" si="54"/>
+        <v>7740.0057506237954</v>
+      </c>
+      <c r="CD30" s="4">
+        <v>2032</v>
+      </c>
+      <c r="CE30" s="46">
+        <f t="shared" si="43"/>
+        <v>1272.4075055729838</v>
+      </c>
+      <c r="CF30" s="46">
+        <f t="shared" si="44"/>
+        <v>4241.3583519099466</v>
+      </c>
+      <c r="CG30" s="46">
+        <f t="shared" si="45"/>
+        <v>2968.9508463369625</v>
+      </c>
+      <c r="CH30" s="12">
+        <f t="shared" si="46"/>
+        <v>8482.7167038198932</v>
+      </c>
+      <c r="CJ30" s="4">
+        <v>2032</v>
+      </c>
+      <c r="CK30" s="46">
+        <f t="shared" si="47"/>
+        <v>1111.2269801230063</v>
+      </c>
+      <c r="CL30" s="46">
+        <f t="shared" si="48"/>
+        <v>3704.0899337433543</v>
+      </c>
+      <c r="CM30" s="46">
+        <f t="shared" si="49"/>
+        <v>2592.862953620348</v>
+      </c>
+      <c r="CN30" s="12">
+        <f t="shared" si="55"/>
+        <v>7408.1798674867086</v>
+      </c>
     </row>
-    <row r="31" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B31" s="4">
         <v>2033</v>
       </c>
@@ -4949,7 +6104,7 @@
         <v>1465.1971188149889</v>
       </c>
       <c r="T31" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>4186.2774823285399</v>
       </c>
       <c r="V31" s="4">
@@ -4987,7 +6142,7 @@
         <v>1592.6055639293359</v>
       </c>
       <c r="AF31" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4550.3016112266741</v>
       </c>
       <c r="AH31" s="4">
@@ -5025,7 +6180,7 @@
         <v>1969.7188320301339</v>
       </c>
       <c r="AR31" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>5627.7680915146684</v>
       </c>
       <c r="AT31" s="4">
@@ -5063,7 +6218,7 @@
         <v>1486.4318596673797</v>
       </c>
       <c r="BD31" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>4246.9481704782283</v>
       </c>
       <c r="BF31" s="4">
@@ -5102,8 +6257,84 @@
       <c r="BP31" s="27">
         <v>980</v>
       </c>
+      <c r="BR31" s="4">
+        <v>2033</v>
+      </c>
+      <c r="BS31" s="46">
+        <f t="shared" si="36"/>
+        <v>1043.0302471067366</v>
+      </c>
+      <c r="BT31" s="46">
+        <f t="shared" si="37"/>
+        <v>3476.7674903557886</v>
+      </c>
+      <c r="BU31" s="46">
+        <f t="shared" si="38"/>
+        <v>2433.737243249052</v>
+      </c>
+      <c r="BV31" s="12">
+        <f t="shared" si="39"/>
+        <v>6953.5349807115772</v>
+      </c>
+      <c r="BX31" s="4">
+        <v>2033</v>
+      </c>
+      <c r="BY31" s="46">
+        <f t="shared" si="40"/>
+        <v>1171.4498703569113</v>
+      </c>
+      <c r="BZ31" s="46">
+        <f t="shared" si="41"/>
+        <v>3904.8329011897044</v>
+      </c>
+      <c r="CA31" s="46">
+        <f t="shared" si="42"/>
+        <v>2733.3830308327929</v>
+      </c>
+      <c r="CB31" s="12">
+        <f t="shared" si="54"/>
+        <v>7809.6658023794089</v>
+      </c>
+      <c r="CD31" s="4">
+        <v>2033</v>
+      </c>
+      <c r="CE31" s="46">
+        <f t="shared" si="43"/>
+        <v>1283.8591731231406</v>
+      </c>
+      <c r="CF31" s="46">
+        <f t="shared" si="44"/>
+        <v>4279.5305770771356</v>
+      </c>
+      <c r="CG31" s="46">
+        <f t="shared" si="45"/>
+        <v>2995.6714039539947</v>
+      </c>
+      <c r="CH31" s="12">
+        <f t="shared" si="46"/>
+        <v>8559.0611541542712</v>
+      </c>
+      <c r="CJ31" s="4">
+        <v>2033</v>
+      </c>
+      <c r="CK31" s="46">
+        <f t="shared" si="47"/>
+        <v>1121.228022944113</v>
+      </c>
+      <c r="CL31" s="46">
+        <f t="shared" si="48"/>
+        <v>3737.4267431470439</v>
+      </c>
+      <c r="CM31" s="46">
+        <f t="shared" si="49"/>
+        <v>2616.1987202029304</v>
+      </c>
+      <c r="CN31" s="12">
+        <f t="shared" si="55"/>
+        <v>7474.8534862940878</v>
+      </c>
     </row>
-    <row r="32" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B32" s="4">
         <v>2034</v>
       </c>
@@ -5163,7 +6394,7 @@
         <v>1478.3838928843236</v>
       </c>
       <c r="T32" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>4223.9539796694962</v>
       </c>
       <c r="V32" s="4">
@@ -5201,7 +6432,7 @@
         <v>1606.9390140046999</v>
       </c>
       <c r="AF32" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4591.2543257277139</v>
       </c>
       <c r="AH32" s="4">
@@ -5239,7 +6470,7 @@
         <v>1987.4463015184047</v>
       </c>
       <c r="AR32" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>5678.4180043382994</v>
       </c>
       <c r="AT32" s="4">
@@ -5277,7 +6508,7 @@
         <v>1499.809746404386</v>
       </c>
       <c r="BD32" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>4285.170704012532</v>
       </c>
       <c r="BF32" s="4">
@@ -5316,8 +6547,84 @@
       <c r="BP32" s="27">
         <v>1050</v>
       </c>
+      <c r="BR32" s="4">
+        <v>2034</v>
+      </c>
+      <c r="BS32" s="46">
+        <f t="shared" si="36"/>
+        <v>1052.4175193306971</v>
+      </c>
+      <c r="BT32" s="46">
+        <f t="shared" si="37"/>
+        <v>3508.0583977689903</v>
+      </c>
+      <c r="BU32" s="46">
+        <f t="shared" si="38"/>
+        <v>2455.6408784382929</v>
+      </c>
+      <c r="BV32" s="12">
+        <f t="shared" si="39"/>
+        <v>7016.1167955379806</v>
+      </c>
+      <c r="BX32" s="4">
+        <v>2034</v>
+      </c>
+      <c r="BY32" s="46">
+        <f t="shared" si="40"/>
+        <v>1181.9929191901233</v>
+      </c>
+      <c r="BZ32" s="46">
+        <f t="shared" si="41"/>
+        <v>3939.9763973004115</v>
+      </c>
+      <c r="CA32" s="46">
+        <f t="shared" si="42"/>
+        <v>2757.9834781102877</v>
+      </c>
+      <c r="CB32" s="12">
+        <f t="shared" si="54"/>
+        <v>7879.9527946008229</v>
+      </c>
+      <c r="CD32" s="4">
+        <v>2034</v>
+      </c>
+      <c r="CE32" s="46">
+        <f t="shared" si="43"/>
+        <v>1295.4139056812489</v>
+      </c>
+      <c r="CF32" s="46">
+        <f t="shared" si="44"/>
+        <v>4318.0463522708296</v>
+      </c>
+      <c r="CG32" s="46">
+        <f t="shared" si="45"/>
+        <v>3022.6324465895805</v>
+      </c>
+      <c r="CH32" s="12">
+        <f t="shared" si="46"/>
+        <v>8636.0927045416593</v>
+      </c>
+      <c r="CJ32" s="4">
+        <v>2034</v>
+      </c>
+      <c r="CK32" s="46">
+        <f t="shared" si="47"/>
+        <v>1131.3190751506099</v>
+      </c>
+      <c r="CL32" s="46">
+        <f t="shared" si="48"/>
+        <v>3771.0635838353669</v>
+      </c>
+      <c r="CM32" s="46">
+        <f t="shared" si="49"/>
+        <v>2639.7445086847565</v>
+      </c>
+      <c r="CN32" s="12">
+        <f t="shared" si="55"/>
+        <v>7542.1271676707338</v>
+      </c>
     </row>
-    <row r="33" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B33" s="4">
         <v>2035</v>
       </c>
@@ -5377,7 +6684,7 @@
         <v>1491.6893479202822</v>
       </c>
       <c r="T33" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>4261.9695654865209</v>
       </c>
       <c r="V33" s="4">
@@ -5415,7 +6722,7 @@
         <v>1621.4014651307421</v>
       </c>
       <c r="AF33" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4632.575614659263</v>
       </c>
       <c r="AH33" s="4">
@@ -5453,7 +6760,7 @@
         <v>2005.33331823207</v>
       </c>
       <c r="AR33" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>5729.5237663773432</v>
       </c>
       <c r="AT33" s="4">
@@ -5491,7 +6798,7 @@
         <v>1513.3080341220254</v>
       </c>
       <c r="BD33" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>4323.7372403486443</v>
       </c>
       <c r="BF33" s="4">
@@ -5530,8 +6837,84 @@
       <c r="BP33" s="27">
         <v>1120</v>
       </c>
+      <c r="BR33" s="4">
+        <v>2035</v>
+      </c>
+      <c r="BS33" s="46">
+        <f t="shared" si="36"/>
+        <v>1061.8892770046732</v>
+      </c>
+      <c r="BT33" s="46">
+        <f t="shared" si="37"/>
+        <v>3539.630923348911</v>
+      </c>
+      <c r="BU33" s="46">
+        <f t="shared" si="38"/>
+        <v>2477.7416463442373</v>
+      </c>
+      <c r="BV33" s="12">
+        <f t="shared" si="39"/>
+        <v>7079.261846697822</v>
+      </c>
+      <c r="BX33" s="4">
+        <v>2035</v>
+      </c>
+      <c r="BY33" s="46">
+        <f t="shared" si="40"/>
+        <v>1192.6308554628342</v>
+      </c>
+      <c r="BZ33" s="46">
+        <f t="shared" si="41"/>
+        <v>3975.4361848761146</v>
+      </c>
+      <c r="CA33" s="46">
+        <f t="shared" si="42"/>
+        <v>2782.8053294132801</v>
+      </c>
+      <c r="CB33" s="12">
+        <f t="shared" si="54"/>
+        <v>7950.8723697522291</v>
+      </c>
+      <c r="CD33" s="4">
+        <v>2035</v>
+      </c>
+      <c r="CE33" s="46">
+        <f t="shared" si="43"/>
+        <v>1307.0726308323799</v>
+      </c>
+      <c r="CF33" s="46">
+        <f t="shared" si="44"/>
+        <v>4356.9087694412665</v>
+      </c>
+      <c r="CG33" s="46">
+        <f t="shared" si="45"/>
+        <v>3049.8361386088864</v>
+      </c>
+      <c r="CH33" s="12">
+        <f t="shared" si="46"/>
+        <v>8713.817538882533</v>
+      </c>
+      <c r="CJ33" s="4">
+        <v>2035</v>
+      </c>
+      <c r="CK33" s="46">
+        <f t="shared" si="47"/>
+        <v>1141.5009468269654</v>
+      </c>
+      <c r="CL33" s="46">
+        <f t="shared" si="48"/>
+        <v>3805.0031560898847</v>
+      </c>
+      <c r="CM33" s="46">
+        <f t="shared" si="49"/>
+        <v>2663.5022092629192</v>
+      </c>
+      <c r="CN33" s="12">
+        <f t="shared" si="55"/>
+        <v>7610.0063121797693</v>
+      </c>
     </row>
-    <row r="34" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B34" s="4">
         <v>2036</v>
       </c>
@@ -5591,7 +6974,7 @@
         <v>1505.1145520515645</v>
       </c>
       <c r="T34" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>4300.3272915758989</v>
       </c>
       <c r="V34" s="4">
@@ -5629,7 +7012,7 @@
         <v>1635.9940783169184</v>
       </c>
       <c r="AF34" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4674.2687951911957</v>
       </c>
       <c r="AH34" s="4">
@@ -5667,7 +7050,7 @@
         <v>2023.3813180961586</v>
       </c>
       <c r="AR34" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>5781.0894802747389</v>
       </c>
       <c r="AT34" s="4">
@@ -5705,7 +7088,7 @@
         <v>1526.9278064291236</v>
       </c>
       <c r="BD34" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>4362.650875511782</v>
       </c>
       <c r="BF34" s="4">
@@ -5744,8 +7127,84 @@
       <c r="BP34" s="27">
         <v>1190</v>
       </c>
+      <c r="BR34" s="4">
+        <v>2036</v>
+      </c>
+      <c r="BS34" s="46">
+        <f t="shared" si="36"/>
+        <v>1071.4462804977152</v>
+      </c>
+      <c r="BT34" s="46">
+        <f t="shared" si="37"/>
+        <v>3571.4876016590506</v>
+      </c>
+      <c r="BU34" s="46">
+        <f t="shared" si="38"/>
+        <v>2500.0413211613354</v>
+      </c>
+      <c r="BV34" s="12">
+        <f t="shared" si="39"/>
+        <v>7142.9752033181012</v>
+      </c>
+      <c r="BX34" s="4">
+        <v>2036</v>
+      </c>
+      <c r="BY34" s="46">
+        <f t="shared" si="40"/>
+        <v>1203.3645331619998</v>
+      </c>
+      <c r="BZ34" s="46">
+        <f t="shared" si="41"/>
+        <v>4011.2151105399994</v>
+      </c>
+      <c r="CA34" s="46">
+        <f t="shared" si="42"/>
+        <v>2807.8505773779993</v>
+      </c>
+      <c r="CB34" s="12">
+        <f t="shared" si="54"/>
+        <v>8022.4302210799988</v>
+      </c>
+      <c r="CD34" s="4">
+        <v>2036</v>
+      </c>
+      <c r="CE34" s="46">
+        <f t="shared" si="43"/>
+        <v>1318.8362845098713</v>
+      </c>
+      <c r="CF34" s="46">
+        <f t="shared" si="44"/>
+        <v>4396.1209483662378</v>
+      </c>
+      <c r="CG34" s="46">
+        <f t="shared" si="45"/>
+        <v>3077.2846638563665</v>
+      </c>
+      <c r="CH34" s="12">
+        <f t="shared" si="46"/>
+        <v>8792.2418967324757</v>
+      </c>
+      <c r="CJ34" s="4">
+        <v>2036</v>
+      </c>
+      <c r="CK34" s="46">
+        <f t="shared" si="47"/>
+        <v>1151.7744553484079</v>
+      </c>
+      <c r="CL34" s="46">
+        <f t="shared" si="48"/>
+        <v>3839.2481844946933</v>
+      </c>
+      <c r="CM34" s="46">
+        <f t="shared" si="49"/>
+        <v>2687.4737291462852</v>
+      </c>
+      <c r="CN34" s="12">
+        <f t="shared" si="55"/>
+        <v>7678.4963689893866</v>
+      </c>
     </row>
-    <row r="35" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B35" s="4">
         <v>2037</v>
       </c>
@@ -5805,7 +7264,7 @@
         <v>1518.6605830200285</v>
       </c>
       <c r="T35" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>4339.0302372000815</v>
       </c>
       <c r="V35" s="4">
@@ -5843,7 +7302,7 @@
         <v>1650.7180250217707</v>
       </c>
       <c r="AF35" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4716.3372143479164</v>
       </c>
       <c r="AH35" s="4">
@@ -5881,7 +7340,7 @@
         <v>2041.5917499590239</v>
       </c>
       <c r="AR35" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>5833.1192855972113</v>
       </c>
       <c r="AT35" s="4">
@@ -5919,7 +7378,7 @@
         <v>1540.6701566869856</v>
       </c>
       <c r="BD35" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>4401.9147333913879</v>
       </c>
       <c r="BF35" s="4">
@@ -5958,8 +7417,84 @@
       <c r="BP35" s="27">
         <v>1260</v>
       </c>
+      <c r="BR35" s="4">
+        <v>2037</v>
+      </c>
+      <c r="BS35" s="46">
+        <f t="shared" si="36"/>
+        <v>1081.0892970221944</v>
+      </c>
+      <c r="BT35" s="46">
+        <f t="shared" si="37"/>
+        <v>3603.6309900739816</v>
+      </c>
+      <c r="BU35" s="46">
+        <f t="shared" si="38"/>
+        <v>2522.5416930517868</v>
+      </c>
+      <c r="BV35" s="12">
+        <f t="shared" si="39"/>
+        <v>7207.2619801479632</v>
+      </c>
+      <c r="BX35" s="4">
+        <v>2037</v>
+      </c>
+      <c r="BY35" s="46">
+        <f t="shared" si="40"/>
+        <v>1214.1948139604576</v>
+      </c>
+      <c r="BZ35" s="46">
+        <f t="shared" si="41"/>
+        <v>4047.3160465348587</v>
+      </c>
+      <c r="CA35" s="46">
+        <f t="shared" si="42"/>
+        <v>2833.1212325744009</v>
+      </c>
+      <c r="CB35" s="12">
+        <f t="shared" si="54"/>
+        <v>8094.6320930697175</v>
+      </c>
+      <c r="CD35" s="4">
+        <v>2037</v>
+      </c>
+      <c r="CE35" s="46">
+        <f t="shared" si="43"/>
+        <v>1330.7058110704602</v>
+      </c>
+      <c r="CF35" s="46">
+        <f t="shared" si="44"/>
+        <v>4435.686036901534</v>
+      </c>
+      <c r="CG35" s="46">
+        <f t="shared" si="45"/>
+        <v>3104.9802258310738</v>
+      </c>
+      <c r="CH35" s="12">
+        <f t="shared" si="46"/>
+        <v>8871.3720738030679</v>
+      </c>
+      <c r="CJ35" s="4">
+        <v>2037</v>
+      </c>
+      <c r="CK35" s="46">
+        <f t="shared" si="47"/>
+        <v>1162.1404254465435</v>
+      </c>
+      <c r="CL35" s="46">
+        <f t="shared" si="48"/>
+        <v>3873.8014181551453</v>
+      </c>
+      <c r="CM35" s="46">
+        <f t="shared" si="49"/>
+        <v>2711.6609927086015</v>
+      </c>
+      <c r="CN35" s="12">
+        <f t="shared" si="55"/>
+        <v>7747.6028363102905</v>
+      </c>
     </row>
-    <row r="36" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B36" s="4">
         <v>2038</v>
       </c>
@@ -6019,7 +7554,7 @@
         <v>1532.3285282672086</v>
       </c>
       <c r="T36" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>4378.081509334882</v>
       </c>
       <c r="V36" s="4">
@@ -6057,7 +7592,7 @@
         <v>1665.5744872469663</v>
       </c>
       <c r="AF36" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4758.7842492770469</v>
       </c>
       <c r="AH36" s="4">
@@ -6095,7 +7630,7 @@
         <v>2059.9660757086549</v>
       </c>
       <c r="AR36" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>5885.6173591675852</v>
       </c>
       <c r="AT36" s="4">
@@ -6133,7 +7668,7 @@
         <v>1554.5361880971682</v>
       </c>
       <c r="BD36" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>4441.5319659919096</v>
       </c>
       <c r="BF36" s="4">
@@ -6172,8 +7707,84 @@
       <c r="BP36" s="27">
         <v>1330</v>
       </c>
+      <c r="BR36" s="4">
+        <v>2038</v>
+      </c>
+      <c r="BS36" s="46">
+        <f t="shared" si="36"/>
+        <v>1090.8191006953941</v>
+      </c>
+      <c r="BT36" s="46">
+        <f t="shared" si="37"/>
+        <v>3636.0636689846469</v>
+      </c>
+      <c r="BU36" s="46">
+        <f t="shared" si="38"/>
+        <v>2545.2445682892526</v>
+      </c>
+      <c r="BV36" s="12">
+        <f t="shared" si="39"/>
+        <v>7272.1273379692939</v>
+      </c>
+      <c r="BX36" s="4">
+        <v>2038</v>
+      </c>
+      <c r="BY36" s="46">
+        <f t="shared" si="40"/>
+        <v>1225.1225672861015</v>
+      </c>
+      <c r="BZ36" s="46">
+        <f t="shared" si="41"/>
+        <v>4083.7418909536718</v>
+      </c>
+      <c r="CA36" s="46">
+        <f t="shared" si="42"/>
+        <v>2858.6193236675699</v>
+      </c>
+      <c r="CB36" s="12">
+        <f t="shared" si="54"/>
+        <v>8167.4837819073437</v>
+      </c>
+      <c r="CD36" s="4">
+        <v>2038</v>
+      </c>
+      <c r="CE36" s="46">
+        <f t="shared" si="43"/>
+        <v>1342.682163370094</v>
+      </c>
+      <c r="CF36" s="46">
+        <f t="shared" si="44"/>
+        <v>4475.6072112336469</v>
+      </c>
+      <c r="CG36" s="46">
+        <f t="shared" si="45"/>
+        <v>3132.9250478635527</v>
+      </c>
+      <c r="CH36" s="12">
+        <f t="shared" si="46"/>
+        <v>8951.2144224672938</v>
+      </c>
+      <c r="CJ36" s="4">
+        <v>2038</v>
+      </c>
+      <c r="CK36" s="46">
+        <f t="shared" si="47"/>
+        <v>1172.5996892755622</v>
+      </c>
+      <c r="CL36" s="46">
+        <f t="shared" si="48"/>
+        <v>3908.665630918541</v>
+      </c>
+      <c r="CM36" s="46">
+        <f t="shared" si="49"/>
+        <v>2736.0659416429785</v>
+      </c>
+      <c r="CN36" s="12">
+        <f t="shared" si="55"/>
+        <v>7817.3312618370819</v>
+      </c>
     </row>
-    <row r="37" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B37" s="4">
         <v>2039</v>
       </c>
@@ -6233,7 +7844,7 @@
         <v>1546.1194850216134</v>
       </c>
       <c r="T37" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>4417.4842429188957</v>
       </c>
       <c r="V37" s="4">
@@ -6271,7 +7882,7 @@
         <v>1680.5646576321888</v>
       </c>
       <c r="AF37" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4801.6133075205398</v>
       </c>
       <c r="AH37" s="4">
@@ -6309,7 +7920,7 @@
         <v>2078.5057703900325</v>
       </c>
       <c r="AR37" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>5938.5879154000932</v>
       </c>
       <c r="AT37" s="4">
@@ -6347,7 +7958,7 @@
         <v>1568.5270137900427</v>
       </c>
       <c r="BD37" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>4481.5057536858367</v>
       </c>
       <c r="BF37" s="4">
@@ -6386,8 +7997,84 @@
       <c r="BP37" s="27">
         <v>1400</v>
       </c>
+      <c r="BR37" s="4">
+        <v>2039</v>
+      </c>
+      <c r="BS37" s="46">
+        <f t="shared" si="36"/>
+        <v>1100.6364726016525</v>
+      </c>
+      <c r="BT37" s="46">
+        <f t="shared" si="37"/>
+        <v>3668.7882420055084</v>
+      </c>
+      <c r="BU37" s="46">
+        <f t="shared" si="38"/>
+        <v>2568.1517694038557</v>
+      </c>
+      <c r="BV37" s="12">
+        <f t="shared" si="39"/>
+        <v>7337.5764840110169</v>
+      </c>
+      <c r="BX37" s="4">
+        <v>2039</v>
+      </c>
+      <c r="BY37" s="46">
+        <f t="shared" si="40"/>
+        <v>1236.1486703916762</v>
+      </c>
+      <c r="BZ37" s="46">
+        <f t="shared" si="41"/>
+        <v>4120.4955679722543</v>
+      </c>
+      <c r="CA37" s="46">
+        <f t="shared" si="42"/>
+        <v>2884.3468975805777</v>
+      </c>
+      <c r="CB37" s="12">
+        <f t="shared" si="54"/>
+        <v>8240.9911359445086</v>
+      </c>
+      <c r="CD37" s="4">
+        <v>2039</v>
+      </c>
+      <c r="CE37" s="46">
+        <f t="shared" si="43"/>
+        <v>1354.7663028404247</v>
+      </c>
+      <c r="CF37" s="46">
+        <f t="shared" si="44"/>
+        <v>4515.8876761347492</v>
+      </c>
+      <c r="CG37" s="46">
+        <f t="shared" si="45"/>
+        <v>3161.1213732943243</v>
+      </c>
+      <c r="CH37" s="12">
+        <f t="shared" si="46"/>
+        <v>9031.7753522694984</v>
+      </c>
+      <c r="CJ37" s="4">
+        <v>2039</v>
+      </c>
+      <c r="CK37" s="46">
+        <f t="shared" si="47"/>
+        <v>1183.153086479042</v>
+      </c>
+      <c r="CL37" s="46">
+        <f t="shared" si="48"/>
+        <v>3943.8436215968072</v>
+      </c>
+      <c r="CM37" s="46">
+        <f t="shared" si="49"/>
+        <v>2760.6905351177647</v>
+      </c>
+      <c r="CN37" s="12">
+        <f t="shared" si="55"/>
+        <v>7887.6872431936144</v>
+      </c>
     </row>
-    <row r="38" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B38" s="4">
         <v>2040</v>
       </c>
@@ -6447,7 +8134,7 @@
         <v>1560.0345603868079</v>
       </c>
       <c r="T38" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>4457.2416011051655</v>
       </c>
       <c r="V38" s="4">
@@ -6485,7 +8172,7 @@
         <v>1695.6897395508784</v>
       </c>
       <c r="AF38" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4844.8278272882244</v>
       </c>
       <c r="AH38" s="4">
@@ -6523,7 +8210,7 @@
         <v>2097.2123223235426</v>
       </c>
       <c r="AR38" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>5992.0352066386931</v>
       </c>
       <c r="AT38" s="4">
@@ -6561,7 +8248,7 @@
         <v>1582.6437569141528</v>
       </c>
       <c r="BD38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>4521.8393054690087</v>
       </c>
       <c r="BF38" s="4">
@@ -6600,8 +8287,84 @@
       <c r="BP38" s="27">
         <v>1470</v>
       </c>
+      <c r="BR38" s="4">
+        <v>2040</v>
+      </c>
+      <c r="BS38" s="46">
+        <f t="shared" si="36"/>
+        <v>1110.5422008550672</v>
+      </c>
+      <c r="BT38" s="46">
+        <f t="shared" si="37"/>
+        <v>3701.8073361835577</v>
+      </c>
+      <c r="BU38" s="46">
+        <f t="shared" si="38"/>
+        <v>2591.26513532849</v>
+      </c>
+      <c r="BV38" s="12">
+        <f t="shared" si="39"/>
+        <v>7403.6146723671154</v>
+      </c>
+      <c r="BX38" s="4">
+        <v>2040</v>
+      </c>
+      <c r="BY38" s="46">
+        <f t="shared" si="40"/>
+        <v>1247.2740084252011</v>
+      </c>
+      <c r="BZ38" s="46">
+        <f t="shared" si="41"/>
+        <v>4157.580028084004</v>
+      </c>
+      <c r="CA38" s="46">
+        <f t="shared" si="42"/>
+        <v>2910.3060196588026</v>
+      </c>
+      <c r="CB38" s="12">
+        <f t="shared" si="54"/>
+        <v>8315.1600561680079</v>
+      </c>
+      <c r="CD38" s="4">
+        <v>2040</v>
+      </c>
+      <c r="CE38" s="46">
+        <f t="shared" si="43"/>
+        <v>1366.9591995659885</v>
+      </c>
+      <c r="CF38" s="46">
+        <f t="shared" si="44"/>
+        <v>4556.5306652199615</v>
+      </c>
+      <c r="CG38" s="46">
+        <f t="shared" si="45"/>
+        <v>3189.5714656539731</v>
+      </c>
+      <c r="CH38" s="12">
+        <f t="shared" si="46"/>
+        <v>9113.061330439923</v>
+      </c>
+      <c r="CJ38" s="4">
+        <v>2040</v>
+      </c>
+      <c r="CK38" s="46">
+        <f t="shared" si="47"/>
+        <v>1193.8014642573532</v>
+      </c>
+      <c r="CL38" s="46">
+        <f t="shared" si="48"/>
+        <v>3979.3382141911779</v>
+      </c>
+      <c r="CM38" s="46">
+        <f t="shared" si="49"/>
+        <v>2785.5367499338245</v>
+      </c>
+      <c r="CN38" s="12">
+        <f t="shared" si="55"/>
+        <v>7958.6764283823559</v>
+      </c>
     </row>
-    <row r="39" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B39" s="4">
         <v>2041</v>
       </c>
@@ -6661,7 +8424,7 @@
         <v>1574.074871430289</v>
       </c>
       <c r="T39" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>4497.3567755151116</v>
       </c>
       <c r="V39" s="4">
@@ -6699,7 +8462,7 @@
         <v>1710.9509472068362</v>
       </c>
       <c r="AF39" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4888.4312777338182</v>
       </c>
       <c r="AH39" s="4">
@@ -6737,7 +8500,7 @@
         <v>2116.0872332244539</v>
       </c>
       <c r="AR39" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>6045.9635234984407</v>
       </c>
       <c r="AT39" s="4">
@@ -6775,7 +8538,7 @@
         <v>1596.8875507263801</v>
       </c>
       <c r="BD39" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>4562.5358592182292</v>
       </c>
       <c r="BF39" s="4">
@@ -6814,8 +8577,84 @@
       <c r="BP39" s="27">
         <v>1540</v>
       </c>
+      <c r="BR39" s="4">
+        <v>2041</v>
+      </c>
+      <c r="BS39" s="46">
+        <f t="shared" si="36"/>
+        <v>1120.5370806627627</v>
+      </c>
+      <c r="BT39" s="46">
+        <f t="shared" si="37"/>
+        <v>3735.1236022092094</v>
+      </c>
+      <c r="BU39" s="46">
+        <f t="shared" si="38"/>
+        <v>2614.5865215464464</v>
+      </c>
+      <c r="BV39" s="12">
+        <f t="shared" si="39"/>
+        <v>7470.2472044184187</v>
+      </c>
+      <c r="BX39" s="4">
+        <v>2041</v>
+      </c>
+      <c r="BY39" s="46">
+        <f t="shared" si="40"/>
+        <v>1258.4994745010279</v>
+      </c>
+      <c r="BZ39" s="46">
+        <f t="shared" si="41"/>
+        <v>4194.9982483367594</v>
+      </c>
+      <c r="CA39" s="46">
+        <f t="shared" si="42"/>
+        <v>2936.4987738357313</v>
+      </c>
+      <c r="CB39" s="12">
+        <f t="shared" si="54"/>
+        <v>8389.9964966735188</v>
+      </c>
+      <c r="CD39" s="4">
+        <v>2041</v>
+      </c>
+      <c r="CE39" s="46">
+        <f t="shared" si="43"/>
+        <v>1379.2618323620823</v>
+      </c>
+      <c r="CF39" s="46">
+        <f t="shared" si="44"/>
+        <v>4597.5394412069409</v>
+      </c>
+      <c r="CG39" s="46">
+        <f t="shared" si="45"/>
+        <v>3218.2776088448586</v>
+      </c>
+      <c r="CH39" s="12">
+        <f t="shared" si="46"/>
+        <v>9195.0788824138817</v>
+      </c>
+      <c r="CJ39" s="4">
+        <v>2041</v>
+      </c>
+      <c r="CK39" s="46">
+        <f t="shared" si="47"/>
+        <v>1204.5456774356694</v>
+      </c>
+      <c r="CL39" s="46">
+        <f t="shared" si="48"/>
+        <v>4015.1522581188983</v>
+      </c>
+      <c r="CM39" s="46">
+        <f t="shared" si="49"/>
+        <v>2810.6065806832285</v>
+      </c>
+      <c r="CN39" s="12">
+        <f t="shared" si="55"/>
+        <v>8030.3045162377966</v>
+      </c>
     </row>
-    <row r="40" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B40" s="4">
         <v>2042</v>
       </c>
@@ -6875,7 +8714,7 @@
         <v>1588.2415452731614</v>
       </c>
       <c r="T40" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>4537.8329864947473</v>
       </c>
       <c r="V40" s="4">
@@ -6913,7 +8752,7 @@
         <v>1726.3495057316975</v>
       </c>
       <c r="AF40" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4932.4271592334217</v>
       </c>
       <c r="AH40" s="4">
@@ -6951,7 +8790,7 @@
         <v>2135.1320183234739</v>
       </c>
       <c r="AR40" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>6100.377195209926</v>
       </c>
       <c r="AT40" s="4">
@@ -6989,7 +8828,7 @@
         <v>1611.2595386829173</v>
       </c>
       <c r="BD40" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>4603.5986819511927</v>
       </c>
       <c r="BF40" s="4">
@@ -7028,8 +8867,84 @@
       <c r="BP40" s="27">
         <v>1610</v>
       </c>
+      <c r="BR40" s="4">
+        <v>2042</v>
+      </c>
+      <c r="BS40" s="46">
+        <f t="shared" si="36"/>
+        <v>1130.6219143887274</v>
+      </c>
+      <c r="BT40" s="46">
+        <f t="shared" si="37"/>
+        <v>3768.7397146290918</v>
+      </c>
+      <c r="BU40" s="46">
+        <f t="shared" si="38"/>
+        <v>2638.117800240364</v>
+      </c>
+      <c r="BV40" s="12">
+        <f t="shared" si="39"/>
+        <v>7537.4794292581837</v>
+      </c>
+      <c r="BX40" s="4">
+        <v>2042</v>
+      </c>
+      <c r="BY40" s="46">
+        <f t="shared" si="40"/>
+        <v>1269.8259697715368</v>
+      </c>
+      <c r="BZ40" s="46">
+        <f t="shared" si="41"/>
+        <v>4232.7532325717893</v>
+      </c>
+      <c r="CA40" s="46">
+        <f t="shared" si="42"/>
+        <v>2962.9272628002523</v>
+      </c>
+      <c r="CB40" s="12">
+        <f t="shared" si="54"/>
+        <v>8465.5064651435787</v>
+      </c>
+      <c r="CD40" s="4">
+        <v>2042</v>
+      </c>
+      <c r="CE40" s="46">
+        <f t="shared" si="43"/>
+        <v>1391.6751888533408</v>
+      </c>
+      <c r="CF40" s="46">
+        <f t="shared" si="44"/>
+        <v>4638.9172961778031</v>
+      </c>
+      <c r="CG40" s="46">
+        <f t="shared" si="45"/>
+        <v>3247.2421073244618</v>
+      </c>
+      <c r="CH40" s="12">
+        <f t="shared" si="46"/>
+        <v>9277.8345923556062</v>
+      </c>
+      <c r="CJ40" s="4">
+        <v>2042</v>
+      </c>
+      <c r="CK40" s="46">
+        <f t="shared" si="47"/>
+        <v>1215.3865885325904</v>
+      </c>
+      <c r="CL40" s="46">
+        <f t="shared" si="48"/>
+        <v>4051.2886284419678</v>
+      </c>
+      <c r="CM40" s="46">
+        <f t="shared" si="49"/>
+        <v>2835.9020399093774</v>
+      </c>
+      <c r="CN40" s="12">
+        <f t="shared" si="55"/>
+        <v>8102.5772568839357</v>
+      </c>
     </row>
-    <row r="41" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B41" s="4">
         <v>2043</v>
       </c>
@@ -7089,7 +9004,7 @@
         <v>1602.5357191806199</v>
       </c>
       <c r="T41" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>4578.6734833731998</v>
       </c>
       <c r="V41" s="4">
@@ -7127,7 +9042,7 @@
         <v>1741.8866512832826</v>
       </c>
       <c r="AF41" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>4976.8190036665219</v>
       </c>
       <c r="AH41" s="4">
@@ -7165,7 +9080,7 @@
         <v>2154.3482064883851</v>
       </c>
       <c r="AR41" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>6155.2805899668147</v>
       </c>
       <c r="AT41" s="4">
@@ -7203,7 +9118,7 @@
         <v>1625.7608745310636</v>
       </c>
       <c r="BD41" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>4645.031070088753</v>
       </c>
       <c r="BF41" s="4">
@@ -7242,8 +9157,84 @@
       <c r="BP41" s="27">
         <v>1680</v>
       </c>
+      <c r="BR41" s="4">
+        <v>2043</v>
+      </c>
+      <c r="BS41" s="46">
+        <f t="shared" si="36"/>
+        <v>1140.7975116182258</v>
+      </c>
+      <c r="BT41" s="46">
+        <f t="shared" si="37"/>
+        <v>3802.6583720607532</v>
+      </c>
+      <c r="BU41" s="46">
+        <f t="shared" si="38"/>
+        <v>2661.8608604425272</v>
+      </c>
+      <c r="BV41" s="12">
+        <f t="shared" si="39"/>
+        <v>7605.3167441215064</v>
+      </c>
+      <c r="BX41" s="4">
+        <v>2043</v>
+      </c>
+      <c r="BY41" s="46">
+        <f t="shared" si="40"/>
+        <v>1281.2544034994805</v>
+      </c>
+      <c r="BZ41" s="46">
+        <f t="shared" si="41"/>
+        <v>4270.8480116649353</v>
+      </c>
+      <c r="CA41" s="46">
+        <f t="shared" si="42"/>
+        <v>2989.5936081654545</v>
+      </c>
+      <c r="CB41" s="12">
+        <f t="shared" si="54"/>
+        <v>8541.6960233298705</v>
+      </c>
+      <c r="CD41" s="4">
+        <v>2043</v>
+      </c>
+      <c r="CE41" s="46">
+        <f t="shared" si="43"/>
+        <v>1404.2002655530209</v>
+      </c>
+      <c r="CF41" s="46">
+        <f t="shared" si="44"/>
+        <v>4680.6675518434031</v>
+      </c>
+      <c r="CG41" s="46">
+        <f t="shared" si="45"/>
+        <v>3276.4672862903822</v>
+      </c>
+      <c r="CH41" s="12">
+        <f t="shared" si="46"/>
+        <v>9361.3351036868062</v>
+      </c>
+      <c r="CJ41" s="4">
+        <v>2043</v>
+      </c>
+      <c r="CK41" s="46">
+        <f t="shared" si="47"/>
+        <v>1226.3250678293834</v>
+      </c>
+      <c r="CL41" s="46">
+        <f t="shared" si="48"/>
+        <v>4087.750226097945</v>
+      </c>
+      <c r="CM41" s="46">
+        <f t="shared" si="49"/>
+        <v>2861.4251582685615</v>
+      </c>
+      <c r="CN41" s="12">
+        <f t="shared" si="55"/>
+        <v>8175.5004521958899</v>
+      </c>
     </row>
-    <row r="42" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B42" s="4">
         <v>2044</v>
       </c>
@@ -7303,7 +9294,7 @@
         <v>1616.9585406532453</v>
       </c>
       <c r="T42" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>4619.8815447235584</v>
       </c>
       <c r="V42" s="4">
@@ -7341,7 +9332,7 @@
         <v>1757.563631144832</v>
       </c>
       <c r="AF42" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>5021.6103746995204</v>
       </c>
       <c r="AH42" s="4">
@@ -7379,7 +9370,7 @@
         <v>2173.73734034678</v>
       </c>
       <c r="AR42" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>6210.6781152765152</v>
       </c>
       <c r="AT42" s="4">
@@ -7417,7 +9408,7 @@
         <v>1640.392722401843</v>
       </c>
       <c r="BD42" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>4686.8363497195514</v>
       </c>
       <c r="BF42" s="4">
@@ -7456,8 +9447,84 @@
       <c r="BP42" s="27">
         <v>1750</v>
       </c>
+      <c r="BR42" s="4">
+        <v>2044</v>
+      </c>
+      <c r="BS42" s="46">
+        <f t="shared" si="36"/>
+        <v>1151.0646892227899</v>
+      </c>
+      <c r="BT42" s="46">
+        <f t="shared" si="37"/>
+        <v>3836.8822974092996</v>
+      </c>
+      <c r="BU42" s="46">
+        <f t="shared" si="38"/>
+        <v>2685.8176081865095</v>
+      </c>
+      <c r="BV42" s="12">
+        <f t="shared" si="39"/>
+        <v>7673.7645948185991</v>
+      </c>
+      <c r="BX42" s="4">
+        <v>2044</v>
+      </c>
+      <c r="BY42" s="46">
+        <f t="shared" si="40"/>
+        <v>1292.7856931309757</v>
+      </c>
+      <c r="BZ42" s="46">
+        <f t="shared" si="41"/>
+        <v>4309.2856437699193</v>
+      </c>
+      <c r="CA42" s="46">
+        <f t="shared" si="42"/>
+        <v>3016.4999506389431</v>
+      </c>
+      <c r="CB42" s="12">
+        <f t="shared" si="54"/>
+        <v>8618.5712875398385</v>
+      </c>
+      <c r="CD42" s="4">
+        <v>2044</v>
+      </c>
+      <c r="CE42" s="46">
+        <f t="shared" si="43"/>
+        <v>1416.8380679429979</v>
+      </c>
+      <c r="CF42" s="46">
+        <f t="shared" si="44"/>
+        <v>4722.793559809993</v>
+      </c>
+      <c r="CG42" s="46">
+        <f t="shared" si="45"/>
+        <v>3305.9554918669951</v>
+      </c>
+      <c r="CH42" s="12">
+        <f t="shared" si="46"/>
+        <v>9445.587119619986</v>
+      </c>
+      <c r="CJ42" s="4">
+        <v>2044</v>
+      </c>
+      <c r="CK42" s="46">
+        <f t="shared" si="47"/>
+        <v>1237.3619934398478</v>
+      </c>
+      <c r="CL42" s="46">
+        <f t="shared" si="48"/>
+        <v>4124.539978132826</v>
+      </c>
+      <c r="CM42" s="46">
+        <f t="shared" si="49"/>
+        <v>2887.177984692978</v>
+      </c>
+      <c r="CN42" s="12">
+        <f t="shared" si="55"/>
+        <v>8249.0799562656521</v>
+      </c>
     </row>
-    <row r="43" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B43" s="4">
         <v>2045</v>
       </c>
@@ -7517,7 +9584,7 @@
         <v>1631.5111675191242</v>
       </c>
       <c r="T43" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>4661.4604786260697</v>
       </c>
       <c r="V43" s="4">
@@ -7555,7 +9622,7 @@
         <v>1773.3817038251354</v>
       </c>
       <c r="AF43" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>5066.8048680718157</v>
       </c>
       <c r="AH43" s="4">
@@ -7593,7 +9660,7 @@
         <v>2193.3009764099006</v>
       </c>
       <c r="AR43" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>6266.5742183140028</v>
       </c>
       <c r="AT43" s="4">
@@ -7631,7 +9698,7 @@
         <v>1655.1562569034593</v>
       </c>
       <c r="BD43" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>4729.0178768670266</v>
       </c>
       <c r="BF43" s="4">
@@ -7670,8 +9737,84 @@
       <c r="BP43" s="27">
         <v>1820</v>
       </c>
+      <c r="BR43" s="4">
+        <v>2045</v>
+      </c>
+      <c r="BS43" s="46">
+        <f t="shared" si="36"/>
+        <v>1161.4242714257948</v>
+      </c>
+      <c r="BT43" s="46">
+        <f t="shared" si="37"/>
+        <v>3871.414238085983</v>
+      </c>
+      <c r="BU43" s="46">
+        <f t="shared" si="38"/>
+        <v>2709.9899666601877</v>
+      </c>
+      <c r="BV43" s="12">
+        <f t="shared" si="39"/>
+        <v>7742.828476171966</v>
+      </c>
+      <c r="BX43" s="4">
+        <v>2045</v>
+      </c>
+      <c r="BY43" s="46">
+        <f t="shared" si="40"/>
+        <v>1304.4207643691543</v>
+      </c>
+      <c r="BZ43" s="46">
+        <f t="shared" si="41"/>
+        <v>4348.0692145638477</v>
+      </c>
+      <c r="CA43" s="46">
+        <f t="shared" si="42"/>
+        <v>3043.6484501946934</v>
+      </c>
+      <c r="CB43" s="12">
+        <f t="shared" si="54"/>
+        <v>8696.1384291276954</v>
+      </c>
+      <c r="CD43" s="4">
+        <v>2045</v>
+      </c>
+      <c r="CE43" s="46">
+        <f t="shared" si="43"/>
+        <v>1429.5896105544848</v>
+      </c>
+      <c r="CF43" s="46">
+        <f t="shared" si="44"/>
+        <v>4765.2987018482827</v>
+      </c>
+      <c r="CG43" s="46">
+        <f t="shared" si="45"/>
+        <v>3335.7090912937979</v>
+      </c>
+      <c r="CH43" s="12">
+        <f t="shared" si="46"/>
+        <v>9530.5974036965654</v>
+      </c>
+      <c r="CJ43" s="4">
+        <v>2045</v>
+      </c>
+      <c r="CK43" s="46">
+        <f t="shared" si="47"/>
+        <v>1248.4982513808063</v>
+      </c>
+      <c r="CL43" s="46">
+        <f t="shared" si="48"/>
+        <v>4161.6608379360214</v>
+      </c>
+      <c r="CM43" s="46">
+        <f t="shared" si="49"/>
+        <v>2913.1625865552146</v>
+      </c>
+      <c r="CN43" s="12">
+        <f t="shared" si="55"/>
+        <v>8323.3216758720428</v>
+      </c>
     </row>
-    <row r="46" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>3</v>
       </c>
@@ -7688,23 +9831,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="2:68" x14ac:dyDescent="0.35">
-      <c r="C47" s="53" t="s">
+    <row r="47" spans="2:92" x14ac:dyDescent="0.35">
+      <c r="C47" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
       <c r="F47" s="2"/>
-      <c r="H47" s="53" t="s">
+      <c r="H47" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
       <c r="O47" s="4"/>
     </row>
-    <row r="48" spans="2:68" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:92" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
@@ -7934,19 +10077,19 @@
       <c r="AO54" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AQ54" s="69" t="s">
+      <c r="AQ54" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="AR54" s="69"/>
-      <c r="AS54" s="69"/>
-      <c r="AT54" s="69"/>
+      <c r="AR54" s="71"/>
+      <c r="AS54" s="71"/>
+      <c r="AT54" s="71"/>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
       <c r="G55" s="38" t="s">
         <v>132</v>
       </c>
@@ -8094,7 +10237,7 @@
         <v>1</v>
       </c>
       <c r="Z57" s="8">
-        <f t="shared" ref="Z57:Z98" si="40">AG57*AH57*1000/1000000</f>
+        <f t="shared" ref="Z57:Z98" si="56">AG57*AH57*1000/1000000</f>
         <v>39.666780000000003</v>
       </c>
       <c r="AB57" s="39">
@@ -8113,7 +10256,7 @@
         <v>12963</v>
       </c>
       <c r="AH57" s="6">
-        <f t="shared" ref="AH57:AH76" si="41">IF(EXACT(AF57,$R$49),$S$49,IF(EXACT(AF57,$R$50),$S$50,IF(EXACT(AF57,$R$51),$S$51,0)))</f>
+        <f t="shared" ref="AH57:AH76" si="57">IF(EXACT(AF57,$R$49),$S$49,IF(EXACT(AF57,$R$50),$S$50,IF(EXACT(AF57,$R$51),$S$51,0)))</f>
         <v>3.06</v>
       </c>
       <c r="AJ57" s="32">
@@ -8195,7 +10338,7 @@
         <v>2</v>
       </c>
       <c r="Z58" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>23.617080000000001</v>
       </c>
       <c r="AB58" s="39">
@@ -8214,7 +10357,7 @@
         <v>7718</v>
       </c>
       <c r="AH58" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>3.06</v>
       </c>
       <c r="AJ58" s="32">
@@ -8296,7 +10439,7 @@
         <v>3</v>
       </c>
       <c r="Z59" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>28.115279999999998</v>
       </c>
       <c r="AB59" s="39">
@@ -8315,7 +10458,7 @@
         <v>9188</v>
       </c>
       <c r="AH59" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>3.06</v>
       </c>
       <c r="AJ59" s="32">
@@ -8397,7 +10540,7 @@
         <v>4</v>
       </c>
       <c r="Z60" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>21.77496</v>
       </c>
       <c r="AB60" s="39">
@@ -8416,7 +10559,7 @@
         <v>7116</v>
       </c>
       <c r="AH60" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>3.06</v>
       </c>
       <c r="AJ60" s="32">
@@ -8498,7 +10641,7 @@
         <v>5</v>
       </c>
       <c r="Z61" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>23.94144</v>
       </c>
       <c r="AB61" s="39">
@@ -8517,7 +10660,7 @@
         <v>7824</v>
       </c>
       <c r="AH61" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>3.06</v>
       </c>
       <c r="AJ61" s="32">
@@ -8599,7 +10742,7 @@
         <v>6</v>
       </c>
       <c r="Z62" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>38.22552000000001</v>
       </c>
       <c r="AB62" s="39">
@@ -8618,7 +10761,7 @@
         <v>12492</v>
       </c>
       <c r="AH62" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>3.06</v>
       </c>
       <c r="AJ62" s="32">
@@ -8700,7 +10843,7 @@
         <v>7</v>
       </c>
       <c r="Z63" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>1.6982999999999999</v>
       </c>
       <c r="AB63" s="39">
@@ -8719,7 +10862,7 @@
         <v>555</v>
       </c>
       <c r="AH63" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>3.06</v>
       </c>
       <c r="AJ63" s="32">
@@ -8801,7 +10944,7 @@
         <v>8</v>
       </c>
       <c r="Z64" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>36.677160000000001</v>
       </c>
       <c r="AB64" s="39">
@@ -8820,7 +10963,7 @@
         <v>11986</v>
       </c>
       <c r="AH64" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>3.06</v>
       </c>
       <c r="AJ64" s="32">
@@ -8902,7 +11045,7 @@
         <v>9</v>
       </c>
       <c r="Z65" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>23.494679999999999</v>
       </c>
       <c r="AB65" s="39">
@@ -8921,7 +11064,7 @@
         <v>7678</v>
       </c>
       <c r="AH65" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>3.06</v>
       </c>
       <c r="AJ65" s="32">
@@ -9003,7 +11146,7 @@
         <v>10</v>
       </c>
       <c r="Z66" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>31.606739999999999</v>
       </c>
       <c r="AB66" s="39">
@@ -9022,7 +11165,7 @@
         <v>10329</v>
       </c>
       <c r="AH66" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>3.06</v>
       </c>
       <c r="AJ66" s="32">
@@ -9104,7 +11247,7 @@
         <v>11</v>
       </c>
       <c r="Z67" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>38.996639999999999</v>
       </c>
       <c r="AB67" s="39">
@@ -9123,7 +11266,7 @@
         <v>12744</v>
       </c>
       <c r="AH67" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>3.06</v>
       </c>
       <c r="AJ67" s="32">
@@ -9205,7 +11348,7 @@
         <v>12</v>
       </c>
       <c r="Z68" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>35.954999999999998</v>
       </c>
       <c r="AB68" s="39">
@@ -9224,7 +11367,7 @@
         <v>11750</v>
       </c>
       <c r="AH68" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>3.06</v>
       </c>
       <c r="AJ68" s="32">
@@ -9306,7 +11449,7 @@
         <v>13</v>
       </c>
       <c r="Z69" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>26.289359999999999</v>
       </c>
       <c r="AB69" s="39">
@@ -9325,7 +11468,7 @@
         <v>12171</v>
       </c>
       <c r="AH69" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>2.16</v>
       </c>
       <c r="AJ69" s="32">
@@ -9407,7 +11550,7 @@
         <v>14</v>
       </c>
       <c r="Z70" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>34.819740000000003</v>
       </c>
       <c r="AB70" s="39">
@@ -9426,7 +11569,7 @@
         <v>11379</v>
       </c>
       <c r="AH70" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>3.06</v>
       </c>
       <c r="AJ70" s="32">
@@ -9508,7 +11651,7 @@
         <v>15</v>
       </c>
       <c r="Z71" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>37.647179999999999</v>
       </c>
       <c r="AB71" s="39">
@@ -9527,7 +11670,7 @@
         <v>12303</v>
       </c>
       <c r="AH71" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>3.06</v>
       </c>
       <c r="AJ71" s="32">
@@ -9609,7 +11752,7 @@
         <v>16</v>
       </c>
       <c r="Z72" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>25.404119999999999</v>
       </c>
       <c r="AB72" s="39">
@@ -9628,7 +11771,7 @@
         <v>8302</v>
       </c>
       <c r="AH72" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>3.06</v>
       </c>
       <c r="AJ72" s="32">
@@ -9710,7 +11853,7 @@
         <v>17</v>
       </c>
       <c r="Z73" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>23.453280000000003</v>
       </c>
       <c r="AB73" s="39">
@@ -9729,7 +11872,7 @@
         <v>10858</v>
       </c>
       <c r="AH73" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>2.16</v>
       </c>
       <c r="AJ73" s="32">
@@ -9811,7 +11954,7 @@
         <v>18</v>
       </c>
       <c r="Z74" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>23.647680000000001</v>
       </c>
       <c r="AB74" s="39">
@@ -9830,7 +11973,7 @@
         <v>10948</v>
       </c>
       <c r="AH74" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>2.16</v>
       </c>
       <c r="AJ74" s="32">
@@ -9912,7 +12055,7 @@
         <v>19</v>
       </c>
       <c r="Z75" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>223.99503999999999</v>
       </c>
       <c r="AB75" s="39">
@@ -9931,7 +12074,7 @@
         <v>17834</v>
       </c>
       <c r="AH75" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>12.56</v>
       </c>
       <c r="AJ75" s="32">
@@ -10013,7 +12156,7 @@
         <v>20</v>
       </c>
       <c r="Z76" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>36.931139999999999</v>
       </c>
       <c r="AB76" s="39">
@@ -10032,7 +12175,7 @@
         <v>12069</v>
       </c>
       <c r="AH76" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>3.06</v>
       </c>
       <c r="AJ76" s="32">
@@ -10078,14 +12221,14 @@
         <v>21</v>
       </c>
       <c r="H77" s="6">
-        <f t="shared" ref="H77:H96" si="42">$L$4*$G109*H$55</f>
+        <f t="shared" ref="H77:H96" si="58">$L$4*$G109*H$55</f>
         <v>10.537500000000001</v>
       </c>
       <c r="J77" s="35">
         <v>21</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" ref="K77:K96" si="43">$L$4*$G109*K$55</f>
+        <f t="shared" ref="K77:K96" si="59">$L$4*$G109*K$55</f>
         <v>14.752500000000001</v>
       </c>
       <c r="M77" s="35">
@@ -10099,7 +12242,7 @@
         <v>21</v>
       </c>
       <c r="Q77" s="6">
-        <f t="shared" ref="Q77:Q96" si="44">$L$4*$G109*Q$55</f>
+        <f t="shared" ref="Q77:Q96" si="60">$L$4*$G109*Q$55</f>
         <v>14.752500000000001</v>
       </c>
       <c r="S77" s="32">
@@ -10118,7 +12261,7 @@
         <v>21</v>
       </c>
       <c r="Z77" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB77" s="39">
@@ -10179,28 +12322,28 @@
         <v>22</v>
       </c>
       <c r="H78" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>9.375</v>
       </c>
       <c r="J78" s="35">
         <v>22</v>
       </c>
       <c r="K78" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>13.125</v>
       </c>
       <c r="M78" s="35">
         <v>22</v>
       </c>
       <c r="N78" s="6">
-        <f t="shared" ref="N78:N96" si="45">$L$4*$G110</f>
+        <f t="shared" ref="N78:N96" si="61">$L$4*$G110</f>
         <v>18.75</v>
       </c>
       <c r="P78" s="35">
         <v>22</v>
       </c>
       <c r="Q78" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>13.125</v>
       </c>
       <c r="S78" s="32">
@@ -10219,14 +12362,14 @@
         <v>22</v>
       </c>
       <c r="Z78" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB78" s="39">
         <v>22</v>
       </c>
       <c r="AC78" s="40">
-        <f t="shared" ref="AC78:AC96" si="46">Q78</f>
+        <f t="shared" ref="AC78:AC96" si="62">Q78</f>
         <v>13.125</v>
       </c>
       <c r="AE78" s="32">
@@ -10280,28 +12423,28 @@
         <v>23</v>
       </c>
       <c r="H79" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>26.25</v>
       </c>
       <c r="J79" s="35">
         <v>23</v>
       </c>
       <c r="K79" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>36.75</v>
       </c>
       <c r="M79" s="35">
         <v>23</v>
       </c>
       <c r="N79" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>52.5</v>
       </c>
       <c r="P79" s="35">
         <v>23</v>
       </c>
       <c r="Q79" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>36.75</v>
       </c>
       <c r="S79" s="32">
@@ -10320,14 +12463,14 @@
         <v>23</v>
       </c>
       <c r="Z79" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB79" s="39">
         <v>23</v>
       </c>
       <c r="AC79" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>36.75</v>
       </c>
       <c r="AE79" s="32">
@@ -10381,28 +12524,28 @@
         <v>24</v>
       </c>
       <c r="H80" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>11.475000000000001</v>
       </c>
       <c r="J80" s="35">
         <v>24</v>
       </c>
       <c r="K80" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>16.065000000000001</v>
       </c>
       <c r="M80" s="35">
         <v>24</v>
       </c>
       <c r="N80" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>22.950000000000003</v>
       </c>
       <c r="P80" s="35">
         <v>24</v>
       </c>
       <c r="Q80" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>16.065000000000001</v>
       </c>
       <c r="S80" s="32">
@@ -10421,14 +12564,14 @@
         <v>24</v>
       </c>
       <c r="Z80" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB80" s="39">
         <v>24</v>
       </c>
       <c r="AC80" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>16.065000000000001</v>
       </c>
       <c r="AE80" s="32">
@@ -10482,28 +12625,28 @@
         <v>25</v>
       </c>
       <c r="H81" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>3.75</v>
       </c>
       <c r="J81" s="35">
         <v>25</v>
       </c>
       <c r="K81" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>5.25</v>
       </c>
       <c r="M81" s="35">
         <v>25</v>
       </c>
       <c r="N81" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>7.5</v>
       </c>
       <c r="P81" s="35">
         <v>25</v>
       </c>
       <c r="Q81" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>5.25</v>
       </c>
       <c r="S81" s="32">
@@ -10522,14 +12665,14 @@
         <v>25</v>
       </c>
       <c r="Z81" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB81" s="39">
         <v>25</v>
       </c>
       <c r="AC81" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>5.25</v>
       </c>
       <c r="AE81" s="32">
@@ -10583,28 +12726,28 @@
         <v>26</v>
       </c>
       <c r="H82" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>3.75</v>
       </c>
       <c r="J82" s="35">
         <v>26</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>5.25</v>
       </c>
       <c r="M82" s="35">
         <v>26</v>
       </c>
       <c r="N82" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>7.5</v>
       </c>
       <c r="P82" s="35">
         <v>26</v>
       </c>
       <c r="Q82" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>5.25</v>
       </c>
       <c r="S82" s="32">
@@ -10623,14 +12766,14 @@
         <v>26</v>
       </c>
       <c r="Z82" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB82" s="39">
         <v>26</v>
       </c>
       <c r="AC82" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>5.25</v>
       </c>
       <c r="AE82" s="32">
@@ -10684,28 +12827,28 @@
         <v>27</v>
       </c>
       <c r="H83" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>3.75</v>
       </c>
       <c r="J83" s="35">
         <v>27</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>5.25</v>
       </c>
       <c r="M83" s="35">
         <v>27</v>
       </c>
       <c r="N83" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>7.5</v>
       </c>
       <c r="P83" s="35">
         <v>27</v>
       </c>
       <c r="Q83" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>5.25</v>
       </c>
       <c r="S83" s="32">
@@ -10724,14 +12867,14 @@
         <v>27</v>
       </c>
       <c r="Z83" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB83" s="39">
         <v>27</v>
       </c>
       <c r="AC83" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>5.25</v>
       </c>
       <c r="AE83" s="32">
@@ -10785,28 +12928,28 @@
         <v>28</v>
       </c>
       <c r="H84" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>19.575000000000003</v>
       </c>
       <c r="J84" s="35">
         <v>28</v>
       </c>
       <c r="K84" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>27.405000000000001</v>
       </c>
       <c r="M84" s="35">
         <v>28</v>
       </c>
       <c r="N84" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>39.150000000000006</v>
       </c>
       <c r="P84" s="35">
         <v>28</v>
       </c>
       <c r="Q84" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>27.405000000000001</v>
       </c>
       <c r="S84" s="32">
@@ -10825,14 +12968,14 @@
         <v>28</v>
       </c>
       <c r="Z84" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB84" s="39">
         <v>28</v>
       </c>
       <c r="AC84" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>27.405000000000001</v>
       </c>
       <c r="AE84" s="32">
@@ -10886,28 +13029,28 @@
         <v>29</v>
       </c>
       <c r="H85" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>3.75</v>
       </c>
       <c r="J85" s="35">
         <v>29</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>5.25</v>
       </c>
       <c r="M85" s="35">
         <v>29</v>
       </c>
       <c r="N85" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>7.5</v>
       </c>
       <c r="P85" s="35">
         <v>29</v>
       </c>
       <c r="Q85" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>5.25</v>
       </c>
       <c r="S85" s="32">
@@ -10926,14 +13069,14 @@
         <v>29</v>
       </c>
       <c r="Z85" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB85" s="39">
         <v>29</v>
       </c>
       <c r="AC85" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>5.25</v>
       </c>
       <c r="AE85" s="32">
@@ -10987,28 +13130,28 @@
         <v>30</v>
       </c>
       <c r="H86" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>7.5749999999999993</v>
       </c>
       <c r="J86" s="35">
         <v>30</v>
       </c>
       <c r="K86" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>10.604999999999999</v>
       </c>
       <c r="M86" s="35">
         <v>30</v>
       </c>
       <c r="N86" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>15.149999999999999</v>
       </c>
       <c r="P86" s="35">
         <v>30</v>
       </c>
       <c r="Q86" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>10.604999999999999</v>
       </c>
       <c r="S86" s="32">
@@ -11027,14 +13170,14 @@
         <v>30</v>
       </c>
       <c r="Z86" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB86" s="39">
         <v>30</v>
       </c>
       <c r="AC86" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>10.604999999999999</v>
       </c>
       <c r="AE86" s="32">
@@ -11088,28 +13231,28 @@
         <v>31</v>
       </c>
       <c r="H87" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>26.25</v>
       </c>
       <c r="J87" s="35">
         <v>31</v>
       </c>
       <c r="K87" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>36.75</v>
       </c>
       <c r="M87" s="35">
         <v>31</v>
       </c>
       <c r="N87" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>52.5</v>
       </c>
       <c r="P87" s="35">
         <v>31</v>
       </c>
       <c r="Q87" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>36.75</v>
       </c>
       <c r="S87" s="32">
@@ -11128,14 +13271,14 @@
         <v>31</v>
       </c>
       <c r="Z87" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB87" s="39">
         <v>31</v>
       </c>
       <c r="AC87" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>36.75</v>
       </c>
       <c r="AE87" s="32">
@@ -11189,28 +13332,28 @@
         <v>32</v>
       </c>
       <c r="H88" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>3.9375</v>
       </c>
       <c r="J88" s="35">
         <v>32</v>
       </c>
       <c r="K88" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>5.5124999999999993</v>
       </c>
       <c r="M88" s="35">
         <v>32</v>
       </c>
       <c r="N88" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>7.875</v>
       </c>
       <c r="P88" s="35">
         <v>32</v>
       </c>
       <c r="Q88" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>5.5124999999999993</v>
       </c>
       <c r="S88" s="32">
@@ -11229,14 +13372,14 @@
         <v>32</v>
       </c>
       <c r="Z88" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB88" s="39">
         <v>32</v>
       </c>
       <c r="AC88" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>5.5124999999999993</v>
       </c>
       <c r="AE88" s="32">
@@ -11290,28 +13433,28 @@
         <v>33</v>
       </c>
       <c r="H89" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>3.75</v>
       </c>
       <c r="J89" s="35">
         <v>33</v>
       </c>
       <c r="K89" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>5.25</v>
       </c>
       <c r="M89" s="35">
         <v>33</v>
       </c>
       <c r="N89" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>7.5</v>
       </c>
       <c r="P89" s="35">
         <v>33</v>
       </c>
       <c r="Q89" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>5.25</v>
       </c>
       <c r="S89" s="32">
@@ -11330,14 +13473,14 @@
         <v>33</v>
       </c>
       <c r="Z89" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB89" s="39">
         <v>33</v>
       </c>
       <c r="AC89" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>5.25</v>
       </c>
       <c r="AE89" s="32">
@@ -11391,28 +13534,28 @@
         <v>34</v>
       </c>
       <c r="H90" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>3.75</v>
       </c>
       <c r="J90" s="35">
         <v>34</v>
       </c>
       <c r="K90" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>5.25</v>
       </c>
       <c r="M90" s="35">
         <v>34</v>
       </c>
       <c r="N90" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>7.5</v>
       </c>
       <c r="P90" s="35">
         <v>34</v>
       </c>
       <c r="Q90" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>5.25</v>
       </c>
       <c r="S90" s="32">
@@ -11431,14 +13574,14 @@
         <v>34</v>
       </c>
       <c r="Z90" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB90" s="39">
         <v>34</v>
       </c>
       <c r="AC90" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>5.25</v>
       </c>
       <c r="AE90" s="32">
@@ -11492,28 +13635,28 @@
         <v>35</v>
       </c>
       <c r="H91" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>3.75</v>
       </c>
       <c r="J91" s="35">
         <v>35</v>
       </c>
       <c r="K91" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>5.25</v>
       </c>
       <c r="M91" s="35">
         <v>35</v>
       </c>
       <c r="N91" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>7.5</v>
       </c>
       <c r="P91" s="35">
         <v>35</v>
       </c>
       <c r="Q91" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>5.25</v>
       </c>
       <c r="S91" s="32">
@@ -11532,14 +13675,14 @@
         <v>35</v>
       </c>
       <c r="Z91" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB91" s="39">
         <v>35</v>
       </c>
       <c r="AC91" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>5.25</v>
       </c>
       <c r="AE91" s="32">
@@ -11593,28 +13736,28 @@
         <v>36</v>
       </c>
       <c r="H92" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>3.75</v>
       </c>
       <c r="J92" s="35">
         <v>36</v>
       </c>
       <c r="K92" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>5.25</v>
       </c>
       <c r="M92" s="35">
         <v>36</v>
       </c>
       <c r="N92" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>7.5</v>
       </c>
       <c r="P92" s="35">
         <v>36</v>
       </c>
       <c r="Q92" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>5.25</v>
       </c>
       <c r="S92" s="32">
@@ -11633,14 +13776,14 @@
         <v>36</v>
       </c>
       <c r="Z92" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB92" s="39">
         <v>36</v>
       </c>
       <c r="AC92" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>5.25</v>
       </c>
       <c r="AE92" s="32">
@@ -11694,28 +13837,28 @@
         <v>37</v>
       </c>
       <c r="H93" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>3.7874999999999996</v>
       </c>
       <c r="J93" s="35">
         <v>37</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>5.3024999999999993</v>
       </c>
       <c r="M93" s="35">
         <v>37</v>
       </c>
       <c r="N93" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>7.5749999999999993</v>
       </c>
       <c r="P93" s="35">
         <v>37</v>
       </c>
       <c r="Q93" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>5.3024999999999993</v>
       </c>
       <c r="S93" s="32">
@@ -11734,14 +13877,14 @@
         <v>37</v>
       </c>
       <c r="Z93" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB93" s="39">
         <v>37</v>
       </c>
       <c r="AC93" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>5.3024999999999993</v>
       </c>
       <c r="AE93" s="32">
@@ -11795,28 +13938,28 @@
         <v>38</v>
       </c>
       <c r="H94" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>3.7874999999999996</v>
       </c>
       <c r="J94" s="35">
         <v>38</v>
       </c>
       <c r="K94" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>5.3024999999999993</v>
       </c>
       <c r="M94" s="35">
         <v>38</v>
       </c>
       <c r="N94" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>7.5749999999999993</v>
       </c>
       <c r="P94" s="35">
         <v>38</v>
       </c>
       <c r="Q94" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>5.3024999999999993</v>
       </c>
       <c r="S94" s="32">
@@ -11835,14 +13978,14 @@
         <v>38</v>
       </c>
       <c r="Z94" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB94" s="39">
         <v>38</v>
       </c>
       <c r="AC94" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>5.3024999999999993</v>
       </c>
       <c r="AE94" s="32">
@@ -11896,28 +14039,28 @@
         <v>39</v>
       </c>
       <c r="H95" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>3.75</v>
       </c>
       <c r="J95" s="35">
         <v>39</v>
       </c>
       <c r="K95" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>5.25</v>
       </c>
       <c r="M95" s="35">
         <v>39</v>
       </c>
       <c r="N95" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>7.5</v>
       </c>
       <c r="P95" s="35">
         <v>39</v>
       </c>
       <c r="Q95" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>5.25</v>
       </c>
       <c r="S95" s="32">
@@ -11936,14 +14079,14 @@
         <v>39</v>
       </c>
       <c r="Z95" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB95" s="39">
         <v>39</v>
       </c>
       <c r="AC95" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>5.25</v>
       </c>
       <c r="AE95" s="32">
@@ -11997,28 +14140,28 @@
         <v>40</v>
       </c>
       <c r="H96" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>4.5</v>
       </c>
       <c r="J96" s="35">
         <v>40</v>
       </c>
       <c r="K96" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>6.3</v>
       </c>
       <c r="M96" s="35">
         <v>40</v>
       </c>
       <c r="N96" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>9</v>
       </c>
       <c r="P96" s="35">
         <v>40</v>
       </c>
       <c r="Q96" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>6.3</v>
       </c>
       <c r="S96" s="32">
@@ -12037,14 +14180,14 @@
         <v>40</v>
       </c>
       <c r="Z96" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB96" s="39">
         <v>40</v>
       </c>
       <c r="AC96" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>6.3</v>
       </c>
       <c r="AE96" s="32">
@@ -12134,7 +14277,7 @@
         <v>41</v>
       </c>
       <c r="Z97" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB97" s="39">
@@ -12230,7 +14373,7 @@
         <v>42</v>
       </c>
       <c r="Z98" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB98" s="42">
@@ -12326,7 +14469,7 @@
         <v>43</v>
       </c>
       <c r="Z99" s="8">
-        <f t="shared" ref="Z99" si="47">AG99*AH99*1000/1000000</f>
+        <f t="shared" ref="Z99" si="63">AG99*AH99*1000/1000000</f>
         <v>0</v>
       </c>
       <c r="AB99" s="42">
@@ -12426,27 +14569,27 @@
       <c r="AO100" s="6"/>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D106" s="54" t="s">
+      <c r="D106" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E106" s="56" t="s">
+      <c r="E106" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="F106" s="56"/>
-      <c r="G106" s="56" t="s">
+      <c r="F106" s="58"/>
+      <c r="G106" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="H106" s="61"/>
+      <c r="H106" s="63"/>
       <c r="N106" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D107" s="55"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="62"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="64"/>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
@@ -12460,14 +14603,14 @@
       <c r="D109" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E109" s="58">
+      <c r="E109" s="60">
         <v>72154</v>
       </c>
-      <c r="F109" s="58"/>
-      <c r="G109" s="63">
+      <c r="F109" s="60"/>
+      <c r="G109" s="65">
         <v>28.1</v>
       </c>
-      <c r="H109" s="64"/>
+      <c r="H109" s="66"/>
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C110" s="18">
@@ -12476,14 +14619,14 @@
       <c r="D110" s="19">
         <v>0.31</v>
       </c>
-      <c r="E110" s="59">
+      <c r="E110" s="61">
         <v>67811</v>
       </c>
-      <c r="F110" s="59"/>
-      <c r="G110" s="65">
+      <c r="F110" s="61"/>
+      <c r="G110" s="67">
         <v>25</v>
       </c>
-      <c r="H110" s="66"/>
+      <c r="H110" s="68"/>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C111" s="18">
@@ -12492,14 +14635,14 @@
       <c r="D111" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E111" s="59">
+      <c r="E111" s="61">
         <v>187455</v>
       </c>
-      <c r="F111" s="59"/>
-      <c r="G111" s="65">
+      <c r="F111" s="61"/>
+      <c r="G111" s="67">
         <v>70</v>
       </c>
-      <c r="H111" s="66"/>
+      <c r="H111" s="68"/>
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C112" s="18">
@@ -12508,14 +14651,14 @@
       <c r="D112" s="19">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E112" s="59">
+      <c r="E112" s="61">
         <v>63266</v>
       </c>
-      <c r="F112" s="59"/>
-      <c r="G112" s="65">
+      <c r="F112" s="61"/>
+      <c r="G112" s="67">
         <v>30.6</v>
       </c>
-      <c r="H112" s="66"/>
+      <c r="H112" s="68"/>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" s="18">
@@ -12524,14 +14667,14 @@
       <c r="D113" s="19">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E113" s="59">
+      <c r="E113" s="61">
         <v>26553</v>
       </c>
-      <c r="F113" s="59"/>
-      <c r="G113" s="65">
+      <c r="F113" s="61"/>
+      <c r="G113" s="67">
         <v>10</v>
       </c>
-      <c r="H113" s="66"/>
+      <c r="H113" s="68"/>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" s="18">
@@ -12540,14 +14683,14 @@
       <c r="D114" s="19">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E114" s="59">
+      <c r="E114" s="61">
         <v>24949</v>
       </c>
-      <c r="F114" s="59"/>
-      <c r="G114" s="65">
+      <c r="F114" s="61"/>
+      <c r="G114" s="67">
         <v>10</v>
       </c>
-      <c r="H114" s="66"/>
+      <c r="H114" s="68"/>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" s="18">
@@ -12556,14 +14699,14 @@
       <c r="D115" s="19">
         <v>0.26100000000000001</v>
       </c>
-      <c r="E115" s="59">
+      <c r="E115" s="61">
         <v>22870</v>
       </c>
-      <c r="F115" s="59"/>
-      <c r="G115" s="65">
+      <c r="F115" s="61"/>
+      <c r="G115" s="67">
         <v>10</v>
       </c>
-      <c r="H115" s="66"/>
+      <c r="H115" s="68"/>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C116" s="18">
@@ -12572,14 +14715,14 @@
       <c r="D116" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E116" s="59">
+      <c r="E116" s="61">
         <v>139836</v>
       </c>
-      <c r="F116" s="59"/>
-      <c r="G116" s="65">
+      <c r="F116" s="61"/>
+      <c r="G116" s="67">
         <v>52.2</v>
       </c>
-      <c r="H116" s="66"/>
+      <c r="H116" s="68"/>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C117" s="18">
@@ -12588,14 +14731,14 @@
       <c r="D117" s="19">
         <v>0.26800000000000002</v>
       </c>
-      <c r="E117" s="59">
+      <c r="E117" s="61">
         <v>23515</v>
       </c>
-      <c r="F117" s="59"/>
-      <c r="G117" s="65">
+      <c r="F117" s="61"/>
+      <c r="G117" s="67">
         <v>10</v>
       </c>
-      <c r="H117" s="66"/>
+      <c r="H117" s="68"/>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C118" s="18">
@@ -12604,14 +14747,14 @@
       <c r="D118" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E118" s="59">
+      <c r="E118" s="61">
         <v>49503</v>
       </c>
-      <c r="F118" s="59"/>
-      <c r="G118" s="65">
+      <c r="F118" s="61"/>
+      <c r="G118" s="67">
         <v>20.2</v>
       </c>
-      <c r="H118" s="66"/>
+      <c r="H118" s="68"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C119" s="18">
@@ -12620,14 +14763,14 @@
       <c r="D119" s="19">
         <v>0.307</v>
       </c>
-      <c r="E119" s="59">
+      <c r="E119" s="61">
         <v>188420</v>
       </c>
-      <c r="F119" s="59"/>
-      <c r="G119" s="65">
+      <c r="F119" s="61"/>
+      <c r="G119" s="67">
         <v>70</v>
       </c>
-      <c r="H119" s="66"/>
+      <c r="H119" s="68"/>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C120" s="18">
@@ -12636,14 +14779,14 @@
       <c r="D120" s="19">
         <v>0.28899999999999998</v>
       </c>
-      <c r="E120" s="59">
+      <c r="E120" s="61">
         <v>26573</v>
       </c>
-      <c r="F120" s="59"/>
-      <c r="G120" s="65">
+      <c r="F120" s="61"/>
+      <c r="G120" s="67">
         <v>10.5</v>
       </c>
-      <c r="H120" s="66"/>
+      <c r="H120" s="68"/>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C121" s="18">
@@ -12652,14 +14795,14 @@
       <c r="D121" s="19">
         <v>0.28799999999999998</v>
       </c>
-      <c r="E121" s="59">
+      <c r="E121" s="61">
         <v>25253</v>
       </c>
-      <c r="F121" s="59"/>
-      <c r="G121" s="65">
+      <c r="F121" s="61"/>
+      <c r="G121" s="67">
         <v>10</v>
       </c>
-      <c r="H121" s="66"/>
+      <c r="H121" s="68"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C122" s="18">
@@ -12668,14 +14811,14 @@
       <c r="D122" s="19">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E122" s="59">
+      <c r="E122" s="61">
         <v>17610</v>
       </c>
-      <c r="F122" s="59"/>
-      <c r="G122" s="65">
+      <c r="F122" s="61"/>
+      <c r="G122" s="67">
         <v>10</v>
       </c>
-      <c r="H122" s="66"/>
+      <c r="H122" s="68"/>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C123" s="18">
@@ -12684,14 +14827,14 @@
       <c r="D123" s="19">
         <v>0.221</v>
       </c>
-      <c r="E123" s="59">
+      <c r="E123" s="61">
         <v>19372</v>
       </c>
-      <c r="F123" s="59"/>
-      <c r="G123" s="65">
+      <c r="F123" s="61"/>
+      <c r="G123" s="67">
         <v>10</v>
       </c>
-      <c r="H123" s="66"/>
+      <c r="H123" s="68"/>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C124" s="18">
@@ -12700,14 +14843,14 @@
       <c r="D124" s="19">
         <v>0.216</v>
       </c>
-      <c r="E124" s="59">
+      <c r="E124" s="61">
         <v>18939</v>
       </c>
-      <c r="F124" s="59"/>
-      <c r="G124" s="65">
+      <c r="F124" s="61"/>
+      <c r="G124" s="67">
         <v>10</v>
       </c>
-      <c r="H124" s="66"/>
+      <c r="H124" s="68"/>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C125" s="18">
@@ -12716,14 +14859,14 @@
       <c r="D125" s="19">
         <v>0.23</v>
       </c>
-      <c r="E125" s="59">
+      <c r="E125" s="61">
         <v>20382</v>
       </c>
-      <c r="F125" s="59"/>
-      <c r="G125" s="65">
+      <c r="F125" s="61"/>
+      <c r="G125" s="67">
         <v>10.1</v>
       </c>
-      <c r="H125" s="66"/>
+      <c r="H125" s="68"/>
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C126" s="18">
@@ -12732,14 +14875,14 @@
       <c r="D126" s="19">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E126" s="59">
+      <c r="E126" s="61">
         <v>19968</v>
       </c>
-      <c r="F126" s="59"/>
-      <c r="G126" s="65">
+      <c r="F126" s="61"/>
+      <c r="G126" s="67">
         <v>10.1</v>
       </c>
-      <c r="H126" s="66"/>
+      <c r="H126" s="68"/>
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C127" s="18">
@@ -12748,14 +14891,14 @@
       <c r="D127" s="19">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E127" s="59">
+      <c r="E127" s="61">
         <v>23240</v>
       </c>
-      <c r="F127" s="59"/>
-      <c r="G127" s="65">
+      <c r="F127" s="61"/>
+      <c r="G127" s="67">
         <v>10</v>
       </c>
-      <c r="H127" s="66"/>
+      <c r="H127" s="68"/>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C128" s="20">
@@ -12764,14 +14907,14 @@
       <c r="D128" s="21">
         <v>0.254</v>
       </c>
-      <c r="E128" s="60">
+      <c r="E128" s="62">
         <v>26709</v>
       </c>
-      <c r="F128" s="60"/>
-      <c r="G128" s="67">
+      <c r="F128" s="62"/>
+      <c r="G128" s="69">
         <v>12</v>
       </c>
-      <c r="H128" s="68"/>
+      <c r="H128" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="72">

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfi\Google Drive\School\College\Semester 6 (Spring 2020)\ENV 717\Assignments\Assignment 11 (group project)\ENV717A11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jawessel\opl\ENV717A11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1036,9 +1036,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1050,47 +1089,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1376,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CN128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1416,18 +1416,18 @@
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="53"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
       <c r="L1" s="15">
         <v>7256200.8565999996</v>
       </c>
@@ -1438,11 +1438,11 @@
       <c r="Q1" s="24">
         <v>0</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
       <c r="V1" s="24">
         <v>8809340386.1000004</v>
       </c>
@@ -1454,14 +1454,14 @@
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
       <c r="G2" s="25"/>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="23">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
@@ -1473,11 +1473,11 @@
       <c r="Q2" s="24">
         <v>19867.2</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="S2" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
       <c r="V2" s="27">
         <v>348494.96600000001</v>
       </c>
@@ -1495,11 +1495,11 @@
       <c r="F3" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -1510,11 +1510,11 @@
       <c r="Q3" s="24">
         <v>43560</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
       <c r="V3" s="28">
         <v>2066077.2990000001</v>
       </c>
@@ -1543,11 +1543,11 @@
       <c r="G4" s="6">
         <v>4198</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="15">
         <v>0.75</v>
       </c>
@@ -1558,11 +1558,11 @@
       <c r="Q4" s="24">
         <v>601000</v>
       </c>
-      <c r="S4" s="53" t="s">
+      <c r="S4" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
       <c r="V4" s="27">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
@@ -1581,13 +1581,13 @@
       <c r="G5" s="6">
         <v>3726</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O5" s="41"/>
       <c r="P5" s="36" t="s">
@@ -1596,11 +1596,11 @@
       <c r="Q5" s="24">
         <v>15025</v>
       </c>
-      <c r="S5" s="53" t="s">
+      <c r="S5" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
       <c r="V5" s="27">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
@@ -1622,11 +1622,11 @@
       <c r="G6" s="6">
         <v>4765</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
       <c r="L6" s="15">
         <v>1</v>
       </c>
@@ -1637,11 +1637,11 @@
       <c r="Q6" s="26">
         <v>0.95</v>
       </c>
-      <c r="S6" s="53" t="s">
+      <c r="S6" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
       <c r="V6" s="27">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
@@ -1666,11 +1666,11 @@
       <c r="Q7" s="26">
         <v>50</v>
       </c>
-      <c r="S7" s="53" t="s">
+      <c r="S7" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
       <c r="V7" s="27">
         <f>V4*V6</f>
         <v>29903074042.27026</v>
@@ -1692,11 +1692,11 @@
       <c r="G8" s="6">
         <v>5974</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="49">
         <v>15.24</v>
       </c>
@@ -1707,11 +1707,11 @@
       <c r="Q8" s="26">
         <v>10</v>
       </c>
-      <c r="S8" s="53" t="s">
+      <c r="S8" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
       <c r="V8" s="27">
         <f>V5*V6</f>
         <v>5911072775.7976093</v>
@@ -1729,11 +1729,11 @@
       <c r="G9" s="6">
         <v>5009</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
       <c r="L9" s="49">
         <v>9.83</v>
       </c>
@@ -1762,11 +1762,11 @@
       <c r="G10" s="6">
         <v>4359</v>
       </c>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="27">
         <v>0.73499999999999999</v>
       </c>
@@ -1791,11 +1791,11 @@
       <c r="G11" s="6">
         <v>3780</v>
       </c>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="27">
         <v>0.65249999999999997</v>
       </c>
@@ -1815,11 +1815,11 @@
       <c r="F12" s="36"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
       <c r="L12" s="27">
         <v>0.81</v>
       </c>
@@ -1927,17 +1927,17 @@
         <f>92*8</f>
         <v>736</v>
       </c>
-      <c r="BH15" s="53" t="s">
+      <c r="BH15" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="BI15" s="53"/>
+      <c r="BI15" s="54"/>
       <c r="BJ15" s="48">
         <v>16054000</v>
       </c>
-      <c r="BN15" s="53" t="s">
+      <c r="BN15" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="BO15" s="53"/>
+      <c r="BO15" s="54"/>
       <c r="BP15" s="48">
         <v>10000000</v>
       </c>
@@ -2006,20 +2006,20 @@
       </c>
       <c r="BC16" s="33"/>
       <c r="BD16" s="34"/>
-      <c r="BF16" s="53" t="s">
+      <c r="BF16" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="BG16" s="53"/>
-      <c r="BH16" s="53"/>
-      <c r="BI16" s="53"/>
-      <c r="BJ16" s="53"/>
-      <c r="BL16" s="53" t="s">
+      <c r="BG16" s="54"/>
+      <c r="BH16" s="54"/>
+      <c r="BI16" s="54"/>
+      <c r="BJ16" s="54"/>
+      <c r="BL16" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="BM16" s="53"/>
-      <c r="BN16" s="53"/>
-      <c r="BO16" s="53"/>
-      <c r="BP16" s="53"/>
+      <c r="BM16" s="54"/>
+      <c r="BN16" s="54"/>
+      <c r="BO16" s="54"/>
+      <c r="BP16" s="54"/>
       <c r="BT16" s="51" t="s">
         <v>169</v>
       </c>
@@ -9832,17 +9832,17 @@
       </c>
     </row>
     <row r="47" spans="2:92" x14ac:dyDescent="0.35">
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
       <c r="F47" s="2"/>
-      <c r="H47" s="55" t="s">
+      <c r="H47" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
       <c r="O47" s="4"/>
@@ -10077,19 +10077,19 @@
       <c r="AO54" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AQ54" s="71" t="s">
+      <c r="AQ54" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="AR54" s="71"/>
-      <c r="AS54" s="71"/>
-      <c r="AT54" s="71"/>
+      <c r="AR54" s="53"/>
+      <c r="AS54" s="53"/>
+      <c r="AT54" s="53"/>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
       <c r="G55" s="38" t="s">
         <v>132</v>
       </c>
@@ -14569,26 +14569,26 @@
       <c r="AO100" s="6"/>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D106" s="56" t="s">
+      <c r="D106" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E106" s="58" t="s">
+      <c r="E106" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="F106" s="58"/>
-      <c r="G106" s="58" t="s">
+      <c r="F106" s="61"/>
+      <c r="G106" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="H106" s="63"/>
+      <c r="H106" s="62"/>
       <c r="N106" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D107" s="57"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="63"/>
+      <c r="F107" s="63"/>
+      <c r="G107" s="63"/>
       <c r="H107" s="64"/>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.35">
@@ -14603,10 +14603,10 @@
       <c r="D109" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E109" s="60">
+      <c r="E109" s="67">
         <v>72154</v>
       </c>
-      <c r="F109" s="60"/>
+      <c r="F109" s="67"/>
       <c r="G109" s="65">
         <v>28.1</v>
       </c>
@@ -14619,14 +14619,14 @@
       <c r="D110" s="19">
         <v>0.31</v>
       </c>
-      <c r="E110" s="61">
+      <c r="E110" s="57">
         <v>67811</v>
       </c>
-      <c r="F110" s="61"/>
-      <c r="G110" s="67">
+      <c r="F110" s="57"/>
+      <c r="G110" s="55">
         <v>25</v>
       </c>
-      <c r="H110" s="68"/>
+      <c r="H110" s="56"/>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C111" s="18">
@@ -14635,14 +14635,14 @@
       <c r="D111" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E111" s="61">
+      <c r="E111" s="57">
         <v>187455</v>
       </c>
-      <c r="F111" s="61"/>
-      <c r="G111" s="67">
+      <c r="F111" s="57"/>
+      <c r="G111" s="55">
         <v>70</v>
       </c>
-      <c r="H111" s="68"/>
+      <c r="H111" s="56"/>
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C112" s="18">
@@ -14651,14 +14651,14 @@
       <c r="D112" s="19">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E112" s="61">
+      <c r="E112" s="57">
         <v>63266</v>
       </c>
-      <c r="F112" s="61"/>
-      <c r="G112" s="67">
+      <c r="F112" s="57"/>
+      <c r="G112" s="55">
         <v>30.6</v>
       </c>
-      <c r="H112" s="68"/>
+      <c r="H112" s="56"/>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" s="18">
@@ -14667,14 +14667,14 @@
       <c r="D113" s="19">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E113" s="61">
+      <c r="E113" s="57">
         <v>26553</v>
       </c>
-      <c r="F113" s="61"/>
-      <c r="G113" s="67">
+      <c r="F113" s="57"/>
+      <c r="G113" s="55">
         <v>10</v>
       </c>
-      <c r="H113" s="68"/>
+      <c r="H113" s="56"/>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" s="18">
@@ -14683,14 +14683,14 @@
       <c r="D114" s="19">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E114" s="61">
+      <c r="E114" s="57">
         <v>24949</v>
       </c>
-      <c r="F114" s="61"/>
-      <c r="G114" s="67">
+      <c r="F114" s="57"/>
+      <c r="G114" s="55">
         <v>10</v>
       </c>
-      <c r="H114" s="68"/>
+      <c r="H114" s="56"/>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" s="18">
@@ -14699,14 +14699,14 @@
       <c r="D115" s="19">
         <v>0.26100000000000001</v>
       </c>
-      <c r="E115" s="61">
+      <c r="E115" s="57">
         <v>22870</v>
       </c>
-      <c r="F115" s="61"/>
-      <c r="G115" s="67">
+      <c r="F115" s="57"/>
+      <c r="G115" s="55">
         <v>10</v>
       </c>
-      <c r="H115" s="68"/>
+      <c r="H115" s="56"/>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C116" s="18">
@@ -14715,14 +14715,14 @@
       <c r="D116" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E116" s="61">
+      <c r="E116" s="57">
         <v>139836</v>
       </c>
-      <c r="F116" s="61"/>
-      <c r="G116" s="67">
+      <c r="F116" s="57"/>
+      <c r="G116" s="55">
         <v>52.2</v>
       </c>
-      <c r="H116" s="68"/>
+      <c r="H116" s="56"/>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C117" s="18">
@@ -14731,14 +14731,14 @@
       <c r="D117" s="19">
         <v>0.26800000000000002</v>
       </c>
-      <c r="E117" s="61">
+      <c r="E117" s="57">
         <v>23515</v>
       </c>
-      <c r="F117" s="61"/>
-      <c r="G117" s="67">
+      <c r="F117" s="57"/>
+      <c r="G117" s="55">
         <v>10</v>
       </c>
-      <c r="H117" s="68"/>
+      <c r="H117" s="56"/>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C118" s="18">
@@ -14747,14 +14747,14 @@
       <c r="D118" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E118" s="61">
+      <c r="E118" s="57">
         <v>49503</v>
       </c>
-      <c r="F118" s="61"/>
-      <c r="G118" s="67">
+      <c r="F118" s="57"/>
+      <c r="G118" s="55">
         <v>20.2</v>
       </c>
-      <c r="H118" s="68"/>
+      <c r="H118" s="56"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C119" s="18">
@@ -14763,14 +14763,14 @@
       <c r="D119" s="19">
         <v>0.307</v>
       </c>
-      <c r="E119" s="61">
+      <c r="E119" s="57">
         <v>188420</v>
       </c>
-      <c r="F119" s="61"/>
-      <c r="G119" s="67">
+      <c r="F119" s="57"/>
+      <c r="G119" s="55">
         <v>70</v>
       </c>
-      <c r="H119" s="68"/>
+      <c r="H119" s="56"/>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C120" s="18">
@@ -14779,14 +14779,14 @@
       <c r="D120" s="19">
         <v>0.28899999999999998</v>
       </c>
-      <c r="E120" s="61">
+      <c r="E120" s="57">
         <v>26573</v>
       </c>
-      <c r="F120" s="61"/>
-      <c r="G120" s="67">
+      <c r="F120" s="57"/>
+      <c r="G120" s="55">
         <v>10.5</v>
       </c>
-      <c r="H120" s="68"/>
+      <c r="H120" s="56"/>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C121" s="18">
@@ -14795,14 +14795,14 @@
       <c r="D121" s="19">
         <v>0.28799999999999998</v>
       </c>
-      <c r="E121" s="61">
+      <c r="E121" s="57">
         <v>25253</v>
       </c>
-      <c r="F121" s="61"/>
-      <c r="G121" s="67">
+      <c r="F121" s="57"/>
+      <c r="G121" s="55">
         <v>10</v>
       </c>
-      <c r="H121" s="68"/>
+      <c r="H121" s="56"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C122" s="18">
@@ -14811,14 +14811,14 @@
       <c r="D122" s="19">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E122" s="61">
+      <c r="E122" s="57">
         <v>17610</v>
       </c>
-      <c r="F122" s="61"/>
-      <c r="G122" s="67">
+      <c r="F122" s="57"/>
+      <c r="G122" s="55">
         <v>10</v>
       </c>
-      <c r="H122" s="68"/>
+      <c r="H122" s="56"/>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C123" s="18">
@@ -14827,14 +14827,14 @@
       <c r="D123" s="19">
         <v>0.221</v>
       </c>
-      <c r="E123" s="61">
+      <c r="E123" s="57">
         <v>19372</v>
       </c>
-      <c r="F123" s="61"/>
-      <c r="G123" s="67">
+      <c r="F123" s="57"/>
+      <c r="G123" s="55">
         <v>10</v>
       </c>
-      <c r="H123" s="68"/>
+      <c r="H123" s="56"/>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C124" s="18">
@@ -14843,14 +14843,14 @@
       <c r="D124" s="19">
         <v>0.216</v>
       </c>
-      <c r="E124" s="61">
+      <c r="E124" s="57">
         <v>18939</v>
       </c>
-      <c r="F124" s="61"/>
-      <c r="G124" s="67">
+      <c r="F124" s="57"/>
+      <c r="G124" s="55">
         <v>10</v>
       </c>
-      <c r="H124" s="68"/>
+      <c r="H124" s="56"/>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C125" s="18">
@@ -14859,14 +14859,14 @@
       <c r="D125" s="19">
         <v>0.23</v>
       </c>
-      <c r="E125" s="61">
+      <c r="E125" s="57">
         <v>20382</v>
       </c>
-      <c r="F125" s="61"/>
-      <c r="G125" s="67">
+      <c r="F125" s="57"/>
+      <c r="G125" s="55">
         <v>10.1</v>
       </c>
-      <c r="H125" s="68"/>
+      <c r="H125" s="56"/>
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C126" s="18">
@@ -14875,14 +14875,14 @@
       <c r="D126" s="19">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E126" s="61">
+      <c r="E126" s="57">
         <v>19968</v>
       </c>
-      <c r="F126" s="61"/>
-      <c r="G126" s="67">
+      <c r="F126" s="57"/>
+      <c r="G126" s="55">
         <v>10.1</v>
       </c>
-      <c r="H126" s="68"/>
+      <c r="H126" s="56"/>
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C127" s="18">
@@ -14891,14 +14891,14 @@
       <c r="D127" s="19">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E127" s="61">
+      <c r="E127" s="57">
         <v>23240</v>
       </c>
-      <c r="F127" s="61"/>
-      <c r="G127" s="67">
+      <c r="F127" s="57"/>
+      <c r="G127" s="55">
         <v>10</v>
       </c>
-      <c r="H127" s="68"/>
+      <c r="H127" s="56"/>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C128" s="20">
@@ -14907,25 +14907,65 @@
       <c r="D128" s="21">
         <v>0.254</v>
       </c>
-      <c r="E128" s="62">
+      <c r="E128" s="60">
         <v>26709</v>
       </c>
-      <c r="F128" s="62"/>
-      <c r="G128" s="69">
+      <c r="F128" s="60"/>
+      <c r="G128" s="58">
         <v>12</v>
       </c>
-      <c r="H128" s="70"/>
+      <c r="H128" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="AQ54:AT54"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="BH15:BI15"/>
+    <mergeCell ref="BN15:BO15"/>
+    <mergeCell ref="BF16:BJ16"/>
+    <mergeCell ref="BL16:BP16"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:F107"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G106:H107"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="E1:F1"/>
@@ -14942,54 +14982,14 @@
     <mergeCell ref="E116:F116"/>
     <mergeCell ref="E124:F124"/>
     <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G106:H107"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:F107"/>
-    <mergeCell ref="BH15:BI15"/>
-    <mergeCell ref="BN15:BO15"/>
-    <mergeCell ref="BF16:BJ16"/>
-    <mergeCell ref="BL16:BP16"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="AQ54:AT54"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jawessel\opl\ENV717A11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfi\Google Drive\School\College\Semester 6 (Spring 2020)\ENV 717\Assignments\Assignment 11 (group project)\ENV717A11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1036,36 +1036,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1077,20 +1077,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1376,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CN128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="AE60" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AR57" sqref="AR57:AR76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1416,18 +1416,18 @@
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="54"/>
+      <c r="F1" s="53"/>
       <c r="G1" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="15">
         <v>7256200.8565999996</v>
       </c>
@@ -1438,11 +1438,11 @@
       <c r="Q1" s="24">
         <v>0</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
       <c r="V1" s="24">
         <v>8809340386.1000004</v>
       </c>
@@ -1454,14 +1454,14 @@
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="25"/>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="23">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
@@ -1473,11 +1473,11 @@
       <c r="Q2" s="24">
         <v>19867.2</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
       <c r="V2" s="27">
         <v>348494.96600000001</v>
       </c>
@@ -1495,11 +1495,11 @@
       <c r="F3" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -1510,11 +1510,11 @@
       <c r="Q3" s="24">
         <v>43560</v>
       </c>
-      <c r="S3" s="54" t="s">
+      <c r="S3" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
       <c r="V3" s="28">
         <v>2066077.2990000001</v>
       </c>
@@ -1543,11 +1543,11 @@
       <c r="G4" s="6">
         <v>4198</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="15">
         <v>0.75</v>
       </c>
@@ -1558,11 +1558,11 @@
       <c r="Q4" s="24">
         <v>601000</v>
       </c>
-      <c r="S4" s="54" t="s">
+      <c r="S4" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
       <c r="V4" s="27">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
@@ -1581,11 +1581,11 @@
       <c r="G5" s="6">
         <v>3726</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="15">
         <v>1</v>
       </c>
@@ -1596,11 +1596,11 @@
       <c r="Q5" s="24">
         <v>15025</v>
       </c>
-      <c r="S5" s="54" t="s">
+      <c r="S5" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
       <c r="V5" s="27">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
@@ -1622,11 +1622,11 @@
       <c r="G6" s="6">
         <v>4765</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="15">
         <v>1</v>
       </c>
@@ -1637,11 +1637,11 @@
       <c r="Q6" s="26">
         <v>0.95</v>
       </c>
-      <c r="S6" s="54" t="s">
+      <c r="S6" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
       <c r="V6" s="27">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
@@ -1666,11 +1666,11 @@
       <c r="Q7" s="26">
         <v>50</v>
       </c>
-      <c r="S7" s="54" t="s">
+      <c r="S7" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
       <c r="V7" s="27">
         <f>V4*V6</f>
         <v>29903074042.27026</v>
@@ -1692,11 +1692,11 @@
       <c r="G8" s="6">
         <v>5974</v>
       </c>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="49">
         <v>15.24</v>
       </c>
@@ -1707,11 +1707,11 @@
       <c r="Q8" s="26">
         <v>10</v>
       </c>
-      <c r="S8" s="54" t="s">
+      <c r="S8" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
       <c r="V8" s="27">
         <f>V5*V6</f>
         <v>5911072775.7976093</v>
@@ -1729,11 +1729,11 @@
       <c r="G9" s="6">
         <v>5009</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
       <c r="L9" s="49">
         <v>9.83</v>
       </c>
@@ -1762,11 +1762,11 @@
       <c r="G10" s="6">
         <v>4359</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
       <c r="L10" s="27">
         <v>0.73499999999999999</v>
       </c>
@@ -1791,11 +1791,11 @@
       <c r="G11" s="6">
         <v>3780</v>
       </c>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
       <c r="L11" s="27">
         <v>0.65249999999999997</v>
       </c>
@@ -1815,11 +1815,11 @@
       <c r="F12" s="36"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="71" t="s">
+      <c r="I12" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
       <c r="L12" s="27">
         <v>0.81</v>
       </c>
@@ -1927,17 +1927,17 @@
         <f>92*8</f>
         <v>736</v>
       </c>
-      <c r="BH15" s="54" t="s">
+      <c r="BH15" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="BI15" s="54"/>
+      <c r="BI15" s="53"/>
       <c r="BJ15" s="48">
         <v>16054000</v>
       </c>
-      <c r="BN15" s="54" t="s">
+      <c r="BN15" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="BO15" s="54"/>
+      <c r="BO15" s="53"/>
       <c r="BP15" s="48">
         <v>10000000</v>
       </c>
@@ -2006,20 +2006,20 @@
       </c>
       <c r="BC16" s="33"/>
       <c r="BD16" s="34"/>
-      <c r="BF16" s="54" t="s">
+      <c r="BF16" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="BG16" s="54"/>
-      <c r="BH16" s="54"/>
-      <c r="BI16" s="54"/>
-      <c r="BJ16" s="54"/>
-      <c r="BL16" s="54" t="s">
+      <c r="BG16" s="53"/>
+      <c r="BH16" s="53"/>
+      <c r="BI16" s="53"/>
+      <c r="BJ16" s="53"/>
+      <c r="BL16" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="BM16" s="54"/>
-      <c r="BN16" s="54"/>
-      <c r="BO16" s="54"/>
-      <c r="BP16" s="54"/>
+      <c r="BM16" s="53"/>
+      <c r="BN16" s="53"/>
+      <c r="BO16" s="53"/>
+      <c r="BP16" s="53"/>
       <c r="BT16" s="51" t="s">
         <v>169</v>
       </c>
@@ -9832,17 +9832,17 @@
       </c>
     </row>
     <row r="47" spans="2:92" x14ac:dyDescent="0.35">
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
       <c r="F47" s="2"/>
-      <c r="H47" s="68" t="s">
+      <c r="H47" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
       <c r="O47" s="4"/>
@@ -10077,19 +10077,19 @@
       <c r="AO54" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AQ54" s="53" t="s">
+      <c r="AQ54" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="AR54" s="53"/>
-      <c r="AS54" s="53"/>
-      <c r="AT54" s="53"/>
+      <c r="AR54" s="71"/>
+      <c r="AS54" s="71"/>
+      <c r="AT54" s="71"/>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="C55" s="68" t="s">
+      <c r="C55" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="68"/>
-      <c r="E55" s="68"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
       <c r="G55" s="38" t="s">
         <v>132</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>41</v>
       </c>
       <c r="T97" s="6">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="V97" s="22">
         <v>41</v>
@@ -14569,26 +14569,26 @@
       <c r="AO100" s="6"/>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D106" s="69" t="s">
+      <c r="D106" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E106" s="61" t="s">
+      <c r="E106" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="F106" s="61"/>
-      <c r="G106" s="61" t="s">
+      <c r="F106" s="58"/>
+      <c r="G106" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="H106" s="62"/>
+      <c r="H106" s="63"/>
       <c r="N106" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D107" s="70"/>
-      <c r="E107" s="63"/>
-      <c r="F107" s="63"/>
-      <c r="G107" s="63"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
       <c r="H107" s="64"/>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.35">
@@ -14603,10 +14603,10 @@
       <c r="D109" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E109" s="67">
+      <c r="E109" s="60">
         <v>72154</v>
       </c>
-      <c r="F109" s="67"/>
+      <c r="F109" s="60"/>
       <c r="G109" s="65">
         <v>28.1</v>
       </c>
@@ -14619,14 +14619,14 @@
       <c r="D110" s="19">
         <v>0.31</v>
       </c>
-      <c r="E110" s="57">
+      <c r="E110" s="61">
         <v>67811</v>
       </c>
-      <c r="F110" s="57"/>
-      <c r="G110" s="55">
+      <c r="F110" s="61"/>
+      <c r="G110" s="67">
         <v>25</v>
       </c>
-      <c r="H110" s="56"/>
+      <c r="H110" s="68"/>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C111" s="18">
@@ -14635,14 +14635,14 @@
       <c r="D111" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E111" s="57">
+      <c r="E111" s="61">
         <v>187455</v>
       </c>
-      <c r="F111" s="57"/>
-      <c r="G111" s="55">
+      <c r="F111" s="61"/>
+      <c r="G111" s="67">
         <v>70</v>
       </c>
-      <c r="H111" s="56"/>
+      <c r="H111" s="68"/>
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C112" s="18">
@@ -14651,14 +14651,14 @@
       <c r="D112" s="19">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E112" s="57">
+      <c r="E112" s="61">
         <v>63266</v>
       </c>
-      <c r="F112" s="57"/>
-      <c r="G112" s="55">
+      <c r="F112" s="61"/>
+      <c r="G112" s="67">
         <v>30.6</v>
       </c>
-      <c r="H112" s="56"/>
+      <c r="H112" s="68"/>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" s="18">
@@ -14667,14 +14667,14 @@
       <c r="D113" s="19">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E113" s="57">
+      <c r="E113" s="61">
         <v>26553</v>
       </c>
-      <c r="F113" s="57"/>
-      <c r="G113" s="55">
+      <c r="F113" s="61"/>
+      <c r="G113" s="67">
         <v>10</v>
       </c>
-      <c r="H113" s="56"/>
+      <c r="H113" s="68"/>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" s="18">
@@ -14683,14 +14683,14 @@
       <c r="D114" s="19">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E114" s="57">
+      <c r="E114" s="61">
         <v>24949</v>
       </c>
-      <c r="F114" s="57"/>
-      <c r="G114" s="55">
+      <c r="F114" s="61"/>
+      <c r="G114" s="67">
         <v>10</v>
       </c>
-      <c r="H114" s="56"/>
+      <c r="H114" s="68"/>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" s="18">
@@ -14699,14 +14699,14 @@
       <c r="D115" s="19">
         <v>0.26100000000000001</v>
       </c>
-      <c r="E115" s="57">
+      <c r="E115" s="61">
         <v>22870</v>
       </c>
-      <c r="F115" s="57"/>
-      <c r="G115" s="55">
+      <c r="F115" s="61"/>
+      <c r="G115" s="67">
         <v>10</v>
       </c>
-      <c r="H115" s="56"/>
+      <c r="H115" s="68"/>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C116" s="18">
@@ -14715,14 +14715,14 @@
       <c r="D116" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E116" s="57">
+      <c r="E116" s="61">
         <v>139836</v>
       </c>
-      <c r="F116" s="57"/>
-      <c r="G116" s="55">
+      <c r="F116" s="61"/>
+      <c r="G116" s="67">
         <v>52.2</v>
       </c>
-      <c r="H116" s="56"/>
+      <c r="H116" s="68"/>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C117" s="18">
@@ -14731,14 +14731,14 @@
       <c r="D117" s="19">
         <v>0.26800000000000002</v>
       </c>
-      <c r="E117" s="57">
+      <c r="E117" s="61">
         <v>23515</v>
       </c>
-      <c r="F117" s="57"/>
-      <c r="G117" s="55">
+      <c r="F117" s="61"/>
+      <c r="G117" s="67">
         <v>10</v>
       </c>
-      <c r="H117" s="56"/>
+      <c r="H117" s="68"/>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C118" s="18">
@@ -14747,14 +14747,14 @@
       <c r="D118" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E118" s="57">
+      <c r="E118" s="61">
         <v>49503</v>
       </c>
-      <c r="F118" s="57"/>
-      <c r="G118" s="55">
+      <c r="F118" s="61"/>
+      <c r="G118" s="67">
         <v>20.2</v>
       </c>
-      <c r="H118" s="56"/>
+      <c r="H118" s="68"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C119" s="18">
@@ -14763,14 +14763,14 @@
       <c r="D119" s="19">
         <v>0.307</v>
       </c>
-      <c r="E119" s="57">
+      <c r="E119" s="61">
         <v>188420</v>
       </c>
-      <c r="F119" s="57"/>
-      <c r="G119" s="55">
+      <c r="F119" s="61"/>
+      <c r="G119" s="67">
         <v>70</v>
       </c>
-      <c r="H119" s="56"/>
+      <c r="H119" s="68"/>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C120" s="18">
@@ -14779,14 +14779,14 @@
       <c r="D120" s="19">
         <v>0.28899999999999998</v>
       </c>
-      <c r="E120" s="57">
+      <c r="E120" s="61">
         <v>26573</v>
       </c>
-      <c r="F120" s="57"/>
-      <c r="G120" s="55">
+      <c r="F120" s="61"/>
+      <c r="G120" s="67">
         <v>10.5</v>
       </c>
-      <c r="H120" s="56"/>
+      <c r="H120" s="68"/>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C121" s="18">
@@ -14795,14 +14795,14 @@
       <c r="D121" s="19">
         <v>0.28799999999999998</v>
       </c>
-      <c r="E121" s="57">
+      <c r="E121" s="61">
         <v>25253</v>
       </c>
-      <c r="F121" s="57"/>
-      <c r="G121" s="55">
+      <c r="F121" s="61"/>
+      <c r="G121" s="67">
         <v>10</v>
       </c>
-      <c r="H121" s="56"/>
+      <c r="H121" s="68"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C122" s="18">
@@ -14811,14 +14811,14 @@
       <c r="D122" s="19">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E122" s="57">
+      <c r="E122" s="61">
         <v>17610</v>
       </c>
-      <c r="F122" s="57"/>
-      <c r="G122" s="55">
+      <c r="F122" s="61"/>
+      <c r="G122" s="67">
         <v>10</v>
       </c>
-      <c r="H122" s="56"/>
+      <c r="H122" s="68"/>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C123" s="18">
@@ -14827,14 +14827,14 @@
       <c r="D123" s="19">
         <v>0.221</v>
       </c>
-      <c r="E123" s="57">
+      <c r="E123" s="61">
         <v>19372</v>
       </c>
-      <c r="F123" s="57"/>
-      <c r="G123" s="55">
+      <c r="F123" s="61"/>
+      <c r="G123" s="67">
         <v>10</v>
       </c>
-      <c r="H123" s="56"/>
+      <c r="H123" s="68"/>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C124" s="18">
@@ -14843,14 +14843,14 @@
       <c r="D124" s="19">
         <v>0.216</v>
       </c>
-      <c r="E124" s="57">
+      <c r="E124" s="61">
         <v>18939</v>
       </c>
-      <c r="F124" s="57"/>
-      <c r="G124" s="55">
+      <c r="F124" s="61"/>
+      <c r="G124" s="67">
         <v>10</v>
       </c>
-      <c r="H124" s="56"/>
+      <c r="H124" s="68"/>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C125" s="18">
@@ -14859,14 +14859,14 @@
       <c r="D125" s="19">
         <v>0.23</v>
       </c>
-      <c r="E125" s="57">
+      <c r="E125" s="61">
         <v>20382</v>
       </c>
-      <c r="F125" s="57"/>
-      <c r="G125" s="55">
+      <c r="F125" s="61"/>
+      <c r="G125" s="67">
         <v>10.1</v>
       </c>
-      <c r="H125" s="56"/>
+      <c r="H125" s="68"/>
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C126" s="18">
@@ -14875,14 +14875,14 @@
       <c r="D126" s="19">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E126" s="57">
+      <c r="E126" s="61">
         <v>19968</v>
       </c>
-      <c r="F126" s="57"/>
-      <c r="G126" s="55">
+      <c r="F126" s="61"/>
+      <c r="G126" s="67">
         <v>10.1</v>
       </c>
-      <c r="H126" s="56"/>
+      <c r="H126" s="68"/>
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C127" s="18">
@@ -14891,14 +14891,14 @@
       <c r="D127" s="19">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E127" s="57">
+      <c r="E127" s="61">
         <v>23240</v>
       </c>
-      <c r="F127" s="57"/>
-      <c r="G127" s="55">
+      <c r="F127" s="61"/>
+      <c r="G127" s="67">
         <v>10</v>
       </c>
-      <c r="H127" s="56"/>
+      <c r="H127" s="68"/>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C128" s="20">
@@ -14907,42 +14907,48 @@
       <c r="D128" s="21">
         <v>0.254</v>
       </c>
-      <c r="E128" s="60">
+      <c r="E128" s="62">
         <v>26709</v>
       </c>
-      <c r="F128" s="60"/>
-      <c r="G128" s="58">
+      <c r="F128" s="62"/>
+      <c r="G128" s="69">
         <v>12</v>
       </c>
-      <c r="H128" s="59"/>
+      <c r="H128" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="BH15:BI15"/>
-    <mergeCell ref="BN15:BO15"/>
-    <mergeCell ref="BF16:BJ16"/>
-    <mergeCell ref="BL16:BP16"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:F107"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="AQ54:AT54"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
     <mergeCell ref="E127:F127"/>
     <mergeCell ref="E128:F128"/>
     <mergeCell ref="G106:H107"/>
@@ -14959,37 +14965,31 @@
     <mergeCell ref="G119:H119"/>
     <mergeCell ref="G120:H120"/>
     <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="AQ54:AT54"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:F107"/>
+    <mergeCell ref="BH15:BI15"/>
+    <mergeCell ref="BN15:BO15"/>
+    <mergeCell ref="BF16:BJ16"/>
+    <mergeCell ref="BL16:BP16"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -54,7 +54,7 @@
     <definedName name="NumUnits">Sheet2!$C$3</definedName>
     <definedName name="NumYears">Sheet2!$C$4</definedName>
     <definedName name="OffHours">Sheet2!$C$7</definedName>
-    <definedName name="OPEX_existing">Sheet2!$AR$57:$AR$76</definedName>
+    <definedName name="OPEX_existing">Sheet2!$AR$57:$AR$100</definedName>
     <definedName name="OPEX_NGCC">Sheet2!$Q$1</definedName>
     <definedName name="OPEX_solar">Sheet2!$Q$2</definedName>
     <definedName name="OPEX_storage">Sheet2!$Q$5</definedName>
@@ -706,9 +706,6 @@
     <t>Retrofit CO2 Removal</t>
   </si>
   <si>
-    <t>OPEX for Existing Generators ($/year)</t>
-  </si>
-  <si>
     <t>Peak Peak Demand Winter (MW)</t>
   </si>
   <si>
@@ -731,6 +728,9 @@
   </si>
   <si>
     <t>Fall Peak Peak Demand in Bus (MW)</t>
+  </si>
+  <si>
+    <t>OPEX for Existing Generators ($/MWh)</t>
   </si>
 </sst>
 </file>
@@ -915,7 +915,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1035,10 +1035,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1050,47 +1092,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1376,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CN128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE60" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AR57" sqref="AR57:AR76"/>
+    <sheetView tabSelected="1" topLeftCell="AE73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AV87" sqref="AV87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1416,18 +1419,18 @@
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="53"/>
+      <c r="F1" s="55"/>
       <c r="G1" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
       <c r="L1" s="15">
         <v>7256200.8565999996</v>
       </c>
@@ -1438,11 +1441,11 @@
       <c r="Q1" s="24">
         <v>0</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
       <c r="V1" s="24">
         <v>8809340386.1000004</v>
       </c>
@@ -1454,14 +1457,14 @@
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
       <c r="G2" s="25"/>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="23">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
@@ -1473,11 +1476,11 @@
       <c r="Q2" s="24">
         <v>19867.2</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="S2" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
       <c r="V2" s="27">
         <v>348494.96600000001</v>
       </c>
@@ -1495,11 +1498,11 @@
       <c r="F3" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -1510,11 +1513,11 @@
       <c r="Q3" s="24">
         <v>43560</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
       <c r="V3" s="28">
         <v>2066077.2990000001</v>
       </c>
@@ -1523,7 +1526,7 @@
       </c>
       <c r="BS3" s="13"/>
       <c r="BU3" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BV3" s="6">
         <v>6189</v>
@@ -1543,11 +1546,11 @@
       <c r="G4" s="6">
         <v>4198</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="15">
         <v>0.75</v>
       </c>
@@ -1558,11 +1561,11 @@
       <c r="Q4" s="24">
         <v>601000</v>
       </c>
-      <c r="S4" s="53" t="s">
+      <c r="S4" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
       <c r="V4" s="27">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
@@ -1581,11 +1584,11 @@
       <c r="G5" s="6">
         <v>3726</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="15">
         <v>1</v>
       </c>
@@ -1596,11 +1599,11 @@
       <c r="Q5" s="24">
         <v>15025</v>
       </c>
-      <c r="S5" s="53" t="s">
+      <c r="S5" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
       <c r="V5" s="27">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
@@ -1609,7 +1612,7 @@
         <v>99</v>
       </c>
       <c r="BU5" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BV5" s="6">
         <v>6951</v>
@@ -1622,11 +1625,11 @@
       <c r="G6" s="6">
         <v>4765</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="15">
         <v>1</v>
       </c>
@@ -1637,11 +1640,11 @@
       <c r="Q6" s="26">
         <v>0.95</v>
       </c>
-      <c r="S6" s="53" t="s">
+      <c r="S6" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
       <c r="V6" s="27">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
@@ -1666,11 +1669,11 @@
       <c r="Q7" s="26">
         <v>50</v>
       </c>
-      <c r="S7" s="53" t="s">
+      <c r="S7" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
       <c r="V7" s="27">
         <f>V4*V6</f>
         <v>29903074042.27026</v>
@@ -1679,7 +1682,7 @@
         <v>93</v>
       </c>
       <c r="BU7" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BV7" s="6">
         <v>7618</v>
@@ -1692,11 +1695,11 @@
       <c r="G8" s="6">
         <v>5974</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="49">
         <v>15.24</v>
       </c>
@@ -1707,11 +1710,11 @@
       <c r="Q8" s="26">
         <v>10</v>
       </c>
-      <c r="S8" s="53" t="s">
+      <c r="S8" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
       <c r="V8" s="27">
         <f>V5*V6</f>
         <v>5911072775.7976093</v>
@@ -1729,11 +1732,11 @@
       <c r="G9" s="6">
         <v>5009</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="49">
         <v>9.83</v>
       </c>
@@ -1749,7 +1752,7 @@
       <c r="U9" s="33"/>
       <c r="V9" s="25"/>
       <c r="BU9" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BV9" s="6">
         <v>6653</v>
@@ -1762,11 +1765,11 @@
       <c r="G10" s="6">
         <v>4359</v>
       </c>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="27">
         <v>0.73499999999999999</v>
       </c>
@@ -1791,11 +1794,11 @@
       <c r="G11" s="6">
         <v>3780</v>
       </c>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="27">
         <v>0.65249999999999997</v>
       </c>
@@ -1815,11 +1818,11 @@
       <c r="F12" s="36"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="27">
         <v>0.81</v>
       </c>
@@ -1927,17 +1930,17 @@
         <f>92*8</f>
         <v>736</v>
       </c>
-      <c r="BH15" s="53" t="s">
+      <c r="BH15" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="BI15" s="53"/>
+      <c r="BI15" s="55"/>
       <c r="BJ15" s="48">
         <v>16054000</v>
       </c>
-      <c r="BN15" s="53" t="s">
+      <c r="BN15" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="BO15" s="53"/>
+      <c r="BO15" s="55"/>
       <c r="BP15" s="48">
         <v>10000000</v>
       </c>
@@ -2006,37 +2009,37 @@
       </c>
       <c r="BC16" s="33"/>
       <c r="BD16" s="34"/>
-      <c r="BF16" s="53" t="s">
+      <c r="BF16" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="BG16" s="53"/>
-      <c r="BH16" s="53"/>
-      <c r="BI16" s="53"/>
-      <c r="BJ16" s="53"/>
-      <c r="BL16" s="53" t="s">
+      <c r="BG16" s="55"/>
+      <c r="BH16" s="55"/>
+      <c r="BI16" s="55"/>
+      <c r="BJ16" s="55"/>
+      <c r="BL16" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="BM16" s="53"/>
-      <c r="BN16" s="53"/>
-      <c r="BO16" s="53"/>
-      <c r="BP16" s="53"/>
+      <c r="BM16" s="55"/>
+      <c r="BN16" s="55"/>
+      <c r="BO16" s="55"/>
+      <c r="BP16" s="55"/>
       <c r="BT16" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BU16" s="51"/>
       <c r="BV16" s="52"/>
       <c r="BZ16" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="CA16" s="51"/>
       <c r="CB16" s="52"/>
       <c r="CF16" s="51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="CG16" s="51"/>
       <c r="CH16" s="52"/>
       <c r="CL16" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="CM16" s="51"/>
       <c r="CN16" s="52"/>
@@ -9832,17 +9835,17 @@
       </c>
     </row>
     <row r="47" spans="2:92" x14ac:dyDescent="0.35">
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
       <c r="F47" s="2"/>
-      <c r="H47" s="55" t="s">
+      <c r="H47" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
       <c r="O47" s="4"/>
@@ -10077,19 +10080,19 @@
       <c r="AO54" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AQ54" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR54" s="71"/>
-      <c r="AS54" s="71"/>
-      <c r="AT54" s="71"/>
+      <c r="AQ54" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR54" s="54"/>
+      <c r="AS54" s="54"/>
+      <c r="AT54" s="54"/>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
       <c r="G55" s="38" t="s">
         <v>132</v>
       </c>
@@ -10280,7 +10283,9 @@
       <c r="AQ57" s="50">
         <v>1</v>
       </c>
-      <c r="AR57" s="27"/>
+      <c r="AR57" s="27">
+        <v>5.08</v>
+      </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
@@ -10381,7 +10386,9 @@
       <c r="AQ58" s="50">
         <v>2</v>
       </c>
-      <c r="AR58" s="27"/>
+      <c r="AR58" s="27">
+        <v>5.08</v>
+      </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
@@ -10482,7 +10489,9 @@
       <c r="AQ59" s="50">
         <v>3</v>
       </c>
-      <c r="AR59" s="27"/>
+      <c r="AR59" s="27">
+        <v>5.08</v>
+      </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
@@ -10583,7 +10592,9 @@
       <c r="AQ60" s="50">
         <v>4</v>
       </c>
-      <c r="AR60" s="27"/>
+      <c r="AR60" s="27">
+        <v>5.08</v>
+      </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
@@ -10684,7 +10695,9 @@
       <c r="AQ61" s="50">
         <v>5</v>
       </c>
-      <c r="AR61" s="27"/>
+      <c r="AR61" s="27">
+        <v>5.08</v>
+      </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
@@ -10785,7 +10798,9 @@
       <c r="AQ62" s="50">
         <v>6</v>
       </c>
-      <c r="AR62" s="27"/>
+      <c r="AR62" s="27">
+        <v>5.36</v>
+      </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
@@ -10886,7 +10901,9 @@
       <c r="AQ63" s="50">
         <v>7</v>
       </c>
-      <c r="AR63" s="27"/>
+      <c r="AR63" s="27">
+        <v>5.36</v>
+      </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
@@ -10987,7 +11004,9 @@
       <c r="AQ64" s="50">
         <v>8</v>
       </c>
-      <c r="AR64" s="27"/>
+      <c r="AR64" s="27">
+        <v>5.36</v>
+      </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
@@ -11088,7 +11107,9 @@
       <c r="AQ65" s="50">
         <v>9</v>
       </c>
-      <c r="AR65" s="27"/>
+      <c r="AR65" s="27">
+        <v>5.36</v>
+      </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
@@ -11189,7 +11210,9 @@
       <c r="AQ66" s="50">
         <v>10</v>
       </c>
-      <c r="AR66" s="27"/>
+      <c r="AR66" s="27">
+        <v>5.36</v>
+      </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
@@ -11290,7 +11313,9 @@
       <c r="AQ67" s="50">
         <v>11</v>
       </c>
-      <c r="AR67" s="27"/>
+      <c r="AR67" s="27">
+        <v>5.36</v>
+      </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
@@ -11391,7 +11416,9 @@
       <c r="AQ68" s="50">
         <v>12</v>
       </c>
-      <c r="AR68" s="27"/>
+      <c r="AR68" s="27">
+        <v>5.36</v>
+      </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
@@ -11492,7 +11519,9 @@
       <c r="AQ69" s="50">
         <v>13</v>
       </c>
-      <c r="AR69" s="27"/>
+      <c r="AR69" s="27">
+        <v>5.36</v>
+      </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
@@ -11593,7 +11622,9 @@
       <c r="AQ70" s="50">
         <v>14</v>
       </c>
-      <c r="AR70" s="27"/>
+      <c r="AR70" s="27">
+        <v>6.49</v>
+      </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
@@ -11694,7 +11725,9 @@
       <c r="AQ71" s="50">
         <v>15</v>
       </c>
-      <c r="AR71" s="27"/>
+      <c r="AR71" s="27">
+        <v>8.98</v>
+      </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
@@ -11795,7 +11828,9 @@
       <c r="AQ72" s="50">
         <v>16</v>
       </c>
-      <c r="AR72" s="27"/>
+      <c r="AR72" s="27">
+        <v>8.98</v>
+      </c>
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
@@ -11896,7 +11931,9 @@
       <c r="AQ73" s="50">
         <v>17</v>
       </c>
-      <c r="AR73" s="27"/>
+      <c r="AR73" s="27">
+        <v>8.98</v>
+      </c>
     </row>
     <row r="74" spans="1:44" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
@@ -11997,7 +12034,9 @@
       <c r="AQ74" s="50">
         <v>18</v>
       </c>
-      <c r="AR74" s="27"/>
+      <c r="AR74" s="27">
+        <v>8.98</v>
+      </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
@@ -12098,7 +12137,9 @@
       <c r="AQ75" s="50">
         <v>19</v>
       </c>
-      <c r="AR75" s="27"/>
+      <c r="AR75" s="27">
+        <v>8.98</v>
+      </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
@@ -12199,7 +12240,9 @@
       <c r="AQ76" s="50">
         <v>20</v>
       </c>
-      <c r="AR76" s="27"/>
+      <c r="AR76" s="27">
+        <v>8.98</v>
+      </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
@@ -12301,6 +12344,12 @@
       <c r="AO77" s="6">
         <v>0</v>
       </c>
+      <c r="AQ77" s="53">
+        <v>21</v>
+      </c>
+      <c r="AR77" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
@@ -12402,6 +12451,12 @@
       <c r="AO78" s="6">
         <v>0</v>
       </c>
+      <c r="AQ78" s="53">
+        <v>22</v>
+      </c>
+      <c r="AR78" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
@@ -12503,6 +12558,12 @@
       <c r="AO79" s="6">
         <v>0</v>
       </c>
+      <c r="AQ79" s="53">
+        <v>23</v>
+      </c>
+      <c r="AR79" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
@@ -12604,8 +12665,14 @@
       <c r="AO80" s="6">
         <v>0</v>
       </c>
+      <c r="AQ80" s="53">
+        <v>24</v>
+      </c>
+      <c r="AR80" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>40</v>
       </c>
@@ -12705,8 +12772,14 @@
       <c r="AO81" s="6">
         <v>0</v>
       </c>
+      <c r="AQ81" s="53">
+        <v>25</v>
+      </c>
+      <c r="AR81" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -12806,8 +12879,14 @@
       <c r="AO82" s="6">
         <v>0</v>
       </c>
+      <c r="AQ82" s="53">
+        <v>26</v>
+      </c>
+      <c r="AR82" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>42</v>
       </c>
@@ -12907,8 +12986,14 @@
       <c r="AO83" s="6">
         <v>0</v>
       </c>
+      <c r="AQ83" s="53">
+        <v>27</v>
+      </c>
+      <c r="AR83" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>43</v>
       </c>
@@ -13008,8 +13093,14 @@
       <c r="AO84" s="6">
         <v>0</v>
       </c>
+      <c r="AQ84" s="53">
+        <v>28</v>
+      </c>
+      <c r="AR84" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>44</v>
       </c>
@@ -13109,8 +13200,14 @@
       <c r="AO85" s="6">
         <v>0</v>
       </c>
+      <c r="AQ85" s="53">
+        <v>29</v>
+      </c>
+      <c r="AR85" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>45</v>
       </c>
@@ -13210,8 +13307,14 @@
       <c r="AO86" s="6">
         <v>0</v>
       </c>
+      <c r="AQ86" s="53">
+        <v>30</v>
+      </c>
+      <c r="AR86" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>46</v>
       </c>
@@ -13311,8 +13414,14 @@
       <c r="AO87" s="6">
         <v>0</v>
       </c>
+      <c r="AQ87" s="53">
+        <v>31</v>
+      </c>
+      <c r="AR87" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -13412,8 +13521,14 @@
       <c r="AO88" s="6">
         <v>0</v>
       </c>
+      <c r="AQ88" s="53">
+        <v>32</v>
+      </c>
+      <c r="AR88" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -13513,8 +13628,14 @@
       <c r="AO89" s="6">
         <v>0</v>
       </c>
+      <c r="AQ89" s="53">
+        <v>33</v>
+      </c>
+      <c r="AR89" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -13614,8 +13735,14 @@
       <c r="AO90" s="6">
         <v>0</v>
       </c>
+      <c r="AQ90" s="53">
+        <v>34</v>
+      </c>
+      <c r="AR90" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>50</v>
       </c>
@@ -13715,8 +13842,14 @@
       <c r="AO91" s="6">
         <v>0</v>
       </c>
+      <c r="AQ91" s="53">
+        <v>35</v>
+      </c>
+      <c r="AR91" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>51</v>
       </c>
@@ -13816,8 +13949,14 @@
       <c r="AO92" s="6">
         <v>0</v>
       </c>
+      <c r="AQ92" s="53">
+        <v>36</v>
+      </c>
+      <c r="AR92" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>52</v>
       </c>
@@ -13917,8 +14056,14 @@
       <c r="AO93" s="6">
         <v>0</v>
       </c>
+      <c r="AQ93" s="53">
+        <v>37</v>
+      </c>
+      <c r="AR93" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>53</v>
       </c>
@@ -14018,8 +14163,14 @@
       <c r="AO94" s="6">
         <v>0</v>
       </c>
+      <c r="AQ94" s="53">
+        <v>38</v>
+      </c>
+      <c r="AR94" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>54</v>
       </c>
@@ -14119,8 +14270,14 @@
       <c r="AO95" s="6">
         <v>0</v>
       </c>
+      <c r="AQ95" s="53">
+        <v>39</v>
+      </c>
+      <c r="AR95" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>55</v>
       </c>
@@ -14220,8 +14377,14 @@
       <c r="AO96" s="6">
         <v>0</v>
       </c>
+      <c r="AQ96" s="53">
+        <v>40</v>
+      </c>
+      <c r="AR96" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>81</v>
       </c>
@@ -14316,8 +14479,14 @@
       <c r="AO97" s="6">
         <v>0</v>
       </c>
+      <c r="AQ97" s="53">
+        <v>41</v>
+      </c>
+      <c r="AR97" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>82</v>
       </c>
@@ -14412,8 +14581,14 @@
       <c r="AO98" s="6">
         <v>0</v>
       </c>
+      <c r="AQ98" s="53">
+        <v>42</v>
+      </c>
+      <c r="AR98" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -14508,8 +14683,14 @@
       <c r="AO99" s="6">
         <v>0</v>
       </c>
+      <c r="AQ99" s="53">
+        <v>43</v>
+      </c>
+      <c r="AR99" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>143</v>
       </c>
@@ -14567,16 +14748,22 @@
       <c r="AM100" s="6"/>
       <c r="AN100" s="6"/>
       <c r="AO100" s="6"/>
+      <c r="AQ100" s="53">
+        <v>44</v>
+      </c>
+      <c r="AR100" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D106" s="56" t="s">
+    <row r="106" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="D106" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="E106" s="58" t="s">
+      <c r="E106" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="F106" s="58"/>
-      <c r="G106" s="58" t="s">
+      <c r="F106" s="62"/>
+      <c r="G106" s="62" t="s">
         <v>77</v>
       </c>
       <c r="H106" s="63"/>
@@ -14584,81 +14771,81 @@
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="D107" s="57"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="64"/>
+    <row r="107" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="D107" s="71"/>
+      <c r="E107" s="64"/>
+      <c r="F107" s="64"/>
+      <c r="G107" s="64"/>
+      <c r="H107" s="65"/>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.35">
       <c r="C109" s="16">
         <v>21</v>
       </c>
       <c r="D109" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E109" s="60">
+      <c r="E109" s="68">
         <v>72154</v>
       </c>
-      <c r="F109" s="60"/>
-      <c r="G109" s="65">
+      <c r="F109" s="68"/>
+      <c r="G109" s="66">
         <v>28.1</v>
       </c>
-      <c r="H109" s="66"/>
+      <c r="H109" s="67"/>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.35">
       <c r="C110" s="18">
         <v>22</v>
       </c>
       <c r="D110" s="19">
         <v>0.31</v>
       </c>
-      <c r="E110" s="61">
+      <c r="E110" s="58">
         <v>67811</v>
       </c>
-      <c r="F110" s="61"/>
-      <c r="G110" s="67">
+      <c r="F110" s="58"/>
+      <c r="G110" s="56">
         <v>25</v>
       </c>
-      <c r="H110" s="68"/>
+      <c r="H110" s="57"/>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.35">
       <c r="C111" s="18">
         <v>23</v>
       </c>
       <c r="D111" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E111" s="61">
+      <c r="E111" s="58">
         <v>187455</v>
       </c>
-      <c r="F111" s="61"/>
-      <c r="G111" s="67">
+      <c r="F111" s="58"/>
+      <c r="G111" s="56">
         <v>70</v>
       </c>
-      <c r="H111" s="68"/>
+      <c r="H111" s="57"/>
     </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.35">
       <c r="C112" s="18">
         <v>24</v>
       </c>
       <c r="D112" s="19">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E112" s="61">
+      <c r="E112" s="58">
         <v>63266</v>
       </c>
-      <c r="F112" s="61"/>
-      <c r="G112" s="67">
+      <c r="F112" s="58"/>
+      <c r="G112" s="56">
         <v>30.6</v>
       </c>
-      <c r="H112" s="68"/>
+      <c r="H112" s="57"/>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" s="18">
@@ -14667,14 +14854,14 @@
       <c r="D113" s="19">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E113" s="61">
+      <c r="E113" s="58">
         <v>26553</v>
       </c>
-      <c r="F113" s="61"/>
-      <c r="G113" s="67">
+      <c r="F113" s="58"/>
+      <c r="G113" s="56">
         <v>10</v>
       </c>
-      <c r="H113" s="68"/>
+      <c r="H113" s="57"/>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" s="18">
@@ -14683,14 +14870,14 @@
       <c r="D114" s="19">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E114" s="61">
+      <c r="E114" s="58">
         <v>24949</v>
       </c>
-      <c r="F114" s="61"/>
-      <c r="G114" s="67">
+      <c r="F114" s="58"/>
+      <c r="G114" s="56">
         <v>10</v>
       </c>
-      <c r="H114" s="68"/>
+      <c r="H114" s="57"/>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" s="18">
@@ -14699,14 +14886,14 @@
       <c r="D115" s="19">
         <v>0.26100000000000001</v>
       </c>
-      <c r="E115" s="61">
+      <c r="E115" s="58">
         <v>22870</v>
       </c>
-      <c r="F115" s="61"/>
-      <c r="G115" s="67">
+      <c r="F115" s="58"/>
+      <c r="G115" s="56">
         <v>10</v>
       </c>
-      <c r="H115" s="68"/>
+      <c r="H115" s="57"/>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C116" s="18">
@@ -14715,14 +14902,14 @@
       <c r="D116" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E116" s="61">
+      <c r="E116" s="58">
         <v>139836</v>
       </c>
-      <c r="F116" s="61"/>
-      <c r="G116" s="67">
+      <c r="F116" s="58"/>
+      <c r="G116" s="56">
         <v>52.2</v>
       </c>
-      <c r="H116" s="68"/>
+      <c r="H116" s="57"/>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C117" s="18">
@@ -14731,14 +14918,14 @@
       <c r="D117" s="19">
         <v>0.26800000000000002</v>
       </c>
-      <c r="E117" s="61">
+      <c r="E117" s="58">
         <v>23515</v>
       </c>
-      <c r="F117" s="61"/>
-      <c r="G117" s="67">
+      <c r="F117" s="58"/>
+      <c r="G117" s="56">
         <v>10</v>
       </c>
-      <c r="H117" s="68"/>
+      <c r="H117" s="57"/>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C118" s="18">
@@ -14747,14 +14934,14 @@
       <c r="D118" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E118" s="61">
+      <c r="E118" s="58">
         <v>49503</v>
       </c>
-      <c r="F118" s="61"/>
-      <c r="G118" s="67">
+      <c r="F118" s="58"/>
+      <c r="G118" s="56">
         <v>20.2</v>
       </c>
-      <c r="H118" s="68"/>
+      <c r="H118" s="57"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C119" s="18">
@@ -14763,14 +14950,14 @@
       <c r="D119" s="19">
         <v>0.307</v>
       </c>
-      <c r="E119" s="61">
+      <c r="E119" s="58">
         <v>188420</v>
       </c>
-      <c r="F119" s="61"/>
-      <c r="G119" s="67">
+      <c r="F119" s="58"/>
+      <c r="G119" s="56">
         <v>70</v>
       </c>
-      <c r="H119" s="68"/>
+      <c r="H119" s="57"/>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C120" s="18">
@@ -14779,14 +14966,14 @@
       <c r="D120" s="19">
         <v>0.28899999999999998</v>
       </c>
-      <c r="E120" s="61">
+      <c r="E120" s="58">
         <v>26573</v>
       </c>
-      <c r="F120" s="61"/>
-      <c r="G120" s="67">
+      <c r="F120" s="58"/>
+      <c r="G120" s="56">
         <v>10.5</v>
       </c>
-      <c r="H120" s="68"/>
+      <c r="H120" s="57"/>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C121" s="18">
@@ -14795,14 +14982,14 @@
       <c r="D121" s="19">
         <v>0.28799999999999998</v>
       </c>
-      <c r="E121" s="61">
+      <c r="E121" s="58">
         <v>25253</v>
       </c>
-      <c r="F121" s="61"/>
-      <c r="G121" s="67">
+      <c r="F121" s="58"/>
+      <c r="G121" s="56">
         <v>10</v>
       </c>
-      <c r="H121" s="68"/>
+      <c r="H121" s="57"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C122" s="18">
@@ -14811,14 +14998,14 @@
       <c r="D122" s="19">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E122" s="61">
+      <c r="E122" s="58">
         <v>17610</v>
       </c>
-      <c r="F122" s="61"/>
-      <c r="G122" s="67">
+      <c r="F122" s="58"/>
+      <c r="G122" s="56">
         <v>10</v>
       </c>
-      <c r="H122" s="68"/>
+      <c r="H122" s="57"/>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C123" s="18">
@@ -14827,14 +15014,14 @@
       <c r="D123" s="19">
         <v>0.221</v>
       </c>
-      <c r="E123" s="61">
+      <c r="E123" s="58">
         <v>19372</v>
       </c>
-      <c r="F123" s="61"/>
-      <c r="G123" s="67">
+      <c r="F123" s="58"/>
+      <c r="G123" s="56">
         <v>10</v>
       </c>
-      <c r="H123" s="68"/>
+      <c r="H123" s="57"/>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C124" s="18">
@@ -14843,14 +15030,14 @@
       <c r="D124" s="19">
         <v>0.216</v>
       </c>
-      <c r="E124" s="61">
+      <c r="E124" s="58">
         <v>18939</v>
       </c>
-      <c r="F124" s="61"/>
-      <c r="G124" s="67">
+      <c r="F124" s="58"/>
+      <c r="G124" s="56">
         <v>10</v>
       </c>
-      <c r="H124" s="68"/>
+      <c r="H124" s="57"/>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C125" s="18">
@@ -14859,14 +15046,14 @@
       <c r="D125" s="19">
         <v>0.23</v>
       </c>
-      <c r="E125" s="61">
+      <c r="E125" s="58">
         <v>20382</v>
       </c>
-      <c r="F125" s="61"/>
-      <c r="G125" s="67">
+      <c r="F125" s="58"/>
+      <c r="G125" s="56">
         <v>10.1</v>
       </c>
-      <c r="H125" s="68"/>
+      <c r="H125" s="57"/>
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C126" s="18">
@@ -14875,14 +15062,14 @@
       <c r="D126" s="19">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E126" s="61">
+      <c r="E126" s="58">
         <v>19968</v>
       </c>
-      <c r="F126" s="61"/>
-      <c r="G126" s="67">
+      <c r="F126" s="58"/>
+      <c r="G126" s="56">
         <v>10.1</v>
       </c>
-      <c r="H126" s="68"/>
+      <c r="H126" s="57"/>
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C127" s="18">
@@ -14891,14 +15078,14 @@
       <c r="D127" s="19">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E127" s="61">
+      <c r="E127" s="58">
         <v>23240</v>
       </c>
-      <c r="F127" s="61"/>
-      <c r="G127" s="67">
+      <c r="F127" s="58"/>
+      <c r="G127" s="56">
         <v>10</v>
       </c>
-      <c r="H127" s="68"/>
+      <c r="H127" s="57"/>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C128" s="20">
@@ -14907,25 +15094,65 @@
       <c r="D128" s="21">
         <v>0.254</v>
       </c>
-      <c r="E128" s="62">
+      <c r="E128" s="61">
         <v>26709</v>
       </c>
-      <c r="F128" s="62"/>
-      <c r="G128" s="69">
+      <c r="F128" s="61"/>
+      <c r="G128" s="59">
         <v>12</v>
       </c>
-      <c r="H128" s="70"/>
+      <c r="H128" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="AQ54:AT54"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="BH15:BI15"/>
+    <mergeCell ref="BN15:BO15"/>
+    <mergeCell ref="BF16:BJ16"/>
+    <mergeCell ref="BL16:BP16"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:F107"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G106:H107"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="E1:F1"/>
@@ -14942,54 +15169,14 @@
     <mergeCell ref="E116:F116"/>
     <mergeCell ref="E124:F124"/>
     <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G106:H107"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:F107"/>
-    <mergeCell ref="BH15:BI15"/>
-    <mergeCell ref="BN15:BO15"/>
-    <mergeCell ref="BF16:BJ16"/>
-    <mergeCell ref="BL16:BP16"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="AQ54:AT54"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/717A11_data_in.xlsx
+++ b/717A11_data_in.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/rcuppari_ad_unc_edu/Documents/Classes/Spring 2020/ENVR 717/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcuppari\OneDrive - University of North Carolina at Chapel Hill\Classes\Spring 2020\ENVR 717\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -945,7 +945,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1068,37 +1068,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1110,23 +1116,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1412,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BY15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="CS17" sqref="CS17"/>
+    <sheetView tabSelected="1" topLeftCell="AP15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="CH45" sqref="CH45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1452,18 +1455,18 @@
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="55"/>
+      <c r="F1" s="56"/>
       <c r="G1" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
       <c r="L1" s="15">
         <v>7256200.8565999996</v>
       </c>
@@ -1474,11 +1477,11 @@
       <c r="Q1" s="24">
         <v>0</v>
       </c>
-      <c r="S1" s="55" t="s">
+      <c r="S1" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
       <c r="V1" s="24">
         <v>8809340386.1000004</v>
       </c>
@@ -1490,14 +1493,14 @@
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="25"/>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="23">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
@@ -1509,11 +1512,11 @@
       <c r="Q2" s="24">
         <v>19867.2</v>
       </c>
-      <c r="S2" s="55" t="s">
+      <c r="S2" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
       <c r="V2" s="27">
         <v>348494.96600000001</v>
       </c>
@@ -1531,11 +1534,11 @@
       <c r="F3" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
       <c r="L3" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -1546,11 +1549,11 @@
       <c r="Q3" s="24">
         <v>43560</v>
       </c>
-      <c r="S3" s="55" t="s">
+      <c r="S3" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
       <c r="V3" s="28">
         <v>2066077.2990000001</v>
       </c>
@@ -1579,11 +1582,11 @@
       <c r="G4" s="6">
         <v>4198</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
       <c r="L4" s="15">
         <v>0.75</v>
       </c>
@@ -1594,11 +1597,11 @@
       <c r="Q4" s="24">
         <v>601000</v>
       </c>
-      <c r="S4" s="55" t="s">
+      <c r="S4" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
       <c r="V4" s="27">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
@@ -1617,11 +1620,11 @@
       <c r="G5" s="6">
         <v>3726</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
       <c r="L5" s="15">
         <v>1</v>
       </c>
@@ -1632,11 +1635,11 @@
       <c r="Q5" s="24">
         <v>15025</v>
       </c>
-      <c r="S5" s="55" t="s">
+      <c r="S5" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
       <c r="V5" s="27">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
@@ -1658,11 +1661,11 @@
       <c r="G6" s="6">
         <v>4765</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="15">
         <v>1</v>
       </c>
@@ -1673,11 +1676,11 @@
       <c r="Q6" s="26">
         <v>0.95</v>
       </c>
-      <c r="S6" s="55" t="s">
+      <c r="S6" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
       <c r="V6" s="27">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
@@ -1702,11 +1705,11 @@
       <c r="Q7" s="26">
         <v>50</v>
       </c>
-      <c r="S7" s="55" t="s">
+      <c r="S7" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
       <c r="V7" s="27">
         <f>V4*V6</f>
         <v>29903074042.27026</v>
@@ -1728,11 +1731,11 @@
       <c r="G8" s="6">
         <v>5974</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
       <c r="L8" s="49">
         <v>15.24</v>
       </c>
@@ -1743,11 +1746,11 @@
       <c r="Q8" s="26">
         <v>10</v>
       </c>
-      <c r="S8" s="55" t="s">
+      <c r="S8" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
       <c r="V8" s="27">
         <f>V5*V6</f>
         <v>5911072775.7976093</v>
@@ -1765,11 +1768,11 @@
       <c r="G9" s="6">
         <v>5009</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="49">
         <v>9.83</v>
       </c>
@@ -1798,11 +1801,11 @@
       <c r="G10" s="6">
         <v>4359</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="27">
         <v>0.73499999999999999</v>
       </c>
@@ -1827,11 +1830,11 @@
       <c r="G11" s="6">
         <v>3780</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="27">
         <v>0.65249999999999997</v>
       </c>
@@ -1851,11 +1854,11 @@
       <c r="F12" s="36"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="72" t="s">
+      <c r="I12" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
       <c r="L12" s="27">
         <v>0.81</v>
       </c>
@@ -1963,17 +1966,17 @@
         <f>92*8</f>
         <v>736</v>
       </c>
-      <c r="BH15" s="55" t="s">
+      <c r="BH15" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="BI15" s="55"/>
+      <c r="BI15" s="56"/>
       <c r="BJ15" s="48">
         <v>16054000</v>
       </c>
-      <c r="BN15" s="55" t="s">
+      <c r="BN15" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="BO15" s="55"/>
+      <c r="BO15" s="56"/>
       <c r="BP15" s="48">
         <v>10000000</v>
       </c>
@@ -2042,20 +2045,20 @@
       </c>
       <c r="BC16" s="33"/>
       <c r="BD16" s="34"/>
-      <c r="BF16" s="55" t="s">
+      <c r="BF16" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="BG16" s="55"/>
-      <c r="BH16" s="55"/>
-      <c r="BI16" s="55"/>
-      <c r="BJ16" s="55"/>
-      <c r="BL16" s="55" t="s">
+      <c r="BG16" s="56"/>
+      <c r="BH16" s="56"/>
+      <c r="BI16" s="56"/>
+      <c r="BJ16" s="56"/>
+      <c r="BL16" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="BM16" s="55"/>
-      <c r="BN16" s="55"/>
-      <c r="BO16" s="55"/>
-      <c r="BP16" s="55"/>
+      <c r="BM16" s="56"/>
+      <c r="BN16" s="56"/>
+      <c r="BO16" s="56"/>
+      <c r="BP16" s="56"/>
       <c r="BT16" s="51" t="s">
         <v>169</v>
       </c>
@@ -2674,7 +2677,7 @@
         <f>BV9</f>
         <v>6653</v>
       </c>
-      <c r="CS18" s="73">
+      <c r="CS18" s="55">
         <v>76.592300230000006</v>
       </c>
     </row>
@@ -2792,95 +2795,95 @@
         <v>4239.6346004999996</v>
       </c>
       <c r="AG19" s="12">
-        <f>AG18*(1+$L$3)</f>
+        <f t="shared" ref="AG19:AG43" si="19">AG18*(1+$L$3)</f>
         <v>4086.4499999999994</v>
       </c>
       <c r="AH19" s="4">
         <v>2021</v>
       </c>
       <c r="AI19" s="46">
-        <f t="shared" ref="AI19:AI43" si="19">0.15*AL19</f>
+        <f t="shared" ref="AI19:AI43" si="20">0.15*AL19</f>
         <v>927.14259007499982</v>
       </c>
       <c r="AJ19" s="46">
-        <f t="shared" ref="AJ19:AJ43" si="20">0.5*AL19</f>
+        <f t="shared" ref="AJ19:AJ43" si="21">0.5*AL19</f>
         <v>3090.4753002499997</v>
       </c>
       <c r="AK19" s="46">
-        <f t="shared" ref="AK19:AK43" si="21">0.35*AL19</f>
+        <f t="shared" ref="AK19:AK43" si="22">0.35*AL19</f>
         <v>2163.3327101749996</v>
       </c>
       <c r="AL19">
-        <f t="shared" ref="AL19:AL43" si="22">AM19+CS19</f>
+        <f t="shared" ref="AL19:AL43" si="23">AM19+CS19</f>
         <v>6180.9506004999994</v>
       </c>
       <c r="AM19" s="12">
-        <f t="shared" ref="AM19:AM43" si="23">AM18*(1+$L$3)</f>
+        <f t="shared" ref="AM19:AM43" si="24">AM18*(1+$L$3)</f>
         <v>6027.7659999999996</v>
       </c>
       <c r="AN19" s="4">
         <v>2021</v>
       </c>
       <c r="AO19" s="46">
-        <f t="shared" ref="AO19:AO43" si="24">0.15*AR19</f>
+        <f t="shared" ref="AO19:AO43" si="25">0.15*AR19</f>
         <v>781.08984007499987</v>
       </c>
       <c r="AP19" s="46">
-        <f t="shared" ref="AP19:AP43" si="25">0.5*AR19</f>
+        <f t="shared" ref="AP19:AP43" si="26">0.5*AR19</f>
         <v>2603.6328002499995</v>
       </c>
       <c r="AQ19" s="46">
-        <f t="shared" ref="AQ19:AQ43" si="26">0.35*AR19</f>
+        <f t="shared" ref="AQ19:AQ43" si="27">0.35*AR19</f>
         <v>1822.5429601749995</v>
       </c>
       <c r="AR19">
-        <f t="shared" ref="AR19:AR43" si="27">AS19+CS19</f>
+        <f t="shared" ref="AR19:AR43" si="28">AS19+CS19</f>
         <v>5207.265600499999</v>
       </c>
       <c r="AS19" s="12">
-        <f>AS18*(1+$L$3)</f>
+        <f t="shared" ref="AS19:AS43" si="29">AS18*(1+$L$3)</f>
         <v>5054.0809999999992</v>
       </c>
       <c r="AT19" s="4">
         <v>2021</v>
       </c>
       <c r="AU19" s="46">
-        <f t="shared" ref="AU19:AU43" si="28">0.15*AX19</f>
+        <f t="shared" ref="AU19:AU43" si="30">0.15*AX19</f>
         <v>682.71234007499993</v>
       </c>
       <c r="AV19" s="46">
-        <f t="shared" ref="AV19:AV43" si="29">0.5*AX19</f>
+        <f t="shared" ref="AV19:AV43" si="31">0.5*AX19</f>
         <v>2275.7078002499998</v>
       </c>
       <c r="AW19" s="46">
-        <f t="shared" ref="AW19:AW43" si="30">0.35*AX19</f>
+        <f t="shared" ref="AW19:AW43" si="32">0.35*AX19</f>
         <v>1592.9954601749998</v>
       </c>
       <c r="AX19">
-        <f t="shared" ref="AX19:AX43" si="31">AY19+CS19</f>
+        <f t="shared" ref="AX19:AX43" si="33">AY19+CS19</f>
         <v>4551.4156004999995</v>
       </c>
       <c r="AY19" s="12">
-        <f t="shared" ref="AY19:AY43" si="32">AY18*(1+$L$3)</f>
+        <f t="shared" ref="AY19:AY43" si="34">AY18*(1+$L$3)</f>
         <v>4398.2309999999998</v>
       </c>
       <c r="AZ19" s="4">
         <v>2021</v>
       </c>
       <c r="BA19" s="46">
-        <f t="shared" ref="BA19:BA43" si="33">0.15*BD19</f>
+        <f t="shared" ref="BA19:BA43" si="35">0.15*BD19</f>
         <v>595.08069007499989</v>
       </c>
       <c r="BB19" s="46">
-        <f t="shared" ref="BB19:BB43" si="34">0.5*BD19</f>
+        <f t="shared" ref="BB19:BB43" si="36">0.5*BD19</f>
         <v>1983.6023002499996</v>
       </c>
       <c r="BC19" s="46">
-        <f t="shared" ref="BC19:BC43" si="35">0.35*BD19</f>
+        <f t="shared" ref="BC19:BC43" si="37">0.35*BD19</f>
         <v>1388.5216101749998</v>
       </c>
       <c r="BD19">
-        <f t="shared" ref="BD19:BD43" si="36">BE19+CS19</f>
+        <f t="shared" ref="BD19:BD43" si="38">BE19+CS19</f>
         <v>3967.2046004999993</v>
       </c>
       <c r="BE19" s="12">
@@ -2891,15 +2894,15 @@
         <v>2021</v>
       </c>
       <c r="BG19" s="25">
-        <f t="shared" ref="BG19:BG43" si="37">0.15*BJ19</f>
+        <f t="shared" ref="BG19:BG43" si="39">0.15*BJ19</f>
         <v>3.4917450000000003</v>
       </c>
       <c r="BH19" s="25">
-        <f t="shared" ref="BH19:BH43" si="38">0.5*BJ19</f>
+        <f t="shared" ref="BH19:BH43" si="40">0.5*BJ19</f>
         <v>11.639150000000001</v>
       </c>
       <c r="BI19" s="25">
-        <f t="shared" ref="BI19:BI43" si="39">0.35*BJ19</f>
+        <f t="shared" ref="BI19:BI43" si="41">0.35*BJ19</f>
         <v>8.1474050000000009</v>
       </c>
       <c r="BJ19" s="27">
@@ -2909,15 +2912,15 @@
         <v>2021</v>
       </c>
       <c r="BM19" s="25">
-        <f t="shared" ref="BM19:BM43" si="40">0.15*BP19</f>
+        <f t="shared" ref="BM19:BM43" si="42">0.15*BP19</f>
         <v>21</v>
       </c>
       <c r="BN19" s="25">
-        <f t="shared" ref="BN19:BN43" si="41">0.5*BP19</f>
+        <f t="shared" ref="BN19:BN43" si="43">0.5*BP19</f>
         <v>70</v>
       </c>
       <c r="BO19" s="25">
-        <f t="shared" ref="BO19:BO43" si="42">0.35*BP19</f>
+        <f t="shared" ref="BO19:BO43" si="44">0.35*BP19</f>
         <v>49</v>
       </c>
       <c r="BP19" s="27">
@@ -2927,19 +2930,19 @@
         <v>2021</v>
       </c>
       <c r="BS19" s="46">
-        <f t="shared" ref="BS19:BS43" si="43">0.15*BV19</f>
+        <f t="shared" ref="BS19:BS43" si="45">0.15*BV19</f>
         <v>959.68284007499983</v>
       </c>
       <c r="BT19" s="46">
-        <f t="shared" ref="BT19:BT43" si="44">0.5*BV19</f>
+        <f t="shared" ref="BT19:BT43" si="46">0.5*BV19</f>
         <v>3198.9428002499994</v>
       </c>
       <c r="BU19" s="46">
-        <f t="shared" ref="BU19:BU43" si="45">0.35*BV19</f>
+        <f t="shared" ref="BU19:BU43" si="47">0.35*BV19</f>
         <v>2239.2599601749994</v>
       </c>
       <c r="BV19" s="53">
-        <f t="shared" ref="BV19:BV43" si="46">BW19+CS19</f>
+        <f t="shared" ref="BV19:BV43" si="48">BW19+CS19</f>
         <v>6397.8856004999989</v>
       </c>
       <c r="BW19" s="12">
@@ -2950,19 +2953,19 @@
         <v>2021</v>
       </c>
       <c r="BY19" s="46">
-        <f t="shared" ref="BY19:BY43" si="47">0.15*CB19</f>
+        <f t="shared" ref="BY19:BY43" si="49">0.15*CB19</f>
         <v>1075.0115400749999</v>
       </c>
       <c r="BZ19" s="46">
-        <f t="shared" ref="BZ19:BZ43" si="48">0.5*CB19</f>
+        <f t="shared" ref="BZ19:BZ43" si="50">0.5*CB19</f>
         <v>3583.3718002499995</v>
       </c>
       <c r="CA19" s="46">
-        <f t="shared" ref="CA19:CA43" si="49">0.35*CB19</f>
+        <f t="shared" ref="CA19:CA43" si="51">0.35*CB19</f>
         <v>2508.3602601749994</v>
       </c>
       <c r="CB19" s="53">
-        <f t="shared" ref="CB19:CB43" si="50">CC19+CS19</f>
+        <f t="shared" ref="CB19:CB43" si="52">CC19+CS19</f>
         <v>7166.743600499999</v>
       </c>
       <c r="CC19" s="12">
@@ -2973,49 +2976,49 @@
         <v>2021</v>
       </c>
       <c r="CE19" s="46">
-        <f t="shared" ref="CE19:CE43" si="51">0.15*CH19</f>
+        <f t="shared" ref="CE19:CE43" si="53">0.15*CH19</f>
         <v>1175.9619900749997</v>
       </c>
       <c r="CF19" s="46">
-        <f t="shared" ref="CF19:CF43" si="52">0.5*CH19</f>
+        <f t="shared" ref="CF19:CF43" si="54">0.5*CH19</f>
         <v>3919.8733002499994</v>
       </c>
       <c r="CG19" s="46">
-        <f t="shared" ref="CG19:CG43" si="53">0.35*CH19</f>
+        <f t="shared" ref="CG19:CG43" si="55">0.35*CH19</f>
         <v>2743.9113101749995</v>
       </c>
-      <c r="CH19" s="53">
-        <f t="shared" ref="CH19:CH43" si="54">CI19+CS19</f>
+      <c r="CH19" s="54">
+        <f t="shared" ref="CH19:CH43" si="56">CI19+CS19</f>
         <v>7839.7466004999987</v>
       </c>
       <c r="CI19" s="12">
-        <f t="shared" ref="CH19:CI43" si="55">CI18*(1+$L$3)</f>
+        <f t="shared" ref="CI19:CI43" si="57">CI18*(1+$L$3)</f>
         <v>7686.561999999999</v>
       </c>
       <c r="CJ19" s="4">
         <v>2021</v>
       </c>
       <c r="CK19" s="46">
-        <f t="shared" ref="CK19:CK43" si="56">0.15*CN19</f>
-        <v>1018.5237946398104</v>
+        <f t="shared" ref="CK19:CK43" si="58">0.15*CN19</f>
+        <v>1029.9092400749998</v>
       </c>
       <c r="CL19" s="46">
-        <f t="shared" ref="CL19:CL43" si="57">0.5*CN19</f>
-        <v>3395.0793154660346</v>
+        <f t="shared" ref="CL19:CL43" si="59">0.5*CN19</f>
+        <v>3433.0308002499996</v>
       </c>
       <c r="CM19" s="46">
-        <f t="shared" ref="CM19:CM43" si="58">0.35*CN19</f>
-        <v>2376.555520826224</v>
-      </c>
-      <c r="CN19" s="12">
-        <f>CN18*(1+$L$3)</f>
-        <v>6790.1586309320692</v>
+        <f t="shared" ref="CM19:CM43" si="60">0.35*CN19</f>
+        <v>2403.1215601749996</v>
+      </c>
+      <c r="CN19" s="54">
+        <f t="shared" ref="CN19:CN43" si="61">CO19+CS19</f>
+        <v>6866.0616004999993</v>
       </c>
       <c r="CO19" s="12">
         <f>CO18*(1+$L$3)</f>
         <v>6712.8769999999995</v>
       </c>
-      <c r="CS19" s="73">
+      <c r="CS19" s="55">
         <v>153.18460049999999</v>
       </c>
     </row>
@@ -3064,7 +3067,7 @@
         <v>4658.2442006044985</v>
       </c>
       <c r="O20" s="12">
-        <f t="shared" ref="O20:O43" si="59">O19*(1+$L$3)</f>
+        <f t="shared" ref="O20:O43" si="62">O19*(1+$L$3)</f>
         <v>4428.4672999044988</v>
       </c>
       <c r="P20" s="4">
@@ -3087,7 +3090,7 @@
         <v>4023.1467066999994</v>
       </c>
       <c r="U20" s="12">
-        <f t="shared" ref="U20:U43" si="60">U19*(1+$L$3)</f>
+        <f t="shared" ref="U20:U43" si="63">U19*(1+$L$3)</f>
         <v>3793.3698059999992</v>
       </c>
       <c r="V20" s="4">
@@ -3133,114 +3136,114 @@
         <v>4353.0049506999985</v>
       </c>
       <c r="AG20" s="12">
-        <f>AG19*(1+$L$3)</f>
+        <f t="shared" si="19"/>
         <v>4123.2280499999988</v>
       </c>
       <c r="AH20" s="4">
         <v>2022</v>
       </c>
       <c r="AI20" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>946.76891920499975</v>
       </c>
       <c r="AJ20" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3155.8963973499995</v>
       </c>
       <c r="AK20" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2209.1274781449993</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6311.7927946999989</v>
       </c>
       <c r="AM20" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6082.0158939999992</v>
       </c>
       <c r="AN20" s="4">
         <v>2022</v>
       </c>
       <c r="AO20" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>799.40169445499976</v>
       </c>
       <c r="AP20" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2664.6723148499991</v>
       </c>
       <c r="AQ20" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1865.2706203949992</v>
       </c>
       <c r="AR20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5329.3446296999982</v>
       </c>
       <c r="AS20" s="12">
-        <f>AS19*(1+$L$3)</f>
+        <f t="shared" si="29"/>
         <v>5099.5677289999985</v>
       </c>
       <c r="AT20" s="4">
         <v>2022</v>
       </c>
       <c r="AU20" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>700.13879695499975</v>
       </c>
       <c r="AV20" s="46">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2333.7959898499994</v>
       </c>
       <c r="AW20" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1633.6571928949995</v>
       </c>
       <c r="AX20">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4667.5919796999988</v>
       </c>
       <c r="AY20" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4437.8150789999991</v>
       </c>
       <c r="AZ20" s="4">
         <v>2022</v>
       </c>
       <c r="BA20" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>611.71846210499984</v>
       </c>
       <c r="BB20" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2039.0615403499996</v>
       </c>
       <c r="BC20" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1427.3430782449996</v>
       </c>
       <c r="BD20">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4078.1230806999993</v>
       </c>
       <c r="BE20" s="12">
-        <f t="shared" ref="BE20:BE43" si="61">BE19*(1+$L$3)</f>
+        <f t="shared" ref="BE20:BE43" si="64">BE19*(1+$L$3)</f>
         <v>3848.3461799999991</v>
       </c>
       <c r="BF20" s="4">
         <v>2022</v>
       </c>
       <c r="BG20" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5.2376174999999998</v>
       </c>
       <c r="BH20" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>17.458725000000001</v>
       </c>
       <c r="BI20" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>12.2211075</v>
       </c>
       <c r="BJ20" s="27">
@@ -3250,15 +3253,15 @@
         <v>2022</v>
       </c>
       <c r="BM20" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>31.5</v>
       </c>
       <c r="BN20" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>105</v>
       </c>
       <c r="BO20" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>73.5</v>
       </c>
       <c r="BP20" s="27">
@@ -3268,95 +3271,95 @@
         <v>2022</v>
       </c>
       <c r="BS20" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>979.60203145499963</v>
       </c>
       <c r="BT20" s="46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>3265.3401048499991</v>
       </c>
       <c r="BU20" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2285.738073394999</v>
       </c>
       <c r="BV20" s="53">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>6530.6802096999982</v>
       </c>
       <c r="BW20" s="12">
-        <f t="shared" ref="BV19:BW43" si="62">BW19*(1+$L$3)</f>
+        <f t="shared" ref="BW20:BW22" si="65">BW19*(1+$L$3)</f>
         <v>6300.9033089999984</v>
       </c>
       <c r="BX20" s="4">
         <v>2022</v>
       </c>
       <c r="BY20" s="46">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1095.9686897549996</v>
       </c>
       <c r="BZ20" s="46">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>3653.228965849999</v>
       </c>
       <c r="CA20" s="46">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2557.260276094999</v>
       </c>
       <c r="CB20" s="53">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>7306.457931699998</v>
       </c>
       <c r="CC20" s="12">
-        <f t="shared" ref="CB20:CC43" si="63">CC19*(1+$L$3)</f>
+        <f t="shared" ref="CC20:CC43" si="66">CC19*(1+$L$3)</f>
         <v>7076.6810309999983</v>
       </c>
       <c r="CD20" s="4">
         <v>2022</v>
       </c>
       <c r="CE20" s="46">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1197.8276938049996</v>
       </c>
       <c r="CF20" s="46">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>3992.7589793499988</v>
       </c>
       <c r="CG20" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>2794.9312855449989</v>
       </c>
-      <c r="CH20" s="53">
-        <f t="shared" si="54"/>
+      <c r="CH20" s="54">
+        <f t="shared" si="56"/>
         <v>7985.5179586999975</v>
       </c>
       <c r="CI20" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>7755.7410579999978</v>
       </c>
       <c r="CJ20" s="4">
         <v>2022</v>
       </c>
       <c r="CK20" s="46">
-        <f t="shared" si="56"/>
-        <v>1027.6905087915686</v>
+        <f t="shared" si="58"/>
+        <v>1050.4604690549997</v>
       </c>
       <c r="CL20" s="46">
-        <f t="shared" si="57"/>
-        <v>3425.6350293052287</v>
+        <f t="shared" si="59"/>
+        <v>3501.5348968499993</v>
       </c>
       <c r="CM20" s="46">
-        <f t="shared" si="58"/>
-        <v>2397.9445205136599</v>
-      </c>
-      <c r="CN20" s="12">
-        <f t="shared" ref="CN20:CO43" si="64">CN19*(1+$L$3)</f>
-        <v>6851.2700586104575</v>
+        <f t="shared" si="60"/>
+        <v>2451.0744277949993</v>
+      </c>
+      <c r="CN20" s="54">
+        <f t="shared" si="61"/>
+        <v>7003.0697936999986</v>
       </c>
       <c r="CO20" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="CN20:CO43" si="67">CO19*(1+$L$3)</f>
         <v>6773.2928929999989</v>
       </c>
-      <c r="CS20" s="73">
+      <c r="CS20" s="55">
         <v>229.7769007</v>
       </c>
     </row>
@@ -3405,7 +3408,7 @@
         <v>4774.6927065036389</v>
       </c>
       <c r="O21" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>4468.3235056036392</v>
       </c>
       <c r="P21" s="4">
@@ -3428,7 +3431,7 @@
         <v>4133.8793351539989</v>
       </c>
       <c r="U21" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>3827.5101342539988</v>
       </c>
       <c r="V21" s="4">
@@ -3474,114 +3477,114 @@
         <v>4466.7063033499981</v>
       </c>
       <c r="AG21" s="12">
-        <f>AG20*(1+$L$3)</f>
+        <f t="shared" si="19"/>
         <v>4160.3371024499984</v>
       </c>
       <c r="AH21" s="4">
         <v>2023</v>
       </c>
       <c r="AI21" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>966.46848569189967</v>
       </c>
       <c r="AJ21" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3221.561618972999</v>
       </c>
       <c r="AK21" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2255.0931332810992</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6443.123237945998</v>
       </c>
       <c r="AM21" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6136.7540370459983</v>
       </c>
       <c r="AN21" s="4">
         <v>2023</v>
       </c>
       <c r="AO21" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>817.77495591914965</v>
       </c>
       <c r="AP21" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2725.9165197304987</v>
       </c>
       <c r="AQ21" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1908.141563811349</v>
       </c>
       <c r="AR21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5451.8330394609975</v>
       </c>
       <c r="AS21" s="12">
-        <f>AS20*(1+$L$3)</f>
+        <f t="shared" si="29"/>
         <v>5145.4638385609978</v>
       </c>
       <c r="AT21" s="4">
         <v>2023</v>
       </c>
       <c r="AU21" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>717.61869234164976</v>
       </c>
       <c r="AV21" s="46">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2392.0623078054991</v>
       </c>
       <c r="AW21" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1674.4436154638493</v>
       </c>
       <c r="AX21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4784.1246156109983</v>
       </c>
       <c r="AY21" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4477.7554147109986</v>
       </c>
       <c r="AZ21" s="4">
         <v>2023</v>
       </c>
       <c r="BA21" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>628.40257447799968</v>
       </c>
       <c r="BB21" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2094.6752482599991</v>
       </c>
       <c r="BC21" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1466.2726737819992</v>
       </c>
       <c r="BD21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4189.3504965199982</v>
       </c>
       <c r="BE21" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>3882.9812956199985</v>
       </c>
       <c r="BF21" s="4">
         <v>2023</v>
       </c>
       <c r="BG21" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>6.9834900000000006</v>
       </c>
       <c r="BH21" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>23.278300000000002</v>
       </c>
       <c r="BI21" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>16.294810000000002</v>
       </c>
       <c r="BJ21" s="27">
@@ -3591,15 +3594,15 @@
         <v>2023</v>
       </c>
       <c r="BM21" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>42</v>
       </c>
       <c r="BN21" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>140</v>
       </c>
       <c r="BO21" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>98</v>
       </c>
       <c r="BP21" s="27">
@@ -3609,95 +3612,95 @@
         <v>2023</v>
       </c>
       <c r="BS21" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>999.59709595214952</v>
       </c>
       <c r="BT21" s="46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>3331.9903198404986</v>
       </c>
       <c r="BU21" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2332.393223888349</v>
       </c>
       <c r="BV21" s="53">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>6663.9806396809972</v>
       </c>
       <c r="BW21" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>6357.6114387809976</v>
       </c>
       <c r="BX21" s="4">
         <v>2023</v>
       </c>
       <c r="BY21" s="46">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1117.0110541768495</v>
       </c>
       <c r="BZ21" s="46">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>3723.3701805894984</v>
       </c>
       <c r="CA21" s="46">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2606.3591264126489</v>
       </c>
       <c r="CB21" s="53">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>7446.7403611789969</v>
       </c>
       <c r="CC21" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>7140.3711602789972</v>
       </c>
       <c r="CD21" s="4">
         <v>2023</v>
       </c>
       <c r="CE21" s="46">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1219.7867892632994</v>
       </c>
       <c r="CF21" s="46">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>4065.9559642109984</v>
       </c>
       <c r="CG21" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>2846.1691749476986</v>
       </c>
-      <c r="CH21" s="53">
-        <f t="shared" si="54"/>
+      <c r="CH21" s="54">
+        <f t="shared" si="56"/>
         <v>8131.9119284219969</v>
       </c>
       <c r="CI21" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>7825.5427275219972</v>
       </c>
       <c r="CJ21" s="4">
         <v>2023</v>
       </c>
       <c r="CK21" s="46">
-        <f t="shared" si="56"/>
-        <v>1036.9397233706925</v>
+        <f t="shared" si="58"/>
+        <v>1071.0932594905496</v>
       </c>
       <c r="CL21" s="46">
-        <f t="shared" si="57"/>
-        <v>3456.4657445689754</v>
+        <f t="shared" si="59"/>
+        <v>3570.3108649684991</v>
       </c>
       <c r="CM21" s="46">
-        <f t="shared" si="58"/>
-        <v>2419.5260211982827</v>
-      </c>
-      <c r="CN21" s="12">
-        <f t="shared" si="64"/>
-        <v>6912.9314891379508</v>
+        <f t="shared" si="60"/>
+        <v>2499.2176054779493</v>
+      </c>
+      <c r="CN21" s="54">
+        <f t="shared" si="61"/>
+        <v>7140.6217299369982</v>
       </c>
       <c r="CO21" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>6834.2525290369986</v>
       </c>
-      <c r="CS21" s="73">
+      <c r="CS21" s="55">
         <v>306.36920090000001</v>
       </c>
     </row>
@@ -3746,7 +3749,7 @@
         <v>4891.4999182540714</v>
       </c>
       <c r="O22" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>4508.5384171540718</v>
       </c>
       <c r="P22" s="4">
@@ -3769,7 +3772,7 @@
         <v>4244.9192265622842</v>
       </c>
       <c r="U22" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>3861.9577254622845</v>
       </c>
       <c r="V22" s="4">
@@ -3815,114 +3818,114 @@
         <v>4580.7416374720478</v>
       </c>
       <c r="AG22" s="12">
-        <f>AG21*(1+$L$3)</f>
+        <f t="shared" si="19"/>
         <v>4197.7801363720482</v>
       </c>
       <c r="AH22" s="4">
         <v>2024</v>
       </c>
       <c r="AI22" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>986.2419486719117</v>
       </c>
       <c r="AJ22" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3287.4731622397057</v>
       </c>
       <c r="AK22" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2301.2312135677939</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6574.9463244794115</v>
       </c>
       <c r="AM22" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6191.9848233794119</v>
       </c>
       <c r="AN22" s="4">
         <v>2024</v>
       </c>
       <c r="AO22" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>836.21017713120682</v>
       </c>
       <c r="AP22" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2787.3672571040229</v>
       </c>
       <c r="AQ22" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1951.1570799728158</v>
       </c>
       <c r="AR22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5574.7345142080458</v>
       </c>
       <c r="AS22" s="12">
-        <f>AS21*(1+$L$3)</f>
+        <f t="shared" si="29"/>
         <v>5191.7730131080461</v>
       </c>
       <c r="AT22" s="4">
         <v>2024</v>
       </c>
       <c r="AU22" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>735.15250718150958</v>
       </c>
       <c r="AV22" s="46">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2450.5083572716985</v>
       </c>
       <c r="AW22" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1715.3558500901888</v>
       </c>
       <c r="AX22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4901.016714543397</v>
       </c>
       <c r="AY22" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4518.0552134433974</v>
       </c>
       <c r="AZ22" s="4">
         <v>2024</v>
       </c>
       <c r="BA22" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>645.13344425708669</v>
       </c>
       <c r="BB22" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2150.444814190289</v>
       </c>
       <c r="BC22" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1505.3113699332023</v>
       </c>
       <c r="BD22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4300.889628380578</v>
       </c>
       <c r="BE22" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>3917.9281272805779</v>
       </c>
       <c r="BF22" s="4">
         <v>2024</v>
       </c>
       <c r="BG22" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>8.7293625000000006</v>
       </c>
       <c r="BH22" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>29.097875000000002</v>
       </c>
       <c r="BI22" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>20.368512500000001</v>
       </c>
       <c r="BJ22" s="27">
@@ -3932,15 +3935,15 @@
         <v>2024</v>
       </c>
       <c r="BM22" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>52.5</v>
       </c>
       <c r="BN22" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>175</v>
       </c>
       <c r="BO22" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>122.49999999999999</v>
       </c>
       <c r="BP22" s="27">
@@ -3950,95 +3953,95 @@
         <v>2024</v>
       </c>
       <c r="BS22" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1019.6687164245038</v>
       </c>
       <c r="BT22" s="46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>3398.8957214150128</v>
       </c>
       <c r="BU22" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2379.2270049905087</v>
       </c>
       <c r="BV22" s="53">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>6797.7914428300255</v>
       </c>
       <c r="BW22" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>6414.8299417300259</v>
       </c>
       <c r="BX22" s="4">
         <v>2024</v>
       </c>
       <c r="BY22" s="46">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1138.1394002732261</v>
       </c>
       <c r="BZ22" s="46">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>3793.7980009107537</v>
       </c>
       <c r="CA22" s="46">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2655.6586006375273</v>
       </c>
       <c r="CB22" s="53">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>7587.5960018215073</v>
       </c>
       <c r="CC22" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>7204.6345007215077</v>
       </c>
       <c r="CD22" s="4">
         <v>2024</v>
       </c>
       <c r="CE22" s="46">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1241.8401169754541</v>
       </c>
       <c r="CF22" s="46">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>4139.4670565848473</v>
       </c>
       <c r="CG22" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>2897.626939609393</v>
       </c>
-      <c r="CH22" s="53">
-        <f t="shared" si="54"/>
+      <c r="CH22" s="54">
+        <f t="shared" si="56"/>
         <v>8278.9341131696947</v>
       </c>
       <c r="CI22" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>7895.9726120696942</v>
       </c>
       <c r="CJ22" s="4">
         <v>2024</v>
       </c>
       <c r="CK22" s="46">
-        <f t="shared" si="56"/>
-        <v>1046.2721808810288</v>
+        <f t="shared" si="58"/>
+        <v>1091.8083454347495</v>
       </c>
       <c r="CL22" s="46">
-        <f t="shared" si="57"/>
-        <v>3487.5739362700961</v>
+        <f t="shared" si="59"/>
+        <v>3639.3611514491654</v>
       </c>
       <c r="CM22" s="46">
-        <f t="shared" si="58"/>
-        <v>2441.3017553890672</v>
-      </c>
-      <c r="CN22" s="12">
-        <f t="shared" si="64"/>
-        <v>6975.1478725401921</v>
+        <f t="shared" si="60"/>
+        <v>2547.5528060144156</v>
+      </c>
+      <c r="CN22" s="54">
+        <f t="shared" si="61"/>
+        <v>7278.7223028983308</v>
       </c>
       <c r="CO22" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>6895.7608017983312</v>
       </c>
-      <c r="CS22" s="73">
+      <c r="CS22" s="55">
         <v>382.96150110000002</v>
       </c>
     </row>
@@ -4087,7 +4090,7 @@
         <v>5008.6690643084585</v>
       </c>
       <c r="O23" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>4549.1152629084581</v>
       </c>
       <c r="P23" s="4">
@@ -4110,7 +4113,7 @@
         <v>4356.2691463914452</v>
       </c>
       <c r="U23" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>3896.7153449914449</v>
       </c>
       <c r="V23" s="4">
@@ -4156,114 +4159,114 @@
         <v>4695.1139589993963</v>
       </c>
       <c r="AG23" s="12">
-        <f>AG22*(1+$L$3)</f>
+        <f t="shared" si="19"/>
         <v>4235.560157599396</v>
       </c>
       <c r="AH23" s="4">
         <v>2025</v>
       </c>
       <c r="AI23" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1006.0899732284739</v>
       </c>
       <c r="AJ23" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3353.6332440949132</v>
       </c>
       <c r="AK23" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2347.5432708664389</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6707.2664881898263</v>
       </c>
       <c r="AM23" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6247.712686789826</v>
       </c>
       <c r="AN23" s="4">
         <v>2025</v>
       </c>
       <c r="AO23" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>854.70791574390273</v>
       </c>
       <c r="AP23" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2849.0263858130093</v>
       </c>
       <c r="AQ23" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1994.3184700691063</v>
       </c>
       <c r="AR23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5698.0527716260185</v>
       </c>
       <c r="AS23" s="12">
-        <f>AS22*(1+$L$3)</f>
+        <f t="shared" si="29"/>
         <v>5238.4989702260182</v>
       </c>
       <c r="AT23" s="4">
         <v>2025</v>
       </c>
       <c r="AU23" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>752.74072676465812</v>
       </c>
       <c r="AV23" s="46">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2509.1357558821937</v>
       </c>
       <c r="AW23" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1756.3950291175356</v>
       </c>
       <c r="AX23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5018.2715117643875</v>
       </c>
       <c r="AY23" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4558.7177103643871</v>
       </c>
       <c r="AZ23" s="4">
         <v>2025</v>
       </c>
       <c r="BA23" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>661.91149227391543</v>
       </c>
       <c r="BB23" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2206.3716409130516</v>
       </c>
       <c r="BC23" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1544.4601486391359</v>
       </c>
       <c r="BD23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4412.7432818261032</v>
       </c>
       <c r="BE23" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>3953.1894804261028</v>
       </c>
       <c r="BF23" s="4">
         <v>2025</v>
       </c>
       <c r="BG23" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10.475235</v>
       </c>
       <c r="BH23" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>34.917450000000002</v>
       </c>
       <c r="BI23" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>24.442215000000001</v>
       </c>
       <c r="BJ23" s="27">
@@ -4273,15 +4276,15 @@
         <v>2025</v>
       </c>
       <c r="BM23" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>63</v>
       </c>
       <c r="BN23" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>210</v>
       </c>
       <c r="BO23" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>147</v>
       </c>
       <c r="BP23" s="27">
@@ -4291,95 +4294,95 @@
         <v>2025</v>
       </c>
       <c r="BS23" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1039.8175818908394</v>
       </c>
       <c r="BT23" s="46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>3466.0586063027981</v>
       </c>
       <c r="BU23" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2426.2410244119587</v>
       </c>
       <c r="BV23" s="53">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>6932.1172126055963</v>
       </c>
       <c r="BW23" s="12">
-        <f t="shared" ref="BW23:BW43" si="65">BW22*(1+$L$3)</f>
+        <f t="shared" ref="BW23:BW43" si="68">BW22*(1+$L$3)</f>
         <v>6472.5634112055959</v>
       </c>
       <c r="BX23" s="4">
         <v>2025</v>
       </c>
       <c r="BY23" s="46">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1159.3545018942</v>
       </c>
       <c r="BZ23" s="46">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>3864.5150063140004</v>
       </c>
       <c r="CA23" s="46">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2705.1605044198</v>
       </c>
       <c r="CB23" s="53">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>7729.0300126280008</v>
       </c>
       <c r="CC23" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>7269.4762112280005</v>
       </c>
       <c r="CD23" s="4">
         <v>2025</v>
       </c>
       <c r="CE23" s="46">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1263.988525046748</v>
       </c>
       <c r="CF23" s="46">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>4213.2950834891599</v>
       </c>
       <c r="CG23" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>2949.3065584424116</v>
       </c>
-      <c r="CH23" s="53">
-        <f t="shared" si="54"/>
+      <c r="CH23" s="54">
+        <f t="shared" si="56"/>
         <v>8426.5901669783198</v>
       </c>
       <c r="CI23" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>7967.0363655783203</v>
       </c>
       <c r="CJ23" s="4">
         <v>2025</v>
       </c>
       <c r="CK23" s="46">
-        <f t="shared" si="56"/>
-        <v>1055.6886305089579</v>
+        <f t="shared" si="58"/>
+        <v>1112.6064675621774</v>
       </c>
       <c r="CL23" s="46">
-        <f t="shared" si="57"/>
-        <v>3518.9621016965266</v>
+        <f t="shared" si="59"/>
+        <v>3708.6882252072578</v>
       </c>
       <c r="CM23" s="46">
-        <f t="shared" si="58"/>
-        <v>2463.2734711875682</v>
-      </c>
-      <c r="CN23" s="12">
-        <f t="shared" si="64"/>
-        <v>7037.9242033930532</v>
+        <f t="shared" si="60"/>
+        <v>2596.0817576450804</v>
+      </c>
+      <c r="CN23" s="54">
+        <f t="shared" si="61"/>
+        <v>7417.3764504145156</v>
       </c>
       <c r="CO23" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>6957.8226490145153</v>
       </c>
-      <c r="CS23" s="73">
+      <c r="CS23" s="55">
         <v>459.5538014</v>
       </c>
     </row>
@@ -4428,7 +4431,7 @@
         <v>5126.2034018746344</v>
       </c>
       <c r="O24" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>4590.0573002746341</v>
       </c>
       <c r="P24" s="4">
@@ -4451,7 +4454,7 @@
         <v>4467.9318846963679</v>
       </c>
       <c r="U24" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>3931.7857830963676</v>
       </c>
       <c r="V24" s="4">
@@ -4497,114 +4500,114 @@
         <v>4809.8263006177904</v>
       </c>
       <c r="AG24" s="12">
-        <f>AG23*(1+$L$3)</f>
+        <f t="shared" si="19"/>
         <v>4273.6801990177901</v>
       </c>
       <c r="AH24" s="4">
         <v>2026</v>
       </c>
       <c r="AI24" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1026.0132303856401</v>
       </c>
       <c r="AJ24" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3420.0441012854671</v>
       </c>
       <c r="AK24" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2394.0308708998268</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6840.0882025709343</v>
       </c>
       <c r="AM24" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6303.942100970934</v>
       </c>
       <c r="AN24" s="4">
         <v>2026</v>
       </c>
       <c r="AO24" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>873.26873438370774</v>
       </c>
       <c r="AP24" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2910.8957812790259</v>
       </c>
       <c r="AQ24" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2037.627046895318</v>
       </c>
       <c r="AR24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5821.7915625580517</v>
       </c>
       <c r="AS24" s="12">
-        <f>AS23*(1+$L$3)</f>
+        <f t="shared" si="29"/>
         <v>5285.6454609580514</v>
       </c>
       <c r="AT24" s="4">
         <v>2026</v>
       </c>
       <c r="AU24" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>770.38384070364998</v>
       </c>
       <c r="AV24" s="46">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2567.9461356788333</v>
       </c>
       <c r="AW24" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1797.5622949751832</v>
       </c>
       <c r="AX24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5135.8922713576667</v>
       </c>
       <c r="AY24" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4599.7461697576664</v>
       </c>
       <c r="AZ24" s="4">
         <v>2026</v>
       </c>
       <c r="BA24" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>678.73714310249068</v>
       </c>
       <c r="BB24" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2262.4571436749688</v>
       </c>
       <c r="BC24" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1583.7200005724781</v>
       </c>
       <c r="BD24">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4524.9142873499377</v>
       </c>
       <c r="BE24" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>3988.7681857499374</v>
       </c>
       <c r="BF24" s="4">
         <v>2026</v>
       </c>
       <c r="BG24" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>12.2211075</v>
       </c>
       <c r="BH24" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>40.737025000000003</v>
       </c>
       <c r="BI24" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>28.5159175</v>
       </c>
       <c r="BJ24" s="27">
@@ -4614,15 +4617,15 @@
         <v>2026</v>
       </c>
       <c r="BM24" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>73.5</v>
       </c>
       <c r="BN24" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>245</v>
       </c>
       <c r="BO24" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>171.5</v>
       </c>
       <c r="BP24" s="27">
@@ -4632,95 +4635,95 @@
         <v>2026</v>
       </c>
       <c r="BS24" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1060.0443875259668</v>
       </c>
       <c r="BT24" s="46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>3533.4812917532231</v>
       </c>
       <c r="BU24" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2473.436904227256</v>
       </c>
       <c r="BV24" s="53">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>7066.9625835064462</v>
       </c>
       <c r="BW24" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>6530.8164819064459</v>
       </c>
       <c r="BX24" s="4">
         <v>2026</v>
       </c>
       <c r="BY24" s="46">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1180.6571398093577</v>
       </c>
       <c r="BZ24" s="46">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>3935.523799364526</v>
       </c>
       <c r="CA24" s="46">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2754.8666595551681</v>
       </c>
       <c r="CB24" s="53">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>7871.047598729052</v>
       </c>
       <c r="CC24" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>7334.9014971290517</v>
       </c>
       <c r="CD24" s="4">
         <v>2026</v>
       </c>
       <c r="CE24" s="46">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1286.2328691702785</v>
       </c>
       <c r="CF24" s="46">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>4287.4428972342621</v>
       </c>
       <c r="CG24" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>3001.2100280639834</v>
       </c>
-      <c r="CH24" s="53">
-        <f t="shared" si="54"/>
+      <c r="CH24" s="54">
+        <f t="shared" si="56"/>
         <v>8574.8857944685242</v>
       </c>
       <c r="CI24" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>8038.7396928685248</v>
       </c>
       <c r="CJ24" s="4">
         <v>2026</v>
       </c>
       <c r="CK24" s="46">
-        <f t="shared" si="56"/>
-        <v>1065.1898281835383</v>
+        <f t="shared" si="58"/>
+        <v>1133.4883731683467</v>
       </c>
       <c r="CL24" s="46">
-        <f t="shared" si="57"/>
-        <v>3550.6327606117948</v>
+        <f t="shared" si="59"/>
+        <v>3778.2945772278226</v>
       </c>
       <c r="CM24" s="46">
-        <f t="shared" si="58"/>
-        <v>2485.442932428256</v>
-      </c>
-      <c r="CN24" s="12">
-        <f t="shared" si="64"/>
-        <v>7101.2655212235895</v>
+        <f t="shared" si="60"/>
+        <v>2644.8062040594755</v>
+      </c>
+      <c r="CN24" s="54">
+        <f t="shared" si="61"/>
+        <v>7556.5891544556453</v>
       </c>
       <c r="CO24" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>7020.443052855645</v>
       </c>
-      <c r="CS24" s="73">
+      <c r="CS24" s="55">
         <v>536.14610159999995</v>
       </c>
     </row>
@@ -4769,7 +4772,7 @@
         <v>5244.1062177771055</v>
       </c>
       <c r="O25" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>4631.3678159771052</v>
       </c>
       <c r="P25" s="4">
@@ -4792,7 +4795,7 @@
         <v>4579.9102569442348</v>
       </c>
       <c r="U25" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>3967.1718551442345</v>
       </c>
       <c r="V25" s="4">
@@ -4838,114 +4841,114 @@
         <v>4924.8817226089504</v>
       </c>
       <c r="AG25" s="12">
-        <f>AG24*(1+$L$3)</f>
+        <f t="shared" si="19"/>
         <v>4312.1433208089502</v>
       </c>
       <c r="AH25" s="4">
         <v>2027</v>
       </c>
       <c r="AI25" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1046.0123972519507</v>
       </c>
       <c r="AJ25" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3486.7079908398359</v>
       </c>
       <c r="AK25" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2440.695593587885</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6973.4159816796719</v>
       </c>
       <c r="AM25" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6360.6775798796716</v>
       </c>
       <c r="AN25" s="4">
         <v>2027</v>
       </c>
       <c r="AO25" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>891.8932007860011</v>
       </c>
       <c r="AP25" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2972.9773359533369</v>
       </c>
       <c r="AQ25" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2081.0841351673357</v>
       </c>
       <c r="AR25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5945.9546719066739</v>
       </c>
       <c r="AS25" s="12">
-        <f>AS24*(1+$L$3)</f>
+        <f t="shared" si="29"/>
         <v>5333.2162701066736</v>
       </c>
       <c r="AT25" s="4">
         <v>2027</v>
       </c>
       <c r="AU25" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>788.08234306282282</v>
       </c>
       <c r="AV25" s="46">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2626.9411435427428</v>
       </c>
       <c r="AW25" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1838.8588004799199</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5253.8822870854856</v>
       </c>
       <c r="AY25" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4641.1438852854853</v>
       </c>
       <c r="AZ25" s="4">
         <v>2027</v>
       </c>
       <c r="BA25" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>695.61082518325304</v>
       </c>
       <c r="BB25" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2318.7027506108434</v>
       </c>
       <c r="BC25" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1623.0919254275902</v>
       </c>
       <c r="BD25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4637.4055012216868</v>
       </c>
       <c r="BE25" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>4024.6670994216865</v>
       </c>
       <c r="BF25" s="4">
         <v>2027</v>
       </c>
       <c r="BG25" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>13.966980000000001</v>
       </c>
       <c r="BH25" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>46.556600000000003</v>
       </c>
       <c r="BI25" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>32.589620000000004</v>
       </c>
       <c r="BJ25" s="27">
@@ -4955,15 +4958,15 @@
         <v>2027</v>
       </c>
       <c r="BM25" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>84</v>
       </c>
       <c r="BN25" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>280</v>
       </c>
       <c r="BO25" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>196</v>
       </c>
       <c r="BP25" s="27">
@@ -4973,95 +4976,95 @@
         <v>2027</v>
       </c>
       <c r="BS25" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1080.3498348065405</v>
       </c>
       <c r="BT25" s="46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>3601.1661160218018</v>
       </c>
       <c r="BU25" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2520.8162812152609</v>
       </c>
       <c r="BV25" s="53">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>7202.3322320436037</v>
       </c>
       <c r="BW25" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>6589.5938302436034</v>
       </c>
       <c r="BX25" s="4">
         <v>2027</v>
       </c>
       <c r="BY25" s="46">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1202.0481018604819</v>
       </c>
       <c r="BZ25" s="46">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>4006.8270062016063</v>
       </c>
       <c r="CA25" s="46">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2804.7789043411244</v>
       </c>
       <c r="CB25" s="53">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>8013.6540124032126</v>
       </c>
       <c r="CC25" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>7400.9156106032124</v>
       </c>
       <c r="CD25" s="4">
         <v>2027</v>
       </c>
       <c r="CE25" s="46">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1308.5740127856509</v>
       </c>
       <c r="CF25" s="46">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>4361.9133759521701</v>
       </c>
       <c r="CG25" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>3053.339363166519</v>
       </c>
-      <c r="CH25" s="53">
-        <f t="shared" si="54"/>
+      <c r="CH25" s="54">
+        <f t="shared" si="56"/>
         <v>8723.8267519043402</v>
       </c>
       <c r="CI25" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>8111.0883501043409</v>
       </c>
       <c r="CJ25" s="4">
         <v>2027</v>
       </c>
       <c r="CK25" s="46">
-        <f t="shared" si="56"/>
-        <v>1074.77653663719</v>
+        <f t="shared" si="58"/>
+        <v>1154.4548163197016</v>
       </c>
       <c r="CL25" s="46">
-        <f t="shared" si="57"/>
-        <v>3582.5884554573004</v>
+        <f t="shared" si="59"/>
+        <v>3848.1827210656725</v>
       </c>
       <c r="CM25" s="46">
-        <f t="shared" si="58"/>
-        <v>2507.8119188201099</v>
-      </c>
-      <c r="CN25" s="12">
-        <f t="shared" si="64"/>
-        <v>7165.1769109146007</v>
+        <f t="shared" si="60"/>
+        <v>2693.7279047459706</v>
+      </c>
+      <c r="CN25" s="54">
+        <f t="shared" si="61"/>
+        <v>7696.3654421313449</v>
       </c>
       <c r="CO25" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>7083.6270403313447</v>
       </c>
-      <c r="CS25" s="73">
+      <c r="CS25" s="55">
         <v>612.73840180000002</v>
       </c>
     </row>
@@ -5110,7 +5113,7 @@
         <v>5362.380828420899</v>
       </c>
       <c r="O26" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>4673.0501263208989</v>
       </c>
       <c r="P26" s="4">
@@ -5133,7 +5136,7 @@
         <v>4692.2071039405328</v>
       </c>
       <c r="U26" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>4002.8764018405323</v>
       </c>
       <c r="V26" s="4">
@@ -5179,114 +5182,114 @@
         <v>5040.2833127962303</v>
       </c>
       <c r="AG26" s="12">
-        <f>AG25*(1+$L$3)</f>
+        <f t="shared" si="19"/>
         <v>4350.9526106962303</v>
       </c>
       <c r="AH26" s="4">
         <v>2028</v>
       </c>
       <c r="AI26" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1066.0881570297881</v>
       </c>
       <c r="AJ26" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3553.6271900992942</v>
       </c>
       <c r="AK26" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2487.5390330695059</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7107.2543801985885</v>
       </c>
       <c r="AM26" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6417.9236780985884</v>
       </c>
       <c r="AN26" s="4">
         <v>2028</v>
       </c>
       <c r="AO26" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>910.58188779564489</v>
       </c>
       <c r="AP26" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3035.2729593188164</v>
       </c>
       <c r="AQ26" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2124.6910715231716</v>
       </c>
       <c r="AR26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6070.5459186376329</v>
       </c>
       <c r="AS26" s="12">
-        <f>AS25*(1+$L$3)</f>
+        <f t="shared" si="29"/>
         <v>5381.2152165376328</v>
       </c>
       <c r="AT26" s="4">
         <v>2028</v>
       </c>
       <c r="AU26" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>805.83673235295805</v>
       </c>
       <c r="AV26" s="46">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2686.122441176527</v>
       </c>
       <c r="AW26" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1880.2857088235687</v>
       </c>
       <c r="AX26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5372.244882353054</v>
       </c>
       <c r="AY26" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4682.9141802530539</v>
       </c>
       <c r="AZ26" s="4">
         <v>2028</v>
       </c>
       <c r="BA26" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>712.53297081247229</v>
       </c>
       <c r="BB26" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2375.109902708241</v>
       </c>
       <c r="BC26" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1662.5769318957687</v>
       </c>
       <c r="BD26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4750.2198054164819</v>
       </c>
       <c r="BE26" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>4060.8891033164814</v>
       </c>
       <c r="BF26" s="4">
         <v>2028</v>
       </c>
       <c r="BG26" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>15.7128525</v>
       </c>
       <c r="BH26" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>52.376175000000003</v>
       </c>
       <c r="BI26" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>36.6633225</v>
       </c>
       <c r="BJ26" s="27">
@@ -5296,15 +5299,15 @@
         <v>2028</v>
       </c>
       <c r="BM26" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>94.5</v>
       </c>
       <c r="BN26" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>315</v>
       </c>
       <c r="BO26" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>220.5</v>
       </c>
       <c r="BP26" s="27">
@@ -5314,95 +5317,95 @@
         <v>2028</v>
       </c>
       <c r="BS26" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1100.7346315223692</v>
       </c>
       <c r="BT26" s="46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>3669.1154384078977</v>
       </c>
       <c r="BU26" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2568.3808068855283</v>
       </c>
       <c r="BV26" s="53">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>7338.2308768157955</v>
       </c>
       <c r="BW26" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>6648.9001747157954</v>
       </c>
       <c r="BX26" s="4">
         <v>2028</v>
       </c>
       <c r="BY26" s="46">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1223.5281829797959</v>
       </c>
       <c r="BZ26" s="46">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>4078.4272765993201</v>
       </c>
       <c r="CA26" s="46">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2854.8990936195237</v>
       </c>
       <c r="CB26" s="53">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>8156.8545531986401</v>
       </c>
       <c r="CC26" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>7467.5238510986401</v>
       </c>
       <c r="CD26" s="4">
         <v>2028</v>
       </c>
       <c r="CE26" s="46">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1331.0128271032918</v>
       </c>
       <c r="CF26" s="46">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>4436.7094236776393</v>
       </c>
       <c r="CG26" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>3105.6965965743475</v>
       </c>
-      <c r="CH26" s="53">
-        <f t="shared" si="54"/>
+      <c r="CH26" s="54">
+        <f t="shared" si="56"/>
         <v>8873.4188473552786</v>
       </c>
       <c r="CI26" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>8184.0881452552794</v>
       </c>
       <c r="CJ26" s="4">
         <v>2028</v>
       </c>
       <c r="CK26" s="46">
-        <f t="shared" si="56"/>
-        <v>1084.4495254669248</v>
+        <f t="shared" si="58"/>
+        <v>1175.5065578691488</v>
       </c>
       <c r="CL26" s="46">
-        <f t="shared" si="57"/>
-        <v>3614.8317515564158</v>
+        <f t="shared" si="59"/>
+        <v>3918.3551928971629</v>
       </c>
       <c r="CM26" s="46">
-        <f t="shared" si="58"/>
-        <v>2530.3822260894908</v>
-      </c>
-      <c r="CN26" s="12">
-        <f t="shared" si="64"/>
-        <v>7229.6635031128317</v>
+        <f t="shared" si="60"/>
+        <v>2742.8486350280136</v>
+      </c>
+      <c r="CN26" s="54">
+        <f t="shared" si="61"/>
+        <v>7836.7103857943257</v>
       </c>
       <c r="CO26" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>7147.3796836943256</v>
       </c>
-      <c r="CS26" s="73">
+      <c r="CS26" s="55">
         <v>689.33070210000005</v>
       </c>
     </row>
@@ -5451,7 +5454,7 @@
         <v>5481.0305797577867</v>
       </c>
       <c r="O27" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>4715.1075774577866</v>
       </c>
       <c r="P27" s="4">
@@ -5474,7 +5477,7 @@
         <v>4804.8252917570971</v>
       </c>
       <c r="U27" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>4038.9022894570967</v>
       </c>
       <c r="V27" s="4">
@@ -5520,114 +5523,114 @@
         <v>5156.0341864924958</v>
       </c>
       <c r="AG27" s="12">
-        <f>AG26*(1+$L$3)</f>
+        <f t="shared" si="19"/>
         <v>4390.1111841924958</v>
       </c>
       <c r="AH27" s="4">
         <v>2029</v>
       </c>
       <c r="AI27" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1086.2411990252212</v>
       </c>
       <c r="AJ27" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3620.8039967507375</v>
       </c>
       <c r="AK27" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2534.5627977255162</v>
       </c>
       <c r="AL27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7241.607993501475</v>
       </c>
       <c r="AM27" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6475.684991201475</v>
       </c>
       <c r="AN27" s="4">
         <v>2029</v>
       </c>
       <c r="AO27" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>929.33537336797065</v>
       </c>
       <c r="AP27" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3097.7845778932356</v>
       </c>
       <c r="AQ27" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2168.4492045252646</v>
       </c>
       <c r="AR27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6195.5691557864711</v>
       </c>
       <c r="AS27" s="12">
-        <f>AS26*(1+$L$3)</f>
+        <f t="shared" si="29"/>
         <v>5429.6461534864711</v>
       </c>
       <c r="AT27" s="4">
         <v>2029</v>
       </c>
       <c r="AU27" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>823.6475115262997</v>
       </c>
       <c r="AV27" s="46">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2745.4917050876657</v>
       </c>
       <c r="AW27" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1921.8441935613657</v>
       </c>
       <c r="AX27">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5490.9834101753313</v>
       </c>
       <c r="AY27" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4725.0604078753313</v>
       </c>
       <c r="AZ27" s="4">
         <v>2029</v>
       </c>
       <c r="BA27" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>729.50401613194936</v>
       </c>
       <c r="BB27" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2431.6800537731647</v>
       </c>
       <c r="BC27" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1702.1760376412151</v>
       </c>
       <c r="BD27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4863.3601075463293</v>
       </c>
       <c r="BE27" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>4097.4371052463293</v>
       </c>
       <c r="BF27" s="4">
         <v>2029</v>
       </c>
       <c r="BG27" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>17.458725000000001</v>
       </c>
       <c r="BH27" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>58.195750000000004</v>
       </c>
       <c r="BI27" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>40.737025000000003</v>
       </c>
       <c r="BJ27" s="27">
@@ -5637,15 +5640,15 @@
         <v>2029</v>
       </c>
       <c r="BM27" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>105</v>
       </c>
       <c r="BN27" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>350</v>
       </c>
       <c r="BO27" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>244.99999999999997</v>
       </c>
       <c r="BP27" s="27">
@@ -5655,95 +5658,95 @@
         <v>2029</v>
       </c>
       <c r="BS27" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1121.1994917882355</v>
       </c>
       <c r="BT27" s="46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>3737.3316392941183</v>
       </c>
       <c r="BU27" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2616.1321475058826</v>
       </c>
       <c r="BV27" s="53">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>7474.6632785882366</v>
       </c>
       <c r="BW27" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>6708.7402762882366</v>
       </c>
       <c r="BX27" s="4">
         <v>2029</v>
       </c>
       <c r="BY27" s="46">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1245.0981852087789</v>
       </c>
       <c r="BZ27" s="46">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>4150.327284029263</v>
       </c>
       <c r="CA27" s="46">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2905.2290988204841</v>
       </c>
       <c r="CB27" s="53">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>8300.6545680585259</v>
       </c>
       <c r="CC27" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>7534.7315657585268</v>
       </c>
       <c r="CD27" s="4">
         <v>2029</v>
       </c>
       <c r="CE27" s="46">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1353.5501911293866</v>
       </c>
       <c r="CF27" s="46">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>4511.8339704312884</v>
       </c>
       <c r="CG27" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>3158.2837793019016</v>
       </c>
-      <c r="CH27" s="53">
-        <f t="shared" si="54"/>
+      <c r="CH27" s="54">
+        <f t="shared" si="56"/>
         <v>9023.6679408625769</v>
       </c>
       <c r="CI27" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>8257.7449385625769</v>
       </c>
       <c r="CJ27" s="4">
         <v>2029</v>
       </c>
       <c r="CK27" s="46">
-        <f t="shared" si="56"/>
-        <v>1094.2095711961269</v>
+        <f t="shared" si="58"/>
+        <v>1196.6443654721361</v>
       </c>
       <c r="CL27" s="46">
-        <f t="shared" si="57"/>
-        <v>3647.3652373204231</v>
+        <f t="shared" si="59"/>
+        <v>3988.814551573787</v>
       </c>
       <c r="CM27" s="46">
-        <f t="shared" si="58"/>
-        <v>2553.1556661242962</v>
-      </c>
-      <c r="CN27" s="12">
-        <f t="shared" si="64"/>
-        <v>7294.7304746408463</v>
+        <f t="shared" si="60"/>
+        <v>2792.1701861016509</v>
+      </c>
+      <c r="CN27" s="54">
+        <f t="shared" si="61"/>
+        <v>7977.6291031475739</v>
       </c>
       <c r="CO27" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>7211.7061008475739</v>
       </c>
-      <c r="CS27" s="73">
+      <c r="CS27" s="55">
         <v>765.92300230000001</v>
       </c>
     </row>
@@ -5792,7 +5795,7 @@
         <v>5600.0588481549066</v>
       </c>
       <c r="O28" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>4757.5435456549067</v>
       </c>
       <c r="P28" s="4">
@@ -5815,7 +5818,7 @@
         <v>4917.7677125622104</v>
       </c>
       <c r="U28" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>4075.2524100622099</v>
       </c>
       <c r="V28" s="4">
@@ -5861,114 +5864,114 @@
         <v>5272.1374873502282</v>
       </c>
       <c r="AG28" s="12">
-        <f>AG27*(1+$L$3)</f>
+        <f t="shared" si="19"/>
         <v>4429.6221848502282</v>
       </c>
       <c r="AH28" s="4">
         <v>2030</v>
       </c>
       <c r="AI28" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1106.472218793343</v>
       </c>
       <c r="AJ28" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3688.2407293111437</v>
       </c>
       <c r="AK28" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2581.7685105178002</v>
       </c>
       <c r="AL28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7376.4814586222874</v>
       </c>
       <c r="AM28" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6533.9661561222874</v>
       </c>
       <c r="AN28" s="4">
         <v>2030</v>
       </c>
       <c r="AO28" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>948.15424070517724</v>
       </c>
       <c r="AP28" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3160.5141356839245</v>
       </c>
       <c r="AQ28" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2212.359894978747</v>
       </c>
       <c r="AR28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6321.0282713678489</v>
       </c>
       <c r="AS28" s="12">
-        <f>AS27*(1+$L$3)</f>
+        <f t="shared" si="29"/>
         <v>5478.5129688678489</v>
       </c>
       <c r="AT28" s="4">
         <v>2030</v>
       </c>
       <c r="AU28" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>841.5151881069313</v>
       </c>
       <c r="AV28" s="46">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2805.0506270231044</v>
       </c>
       <c r="AW28" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1963.535438916173</v>
       </c>
       <c r="AX28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5610.1012540462089</v>
       </c>
       <c r="AY28" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4767.5859515462089</v>
       </c>
       <c r="AZ28" s="4">
         <v>2030</v>
       </c>
       <c r="BA28" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>746.52440125403189</v>
       </c>
       <c r="BB28" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2488.4146708467729</v>
       </c>
       <c r="BC28" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1741.8902695927409</v>
       </c>
       <c r="BD28">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4976.8293416935458</v>
       </c>
       <c r="BE28" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>4134.3140391935458</v>
       </c>
       <c r="BF28" s="4">
         <v>2030</v>
       </c>
       <c r="BG28" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>19.204597500000002</v>
       </c>
       <c r="BH28" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>64.015325000000004</v>
       </c>
       <c r="BI28" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>44.810727499999999</v>
       </c>
       <c r="BJ28" s="27">
@@ -5978,15 +5981,15 @@
         <v>2030</v>
       </c>
       <c r="BM28" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>115.5</v>
       </c>
       <c r="BN28" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>385</v>
       </c>
       <c r="BO28" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>269.5</v>
       </c>
       <c r="BP28" s="27">
@@ -5996,95 +5999,95 @@
         <v>2030</v>
       </c>
       <c r="BS28" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1141.7451361912244</v>
       </c>
       <c r="BT28" s="46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>3805.817120637415</v>
       </c>
       <c r="BU28" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2664.0719844461905</v>
       </c>
       <c r="BV28" s="53">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>7611.6342412748299</v>
       </c>
       <c r="BW28" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>6769.11893877483</v>
       </c>
       <c r="BX28" s="4">
         <v>2030</v>
       </c>
       <c r="BY28" s="46">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1266.7589178525529</v>
       </c>
       <c r="BZ28" s="46">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>4222.5297261751766</v>
       </c>
       <c r="CA28" s="46">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2955.7708083226235</v>
       </c>
       <c r="CB28" s="53">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>8445.0594523503532</v>
       </c>
       <c r="CC28" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>7602.5441498503524</v>
       </c>
       <c r="CD28" s="4">
         <v>2030</v>
       </c>
       <c r="CE28" s="46">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1376.1869918264458</v>
       </c>
       <c r="CF28" s="46">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>4587.2899727548192</v>
       </c>
       <c r="CG28" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>3211.1029809283732</v>
       </c>
-      <c r="CH28" s="53">
-        <f t="shared" si="54"/>
+      <c r="CH28" s="54">
+        <f t="shared" si="56"/>
         <v>9174.5799455096385</v>
       </c>
       <c r="CI28" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>8332.0646430096385</v>
       </c>
       <c r="CJ28" s="4">
         <v>2030</v>
       </c>
       <c r="CK28" s="46">
-        <f t="shared" si="56"/>
-        <v>1104.057457336892</v>
+        <f t="shared" si="58"/>
+        <v>1217.86901373828</v>
       </c>
       <c r="CL28" s="46">
-        <f t="shared" si="57"/>
-        <v>3680.1915244563065</v>
+        <f t="shared" si="59"/>
+        <v>4059.5633791276005</v>
       </c>
       <c r="CM28" s="46">
-        <f t="shared" si="58"/>
-        <v>2576.1340671194143</v>
-      </c>
-      <c r="CN28" s="12">
-        <f t="shared" si="64"/>
-        <v>7360.383048912613</v>
+        <f t="shared" si="60"/>
+        <v>2841.69436538932</v>
+      </c>
+      <c r="CN28" s="54">
+        <f t="shared" si="61"/>
+        <v>8119.1267582552009</v>
       </c>
       <c r="CO28" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>7276.611455755201</v>
       </c>
-      <c r="CS28" s="73">
+      <c r="CS28" s="55">
         <v>842.51530249999996</v>
       </c>
     </row>
@@ -6133,7 +6136,7 @@
         <v>5719.4690403658005</v>
       </c>
       <c r="O29" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>4800.3614375658008</v>
       </c>
       <c r="P29" s="4">
@@ -6156,7 +6159,7 @@
         <v>5031.0372845527691</v>
       </c>
       <c r="U29" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>4111.9296817527693</v>
       </c>
       <c r="V29" s="4">
@@ -6202,114 +6205,114 @@
         <v>5388.5963873138799</v>
       </c>
       <c r="AG29" s="12">
-        <f>AG28*(1+$L$3)</f>
+        <f t="shared" si="19"/>
         <v>4469.4887845138801</v>
       </c>
       <c r="AH29" s="4">
         <v>2031</v>
       </c>
       <c r="AI29" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1126.7819181491079</v>
       </c>
       <c r="AJ29" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3755.9397271636935</v>
       </c>
       <c r="AK29" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2629.1578090145854</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7511.8794543273871</v>
       </c>
       <c r="AM29" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6592.7718515273873</v>
       </c>
       <c r="AN29" s="4">
         <v>2031</v>
       </c>
       <c r="AO29" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>967.03907825814883</v>
       </c>
       <c r="AP29" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3223.4635941938295</v>
       </c>
       <c r="AQ29" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2256.4245159356806</v>
       </c>
       <c r="AR29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6446.927188387659</v>
       </c>
       <c r="AS29" s="12">
-        <f>AS28*(1+$L$3)</f>
+        <f t="shared" si="29"/>
         <v>5527.8195855876593</v>
       </c>
       <c r="AT29" s="4">
         <v>2031</v>
       </c>
       <c r="AU29" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>859.44027418651865</v>
       </c>
       <c r="AV29" s="46">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2864.8009139550622</v>
       </c>
       <c r="AW29" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2005.3606397685435</v>
       </c>
       <c r="AX29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5729.6018279101245</v>
       </c>
       <c r="AY29" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4810.4942251101247</v>
       </c>
       <c r="AZ29" s="4">
         <v>2031</v>
       </c>
       <c r="BA29" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>763.59457025194297</v>
       </c>
       <c r="BB29" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2545.3152341731434</v>
       </c>
       <c r="BC29" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1781.7206639212002</v>
       </c>
       <c r="BD29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5090.6304683462868</v>
       </c>
       <c r="BE29" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>4171.522865546287</v>
       </c>
       <c r="BF29" s="4">
         <v>2031</v>
       </c>
       <c r="BG29" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>20.950469999999999</v>
       </c>
       <c r="BH29" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>69.834900000000005</v>
       </c>
       <c r="BI29" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>48.884430000000002</v>
       </c>
       <c r="BJ29" s="27">
@@ -6319,15 +6322,15 @@
         <v>2031</v>
       </c>
       <c r="BM29" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>126</v>
       </c>
       <c r="BN29" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>420</v>
       </c>
       <c r="BO29" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>294</v>
       </c>
       <c r="BP29" s="27">
@@ -6337,95 +6340,95 @@
         <v>2031</v>
       </c>
       <c r="BS29" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1162.3722918035703</v>
       </c>
       <c r="BT29" s="46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>3874.5743060119012</v>
       </c>
       <c r="BU29" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2712.2020142083306</v>
       </c>
       <c r="BV29" s="53">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>7749.1486120238023</v>
       </c>
       <c r="BW29" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>6830.0410092238026</v>
       </c>
       <c r="BX29" s="4">
         <v>2031</v>
       </c>
       <c r="BY29" s="46">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1288.5111974998508</v>
       </c>
       <c r="BZ29" s="46">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>4295.0373249995027</v>
       </c>
       <c r="CA29" s="46">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>3006.5261274996519</v>
       </c>
       <c r="CB29" s="53">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>8590.0746499990055</v>
       </c>
       <c r="CC29" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>7670.9670471990048</v>
       </c>
       <c r="CD29" s="4">
         <v>2031</v>
       </c>
       <c r="CE29" s="46">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1398.9241241395086</v>
       </c>
       <c r="CF29" s="46">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>4663.0804137983623</v>
       </c>
       <c r="CG29" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>3264.1562896588534</v>
       </c>
-      <c r="CH29" s="53">
-        <f t="shared" si="54"/>
+      <c r="CH29" s="54">
+        <f t="shared" si="56"/>
         <v>9326.1608275967246</v>
       </c>
       <c r="CI29" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>8407.053224796724</v>
       </c>
       <c r="CJ29" s="4">
         <v>2031</v>
       </c>
       <c r="CK29" s="46">
-        <f t="shared" si="56"/>
-        <v>1113.9939744529238</v>
+        <f t="shared" si="58"/>
+        <v>1239.1812842485494</v>
       </c>
       <c r="CL29" s="46">
-        <f t="shared" si="57"/>
-        <v>3713.3132481764128</v>
+        <f t="shared" si="59"/>
+        <v>4130.6042808284983</v>
       </c>
       <c r="CM29" s="46">
-        <f t="shared" si="58"/>
-        <v>2599.319273723489</v>
-      </c>
-      <c r="CN29" s="12">
-        <f t="shared" si="64"/>
-        <v>7426.6264963528256</v>
+        <f t="shared" si="60"/>
+        <v>2891.4229965799486</v>
+      </c>
+      <c r="CN29" s="54">
+        <f t="shared" si="61"/>
+        <v>8261.2085616569966</v>
       </c>
       <c r="CO29" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>7342.1009588569968</v>
       </c>
-      <c r="CS29" s="73">
+      <c r="CS29" s="55">
         <v>919.1076028</v>
       </c>
     </row>
@@ -6474,7 +6477,7 @@
         <v>5839.2645935038918</v>
       </c>
       <c r="O30" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>4843.5646905038921</v>
       </c>
       <c r="P30" s="4">
@@ -6497,7 +6500,7 @@
         <v>5144.6369518885431</v>
       </c>
       <c r="U30" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>4148.9370488885434</v>
       </c>
       <c r="V30" s="4">
@@ -6543,114 +6546,114 @@
         <v>5505.4140865745039</v>
       </c>
       <c r="AG30" s="12">
-        <f>AG29*(1+$L$3)</f>
+        <f t="shared" si="19"/>
         <v>4509.7141835745042</v>
       </c>
       <c r="AH30" s="4">
         <v>2032</v>
       </c>
       <c r="AI30" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1147.1710051786699</v>
       </c>
       <c r="AJ30" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3823.9033505955663</v>
       </c>
       <c r="AK30" s="46">
-        <f t="shared" si="21"/>
+